--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="2011">
   <si>
     <t/>
   </si>
@@ -5807,70 +5807,208 @@
     <t>trans0679</t>
   </si>
   <si>
+    <t>地址请求模式</t>
+  </si>
+  <si>
+    <t>Address Request Mode</t>
+  </si>
+  <si>
     <t>trans0680</t>
   </si>
   <si>
+    <t>前缀请求模式</t>
+  </si>
+  <si>
+    <t>Prefix request mode</t>
+  </si>
+  <si>
     <t>trans0681</t>
   </si>
   <si>
+    <t>未知错误</t>
+  </si>
+  <si>
+    <t>Unknown error</t>
+  </si>
+  <si>
     <t>trans0682</t>
   </si>
   <si>
+    <t>请求错误(400)</t>
+  </si>
+  <si>
+    <t>Request error (400)</t>
+  </si>
+  <si>
     <t>trans0683</t>
   </si>
   <si>
+    <t>未授权，请重新登录(401)</t>
+  </si>
+  <si>
+    <t>Unauthorized, please log in again (401)</t>
+  </si>
+  <si>
     <t>trans0684</t>
   </si>
   <si>
+    <t>拒绝访问(403)</t>
+  </si>
+  <si>
+    <t>Access denied (403)</t>
+  </si>
+  <si>
     <t>trans0685</t>
   </si>
   <si>
+    <t>请求出错(404)</t>
+  </si>
+  <si>
+    <t>Request error (404)</t>
+  </si>
+  <si>
     <t>trans0686</t>
   </si>
   <si>
+    <t>请求超时(408)</t>
+  </si>
+  <si>
+    <t>Request timeout (408)</t>
+  </si>
+  <si>
     <t>trans0687</t>
   </si>
   <si>
+    <t>服务器错误(500)</t>
+  </si>
+  <si>
+    <t>Server error (500)</t>
+  </si>
+  <si>
     <t>trans0688</t>
   </si>
   <si>
+    <t>服务未实现(501)</t>
+  </si>
+  <si>
+    <t>Service not implemented (501)</t>
+  </si>
+  <si>
     <t>trans0689</t>
   </si>
   <si>
+    <t>网络错误(502)</t>
+  </si>
+  <si>
+    <t>Network error (502)</t>
+  </si>
+  <si>
     <t>trans0690</t>
   </si>
   <si>
+    <t>服务不可用(503)</t>
+  </si>
+  <si>
+    <t>Service Unavailable (503)</t>
+  </si>
+  <si>
     <t>trans0691</t>
   </si>
   <si>
+    <t>网络超时(504)</t>
+  </si>
+  <si>
+    <t>Network timeout (504)</t>
+  </si>
+  <si>
     <t>trans0692</t>
   </si>
   <si>
+    <t>HTTP版本不受支持(505)</t>
+  </si>
+  <si>
+    <t>HTTP version not supported (505)</t>
+  </si>
+  <si>
     <t>trans0693</t>
   </si>
   <si>
+    <t>连接出错(%s)!</t>
+  </si>
+  <si>
+    <t>Connection error(%s)!</t>
+  </si>
+  <si>
     <t>trans0694</t>
   </si>
   <si>
+    <t>网络请求超时</t>
+  </si>
+  <si>
+    <t>Network request timeout</t>
+  </si>
+  <si>
     <t>trans0695</t>
   </si>
   <si>
+    <t>网络连接错误</t>
+  </si>
+  <si>
+    <t>Network connection error</t>
+  </si>
+  <si>
     <t>trans0696</t>
   </si>
   <si>
+    <t>登录账号或密码错误</t>
+  </si>
+  <si>
+    <t>Login account or password error</t>
+  </si>
+  <si>
     <t>trans0697</t>
   </si>
   <si>
+    <t>登录已过期，请重新登录</t>
+  </si>
+  <si>
+    <t>Login has expired, please log in again</t>
+  </si>
+  <si>
     <t>trans0698</t>
   </si>
   <si>
+    <t>用户未登录</t>
+  </si>
+  <si>
+    <t>User not logged in</t>
+  </si>
+  <si>
     <t>trans0699</t>
   </si>
   <si>
+    <t>无效的JSON格式</t>
+  </si>
+  <si>
+    <t>Invalid JSON format</t>
+  </si>
+  <si>
     <t>trans0700</t>
   </si>
   <si>
+    <t>无效的文件格式</t>
+  </si>
+  <si>
+    <t>Invalid file format</t>
+  </si>
+  <si>
     <t>trans0701</t>
+  </si>
+  <si>
+    <t>请求失败</t>
+  </si>
+  <si>
+    <t>Request failure</t>
   </si>
   <si>
     <t>trans0702</t>
@@ -5983,7 +6121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -6046,6 +6184,10 @@
     <font>
       <color rgb="FF2A2B2E"/>
     </font>
+    <font>
+      <color rgb="FF4DA621"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6069,7 +6211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6140,6 +6282,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="14" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -6448,6 +6596,10 @@
   <sheetViews>
     <sheetView showGridLines="true" workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="2" max="2" width="25.8906" customWidth="true"/>
+    <col min="3" max="3" width="37.9023" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
@@ -9696,10 +9848,10 @@
         <v>762</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>1959</v>
+        <v>2005</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>1960</v>
+        <v>2006</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -10908,10 +11060,10 @@
         <v>1063</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>1961</v>
+        <v>2007</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>1962</v>
+        <v>2008</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -10920,10 +11072,10 @@
         <v>1064</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>1963</v>
+        <v>2009</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>1964</v>
+        <v>2010</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -14583,189 +14735,281 @@
       <c r="A679" s="3" t="s">
         <v>1929</v>
       </c>
-      <c r="B679" s="9" t="s"/>
-      <c r="C679" s="9" t="s"/>
+      <c r="B679" s="9" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C679" s="9" t="s">
+        <v>1931</v>
+      </c>
       <c r="D679" s="5" t="s"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="3" t="s">
-        <v>1930</v>
-      </c>
-      <c r="B680" s="9" t="s"/>
-      <c r="C680" s="9" t="s"/>
+        <v>1932</v>
+      </c>
+      <c r="B680" s="9" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C680" s="9" t="s">
+        <v>1934</v>
+      </c>
       <c r="D680" s="5" t="s"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="3" t="s">
-        <v>1931</v>
-      </c>
-      <c r="B681" s="9" t="s"/>
-      <c r="C681" s="9" t="s"/>
+        <v>1935</v>
+      </c>
+      <c r="B681" s="9" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C681" s="9" t="s">
+        <v>1937</v>
+      </c>
       <c r="D681" s="5" t="s"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="3" t="s">
-        <v>1932</v>
-      </c>
-      <c r="B682" s="9" t="s"/>
-      <c r="C682" s="9" t="s"/>
+        <v>1938</v>
+      </c>
+      <c r="B682" s="9" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C682" s="9" t="s">
+        <v>1940</v>
+      </c>
       <c r="D682" s="5" t="s"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="3" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B683" s="9" t="s"/>
-      <c r="C683" s="9" t="s"/>
+        <v>1941</v>
+      </c>
+      <c r="B683" s="9" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C683" s="9" t="s">
+        <v>1943</v>
+      </c>
       <c r="D683" s="5" t="s"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="3" t="s">
-        <v>1934</v>
-      </c>
-      <c r="B684" s="9" t="s"/>
-      <c r="C684" s="9" t="s"/>
+        <v>1944</v>
+      </c>
+      <c r="B684" s="9" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C684" s="9" t="s">
+        <v>1946</v>
+      </c>
       <c r="D684" s="5" t="s"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="3" t="s">
-        <v>1935</v>
-      </c>
-      <c r="B685" s="9" t="s"/>
-      <c r="C685" s="9" t="s"/>
+        <v>1947</v>
+      </c>
+      <c r="B685" s="9" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C685" s="9" t="s">
+        <v>1949</v>
+      </c>
       <c r="D685" s="5" t="s"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B686" s="9" t="s"/>
-      <c r="C686" s="9" t="s"/>
+        <v>1950</v>
+      </c>
+      <c r="B686" s="9" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C686" s="9" t="s">
+        <v>1952</v>
+      </c>
       <c r="D686" s="5" t="s"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="3" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B687" s="9" t="s"/>
-      <c r="C687" s="9" t="s"/>
+        <v>1953</v>
+      </c>
+      <c r="B687" s="24" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C687" s="9" t="s">
+        <v>1955</v>
+      </c>
       <c r="D687" s="5" t="s"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="3" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B688" s="9" t="s"/>
-      <c r="C688" s="9" t="s"/>
+        <v>1956</v>
+      </c>
+      <c r="B688" s="9" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C688" s="9" t="s">
+        <v>1958</v>
+      </c>
       <c r="D688" s="5" t="s"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="3" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B689" s="9" t="s"/>
-      <c r="C689" s="9" t="s"/>
+        <v>1959</v>
+      </c>
+      <c r="B689" s="9" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C689" s="9" t="s">
+        <v>1961</v>
+      </c>
       <c r="D689" s="5" t="s"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="3" t="s">
-        <v>1940</v>
-      </c>
-      <c r="B690" s="9" t="s"/>
-      <c r="C690" s="9" t="s"/>
+        <v>1962</v>
+      </c>
+      <c r="B690" s="9" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C690" s="9" t="s">
+        <v>1964</v>
+      </c>
       <c r="D690" s="5" t="s"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="3" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B691" s="9" t="s"/>
-      <c r="C691" s="9" t="s"/>
+        <v>1965</v>
+      </c>
+      <c r="B691" s="24" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C691" s="9" t="s">
+        <v>1967</v>
+      </c>
       <c r="D691" s="5" t="s"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="3" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B692" s="9" t="s"/>
-      <c r="C692" s="9" t="s"/>
+        <v>1968</v>
+      </c>
+      <c r="B692" s="9" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C692" s="9" t="s">
+        <v>1970</v>
+      </c>
       <c r="D692" s="5" t="s"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="3" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B693" s="9" t="s"/>
-      <c r="C693" s="9" t="s"/>
+        <v>1971</v>
+      </c>
+      <c r="B693" s="9" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C693" s="9" t="s">
+        <v>1973</v>
+      </c>
       <c r="D693" s="5" t="s"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="3" t="s">
-        <v>1944</v>
-      </c>
-      <c r="B694" s="9" t="s"/>
-      <c r="C694" s="9" t="s"/>
+        <v>1974</v>
+      </c>
+      <c r="B694" s="9" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C694" s="9" t="s">
+        <v>1976</v>
+      </c>
       <c r="D694" s="5" t="s"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="3" t="s">
-        <v>1945</v>
-      </c>
-      <c r="B695" s="9" t="s"/>
-      <c r="C695" s="9" t="s"/>
+        <v>1977</v>
+      </c>
+      <c r="B695" s="9" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C695" s="9" t="s">
+        <v>1979</v>
+      </c>
       <c r="D695" s="5" t="s"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="3" t="s">
-        <v>1946</v>
-      </c>
-      <c r="B696" s="9" t="s"/>
-      <c r="C696" s="9" t="s"/>
+        <v>1980</v>
+      </c>
+      <c r="B696" s="9" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C696" s="9" t="s">
+        <v>1982</v>
+      </c>
       <c r="D696" s="5" t="s"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="3" t="s">
-        <v>1947</v>
-      </c>
-      <c r="B697" s="9" t="s"/>
-      <c r="C697" s="9" t="s"/>
+        <v>1983</v>
+      </c>
+      <c r="B697" s="9" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C697" s="25" t="s">
+        <v>1985</v>
+      </c>
       <c r="D697" s="5" t="s"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="3" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B698" s="9" t="s"/>
-      <c r="C698" s="9" t="s"/>
+        <v>1986</v>
+      </c>
+      <c r="B698" s="9" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C698" s="9" t="s">
+        <v>1988</v>
+      </c>
       <c r="D698" s="5" t="s"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="3" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B699" s="9" t="s"/>
-      <c r="C699" s="9" t="s"/>
+        <v>1989</v>
+      </c>
+      <c r="B699" s="9" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C699" s="9" t="s">
+        <v>1991</v>
+      </c>
       <c r="D699" s="5" t="s"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="3" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B700" s="9" t="s"/>
-      <c r="C700" s="9" t="s"/>
+        <v>1992</v>
+      </c>
+      <c r="B700" s="9" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C700" s="9" t="s">
+        <v>1994</v>
+      </c>
       <c r="D700" s="5" t="s"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="3" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B701" s="9" t="s"/>
-      <c r="C701" s="9" t="s"/>
+        <v>1995</v>
+      </c>
+      <c r="B701" s="9" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C701" s="9" t="s">
+        <v>1997</v>
+      </c>
       <c r="D701" s="5" t="s"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="3" t="s">
-        <v>1952</v>
+        <v>1998</v>
       </c>
       <c r="B702" s="9" t="s"/>
       <c r="C702" s="9" t="s"/>
@@ -14773,7 +15017,7 @@
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="3" t="s">
-        <v>1953</v>
+        <v>1999</v>
       </c>
       <c r="B703" s="9" t="s"/>
       <c r="C703" s="9" t="s"/>
@@ -14781,7 +15025,7 @@
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="3" t="s">
-        <v>1954</v>
+        <v>2000</v>
       </c>
       <c r="B704" s="9" t="s"/>
       <c r="C704" s="9" t="s"/>
@@ -14789,7 +15033,7 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="3" t="s">
-        <v>1955</v>
+        <v>2001</v>
       </c>
       <c r="B705" s="9" t="s"/>
       <c r="C705" s="9" t="s"/>
@@ -14797,7 +15041,7 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="3" t="s">
-        <v>1956</v>
+        <v>2002</v>
       </c>
       <c r="B706" s="9" t="s"/>
       <c r="C706" s="9" t="s"/>
@@ -14805,7 +15049,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="3" t="s">
-        <v>1957</v>
+        <v>2003</v>
       </c>
       <c r="B707" s="9" t="s"/>
       <c r="C707" s="9" t="s"/>
@@ -14813,7 +15057,7 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="3" t="s">
-        <v>1958</v>
+        <v>2004</v>
       </c>
       <c r="B708" s="9" t="s"/>
       <c r="C708" s="9" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="2011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="2013">
   <si>
     <t/>
   </si>
@@ -3807,6 +3807,12 @@
   </si>
   <si>
     <t>trans0446</t>
+  </si>
+  <si>
+    <t>外部主机</t>
+  </si>
+  <si>
+    <t>External Host</t>
   </si>
   <si>
     <t>trans0447</t>
@@ -9848,10 +9854,10 @@
         <v>762</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -11060,10 +11066,10 @@
         <v>1063</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -11072,10 +11078,10 @@
         <v>1064</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -11947,13 +11953,17 @@
       <c r="A446" s="7" t="s">
         <v>1263</v>
       </c>
-      <c r="B446" s="9" t="s"/>
-      <c r="C446" s="9" t="s"/>
+      <c r="B446" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C446" s="9" t="s">
+        <v>1265</v>
+      </c>
       <c r="D446" s="5" t="s"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="7" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B447" s="9" t="s"/>
       <c r="C447" s="9" t="s"/>
@@ -11961,31 +11971,31 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="7" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C448" s="9" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D448" s="5" t="s"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="7" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C449" s="9" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D449" s="5" t="s"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="7" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B450" s="9" t="s"/>
       <c r="C450" s="9" t="s"/>
@@ -11993,187 +12003,187 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="7" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D451" s="5" t="s"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="7" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C452" s="9" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D452" s="5" t="s"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="7" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D453" s="5" t="s"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="7" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B454" s="9" t="s">
         <v>311</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D454" s="5" t="s"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="7" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C455" s="9" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D455" s="5" t="s"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="7" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C456" s="9" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D456" s="5" t="s"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="7" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D457" s="5" t="s"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="7" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D458" s="5" t="s"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="7" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D459" s="5" t="s"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="7" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="D460" s="5" t="s"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="7" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C461" s="9" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D461" s="5" t="s"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="7" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="D462" s="5" t="s"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="7" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D463" s="5" t="s"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="7" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D464" s="5" t="s"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="7" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C465" s="9" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D465" s="9" t="s"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="7" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B466" s="9" t="s">
         <v>1123</v>
@@ -12185,187 +12195,187 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="7" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D467" s="5" t="s"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="7" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D468" s="5" t="s"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="7" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C469" s="9" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D469" s="5" t="s"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="7" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="B470" s="9" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C470" s="9" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D470" s="5" t="s"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="7" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B471" s="9" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C471" s="9" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D471" s="5" t="s"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="7" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C472" s="9" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D472" s="18" t="s"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C473" s="9" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="D473" s="5" t="s"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="7" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C474" s="9" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="D474" s="5" t="s"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="7" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D475" s="19" t="s"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="7" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D476" s="5" t="s"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="7" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C477" s="9" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D477" s="5" t="s"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="7" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="D478" s="5" t="s"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="7" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C479" s="9" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="D479" s="5" t="s"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="7" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C480" s="13" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D480" s="5" t="s"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="7" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C481" s="9" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D481" s="5" t="s"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="7" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="B482" s="9" t="s">
         <v>264</v>
@@ -12377,763 +12387,763 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="7" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B483" s="13" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C483" s="13" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="D483" s="5" t="s"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="7" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B484" s="13" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C484" s="13" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D484" s="5" t="s"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="7" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C485" s="9" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="D485" s="5" t="s"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="7" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C486" s="9" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="D486" s="5" t="s"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="7" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C487" s="9" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="D487" s="5" t="s"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="7" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C488" s="9" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D488" s="5" t="s"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="7" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C489" s="13" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="D489" s="5" t="s"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="7" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C490" s="9" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D490" s="5" t="s"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="7" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C491" s="9" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="D491" s="5" t="s"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="7" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C492" s="9" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D492" s="5" t="s"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="7" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C493" s="9" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="D493" s="5" t="s"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="7" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B494" s="9" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C494" s="9" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="D494" s="5" t="s"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="7" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C495" s="9" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="D495" s="5" t="s"/>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="7" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="C496" s="9" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="D496" s="5" t="s"/>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="7" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C497" s="9" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D497" s="5" t="s"/>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="7" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="B498" s="9" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C498" s="9" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="D498" s="5" t="s"/>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="7" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C499" s="9" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="D499" s="5" t="s"/>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="7" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B500" s="9" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C500" s="9" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="D500" s="5" t="s"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="7" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C501" s="9" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D501" s="5" t="s"/>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="7" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C502" s="9" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="D502" s="5" t="s"/>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="7" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="C503" s="9" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="D503" s="5" t="s"/>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="7" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C504" s="9" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="D504" s="5" t="s"/>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="7" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C505" s="9" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D505" s="5" t="s"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="7" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B506" s="9" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C506" s="9" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="D506" s="5" t="s"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="7" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B507" s="9" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C507" s="9" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D507" s="5" t="s"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="7" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B508" s="9" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C508" s="9" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D508" s="20" t="s"/>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="7" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B509" s="9" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C509" s="9" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="D509" s="21" t="s"/>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="7" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B510" s="9" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C510" s="9" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="D510" s="5" t="s"/>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="7" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="B511" s="9" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C511" s="9" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D511" s="5" t="s"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="7" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B512" s="9" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C512" s="9" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D512" s="5" t="s"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="7" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="B513" s="9" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="C513" s="9" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D513" s="5" t="s"/>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="7" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B514" s="9" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C514" s="9" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="D514" s="5" t="s"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="7" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="B515" s="9" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C515" s="9" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D515" s="5" t="s"/>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="7" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="B516" s="9" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C516" s="9" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="D516" s="5" t="s"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="7" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="B517" s="9" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C517" s="9" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="D517" s="5" t="s"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="7" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="B518" s="9" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C518" s="9" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="D518" s="5" t="s"/>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="7" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="B519" s="9" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="C519" s="9" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="D519" s="5" t="s"/>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="7" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B520" s="13" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C520" s="9" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D520" s="5" t="s"/>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="7" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B521" s="9" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C521" s="9" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D521" s="5" t="s"/>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="7" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="B522" s="9" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C522" s="9" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D522" s="5" t="s"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="7" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B523" s="9" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C523" s="9" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="D523" s="5" t="s"/>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="7" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C524" s="9" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="D524" s="5" t="s"/>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="7" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="B525" s="9" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="C525" s="9" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="D525" s="5" t="s"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="7" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="B526" s="9" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="C526" s="9" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="D526" s="5" t="s"/>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="7" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B527" s="9" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="C527" s="9" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="D527" s="5" t="s"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="7" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="B528" s="9" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="C528" s="9" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="D528" s="5" t="s"/>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="7" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="B529" s="9" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="C529" s="9" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D529" s="5" t="s"/>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="7" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="B530" s="9" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="C530" s="9" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="D530" s="5" t="s"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="7" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="B531" s="9" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C531" s="9" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D531" s="5" t="s"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="7" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="B532" s="9" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C532" s="9" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="D532" s="5" t="s"/>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="7" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="B533" s="9" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="C533" s="9" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="D533" s="5" t="s"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="7" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B534" s="9" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C534" s="9" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D534" s="5" t="s"/>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="7" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B535" s="9" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="C535" s="9" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D535" s="5" t="s"/>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="7" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B536" s="9" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="C536" s="9" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D536" s="5" t="s"/>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="7" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B537" s="9" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C537" s="9" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="D537" s="5" t="s"/>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="7" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B538" s="9" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="C538" s="9" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D538" s="5" t="s"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="7" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B539" s="9" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="C539" s="9" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="D539" s="5" t="s"/>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="7" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="B540" s="9" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="C540" s="9" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D540" s="5" t="s"/>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="7" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C541" s="9" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="D541" s="5" t="s"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="7" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B542" s="9" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C542" s="9" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D542" s="5" t="s"/>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="7" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B543" s="9" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C543" s="9" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D543" s="5" t="s"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="7" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B544" s="9" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="C544" s="9" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D544" s="5" t="s"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="7" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B545" s="9" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C545" s="9" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D545" s="5" t="s"/>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="7" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B546" s="9" t="s">
         <v>278</v>
@@ -13145,118 +13155,118 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="7" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B547" s="9" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C547" s="9" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D547" s="5" t="s"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="7" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="C548" s="9" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="D548" s="5" t="s"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="7" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B549" s="9" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C549" s="9" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D549" s="5" t="s"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="7" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="C550" s="9" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="D550" s="5" t="s"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="7" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="B551" s="9" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C551" s="9" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D551" s="5" t="s"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="7" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="C552" s="9" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="D552" s="5" t="s"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="7" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B553" s="9" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="C553" s="9" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="D553" s="5" t="s"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="7" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B554" s="9" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="C554" s="9" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="D554" s="5" t="s"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="7" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="B555" s="9" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C555" s="9" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D555" s="5" t="s"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="7" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="C556" s="9" t="s">
         <v>397</v>
@@ -13265,457 +13275,457 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="7" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="B557" s="9" t="s">
         <v>1058</v>
       </c>
       <c r="C557" s="9" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D557" s="5" t="s"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="7" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="B558" s="9" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="C558" s="9" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D558" s="5" t="s"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="7" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B559" s="9" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C559" s="9" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D559" s="5" t="s"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="7" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C560" s="9" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="D560" s="5" t="s"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="7" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C561" s="9" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D561" s="5" t="s"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="7" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B562" s="9" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="C562" s="9" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D562" s="5" t="s"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B563" s="9" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="C563" s="9" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="D563" s="5" t="s"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="7" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B564" s="9" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="C564" s="9" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D564" s="9" t="s"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="7" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B565" s="9" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C565" s="9" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D565" s="5" t="s"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B566" s="9" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C566" s="9" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D566" s="5" t="s"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="7" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B567" s="9" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="C567" s="9" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="D567" s="5" t="s"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="7" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="B568" s="9" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="C568" s="9" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D568" s="5" t="s"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="7" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B569" s="9" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C569" s="9" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D569" s="5" t="s"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="7" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="B570" s="9" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="C570" s="9" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="D570" s="5" t="s"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="7" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B571" s="9" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C571" s="9" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D571" s="5" t="s"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="7" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C572" s="9" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D572" s="5" t="s"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="7" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C573" s="9" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D573" s="5" t="s"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="7" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B574" s="9" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C574" s="9" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D574" s="5" t="s"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="7" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C575" s="9" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="D575" s="5" t="s"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="7" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B576" s="9" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C576" s="9" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D576" s="5" t="s"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="7" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C577" s="9" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D577" s="5" t="s"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="7" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C578" s="9" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D578" s="5" t="s"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="7" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C579" s="9" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D579" s="5" t="s"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="7" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C580" s="9" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D580" s="5" t="s"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="7" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C581" s="9" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="D581" s="5" t="s"/>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="7" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B582" s="9" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C582" s="9" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="D582" s="5" t="s"/>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="7" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="B583" s="9" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C583" s="9" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D583" s="5" t="s"/>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="7" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="B584" s="9" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C584" s="9" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="D584" s="5" t="s"/>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="7" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="C585" s="9" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="D585" s="5" t="s"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="7" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C586" s="9" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D586" s="9" t="s"/>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="7" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B587" s="9" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C587" s="9" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="D587" s="5" t="s"/>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="7" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B588" s="9" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C588" s="9" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D588" s="5" t="s"/>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="7" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C589" s="9" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="D589" s="5" t="s"/>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="7" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="B590" s="9" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C590" s="9" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="D590" s="5" t="s"/>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="7" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C591" s="9" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="D591" s="5" t="s"/>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B592" s="9" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C592" s="9" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="D592" s="5" t="s"/>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="7" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B593" s="9" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C593" s="9" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="D593" s="5" t="s"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="7" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C594" s="9" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="D594" s="22" t="s">
         <v>347</v>
@@ -13723,37 +13733,37 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="7" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="B595" s="9" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C595" s="9" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="D595" s="5" t="s"/>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="7" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="B596" s="9" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="C596" s="9" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="D596" s="5" t="s"/>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="7" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="B597" s="9" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C597" s="9" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="D597" s="14" t="s">
         <v>347</v>
@@ -13761,67 +13771,67 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="7" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="C598" s="9" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="D598" s="5" t="s"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="7" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="C599" s="9" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="D599" s="5" t="s"/>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="7" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="B600" s="9" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C600" s="9" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D600" s="5" t="s"/>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="7" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B601" s="9" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C601" s="9" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="D601" s="5" t="s"/>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="7" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B602" s="9" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C602" s="9" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="D602" s="5" t="s"/>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="7" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="B603" s="9" t="s">
         <v>240</v>
@@ -13833,115 +13843,115 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="7" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="B604" s="9" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="C604" s="9" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="D604" s="5" t="s"/>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="7" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B605" s="9" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C605" s="9" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D605" s="5" t="s"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="7" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C606" s="9" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D606" s="5" t="s"/>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="7" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C607" s="9" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="D607" s="5" t="s"/>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="7" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="C608" s="9" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="D608" s="5" t="s"/>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="7" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C609" s="9" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D609" s="5" t="s"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="7" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="B610" s="9" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C610" s="9" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="D610" s="5" t="s"/>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="7" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="C611" s="9" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D611" s="5" t="s"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="7" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="C612" s="9" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="D612" s="5" t="s"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="7" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="B613" s="9" t="s">
         <v>200</v>
@@ -13953,487 +13963,487 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="7" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="C614" s="9" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="D614" s="5" t="s"/>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="7" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="C615" s="9" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D615" s="5" t="s"/>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="7" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="C616" s="9" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="D616" s="5" t="s"/>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="7" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C617" s="9" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="D617" s="5" t="s"/>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="7" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="C618" s="9" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="D618" s="5" t="s"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="7" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="C619" s="9" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="D619" s="5" t="s"/>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="7" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="C620" s="9" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="D620" s="9" t="s"/>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="7" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="C621" s="9" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="D621" s="9" t="s"/>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="7" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="C622" s="9" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D622" s="5" t="s"/>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="7" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="C623" s="9" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="D623" s="9" t="s"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="7" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="B624" s="9" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="C624" s="9" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="D624" s="23" t="s"/>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="7" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="C625" s="9" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="D625" s="9" t="s"/>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="7" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="B626" s="9" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="C626" s="9" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="D626" s="5" t="s"/>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="7" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="B627" s="9" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="C627" s="9" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="D627" s="5" t="s"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="7" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="C628" s="9" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="D628" s="5" t="s"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="7" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="B629" s="9" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="C629" s="9" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="D629" s="5" t="s"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="7" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="B630" s="9" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="C630" s="9" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="D630" s="9" t="s"/>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="7" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="B631" s="9" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="C631" s="9" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="D631" s="5" t="s"/>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="7" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="C632" s="9" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="D632" s="5" t="s"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="7" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="C633" s="13" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="D633" s="5" t="s"/>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="7" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="B634" s="9" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="C634" s="9" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="D634" s="5" t="s"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="7" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="B635" s="9" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C635" s="9" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="D635" s="5" t="s"/>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="7" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="C636" s="9" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="D636" s="5" t="s"/>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="7" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="C637" s="9" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="D637" s="5" t="s"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="7" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="C638" s="9" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="D638" s="5" t="s"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="7" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="B639" s="9" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="C639" s="9" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="D639" s="5" t="s"/>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="7" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="C640" s="9" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="D640" s="9" t="s"/>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="7" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="C641" s="9" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="D641" s="5" t="s"/>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="7" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B642" s="9" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="C642" s="9" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="D642" s="5" t="s"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="7" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="B643" s="9" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="C643" s="9" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D643" s="5" t="s"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="7" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="B644" s="9" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="C644" s="9" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="D644" s="5" t="s"/>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="7" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="B645" s="9" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="C645" s="9" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="D645" s="5" t="s"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="7" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="C646" s="9" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="D646" s="5" t="s"/>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="7" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B647" s="9" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="C647" s="9" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="D647" s="5" t="s"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="7" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="B648" s="9" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="C648" s="9" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="D648" s="5" t="s"/>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="7" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="B649" s="9" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="C649" s="9" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="D649" s="5" t="s"/>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="7" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="B650" s="9" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="C650" s="9" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="D650" s="5" t="s"/>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="7" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="B651" s="9" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="C651" s="9" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="D651" s="5" t="s"/>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="7" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B652" s="9" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="C652" s="9" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="D652" s="5" t="s"/>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="7" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="B653" s="9" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="C653" s="9" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="D653" s="5" t="s"/>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="7" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B654" s="9" t="s">
         <v>508</v>
@@ -14445,571 +14455,571 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="7" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="C655" s="9" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="D655" s="5" t="s"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="7" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B656" s="9" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="C656" s="9" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="D656" s="5" t="s"/>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="7" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="C657" s="9" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="D657" s="5" t="s"/>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="7" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="B658" s="9" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="C658" s="9" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="D658" s="5" t="s"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="7" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B659" s="9" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="C659" s="9" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="D659" s="5" t="s"/>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="7" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B660" s="9" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="C660" s="9" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="D660" s="5" t="s"/>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="7" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="C661" s="9" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="D661" s="5" t="s"/>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="7" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="C662" s="9" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="D662" s="5" t="s"/>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="7" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="C663" s="9" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="D663" s="5" t="s"/>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="7" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="C664" s="9" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="D664" s="5" t="s"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="7" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="C665" s="9" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="D665" s="5" t="s"/>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="7" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="C666" s="9" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="D666" s="5" t="s"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="7" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="C667" s="9" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="D667" s="5" t="s"/>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="3" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="C668" s="9" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="D668" s="5" t="s"/>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="3" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="C669" s="9" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="D669" s="5" t="s"/>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="3" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="B670" s="9" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="C670" s="13" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="D670" s="5" t="s"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="3" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="B671" s="9" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="C671" s="9" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="D671" s="5" t="s"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="3" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B672" s="9" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="C672" s="9" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="D672" s="5" t="s"/>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="3" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="B673" s="9" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="C673" s="9" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="D673" s="5" t="s"/>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="3" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="C674" s="9" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="D674" s="5" t="s"/>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="3" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="C675" s="9" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="D675" s="5" t="s"/>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="3" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B676" s="9" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="C676" s="9" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="D676" s="5" t="s"/>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="3" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="C677" s="9" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="D677" s="5" t="s"/>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B678" s="9" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="C678" s="9" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="D678" s="5" t="s"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="3" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="B679" s="9" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="C679" s="9" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="D679" s="5" t="s"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="3" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C680" s="9" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="D680" s="5" t="s"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="3" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B681" s="9" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="C681" s="9" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="D681" s="5" t="s"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="3" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B682" s="9" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="C682" s="9" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="D682" s="5" t="s"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="3" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="C683" s="9" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="D683" s="5" t="s"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="3" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="B684" s="9" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="C684" s="9" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="D684" s="5" t="s"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="3" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B685" s="9" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="C685" s="9" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="D685" s="5" t="s"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="3" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="B686" s="9" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="C686" s="9" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D686" s="5" t="s"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="3" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B687" s="24" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="C687" s="9" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="D687" s="5" t="s"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="3" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B688" s="9" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="C688" s="9" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D688" s="5" t="s"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="3" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="B689" s="9" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="C689" s="9" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="D689" s="5" t="s"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="3" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="B690" s="9" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C690" s="9" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="D690" s="5" t="s"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="3" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B691" s="24" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="C691" s="9" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="D691" s="5" t="s"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="3" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="B692" s="9" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="C692" s="9" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="D692" s="5" t="s"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="3" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="B693" s="9" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="C693" s="9" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="D693" s="5" t="s"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="3" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="B694" s="9" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="C694" s="9" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="D694" s="5" t="s"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="3" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="B695" s="9" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="C695" s="9" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="D695" s="5" t="s"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="3" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="B696" s="9" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="C696" s="9" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="D696" s="5" t="s"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="3" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="B697" s="9" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="C697" s="25" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="D697" s="5" t="s"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="3" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="B698" s="9" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="C698" s="9" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="D698" s="5" t="s"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="3" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="B699" s="9" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="C699" s="9" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="D699" s="5" t="s"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="3" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B700" s="9" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="C700" s="9" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="D700" s="5" t="s"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="3" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B701" s="9" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C701" s="9" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D701" s="5" t="s"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="3" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B702" s="9" t="s"/>
       <c r="C702" s="9" t="s"/>
@@ -15017,7 +15027,7 @@
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="3" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B703" s="9" t="s"/>
       <c r="C703" s="9" t="s"/>
@@ -15025,7 +15035,7 @@
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="3" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B704" s="9" t="s"/>
       <c r="C704" s="9" t="s"/>
@@ -15033,7 +15043,7 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="3" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B705" s="9" t="s"/>
       <c r="C705" s="9" t="s"/>
@@ -15041,7 +15051,7 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="3" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B706" s="9" t="s"/>
       <c r="C706" s="9" t="s"/>
@@ -15049,7 +15059,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="3" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B707" s="9" t="s"/>
       <c r="C707" s="9" t="s"/>
@@ -15057,7 +15067,7 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="3" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B708" s="9" t="s"/>
       <c r="C708" s="9" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="2013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="2192">
   <si>
     <t/>
   </si>
@@ -147,7 +147,7 @@
     <t>trans0014</t>
   </si>
   <si>
-    <t>我要上网</t>
+    <t>网络</t>
   </si>
   <si>
     <t>Network</t>
@@ -1331,9 +1331,6 @@
     <t>trans0153</t>
   </si>
   <si>
-    <t>接口类型</t>
-  </si>
-  <si>
     <t>trans0154</t>
   </si>
   <si>
@@ -3839,6 +3836,9 @@
     <t>trans0450</t>
   </si>
   <si>
+    <t>VLAN/Priority</t>
+  </si>
+  <si>
     <t>trans0451</t>
   </si>
   <si>
@@ -4322,7 +4322,7 @@
     <t>Wi-Fi 信道</t>
   </si>
   <si>
-    <t>Channel</t>
+    <t>Wi-Fi Channel</t>
   </si>
   <si>
     <t>trans0508</t>
@@ -4331,7 +4331,7 @@
     <t>Wi-Fi 模式</t>
   </si>
   <si>
-    <t>Mode</t>
+    <t>Wi-Fi Mode</t>
   </si>
   <si>
     <t>trans0509</t>
@@ -4340,7 +4340,7 @@
     <t>Wi-Fi 频宽</t>
   </si>
   <si>
-    <t>Bandwidth</t>
+    <t>Wi-Fi Bandwidth</t>
   </si>
   <si>
     <t>trans0510</t>
@@ -6020,22 +6020,559 @@
     <t>trans0702</t>
   </si>
   <si>
+    <t>2.4GHz Wlan Interface Information</t>
+  </si>
+  <si>
     <t>trans0703</t>
   </si>
   <si>
+    <t>当前防火墙等级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Firewall Level  </t>
+  </si>
+  <si>
     <t>trans0704</t>
   </si>
   <si>
+    <t>5GHz Wlan Interface Information</t>
+  </si>
+  <si>
     <t>trans0705</t>
   </si>
   <si>
+    <t>Wireless Network Connection Status</t>
+  </si>
+  <si>
     <t>trans0706</t>
   </si>
   <si>
+    <t>Receive</t>
+  </si>
+  <si>
     <t>trans0707</t>
   </si>
   <si>
+    <t>Send</t>
+  </si>
+  <si>
     <t>trans0708</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>trans0709</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>trans0710</t>
+  </si>
+  <si>
+    <t>Abandon</t>
+  </si>
+  <si>
+    <t>trans0711</t>
+  </si>
+  <si>
+    <t>SSID Index</t>
+  </si>
+  <si>
+    <t>trans0712</t>
+  </si>
+  <si>
+    <t>SSID Name</t>
+  </si>
+  <si>
+    <t>trans0713</t>
+  </si>
+  <si>
+    <t>Security Configuration</t>
+  </si>
+  <si>
+    <t>trans0714</t>
+  </si>
+  <si>
+    <t>Authentication Method</t>
+  </si>
+  <si>
+    <t>trans0715</t>
+  </si>
+  <si>
+    <t>trans0716</t>
+  </si>
+  <si>
+    <t>Ethernet Port Information</t>
+  </si>
+  <si>
+    <t>trans0717</t>
+  </si>
+  <si>
+    <t>网络类型</t>
+  </si>
+  <si>
+    <t>Network Type</t>
+  </si>
+  <si>
+    <t>trans0718</t>
+  </si>
+  <si>
+    <t>Optical</t>
+  </si>
+  <si>
+    <t>trans0719</t>
+  </si>
+  <si>
+    <t>Network Link Connection Information</t>
+  </si>
+  <si>
+    <t>trans0720</t>
+  </si>
+  <si>
+    <t>Link Performance Statistics</t>
+  </si>
+  <si>
+    <t>trans0721</t>
+  </si>
+  <si>
+    <t>Optical Information</t>
+  </si>
+  <si>
+    <t>trans0722</t>
+  </si>
+  <si>
+    <t>PON Link Connection Status</t>
+  </si>
+  <si>
+    <t>trans0723</t>
+  </si>
+  <si>
+    <t>FEC Enable</t>
+  </si>
+  <si>
+    <t>trans0724</t>
+  </si>
+  <si>
+    <t>Alarm Information</t>
+  </si>
+  <si>
+    <t>trans0725</t>
+  </si>
+  <si>
+    <t>Packets Number Of PON Port sent</t>
+  </si>
+  <si>
+    <t>trans0726</t>
+  </si>
+  <si>
+    <t>Packets Number Of PON Port Received</t>
+  </si>
+  <si>
+    <t>trans0727</t>
+  </si>
+  <si>
+    <t>Transmiting Power</t>
+  </si>
+  <si>
+    <t>trans0728</t>
+  </si>
+  <si>
+    <t>Receiving power</t>
+  </si>
+  <si>
+    <t>trans0729</t>
+  </si>
+  <si>
+    <t>Working Voltage</t>
+  </si>
+  <si>
+    <t>trans0730</t>
+  </si>
+  <si>
+    <t>Bias Current</t>
+  </si>
+  <si>
+    <t>trans0731</t>
+  </si>
+  <si>
+    <t>Chip Temperature</t>
+  </si>
+  <si>
+    <t>trans0732</t>
+  </si>
+  <si>
+    <t>VoIP</t>
+  </si>
+  <si>
+    <t>trans0733</t>
+  </si>
+  <si>
+    <t>Register Server</t>
+  </si>
+  <si>
+    <t>trans0734</t>
+  </si>
+  <si>
+    <t>Register Server Port</t>
+  </si>
+  <si>
+    <t>trans0735</t>
+  </si>
+  <si>
+    <t>Secondary Register Server</t>
+  </si>
+  <si>
+    <t>trans0736</t>
+  </si>
+  <si>
+    <t>Secondary Register Server Port</t>
+  </si>
+  <si>
+    <t>trans0737</t>
+  </si>
+  <si>
+    <t>Line Name</t>
+  </si>
+  <si>
+    <t>trans0738</t>
+  </si>
+  <si>
+    <t>Telephone Number</t>
+  </si>
+  <si>
+    <t>trans0739</t>
+  </si>
+  <si>
+    <t>Registration Status</t>
+  </si>
+  <si>
+    <t>trans0740</t>
+  </si>
+  <si>
+    <t>Subscriber Line State</t>
+  </si>
+  <si>
+    <t>trans0741</t>
+  </si>
+  <si>
+    <t>Interaction Build</t>
+  </si>
+  <si>
+    <t>trans0742</t>
+  </si>
+  <si>
+    <t>Business Configuration Dispensed Status</t>
+  </si>
+  <si>
+    <t>trans0743</t>
+  </si>
+  <si>
+    <t>Proactive reporting Inform Status</t>
+  </si>
+  <si>
+    <t>trans0744</t>
+  </si>
+  <si>
+    <t>Accepting ITMS connection request Status</t>
+  </si>
+  <si>
+    <t>trans0745</t>
+  </si>
+  <si>
+    <t>Lease Remaining</t>
+  </si>
+  <si>
+    <t>trans0746</t>
+  </si>
+  <si>
+    <t>Device Duid</t>
+  </si>
+  <si>
+    <t>trans0747</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>trans0748</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>trans0749</t>
+  </si>
+  <si>
+    <t>USB Interface Information</t>
+  </si>
+  <si>
+    <t>trans0750</t>
+  </si>
+  <si>
+    <t>USB Device</t>
+  </si>
+  <si>
+    <t>trans0751</t>
+  </si>
+  <si>
+    <t>WAN Binding</t>
+  </si>
+  <si>
+    <t>trans0752</t>
+  </si>
+  <si>
+    <t>Binding Mode</t>
+  </si>
+  <si>
+    <t>trans0753</t>
+  </si>
+  <si>
+    <t>Binding VLAN Pair</t>
+  </si>
+  <si>
+    <t>trans0754</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>trans0755</t>
+  </si>
+  <si>
+    <t>Port Binding</t>
+  </si>
+  <si>
+    <t>trans0756</t>
+  </si>
+  <si>
+    <t>VLAN Binding</t>
+  </si>
+  <si>
+    <t>trans0757</t>
+  </si>
+  <si>
+    <t>Port Setting</t>
+  </si>
+  <si>
+    <t>trans0758</t>
+  </si>
+  <si>
+    <t>Connection Name</t>
+  </si>
+  <si>
+    <t>trans0759</t>
+  </si>
+  <si>
+    <t>Delete Connection</t>
+  </si>
+  <si>
+    <t>trans0760</t>
+  </si>
+  <si>
+    <t>New Connection</t>
+  </si>
+  <si>
+    <t>trans0761</t>
+  </si>
+  <si>
+    <t>Enable WAN</t>
+  </si>
+  <si>
+    <t>trans0762</t>
+  </si>
+  <si>
+    <t>WAN Mode</t>
+  </si>
+  <si>
+    <t>trans0763</t>
+  </si>
+  <si>
+    <t>WAN service type</t>
+  </si>
+  <si>
+    <t>trans0764</t>
+  </si>
+  <si>
+    <t>Binding LAN</t>
+  </si>
+  <si>
+    <t>trans0765</t>
+  </si>
+  <si>
+    <t>Binding WLAN 2.4G</t>
+  </si>
+  <si>
+    <t>trans0766</t>
+  </si>
+  <si>
+    <t>Binding WLAN 5G</t>
+  </si>
+  <si>
+    <t>trans0767</t>
+  </si>
+  <si>
+    <t>路由模式</t>
+  </si>
+  <si>
+    <t>Router Mode</t>
+  </si>
+  <si>
+    <t>trans0768</t>
+  </si>
+  <si>
+    <t>via IP</t>
+  </si>
+  <si>
+    <t>trans0769</t>
+  </si>
+  <si>
+    <t>via PPP</t>
+  </si>
+  <si>
+    <t>trans0770</t>
+  </si>
+  <si>
+    <t>Protocol Version</t>
+  </si>
+  <si>
+    <t>trans0771</t>
+  </si>
+  <si>
+    <t>VLAN Mode</t>
+  </si>
+  <si>
+    <t>trans0772</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>trans0773</t>
+  </si>
+  <si>
+    <t>UNTAG</t>
+  </si>
+  <si>
+    <t>trans0774</t>
+  </si>
+  <si>
+    <t>TRANSPARENT</t>
+  </si>
+  <si>
+    <t>trans0775</t>
+  </si>
+  <si>
+    <t>VLAN ID</t>
+  </si>
+  <si>
+    <t>trans0776</t>
+  </si>
+  <si>
+    <t>802.1p</t>
+  </si>
+  <si>
+    <t>trans0777</t>
+  </si>
+  <si>
+    <t>Multicast VLAN ID</t>
+  </si>
+  <si>
+    <t>trans0778</t>
+  </si>
+  <si>
+    <t>Enable NAT</t>
+  </si>
+  <si>
+    <t>trans0779</t>
+  </si>
+  <si>
+    <t>IPv4 Internet Access Mode</t>
+  </si>
+  <si>
+    <t>trans0780</t>
+  </si>
+  <si>
+    <t>IPv6 Internet Access Mode</t>
+  </si>
+  <si>
+    <t>trans0781</t>
+  </si>
+  <si>
+    <t>trans0782</t>
+  </si>
+  <si>
+    <t>trans0783</t>
+  </si>
+  <si>
+    <t>Prefix Mode</t>
+  </si>
+  <si>
+    <t>trans0784</t>
+  </si>
+  <si>
+    <t>Prefix Address</t>
+  </si>
+  <si>
+    <t>trans0785</t>
+  </si>
+  <si>
+    <t>Primary Time</t>
+  </si>
+  <si>
+    <t>trans0786</t>
+  </si>
+  <si>
+    <t>Enable PPPoE Router Bridge Mode</t>
+  </si>
+  <si>
+    <t>trans0787</t>
+  </si>
+  <si>
+    <t>DS-Lite Enable</t>
+  </si>
+  <si>
+    <t>trans0788</t>
+  </si>
+  <si>
+    <t>DS-Lite Mode</t>
+  </si>
+  <si>
+    <t>trans0789</t>
+  </si>
+  <si>
+    <t>DS-Lite Server</t>
+  </si>
+  <si>
+    <t>trans0790</t>
+  </si>
+  <si>
+    <t>trans0791</t>
+  </si>
+  <si>
+    <t>Bridge Mode</t>
+  </si>
+  <si>
+    <t>trans0792</t>
+  </si>
+  <si>
+    <t>PPPoE_Bridged</t>
+  </si>
+  <si>
+    <t>trans0793</t>
+  </si>
+  <si>
+    <t>IP_Bridged</t>
+  </si>
+  <si>
+    <t>trans0794</t>
+  </si>
+  <si>
+    <t>trans0795</t>
+  </si>
+  <si>
+    <t>trans0796</t>
   </si>
   <si>
     <r>
@@ -6598,7 +7135,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="D708"/>
+  <dimension ref="D829"/>
   <sheetViews>
     <sheetView showGridLines="true" workbookViewId="0"/>
   </sheetViews>
@@ -8447,140 +8984,136 @@
       <c r="A154" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>403</v>
-      </c>
+      <c r="B154" s="9" t="s"/>
+      <c r="C154" s="9" t="s"/>
       <c r="D154" s="5" t="s"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="C155" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>441</v>
       </c>
       <c r="D155" s="5" t="s"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>443</v>
-      </c>
       <c r="C156" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D156" s="5" t="s"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>445</v>
-      </c>
       <c r="C157" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D157" s="5" t="s"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>447</v>
-      </c>
       <c r="C158" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D158" s="5" t="s"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>449</v>
-      </c>
       <c r="C159" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D159" s="5" t="s"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>451</v>
-      </c>
       <c r="C160" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D160" s="5" t="s"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>453</v>
-      </c>
       <c r="C161" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D161" s="5" t="s"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>455</v>
-      </c>
       <c r="C162" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D162" s="5" t="s"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="C163" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D163" s="5" t="s"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>459</v>
-      </c>
       <c r="C164" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D164" s="5" t="s"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>309</v>
@@ -8589,61 +9122,61 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="C166" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>464</v>
       </c>
       <c r="D166" s="5" t="s"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="C167" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>467</v>
       </c>
       <c r="D167" s="5" t="s"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="C168" s="9" t="s">
         <v>469</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>470</v>
       </c>
       <c r="D168" s="5" t="s"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B169" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="C169" s="9" t="s">
         <v>472</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>473</v>
       </c>
       <c r="D169" s="9" t="s"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="C170" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>347</v>
@@ -8651,322 +9184,322 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="C171" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="D171" s="5" t="s"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="C172" s="9" t="s">
         <v>481</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>482</v>
       </c>
       <c r="D172" s="5" t="s"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="C173" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="D173" s="5" t="s"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="C174" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>488</v>
       </c>
       <c r="D174" s="9" t="s"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B175" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="C175" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>491</v>
       </c>
       <c r="D175" s="9" t="s"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B176" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="C176" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>494</v>
       </c>
       <c r="D176" s="9" t="s"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="C177" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>497</v>
       </c>
       <c r="D177" s="5" t="s"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="C178" s="9" t="s">
         <v>499</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>500</v>
       </c>
       <c r="D178" s="5" t="s"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B179" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="C179" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>503</v>
       </c>
       <c r="D179" s="5" t="s"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B180" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="C180" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>506</v>
       </c>
       <c r="D180" s="9" t="s"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B181" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="C181" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>509</v>
       </c>
       <c r="D181" s="5" t="s"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B182" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="C182" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>512</v>
       </c>
       <c r="D182" s="5" t="s"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B183" s="9" t="s">
-        <v>514</v>
-      </c>
       <c r="C183" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D183" s="5" t="s"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="C184" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="D184" s="5" t="s"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="C185" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>520</v>
       </c>
       <c r="D185" s="5" t="s"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B186" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="C186" s="9" t="s">
         <v>522</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>523</v>
       </c>
       <c r="D186" s="5" t="s"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B187" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="C187" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>526</v>
       </c>
       <c r="D187" s="5" t="s"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="C188" s="9" t="s">
         <v>528</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>529</v>
       </c>
       <c r="D188" s="5" t="s"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B189" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="C189" s="9" t="s">
         <v>531</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>532</v>
       </c>
       <c r="D189" s="5" t="s"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B190" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="B190" s="9" t="s">
-        <v>534</v>
-      </c>
       <c r="C190" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D190" s="5" t="s"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B191" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="B191" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="C191" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D191" s="5" t="s"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>538</v>
-      </c>
       <c r="C192" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D192" s="5" t="s"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B193" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>540</v>
-      </c>
       <c r="C193" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D193" s="5" t="s"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="C194" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="D194" s="5" t="s"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="C195" s="9" t="s">
         <v>545</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>546</v>
       </c>
       <c r="D195" s="5" t="s"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B196" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="C196" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="D196" s="5" t="s"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>551</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>92</v>
@@ -8975,2335 +9508,2335 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="C198" s="9" t="s">
         <v>553</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>554</v>
       </c>
       <c r="D198" s="5" t="s"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B199" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="C199" s="9" t="s">
         <v>556</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>557</v>
       </c>
       <c r="D199" s="5" t="s"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="C200" s="9" t="s">
         <v>559</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>560</v>
       </c>
       <c r="D200" s="5" t="s"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="C201" s="9" t="s">
         <v>562</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>563</v>
       </c>
       <c r="D201" s="5" t="s"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="C202" s="9" t="s">
         <v>565</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>566</v>
       </c>
       <c r="D202" s="5" t="s"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="C203" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="D203" s="5" t="s"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B204" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="C204" s="9" t="s">
         <v>571</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>572</v>
       </c>
       <c r="D204" s="9" t="s"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="C205" s="9" t="s">
         <v>574</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>575</v>
       </c>
       <c r="D205" s="5" t="s"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="C206" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>578</v>
       </c>
       <c r="D206" s="5" t="s"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="C207" s="9" t="s">
         <v>580</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>581</v>
       </c>
       <c r="D207" s="5" t="s"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="C208" s="9" t="s">
         <v>583</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>584</v>
       </c>
       <c r="D208" s="5" t="s"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="C209" s="9" t="s">
         <v>586</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>587</v>
       </c>
       <c r="D209" s="5" t="s"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="C210" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>590</v>
       </c>
       <c r="D210" s="5" t="s"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B211" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="C211" s="9" t="s">
         <v>592</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>593</v>
       </c>
       <c r="D211" s="5" t="s"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="C212" s="9" t="s">
         <v>595</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>596</v>
       </c>
       <c r="D212" s="5" t="s"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="C213" s="9" t="s">
         <v>598</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>599</v>
       </c>
       <c r="D213" s="5" t="s"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B214" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="C214" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>602</v>
       </c>
       <c r="D214" s="5" t="s"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B215" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="C215" s="9" t="s">
         <v>604</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>605</v>
       </c>
       <c r="D215" s="5" t="s"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B216" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="C216" s="9" t="s">
         <v>607</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>608</v>
       </c>
       <c r="D216" s="5" t="s"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="C217" s="9" t="s">
         <v>610</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>611</v>
       </c>
       <c r="D217" s="5" t="s"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B218" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>613</v>
-      </c>
       <c r="C218" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D218" s="5" t="s"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B219" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="C219" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="D219" s="5" t="s"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="C220" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="D220" s="5" t="s"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B221" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="C221" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>622</v>
       </c>
       <c r="D221" s="5" t="s"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="C222" s="9" t="s">
         <v>624</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>625</v>
       </c>
       <c r="D222" s="5" t="s"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="C223" s="9" t="s">
         <v>627</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>628</v>
       </c>
       <c r="D223" s="9" t="s"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B224" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="C224" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>631</v>
       </c>
       <c r="D224" s="5" t="s"/>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B225" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="C225" s="9" t="s">
         <v>633</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>634</v>
       </c>
       <c r="D225" s="5" t="s"/>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B226" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="C226" s="9" t="s">
         <v>636</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>637</v>
       </c>
       <c r="D226" s="9" t="s"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B227" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="C227" s="9" t="s">
         <v>639</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>640</v>
       </c>
       <c r="D227" s="9" t="s"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B228" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="C228" s="9" t="s">
         <v>642</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>643</v>
       </c>
       <c r="D228" s="5" t="s"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B229" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="C229" s="9" t="s">
         <v>645</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>646</v>
       </c>
       <c r="D229" s="5" t="s"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="C230" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>649</v>
       </c>
       <c r="D230" s="5" t="s"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B231" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="C231" s="9" t="s">
         <v>651</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>652</v>
       </c>
       <c r="D231" s="5" t="s"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B232" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="C232" s="9" t="s">
         <v>654</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>655</v>
       </c>
       <c r="D232" s="5" t="s"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B233" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="C233" s="9" t="s">
         <v>657</v>
-      </c>
-      <c r="C233" s="9" t="s">
-        <v>658</v>
       </c>
       <c r="D233" s="5" t="s"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B234" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="C234" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="C234" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="D234" s="5" t="s"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B235" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="C235" s="9" t="s">
         <v>663</v>
-      </c>
-      <c r="C235" s="9" t="s">
-        <v>664</v>
       </c>
       <c r="D235" s="5" t="s"/>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B236" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="C236" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>667</v>
       </c>
       <c r="D236" s="5" t="s"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B237" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="C237" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>670</v>
       </c>
       <c r="D237" s="5" t="s"/>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="B238" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="C238" s="9" t="s">
         <v>672</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>673</v>
       </c>
       <c r="D238" s="5" t="s"/>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B239" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="C239" s="9" t="s">
         <v>675</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>676</v>
       </c>
       <c r="D239" s="9" t="s"/>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B240" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="C240" s="9" t="s">
         <v>678</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>679</v>
       </c>
       <c r="D240" s="5" t="s"/>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="C241" s="9" t="s">
         <v>681</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>682</v>
       </c>
       <c r="D241" s="5" t="s"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B242" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="C242" s="9" t="s">
         <v>684</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>685</v>
       </c>
       <c r="D242" s="5" t="s"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="B243" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="C243" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>688</v>
       </c>
       <c r="D243" s="5" t="s"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="B244" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="C244" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>691</v>
       </c>
       <c r="D244" s="5" t="s"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D245" s="5" t="s"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B246" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="B246" s="9" t="s">
-        <v>694</v>
-      </c>
       <c r="C246" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D246" s="5" t="s"/>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B247" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="B247" s="9" t="s">
-        <v>696</v>
-      </c>
       <c r="C247" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D247" s="5" t="s"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B248" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="C248" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="C248" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="D248" s="5" t="s"/>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="B249" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="C249" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="C249" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="D249" s="5" t="s"/>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B250" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="B250" s="9" t="s">
-        <v>704</v>
-      </c>
       <c r="C250" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D250" s="5" t="s"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B251" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="C251" s="9" t="s">
         <v>706</v>
-      </c>
-      <c r="C251" s="9" t="s">
-        <v>707</v>
       </c>
       <c r="D251" s="5" t="s"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="B252" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="C252" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>710</v>
       </c>
       <c r="D252" s="5" t="s"/>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="B253" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>712</v>
-      </c>
       <c r="C253" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D253" s="5" t="s"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B254" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="C254" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="D254" s="5" t="s"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B255" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="B255" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="C255" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D255" s="5" t="s"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B256" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="C256" s="9" t="s">
         <v>719</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>720</v>
       </c>
       <c r="D256" s="5" t="s"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B257" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="C257" s="9" t="s">
         <v>722</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>723</v>
       </c>
       <c r="D257" s="5" t="s"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B258" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="C258" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>726</v>
       </c>
       <c r="D258" s="5" t="s"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B259" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="C259" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="D259" s="5" t="s"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B260" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="C260" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>732</v>
       </c>
       <c r="D260" s="5" t="s"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B261" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="C261" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>735</v>
       </c>
       <c r="D261" s="5" t="s"/>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B262" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="B262" s="9" t="s">
-        <v>737</v>
-      </c>
       <c r="C262" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D262" s="5" t="s"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="B263" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="C263" s="9" t="s">
         <v>739</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>740</v>
       </c>
       <c r="D263" s="5" t="s"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B264" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="C264" s="16" t="s">
         <v>742</v>
-      </c>
-      <c r="C264" s="16" t="s">
-        <v>743</v>
       </c>
       <c r="D264" s="5" t="s"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="B265" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="C265" s="9" t="s">
         <v>745</v>
-      </c>
-      <c r="C265" s="9" t="s">
-        <v>746</v>
       </c>
       <c r="D265" s="5" t="s"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="B266" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="C266" s="9" t="s">
         <v>748</v>
-      </c>
-      <c r="C266" s="9" t="s">
-        <v>749</v>
       </c>
       <c r="D266" s="5" t="s"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B267" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="C267" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>752</v>
       </c>
       <c r="D267" s="5" t="s"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="B268" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="C268" s="9" t="s">
         <v>754</v>
-      </c>
-      <c r="C268" s="9" t="s">
-        <v>755</v>
       </c>
       <c r="D268" s="5" t="s"/>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="B269" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="C269" s="9" t="s">
         <v>757</v>
-      </c>
-      <c r="C269" s="9" t="s">
-        <v>758</v>
       </c>
       <c r="D269" s="5" t="s"/>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="B270" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="C270" s="9" t="s">
         <v>760</v>
-      </c>
-      <c r="C270" s="9" t="s">
-        <v>761</v>
       </c>
       <c r="D270" s="5" t="s"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2007</v>
+        <v>2186</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2008</v>
+        <v>2187</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B272" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="C272" s="9" t="s">
         <v>764</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>765</v>
       </c>
       <c r="D272" s="5" t="s"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B273" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="C273" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="C273" s="9" t="s">
-        <v>768</v>
       </c>
       <c r="D273" s="5" t="s"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B274" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="C274" s="9" t="s">
         <v>770</v>
-      </c>
-      <c r="C274" s="9" t="s">
-        <v>771</v>
       </c>
       <c r="D274" s="5" t="s"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B275" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="C275" s="9" t="s">
         <v>773</v>
-      </c>
-      <c r="C275" s="9" t="s">
-        <v>774</v>
       </c>
       <c r="D275" s="5" t="s"/>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B276" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="C276" s="9" t="s">
         <v>776</v>
-      </c>
-      <c r="C276" s="9" t="s">
-        <v>777</v>
       </c>
       <c r="D276" s="5" t="s"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B277" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="C277" s="9" t="s">
         <v>779</v>
-      </c>
-      <c r="C277" s="9" t="s">
-        <v>780</v>
       </c>
       <c r="D277" s="5" t="s"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B278" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="C278" s="9" t="s">
         <v>782</v>
-      </c>
-      <c r="C278" s="9" t="s">
-        <v>783</v>
       </c>
       <c r="D278" s="5" t="s"/>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B279" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="C279" s="9" t="s">
         <v>785</v>
-      </c>
-      <c r="C279" s="9" t="s">
-        <v>786</v>
       </c>
       <c r="D279" s="5" t="s"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B280" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="C280" s="9" t="s">
         <v>788</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>789</v>
       </c>
       <c r="D280" s="5" t="s"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B281" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="C281" s="9" t="s">
         <v>791</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>792</v>
       </c>
       <c r="D281" s="5" t="s"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="B282" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="C282" s="9" t="s">
         <v>794</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>795</v>
       </c>
       <c r="D282" s="5" t="s"/>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="B283" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="C283" s="9" t="s">
         <v>797</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>798</v>
       </c>
       <c r="D283" s="5" t="s"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="B284" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="C284" s="9" t="s">
         <v>800</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>801</v>
       </c>
       <c r="D284" s="5" t="s"/>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B285" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="C285" s="9" t="s">
         <v>803</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>804</v>
       </c>
       <c r="D285" s="5" t="s"/>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B286" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="C286" s="9" t="s">
         <v>806</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>807</v>
       </c>
       <c r="D286" s="5" t="s"/>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="B287" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="C287" s="9" t="s">
         <v>809</v>
-      </c>
-      <c r="C287" s="9" t="s">
-        <v>810</v>
       </c>
       <c r="D287" s="5" t="s"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B288" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="C288" s="9" t="s">
         <v>812</v>
-      </c>
-      <c r="C288" s="9" t="s">
-        <v>813</v>
       </c>
       <c r="D288" s="5" t="s"/>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="B289" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="C289" s="9" t="s">
         <v>815</v>
-      </c>
-      <c r="C289" s="9" t="s">
-        <v>816</v>
       </c>
       <c r="D289" s="5" t="s"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="B290" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="C290" s="9" t="s">
         <v>818</v>
-      </c>
-      <c r="C290" s="9" t="s">
-        <v>819</v>
       </c>
       <c r="D290" s="5" t="s"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="B291" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="C291" s="9" t="s">
         <v>821</v>
-      </c>
-      <c r="C291" s="9" t="s">
-        <v>822</v>
       </c>
       <c r="D291" s="5" t="s"/>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="B292" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="C292" s="9" t="s">
         <v>824</v>
-      </c>
-      <c r="C292" s="9" t="s">
-        <v>825</v>
       </c>
       <c r="D292" s="5" t="s"/>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="B293" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="C293" s="9" t="s">
         <v>827</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>828</v>
       </c>
       <c r="D293" s="5" t="s"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B294" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="C294" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="C294" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="D294" s="5" t="s"/>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="B295" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="C295" s="9" t="s">
         <v>833</v>
-      </c>
-      <c r="C295" s="9" t="s">
-        <v>834</v>
       </c>
       <c r="D295" s="5" t="s"/>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B296" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="C296" s="9" t="s">
         <v>836</v>
-      </c>
-      <c r="C296" s="9" t="s">
-        <v>837</v>
       </c>
       <c r="D296" s="5" t="s"/>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="B297" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="C297" s="9" t="s">
         <v>839</v>
-      </c>
-      <c r="C297" s="9" t="s">
-        <v>840</v>
       </c>
       <c r="D297" s="5" t="s"/>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="B298" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="C298" s="9" t="s">
         <v>842</v>
-      </c>
-      <c r="C298" s="9" t="s">
-        <v>843</v>
       </c>
       <c r="D298" s="5" t="s"/>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B299" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="C299" s="9" t="s">
         <v>845</v>
-      </c>
-      <c r="C299" s="9" t="s">
-        <v>846</v>
       </c>
       <c r="D299" s="5" t="s"/>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B300" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="C300" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="C300" s="9" t="s">
-        <v>849</v>
       </c>
       <c r="D300" s="5" t="s"/>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B301" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="C301" s="9" t="s">
         <v>851</v>
-      </c>
-      <c r="C301" s="9" t="s">
-        <v>852</v>
       </c>
       <c r="D301" s="5" t="s"/>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="B302" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="C302" s="9" t="s">
         <v>854</v>
-      </c>
-      <c r="C302" s="9" t="s">
-        <v>855</v>
       </c>
       <c r="D302" s="5" t="s"/>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="B303" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="C303" s="9" t="s">
         <v>857</v>
-      </c>
-      <c r="C303" s="9" t="s">
-        <v>858</v>
       </c>
       <c r="D303" s="5" t="s"/>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="B304" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="C304" s="9" t="s">
         <v>860</v>
-      </c>
-      <c r="C304" s="9" t="s">
-        <v>861</v>
       </c>
       <c r="D304" s="5" t="s"/>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="B305" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="C305" s="9" t="s">
         <v>863</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>864</v>
       </c>
       <c r="D305" s="5" t="s"/>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="B306" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="C306" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="C306" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="D306" s="5" t="s"/>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="B307" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="C307" s="9" t="s">
         <v>869</v>
-      </c>
-      <c r="C307" s="9" t="s">
-        <v>870</v>
       </c>
       <c r="D307" s="5" t="s"/>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B308" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="C308" s="9" t="s">
         <v>872</v>
-      </c>
-      <c r="C308" s="9" t="s">
-        <v>873</v>
       </c>
       <c r="D308" s="5" t="s"/>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="B309" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="C309" s="9" t="s">
         <v>875</v>
-      </c>
-      <c r="C309" s="9" t="s">
-        <v>876</v>
       </c>
       <c r="D309" s="5" t="s"/>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="B310" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="C310" s="9" t="s">
         <v>878</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>879</v>
       </c>
       <c r="D310" s="5" t="s"/>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="B311" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="B311" s="9" t="s">
+      <c r="C311" s="9" t="s">
         <v>881</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>882</v>
       </c>
       <c r="D311" s="5" t="s"/>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="B312" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="C312" s="9" t="s">
         <v>884</v>
-      </c>
-      <c r="C312" s="9" t="s">
-        <v>885</v>
       </c>
       <c r="D312" s="5" t="s"/>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="B313" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="B313" s="9" t="s">
+      <c r="C313" s="9" t="s">
         <v>887</v>
-      </c>
-      <c r="C313" s="9" t="s">
-        <v>888</v>
       </c>
       <c r="D313" s="5" t="s"/>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="B314" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="B314" s="9" t="s">
+      <c r="C314" s="9" t="s">
         <v>890</v>
-      </c>
-      <c r="C314" s="9" t="s">
-        <v>891</v>
       </c>
       <c r="D314" s="5" t="s"/>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="B315" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="C315" s="9" t="s">
         <v>893</v>
-      </c>
-      <c r="C315" s="9" t="s">
-        <v>894</v>
       </c>
       <c r="D315" s="5" t="s"/>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="B316" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="C316" s="9" t="s">
         <v>896</v>
-      </c>
-      <c r="C316" s="9" t="s">
-        <v>897</v>
       </c>
       <c r="D316" s="5" t="s"/>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="B317" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="C317" s="9" t="s">
         <v>899</v>
-      </c>
-      <c r="C317" s="9" t="s">
-        <v>900</v>
       </c>
       <c r="D317" s="5" t="s"/>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="B318" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="C318" s="9" t="s">
         <v>902</v>
-      </c>
-      <c r="C318" s="9" t="s">
-        <v>903</v>
       </c>
       <c r="D318" s="5" t="s"/>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="B319" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="C319" s="9" t="s">
         <v>905</v>
-      </c>
-      <c r="C319" s="9" t="s">
-        <v>906</v>
       </c>
       <c r="D319" s="5" t="s"/>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="B320" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="B320" s="9" t="s">
+      <c r="C320" s="9" t="s">
         <v>908</v>
-      </c>
-      <c r="C320" s="9" t="s">
-        <v>909</v>
       </c>
       <c r="D320" s="5" t="s"/>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="B321" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="C321" s="9" t="s">
         <v>911</v>
-      </c>
-      <c r="C321" s="9" t="s">
-        <v>912</v>
       </c>
       <c r="D321" s="5" t="s"/>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="B322" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="C322" s="9" t="s">
         <v>914</v>
-      </c>
-      <c r="C322" s="9" t="s">
-        <v>915</v>
       </c>
       <c r="D322" s="5" t="s"/>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="B323" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="B323" s="9" t="s">
+      <c r="C323" s="9" t="s">
         <v>917</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>918</v>
       </c>
       <c r="D323" s="5" t="s"/>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="B324" s="9" t="s">
         <v>919</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="C324" s="9" t="s">
         <v>920</v>
-      </c>
-      <c r="C324" s="9" t="s">
-        <v>921</v>
       </c>
       <c r="D324" s="5" t="s"/>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="B325" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="C325" s="9" t="s">
         <v>923</v>
-      </c>
-      <c r="C325" s="9" t="s">
-        <v>924</v>
       </c>
       <c r="D325" s="5" t="s"/>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="B326" s="9" t="s">
         <v>925</v>
       </c>
-      <c r="B326" s="9" t="s">
+      <c r="C326" s="9" t="s">
         <v>926</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>927</v>
       </c>
       <c r="D326" s="5" t="s"/>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="B327" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="C327" s="9" t="s">
         <v>929</v>
-      </c>
-      <c r="C327" s="9" t="s">
-        <v>930</v>
       </c>
       <c r="D327" s="5" t="s"/>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="B328" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="C328" s="9" t="s">
         <v>932</v>
-      </c>
-      <c r="C328" s="9" t="s">
-        <v>933</v>
       </c>
       <c r="D328" s="5" t="s"/>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="B329" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="C329" s="9" t="s">
         <v>935</v>
-      </c>
-      <c r="C329" s="9" t="s">
-        <v>936</v>
       </c>
       <c r="D329" s="5" t="s"/>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="B330" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="C330" s="9" t="s">
         <v>938</v>
-      </c>
-      <c r="C330" s="9" t="s">
-        <v>939</v>
       </c>
       <c r="D330" s="5" t="s"/>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="B331" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="C331" s="9" t="s">
         <v>941</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>942</v>
       </c>
       <c r="D331" s="5" t="s"/>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="B332" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="B332" s="9" t="s">
+      <c r="C332" s="9" t="s">
         <v>944</v>
-      </c>
-      <c r="C332" s="9" t="s">
-        <v>945</v>
       </c>
       <c r="D332" s="5" t="s"/>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="B333" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="B333" s="9" t="s">
+      <c r="C333" s="9" t="s">
         <v>947</v>
-      </c>
-      <c r="C333" s="9" t="s">
-        <v>948</v>
       </c>
       <c r="D333" s="5" t="s"/>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="B334" s="9" t="s">
         <v>949</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="C334" s="9" t="s">
         <v>950</v>
-      </c>
-      <c r="C334" s="9" t="s">
-        <v>951</v>
       </c>
       <c r="D334" s="5" t="s"/>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="B335" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="C335" s="9" t="s">
         <v>953</v>
-      </c>
-      <c r="C335" s="9" t="s">
-        <v>954</v>
       </c>
       <c r="D335" s="5" t="s"/>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="B336" s="9" t="s">
         <v>955</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="C336" s="9" t="s">
         <v>956</v>
-      </c>
-      <c r="C336" s="9" t="s">
-        <v>957</v>
       </c>
       <c r="D336" s="5" t="s"/>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="B337" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="B337" s="9" t="s">
+      <c r="C337" s="9" t="s">
         <v>959</v>
-      </c>
-      <c r="C337" s="9" t="s">
-        <v>960</v>
       </c>
       <c r="D337" s="5" t="s"/>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="B338" s="9" t="s">
         <v>961</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="C338" s="9" t="s">
         <v>962</v>
-      </c>
-      <c r="C338" s="9" t="s">
-        <v>963</v>
       </c>
       <c r="D338" s="5" t="s"/>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="B339" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="C339" s="9" t="s">
         <v>965</v>
-      </c>
-      <c r="C339" s="9" t="s">
-        <v>966</v>
       </c>
       <c r="D339" s="5" t="s"/>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="B340" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="C340" s="9" t="s">
         <v>968</v>
-      </c>
-      <c r="C340" s="9" t="s">
-        <v>969</v>
       </c>
       <c r="D340" s="5" t="s"/>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B341" s="9" t="s">
         <v>970</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="C341" s="9" t="s">
         <v>971</v>
-      </c>
-      <c r="C341" s="9" t="s">
-        <v>972</v>
       </c>
       <c r="D341" s="5" t="s"/>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="B342" s="9" t="s">
         <v>973</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="C342" s="9" t="s">
         <v>974</v>
-      </c>
-      <c r="C342" s="9" t="s">
-        <v>975</v>
       </c>
       <c r="D342" s="5" t="s"/>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B343" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="C343" s="9" t="s">
         <v>977</v>
-      </c>
-      <c r="C343" s="9" t="s">
-        <v>978</v>
       </c>
       <c r="D343" s="5" t="s"/>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="B344" s="9" t="s">
         <v>979</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="C344" s="9" t="s">
         <v>980</v>
-      </c>
-      <c r="C344" s="9" t="s">
-        <v>981</v>
       </c>
       <c r="D344" s="5" t="s"/>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B345" s="9" t="s">
         <v>982</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="C345" s="9" t="s">
         <v>983</v>
-      </c>
-      <c r="C345" s="9" t="s">
-        <v>984</v>
       </c>
       <c r="D345" s="5" t="s"/>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B346" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="C346" s="9" t="s">
         <v>986</v>
-      </c>
-      <c r="C346" s="9" t="s">
-        <v>987</v>
       </c>
       <c r="D346" s="5" t="s"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B347" s="9" t="s">
         <v>988</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="C347" s="9" t="s">
         <v>989</v>
-      </c>
-      <c r="C347" s="9" t="s">
-        <v>990</v>
       </c>
       <c r="D347" s="5" t="s"/>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="B348" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="B348" s="9" t="s">
+      <c r="C348" s="9" t="s">
         <v>992</v>
-      </c>
-      <c r="C348" s="9" t="s">
-        <v>993</v>
       </c>
       <c r="D348" s="5" t="s"/>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B349" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="B349" s="9" t="s">
+      <c r="C349" s="9" t="s">
         <v>995</v>
-      </c>
-      <c r="C349" s="9" t="s">
-        <v>996</v>
       </c>
       <c r="D349" s="5" t="s"/>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="B350" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="C350" s="9" t="s">
         <v>998</v>
-      </c>
-      <c r="C350" s="9" t="s">
-        <v>999</v>
       </c>
       <c r="D350" s="5" t="s"/>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B351" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="B351" s="9" t="s">
+      <c r="C351" s="9" t="s">
         <v>1001</v>
-      </c>
-      <c r="C351" s="9" t="s">
-        <v>1002</v>
       </c>
       <c r="D351" s="5" t="s"/>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B352" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="C352" s="9" t="s">
         <v>1004</v>
-      </c>
-      <c r="C352" s="9" t="s">
-        <v>1005</v>
       </c>
       <c r="D352" s="5" t="s"/>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B353" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="C353" s="9" t="s">
         <v>1007</v>
-      </c>
-      <c r="C353" s="9" t="s">
-        <v>1008</v>
       </c>
       <c r="D353" s="5" t="s"/>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B354" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="B354" s="9" t="s">
+      <c r="C354" s="9" t="s">
         <v>1010</v>
-      </c>
-      <c r="C354" s="9" t="s">
-        <v>1011</v>
       </c>
       <c r="D354" s="5" t="s"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B355" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="B355" s="9" t="s">
+      <c r="C355" s="9" t="s">
         <v>1013</v>
-      </c>
-      <c r="C355" s="9" t="s">
-        <v>1014</v>
       </c>
       <c r="D355" s="5" t="s"/>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B356" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="C356" s="9" t="s">
         <v>1016</v>
-      </c>
-      <c r="C356" s="9" t="s">
-        <v>1017</v>
       </c>
       <c r="D356" s="5" t="s"/>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B357" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="C357" s="9" t="s">
         <v>1019</v>
-      </c>
-      <c r="C357" s="9" t="s">
-        <v>1020</v>
       </c>
       <c r="D357" s="5" t="s"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B358" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="C358" s="9" t="s">
         <v>1022</v>
-      </c>
-      <c r="C358" s="9" t="s">
-        <v>1023</v>
       </c>
       <c r="D358" s="5" t="s"/>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B359" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="C359" s="9" t="s">
         <v>1025</v>
-      </c>
-      <c r="C359" s="9" t="s">
-        <v>1026</v>
       </c>
       <c r="D359" s="5" t="s"/>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B360" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="C360" s="9" t="s">
         <v>1028</v>
-      </c>
-      <c r="C360" s="9" t="s">
-        <v>1029</v>
       </c>
       <c r="D360" s="5" t="s"/>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B361" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="C361" s="9" t="s">
         <v>1031</v>
-      </c>
-      <c r="C361" s="9" t="s">
-        <v>1032</v>
       </c>
       <c r="D361" s="5" t="s"/>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B362" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="C362" s="9" t="s">
         <v>1034</v>
-      </c>
-      <c r="C362" s="9" t="s">
-        <v>1035</v>
       </c>
       <c r="D362" s="5" t="s"/>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B363" s="9" t="s">
         <v>1036</v>
       </c>
-      <c r="B363" s="9" t="s">
+      <c r="C363" s="9" t="s">
         <v>1037</v>
-      </c>
-      <c r="C363" s="9" t="s">
-        <v>1038</v>
       </c>
       <c r="D363" s="5" t="s"/>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B364" s="9" t="s">
         <v>1039</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="C364" s="9" t="s">
         <v>1040</v>
-      </c>
-      <c r="C364" s="9" t="s">
-        <v>1041</v>
       </c>
       <c r="D364" s="5" t="s"/>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B365" s="9" t="s">
         <v>1042</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="C365" s="9" t="s">
         <v>1043</v>
-      </c>
-      <c r="C365" s="9" t="s">
-        <v>1044</v>
       </c>
       <c r="D365" s="5" t="s"/>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B366" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="C366" s="9" t="s">
         <v>1046</v>
-      </c>
-      <c r="C366" s="9" t="s">
-        <v>1047</v>
       </c>
       <c r="D366" s="5" t="s"/>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B367" s="9" t="s">
         <v>1048</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="C367" s="9" t="s">
         <v>1049</v>
-      </c>
-      <c r="C367" s="9" t="s">
-        <v>1050</v>
       </c>
       <c r="D367" s="5" t="s"/>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B368" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="C368" s="9" t="s">
         <v>1052</v>
-      </c>
-      <c r="C368" s="9" t="s">
-        <v>1053</v>
       </c>
       <c r="D368" s="5" t="s"/>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B369" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="B369" s="9" t="s">
+      <c r="C369" s="9" t="s">
         <v>1055</v>
-      </c>
-      <c r="C369" s="9" t="s">
-        <v>1056</v>
       </c>
       <c r="D369" s="5" t="s"/>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B370" s="9" t="s">
         <v>1057</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="C370" s="9" t="s">
         <v>1058</v>
-      </c>
-      <c r="C370" s="9" t="s">
-        <v>1059</v>
       </c>
       <c r="D370" s="5" t="s"/>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B371" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="C371" s="9" t="s">
         <v>1061</v>
-      </c>
-      <c r="C371" s="9" t="s">
-        <v>1062</v>
       </c>
       <c r="D371" s="5" t="s"/>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2009</v>
+        <v>2188</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2010</v>
+        <v>2189</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2011</v>
+        <v>2190</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2012</v>
+        <v>2191</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B374" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="C374" s="9" t="s">
         <v>1066</v>
-      </c>
-      <c r="C374" s="9" t="s">
-        <v>1067</v>
       </c>
       <c r="D374" s="5" t="s"/>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C375" s="9" t="s">
         <v>1068</v>
-      </c>
-      <c r="B375" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="C375" s="9" t="s">
-        <v>1069</v>
       </c>
       <c r="D375" s="5" t="s"/>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B376" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="B376" s="9" t="s">
-        <v>1071</v>
-      </c>
       <c r="C376" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D376" s="5" t="s"/>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B377" s="9" t="s">
         <v>1072</v>
       </c>
-      <c r="B377" s="9" t="s">
-        <v>1073</v>
-      </c>
       <c r="C377" s="9" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D377" s="5" t="s"/>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D378" s="5" t="s"/>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B379" s="9" t="s">
         <v>1075</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="C379" s="9" t="s">
         <v>1076</v>
-      </c>
-      <c r="C379" s="9" t="s">
-        <v>1077</v>
       </c>
       <c r="D379" s="5" t="s"/>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B380" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="C380" s="9" t="s">
         <v>1079</v>
-      </c>
-      <c r="C380" s="9" t="s">
-        <v>1080</v>
       </c>
       <c r="D380" s="5" t="s"/>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B381" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="C381" s="9" t="s">
         <v>1082</v>
-      </c>
-      <c r="C381" s="9" t="s">
-        <v>1083</v>
       </c>
       <c r="D381" s="5" t="s"/>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B382" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="C382" s="9" t="s">
         <v>1085</v>
-      </c>
-      <c r="C382" s="9" t="s">
-        <v>1086</v>
       </c>
       <c r="D382" s="5" t="s"/>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B383" s="9" t="s">
         <v>1087</v>
       </c>
-      <c r="B383" s="9" t="s">
+      <c r="C383" s="9" t="s">
         <v>1088</v>
-      </c>
-      <c r="C383" s="9" t="s">
-        <v>1089</v>
       </c>
       <c r="D383" s="5" t="s"/>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B384" s="9" t="s">
         <v>1090</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="C384" s="9" t="s">
         <v>1091</v>
-      </c>
-      <c r="C384" s="9" t="s">
-        <v>1092</v>
       </c>
       <c r="D384" s="5" t="s"/>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B385" s="9" t="s">
         <v>1093</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="C385" s="9" t="s">
         <v>1094</v>
-      </c>
-      <c r="C385" s="9" t="s">
-        <v>1095</v>
       </c>
       <c r="D385" s="5" t="s"/>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B386" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="C386" s="9" t="s">
         <v>1097</v>
-      </c>
-      <c r="C386" s="9" t="s">
-        <v>1098</v>
       </c>
       <c r="D386" s="5" t="s"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B387" s="9" t="s">
         <v>1099</v>
       </c>
-      <c r="B387" s="9" t="s">
-        <v>1100</v>
-      </c>
       <c r="C387" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D387" s="5" t="s"/>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B388" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="B388" s="9" t="s">
-        <v>1102</v>
-      </c>
       <c r="C388" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D388" s="5" t="s"/>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B389" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="B389" s="9" t="s">
+      <c r="C389" s="9" t="s">
         <v>1104</v>
-      </c>
-      <c r="C389" s="9" t="s">
-        <v>1105</v>
       </c>
       <c r="D389" s="5" t="s"/>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B390" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="B390" s="9" t="s">
+      <c r="C390" s="9" t="s">
         <v>1107</v>
-      </c>
-      <c r="C390" s="9" t="s">
-        <v>1108</v>
       </c>
       <c r="D390" s="5" t="s"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B391" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="B391" s="9" t="s">
+      <c r="C391" s="9" t="s">
         <v>1110</v>
-      </c>
-      <c r="C391" s="9" t="s">
-        <v>1111</v>
       </c>
       <c r="D391" s="5" t="s"/>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B392" s="9" t="s">
         <v>278</v>
@@ -11315,655 +11848,655 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B393" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C393" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="C393" s="9" t="s">
-        <v>506</v>
       </c>
       <c r="D393" s="5" t="s"/>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B394" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="C394" s="9" t="s">
         <v>1115</v>
-      </c>
-      <c r="C394" s="9" t="s">
-        <v>1116</v>
       </c>
       <c r="D394" s="5" t="s"/>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B395" s="9" t="s">
         <v>1117</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="C395" s="9" t="s">
         <v>1118</v>
-      </c>
-      <c r="C395" s="9" t="s">
-        <v>1119</v>
       </c>
       <c r="D395" s="5" t="s"/>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B396" s="9" t="s">
         <v>1120</v>
       </c>
-      <c r="B396" s="9" t="s">
-        <v>1121</v>
-      </c>
       <c r="C396" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D396" s="5" t="s"/>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B397" s="9" t="s">
         <v>1122</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="C397" s="9" t="s">
         <v>1123</v>
-      </c>
-      <c r="C397" s="9" t="s">
-        <v>1124</v>
       </c>
       <c r="D397" s="5" t="s"/>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B398" s="9" t="s">
         <v>1125</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="C398" s="9" t="s">
         <v>1126</v>
-      </c>
-      <c r="C398" s="9" t="s">
-        <v>1127</v>
       </c>
       <c r="D398" s="17" t="s"/>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B399" s="9" t="s">
         <v>1128</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="C399" s="9" t="s">
         <v>1129</v>
-      </c>
-      <c r="C399" s="9" t="s">
-        <v>1130</v>
       </c>
       <c r="D399" s="5" t="s"/>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B400" s="9" t="s">
         <v>1131</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="C400" s="9" t="s">
         <v>1132</v>
-      </c>
-      <c r="C400" s="9" t="s">
-        <v>1133</v>
       </c>
       <c r="D400" s="5" t="s"/>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B401" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="C401" s="5" t="s">
         <v>1135</v>
-      </c>
-      <c r="C401" s="5" t="s">
-        <v>1136</v>
       </c>
       <c r="D401" s="5" t="s"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B402" s="9" t="s">
         <v>1137</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="C402" s="9" t="s">
         <v>1138</v>
-      </c>
-      <c r="C402" s="9" t="s">
-        <v>1139</v>
       </c>
       <c r="D402" s="5" t="s"/>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B403" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="C403" s="9" t="s">
         <v>1141</v>
-      </c>
-      <c r="C403" s="9" t="s">
-        <v>1142</v>
       </c>
       <c r="D403" s="5" t="s"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B404" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="C404" s="9" t="s">
         <v>1144</v>
-      </c>
-      <c r="C404" s="9" t="s">
-        <v>1145</v>
       </c>
       <c r="D404" s="5" t="s"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B405" s="9" t="s">
         <v>1146</v>
       </c>
-      <c r="B405" s="9" t="s">
+      <c r="C405" s="9" t="s">
         <v>1147</v>
-      </c>
-      <c r="C405" s="9" t="s">
-        <v>1148</v>
       </c>
       <c r="D405" s="5" t="s"/>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B406" s="9" t="s">
         <v>1149</v>
       </c>
-      <c r="B406" s="9" t="s">
-        <v>1150</v>
-      </c>
       <c r="C406" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D406" s="5" t="s"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B407" s="9" t="s">
         <v>1151</v>
       </c>
-      <c r="B407" s="9" t="s">
-        <v>1152</v>
-      </c>
       <c r="C407" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D407" s="5" t="s"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B408" s="9" t="s">
         <v>1153</v>
       </c>
-      <c r="B408" s="9" t="s">
-        <v>1154</v>
-      </c>
       <c r="C408" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D408" s="5" t="s"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B409" s="9" t="s">
         <v>1155</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="C409" s="9" t="s">
         <v>1156</v>
-      </c>
-      <c r="C409" s="9" t="s">
-        <v>1157</v>
       </c>
       <c r="D409" s="5" t="s"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B410" s="9" t="s">
         <v>1158</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="C410" s="9" t="s">
         <v>1159</v>
-      </c>
-      <c r="C410" s="9" t="s">
-        <v>1160</v>
       </c>
       <c r="D410" s="5" t="s"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B411" s="9" t="s">
         <v>1161</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="C411" s="9" t="s">
         <v>1162</v>
-      </c>
-      <c r="C411" s="9" t="s">
-        <v>1163</v>
       </c>
       <c r="D411" s="5" t="s"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B412" s="9" t="s">
         <v>1164</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="C412" s="9" t="s">
         <v>1165</v>
-      </c>
-      <c r="C412" s="9" t="s">
-        <v>1166</v>
       </c>
       <c r="D412" s="5" t="s"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B413" s="9" t="s">
         <v>1167</v>
       </c>
-      <c r="B413" s="9" t="s">
-        <v>1168</v>
-      </c>
       <c r="C413" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D413" s="5" t="s"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B414" s="9" t="s">
         <v>1169</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="C414" s="9" t="s">
         <v>1170</v>
-      </c>
-      <c r="C414" s="9" t="s">
-        <v>1171</v>
       </c>
       <c r="D414" s="5" t="s"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B415" s="9" t="s">
         <v>1172</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="C415" s="9" t="s">
         <v>1173</v>
-      </c>
-      <c r="C415" s="9" t="s">
-        <v>1174</v>
       </c>
       <c r="D415" s="5" t="s"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B416" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="C416" s="9" t="s">
         <v>1176</v>
-      </c>
-      <c r="C416" s="9" t="s">
-        <v>1177</v>
       </c>
       <c r="D416" s="5" t="s"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B417" s="9" t="s">
         <v>1178</v>
       </c>
-      <c r="B417" s="9" t="s">
+      <c r="C417" s="9" t="s">
         <v>1179</v>
-      </c>
-      <c r="C417" s="9" t="s">
-        <v>1180</v>
       </c>
       <c r="D417" s="5" t="s"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B418" s="9" t="s">
         <v>1181</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="C418" s="9" t="s">
         <v>1182</v>
-      </c>
-      <c r="C418" s="9" t="s">
-        <v>1183</v>
       </c>
       <c r="D418" s="5" t="s"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B419" s="9" t="s">
         <v>1184</v>
       </c>
-      <c r="B419" s="9" t="s">
+      <c r="C419" s="9" t="s">
         <v>1185</v>
-      </c>
-      <c r="C419" s="9" t="s">
-        <v>1186</v>
       </c>
       <c r="D419" s="5" t="s"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B420" s="9" t="s">
         <v>1187</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="C420" s="9" t="s">
         <v>1188</v>
-      </c>
-      <c r="C420" s="9" t="s">
-        <v>1189</v>
       </c>
       <c r="D420" s="5" t="s"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B421" s="9" t="s">
         <v>1190</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="C421" s="9" t="s">
         <v>1191</v>
-      </c>
-      <c r="C421" s="9" t="s">
-        <v>1192</v>
       </c>
       <c r="D421" s="5" t="s"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B422" s="9" t="s">
         <v>1193</v>
       </c>
-      <c r="B422" s="9" t="s">
-        <v>1194</v>
-      </c>
       <c r="C422" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D422" s="5" t="s"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B423" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D423" s="5" t="s"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B424" s="9" t="s">
         <v>1197</v>
       </c>
-      <c r="B424" s="9" t="s">
+      <c r="C424" s="9" t="s">
         <v>1198</v>
-      </c>
-      <c r="C424" s="9" t="s">
-        <v>1199</v>
       </c>
       <c r="D424" s="5" t="s"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B425" s="9" t="s">
         <v>1200</v>
       </c>
-      <c r="B425" s="9" t="s">
+      <c r="C425" s="9" t="s">
         <v>1201</v>
-      </c>
-      <c r="C425" s="9" t="s">
-        <v>1202</v>
       </c>
       <c r="D425" s="5" t="s"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B426" s="9" t="s">
         <v>1203</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="C426" s="9" t="s">
         <v>1204</v>
-      </c>
-      <c r="C426" s="9" t="s">
-        <v>1205</v>
       </c>
       <c r="D426" s="5" t="s"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B427" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="B427" s="9" t="s">
+      <c r="C427" s="9" t="s">
         <v>1207</v>
-      </c>
-      <c r="C427" s="9" t="s">
-        <v>1208</v>
       </c>
       <c r="D427" s="5" t="s"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B428" s="9" t="s">
         <v>1209</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="C428" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="C428" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="D428" s="5" t="s"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B429" s="9" t="s">
         <v>1212</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="C429" s="9" t="s">
         <v>1213</v>
-      </c>
-      <c r="C429" s="9" t="s">
-        <v>1214</v>
       </c>
       <c r="D429" s="5" t="s"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B430" s="9" t="s">
         <v>1215</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="C430" s="9" t="s">
         <v>1216</v>
-      </c>
-      <c r="C430" s="9" t="s">
-        <v>1217</v>
       </c>
       <c r="D430" s="5" t="s"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B431" s="9" t="s">
         <v>1218</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="C431" s="9" t="s">
         <v>1219</v>
-      </c>
-      <c r="C431" s="9" t="s">
-        <v>1220</v>
       </c>
       <c r="D431" s="5" t="s"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B432" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="C432" s="9" t="s">
         <v>1222</v>
-      </c>
-      <c r="C432" s="9" t="s">
-        <v>1223</v>
       </c>
       <c r="D432" s="5" t="s"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B433" s="9" t="s">
         <v>1224</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="C433" s="9" t="s">
         <v>1225</v>
-      </c>
-      <c r="C433" s="9" t="s">
-        <v>1226</v>
       </c>
       <c r="D433" s="5" t="s"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B434" s="9" t="s">
         <v>1227</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="C434" s="9" t="s">
         <v>1228</v>
-      </c>
-      <c r="C434" s="9" t="s">
-        <v>1229</v>
       </c>
       <c r="D434" s="5" t="s"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B435" s="9" t="s">
         <v>1230</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="C435" s="9" t="s">
         <v>1231</v>
-      </c>
-      <c r="C435" s="9" t="s">
-        <v>1232</v>
       </c>
       <c r="D435" s="5" t="s"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B436" s="9" t="s">
         <v>1233</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="C436" s="9" t="s">
         <v>1234</v>
-      </c>
-      <c r="C436" s="9" t="s">
-        <v>1235</v>
       </c>
       <c r="D436" s="5" t="s"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B437" s="9" t="s">
         <v>1236</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="C437" s="9" t="s">
         <v>1237</v>
-      </c>
-      <c r="C437" s="9" t="s">
-        <v>1238</v>
       </c>
       <c r="D437" s="5" t="s"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B438" s="9" t="s">
         <v>1239</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="C438" s="9" t="s">
         <v>1240</v>
-      </c>
-      <c r="C438" s="9" t="s">
-        <v>1241</v>
       </c>
       <c r="D438" s="5" t="s"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B439" s="9" t="s">
         <v>1242</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="C439" s="9" t="s">
         <v>1243</v>
-      </c>
-      <c r="C439" s="9" t="s">
-        <v>1244</v>
       </c>
       <c r="D439" s="5" t="s"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B440" s="9" t="s">
         <v>1245</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="C440" s="9" t="s">
         <v>1246</v>
-      </c>
-      <c r="C440" s="9" t="s">
-        <v>1247</v>
       </c>
       <c r="D440" s="5" t="s"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B441" s="9" t="s">
         <v>1248</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="C441" s="9" t="s">
         <v>1249</v>
-      </c>
-      <c r="C441" s="9" t="s">
-        <v>1250</v>
       </c>
       <c r="D441" s="5" t="s"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B442" s="9" t="s">
         <v>1251</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="C442" s="9" t="s">
         <v>1252</v>
-      </c>
-      <c r="C442" s="9" t="s">
-        <v>1253</v>
       </c>
       <c r="D442" s="5" t="s"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B443" s="9" t="s">
         <v>1254</v>
       </c>
-      <c r="B443" s="9" t="s">
+      <c r="C443" s="9" t="s">
         <v>1255</v>
-      </c>
-      <c r="C443" s="9" t="s">
-        <v>1256</v>
       </c>
       <c r="D443" s="5" t="s"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B444" s="9" t="s">
         <v>1257</v>
       </c>
-      <c r="B444" s="9" t="s">
+      <c r="C444" s="9" t="s">
         <v>1258</v>
-      </c>
-      <c r="C444" s="9" t="s">
-        <v>1259</v>
       </c>
       <c r="D444" s="5" t="s"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B445" s="9" t="s">
         <v>1260</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="C445" s="9" t="s">
         <v>1261</v>
-      </c>
-      <c r="C445" s="9" t="s">
-        <v>1262</v>
       </c>
       <c r="D445" s="5" t="s"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B446" s="9" t="s">
         <v>1263</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="C446" s="9" t="s">
         <v>1264</v>
-      </c>
-      <c r="C446" s="9" t="s">
-        <v>1265</v>
       </c>
       <c r="D446" s="5" t="s"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B447" s="9" t="s"/>
       <c r="C447" s="9" t="s"/>
@@ -11971,34 +12504,36 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B448" s="9" t="s">
         <v>1267</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="C448" s="9" t="s">
         <v>1268</v>
-      </c>
-      <c r="C448" s="9" t="s">
-        <v>1269</v>
       </c>
       <c r="D448" s="5" t="s"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B449" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="C449" s="9" t="s">
         <v>1271</v>
-      </c>
-      <c r="C449" s="9" t="s">
-        <v>1272</v>
       </c>
       <c r="D449" s="5" t="s"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B450" s="9" t="s"/>
+      <c r="C450" s="9" t="s">
         <v>1273</v>
       </c>
-      <c r="B450" s="9" t="s"/>
-      <c r="C450" s="9" t="s"/>
       <c r="D450" s="5" t="s"/>
     </row>
     <row r="451" spans="1:4">
@@ -12186,10 +12721,10 @@
         <v>1316</v>
       </c>
       <c r="B466" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C466" s="13" t="s">
         <v>1123</v>
-      </c>
-      <c r="C466" s="13" t="s">
-        <v>1124</v>
       </c>
       <c r="D466" s="5" t="s"/>
     </row>
@@ -13278,7 +13813,7 @@
         <v>1579</v>
       </c>
       <c r="B557" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C557" s="9" t="s">
         <v>1580</v>
@@ -14446,10 +14981,10 @@
         <v>1858</v>
       </c>
       <c r="B654" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C654" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="C654" s="9" t="s">
-        <v>509</v>
       </c>
       <c r="D654" s="5" t="s"/>
     </row>
@@ -15022,56 +15557,1150 @@
         <v>2000</v>
       </c>
       <c r="B702" s="9" t="s"/>
-      <c r="C702" s="9" t="s"/>
+      <c r="C702" s="9" t="s">
+        <v>2001</v>
+      </c>
       <c r="D702" s="5" t="s"/>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="3" t="s">
-        <v>2001</v>
-      </c>
-      <c r="B703" s="9" t="s"/>
-      <c r="C703" s="9" t="s"/>
+        <v>2002</v>
+      </c>
+      <c r="B703" s="9" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C703" s="9" t="s">
+        <v>2004</v>
+      </c>
       <c r="D703" s="5" t="s"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="3" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="B704" s="9" t="s"/>
-      <c r="C704" s="9" t="s"/>
+      <c r="C704" s="9" t="s">
+        <v>2006</v>
+      </c>
       <c r="D704" s="5" t="s"/>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="3" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="B705" s="9" t="s"/>
-      <c r="C705" s="9" t="s"/>
+      <c r="C705" s="9" t="s">
+        <v>2008</v>
+      </c>
       <c r="D705" s="5" t="s"/>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="3" t="s">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="B706" s="9" t="s"/>
-      <c r="C706" s="9" t="s"/>
+      <c r="C706" s="9" t="s">
+        <v>2010</v>
+      </c>
       <c r="D706" s="5" t="s"/>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="3" t="s">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="B707" s="9" t="s"/>
-      <c r="C707" s="9" t="s"/>
+      <c r="C707" s="9" t="s">
+        <v>2012</v>
+      </c>
       <c r="D707" s="5" t="s"/>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="3" t="s">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B708" s="9" t="s"/>
-      <c r="C708" s="9" t="s"/>
+      <c r="C708" s="9" t="s">
+        <v>2014</v>
+      </c>
       <c r="D708" s="5" t="s"/>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B709" s="9" t="s"/>
+      <c r="C709" s="9" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D709" s="5" t="s"/>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B710" s="9" t="s"/>
+      <c r="C710" s="9" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D710" s="5" t="s"/>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B711" s="9" t="s"/>
+      <c r="C711" s="9" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D711" s="5" t="s"/>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B712" s="9" t="s"/>
+      <c r="C712" s="9" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D712" s="5" t="s"/>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B713" s="9" t="s"/>
+      <c r="C713" s="9" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D713" s="5" t="s"/>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B714" s="9" t="s"/>
+      <c r="C714" s="9" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D714" s="5" t="s"/>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B715" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C715" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D715" s="5" t="s"/>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B716" s="9" t="s"/>
+      <c r="C716" s="9" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D716" s="5" t="s"/>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B717" s="9" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C717" s="9" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D717" s="5" t="s"/>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B718" s="9" t="s"/>
+      <c r="C718" s="9" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D718" s="5" t="s"/>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B719" s="9" t="s"/>
+      <c r="C719" s="9" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D719" s="5" t="s"/>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B720" s="9" t="s"/>
+      <c r="C720" s="9" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D720" s="5" t="s"/>
+    </row>
+    <row r="721" spans="1:4">
+      <c r="A721" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B721" s="9" t="s"/>
+      <c r="C721" s="9" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D721" s="5" t="s"/>
+    </row>
+    <row r="722" spans="1:4">
+      <c r="A722" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B722" s="9" t="s"/>
+      <c r="C722" s="9" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D722" s="5" t="s"/>
+    </row>
+    <row r="723" spans="1:4">
+      <c r="A723" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B723" s="9" t="s"/>
+      <c r="C723" s="9" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D723" s="5" t="s"/>
+    </row>
+    <row r="724" spans="1:4">
+      <c r="A724" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B724" s="9" t="s"/>
+      <c r="C724" s="9" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D724" s="5" t="s"/>
+    </row>
+    <row r="725" spans="1:4">
+      <c r="A725" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B725" s="9" t="s"/>
+      <c r="C725" s="9" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D725" s="5" t="s"/>
+    </row>
+    <row r="726" spans="1:4">
+      <c r="A726" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B726" s="9" t="s"/>
+      <c r="C726" s="9" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D726" s="5" t="s"/>
+    </row>
+    <row r="727" spans="1:4">
+      <c r="A727" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B727" s="9" t="s"/>
+      <c r="C727" s="9" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D727" s="5" t="s"/>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B728" s="9" t="s"/>
+      <c r="C728" s="9" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D728" s="5" t="s"/>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B729" s="9" t="s"/>
+      <c r="C729" s="9" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D729" s="5" t="s"/>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B730" s="9" t="s"/>
+      <c r="C730" s="9" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D730" s="5" t="s"/>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B731" s="9" t="s"/>
+      <c r="C731" s="9" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D731" s="5" t="s"/>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B732" s="9" t="s"/>
+      <c r="C732" s="9" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D732" s="5" t="s"/>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B733" s="9" t="s"/>
+      <c r="C733" s="9" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D733" s="5" t="s"/>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B734" s="9" t="s"/>
+      <c r="C734" s="9" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D734" s="5" t="s"/>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B735" s="9" t="s"/>
+      <c r="C735" s="9" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D735" s="5" t="s"/>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B736" s="9" t="s"/>
+      <c r="C736" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D736" s="5" t="s"/>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B737" s="9" t="s"/>
+      <c r="C737" s="9" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D737" s="5" t="s"/>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B738" s="9" t="s"/>
+      <c r="C738" s="9" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D738" s="5" t="s"/>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B739" s="9" t="s"/>
+      <c r="C739" s="9" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D739" s="5" t="s"/>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B740" s="9" t="s"/>
+      <c r="C740" s="9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D740" s="5" t="s"/>
+    </row>
+    <row r="741" spans="1:4">
+      <c r="A741" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B741" s="9" t="s"/>
+      <c r="C741" s="9" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D741" s="5" t="s"/>
+    </row>
+    <row r="742" spans="1:4">
+      <c r="A742" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B742" s="9" t="s"/>
+      <c r="C742" s="9" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D742" s="5" t="s"/>
+    </row>
+    <row r="743" spans="1:4">
+      <c r="A743" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B743" s="9" t="s"/>
+      <c r="C743" s="9" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D743" s="5" t="s"/>
+    </row>
+    <row r="744" spans="1:4">
+      <c r="A744" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B744" s="9" t="s"/>
+      <c r="C744" s="9" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D744" s="5" t="s"/>
+    </row>
+    <row r="745" spans="1:4">
+      <c r="A745" s="3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B745" s="9" t="s"/>
+      <c r="C745" s="9" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D745" s="5" t="s"/>
+    </row>
+    <row r="746" spans="1:4">
+      <c r="A746" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B746" s="9" t="s"/>
+      <c r="C746" s="9" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D746" s="5" t="s"/>
+    </row>
+    <row r="747" spans="1:4">
+      <c r="A747" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B747" s="9" t="s"/>
+      <c r="C747" s="9" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D747" s="5" t="s"/>
+    </row>
+    <row r="748" spans="1:4">
+      <c r="A748" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B748" s="9" t="s"/>
+      <c r="C748" s="9" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D748" s="5" t="s"/>
+    </row>
+    <row r="749" spans="1:4">
+      <c r="A749" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B749" s="9" t="s"/>
+      <c r="C749" s="9" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D749" s="5" t="s"/>
+    </row>
+    <row r="750" spans="1:4">
+      <c r="A750" s="3" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B750" s="9" t="s"/>
+      <c r="C750" s="9" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D750" s="5" t="s"/>
+    </row>
+    <row r="751" spans="1:4">
+      <c r="A751" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B751" s="9" t="s"/>
+      <c r="C751" s="9" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D751" s="5" t="s"/>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B752" s="9" t="s"/>
+      <c r="C752" s="9" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D752" s="5" t="s"/>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B753" s="9" t="s"/>
+      <c r="C753" s="9" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D753" s="5" t="s"/>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B754" s="9" t="s"/>
+      <c r="C754" s="9" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D754" s="5" t="s"/>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="A755" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B755" s="9" t="s"/>
+      <c r="C755" s="9" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D755" s="5" t="s"/>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="A756" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B756" s="9" t="s"/>
+      <c r="C756" s="9" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D756" s="5" t="s"/>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="A757" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B757" s="9" t="s"/>
+      <c r="C757" s="9" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D757" s="5" t="s"/>
+    </row>
+    <row r="758" spans="1:4">
+      <c r="A758" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B758" s="9" t="s"/>
+      <c r="C758" s="9" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D758" s="5" t="s"/>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="A759" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B759" s="9" t="s"/>
+      <c r="C759" s="9" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D759" s="5" t="s"/>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="A760" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B760" s="9" t="s"/>
+      <c r="C760" s="9" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D760" s="5" t="s"/>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="A761" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B761" s="9" t="s"/>
+      <c r="C761" s="9" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D761" s="5" t="s"/>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B762" s="9" t="s"/>
+      <c r="C762" s="9" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D762" s="5" t="s"/>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B763" s="9" t="s"/>
+      <c r="C763" s="9" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D763" s="5" t="s"/>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B764" s="9" t="s"/>
+      <c r="C764" s="9" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D764" s="5" t="s"/>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B765" s="9" t="s"/>
+      <c r="C765" s="9" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D765" s="5" t="s"/>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B766" s="9" t="s"/>
+      <c r="C766" s="9" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D766" s="5" t="s"/>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B767" s="9" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C767" s="9" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D767" s="5" t="s"/>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B768" s="9" t="s"/>
+      <c r="C768" s="9" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D768" s="5" t="s"/>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B769" s="9" t="s"/>
+      <c r="C769" s="9" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D769" s="5" t="s"/>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B770" s="9" t="s"/>
+      <c r="C770" s="9" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D770" s="5" t="s"/>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B771" s="9" t="s"/>
+      <c r="C771" s="9" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D771" s="5" t="s"/>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B772" s="9" t="s"/>
+      <c r="C772" s="9" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D772" s="5" t="s"/>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B773" s="9" t="s"/>
+      <c r="C773" s="9" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D773" s="5" t="s"/>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B774" s="9" t="s"/>
+      <c r="C774" s="9" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D774" s="5" t="s"/>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B775" s="9" t="s"/>
+      <c r="C775" s="9" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D775" s="5" t="s"/>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B776" s="9" t="s"/>
+      <c r="C776" s="9" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D776" s="5" t="s"/>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B777" s="9" t="s"/>
+      <c r="C777" s="9" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D777" s="5" t="s"/>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B778" s="9" t="s"/>
+      <c r="C778" s="9" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D778" s="5" t="s"/>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B779" s="9" t="s"/>
+      <c r="C779" s="9" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D779" s="5" t="s"/>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B780" s="9" t="s"/>
+      <c r="C780" s="9" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D780" s="5" t="s"/>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B781" s="9" t="s"/>
+      <c r="C781" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D781" s="5" t="s"/>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B782" s="9" t="s"/>
+      <c r="C782" s="9" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D782" s="5" t="s"/>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B783" s="9" t="s"/>
+      <c r="C783" s="9" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D783" s="5" t="s"/>
+    </row>
+    <row r="784" spans="1:4">
+      <c r="A784" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B784" s="9" t="s"/>
+      <c r="C784" s="9" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D784" s="5" t="s"/>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="A785" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B785" s="9" t="s"/>
+      <c r="C785" s="9" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D785" s="5" t="s"/>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B786" s="9" t="s"/>
+      <c r="C786" s="9" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D786" s="5" t="s"/>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="A787" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B787" s="9" t="s"/>
+      <c r="C787" s="9" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D787" s="5" t="s"/>
+    </row>
+    <row r="788" spans="1:4">
+      <c r="A788" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B788" s="9" t="s"/>
+      <c r="C788" s="9" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D788" s="5" t="s"/>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="A789" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B789" s="9" t="s"/>
+      <c r="C789" s="9" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D789" s="5" t="s"/>
+    </row>
+    <row r="790" spans="1:4">
+      <c r="A790" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B790" s="9" t="s"/>
+      <c r="C790" s="9" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D790" s="5" t="s"/>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B791" s="9" t="s"/>
+      <c r="C791" s="9" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D791" s="5" t="s"/>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="A792" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B792" s="9" t="s"/>
+      <c r="C792" s="9" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D792" s="5" t="s"/>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="A793" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B793" s="9" t="s"/>
+      <c r="C793" s="9" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D793" s="5" t="s"/>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B794" s="9" t="s"/>
+      <c r="C794" s="9" t="s"/>
+      <c r="D794" s="5" t="s"/>
+    </row>
+    <row r="795" spans="1:4">
+      <c r="A795" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B795" s="9" t="s"/>
+      <c r="C795" s="9" t="s"/>
+      <c r="D795" s="5" t="s"/>
+    </row>
+    <row r="796" spans="1:4">
+      <c r="A796" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B796" s="9" t="s"/>
+      <c r="C796" s="9" t="s"/>
+      <c r="D796" s="5" t="s"/>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="A797" s="3" t="s"/>
+      <c r="B797" s="9" t="s"/>
+      <c r="C797" s="9" t="s"/>
+      <c r="D797" s="5" t="s"/>
+    </row>
+    <row r="798" spans="1:4">
+      <c r="A798" s="3" t="s"/>
+      <c r="B798" s="9" t="s"/>
+      <c r="C798" s="9" t="s"/>
+      <c r="D798" s="5" t="s"/>
+    </row>
+    <row r="799" spans="1:4">
+      <c r="A799" s="3" t="s"/>
+      <c r="B799" s="9" t="s"/>
+      <c r="C799" s="9" t="s"/>
+      <c r="D799" s="5" t="s"/>
+    </row>
+    <row r="800" spans="1:4">
+      <c r="A800" s="3" t="s"/>
+      <c r="B800" s="9" t="s"/>
+      <c r="C800" s="9" t="s"/>
+      <c r="D800" s="5" t="s"/>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="A801" s="3" t="s"/>
+      <c r="B801" s="9" t="s"/>
+      <c r="C801" s="9" t="s"/>
+      <c r="D801" s="5" t="s"/>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="A802" s="3" t="s"/>
+      <c r="B802" s="9" t="s"/>
+      <c r="C802" s="9" t="s"/>
+      <c r="D802" s="5" t="s"/>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="A803" s="3" t="s"/>
+      <c r="B803" s="9" t="s"/>
+      <c r="C803" s="9" t="s"/>
+      <c r="D803" s="5" t="s"/>
+    </row>
+    <row r="804" spans="1:4">
+      <c r="A804" s="3" t="s"/>
+      <c r="B804" s="9" t="s"/>
+      <c r="C804" s="9" t="s"/>
+      <c r="D804" s="5" t="s"/>
+    </row>
+    <row r="805" spans="1:4">
+      <c r="A805" s="3" t="s"/>
+      <c r="B805" s="9" t="s"/>
+      <c r="C805" s="9" t="s"/>
+      <c r="D805" s="5" t="s"/>
+    </row>
+    <row r="806" spans="1:4">
+      <c r="A806" s="3" t="s"/>
+      <c r="B806" s="9" t="s"/>
+      <c r="C806" s="9" t="s"/>
+      <c r="D806" s="5" t="s"/>
+    </row>
+    <row r="807" spans="1:4">
+      <c r="A807" s="3" t="s"/>
+      <c r="B807" s="9" t="s"/>
+      <c r="C807" s="9" t="s"/>
+      <c r="D807" s="5" t="s"/>
+    </row>
+    <row r="808" spans="1:4">
+      <c r="A808" s="3" t="s"/>
+      <c r="B808" s="9" t="s"/>
+      <c r="C808" s="9" t="s"/>
+      <c r="D808" s="5" t="s"/>
+    </row>
+    <row r="809" spans="1:4">
+      <c r="A809" s="3" t="s"/>
+      <c r="B809" s="9" t="s"/>
+      <c r="C809" s="9" t="s"/>
+      <c r="D809" s="5" t="s"/>
+    </row>
+    <row r="810" spans="1:4">
+      <c r="A810" s="3" t="s"/>
+      <c r="B810" s="9" t="s"/>
+      <c r="C810" s="9" t="s"/>
+      <c r="D810" s="5" t="s"/>
+    </row>
+    <row r="811" spans="1:4">
+      <c r="A811" s="3" t="s"/>
+      <c r="B811" s="9" t="s"/>
+      <c r="C811" s="9" t="s"/>
+      <c r="D811" s="5" t="s"/>
+    </row>
+    <row r="812" spans="1:4">
+      <c r="A812" s="3" t="s"/>
+      <c r="B812" s="9" t="s"/>
+      <c r="C812" s="9" t="s"/>
+      <c r="D812" s="5" t="s"/>
+    </row>
+    <row r="813" spans="1:4">
+      <c r="A813" s="3" t="s"/>
+      <c r="B813" s="9" t="s"/>
+      <c r="C813" s="9" t="s"/>
+      <c r="D813" s="5" t="s"/>
+    </row>
+    <row r="814" spans="1:4">
+      <c r="A814" s="3" t="s"/>
+      <c r="B814" s="9" t="s"/>
+      <c r="C814" s="9" t="s"/>
+      <c r="D814" s="5" t="s"/>
+    </row>
+    <row r="815" spans="1:4">
+      <c r="A815" s="3" t="s"/>
+      <c r="B815" s="9" t="s"/>
+      <c r="C815" s="9" t="s"/>
+      <c r="D815" s="5" t="s"/>
+    </row>
+    <row r="816" spans="1:4">
+      <c r="A816" s="3" t="s"/>
+      <c r="B816" s="9" t="s"/>
+      <c r="C816" s="9" t="s"/>
+      <c r="D816" s="5" t="s"/>
+    </row>
+    <row r="817" spans="1:4">
+      <c r="A817" s="3" t="s"/>
+      <c r="B817" s="9" t="s"/>
+      <c r="C817" s="9" t="s"/>
+      <c r="D817" s="5" t="s"/>
+    </row>
+    <row r="818" spans="1:4">
+      <c r="A818" s="3" t="s"/>
+      <c r="B818" s="9" t="s"/>
+      <c r="C818" s="9" t="s"/>
+      <c r="D818" s="5" t="s"/>
+    </row>
+    <row r="819" spans="1:4">
+      <c r="A819" s="3" t="s"/>
+      <c r="B819" s="9" t="s"/>
+      <c r="C819" s="9" t="s"/>
+      <c r="D819" s="5" t="s"/>
+    </row>
+    <row r="820" spans="1:4">
+      <c r="A820" s="3" t="s"/>
+      <c r="B820" s="9" t="s"/>
+      <c r="C820" s="9" t="s"/>
+      <c r="D820" s="5" t="s"/>
+    </row>
+    <row r="821" spans="1:4">
+      <c r="A821" s="3" t="s"/>
+      <c r="B821" s="9" t="s"/>
+      <c r="C821" s="9" t="s"/>
+      <c r="D821" s="5" t="s"/>
+    </row>
+    <row r="822" spans="1:4">
+      <c r="A822" s="3" t="s"/>
+      <c r="B822" s="9" t="s"/>
+      <c r="C822" s="9" t="s"/>
+      <c r="D822" s="5" t="s"/>
+    </row>
+    <row r="823" spans="1:4">
+      <c r="A823" s="3" t="s"/>
+      <c r="B823" s="9" t="s"/>
+      <c r="C823" s="9" t="s"/>
+      <c r="D823" s="5" t="s"/>
+    </row>
+    <row r="824" spans="1:4">
+      <c r="A824" s="3" t="s"/>
+      <c r="B824" s="9" t="s"/>
+      <c r="C824" s="9" t="s"/>
+      <c r="D824" s="5" t="s"/>
+    </row>
+    <row r="825" spans="1:4">
+      <c r="A825" s="3" t="s"/>
+      <c r="B825" s="9" t="s"/>
+      <c r="C825" s="9" t="s"/>
+      <c r="D825" s="5" t="s"/>
+    </row>
+    <row r="826" spans="1:4">
+      <c r="A826" s="3" t="s"/>
+      <c r="B826" s="9" t="s"/>
+      <c r="C826" s="9" t="s"/>
+      <c r="D826" s="5" t="s"/>
+    </row>
+    <row r="827" spans="1:4">
+      <c r="A827" s="3" t="s"/>
+      <c r="B827" s="9" t="s"/>
+      <c r="C827" s="9" t="s"/>
+      <c r="D827" s="5" t="s"/>
+    </row>
+    <row r="828" spans="1:4">
+      <c r="A828" s="3" t="s"/>
+      <c r="B828" s="9" t="s"/>
+      <c r="C828" s="9" t="s"/>
+      <c r="D828" s="5" t="s"/>
+    </row>
+    <row r="829" spans="1:4">
+      <c r="A829" s="3" t="s"/>
+      <c r="B829" s="9" t="s"/>
+      <c r="C829" s="9" t="s"/>
+      <c r="D829" s="5" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="2192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="2185">
   <si>
     <t/>
   </si>
@@ -600,7 +600,7 @@
     <t>trans0069</t>
   </si>
   <si>
-    <t>我的路由器</t>
+    <t>路由模式</t>
   </si>
   <si>
     <t>Router</t>
@@ -6413,24 +6413,12 @@
     <t>trans0767</t>
   </si>
   <si>
-    <t>路由模式</t>
-  </si>
-  <si>
-    <t>Router Mode</t>
-  </si>
-  <si>
     <t>trans0768</t>
   </si>
   <si>
-    <t>via IP</t>
-  </si>
-  <si>
     <t>trans0769</t>
   </si>
   <si>
-    <t>via PPP</t>
-  </si>
-  <si>
     <t>trans0770</t>
   </si>
   <si>
@@ -6488,15 +6476,12 @@
     <t>trans0779</t>
   </si>
   <si>
-    <t>IPv4 Internet Access Mode</t>
+    <t>Enable SLAAC</t>
   </si>
   <si>
     <t>trans0780</t>
   </si>
   <si>
-    <t>IPv6 Internet Access Mode</t>
-  </si>
-  <si>
     <t>trans0781</t>
   </si>
   <si>
@@ -6557,13 +6542,7 @@
     <t>trans0792</t>
   </si>
   <si>
-    <t>PPPoE_Bridged</t>
-  </si>
-  <si>
     <t>trans0793</t>
-  </si>
-  <si>
-    <t>IP_Bridged</t>
   </si>
   <si>
     <t>trans0794</t>
@@ -10387,10 +10366,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -11599,10 +11578,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -11611,10 +11590,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -16212,157 +16191,147 @@
       <c r="A767" s="3" t="s">
         <v>2131</v>
       </c>
-      <c r="B767" s="9" t="s">
-        <v>2132</v>
-      </c>
-      <c r="C767" s="9" t="s">
-        <v>2133</v>
-      </c>
+      <c r="B767" s="9" t="s"/>
+      <c r="C767" s="9" t="s"/>
       <c r="D767" s="5" t="s"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="3" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="B768" s="9" t="s"/>
-      <c r="C768" s="9" t="s">
-        <v>2135</v>
-      </c>
+      <c r="C768" s="9" t="s"/>
       <c r="D768" s="5" t="s"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="3" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="B769" s="9" t="s"/>
-      <c r="C769" s="9" t="s">
-        <v>2137</v>
-      </c>
+      <c r="C769" s="9" t="s"/>
       <c r="D769" s="5" t="s"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="3" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="B770" s="9" t="s"/>
       <c r="C770" s="9" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="D770" s="5" t="s"/>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="3" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="B771" s="9" t="s"/>
       <c r="C771" s="9" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="D771" s="5" t="s"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="3" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="B772" s="9" t="s"/>
       <c r="C772" s="9" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="D772" s="5" t="s"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="3" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="B773" s="9" t="s"/>
       <c r="C773" s="9" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="D773" s="5" t="s"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="3" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="B774" s="9" t="s"/>
       <c r="C774" s="9" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="D774" s="5" t="s"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="3" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="B775" s="9" t="s"/>
       <c r="C775" s="9" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="D775" s="5" t="s"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="3" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="B776" s="9" t="s"/>
       <c r="C776" s="9" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="D776" s="5" t="s"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="3" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="B777" s="9" t="s"/>
       <c r="C777" s="9" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="D777" s="5" t="s"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="3" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="B778" s="9" t="s"/>
       <c r="C778" s="9" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="D778" s="5" t="s"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="3" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="B779" s="9" t="s"/>
       <c r="C779" s="9" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="D779" s="5" t="s"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="3" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="B780" s="9" t="s"/>
       <c r="C780" s="9" t="s">
-        <v>2159</v>
+        <v>228</v>
       </c>
       <c r="D780" s="5" t="s"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="3" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="B781" s="9" t="s"/>
-      <c r="C781" s="9" t="s">
-        <v>1330</v>
-      </c>
+      <c r="C781" s="9" t="s"/>
       <c r="D781" s="5" t="s"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="3" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="B782" s="9" t="s"/>
       <c r="C782" s="9" t="s">
@@ -16372,117 +16341,113 @@
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="3" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="B783" s="9" t="s"/>
       <c r="C783" s="9" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="D783" s="5" t="s"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="3" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="B784" s="9" t="s"/>
       <c r="C784" s="9" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="D784" s="5" t="s"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="3" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="B785" s="9" t="s"/>
       <c r="C785" s="9" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="D785" s="5" t="s"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="3" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="B786" s="9" t="s"/>
       <c r="C786" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="D786" s="5" t="s"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="3" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="B787" s="9" t="s"/>
       <c r="C787" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="D787" s="5" t="s"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="3" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="B788" s="9" t="s"/>
       <c r="C788" s="9" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="D788" s="5" t="s"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="3" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="B789" s="9" t="s"/>
       <c r="C789" s="9" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="D789" s="5" t="s"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="3" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="B790" s="9" t="s"/>
       <c r="C790" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="D790" s="5" t="s"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="3" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="B791" s="9" t="s"/>
       <c r="C791" s="9" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="D791" s="5" t="s"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="3" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="B792" s="9" t="s"/>
-      <c r="C792" s="9" t="s">
-        <v>2180</v>
-      </c>
+      <c r="C792" s="9" t="s"/>
       <c r="D792" s="5" t="s"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="3" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="B793" s="9" t="s"/>
-      <c r="C793" s="9" t="s">
-        <v>2182</v>
-      </c>
+      <c r="C793" s="9" t="s"/>
       <c r="D793" s="5" t="s"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="3" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
       <c r="B794" s="9" t="s"/>
       <c r="C794" s="9" t="s"/>
@@ -16490,7 +16455,7 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="3" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
       <c r="B795" s="9" t="s"/>
       <c r="C795" s="9" t="s"/>
@@ -16498,7 +16463,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="3" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="B796" s="9" t="s"/>
       <c r="C796" s="9" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="2185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="2190">
   <si>
     <t/>
   </si>
@@ -3392,10 +3392,10 @@
     <t>trans0398</t>
   </si>
   <si>
-    <t>IP地址不在有效的IP地址范围内。</t>
-  </si>
-  <si>
-    <t>The IP address is not within the valid range</t>
+    <t>%s不在有效的IP地址范围内。</t>
+  </si>
+  <si>
+    <t>%s is not within the valid range</t>
   </si>
   <si>
     <t>trans0399</t>
@@ -3509,12 +3509,6 @@
     <t>trans0412</t>
   </si>
   <si>
-    <t>接口ID</t>
-  </si>
-  <si>
-    <t>Interface ID</t>
-  </si>
-  <si>
     <t>trans0413</t>
   </si>
   <si>
@@ -4586,10 +4580,10 @@
     <t>trans0537</t>
   </si>
   <si>
-    <t>状态信息</t>
-  </si>
-  <si>
-    <t>Status Information</t>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
   <si>
     <t>trans0538</t>
@@ -5102,10 +5096,10 @@
     <t>trans0596</t>
   </si>
   <si>
-    <t>前缀代理</t>
-  </si>
-  <si>
-    <t>PD</t>
+    <t>Ipv6 前缀</t>
+  </si>
+  <si>
+    <t>Ipv6 Prefix</t>
   </si>
   <si>
     <t>trans0597</t>
@@ -5222,12 +5216,6 @@
     <t>trans0611</t>
   </si>
   <si>
-    <t>取值范围[%d-%d]</t>
-  </si>
-  <si>
-    <t>Value range [%d-%d]</t>
-  </si>
-  <si>
     <t>trans0612</t>
   </si>
   <si>
@@ -6413,12 +6401,24 @@
     <t>trans0767</t>
   </si>
   <si>
+    <t>Authentication Mode</t>
+  </si>
+  <si>
     <t>trans0768</t>
   </si>
   <si>
+    <t>Check code</t>
+  </si>
+  <si>
     <t>trans0769</t>
   </si>
   <si>
+    <t>%s必须%s个字符</t>
+  </si>
+  <si>
+    <t>%s must have %s symbols</t>
+  </si>
+  <si>
     <t>trans0770</t>
   </si>
   <si>
@@ -6482,9 +6482,15 @@
     <t>trans0780</t>
   </si>
   <si>
+    <t>ONT认证</t>
+  </si>
+  <si>
     <t>trans0781</t>
   </si>
   <si>
+    <t>LOID</t>
+  </si>
+  <si>
     <t>trans0782</t>
   </si>
   <si>
@@ -6542,10 +6548,19 @@
     <t>trans0792</t>
   </si>
   <si>
+    <t xml:space="preserve">Destination IP </t>
+  </si>
+  <si>
     <t>trans0793</t>
   </si>
   <si>
+    <t>Static Route</t>
+  </si>
+  <si>
     <t>trans0794</t>
+  </si>
+  <si>
+    <t>IPv6 Static Route</t>
   </si>
   <si>
     <t>trans0795</t>
@@ -10366,10 +10381,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2179</v>
+        <v>2184</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2180</v>
+        <v>2185</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -11578,10 +11593,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2181</v>
+        <v>2186</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2182</v>
+        <v>2187</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -11590,10 +11605,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2183</v>
+        <v>2188</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2184</v>
+        <v>2189</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -12057,128 +12072,124 @@
       <c r="A412" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="B412" s="9" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C412" s="9" t="s">
-        <v>1165</v>
-      </c>
+      <c r="B412" s="9" t="s"/>
+      <c r="C412" s="9" t="s"/>
       <c r="D412" s="5" t="s"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C413" s="9" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D413" s="5" t="s"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B414" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C414" s="9" t="s">
         <v>1168</v>
-      </c>
-      <c r="B414" s="9" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C414" s="9" t="s">
-        <v>1170</v>
       </c>
       <c r="D414" s="5" t="s"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B415" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C415" s="9" t="s">
         <v>1171</v>
-      </c>
-      <c r="B415" s="9" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C415" s="9" t="s">
-        <v>1173</v>
       </c>
       <c r="D415" s="5" t="s"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B416" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C416" s="9" t="s">
         <v>1174</v>
-      </c>
-      <c r="B416" s="9" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C416" s="9" t="s">
-        <v>1176</v>
       </c>
       <c r="D416" s="5" t="s"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B417" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C417" s="9" t="s">
         <v>1177</v>
-      </c>
-      <c r="B417" s="9" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C417" s="9" t="s">
-        <v>1179</v>
       </c>
       <c r="D417" s="5" t="s"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B418" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C418" s="9" t="s">
         <v>1180</v>
-      </c>
-      <c r="B418" s="9" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C418" s="9" t="s">
-        <v>1182</v>
       </c>
       <c r="D418" s="5" t="s"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C419" s="9" t="s">
         <v>1183</v>
-      </c>
-      <c r="B419" s="9" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C419" s="9" t="s">
-        <v>1185</v>
       </c>
       <c r="D419" s="5" t="s"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B420" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C420" s="9" t="s">
         <v>1186</v>
-      </c>
-      <c r="B420" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C420" s="9" t="s">
-        <v>1188</v>
       </c>
       <c r="D420" s="5" t="s"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B421" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C421" s="9" t="s">
         <v>1189</v>
-      </c>
-      <c r="B421" s="9" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C421" s="9" t="s">
-        <v>1191</v>
       </c>
       <c r="D421" s="5" t="s"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="7" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C422" s="9" t="s">
         <v>1149</v>
@@ -12187,295 +12198,295 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="7" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B423" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D423" s="5" t="s"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B424" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C424" s="9" t="s">
         <v>1196</v>
-      </c>
-      <c r="B424" s="9" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C424" s="9" t="s">
-        <v>1198</v>
       </c>
       <c r="D424" s="5" t="s"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C425" s="9" t="s">
         <v>1199</v>
-      </c>
-      <c r="B425" s="9" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C425" s="9" t="s">
-        <v>1201</v>
       </c>
       <c r="D425" s="5" t="s"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B426" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C426" s="9" t="s">
         <v>1202</v>
-      </c>
-      <c r="B426" s="9" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C426" s="9" t="s">
-        <v>1204</v>
       </c>
       <c r="D426" s="5" t="s"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B427" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C427" s="9" t="s">
         <v>1205</v>
-      </c>
-      <c r="B427" s="9" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C427" s="9" t="s">
-        <v>1207</v>
       </c>
       <c r="D427" s="5" t="s"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B428" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C428" s="9" t="s">
         <v>1208</v>
-      </c>
-      <c r="B428" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C428" s="9" t="s">
-        <v>1210</v>
       </c>
       <c r="D428" s="5" t="s"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B429" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C429" s="9" t="s">
         <v>1211</v>
-      </c>
-      <c r="B429" s="9" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C429" s="9" t="s">
-        <v>1213</v>
       </c>
       <c r="D429" s="5" t="s"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B430" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C430" s="9" t="s">
         <v>1214</v>
-      </c>
-      <c r="B430" s="9" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C430" s="9" t="s">
-        <v>1216</v>
       </c>
       <c r="D430" s="5" t="s"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B431" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C431" s="9" t="s">
         <v>1217</v>
-      </c>
-      <c r="B431" s="9" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C431" s="9" t="s">
-        <v>1219</v>
       </c>
       <c r="D431" s="5" t="s"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B432" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C432" s="9" t="s">
         <v>1220</v>
-      </c>
-      <c r="B432" s="9" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C432" s="9" t="s">
-        <v>1222</v>
       </c>
       <c r="D432" s="5" t="s"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B433" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C433" s="9" t="s">
         <v>1223</v>
-      </c>
-      <c r="B433" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C433" s="9" t="s">
-        <v>1225</v>
       </c>
       <c r="D433" s="5" t="s"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B434" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C434" s="9" t="s">
         <v>1226</v>
-      </c>
-      <c r="B434" s="9" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C434" s="9" t="s">
-        <v>1228</v>
       </c>
       <c r="D434" s="5" t="s"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B435" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C435" s="9" t="s">
         <v>1229</v>
-      </c>
-      <c r="B435" s="9" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C435" s="9" t="s">
-        <v>1231</v>
       </c>
       <c r="D435" s="5" t="s"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B436" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C436" s="9" t="s">
         <v>1232</v>
-      </c>
-      <c r="B436" s="9" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C436" s="9" t="s">
-        <v>1234</v>
       </c>
       <c r="D436" s="5" t="s"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B437" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C437" s="9" t="s">
         <v>1235</v>
-      </c>
-      <c r="B437" s="9" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C437" s="9" t="s">
-        <v>1237</v>
       </c>
       <c r="D437" s="5" t="s"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B438" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C438" s="9" t="s">
         <v>1238</v>
-      </c>
-      <c r="B438" s="9" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C438" s="9" t="s">
-        <v>1240</v>
       </c>
       <c r="D438" s="5" t="s"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B439" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C439" s="9" t="s">
         <v>1241</v>
-      </c>
-      <c r="B439" s="9" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C439" s="9" t="s">
-        <v>1243</v>
       </c>
       <c r="D439" s="5" t="s"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B440" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C440" s="9" t="s">
         <v>1244</v>
-      </c>
-      <c r="B440" s="9" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C440" s="9" t="s">
-        <v>1246</v>
       </c>
       <c r="D440" s="5" t="s"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B441" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C441" s="9" t="s">
         <v>1247</v>
-      </c>
-      <c r="B441" s="9" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C441" s="9" t="s">
-        <v>1249</v>
       </c>
       <c r="D441" s="5" t="s"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B442" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C442" s="9" t="s">
         <v>1250</v>
-      </c>
-      <c r="B442" s="9" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C442" s="9" t="s">
-        <v>1252</v>
       </c>
       <c r="D442" s="5" t="s"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B443" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C443" s="9" t="s">
         <v>1253</v>
-      </c>
-      <c r="B443" s="9" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C443" s="9" t="s">
-        <v>1255</v>
       </c>
       <c r="D443" s="5" t="s"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B444" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C444" s="9" t="s">
         <v>1256</v>
-      </c>
-      <c r="B444" s="9" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C444" s="9" t="s">
-        <v>1258</v>
       </c>
       <c r="D444" s="5" t="s"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B445" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C445" s="9" t="s">
         <v>1259</v>
-      </c>
-      <c r="B445" s="9" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C445" s="9" t="s">
-        <v>1261</v>
       </c>
       <c r="D445" s="5" t="s"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B446" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C446" s="9" t="s">
         <v>1262</v>
-      </c>
-      <c r="B446" s="9" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C446" s="9" t="s">
-        <v>1264</v>
       </c>
       <c r="D446" s="5" t="s"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="7" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B447" s="9" t="s"/>
       <c r="C447" s="9" t="s"/>
@@ -12483,221 +12494,221 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B448" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C448" s="9" t="s">
         <v>1266</v>
-      </c>
-      <c r="B448" s="9" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C448" s="9" t="s">
-        <v>1268</v>
       </c>
       <c r="D448" s="5" t="s"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B449" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C449" s="9" t="s">
         <v>1269</v>
-      </c>
-      <c r="B449" s="9" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C449" s="9" t="s">
-        <v>1271</v>
       </c>
       <c r="D449" s="5" t="s"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="7" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B450" s="9" t="s"/>
       <c r="C450" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D450" s="5" t="s"/>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B451" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C451" s="9" t="s">
         <v>1274</v>
-      </c>
-      <c r="B451" s="9" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C451" s="9" t="s">
-        <v>1276</v>
       </c>
       <c r="D451" s="5" t="s"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B452" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C452" s="9" t="s">
         <v>1277</v>
-      </c>
-      <c r="B452" s="9" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C452" s="9" t="s">
-        <v>1279</v>
       </c>
       <c r="D452" s="5" t="s"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B453" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C453" s="9" t="s">
         <v>1280</v>
-      </c>
-      <c r="B453" s="9" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C453" s="9" t="s">
-        <v>1282</v>
       </c>
       <c r="D453" s="5" t="s"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B454" s="9" t="s">
         <v>311</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D454" s="5" t="s"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B455" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C455" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="B455" s="9" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C455" s="9" t="s">
-        <v>1287</v>
       </c>
       <c r="D455" s="5" t="s"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="7" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C456" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D456" s="5" t="s"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="7" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D457" s="5" t="s"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B458" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C458" s="9" t="s">
         <v>1292</v>
-      </c>
-      <c r="B458" s="9" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C458" s="9" t="s">
-        <v>1294</v>
       </c>
       <c r="D458" s="5" t="s"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B459" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C459" s="9" t="s">
         <v>1295</v>
-      </c>
-      <c r="B459" s="9" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C459" s="9" t="s">
-        <v>1297</v>
       </c>
       <c r="D459" s="5" t="s"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B460" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C460" s="9" t="s">
         <v>1298</v>
-      </c>
-      <c r="B460" s="9" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C460" s="9" t="s">
-        <v>1300</v>
       </c>
       <c r="D460" s="5" t="s"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B461" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C461" s="9" t="s">
         <v>1301</v>
-      </c>
-      <c r="B461" s="9" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C461" s="9" t="s">
-        <v>1303</v>
       </c>
       <c r="D461" s="5" t="s"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B462" s="9" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C462" s="9" t="s">
         <v>1304</v>
-      </c>
-      <c r="B462" s="9" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C462" s="9" t="s">
-        <v>1306</v>
       </c>
       <c r="D462" s="5" t="s"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B463" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C463" s="9" t="s">
         <v>1307</v>
-      </c>
-      <c r="B463" s="9" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C463" s="9" t="s">
-        <v>1309</v>
       </c>
       <c r="D463" s="5" t="s"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B464" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C464" s="9" t="s">
         <v>1310</v>
-      </c>
-      <c r="B464" s="9" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C464" s="9" t="s">
-        <v>1312</v>
       </c>
       <c r="D464" s="5" t="s"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B465" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C465" s="9" t="s">
         <v>1313</v>
-      </c>
-      <c r="B465" s="9" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C465" s="9" t="s">
-        <v>1315</v>
       </c>
       <c r="D465" s="9" t="s"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B466" s="9" t="s">
         <v>1122</v>
@@ -12709,187 +12720,187 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B467" s="9" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C467" s="9" t="s">
         <v>1317</v>
-      </c>
-      <c r="B467" s="9" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C467" s="9" t="s">
-        <v>1319</v>
       </c>
       <c r="D467" s="5" t="s"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B468" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C468" s="9" t="s">
         <v>1320</v>
-      </c>
-      <c r="B468" s="9" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C468" s="9" t="s">
-        <v>1322</v>
       </c>
       <c r="D468" s="5" t="s"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B469" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C469" s="9" t="s">
         <v>1323</v>
-      </c>
-      <c r="B469" s="9" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C469" s="9" t="s">
-        <v>1325</v>
       </c>
       <c r="D469" s="5" t="s"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B470" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C470" s="9" t="s">
         <v>1326</v>
-      </c>
-      <c r="B470" s="9" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C470" s="9" t="s">
-        <v>1328</v>
       </c>
       <c r="D470" s="5" t="s"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="7" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B471" s="9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C471" s="9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D471" s="5" t="s"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B472" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C472" s="9" t="s">
         <v>1331</v>
-      </c>
-      <c r="B472" s="9" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C472" s="9" t="s">
-        <v>1333</v>
       </c>
       <c r="D472" s="18" t="s"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="7" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C473" s="9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D473" s="5" t="s"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B474" s="9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C474" s="9" t="s">
         <v>1336</v>
-      </c>
-      <c r="B474" s="9" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C474" s="9" t="s">
-        <v>1338</v>
       </c>
       <c r="D474" s="5" t="s"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B475" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C475" s="9" t="s">
         <v>1339</v>
-      </c>
-      <c r="B475" s="9" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C475" s="9" t="s">
-        <v>1341</v>
       </c>
       <c r="D475" s="19" t="s"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B476" s="9" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C476" s="9" t="s">
         <v>1342</v>
-      </c>
-      <c r="B476" s="9" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C476" s="9" t="s">
-        <v>1344</v>
       </c>
       <c r="D476" s="5" t="s"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B477" s="9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C477" s="9" t="s">
         <v>1345</v>
-      </c>
-      <c r="B477" s="9" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C477" s="9" t="s">
-        <v>1347</v>
       </c>
       <c r="D477" s="5" t="s"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B478" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C478" s="9" t="s">
         <v>1348</v>
-      </c>
-      <c r="B478" s="9" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C478" s="9" t="s">
-        <v>1350</v>
       </c>
       <c r="D478" s="5" t="s"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B479" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C479" s="9" t="s">
         <v>1351</v>
-      </c>
-      <c r="B479" s="9" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C479" s="9" t="s">
-        <v>1353</v>
       </c>
       <c r="D479" s="5" t="s"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B480" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C480" s="13" t="s">
         <v>1354</v>
-      </c>
-      <c r="B480" s="9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C480" s="13" t="s">
-        <v>1356</v>
       </c>
       <c r="D480" s="5" t="s"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B481" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C481" s="9" t="s">
         <v>1357</v>
-      </c>
-      <c r="B481" s="9" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C481" s="9" t="s">
-        <v>1359</v>
       </c>
       <c r="D481" s="5" t="s"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="7" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B482" s="9" t="s">
         <v>264</v>
@@ -12901,763 +12912,763 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B483" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C483" s="13" t="s">
         <v>1361</v>
-      </c>
-      <c r="B483" s="13" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C483" s="13" t="s">
-        <v>1363</v>
       </c>
       <c r="D483" s="5" t="s"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B484" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C484" s="13" t="s">
         <v>1364</v>
-      </c>
-      <c r="B484" s="13" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C484" s="13" t="s">
-        <v>1366</v>
       </c>
       <c r="D484" s="5" t="s"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B485" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C485" s="9" t="s">
         <v>1367</v>
-      </c>
-      <c r="B485" s="9" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C485" s="9" t="s">
-        <v>1369</v>
       </c>
       <c r="D485" s="5" t="s"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B486" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C486" s="9" t="s">
         <v>1370</v>
-      </c>
-      <c r="B486" s="9" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C486" s="9" t="s">
-        <v>1372</v>
       </c>
       <c r="D486" s="5" t="s"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B487" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C487" s="9" t="s">
         <v>1373</v>
-      </c>
-      <c r="B487" s="9" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C487" s="9" t="s">
-        <v>1375</v>
       </c>
       <c r="D487" s="5" t="s"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B488" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C488" s="9" t="s">
         <v>1376</v>
-      </c>
-      <c r="B488" s="9" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C488" s="9" t="s">
-        <v>1378</v>
       </c>
       <c r="D488" s="5" t="s"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B489" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C489" s="13" t="s">
         <v>1379</v>
-      </c>
-      <c r="B489" s="9" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C489" s="13" t="s">
-        <v>1381</v>
       </c>
       <c r="D489" s="5" t="s"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B490" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C490" s="9" t="s">
         <v>1382</v>
-      </c>
-      <c r="B490" s="9" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C490" s="9" t="s">
-        <v>1384</v>
       </c>
       <c r="D490" s="5" t="s"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B491" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C491" s="9" t="s">
         <v>1385</v>
-      </c>
-      <c r="B491" s="9" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C491" s="9" t="s">
-        <v>1387</v>
       </c>
       <c r="D491" s="5" t="s"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B492" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C492" s="9" t="s">
         <v>1388</v>
-      </c>
-      <c r="B492" s="9" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C492" s="9" t="s">
-        <v>1390</v>
       </c>
       <c r="D492" s="5" t="s"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B493" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C493" s="9" t="s">
         <v>1391</v>
-      </c>
-      <c r="B493" s="9" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C493" s="9" t="s">
-        <v>1393</v>
       </c>
       <c r="D493" s="5" t="s"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B494" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C494" s="9" t="s">
         <v>1394</v>
-      </c>
-      <c r="B494" s="9" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C494" s="9" t="s">
-        <v>1396</v>
       </c>
       <c r="D494" s="5" t="s"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B495" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C495" s="9" t="s">
         <v>1397</v>
-      </c>
-      <c r="B495" s="9" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C495" s="9" t="s">
-        <v>1399</v>
       </c>
       <c r="D495" s="5" t="s"/>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B496" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C496" s="9" t="s">
         <v>1400</v>
-      </c>
-      <c r="B496" s="9" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C496" s="9" t="s">
-        <v>1402</v>
       </c>
       <c r="D496" s="5" t="s"/>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C497" s="9" t="s">
         <v>1403</v>
-      </c>
-      <c r="B497" s="9" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C497" s="9" t="s">
-        <v>1405</v>
       </c>
       <c r="D497" s="5" t="s"/>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B498" s="9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C498" s="9" t="s">
         <v>1406</v>
-      </c>
-      <c r="B498" s="9" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C498" s="9" t="s">
-        <v>1408</v>
       </c>
       <c r="D498" s="5" t="s"/>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B499" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C499" s="9" t="s">
         <v>1409</v>
-      </c>
-      <c r="B499" s="9" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C499" s="9" t="s">
-        <v>1411</v>
       </c>
       <c r="D499" s="5" t="s"/>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B500" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C500" s="9" t="s">
         <v>1412</v>
-      </c>
-      <c r="B500" s="9" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C500" s="9" t="s">
-        <v>1414</v>
       </c>
       <c r="D500" s="5" t="s"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B501" s="9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C501" s="9" t="s">
         <v>1415</v>
-      </c>
-      <c r="B501" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C501" s="9" t="s">
-        <v>1417</v>
       </c>
       <c r="D501" s="5" t="s"/>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B502" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C502" s="9" t="s">
         <v>1418</v>
-      </c>
-      <c r="B502" s="9" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C502" s="9" t="s">
-        <v>1420</v>
       </c>
       <c r="D502" s="5" t="s"/>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B503" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C503" s="9" t="s">
         <v>1421</v>
-      </c>
-      <c r="B503" s="9" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C503" s="9" t="s">
-        <v>1423</v>
       </c>
       <c r="D503" s="5" t="s"/>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B504" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C504" s="9" t="s">
         <v>1424</v>
-      </c>
-      <c r="B504" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C504" s="9" t="s">
-        <v>1426</v>
       </c>
       <c r="D504" s="5" t="s"/>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B505" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C505" s="9" t="s">
         <v>1427</v>
-      </c>
-      <c r="B505" s="9" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C505" s="9" t="s">
-        <v>1429</v>
       </c>
       <c r="D505" s="5" t="s"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B506" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C506" s="9" t="s">
         <v>1430</v>
-      </c>
-      <c r="B506" s="9" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C506" s="9" t="s">
-        <v>1432</v>
       </c>
       <c r="D506" s="5" t="s"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B507" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C507" s="9" t="s">
         <v>1433</v>
-      </c>
-      <c r="B507" s="9" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C507" s="9" t="s">
-        <v>1435</v>
       </c>
       <c r="D507" s="5" t="s"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B508" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C508" s="9" t="s">
         <v>1436</v>
-      </c>
-      <c r="B508" s="9" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C508" s="9" t="s">
-        <v>1438</v>
       </c>
       <c r="D508" s="20" t="s"/>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B509" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C509" s="9" t="s">
         <v>1439</v>
-      </c>
-      <c r="B509" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C509" s="9" t="s">
-        <v>1441</v>
       </c>
       <c r="D509" s="21" t="s"/>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B510" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C510" s="9" t="s">
         <v>1442</v>
-      </c>
-      <c r="B510" s="9" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C510" s="9" t="s">
-        <v>1444</v>
       </c>
       <c r="D510" s="5" t="s"/>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B511" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C511" s="9" t="s">
         <v>1445</v>
-      </c>
-      <c r="B511" s="9" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C511" s="9" t="s">
-        <v>1447</v>
       </c>
       <c r="D511" s="5" t="s"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B512" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C512" s="9" t="s">
         <v>1448</v>
-      </c>
-      <c r="B512" s="9" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C512" s="9" t="s">
-        <v>1450</v>
       </c>
       <c r="D512" s="5" t="s"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B513" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C513" s="9" t="s">
         <v>1451</v>
-      </c>
-      <c r="B513" s="9" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C513" s="9" t="s">
-        <v>1453</v>
       </c>
       <c r="D513" s="5" t="s"/>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B514" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C514" s="9" t="s">
         <v>1454</v>
-      </c>
-      <c r="B514" s="9" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C514" s="9" t="s">
-        <v>1456</v>
       </c>
       <c r="D514" s="5" t="s"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B515" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C515" s="9" t="s">
         <v>1457</v>
-      </c>
-      <c r="B515" s="9" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C515" s="9" t="s">
-        <v>1459</v>
       </c>
       <c r="D515" s="5" t="s"/>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B516" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C516" s="9" t="s">
         <v>1460</v>
-      </c>
-      <c r="B516" s="9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C516" s="9" t="s">
-        <v>1462</v>
       </c>
       <c r="D516" s="5" t="s"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B517" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C517" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="B517" s="9" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C517" s="9" t="s">
-        <v>1465</v>
       </c>
       <c r="D517" s="5" t="s"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B518" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C518" s="9" t="s">
         <v>1466</v>
-      </c>
-      <c r="B518" s="9" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C518" s="9" t="s">
-        <v>1468</v>
       </c>
       <c r="D518" s="5" t="s"/>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="7" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B519" s="9" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C519" s="9" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D519" s="5" t="s"/>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B520" s="13" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C520" s="9" t="s">
         <v>1471</v>
-      </c>
-      <c r="B520" s="13" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C520" s="9" t="s">
-        <v>1473</v>
       </c>
       <c r="D520" s="5" t="s"/>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B521" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C521" s="9" t="s">
         <v>1474</v>
-      </c>
-      <c r="B521" s="9" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C521" s="9" t="s">
-        <v>1476</v>
       </c>
       <c r="D521" s="5" t="s"/>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B522" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C522" s="9" t="s">
         <v>1477</v>
-      </c>
-      <c r="B522" s="9" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C522" s="9" t="s">
-        <v>1479</v>
       </c>
       <c r="D522" s="5" t="s"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B523" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C523" s="9" t="s">
         <v>1480</v>
-      </c>
-      <c r="B523" s="9" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C523" s="9" t="s">
-        <v>1482</v>
       </c>
       <c r="D523" s="5" t="s"/>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C524" s="9" t="s">
         <v>1483</v>
-      </c>
-      <c r="B524" s="5" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C524" s="9" t="s">
-        <v>1485</v>
       </c>
       <c r="D524" s="5" t="s"/>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B525" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C525" s="9" t="s">
         <v>1486</v>
-      </c>
-      <c r="B525" s="9" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C525" s="9" t="s">
-        <v>1488</v>
       </c>
       <c r="D525" s="5" t="s"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B526" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C526" s="9" t="s">
         <v>1489</v>
-      </c>
-      <c r="B526" s="9" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C526" s="9" t="s">
-        <v>1491</v>
       </c>
       <c r="D526" s="5" t="s"/>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C527" s="9" t="s">
         <v>1492</v>
-      </c>
-      <c r="B527" s="9" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C527" s="9" t="s">
-        <v>1494</v>
       </c>
       <c r="D527" s="5" t="s"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B528" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C528" s="9" t="s">
         <v>1495</v>
-      </c>
-      <c r="B528" s="9" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C528" s="9" t="s">
-        <v>1497</v>
       </c>
       <c r="D528" s="5" t="s"/>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B529" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C529" s="9" t="s">
         <v>1498</v>
-      </c>
-      <c r="B529" s="9" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C529" s="9" t="s">
-        <v>1500</v>
       </c>
       <c r="D529" s="5" t="s"/>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B530" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C530" s="9" t="s">
         <v>1501</v>
-      </c>
-      <c r="B530" s="9" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C530" s="9" t="s">
-        <v>1503</v>
       </c>
       <c r="D530" s="5" t="s"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B531" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C531" s="9" t="s">
         <v>1504</v>
-      </c>
-      <c r="B531" s="9" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C531" s="9" t="s">
-        <v>1506</v>
       </c>
       <c r="D531" s="5" t="s"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B532" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C532" s="9" t="s">
         <v>1507</v>
-      </c>
-      <c r="B532" s="9" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C532" s="9" t="s">
-        <v>1509</v>
       </c>
       <c r="D532" s="5" t="s"/>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B533" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C533" s="9" t="s">
         <v>1510</v>
-      </c>
-      <c r="B533" s="9" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C533" s="9" t="s">
-        <v>1512</v>
       </c>
       <c r="D533" s="5" t="s"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B534" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C534" s="9" t="s">
         <v>1513</v>
-      </c>
-      <c r="B534" s="9" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C534" s="9" t="s">
-        <v>1515</v>
       </c>
       <c r="D534" s="5" t="s"/>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B535" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C535" s="9" t="s">
         <v>1516</v>
-      </c>
-      <c r="B535" s="9" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C535" s="9" t="s">
-        <v>1518</v>
       </c>
       <c r="D535" s="5" t="s"/>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B536" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C536" s="9" t="s">
         <v>1519</v>
-      </c>
-      <c r="B536" s="9" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C536" s="9" t="s">
-        <v>1521</v>
       </c>
       <c r="D536" s="5" t="s"/>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B537" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C537" s="9" t="s">
         <v>1522</v>
-      </c>
-      <c r="B537" s="9" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C537" s="9" t="s">
-        <v>1524</v>
       </c>
       <c r="D537" s="5" t="s"/>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B538" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C538" s="9" t="s">
         <v>1525</v>
-      </c>
-      <c r="B538" s="9" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C538" s="9" t="s">
-        <v>1527</v>
       </c>
       <c r="D538" s="5" t="s"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B539" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C539" s="9" t="s">
         <v>1528</v>
-      </c>
-      <c r="B539" s="9" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C539" s="9" t="s">
-        <v>1530</v>
       </c>
       <c r="D539" s="5" t="s"/>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B540" s="9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C540" s="9" t="s">
         <v>1531</v>
-      </c>
-      <c r="B540" s="9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C540" s="9" t="s">
-        <v>1533</v>
       </c>
       <c r="D540" s="5" t="s"/>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B541" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C541" s="9" t="s">
         <v>1534</v>
-      </c>
-      <c r="B541" s="9" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C541" s="9" t="s">
-        <v>1536</v>
       </c>
       <c r="D541" s="5" t="s"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B542" s="9" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C542" s="9" t="s">
         <v>1537</v>
-      </c>
-      <c r="B542" s="9" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C542" s="9" t="s">
-        <v>1539</v>
       </c>
       <c r="D542" s="5" t="s"/>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B543" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C543" s="9" t="s">
         <v>1540</v>
-      </c>
-      <c r="B543" s="9" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C543" s="9" t="s">
-        <v>1542</v>
       </c>
       <c r="D543" s="5" t="s"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B544" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C544" s="9" t="s">
         <v>1543</v>
-      </c>
-      <c r="B544" s="9" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C544" s="9" t="s">
-        <v>1545</v>
       </c>
       <c r="D544" s="5" t="s"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B545" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C545" s="9" t="s">
         <v>1546</v>
-      </c>
-      <c r="B545" s="9" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C545" s="9" t="s">
-        <v>1548</v>
       </c>
       <c r="D545" s="5" t="s"/>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="7" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B546" s="9" t="s">
         <v>278</v>
@@ -13669,118 +13680,118 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B547" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C547" s="9" t="s">
         <v>1550</v>
-      </c>
-      <c r="B547" s="9" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C547" s="9" t="s">
-        <v>1552</v>
       </c>
       <c r="D547" s="5" t="s"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B548" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C548" s="9" t="s">
         <v>1553</v>
-      </c>
-      <c r="B548" s="9" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C548" s="9" t="s">
-        <v>1555</v>
       </c>
       <c r="D548" s="5" t="s"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B549" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C549" s="9" t="s">
         <v>1556</v>
-      </c>
-      <c r="B549" s="9" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C549" s="9" t="s">
-        <v>1558</v>
       </c>
       <c r="D549" s="5" t="s"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B550" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C550" s="9" t="s">
         <v>1559</v>
-      </c>
-      <c r="B550" s="9" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C550" s="9" t="s">
-        <v>1561</v>
       </c>
       <c r="D550" s="5" t="s"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B551" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C551" s="9" t="s">
         <v>1562</v>
-      </c>
-      <c r="B551" s="9" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C551" s="9" t="s">
-        <v>1564</v>
       </c>
       <c r="D551" s="5" t="s"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B552" s="9" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C552" s="9" t="s">
         <v>1565</v>
-      </c>
-      <c r="B552" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C552" s="9" t="s">
-        <v>1567</v>
       </c>
       <c r="D552" s="5" t="s"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B553" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C553" s="9" t="s">
         <v>1568</v>
-      </c>
-      <c r="B553" s="9" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C553" s="9" t="s">
-        <v>1570</v>
       </c>
       <c r="D553" s="5" t="s"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B554" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C554" s="9" t="s">
         <v>1571</v>
-      </c>
-      <c r="B554" s="9" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C554" s="9" t="s">
-        <v>1573</v>
       </c>
       <c r="D554" s="5" t="s"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B555" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C555" s="9" t="s">
         <v>1574</v>
-      </c>
-      <c r="B555" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C555" s="9" t="s">
-        <v>1576</v>
       </c>
       <c r="D555" s="5" t="s"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="7" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C556" s="9" t="s">
         <v>397</v>
@@ -13789,457 +13800,457 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="7" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B557" s="9" t="s">
         <v>1057</v>
       </c>
       <c r="C557" s="9" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D557" s="5" t="s"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B558" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C558" s="9" t="s">
         <v>1581</v>
-      </c>
-      <c r="B558" s="9" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C558" s="9" t="s">
-        <v>1583</v>
       </c>
       <c r="D558" s="5" t="s"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B559" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C559" s="9" t="s">
         <v>1584</v>
-      </c>
-      <c r="B559" s="9" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C559" s="9" t="s">
-        <v>1586</v>
       </c>
       <c r="D559" s="5" t="s"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B560" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C560" s="9" t="s">
         <v>1587</v>
-      </c>
-      <c r="B560" s="9" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C560" s="9" t="s">
-        <v>1589</v>
       </c>
       <c r="D560" s="5" t="s"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B561" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C561" s="9" t="s">
         <v>1590</v>
-      </c>
-      <c r="B561" s="9" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C561" s="9" t="s">
-        <v>1592</v>
       </c>
       <c r="D561" s="5" t="s"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B562" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C562" s="9" t="s">
         <v>1593</v>
-      </c>
-      <c r="B562" s="9" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C562" s="9" t="s">
-        <v>1595</v>
       </c>
       <c r="D562" s="5" t="s"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B563" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C563" s="9" t="s">
         <v>1596</v>
-      </c>
-      <c r="B563" s="9" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C563" s="9" t="s">
-        <v>1598</v>
       </c>
       <c r="D563" s="5" t="s"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B564" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C564" s="9" t="s">
         <v>1599</v>
-      </c>
-      <c r="B564" s="9" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C564" s="9" t="s">
-        <v>1601</v>
       </c>
       <c r="D564" s="9" t="s"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B565" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C565" s="9" t="s">
         <v>1602</v>
-      </c>
-      <c r="B565" s="9" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C565" s="9" t="s">
-        <v>1604</v>
       </c>
       <c r="D565" s="5" t="s"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B566" s="9" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C566" s="9" t="s">
         <v>1605</v>
-      </c>
-      <c r="B566" s="9" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C566" s="9" t="s">
-        <v>1607</v>
       </c>
       <c r="D566" s="5" t="s"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B567" s="9" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C567" s="9" t="s">
         <v>1608</v>
-      </c>
-      <c r="B567" s="9" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C567" s="9" t="s">
-        <v>1610</v>
       </c>
       <c r="D567" s="5" t="s"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B568" s="9" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C568" s="9" t="s">
         <v>1611</v>
-      </c>
-      <c r="B568" s="9" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C568" s="9" t="s">
-        <v>1613</v>
       </c>
       <c r="D568" s="5" t="s"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B569" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C569" s="9" t="s">
         <v>1614</v>
-      </c>
-      <c r="B569" s="9" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C569" s="9" t="s">
-        <v>1616</v>
       </c>
       <c r="D569" s="5" t="s"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B570" s="9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C570" s="9" t="s">
         <v>1617</v>
-      </c>
-      <c r="B570" s="9" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C570" s="9" t="s">
-        <v>1619</v>
       </c>
       <c r="D570" s="5" t="s"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B571" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C571" s="9" t="s">
         <v>1620</v>
-      </c>
-      <c r="B571" s="9" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C571" s="9" t="s">
-        <v>1622</v>
       </c>
       <c r="D571" s="5" t="s"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B572" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C572" s="9" t="s">
         <v>1623</v>
-      </c>
-      <c r="B572" s="9" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C572" s="9" t="s">
-        <v>1625</v>
       </c>
       <c r="D572" s="5" t="s"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B573" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C573" s="9" t="s">
         <v>1626</v>
-      </c>
-      <c r="B573" s="9" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C573" s="9" t="s">
-        <v>1628</v>
       </c>
       <c r="D573" s="5" t="s"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B574" s="9" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C574" s="9" t="s">
         <v>1629</v>
-      </c>
-      <c r="B574" s="9" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C574" s="9" t="s">
-        <v>1631</v>
       </c>
       <c r="D574" s="5" t="s"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B575" s="9" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C575" s="9" t="s">
         <v>1632</v>
-      </c>
-      <c r="B575" s="9" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C575" s="9" t="s">
-        <v>1634</v>
       </c>
       <c r="D575" s="5" t="s"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="7" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B576" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C576" s="9" t="s">
         <v>1635</v>
-      </c>
-      <c r="B576" s="9" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C576" s="9" t="s">
-        <v>1637</v>
       </c>
       <c r="D576" s="5" t="s"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B577" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C577" s="9" t="s">
         <v>1638</v>
-      </c>
-      <c r="B577" s="9" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C577" s="9" t="s">
-        <v>1640</v>
       </c>
       <c r="D577" s="5" t="s"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B578" s="9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C578" s="9" t="s">
         <v>1641</v>
-      </c>
-      <c r="B578" s="9" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C578" s="9" t="s">
-        <v>1643</v>
       </c>
       <c r="D578" s="5" t="s"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B579" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C579" s="9" t="s">
         <v>1644</v>
-      </c>
-      <c r="B579" s="9" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C579" s="9" t="s">
-        <v>1646</v>
       </c>
       <c r="D579" s="5" t="s"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B580" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C580" s="9" t="s">
         <v>1647</v>
-      </c>
-      <c r="B580" s="9" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C580" s="9" t="s">
-        <v>1649</v>
       </c>
       <c r="D580" s="5" t="s"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B581" s="9" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C581" s="9" t="s">
         <v>1650</v>
-      </c>
-      <c r="B581" s="9" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C581" s="9" t="s">
-        <v>1652</v>
       </c>
       <c r="D581" s="5" t="s"/>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B582" s="9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C582" s="9" t="s">
         <v>1653</v>
-      </c>
-      <c r="B582" s="9" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C582" s="9" t="s">
-        <v>1655</v>
       </c>
       <c r="D582" s="5" t="s"/>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B583" s="9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C583" s="9" t="s">
         <v>1656</v>
-      </c>
-      <c r="B583" s="9" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C583" s="9" t="s">
-        <v>1658</v>
       </c>
       <c r="D583" s="5" t="s"/>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B584" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C584" s="9" t="s">
         <v>1659</v>
-      </c>
-      <c r="B584" s="9" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C584" s="9" t="s">
-        <v>1661</v>
       </c>
       <c r="D584" s="5" t="s"/>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="7" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B585" s="9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C585" s="9" t="s">
         <v>1662</v>
-      </c>
-      <c r="B585" s="9" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C585" s="9" t="s">
-        <v>1664</v>
       </c>
       <c r="D585" s="5" t="s"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="7" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B586" s="9" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C586" s="9" t="s">
         <v>1665</v>
-      </c>
-      <c r="B586" s="9" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C586" s="9" t="s">
-        <v>1667</v>
       </c>
       <c r="D586" s="9" t="s"/>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="7" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B587" s="9" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C587" s="9" t="s">
         <v>1668</v>
-      </c>
-      <c r="B587" s="9" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C587" s="9" t="s">
-        <v>1670</v>
       </c>
       <c r="D587" s="5" t="s"/>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="7" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B588" s="9" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C588" s="9" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D588" s="5" t="s"/>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B589" s="9" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C589" s="9" t="s">
         <v>1673</v>
-      </c>
-      <c r="B589" s="9" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C589" s="9" t="s">
-        <v>1675</v>
       </c>
       <c r="D589" s="5" t="s"/>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B590" s="9" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C590" s="9" t="s">
         <v>1676</v>
-      </c>
-      <c r="B590" s="9" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C590" s="9" t="s">
-        <v>1678</v>
       </c>
       <c r="D590" s="5" t="s"/>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B591" s="9" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C591" s="9" t="s">
         <v>1679</v>
-      </c>
-      <c r="B591" s="9" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C591" s="9" t="s">
-        <v>1681</v>
       </c>
       <c r="D591" s="5" t="s"/>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B592" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C592" s="9" t="s">
         <v>1682</v>
-      </c>
-      <c r="B592" s="9" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C592" s="9" t="s">
-        <v>1684</v>
       </c>
       <c r="D592" s="5" t="s"/>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B593" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C593" s="9" t="s">
         <v>1685</v>
-      </c>
-      <c r="B593" s="9" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C593" s="9" t="s">
-        <v>1687</v>
       </c>
       <c r="D593" s="5" t="s"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B594" s="9" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C594" s="9" t="s">
         <v>1688</v>
-      </c>
-      <c r="B594" s="9" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C594" s="9" t="s">
-        <v>1690</v>
       </c>
       <c r="D594" s="22" t="s">
         <v>347</v>
@@ -14247,37 +14258,37 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B595" s="9" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C595" s="9" t="s">
         <v>1691</v>
-      </c>
-      <c r="B595" s="9" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C595" s="9" t="s">
-        <v>1693</v>
       </c>
       <c r="D595" s="5" t="s"/>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B596" s="9" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C596" s="9" t="s">
         <v>1694</v>
-      </c>
-      <c r="B596" s="9" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C596" s="9" t="s">
-        <v>1696</v>
       </c>
       <c r="D596" s="5" t="s"/>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B597" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C597" s="9" t="s">
         <v>1697</v>
-      </c>
-      <c r="B597" s="9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C597" s="9" t="s">
-        <v>1699</v>
       </c>
       <c r="D597" s="14" t="s">
         <v>347</v>
@@ -14285,67 +14296,67 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="7" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B598" s="9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C598" s="9" t="s">
         <v>1700</v>
-      </c>
-      <c r="B598" s="9" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C598" s="9" t="s">
-        <v>1702</v>
       </c>
       <c r="D598" s="5" t="s"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="7" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C599" s="9" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D599" s="5" t="s"/>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B600" s="9" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C600" s="9" t="s">
         <v>1705</v>
-      </c>
-      <c r="B600" s="9" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C600" s="9" t="s">
-        <v>1707</v>
       </c>
       <c r="D600" s="5" t="s"/>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B601" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C601" s="9" t="s">
         <v>1708</v>
-      </c>
-      <c r="B601" s="9" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C601" s="9" t="s">
-        <v>1710</v>
       </c>
       <c r="D601" s="5" t="s"/>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B602" s="9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C602" s="9" t="s">
         <v>1711</v>
-      </c>
-      <c r="B602" s="9" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C602" s="9" t="s">
-        <v>1713</v>
       </c>
       <c r="D602" s="5" t="s"/>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="7" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B603" s="9" t="s">
         <v>240</v>
@@ -14357,115 +14368,111 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B604" s="9" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C604" s="9" t="s">
         <v>1715</v>
-      </c>
-      <c r="B604" s="9" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C604" s="9" t="s">
-        <v>1717</v>
       </c>
       <c r="D604" s="5" t="s"/>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="7" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B605" s="9" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C605" s="9" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D605" s="5" t="s"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B606" s="9" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C606" s="9" t="s">
         <v>1720</v>
-      </c>
-      <c r="B606" s="9" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C606" s="9" t="s">
-        <v>1722</v>
       </c>
       <c r="D606" s="5" t="s"/>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B607" s="9" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C607" s="9" t="s">
         <v>1723</v>
-      </c>
-      <c r="B607" s="9" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C607" s="9" t="s">
-        <v>1725</v>
       </c>
       <c r="D607" s="5" t="s"/>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="7" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C608" s="9" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D608" s="5" t="s"/>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B609" s="9" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C609" s="9" t="s">
         <v>1728</v>
-      </c>
-      <c r="B609" s="9" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C609" s="9" t="s">
-        <v>1730</v>
       </c>
       <c r="D609" s="5" t="s"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B610" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C610" s="9" t="s">
         <v>1731</v>
-      </c>
-      <c r="B610" s="9" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C610" s="9" t="s">
-        <v>1733</v>
       </c>
       <c r="D610" s="5" t="s"/>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="7" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B611" s="9" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C611" s="9" t="s">
-        <v>1736</v>
-      </c>
+        <v>1732</v>
+      </c>
+      <c r="B611" s="9" t="s"/>
+      <c r="C611" s="9" t="s"/>
       <c r="D611" s="5" t="s"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="7" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="C612" s="9" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D612" s="5" t="s"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="7" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="B613" s="9" t="s">
         <v>200</v>
@@ -14477,487 +14484,487 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="7" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="C614" s="9" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="D614" s="5" t="s"/>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="7" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="C615" s="9" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D615" s="5" t="s"/>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="7" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="C616" s="9" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="D616" s="5" t="s"/>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="7" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="C617" s="9" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="D617" s="5" t="s"/>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="7" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="C618" s="9" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="D618" s="5" t="s"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="7" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="C619" s="9" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="D619" s="5" t="s"/>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="7" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="C620" s="9" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="D620" s="9" t="s"/>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="7" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="C621" s="9" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="D621" s="9" t="s"/>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="7" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="C622" s="9" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="D622" s="5" t="s"/>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="7" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="C623" s="9" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="D623" s="9" t="s"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="7" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="B624" s="9" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="C624" s="9" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="D624" s="23" t="s"/>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="7" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="C625" s="9" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="D625" s="9" t="s"/>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="7" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="B626" s="9" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="C626" s="9" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="D626" s="5" t="s"/>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="7" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="B627" s="9" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="C627" s="9" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="D627" s="5" t="s"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="7" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="C628" s="9" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="D628" s="5" t="s"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="7" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="B629" s="9" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="C629" s="9" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="D629" s="5" t="s"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="7" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="B630" s="9" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="C630" s="9" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="D630" s="9" t="s"/>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="7" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="B631" s="9" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="C631" s="9" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="D631" s="5" t="s"/>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="7" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="C632" s="9" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="D632" s="5" t="s"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="7" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="C633" s="13" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="D633" s="5" t="s"/>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="7" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="B634" s="9" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="C634" s="9" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="D634" s="5" t="s"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="7" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="B635" s="9" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="C635" s="9" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="D635" s="5" t="s"/>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="7" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="C636" s="9" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="D636" s="5" t="s"/>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="7" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C637" s="9" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="D637" s="5" t="s"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="7" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="C638" s="9" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="D638" s="5" t="s"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="7" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="B639" s="9" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="C639" s="9" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="D639" s="5" t="s"/>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="7" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="C640" s="9" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="D640" s="9" t="s"/>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="7" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C641" s="9" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="D641" s="5" t="s"/>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="7" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="B642" s="9" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="C642" s="9" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="D642" s="5" t="s"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="7" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="B643" s="9" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="C643" s="9" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="D643" s="5" t="s"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="7" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="B644" s="9" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="C644" s="9" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="D644" s="5" t="s"/>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="7" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="B645" s="9" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="C645" s="9" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="D645" s="5" t="s"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="7" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="C646" s="9" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="D646" s="5" t="s"/>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="7" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="B647" s="9" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="C647" s="9" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="D647" s="5" t="s"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="7" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="B648" s="9" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="C648" s="9" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="D648" s="5" t="s"/>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="7" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="B649" s="9" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="C649" s="9" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="D649" s="5" t="s"/>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="7" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="B650" s="9" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="C650" s="9" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="D650" s="5" t="s"/>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="7" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="B651" s="9" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="C651" s="9" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="D651" s="5" t="s"/>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="7" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="B652" s="9" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="C652" s="9" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="D652" s="5" t="s"/>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="7" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="B653" s="9" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="C653" s="9" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="D653" s="5" t="s"/>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="7" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="B654" s="9" t="s">
         <v>507</v>
@@ -14969,1246 +14976,1254 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="7" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C655" s="9" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="D655" s="5" t="s"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="7" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="B656" s="9" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="C656" s="9" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="D656" s="5" t="s"/>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="7" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="C657" s="9" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="D657" s="5" t="s"/>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="7" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="B658" s="9" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="C658" s="9" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="D658" s="5" t="s"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="7" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="B659" s="9" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="C659" s="9" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="D659" s="5" t="s"/>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="7" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="B660" s="9" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="C660" s="9" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="D660" s="5" t="s"/>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="7" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="C661" s="9" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="D661" s="5" t="s"/>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="7" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="C662" s="9" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="D662" s="5" t="s"/>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="7" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="C663" s="9" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="D663" s="5" t="s"/>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="7" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="C664" s="9" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="D664" s="5" t="s"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="7" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="C665" s="9" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="D665" s="5" t="s"/>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="7" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="C666" s="9" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="D666" s="5" t="s"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="7" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="C667" s="9" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="D667" s="5" t="s"/>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="3" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C668" s="9" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D668" s="5" t="s"/>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="3" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="C669" s="9" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D669" s="5" t="s"/>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="3" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="B670" s="9" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C670" s="13" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="D670" s="5" t="s"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="3" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="B671" s="9" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="C671" s="9" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="D671" s="5" t="s"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="3" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="B672" s="9" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="C672" s="9" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="D672" s="5" t="s"/>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="3" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B673" s="9" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="C673" s="9" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="D673" s="5" t="s"/>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="3" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="C674" s="9" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="D674" s="5" t="s"/>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="3" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="C675" s="9" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="D675" s="5" t="s"/>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="3" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="B676" s="9" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="C676" s="9" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="D676" s="5" t="s"/>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="3" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="C677" s="9" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="D677" s="5" t="s"/>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="3" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="B678" s="9" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="C678" s="9" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="D678" s="5" t="s"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="3" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="B679" s="9" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="C679" s="9" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="D679" s="5" t="s"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="3" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="C680" s="9" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="D680" s="5" t="s"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="3" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="B681" s="9" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="C681" s="9" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="D681" s="5" t="s"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="3" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="B682" s="9" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="C682" s="9" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="D682" s="5" t="s"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="3" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="C683" s="9" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="D683" s="5" t="s"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="3" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="B684" s="9" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="C684" s="9" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="D684" s="5" t="s"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="3" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="B685" s="9" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="C685" s="9" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="D685" s="5" t="s"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="3" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="B686" s="9" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="C686" s="9" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="D686" s="5" t="s"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="3" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="B687" s="24" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="C687" s="9" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="D687" s="5" t="s"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="3" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="B688" s="9" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="C688" s="9" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="D688" s="5" t="s"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="3" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="B689" s="9" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="C689" s="9" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="D689" s="5" t="s"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="3" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="B690" s="9" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="C690" s="9" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="D690" s="5" t="s"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="3" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B691" s="24" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="C691" s="9" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="D691" s="5" t="s"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="3" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="B692" s="9" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="C692" s="9" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="D692" s="5" t="s"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="3" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="B693" s="9" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="C693" s="9" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="D693" s="5" t="s"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="3" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B694" s="9" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="C694" s="9" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="D694" s="5" t="s"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="3" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="B695" s="9" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="C695" s="9" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="D695" s="5" t="s"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="3" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="B696" s="9" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="C696" s="9" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="D696" s="5" t="s"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="3" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B697" s="9" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="C697" s="25" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="D697" s="5" t="s"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="3" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B698" s="9" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="C698" s="9" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="D698" s="5" t="s"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="3" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="B699" s="9" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="C699" s="9" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="D699" s="5" t="s"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="3" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B700" s="9" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C700" s="9" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D700" s="5" t="s"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="3" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="B701" s="9" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C701" s="9" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="D701" s="5" t="s"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="3" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B702" s="9" t="s"/>
       <c r="C702" s="9" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="D702" s="5" t="s"/>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="3" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B703" s="9" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C703" s="9" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D703" s="5" t="s"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="3" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B704" s="9" t="s"/>
       <c r="C704" s="9" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="D704" s="5" t="s"/>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="3" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B705" s="9" t="s"/>
       <c r="C705" s="9" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D705" s="5" t="s"/>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="3" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B706" s="9" t="s"/>
       <c r="C706" s="9" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D706" s="5" t="s"/>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="3" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B707" s="9" t="s"/>
       <c r="C707" s="9" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D707" s="5" t="s"/>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="3" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B708" s="9" t="s"/>
       <c r="C708" s="9" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D708" s="5" t="s"/>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="3" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B709" s="9" t="s"/>
       <c r="C709" s="9" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D709" s="5" t="s"/>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="3" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B710" s="9" t="s"/>
       <c r="C710" s="9" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D710" s="5" t="s"/>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="3" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B711" s="9" t="s"/>
       <c r="C711" s="9" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D711" s="5" t="s"/>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="3" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B712" s="9" t="s"/>
       <c r="C712" s="9" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D712" s="5" t="s"/>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="3" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B713" s="9" t="s"/>
       <c r="C713" s="9" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D713" s="5" t="s"/>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="3" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B714" s="9" t="s"/>
       <c r="C714" s="9" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="D714" s="5" t="s"/>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="3" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="B715" s="9" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C715" s="9" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D715" s="5" t="s"/>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="3" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B716" s="9" t="s"/>
       <c r="C716" s="9" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="D716" s="5" t="s"/>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="3" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="B717" s="9" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="C717" s="9" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="D717" s="5" t="s"/>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="3" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="B718" s="9" t="s"/>
       <c r="C718" s="9" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="D718" s="5" t="s"/>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="3" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="B719" s="9" t="s"/>
       <c r="C719" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="D719" s="5" t="s"/>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="3" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="B720" s="9" t="s"/>
       <c r="C720" s="9" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="D720" s="5" t="s"/>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="3" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="B721" s="9" t="s"/>
       <c r="C721" s="9" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="D721" s="5" t="s"/>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="3" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="B722" s="9" t="s"/>
       <c r="C722" s="9" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="D722" s="5" t="s"/>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="3" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="B723" s="9" t="s"/>
       <c r="C723" s="9" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="D723" s="5" t="s"/>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="3" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="B724" s="9" t="s"/>
       <c r="C724" s="9" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="D724" s="5" t="s"/>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="3" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="B725" s="9" t="s"/>
       <c r="C725" s="9" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="D725" s="5" t="s"/>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="3" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="B726" s="9" t="s"/>
       <c r="C726" s="9" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="D726" s="5" t="s"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="3" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="B727" s="9" t="s"/>
       <c r="C727" s="9" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="D727" s="5" t="s"/>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="3" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="B728" s="9" t="s"/>
       <c r="C728" s="9" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="D728" s="5" t="s"/>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="3" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="B729" s="9" t="s"/>
       <c r="C729" s="9" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="D729" s="5" t="s"/>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="3" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="B730" s="9" t="s"/>
       <c r="C730" s="9" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="D730" s="5" t="s"/>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="3" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="B731" s="9" t="s"/>
       <c r="C731" s="9" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="D731" s="5" t="s"/>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="3" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="B732" s="9" t="s"/>
       <c r="C732" s="9" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="D732" s="5" t="s"/>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="3" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="B733" s="9" t="s"/>
       <c r="C733" s="9" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="D733" s="5" t="s"/>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="3" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="B734" s="9" t="s"/>
       <c r="C734" s="9" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="D734" s="5" t="s"/>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="3" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="B735" s="9" t="s"/>
       <c r="C735" s="9" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="D735" s="5" t="s"/>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="3" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="B736" s="9" t="s"/>
       <c r="C736" s="9" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="D736" s="5" t="s"/>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="3" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B737" s="9" t="s"/>
       <c r="C737" s="9" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="D737" s="5" t="s"/>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="3" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="B738" s="9" t="s"/>
       <c r="C738" s="9" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="D738" s="5" t="s"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="3" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="B739" s="9" t="s"/>
       <c r="C739" s="9" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="D739" s="5" t="s"/>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="3" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="B740" s="9" t="s"/>
       <c r="C740" s="9" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="D740" s="5" t="s"/>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="3" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="B741" s="9" t="s"/>
       <c r="C741" s="9" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="D741" s="5" t="s"/>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="3" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="B742" s="9" t="s"/>
       <c r="C742" s="9" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="D742" s="5" t="s"/>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="3" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="B743" s="9" t="s"/>
       <c r="C743" s="9" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="D743" s="5" t="s"/>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="3" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="B744" s="9" t="s"/>
       <c r="C744" s="9" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="D744" s="5" t="s"/>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="3" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="B745" s="9" t="s"/>
       <c r="C745" s="9" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="D745" s="5" t="s"/>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="3" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="B746" s="9" t="s"/>
       <c r="C746" s="9" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="D746" s="5" t="s"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="3" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="B747" s="9" t="s"/>
       <c r="C747" s="9" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="D747" s="5" t="s"/>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="3" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="B748" s="9" t="s"/>
       <c r="C748" s="9" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="D748" s="5" t="s"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="3" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="B749" s="9" t="s"/>
       <c r="C749" s="9" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="D749" s="5" t="s"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="3" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="B750" s="9" t="s"/>
       <c r="C750" s="9" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="D750" s="5" t="s"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="3" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="B751" s="9" t="s"/>
       <c r="C751" s="9" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="D751" s="5" t="s"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="3" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="B752" s="9" t="s"/>
       <c r="C752" s="9" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="D752" s="5" t="s"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="3" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="B753" s="9" t="s"/>
       <c r="C753" s="9" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="D753" s="5" t="s"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="3" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="B754" s="9" t="s"/>
       <c r="C754" s="9" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="D754" s="5" t="s"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="3" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="B755" s="9" t="s"/>
       <c r="C755" s="9" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="D755" s="5" t="s"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="3" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="B756" s="9" t="s"/>
       <c r="C756" s="9" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="D756" s="5" t="s"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="3" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="B757" s="9" t="s"/>
       <c r="C757" s="9" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="D757" s="5" t="s"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="3" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="B758" s="9" t="s"/>
       <c r="C758" s="9" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="D758" s="5" t="s"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="3" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="B759" s="9" t="s"/>
       <c r="C759" s="9" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="D759" s="5" t="s"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="3" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="B760" s="9" t="s"/>
       <c r="C760" s="9" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="D760" s="5" t="s"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="3" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="B761" s="9" t="s"/>
       <c r="C761" s="9" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="D761" s="5" t="s"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="3" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="B762" s="9" t="s"/>
       <c r="C762" s="9" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="D762" s="5" t="s"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="3" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="B763" s="9" t="s"/>
       <c r="C763" s="9" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="D763" s="5" t="s"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="3" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="B764" s="9" t="s"/>
       <c r="C764" s="9" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="D764" s="5" t="s"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="3" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="B765" s="9" t="s"/>
       <c r="C765" s="9" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="D765" s="5" t="s"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="3" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="B766" s="9" t="s"/>
       <c r="C766" s="9" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="D766" s="5" t="s"/>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="3" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="B767" s="9" t="s"/>
-      <c r="C767" s="9" t="s"/>
+      <c r="C767" s="9" t="s">
+        <v>2128</v>
+      </c>
       <c r="D767" s="5" t="s"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="3" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="B768" s="9" t="s"/>
-      <c r="C768" s="9" t="s"/>
+      <c r="C768" s="9" t="s">
+        <v>2130</v>
+      </c>
       <c r="D768" s="5" t="s"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B769" s="9" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C769" s="9" t="s">
         <v>2133</v>
       </c>
-      <c r="B769" s="9" t="s"/>
-      <c r="C769" s="9" t="s"/>
       <c r="D769" s="5" t="s"/>
     </row>
     <row r="770" spans="1:4">
@@ -16317,145 +16332,153 @@
       </c>
       <c r="B780" s="9" t="s"/>
       <c r="C780" s="9" t="s">
-        <v>228</v>
+        <v>2155</v>
       </c>
       <c r="D780" s="5" t="s"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="3" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="B781" s="9" t="s"/>
-      <c r="C781" s="9" t="s"/>
+      <c r="C781" s="9" t="s">
+        <v>2157</v>
+      </c>
       <c r="D781" s="5" t="s"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="3" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="B782" s="9" t="s"/>
       <c r="C782" s="9" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D782" s="5" t="s"/>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="3" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="B783" s="9" t="s"/>
       <c r="C783" s="9" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="D783" s="5" t="s"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="3" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="B784" s="9" t="s"/>
       <c r="C784" s="9" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="D784" s="5" t="s"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="3" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="B785" s="9" t="s"/>
       <c r="C785" s="9" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="D785" s="5" t="s"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="3" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="B786" s="9" t="s"/>
       <c r="C786" s="9" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="D786" s="5" t="s"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="3" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="B787" s="9" t="s"/>
       <c r="C787" s="9" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="D787" s="5" t="s"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="3" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="B788" s="9" t="s"/>
       <c r="C788" s="9" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="D788" s="5" t="s"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="3" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="B789" s="9" t="s"/>
       <c r="C789" s="9" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="D789" s="5" t="s"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="3" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="B790" s="9" t="s"/>
       <c r="C790" s="9" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="D790" s="5" t="s"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="3" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="B791" s="9" t="s"/>
       <c r="C791" s="9" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="D791" s="5" t="s"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="3" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="B792" s="9" t="s"/>
-      <c r="C792" s="9" t="s"/>
+      <c r="C792" s="9" t="s">
+        <v>2177</v>
+      </c>
       <c r="D792" s="5" t="s"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="3" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="B793" s="9" t="s"/>
-      <c r="C793" s="9" t="s"/>
+      <c r="C793" s="9" t="s">
+        <v>2179</v>
+      </c>
       <c r="D793" s="5" t="s"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="3" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="B794" s="9" t="s"/>
-      <c r="C794" s="9" t="s"/>
+      <c r="C794" s="9" t="s">
+        <v>2181</v>
+      </c>
       <c r="D794" s="5" t="s"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="3" t="s">
-        <v>2177</v>
+        <v>2182</v>
       </c>
       <c r="B795" s="9" t="s"/>
       <c r="C795" s="9" t="s"/>
@@ -16463,7 +16486,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="3" t="s">
-        <v>2178</v>
+        <v>2183</v>
       </c>
       <c r="B796" s="9" t="s"/>
       <c r="C796" s="9" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="2212">
   <si>
     <t/>
   </si>
@@ -600,7 +600,7 @@
     <t>路由模式</t>
   </si>
   <si>
-    <t>Router</t>
+    <t>Route</t>
   </si>
   <si>
     <t>trans0070</t>
@@ -6374,7 +6374,7 @@
     <t>trans0763</t>
   </si>
   <si>
-    <t>WAN service type</t>
+    <t>WAN Service type</t>
   </si>
   <si>
     <t>trans0764</t>
@@ -6611,10 +6611,22 @@
     <t>trans0802</t>
   </si>
   <si>
+    <t>Diagnose</t>
+  </si>
+  <si>
     <t>trans0803</t>
   </si>
   <si>
+    <t>Remote Mirror</t>
+  </si>
+  <si>
     <t>trans0804</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>Stop</t>
   </si>
   <si>
     <t>trans0805</t>
@@ -10435,10 +10447,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -11647,10 +11659,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2204</v>
+        <v>2208</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -11659,10 +11671,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2206</v>
+        <v>2210</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -16605,28 +16617,36 @@
         <v>2197</v>
       </c>
       <c r="B802" s="9" t="s"/>
-      <c r="C802" s="9" t="s"/>
+      <c r="C802" s="9" t="s">
+        <v>2198</v>
+      </c>
       <c r="D802" s="5" t="s"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="3" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="B803" s="9" t="s"/>
-      <c r="C803" s="9" t="s"/>
+      <c r="C803" s="9" t="s">
+        <v>2200</v>
+      </c>
       <c r="D803" s="5" t="s"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="3" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B804" s="9" t="s"/>
-      <c r="C804" s="9" t="s"/>
+        <v>2201</v>
+      </c>
+      <c r="B804" s="9" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C804" s="9" t="s">
+        <v>2203</v>
+      </c>
       <c r="D804" s="5" t="s"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="3" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="B805" s="9" t="s"/>
       <c r="C805" s="9" t="s"/>
@@ -16634,7 +16654,7 @@
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="3" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
       <c r="B806" s="9" t="s"/>
       <c r="C806" s="9" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="2212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="2241">
   <si>
     <t/>
   </si>
@@ -6632,7 +6632,94 @@
     <t>trans0805</t>
   </si>
   <si>
+    <t>Static ARP</t>
+  </si>
+  <si>
     <t>trans0806</t>
+  </si>
+  <si>
+    <t>trans0807</t>
+  </si>
+  <si>
+    <t>空闲</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>trans0808</t>
+  </si>
+  <si>
+    <t>正在进行中</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>trans0809</t>
+  </si>
+  <si>
+    <t>Configured</t>
+  </si>
+  <si>
+    <t>trans0810</t>
+  </si>
+  <si>
+    <t>trans0811</t>
+  </si>
+  <si>
+    <t>trans0812</t>
+  </si>
+  <si>
+    <t>trans0813</t>
+  </si>
+  <si>
+    <t>trans0814</t>
+  </si>
+  <si>
+    <t>trans0815</t>
+  </si>
+  <si>
+    <t>trans0816</t>
+  </si>
+  <si>
+    <t>trans0817</t>
+  </si>
+  <si>
+    <t>trans0818</t>
+  </si>
+  <si>
+    <t>trans0819</t>
+  </si>
+  <si>
+    <t>trans0820</t>
+  </si>
+  <si>
+    <t>trans0821</t>
+  </si>
+  <si>
+    <t>trans0822</t>
+  </si>
+  <si>
+    <t>trans0823</t>
+  </si>
+  <si>
+    <t>trans0824</t>
+  </si>
+  <si>
+    <t>trans0825</t>
+  </si>
+  <si>
+    <t>trans0826</t>
+  </si>
+  <si>
+    <t>trans0827</t>
+  </si>
+  <si>
+    <t>trans0828</t>
+  </si>
+  <si>
+    <t>trans0829</t>
   </si>
   <si>
     <r>
@@ -7195,7 +7282,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="D829"/>
+  <dimension ref="D929"/>
   <sheetViews>
     <sheetView showGridLines="true" workbookViewId="0"/>
   </sheetViews>
@@ -10447,10 +10534,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2206</v>
+        <v>2235</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2207</v>
+        <v>2236</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -11659,10 +11746,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2208</v>
+        <v>2237</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2209</v>
+        <v>2238</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -11671,10 +11758,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2210</v>
+        <v>2239</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2211</v>
+        <v>2240</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -16649,154 +16736,816 @@
         <v>2204</v>
       </c>
       <c r="B805" s="9" t="s"/>
-      <c r="C805" s="9" t="s"/>
+      <c r="C805" s="9" t="s">
+        <v>2205</v>
+      </c>
       <c r="D805" s="5" t="s"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="3" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="B806" s="9" t="s"/>
-      <c r="C806" s="9" t="s"/>
+      <c r="C806" s="9" t="s">
+        <v>705</v>
+      </c>
       <c r="D806" s="5" t="s"/>
     </row>
     <row r="807" spans="1:4">
-      <c r="A807" s="3" t="s"/>
-      <c r="B807" s="9" t="s"/>
-      <c r="C807" s="9" t="s"/>
+      <c r="A807" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B807" s="9" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C807" s="9" t="s">
+        <v>2209</v>
+      </c>
       <c r="D807" s="5" t="s"/>
     </row>
     <row r="808" spans="1:4">
-      <c r="A808" s="3" t="s"/>
-      <c r="B808" s="9" t="s"/>
-      <c r="C808" s="9" t="s"/>
+      <c r="A808" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B808" s="9" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C808" s="9" t="s">
+        <v>2212</v>
+      </c>
       <c r="D808" s="5" t="s"/>
     </row>
     <row r="809" spans="1:4">
-      <c r="A809" s="3" t="s"/>
-      <c r="B809" s="9" t="s"/>
-      <c r="C809" s="9" t="s"/>
+      <c r="A809" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B809" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C809" s="9" t="s">
+        <v>2214</v>
+      </c>
       <c r="D809" s="5" t="s"/>
     </row>
     <row r="810" spans="1:4">
-      <c r="A810" s="3" t="s"/>
+      <c r="A810" s="3" t="s">
+        <v>2215</v>
+      </c>
       <c r="B810" s="9" t="s"/>
       <c r="C810" s="9" t="s"/>
       <c r="D810" s="5" t="s"/>
     </row>
     <row r="811" spans="1:4">
-      <c r="A811" s="3" t="s"/>
+      <c r="A811" s="3" t="s">
+        <v>2216</v>
+      </c>
       <c r="B811" s="9" t="s"/>
       <c r="C811" s="9" t="s"/>
       <c r="D811" s="5" t="s"/>
     </row>
     <row r="812" spans="1:4">
-      <c r="A812" s="3" t="s"/>
+      <c r="A812" s="3" t="s">
+        <v>2217</v>
+      </c>
       <c r="B812" s="9" t="s"/>
       <c r="C812" s="9" t="s"/>
       <c r="D812" s="5" t="s"/>
     </row>
     <row r="813" spans="1:4">
-      <c r="A813" s="3" t="s"/>
+      <c r="A813" s="3" t="s">
+        <v>2218</v>
+      </c>
       <c r="B813" s="9" t="s"/>
       <c r="C813" s="9" t="s"/>
       <c r="D813" s="5" t="s"/>
     </row>
     <row r="814" spans="1:4">
-      <c r="A814" s="3" t="s"/>
+      <c r="A814" s="3" t="s">
+        <v>2219</v>
+      </c>
       <c r="B814" s="9" t="s"/>
       <c r="C814" s="9" t="s"/>
       <c r="D814" s="5" t="s"/>
     </row>
     <row r="815" spans="1:4">
-      <c r="A815" s="3" t="s"/>
+      <c r="A815" s="3" t="s">
+        <v>2220</v>
+      </c>
       <c r="B815" s="9" t="s"/>
       <c r="C815" s="9" t="s"/>
       <c r="D815" s="5" t="s"/>
     </row>
     <row r="816" spans="1:4">
-      <c r="A816" s="3" t="s"/>
+      <c r="A816" s="3" t="s">
+        <v>2221</v>
+      </c>
       <c r="B816" s="9" t="s"/>
       <c r="C816" s="9" t="s"/>
       <c r="D816" s="5" t="s"/>
     </row>
     <row r="817" spans="1:4">
-      <c r="A817" s="3" t="s"/>
+      <c r="A817" s="3" t="s">
+        <v>2222</v>
+      </c>
       <c r="B817" s="9" t="s"/>
       <c r="C817" s="9" t="s"/>
       <c r="D817" s="5" t="s"/>
     </row>
     <row r="818" spans="1:4">
-      <c r="A818" s="3" t="s"/>
+      <c r="A818" s="3" t="s">
+        <v>2223</v>
+      </c>
       <c r="B818" s="9" t="s"/>
       <c r="C818" s="9" t="s"/>
       <c r="D818" s="5" t="s"/>
     </row>
     <row r="819" spans="1:4">
-      <c r="A819" s="3" t="s"/>
+      <c r="A819" s="3" t="s">
+        <v>2224</v>
+      </c>
       <c r="B819" s="9" t="s"/>
       <c r="C819" s="9" t="s"/>
       <c r="D819" s="5" t="s"/>
     </row>
     <row r="820" spans="1:4">
-      <c r="A820" s="3" t="s"/>
+      <c r="A820" s="3" t="s">
+        <v>2225</v>
+      </c>
       <c r="B820" s="9" t="s"/>
       <c r="C820" s="9" t="s"/>
       <c r="D820" s="5" t="s"/>
     </row>
     <row r="821" spans="1:4">
-      <c r="A821" s="3" t="s"/>
+      <c r="A821" s="3" t="s">
+        <v>2226</v>
+      </c>
       <c r="B821" s="9" t="s"/>
       <c r="C821" s="9" t="s"/>
       <c r="D821" s="5" t="s"/>
     </row>
     <row r="822" spans="1:4">
-      <c r="A822" s="3" t="s"/>
+      <c r="A822" s="3" t="s">
+        <v>2227</v>
+      </c>
       <c r="B822" s="9" t="s"/>
       <c r="C822" s="9" t="s"/>
       <c r="D822" s="5" t="s"/>
     </row>
     <row r="823" spans="1:4">
-      <c r="A823" s="3" t="s"/>
+      <c r="A823" s="3" t="s">
+        <v>2228</v>
+      </c>
       <c r="B823" s="9" t="s"/>
       <c r="C823" s="9" t="s"/>
       <c r="D823" s="5" t="s"/>
     </row>
     <row r="824" spans="1:4">
-      <c r="A824" s="3" t="s"/>
+      <c r="A824" s="3" t="s">
+        <v>2229</v>
+      </c>
       <c r="B824" s="9" t="s"/>
       <c r="C824" s="9" t="s"/>
       <c r="D824" s="5" t="s"/>
     </row>
     <row r="825" spans="1:4">
-      <c r="A825" s="3" t="s"/>
+      <c r="A825" s="3" t="s">
+        <v>2230</v>
+      </c>
       <c r="B825" s="9" t="s"/>
       <c r="C825" s="9" t="s"/>
       <c r="D825" s="5" t="s"/>
     </row>
     <row r="826" spans="1:4">
-      <c r="A826" s="3" t="s"/>
+      <c r="A826" s="3" t="s">
+        <v>2231</v>
+      </c>
       <c r="B826" s="9" t="s"/>
       <c r="C826" s="9" t="s"/>
       <c r="D826" s="5" t="s"/>
     </row>
     <row r="827" spans="1:4">
-      <c r="A827" s="3" t="s"/>
+      <c r="A827" s="3" t="s">
+        <v>2232</v>
+      </c>
       <c r="B827" s="9" t="s"/>
       <c r="C827" s="9" t="s"/>
       <c r="D827" s="5" t="s"/>
     </row>
     <row r="828" spans="1:4">
-      <c r="A828" s="3" t="s"/>
+      <c r="A828" s="3" t="s">
+        <v>2233</v>
+      </c>
       <c r="B828" s="9" t="s"/>
       <c r="C828" s="9" t="s"/>
       <c r="D828" s="5" t="s"/>
     </row>
     <row r="829" spans="1:4">
-      <c r="A829" s="3" t="s"/>
+      <c r="A829" s="3" t="s">
+        <v>2234</v>
+      </c>
       <c r="B829" s="9" t="s"/>
       <c r="C829" s="9" t="s"/>
       <c r="D829" s="5" t="s"/>
+    </row>
+    <row r="830" spans="1:4">
+      <c r="A830" s="3" t="s"/>
+      <c r="B830" s="9" t="s"/>
+      <c r="C830" s="9" t="s"/>
+      <c r="D830" s="5" t="s"/>
+    </row>
+    <row r="831" spans="1:4">
+      <c r="A831" s="3" t="s"/>
+      <c r="B831" s="9" t="s"/>
+      <c r="C831" s="9" t="s"/>
+      <c r="D831" s="5" t="s"/>
+    </row>
+    <row r="832" spans="1:4">
+      <c r="A832" s="3" t="s"/>
+      <c r="B832" s="9" t="s"/>
+      <c r="C832" s="9" t="s"/>
+      <c r="D832" s="5" t="s"/>
+    </row>
+    <row r="833" spans="1:4">
+      <c r="A833" s="3" t="s"/>
+      <c r="B833" s="9" t="s"/>
+      <c r="C833" s="9" t="s"/>
+      <c r="D833" s="5" t="s"/>
+    </row>
+    <row r="834" spans="1:4">
+      <c r="A834" s="3" t="s"/>
+      <c r="B834" s="9" t="s"/>
+      <c r="C834" s="9" t="s"/>
+      <c r="D834" s="5" t="s"/>
+    </row>
+    <row r="835" spans="1:4">
+      <c r="A835" s="3" t="s"/>
+      <c r="B835" s="9" t="s"/>
+      <c r="C835" s="9" t="s"/>
+      <c r="D835" s="5" t="s"/>
+    </row>
+    <row r="836" spans="1:4">
+      <c r="A836" s="3" t="s"/>
+      <c r="B836" s="9" t="s"/>
+      <c r="C836" s="9" t="s"/>
+      <c r="D836" s="5" t="s"/>
+    </row>
+    <row r="837" spans="1:4">
+      <c r="A837" s="3" t="s"/>
+      <c r="B837" s="9" t="s"/>
+      <c r="C837" s="9" t="s"/>
+      <c r="D837" s="5" t="s"/>
+    </row>
+    <row r="838" spans="1:4">
+      <c r="A838" s="3" t="s"/>
+      <c r="B838" s="9" t="s"/>
+      <c r="C838" s="9" t="s"/>
+      <c r="D838" s="5" t="s"/>
+    </row>
+    <row r="839" spans="1:4">
+      <c r="A839" s="3" t="s"/>
+      <c r="B839" s="9" t="s"/>
+      <c r="C839" s="9" t="s"/>
+      <c r="D839" s="5" t="s"/>
+    </row>
+    <row r="840" spans="1:4">
+      <c r="A840" s="3" t="s"/>
+      <c r="B840" s="9" t="s"/>
+      <c r="C840" s="9" t="s"/>
+      <c r="D840" s="5" t="s"/>
+    </row>
+    <row r="841" spans="1:4">
+      <c r="A841" s="3" t="s"/>
+      <c r="B841" s="9" t="s"/>
+      <c r="C841" s="9" t="s"/>
+      <c r="D841" s="5" t="s"/>
+    </row>
+    <row r="842" spans="1:4">
+      <c r="A842" s="3" t="s"/>
+      <c r="B842" s="9" t="s"/>
+      <c r="C842" s="9" t="s"/>
+      <c r="D842" s="5" t="s"/>
+    </row>
+    <row r="843" spans="1:4">
+      <c r="A843" s="3" t="s"/>
+      <c r="B843" s="9" t="s"/>
+      <c r="C843" s="9" t="s"/>
+      <c r="D843" s="5" t="s"/>
+    </row>
+    <row r="844" spans="1:4">
+      <c r="A844" s="3" t="s"/>
+      <c r="B844" s="9" t="s"/>
+      <c r="C844" s="9" t="s"/>
+      <c r="D844" s="5" t="s"/>
+    </row>
+    <row r="845" spans="1:4">
+      <c r="A845" s="3" t="s"/>
+      <c r="B845" s="9" t="s"/>
+      <c r="C845" s="9" t="s"/>
+      <c r="D845" s="5" t="s"/>
+    </row>
+    <row r="846" spans="1:4">
+      <c r="A846" s="3" t="s"/>
+      <c r="B846" s="9" t="s"/>
+      <c r="C846" s="9" t="s"/>
+      <c r="D846" s="5" t="s"/>
+    </row>
+    <row r="847" spans="1:4">
+      <c r="A847" s="3" t="s"/>
+      <c r="B847" s="9" t="s"/>
+      <c r="C847" s="9" t="s"/>
+      <c r="D847" s="5" t="s"/>
+    </row>
+    <row r="848" spans="1:4">
+      <c r="A848" s="3" t="s"/>
+      <c r="B848" s="9" t="s"/>
+      <c r="C848" s="9" t="s"/>
+      <c r="D848" s="5" t="s"/>
+    </row>
+    <row r="849" spans="1:4">
+      <c r="A849" s="3" t="s"/>
+      <c r="B849" s="9" t="s"/>
+      <c r="C849" s="9" t="s"/>
+      <c r="D849" s="5" t="s"/>
+    </row>
+    <row r="850" spans="1:4">
+      <c r="A850" s="3" t="s"/>
+      <c r="B850" s="9" t="s"/>
+      <c r="C850" s="9" t="s"/>
+      <c r="D850" s="5" t="s"/>
+    </row>
+    <row r="851" spans="1:4">
+      <c r="A851" s="3" t="s"/>
+      <c r="B851" s="9" t="s"/>
+      <c r="C851" s="9" t="s"/>
+      <c r="D851" s="5" t="s"/>
+    </row>
+    <row r="852" spans="1:4">
+      <c r="A852" s="3" t="s"/>
+      <c r="B852" s="9" t="s"/>
+      <c r="C852" s="9" t="s"/>
+      <c r="D852" s="5" t="s"/>
+    </row>
+    <row r="853" spans="1:4">
+      <c r="A853" s="3" t="s"/>
+      <c r="B853" s="9" t="s"/>
+      <c r="C853" s="9" t="s"/>
+      <c r="D853" s="5" t="s"/>
+    </row>
+    <row r="854" spans="1:4">
+      <c r="A854" s="3" t="s"/>
+      <c r="B854" s="9" t="s"/>
+      <c r="C854" s="9" t="s"/>
+      <c r="D854" s="5" t="s"/>
+    </row>
+    <row r="855" spans="1:4">
+      <c r="A855" s="3" t="s"/>
+      <c r="B855" s="9" t="s"/>
+      <c r="C855" s="9" t="s"/>
+      <c r="D855" s="5" t="s"/>
+    </row>
+    <row r="856" spans="1:4">
+      <c r="A856" s="3" t="s"/>
+      <c r="B856" s="9" t="s"/>
+      <c r="C856" s="9" t="s"/>
+      <c r="D856" s="5" t="s"/>
+    </row>
+    <row r="857" spans="1:4">
+      <c r="A857" s="3" t="s"/>
+      <c r="B857" s="9" t="s"/>
+      <c r="C857" s="9" t="s"/>
+      <c r="D857" s="5" t="s"/>
+    </row>
+    <row r="858" spans="1:4">
+      <c r="A858" s="3" t="s"/>
+      <c r="B858" s="9" t="s"/>
+      <c r="C858" s="9" t="s"/>
+      <c r="D858" s="5" t="s"/>
+    </row>
+    <row r="859" spans="1:4">
+      <c r="A859" s="3" t="s"/>
+      <c r="B859" s="9" t="s"/>
+      <c r="C859" s="9" t="s"/>
+      <c r="D859" s="5" t="s"/>
+    </row>
+    <row r="860" spans="1:4">
+      <c r="A860" s="3" t="s"/>
+      <c r="B860" s="9" t="s"/>
+      <c r="C860" s="9" t="s"/>
+      <c r="D860" s="5" t="s"/>
+    </row>
+    <row r="861" spans="1:4">
+      <c r="A861" s="3" t="s"/>
+      <c r="B861" s="9" t="s"/>
+      <c r="C861" s="9" t="s"/>
+      <c r="D861" s="5" t="s"/>
+    </row>
+    <row r="862" spans="1:4">
+      <c r="A862" s="3" t="s"/>
+      <c r="B862" s="9" t="s"/>
+      <c r="C862" s="9" t="s"/>
+      <c r="D862" s="5" t="s"/>
+    </row>
+    <row r="863" spans="1:4">
+      <c r="A863" s="3" t="s"/>
+      <c r="B863" s="9" t="s"/>
+      <c r="C863" s="9" t="s"/>
+      <c r="D863" s="5" t="s"/>
+    </row>
+    <row r="864" spans="1:4">
+      <c r="A864" s="3" t="s"/>
+      <c r="B864" s="9" t="s"/>
+      <c r="C864" s="9" t="s"/>
+      <c r="D864" s="5" t="s"/>
+    </row>
+    <row r="865" spans="1:4">
+      <c r="A865" s="3" t="s"/>
+      <c r="B865" s="9" t="s"/>
+      <c r="C865" s="9" t="s"/>
+      <c r="D865" s="5" t="s"/>
+    </row>
+    <row r="866" spans="1:4">
+      <c r="A866" s="3" t="s"/>
+      <c r="B866" s="9" t="s"/>
+      <c r="C866" s="9" t="s"/>
+      <c r="D866" s="5" t="s"/>
+    </row>
+    <row r="867" spans="1:4">
+      <c r="A867" s="3" t="s"/>
+      <c r="B867" s="9" t="s"/>
+      <c r="C867" s="9" t="s"/>
+      <c r="D867" s="5" t="s"/>
+    </row>
+    <row r="868" spans="1:4">
+      <c r="A868" s="3" t="s"/>
+      <c r="B868" s="9" t="s"/>
+      <c r="C868" s="9" t="s"/>
+      <c r="D868" s="5" t="s"/>
+    </row>
+    <row r="869" spans="1:4">
+      <c r="A869" s="3" t="s"/>
+      <c r="B869" s="9" t="s"/>
+      <c r="C869" s="9" t="s"/>
+      <c r="D869" s="5" t="s"/>
+    </row>
+    <row r="870" spans="1:4">
+      <c r="A870" s="3" t="s"/>
+      <c r="B870" s="9" t="s"/>
+      <c r="C870" s="9" t="s"/>
+      <c r="D870" s="5" t="s"/>
+    </row>
+    <row r="871" spans="1:4">
+      <c r="A871" s="3" t="s"/>
+      <c r="B871" s="9" t="s"/>
+      <c r="C871" s="9" t="s"/>
+      <c r="D871" s="5" t="s"/>
+    </row>
+    <row r="872" spans="1:4">
+      <c r="A872" s="3" t="s"/>
+      <c r="B872" s="9" t="s"/>
+      <c r="C872" s="9" t="s"/>
+      <c r="D872" s="5" t="s"/>
+    </row>
+    <row r="873" spans="1:4">
+      <c r="A873" s="3" t="s"/>
+      <c r="B873" s="9" t="s"/>
+      <c r="C873" s="9" t="s"/>
+      <c r="D873" s="5" t="s"/>
+    </row>
+    <row r="874" spans="1:4">
+      <c r="A874" s="3" t="s"/>
+      <c r="B874" s="9" t="s"/>
+      <c r="C874" s="9" t="s"/>
+      <c r="D874" s="5" t="s"/>
+    </row>
+    <row r="875" spans="1:4">
+      <c r="A875" s="3" t="s"/>
+      <c r="B875" s="9" t="s"/>
+      <c r="C875" s="9" t="s"/>
+      <c r="D875" s="5" t="s"/>
+    </row>
+    <row r="876" spans="1:4">
+      <c r="A876" s="3" t="s"/>
+      <c r="B876" s="9" t="s"/>
+      <c r="C876" s="9" t="s"/>
+      <c r="D876" s="5" t="s"/>
+    </row>
+    <row r="877" spans="1:4">
+      <c r="A877" s="3" t="s"/>
+      <c r="B877" s="9" t="s"/>
+      <c r="C877" s="9" t="s"/>
+      <c r="D877" s="5" t="s"/>
+    </row>
+    <row r="878" spans="1:4">
+      <c r="A878" s="3" t="s"/>
+      <c r="B878" s="9" t="s"/>
+      <c r="C878" s="9" t="s"/>
+      <c r="D878" s="5" t="s"/>
+    </row>
+    <row r="879" spans="1:4">
+      <c r="A879" s="3" t="s"/>
+      <c r="B879" s="9" t="s"/>
+      <c r="C879" s="9" t="s"/>
+      <c r="D879" s="5" t="s"/>
+    </row>
+    <row r="880" spans="1:4">
+      <c r="A880" s="3" t="s"/>
+      <c r="B880" s="9" t="s"/>
+      <c r="C880" s="9" t="s"/>
+      <c r="D880" s="5" t="s"/>
+    </row>
+    <row r="881" spans="1:4">
+      <c r="A881" s="3" t="s"/>
+      <c r="B881" s="9" t="s"/>
+      <c r="C881" s="9" t="s"/>
+      <c r="D881" s="5" t="s"/>
+    </row>
+    <row r="882" spans="1:4">
+      <c r="A882" s="3" t="s"/>
+      <c r="B882" s="9" t="s"/>
+      <c r="C882" s="9" t="s"/>
+      <c r="D882" s="5" t="s"/>
+    </row>
+    <row r="883" spans="1:4">
+      <c r="A883" s="3" t="s"/>
+      <c r="B883" s="9" t="s"/>
+      <c r="C883" s="9" t="s"/>
+      <c r="D883" s="5" t="s"/>
+    </row>
+    <row r="884" spans="1:4">
+      <c r="A884" s="3" t="s"/>
+      <c r="B884" s="9" t="s"/>
+      <c r="C884" s="9" t="s"/>
+      <c r="D884" s="5" t="s"/>
+    </row>
+    <row r="885" spans="1:4">
+      <c r="A885" s="3" t="s"/>
+      <c r="B885" s="9" t="s"/>
+      <c r="C885" s="9" t="s"/>
+      <c r="D885" s="5" t="s"/>
+    </row>
+    <row r="886" spans="1:4">
+      <c r="A886" s="3" t="s"/>
+      <c r="B886" s="9" t="s"/>
+      <c r="C886" s="9" t="s"/>
+      <c r="D886" s="5" t="s"/>
+    </row>
+    <row r="887" spans="1:4">
+      <c r="A887" s="3" t="s"/>
+      <c r="B887" s="9" t="s"/>
+      <c r="C887" s="9" t="s"/>
+      <c r="D887" s="5" t="s"/>
+    </row>
+    <row r="888" spans="1:4">
+      <c r="A888" s="3" t="s"/>
+      <c r="B888" s="9" t="s"/>
+      <c r="C888" s="9" t="s"/>
+      <c r="D888" s="5" t="s"/>
+    </row>
+    <row r="889" spans="1:4">
+      <c r="A889" s="3" t="s"/>
+      <c r="B889" s="9" t="s"/>
+      <c r="C889" s="9" t="s"/>
+      <c r="D889" s="5" t="s"/>
+    </row>
+    <row r="890" spans="1:4">
+      <c r="A890" s="3" t="s"/>
+      <c r="B890" s="9" t="s"/>
+      <c r="C890" s="9" t="s"/>
+      <c r="D890" s="5" t="s"/>
+    </row>
+    <row r="891" spans="1:4">
+      <c r="A891" s="3" t="s"/>
+      <c r="B891" s="9" t="s"/>
+      <c r="C891" s="9" t="s"/>
+      <c r="D891" s="5" t="s"/>
+    </row>
+    <row r="892" spans="1:4">
+      <c r="A892" s="3" t="s"/>
+      <c r="B892" s="9" t="s"/>
+      <c r="C892" s="9" t="s"/>
+      <c r="D892" s="5" t="s"/>
+    </row>
+    <row r="893" spans="1:4">
+      <c r="A893" s="3" t="s"/>
+      <c r="B893" s="9" t="s"/>
+      <c r="C893" s="9" t="s"/>
+      <c r="D893" s="5" t="s"/>
+    </row>
+    <row r="894" spans="1:4">
+      <c r="A894" s="3" t="s"/>
+      <c r="B894" s="9" t="s"/>
+      <c r="C894" s="9" t="s"/>
+      <c r="D894" s="5" t="s"/>
+    </row>
+    <row r="895" spans="1:4">
+      <c r="A895" s="3" t="s"/>
+      <c r="B895" s="9" t="s"/>
+      <c r="C895" s="9" t="s"/>
+      <c r="D895" s="5" t="s"/>
+    </row>
+    <row r="896" spans="1:4">
+      <c r="A896" s="3" t="s"/>
+      <c r="B896" s="9" t="s"/>
+      <c r="C896" s="9" t="s"/>
+      <c r="D896" s="5" t="s"/>
+    </row>
+    <row r="897" spans="1:4">
+      <c r="A897" s="3" t="s"/>
+      <c r="B897" s="9" t="s"/>
+      <c r="C897" s="9" t="s"/>
+      <c r="D897" s="5" t="s"/>
+    </row>
+    <row r="898" spans="1:4">
+      <c r="A898" s="3" t="s"/>
+      <c r="B898" s="9" t="s"/>
+      <c r="C898" s="9" t="s"/>
+      <c r="D898" s="5" t="s"/>
+    </row>
+    <row r="899" spans="1:4">
+      <c r="A899" s="3" t="s"/>
+      <c r="B899" s="9" t="s"/>
+      <c r="C899" s="9" t="s"/>
+      <c r="D899" s="5" t="s"/>
+    </row>
+    <row r="900" spans="1:4">
+      <c r="A900" s="3" t="s"/>
+      <c r="B900" s="9" t="s"/>
+      <c r="C900" s="9" t="s"/>
+      <c r="D900" s="5" t="s"/>
+    </row>
+    <row r="901" spans="1:4">
+      <c r="A901" s="3" t="s"/>
+      <c r="B901" s="9" t="s"/>
+      <c r="C901" s="9" t="s"/>
+      <c r="D901" s="5" t="s"/>
+    </row>
+    <row r="902" spans="1:4">
+      <c r="A902" s="3" t="s"/>
+      <c r="B902" s="9" t="s"/>
+      <c r="C902" s="9" t="s"/>
+      <c r="D902" s="5" t="s"/>
+    </row>
+    <row r="903" spans="1:4">
+      <c r="A903" s="3" t="s"/>
+      <c r="B903" s="9" t="s"/>
+      <c r="C903" s="9" t="s"/>
+      <c r="D903" s="5" t="s"/>
+    </row>
+    <row r="904" spans="1:4">
+      <c r="A904" s="3" t="s"/>
+      <c r="B904" s="9" t="s"/>
+      <c r="C904" s="9" t="s"/>
+      <c r="D904" s="5" t="s"/>
+    </row>
+    <row r="905" spans="1:4">
+      <c r="A905" s="3" t="s"/>
+      <c r="B905" s="9" t="s"/>
+      <c r="C905" s="9" t="s"/>
+      <c r="D905" s="5" t="s"/>
+    </row>
+    <row r="906" spans="1:4">
+      <c r="A906" s="3" t="s"/>
+      <c r="B906" s="9" t="s"/>
+      <c r="C906" s="9" t="s"/>
+      <c r="D906" s="5" t="s"/>
+    </row>
+    <row r="907" spans="1:4">
+      <c r="A907" s="3" t="s"/>
+      <c r="B907" s="9" t="s"/>
+      <c r="C907" s="9" t="s"/>
+      <c r="D907" s="5" t="s"/>
+    </row>
+    <row r="908" spans="1:4">
+      <c r="A908" s="3" t="s"/>
+      <c r="B908" s="9" t="s"/>
+      <c r="C908" s="9" t="s"/>
+      <c r="D908" s="5" t="s"/>
+    </row>
+    <row r="909" spans="1:4">
+      <c r="A909" s="3" t="s"/>
+      <c r="B909" s="9" t="s"/>
+      <c r="C909" s="9" t="s"/>
+      <c r="D909" s="5" t="s"/>
+    </row>
+    <row r="910" spans="1:4">
+      <c r="A910" s="3" t="s"/>
+      <c r="B910" s="9" t="s"/>
+      <c r="C910" s="9" t="s"/>
+      <c r="D910" s="5" t="s"/>
+    </row>
+    <row r="911" spans="1:4">
+      <c r="A911" s="3" t="s"/>
+      <c r="B911" s="9" t="s"/>
+      <c r="C911" s="9" t="s"/>
+      <c r="D911" s="5" t="s"/>
+    </row>
+    <row r="912" spans="1:4">
+      <c r="A912" s="3" t="s"/>
+      <c r="B912" s="9" t="s"/>
+      <c r="C912" s="9" t="s"/>
+      <c r="D912" s="5" t="s"/>
+    </row>
+    <row r="913" spans="1:4">
+      <c r="A913" s="3" t="s"/>
+      <c r="B913" s="9" t="s"/>
+      <c r="C913" s="9" t="s"/>
+      <c r="D913" s="5" t="s"/>
+    </row>
+    <row r="914" spans="1:4">
+      <c r="A914" s="3" t="s"/>
+      <c r="B914" s="9" t="s"/>
+      <c r="C914" s="9" t="s"/>
+      <c r="D914" s="5" t="s"/>
+    </row>
+    <row r="915" spans="1:4">
+      <c r="A915" s="3" t="s"/>
+      <c r="B915" s="9" t="s"/>
+      <c r="C915" s="9" t="s"/>
+      <c r="D915" s="5" t="s"/>
+    </row>
+    <row r="916" spans="1:4">
+      <c r="A916" s="3" t="s"/>
+      <c r="B916" s="9" t="s"/>
+      <c r="C916" s="9" t="s"/>
+      <c r="D916" s="5" t="s"/>
+    </row>
+    <row r="917" spans="1:4">
+      <c r="A917" s="3" t="s"/>
+      <c r="B917" s="9" t="s"/>
+      <c r="C917" s="9" t="s"/>
+      <c r="D917" s="5" t="s"/>
+    </row>
+    <row r="918" spans="1:4">
+      <c r="A918" s="3" t="s"/>
+      <c r="B918" s="9" t="s"/>
+      <c r="C918" s="9" t="s"/>
+      <c r="D918" s="5" t="s"/>
+    </row>
+    <row r="919" spans="1:4">
+      <c r="A919" s="3" t="s"/>
+      <c r="B919" s="9" t="s"/>
+      <c r="C919" s="9" t="s"/>
+      <c r="D919" s="5" t="s"/>
+    </row>
+    <row r="920" spans="1:4">
+      <c r="A920" s="3" t="s"/>
+      <c r="B920" s="9" t="s"/>
+      <c r="C920" s="9" t="s"/>
+      <c r="D920" s="5" t="s"/>
+    </row>
+    <row r="921" spans="1:4">
+      <c r="A921" s="3" t="s"/>
+      <c r="B921" s="9" t="s"/>
+      <c r="C921" s="9" t="s"/>
+      <c r="D921" s="5" t="s"/>
+    </row>
+    <row r="922" spans="1:4">
+      <c r="A922" s="3" t="s"/>
+      <c r="B922" s="9" t="s"/>
+      <c r="C922" s="9" t="s"/>
+      <c r="D922" s="5" t="s"/>
+    </row>
+    <row r="923" spans="1:4">
+      <c r="A923" s="3" t="s"/>
+      <c r="B923" s="9" t="s"/>
+      <c r="C923" s="9" t="s"/>
+      <c r="D923" s="5" t="s"/>
+    </row>
+    <row r="924" spans="1:4">
+      <c r="A924" s="3" t="s"/>
+      <c r="B924" s="9" t="s"/>
+      <c r="C924" s="9" t="s"/>
+      <c r="D924" s="5" t="s"/>
+    </row>
+    <row r="925" spans="1:4">
+      <c r="A925" s="3" t="s"/>
+      <c r="B925" s="9" t="s"/>
+      <c r="C925" s="9" t="s"/>
+      <c r="D925" s="5" t="s"/>
+    </row>
+    <row r="926" spans="1:4">
+      <c r="A926" s="3" t="s"/>
+      <c r="B926" s="9" t="s"/>
+      <c r="C926" s="9" t="s"/>
+      <c r="D926" s="5" t="s"/>
+    </row>
+    <row r="927" spans="1:4">
+      <c r="A927" s="3" t="s"/>
+      <c r="B927" s="9" t="s"/>
+      <c r="C927" s="9" t="s"/>
+      <c r="D927" s="5" t="s"/>
+    </row>
+    <row r="928" spans="1:4">
+      <c r="A928" s="3" t="s"/>
+      <c r="B928" s="9" t="s"/>
+      <c r="C928" s="9" t="s"/>
+      <c r="D928" s="5" t="s"/>
+    </row>
+    <row r="929" spans="1:4">
+      <c r="A929" s="3" t="s"/>
+      <c r="B929" s="9" t="s"/>
+      <c r="C929" s="9" t="s"/>
+      <c r="D929" s="5" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="2287">
   <si>
     <t/>
   </si>
@@ -6665,61 +6665,199 @@
     <t>trans0810</t>
   </si>
   <si>
+    <t>Storage</t>
+  </si>
+  <si>
     <t>trans0811</t>
   </si>
   <si>
+    <t>FTP client configuration</t>
+  </si>
+  <si>
     <t>trans0812</t>
   </si>
   <si>
+    <t>FTP URL</t>
+  </si>
+  <si>
     <t>trans0813</t>
   </si>
   <si>
     <t>trans0814</t>
   </si>
   <si>
+    <t>Path</t>
+  </si>
+  <si>
     <t>trans0815</t>
   </si>
   <si>
+    <t>FTP Server Configuration</t>
+  </si>
+  <si>
     <t>trans0816</t>
   </si>
   <si>
+    <t>Enable FTP Server</t>
+  </si>
+  <si>
     <t>trans0817</t>
   </si>
   <si>
+    <t>Root Path</t>
+  </si>
+  <si>
     <t>trans0818</t>
   </si>
   <si>
+    <t>Path will create in the USB device automatically.</t>
+  </si>
+  <si>
     <t>trans0819</t>
   </si>
   <si>
+    <t>Note:FTP Server Root Path in the USB device. If this parameter is not specified, the default root path is used</t>
+  </si>
+  <si>
     <t>trans0820</t>
   </si>
   <si>
+    <t>Download</t>
+  </si>
+  <si>
     <t>trans0821</t>
   </si>
   <si>
+    <t>No USB Device</t>
+  </si>
+  <si>
     <t>trans0822</t>
   </si>
   <si>
+    <t>SAMBA</t>
+  </si>
+  <si>
     <t>trans0823</t>
   </si>
   <si>
+    <t>Media Sharing</t>
+  </si>
+  <si>
     <t>trans0824</t>
   </si>
   <si>
+    <t xml:space="preserve">Enable Media Sharing </t>
+  </si>
+  <si>
     <t>trans0825</t>
   </si>
   <si>
+    <t>Sharing path</t>
+  </si>
+  <si>
     <t>trans0826</t>
   </si>
   <si>
+    <t>Note:Sharing path in the USB device.</t>
+  </si>
+  <si>
     <t>trans0827</t>
   </si>
   <si>
+    <t>Wi-fi Mac Filter</t>
+  </si>
+  <si>
     <t>trans0828</t>
   </si>
   <si>
+    <t>最多只能创建%s条wan</t>
+  </si>
+  <si>
+    <t>Only up to %s WAN can be created</t>
+  </si>
+  <si>
     <t>trans0829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable SAMBA </t>
+  </si>
+  <si>
+    <t>trans0830</t>
+  </si>
+  <si>
+    <t>Activated</t>
+  </si>
+  <si>
+    <t>trans0831</t>
+  </si>
+  <si>
+    <t>Deactivated</t>
+  </si>
+  <si>
+    <t>trans0832</t>
+  </si>
+  <si>
+    <t>trans0833</t>
+  </si>
+  <si>
+    <t>trans0834</t>
+  </si>
+  <si>
+    <t>trans0835</t>
+  </si>
+  <si>
+    <t>trans0836</t>
+  </si>
+  <si>
+    <t>trans0837</t>
+  </si>
+  <si>
+    <t>trans0838</t>
+  </si>
+  <si>
+    <t>trans0839</t>
+  </si>
+  <si>
+    <t>trans0840</t>
+  </si>
+  <si>
+    <t>trans0841</t>
+  </si>
+  <si>
+    <t>trans0842</t>
+  </si>
+  <si>
+    <t>trans0843</t>
+  </si>
+  <si>
+    <t>trans0844</t>
+  </si>
+  <si>
+    <t>trans0845</t>
+  </si>
+  <si>
+    <t>trans0846</t>
+  </si>
+  <si>
+    <t>trans0847</t>
+  </si>
+  <si>
+    <t>trans0848</t>
+  </si>
+  <si>
+    <t>trans0849</t>
+  </si>
+  <si>
+    <t>trans0850</t>
+  </si>
+  <si>
+    <t>trans0851</t>
+  </si>
+  <si>
+    <t>trans0852</t>
+  </si>
+  <si>
+    <t>trans0853</t>
   </si>
   <si>
     <r>
@@ -10534,10 +10672,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2235</v>
+        <v>2281</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2236</v>
+        <v>2282</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -11746,10 +11884,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2237</v>
+        <v>2283</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2238</v>
+        <v>2284</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -11758,10 +11896,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2239</v>
+        <v>2285</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2240</v>
+        <v>2286</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -11985,12 +12123,8 @@
       <c r="A392" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="B392" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C392" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="B392" s="9" t="s"/>
+      <c r="C392" s="9" t="s"/>
       <c r="D392" s="5" t="s"/>
     </row>
     <row r="393" spans="1:4">
@@ -13819,12 +13953,8 @@
       <c r="A546" s="7" t="s">
         <v>1546</v>
       </c>
-      <c r="B546" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C546" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="B546" s="9" t="s"/>
+      <c r="C546" s="9" t="s"/>
       <c r="D546" s="5" t="s"/>
     </row>
     <row r="547" spans="1:4">
@@ -16792,301 +16922,395 @@
         <v>2215</v>
       </c>
       <c r="B810" s="9" t="s"/>
-      <c r="C810" s="9" t="s"/>
+      <c r="C810" s="9" t="s">
+        <v>2216</v>
+      </c>
       <c r="D810" s="5" t="s"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="3" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="B811" s="9" t="s"/>
-      <c r="C811" s="9" t="s"/>
+      <c r="C811" s="9" t="s">
+        <v>2218</v>
+      </c>
       <c r="D811" s="5" t="s"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="3" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="B812" s="9" t="s"/>
-      <c r="C812" s="9" t="s"/>
+      <c r="C812" s="9" t="s">
+        <v>2220</v>
+      </c>
       <c r="D812" s="5" t="s"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="3" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="B813" s="9" t="s"/>
-      <c r="C813" s="9" t="s"/>
+      <c r="C813" s="9" t="s">
+        <v>2093</v>
+      </c>
       <c r="D813" s="5" t="s"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="3" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="B814" s="9" t="s"/>
-      <c r="C814" s="9" t="s"/>
+      <c r="C814" s="9" t="s">
+        <v>2223</v>
+      </c>
       <c r="D814" s="5" t="s"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="3" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="B815" s="9" t="s"/>
-      <c r="C815" s="9" t="s"/>
+      <c r="C815" s="9" t="s">
+        <v>2225</v>
+      </c>
       <c r="D815" s="5" t="s"/>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="3" t="s">
-        <v>2221</v>
+        <v>2226</v>
       </c>
       <c r="B816" s="9" t="s"/>
-      <c r="C816" s="9" t="s"/>
+      <c r="C816" s="9" t="s">
+        <v>2227</v>
+      </c>
       <c r="D816" s="5" t="s"/>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="3" t="s">
-        <v>2222</v>
+        <v>2228</v>
       </c>
       <c r="B817" s="9" t="s"/>
-      <c r="C817" s="9" t="s"/>
+      <c r="C817" s="9" t="s">
+        <v>2229</v>
+      </c>
       <c r="D817" s="5" t="s"/>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="3" t="s">
-        <v>2223</v>
+        <v>2230</v>
       </c>
       <c r="B818" s="9" t="s"/>
-      <c r="C818" s="9" t="s"/>
+      <c r="C818" s="9" t="s">
+        <v>2231</v>
+      </c>
       <c r="D818" s="5" t="s"/>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="3" t="s">
-        <v>2224</v>
+        <v>2232</v>
       </c>
       <c r="B819" s="9" t="s"/>
-      <c r="C819" s="9" t="s"/>
+      <c r="C819" s="9" t="s">
+        <v>2233</v>
+      </c>
       <c r="D819" s="5" t="s"/>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="3" t="s">
-        <v>2225</v>
+        <v>2234</v>
       </c>
       <c r="B820" s="9" t="s"/>
-      <c r="C820" s="9" t="s"/>
+      <c r="C820" s="9" t="s">
+        <v>2235</v>
+      </c>
       <c r="D820" s="5" t="s"/>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="3" t="s">
-        <v>2226</v>
+        <v>2236</v>
       </c>
       <c r="B821" s="9" t="s"/>
-      <c r="C821" s="9" t="s"/>
+      <c r="C821" s="9" t="s">
+        <v>2237</v>
+      </c>
       <c r="D821" s="5" t="s"/>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="3" t="s">
-        <v>2227</v>
+        <v>2238</v>
       </c>
       <c r="B822" s="9" t="s"/>
-      <c r="C822" s="9" t="s"/>
+      <c r="C822" s="9" t="s">
+        <v>2239</v>
+      </c>
       <c r="D822" s="5" t="s"/>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="3" t="s">
-        <v>2228</v>
+        <v>2240</v>
       </c>
       <c r="B823" s="9" t="s"/>
-      <c r="C823" s="9" t="s"/>
+      <c r="C823" s="9" t="s">
+        <v>2241</v>
+      </c>
       <c r="D823" s="5" t="s"/>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="3" t="s">
-        <v>2229</v>
+        <v>2242</v>
       </c>
       <c r="B824" s="9" t="s"/>
-      <c r="C824" s="9" t="s"/>
+      <c r="C824" s="9" t="s">
+        <v>2243</v>
+      </c>
       <c r="D824" s="5" t="s"/>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="3" t="s">
-        <v>2230</v>
+        <v>2244</v>
       </c>
       <c r="B825" s="9" t="s"/>
-      <c r="C825" s="9" t="s"/>
+      <c r="C825" s="9" t="s">
+        <v>2245</v>
+      </c>
       <c r="D825" s="5" t="s"/>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="3" t="s">
-        <v>2231</v>
+        <v>2246</v>
       </c>
       <c r="B826" s="9" t="s"/>
-      <c r="C826" s="9" t="s"/>
+      <c r="C826" s="9" t="s">
+        <v>2247</v>
+      </c>
       <c r="D826" s="5" t="s"/>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="3" t="s">
-        <v>2232</v>
+        <v>2248</v>
       </c>
       <c r="B827" s="9" t="s"/>
-      <c r="C827" s="9" t="s"/>
+      <c r="C827" s="9" t="s">
+        <v>2249</v>
+      </c>
       <c r="D827" s="5" t="s"/>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="3" t="s">
-        <v>2233</v>
-      </c>
-      <c r="B828" s="9" t="s"/>
-      <c r="C828" s="9" t="s"/>
+        <v>2250</v>
+      </c>
+      <c r="B828" s="9" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C828" s="9" t="s">
+        <v>2252</v>
+      </c>
       <c r="D828" s="5" t="s"/>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="3" t="s">
-        <v>2234</v>
+        <v>2253</v>
       </c>
       <c r="B829" s="9" t="s"/>
-      <c r="C829" s="9" t="s"/>
+      <c r="C829" s="9" t="s">
+        <v>2254</v>
+      </c>
       <c r="D829" s="5" t="s"/>
     </row>
     <row r="830" spans="1:4">
-      <c r="A830" s="3" t="s"/>
+      <c r="A830" s="3" t="s">
+        <v>2255</v>
+      </c>
       <c r="B830" s="9" t="s"/>
-      <c r="C830" s="9" t="s"/>
+      <c r="C830" s="9" t="s">
+        <v>2256</v>
+      </c>
       <c r="D830" s="5" t="s"/>
     </row>
     <row r="831" spans="1:4">
-      <c r="A831" s="3" t="s"/>
+      <c r="A831" s="3" t="s">
+        <v>2257</v>
+      </c>
       <c r="B831" s="9" t="s"/>
-      <c r="C831" s="9" t="s"/>
+      <c r="C831" s="9" t="s">
+        <v>2258</v>
+      </c>
       <c r="D831" s="5" t="s"/>
     </row>
     <row r="832" spans="1:4">
-      <c r="A832" s="3" t="s"/>
+      <c r="A832" s="3" t="s">
+        <v>2259</v>
+      </c>
       <c r="B832" s="9" t="s"/>
       <c r="C832" s="9" t="s"/>
       <c r="D832" s="5" t="s"/>
     </row>
     <row r="833" spans="1:4">
-      <c r="A833" s="3" t="s"/>
+      <c r="A833" s="3" t="s">
+        <v>2260</v>
+      </c>
       <c r="B833" s="9" t="s"/>
       <c r="C833" s="9" t="s"/>
       <c r="D833" s="5" t="s"/>
     </row>
     <row r="834" spans="1:4">
-      <c r="A834" s="3" t="s"/>
+      <c r="A834" s="3" t="s">
+        <v>2261</v>
+      </c>
       <c r="B834" s="9" t="s"/>
       <c r="C834" s="9" t="s"/>
       <c r="D834" s="5" t="s"/>
     </row>
     <row r="835" spans="1:4">
-      <c r="A835" s="3" t="s"/>
+      <c r="A835" s="3" t="s">
+        <v>2262</v>
+      </c>
       <c r="B835" s="9" t="s"/>
       <c r="C835" s="9" t="s"/>
       <c r="D835" s="5" t="s"/>
     </row>
     <row r="836" spans="1:4">
-      <c r="A836" s="3" t="s"/>
+      <c r="A836" s="3" t="s">
+        <v>2263</v>
+      </c>
       <c r="B836" s="9" t="s"/>
       <c r="C836" s="9" t="s"/>
       <c r="D836" s="5" t="s"/>
     </row>
     <row r="837" spans="1:4">
-      <c r="A837" s="3" t="s"/>
+      <c r="A837" s="3" t="s">
+        <v>2264</v>
+      </c>
       <c r="B837" s="9" t="s"/>
       <c r="C837" s="9" t="s"/>
       <c r="D837" s="5" t="s"/>
     </row>
     <row r="838" spans="1:4">
-      <c r="A838" s="3" t="s"/>
+      <c r="A838" s="3" t="s">
+        <v>2265</v>
+      </c>
       <c r="B838" s="9" t="s"/>
       <c r="C838" s="9" t="s"/>
       <c r="D838" s="5" t="s"/>
     </row>
     <row r="839" spans="1:4">
-      <c r="A839" s="3" t="s"/>
+      <c r="A839" s="3" t="s">
+        <v>2266</v>
+      </c>
       <c r="B839" s="9" t="s"/>
       <c r="C839" s="9" t="s"/>
       <c r="D839" s="5" t="s"/>
     </row>
     <row r="840" spans="1:4">
-      <c r="A840" s="3" t="s"/>
+      <c r="A840" s="3" t="s">
+        <v>2267</v>
+      </c>
       <c r="B840" s="9" t="s"/>
       <c r="C840" s="9" t="s"/>
       <c r="D840" s="5" t="s"/>
     </row>
     <row r="841" spans="1:4">
-      <c r="A841" s="3" t="s"/>
+      <c r="A841" s="3" t="s">
+        <v>2268</v>
+      </c>
       <c r="B841" s="9" t="s"/>
       <c r="C841" s="9" t="s"/>
       <c r="D841" s="5" t="s"/>
     </row>
     <row r="842" spans="1:4">
-      <c r="A842" s="3" t="s"/>
+      <c r="A842" s="3" t="s">
+        <v>2269</v>
+      </c>
       <c r="B842" s="9" t="s"/>
       <c r="C842" s="9" t="s"/>
       <c r="D842" s="5" t="s"/>
     </row>
     <row r="843" spans="1:4">
-      <c r="A843" s="3" t="s"/>
+      <c r="A843" s="3" t="s">
+        <v>2270</v>
+      </c>
       <c r="B843" s="9" t="s"/>
       <c r="C843" s="9" t="s"/>
       <c r="D843" s="5" t="s"/>
     </row>
     <row r="844" spans="1:4">
-      <c r="A844" s="3" t="s"/>
+      <c r="A844" s="3" t="s">
+        <v>2271</v>
+      </c>
       <c r="B844" s="9" t="s"/>
       <c r="C844" s="9" t="s"/>
       <c r="D844" s="5" t="s"/>
     </row>
     <row r="845" spans="1:4">
-      <c r="A845" s="3" t="s"/>
+      <c r="A845" s="3" t="s">
+        <v>2272</v>
+      </c>
       <c r="B845" s="9" t="s"/>
       <c r="C845" s="9" t="s"/>
       <c r="D845" s="5" t="s"/>
     </row>
     <row r="846" spans="1:4">
-      <c r="A846" s="3" t="s"/>
+      <c r="A846" s="3" t="s">
+        <v>2273</v>
+      </c>
       <c r="B846" s="9" t="s"/>
       <c r="C846" s="9" t="s"/>
       <c r="D846" s="5" t="s"/>
     </row>
     <row r="847" spans="1:4">
-      <c r="A847" s="3" t="s"/>
+      <c r="A847" s="3" t="s">
+        <v>2274</v>
+      </c>
       <c r="B847" s="9" t="s"/>
       <c r="C847" s="9" t="s"/>
       <c r="D847" s="5" t="s"/>
     </row>
     <row r="848" spans="1:4">
-      <c r="A848" s="3" t="s"/>
+      <c r="A848" s="3" t="s">
+        <v>2275</v>
+      </c>
       <c r="B848" s="9" t="s"/>
       <c r="C848" s="9" t="s"/>
       <c r="D848" s="5" t="s"/>
     </row>
     <row r="849" spans="1:4">
-      <c r="A849" s="3" t="s"/>
+      <c r="A849" s="3" t="s">
+        <v>2276</v>
+      </c>
       <c r="B849" s="9" t="s"/>
       <c r="C849" s="9" t="s"/>
       <c r="D849" s="5" t="s"/>
     </row>
     <row r="850" spans="1:4">
-      <c r="A850" s="3" t="s"/>
+      <c r="A850" s="3" t="s">
+        <v>2277</v>
+      </c>
       <c r="B850" s="9" t="s"/>
       <c r="C850" s="9" t="s"/>
       <c r="D850" s="5" t="s"/>
     </row>
     <row r="851" spans="1:4">
-      <c r="A851" s="3" t="s"/>
+      <c r="A851" s="3" t="s">
+        <v>2278</v>
+      </c>
       <c r="B851" s="9" t="s"/>
       <c r="C851" s="9" t="s"/>
       <c r="D851" s="5" t="s"/>
     </row>
     <row r="852" spans="1:4">
-      <c r="A852" s="3" t="s"/>
+      <c r="A852" s="3" t="s">
+        <v>2279</v>
+      </c>
       <c r="B852" s="9" t="s"/>
       <c r="C852" s="9" t="s"/>
       <c r="D852" s="5" t="s"/>
     </row>
     <row r="853" spans="1:4">
-      <c r="A853" s="3" t="s"/>
+      <c r="A853" s="3" t="s">
+        <v>2280</v>
+      </c>
       <c r="B853" s="9" t="s"/>
       <c r="C853" s="9" t="s"/>
       <c r="D853" s="5" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="2388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="2392">
   <si>
     <t/>
   </si>
@@ -6407,6 +6407,12 @@
     <t>trans0748</t>
   </si>
   <si>
+    <t>下载成功</t>
+  </si>
+  <si>
+    <t>Download successful</t>
+  </si>
+  <si>
     <t>trans0749</t>
   </si>
   <si>
@@ -6419,6 +6425,12 @@
     <t>trans0750</t>
   </si>
   <si>
+    <t>下载失败</t>
+  </si>
+  <si>
+    <t>Download failed</t>
+  </si>
+  <si>
     <t>trans0751</t>
   </si>
   <si>
@@ -6542,6 +6554,12 @@
     <t>trans0765</t>
   </si>
   <si>
+    <t>下载中</t>
+  </si>
+  <si>
+    <t>Downloading</t>
+  </si>
+  <si>
     <t>trans0766</t>
   </si>
   <si>
@@ -6926,10 +6944,10 @@
     <t>trans0814</t>
   </si>
   <si>
-    <t>路径</t>
-  </si>
-  <si>
-    <t>Path</t>
+    <t>存储路径</t>
+  </si>
+  <si>
+    <t>Save Path</t>
   </si>
   <si>
     <t>trans0815</t>
@@ -7067,19 +7085,13 @@
     <t>trans0830</t>
   </si>
   <si>
-    <t>有效</t>
-  </si>
-  <si>
-    <t>Activated</t>
+    <t>无效的路径</t>
+  </si>
+  <si>
+    <t>Invalid path</t>
   </si>
   <si>
     <t>trans0831</t>
-  </si>
-  <si>
-    <t>无效</t>
-  </si>
-  <si>
-    <t>Deactivated</t>
   </si>
   <si>
     <t>trans0832</t>
@@ -10977,10 +10989,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -12189,10 +12201,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -12201,10 +12213,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2386</v>
+        <v>2390</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -16674,209 +16686,221 @@
       <c r="A748" s="3" t="s">
         <v>2129</v>
       </c>
-      <c r="B748" s="9" t="s"/>
-      <c r="C748" s="9" t="s"/>
+      <c r="B748" s="9" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C748" s="9" t="s">
+        <v>2131</v>
+      </c>
       <c r="D748" s="5" t="s"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="3" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="B749" s="9" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="C749" s="9" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="D749" s="5" t="s"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="3" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B750" s="9" t="s"/>
-      <c r="C750" s="9" t="s"/>
+        <v>2135</v>
+      </c>
+      <c r="B750" s="9" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C750" s="9" t="s">
+        <v>2137</v>
+      </c>
       <c r="D750" s="5" t="s"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="3" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="B751" s="9" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="C751" s="9" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="D751" s="5" t="s"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="3" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="C752" s="9" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="D752" s="5" t="s"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="3" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="C753" s="9" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="D753" s="5" t="s"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="3" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="B754" s="9" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="C754" s="9" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="D754" s="5" t="s"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="3" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="B755" s="9" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="C755" s="9" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="D755" s="5" t="s"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="3" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="C756" s="9" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="D756" s="5" t="s"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="3" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="B757" s="9" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="C757" s="9" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="D757" s="5" t="s"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="3" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="C758" s="9" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="D758" s="5" t="s"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="3" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="C759" s="9" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="D759" s="5" t="s"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="3" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="C760" s="9" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="D760" s="5" t="s"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="3" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="C761" s="9" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="D761" s="5" t="s"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="3" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="C762" s="9" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="D762" s="5" t="s"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="3" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="C763" s="9" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="D763" s="5" t="s"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="3" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="B764" s="9" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="C764" s="9" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="D764" s="5" t="s"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="3" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B765" s="9" t="s"/>
-      <c r="C765" s="9" t="s"/>
+        <v>2178</v>
+      </c>
+      <c r="B765" s="9" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C765" s="9" t="s">
+        <v>2180</v>
+      </c>
       <c r="D765" s="5" t="s"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="3" t="s">
-        <v>2175</v>
+        <v>2181</v>
       </c>
       <c r="B766" s="9" t="s"/>
       <c r="C766" s="9" t="s"/>
@@ -16884,7 +16908,7 @@
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="3" t="s">
-        <v>2176</v>
+        <v>2182</v>
       </c>
       <c r="B767" s="9" t="s"/>
       <c r="C767" s="9" t="s"/>
@@ -16892,31 +16916,31 @@
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="3" t="s">
-        <v>2177</v>
+        <v>2183</v>
       </c>
       <c r="B768" s="9" t="s">
-        <v>2178</v>
+        <v>2184</v>
       </c>
       <c r="C768" s="9" t="s">
-        <v>2179</v>
+        <v>2185</v>
       </c>
       <c r="D768" s="5" t="s"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="3" t="s">
-        <v>2180</v>
+        <v>2186</v>
       </c>
       <c r="B769" s="9" t="s">
-        <v>2181</v>
+        <v>2187</v>
       </c>
       <c r="C769" s="9" t="s">
-        <v>2182</v>
+        <v>2188</v>
       </c>
       <c r="D769" s="5" t="s"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="3" t="s">
-        <v>2183</v>
+        <v>2189</v>
       </c>
       <c r="B770" s="9" t="s"/>
       <c r="C770" s="9" t="s"/>
@@ -16924,142 +16948,142 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="3" t="s">
-        <v>2184</v>
+        <v>2190</v>
       </c>
       <c r="B771" s="9" t="s">
-        <v>2185</v>
+        <v>2191</v>
       </c>
       <c r="C771" s="9" t="s">
-        <v>2186</v>
+        <v>2192</v>
       </c>
       <c r="D771" s="5" t="s"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="3" t="s">
-        <v>2187</v>
+        <v>2193</v>
       </c>
       <c r="B772" s="9" t="s">
-        <v>2188</v>
+        <v>2194</v>
       </c>
       <c r="C772" s="9" t="s">
-        <v>2189</v>
+        <v>2195</v>
       </c>
       <c r="D772" s="5" t="s"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="3" t="s">
-        <v>2190</v>
+        <v>2196</v>
       </c>
       <c r="B773" s="9" t="s">
-        <v>2191</v>
+        <v>2197</v>
       </c>
       <c r="C773" s="9" t="s">
-        <v>2192</v>
+        <v>2198</v>
       </c>
       <c r="D773" s="5" t="s"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="3" t="s">
-        <v>2193</v>
+        <v>2199</v>
       </c>
       <c r="B774" s="9" t="s">
-        <v>2194</v>
+        <v>2200</v>
       </c>
       <c r="C774" s="9" t="s">
-        <v>2195</v>
+        <v>2201</v>
       </c>
       <c r="D774" s="5" t="s"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="3" t="s">
-        <v>2196</v>
+        <v>2202</v>
       </c>
       <c r="B775" s="9" t="s">
-        <v>2197</v>
+        <v>2203</v>
       </c>
       <c r="C775" s="9" t="s">
-        <v>2197</v>
+        <v>2203</v>
       </c>
       <c r="D775" s="5" t="s"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="3" t="s">
-        <v>2198</v>
+        <v>2204</v>
       </c>
       <c r="B776" s="9" t="s">
-        <v>2199</v>
+        <v>2205</v>
       </c>
       <c r="C776" s="9" t="s">
-        <v>2199</v>
+        <v>2205</v>
       </c>
       <c r="D776" s="5" t="s"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="3" t="s">
-        <v>2200</v>
+        <v>2206</v>
       </c>
       <c r="B777" s="9" t="s">
-        <v>2201</v>
+        <v>2207</v>
       </c>
       <c r="C777" s="9" t="s">
-        <v>2202</v>
+        <v>2208</v>
       </c>
       <c r="D777" s="5" t="s"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="3" t="s">
-        <v>2203</v>
+        <v>2209</v>
       </c>
       <c r="B778" s="9" t="s">
-        <v>2204</v>
+        <v>2210</v>
       </c>
       <c r="C778" s="9" t="s">
-        <v>2205</v>
+        <v>2211</v>
       </c>
       <c r="D778" s="5" t="s"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="3" t="s">
-        <v>2206</v>
+        <v>2212</v>
       </c>
       <c r="B779" s="9" t="s">
-        <v>2207</v>
+        <v>2213</v>
       </c>
       <c r="C779" s="9" t="s">
-        <v>2208</v>
+        <v>2214</v>
       </c>
       <c r="D779" s="5" t="s"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="3" t="s">
-        <v>2209</v>
+        <v>2215</v>
       </c>
       <c r="B780" s="9" t="s">
-        <v>2210</v>
+        <v>2216</v>
       </c>
       <c r="C780" s="9" t="s">
-        <v>2211</v>
+        <v>2217</v>
       </c>
       <c r="D780" s="5" t="s"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="3" t="s">
-        <v>2212</v>
+        <v>2218</v>
       </c>
       <c r="B781" s="9" t="s">
-        <v>2213</v>
+        <v>2219</v>
       </c>
       <c r="C781" s="9" t="s">
-        <v>2213</v>
+        <v>2219</v>
       </c>
       <c r="D781" s="5" t="s"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="3" t="s">
-        <v>2214</v>
+        <v>2220</v>
       </c>
       <c r="B782" s="9" t="s">
-        <v>2215</v>
+        <v>2221</v>
       </c>
       <c r="C782" s="9" t="s">
         <v>1686</v>
@@ -17068,43 +17092,43 @@
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="3" t="s">
-        <v>2216</v>
+        <v>2222</v>
       </c>
       <c r="B783" s="9" t="s">
-        <v>2217</v>
+        <v>2223</v>
       </c>
       <c r="C783" s="9" t="s">
-        <v>2218</v>
+        <v>2224</v>
       </c>
       <c r="D783" s="5" t="s"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="3" t="s">
-        <v>2219</v>
+        <v>2225</v>
       </c>
       <c r="B784" s="9" t="s">
-        <v>2220</v>
+        <v>2226</v>
       </c>
       <c r="C784" s="9" t="s">
-        <v>2221</v>
+        <v>2227</v>
       </c>
       <c r="D784" s="5" t="s"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="3" t="s">
-        <v>2222</v>
+        <v>2228</v>
       </c>
       <c r="B785" s="9" t="s">
         <v>1347</v>
       </c>
       <c r="C785" s="9" t="s">
-        <v>2223</v>
+        <v>2229</v>
       </c>
       <c r="D785" s="5" t="s"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="3" t="s">
-        <v>2224</v>
+        <v>2230</v>
       </c>
       <c r="B786" s="9" t="s"/>
       <c r="C786" s="9" t="s"/>
@@ -17112,238 +17136,238 @@
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="3" t="s">
-        <v>2225</v>
+        <v>2231</v>
       </c>
       <c r="B787" s="9" t="s">
-        <v>2226</v>
+        <v>2232</v>
       </c>
       <c r="C787" s="9" t="s">
-        <v>2227</v>
+        <v>2233</v>
       </c>
       <c r="D787" s="5" t="s"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="3" t="s">
-        <v>2228</v>
+        <v>2234</v>
       </c>
       <c r="B788" s="9" t="s">
-        <v>2229</v>
+        <v>2235</v>
       </c>
       <c r="C788" s="9" t="s">
-        <v>2230</v>
+        <v>2236</v>
       </c>
       <c r="D788" s="5" t="s"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="3" t="s">
-        <v>2231</v>
+        <v>2237</v>
       </c>
       <c r="B789" s="9" t="s">
-        <v>2232</v>
+        <v>2238</v>
       </c>
       <c r="C789" s="9" t="s">
-        <v>2233</v>
+        <v>2239</v>
       </c>
       <c r="D789" s="5" t="s"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="3" t="s">
-        <v>2234</v>
+        <v>2240</v>
       </c>
       <c r="B790" s="9" t="s">
-        <v>2235</v>
+        <v>2241</v>
       </c>
       <c r="C790" s="9" t="s">
-        <v>2236</v>
+        <v>2242</v>
       </c>
       <c r="D790" s="5" t="s"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="3" t="s">
-        <v>2237</v>
+        <v>2243</v>
       </c>
       <c r="B791" s="9" t="s">
-        <v>2238</v>
+        <v>2244</v>
       </c>
       <c r="C791" s="9" t="s">
-        <v>2239</v>
+        <v>2245</v>
       </c>
       <c r="D791" s="5" t="s"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="3" t="s">
-        <v>2240</v>
+        <v>2246</v>
       </c>
       <c r="B792" s="9" t="s">
-        <v>2241</v>
+        <v>2247</v>
       </c>
       <c r="C792" s="9" t="s">
-        <v>2242</v>
+        <v>2248</v>
       </c>
       <c r="D792" s="5" t="s"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="3" t="s">
-        <v>2243</v>
+        <v>2249</v>
       </c>
       <c r="B793" s="9" t="s">
-        <v>2244</v>
+        <v>2250</v>
       </c>
       <c r="C793" s="9" t="s">
-        <v>2245</v>
+        <v>2251</v>
       </c>
       <c r="D793" s="5" t="s"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="3" t="s">
-        <v>2246</v>
+        <v>2252</v>
       </c>
       <c r="B794" s="9" t="s">
-        <v>2247</v>
+        <v>2253</v>
       </c>
       <c r="C794" s="9" t="s">
-        <v>2248</v>
+        <v>2254</v>
       </c>
       <c r="D794" s="5" t="s"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="3" t="s">
-        <v>2249</v>
+        <v>2255</v>
       </c>
       <c r="B795" s="9" t="s">
-        <v>2250</v>
+        <v>2256</v>
       </c>
       <c r="C795" s="9" t="s">
-        <v>2251</v>
+        <v>2257</v>
       </c>
       <c r="D795" s="5" t="s"/>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="3" t="s">
-        <v>2252</v>
+        <v>2258</v>
       </c>
       <c r="B796" s="9" t="s">
-        <v>2253</v>
+        <v>2259</v>
       </c>
       <c r="C796" s="9" t="s">
-        <v>2254</v>
+        <v>2260</v>
       </c>
       <c r="D796" s="5" t="s"/>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="3" t="s">
-        <v>2255</v>
+        <v>2261</v>
       </c>
       <c r="B797" s="9" t="s">
-        <v>2256</v>
+        <v>2262</v>
       </c>
       <c r="C797" s="9" t="s">
-        <v>2257</v>
+        <v>2263</v>
       </c>
       <c r="D797" s="5" t="s"/>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="3" t="s">
-        <v>2258</v>
+        <v>2264</v>
       </c>
       <c r="B798" s="9" t="s">
-        <v>2259</v>
+        <v>2265</v>
       </c>
       <c r="C798" s="9" t="s">
-        <v>2260</v>
+        <v>2266</v>
       </c>
       <c r="D798" s="5" t="s"/>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="3" t="s">
-        <v>2261</v>
+        <v>2267</v>
       </c>
       <c r="B799" s="9" t="s">
-        <v>2262</v>
+        <v>2268</v>
       </c>
       <c r="C799" s="9" t="s">
-        <v>2262</v>
+        <v>2268</v>
       </c>
       <c r="D799" s="5" t="s"/>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="3" t="s">
-        <v>2263</v>
+        <v>2269</v>
       </c>
       <c r="B800" s="9" t="s">
-        <v>2264</v>
+        <v>2270</v>
       </c>
       <c r="C800" s="9" t="s">
-        <v>2265</v>
+        <v>2271</v>
       </c>
       <c r="D800" s="5" t="s"/>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="3" t="s">
-        <v>2266</v>
+        <v>2272</v>
       </c>
       <c r="B801" s="9" t="s">
-        <v>2267</v>
+        <v>2273</v>
       </c>
       <c r="C801" s="9" t="s">
-        <v>2268</v>
+        <v>2274</v>
       </c>
       <c r="D801" s="5" t="s"/>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="3" t="s">
-        <v>2269</v>
+        <v>2275</v>
       </c>
       <c r="B802" s="9" t="s">
-        <v>2270</v>
+        <v>2276</v>
       </c>
       <c r="C802" s="9" t="s">
-        <v>2271</v>
+        <v>2277</v>
       </c>
       <c r="D802" s="5" t="s"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="3" t="s">
-        <v>2272</v>
+        <v>2278</v>
       </c>
       <c r="B803" s="9" t="s">
-        <v>2273</v>
+        <v>2279</v>
       </c>
       <c r="C803" s="9" t="s">
-        <v>2274</v>
+        <v>2280</v>
       </c>
       <c r="D803" s="5" t="s"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="3" t="s">
-        <v>2275</v>
+        <v>2281</v>
       </c>
       <c r="B804" s="9" t="s">
-        <v>2276</v>
+        <v>2282</v>
       </c>
       <c r="C804" s="9" t="s">
-        <v>2277</v>
+        <v>2283</v>
       </c>
       <c r="D804" s="5" t="s"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="3" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="B805" s="9" t="s">
-        <v>2279</v>
+        <v>2285</v>
       </c>
       <c r="C805" s="9" t="s">
-        <v>2280</v>
+        <v>2286</v>
       </c>
       <c r="D805" s="5" t="s"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="3" t="s">
-        <v>2281</v>
+        <v>2287</v>
       </c>
       <c r="B806" s="9" t="s">
-        <v>2282</v>
+        <v>2288</v>
       </c>
       <c r="C806" s="9" t="s">
         <v>706</v>
@@ -17352,343 +17376,339 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="3" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
       <c r="B807" s="9" t="s">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="C807" s="9" t="s">
-        <v>2285</v>
+        <v>2291</v>
       </c>
       <c r="D807" s="5" t="s"/>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="3" t="s">
-        <v>2286</v>
+        <v>2292</v>
       </c>
       <c r="B808" s="9" t="s">
-        <v>2287</v>
+        <v>2293</v>
       </c>
       <c r="C808" s="9" t="s">
-        <v>2288</v>
+        <v>2294</v>
       </c>
       <c r="D808" s="5" t="s"/>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="3" t="s">
-        <v>2289</v>
+        <v>2295</v>
       </c>
       <c r="B809" s="9" t="s">
         <v>1644</v>
       </c>
       <c r="C809" s="9" t="s">
-        <v>2290</v>
+        <v>2296</v>
       </c>
       <c r="D809" s="5" t="s"/>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="3" t="s">
-        <v>2291</v>
+        <v>2297</v>
       </c>
       <c r="B810" s="9" t="s">
-        <v>2292</v>
+        <v>2298</v>
       </c>
       <c r="C810" s="9" t="s">
-        <v>2293</v>
+        <v>2299</v>
       </c>
       <c r="D810" s="5" t="s"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="3" t="s">
-        <v>2294</v>
+        <v>2300</v>
       </c>
       <c r="B811" s="9" t="s">
-        <v>2295</v>
+        <v>2301</v>
       </c>
       <c r="C811" s="9" t="s">
-        <v>2296</v>
+        <v>2302</v>
       </c>
       <c r="D811" s="5" t="s"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="3" t="s">
-        <v>2297</v>
+        <v>2303</v>
       </c>
       <c r="B812" s="9" t="s">
-        <v>2298</v>
+        <v>2304</v>
       </c>
       <c r="C812" s="9" t="s">
-        <v>2298</v>
+        <v>2304</v>
       </c>
       <c r="D812" s="5" t="s"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="3" t="s">
-        <v>2299</v>
+        <v>2305</v>
       </c>
       <c r="B813" s="9" t="s">
-        <v>2300</v>
+        <v>2306</v>
       </c>
       <c r="C813" s="9" t="s">
-        <v>2301</v>
+        <v>2307</v>
       </c>
       <c r="D813" s="5" t="s"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="3" t="s">
-        <v>2302</v>
+        <v>2308</v>
       </c>
       <c r="B814" s="9" t="s">
-        <v>2303</v>
+        <v>2309</v>
       </c>
       <c r="C814" s="9" t="s">
-        <v>2304</v>
+        <v>2310</v>
       </c>
       <c r="D814" s="5" t="s"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="3" t="s">
-        <v>2305</v>
+        <v>2311</v>
       </c>
       <c r="B815" s="9" t="s">
-        <v>2306</v>
+        <v>2312</v>
       </c>
       <c r="C815" s="9" t="s">
-        <v>2307</v>
+        <v>2313</v>
       </c>
       <c r="D815" s="5" t="s"/>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="3" t="s">
-        <v>2308</v>
+        <v>2314</v>
       </c>
       <c r="B816" s="9" t="s">
-        <v>2309</v>
+        <v>2315</v>
       </c>
       <c r="C816" s="9" t="s">
-        <v>2310</v>
+        <v>2316</v>
       </c>
       <c r="D816" s="5" t="s"/>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="3" t="s">
-        <v>2311</v>
+        <v>2317</v>
       </c>
       <c r="B817" s="9" t="s">
-        <v>2312</v>
+        <v>2318</v>
       </c>
       <c r="C817" s="9" t="s">
-        <v>2313</v>
+        <v>2319</v>
       </c>
       <c r="D817" s="5" t="s"/>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="3" t="s">
-        <v>2314</v>
+        <v>2320</v>
       </c>
       <c r="B818" s="9" t="s">
-        <v>2315</v>
+        <v>2321</v>
       </c>
       <c r="C818" s="9" t="s">
-        <v>2316</v>
+        <v>2322</v>
       </c>
       <c r="D818" s="5" t="s"/>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="3" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
       <c r="B819" s="9" t="s">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="C819" s="9" t="s">
-        <v>2319</v>
+        <v>2325</v>
       </c>
       <c r="D819" s="5" t="s"/>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="3" t="s">
-        <v>2320</v>
+        <v>2326</v>
       </c>
       <c r="B820" s="9" t="s">
-        <v>2321</v>
+        <v>2327</v>
       </c>
       <c r="C820" s="9" t="s">
-        <v>2322</v>
+        <v>2328</v>
       </c>
       <c r="D820" s="5" t="s"/>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="3" t="s">
-        <v>2323</v>
+        <v>2329</v>
       </c>
       <c r="B821" s="9" t="s">
-        <v>2324</v>
+        <v>2330</v>
       </c>
       <c r="C821" s="9" t="s">
-        <v>2325</v>
+        <v>2331</v>
       </c>
       <c r="D821" s="5" t="s"/>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="3" t="s">
-        <v>2326</v>
+        <v>2332</v>
       </c>
       <c r="B822" s="9" t="s">
-        <v>2327</v>
+        <v>2333</v>
       </c>
       <c r="C822" s="9" t="s">
-        <v>2327</v>
+        <v>2333</v>
       </c>
       <c r="D822" s="5" t="s"/>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="3" t="s">
-        <v>2328</v>
+        <v>2334</v>
       </c>
       <c r="B823" s="9" t="s">
-        <v>2329</v>
+        <v>2335</v>
       </c>
       <c r="C823" s="9" t="s">
-        <v>2330</v>
+        <v>2336</v>
       </c>
       <c r="D823" s="5" t="s"/>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="3" t="s">
-        <v>2331</v>
+        <v>2337</v>
       </c>
       <c r="B824" s="9" t="s">
-        <v>2332</v>
+        <v>2338</v>
       </c>
       <c r="C824" s="9" t="s">
-        <v>2333</v>
+        <v>2339</v>
       </c>
       <c r="D824" s="5" t="s"/>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="3" t="s">
-        <v>2334</v>
+        <v>2340</v>
       </c>
       <c r="B825" s="9" t="s">
-        <v>2335</v>
+        <v>2341</v>
       </c>
       <c r="C825" s="9" t="s">
-        <v>2336</v>
+        <v>2342</v>
       </c>
       <c r="D825" s="5" t="s"/>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="3" t="s">
-        <v>2337</v>
+        <v>2343</v>
       </c>
       <c r="B826" s="9" t="s">
-        <v>2338</v>
+        <v>2344</v>
       </c>
       <c r="C826" s="9" t="s">
-        <v>2339</v>
+        <v>2345</v>
       </c>
       <c r="D826" s="5" t="s"/>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="3" t="s">
-        <v>2340</v>
+        <v>2346</v>
       </c>
       <c r="B827" s="9" t="s">
-        <v>2341</v>
+        <v>2347</v>
       </c>
       <c r="C827" s="9" t="s">
-        <v>2342</v>
+        <v>2348</v>
       </c>
       <c r="D827" s="5" t="s"/>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="3" t="s">
-        <v>2343</v>
+        <v>2349</v>
       </c>
       <c r="B828" s="9" t="s">
-        <v>2344</v>
+        <v>2350</v>
       </c>
       <c r="C828" s="9" t="s">
-        <v>2345</v>
+        <v>2351</v>
       </c>
       <c r="D828" s="5" t="s"/>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="3" t="s">
-        <v>2346</v>
+        <v>2352</v>
       </c>
       <c r="B829" s="9" t="s">
-        <v>2347</v>
+        <v>2353</v>
       </c>
       <c r="C829" s="9" t="s">
-        <v>2348</v>
+        <v>2354</v>
       </c>
       <c r="D829" s="5" t="s"/>
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="3" t="s">
-        <v>2349</v>
+        <v>2355</v>
       </c>
       <c r="B830" s="9" t="s">
-        <v>2350</v>
+        <v>2356</v>
       </c>
       <c r="C830" s="9" t="s">
-        <v>2351</v>
+        <v>2357</v>
       </c>
       <c r="D830" s="5" t="s"/>
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="3" t="s">
-        <v>2352</v>
-      </c>
-      <c r="B831" s="9" t="s">
-        <v>2353</v>
-      </c>
-      <c r="C831" s="9" t="s">
-        <v>2354</v>
-      </c>
+        <v>2358</v>
+      </c>
+      <c r="B831" s="9" t="s"/>
+      <c r="C831" s="9" t="s"/>
       <c r="D831" s="5" t="s"/>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="3" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="B832" s="9" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="C832" s="9" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="D832" s="5" t="s"/>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="3" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="B833" s="9" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
       <c r="C833" s="9" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="D833" s="5" t="s"/>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="3" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="B834" s="9" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="C834" s="9" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="D834" s="5" t="s"/>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="3" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="B835" s="9" t="s"/>
       <c r="C835" s="9" t="s"/>
@@ -17696,7 +17716,7 @@
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="3" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="B836" s="9" t="s"/>
       <c r="C836" s="9" t="s"/>
@@ -17704,7 +17724,7 @@
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="3" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="B837" s="9" t="s"/>
       <c r="C837" s="9" t="s"/>
@@ -17712,7 +17732,7 @@
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="3" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
       <c r="B838" s="9" t="s"/>
       <c r="C838" s="9" t="s"/>
@@ -17720,7 +17740,7 @@
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="3" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="B839" s="9" t="s"/>
       <c r="C839" s="9" t="s"/>
@@ -17728,7 +17748,7 @@
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="3" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="B840" s="9" t="s"/>
       <c r="C840" s="9" t="s"/>
@@ -17736,7 +17756,7 @@
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="3" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="B841" s="9" t="s"/>
       <c r="C841" s="9" t="s"/>
@@ -17744,7 +17764,7 @@
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="3" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="B842" s="9" t="s"/>
       <c r="C842" s="9" t="s"/>
@@ -17752,7 +17772,7 @@
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="3" t="s">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="B843" s="9" t="s"/>
       <c r="C843" s="9" t="s"/>
@@ -17760,7 +17780,7 @@
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="3" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
       <c r="B844" s="9" t="s"/>
       <c r="C844" s="9" t="s"/>
@@ -17768,7 +17788,7 @@
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="3" t="s">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="B845" s="9" t="s"/>
       <c r="C845" s="9" t="s"/>
@@ -17776,7 +17796,7 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="3" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="B846" s="9" t="s"/>
       <c r="C846" s="9" t="s"/>
@@ -17784,7 +17804,7 @@
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="3" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="B847" s="9" t="s"/>
       <c r="C847" s="9" t="s"/>
@@ -17792,7 +17812,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="3" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="B848" s="9" t="s"/>
       <c r="C848" s="9" t="s"/>
@@ -17800,7 +17820,7 @@
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="3" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="B849" s="9" t="s"/>
       <c r="C849" s="9" t="s"/>
@@ -17808,7 +17828,7 @@
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="3" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="B850" s="9" t="s"/>
       <c r="C850" s="9" t="s"/>
@@ -17816,7 +17836,7 @@
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="3" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="B851" s="9" t="s"/>
       <c r="C851" s="9" t="s"/>
@@ -17824,7 +17844,7 @@
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="3" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="B852" s="9" t="s"/>
       <c r="C852" s="9" t="s"/>
@@ -17832,7 +17852,7 @@
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="3" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="B853" s="9" t="s"/>
       <c r="C853" s="9" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="2392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="2576">
   <si>
     <t/>
   </si>
@@ -4661,6 +4661,12 @@
     <t>trans0546</t>
   </si>
   <si>
+    <t>语音基础</t>
+  </si>
+  <si>
+    <t>VoIP Basic</t>
+  </si>
+  <si>
     <t>trans0547</t>
   </si>
   <si>
@@ -4709,7 +4715,7 @@
     <t>trans0552</t>
   </si>
   <si>
-    <t>请先创建一条 IPv6 wan或者混合 wan</t>
+    <t>IPv6 功能未启用</t>
   </si>
   <si>
     <t>The ipv6 function is disabled</t>
@@ -4946,6 +4952,12 @@
     <t>trans0579</t>
   </si>
   <si>
+    <t>语音高级</t>
+  </si>
+  <si>
+    <t>VoIP Advanced</t>
+  </si>
+  <si>
     <t>trans0580</t>
   </si>
   <si>
@@ -5153,6 +5165,12 @@
     <t>trans0604</t>
   </si>
   <si>
+    <t>语音功能未启用</t>
+  </si>
+  <si>
+    <t>The Voip function is disabled</t>
+  </si>
+  <si>
     <t>trans0605</t>
   </si>
   <si>
@@ -5624,12 +5642,6 @@
     <t>trans0660</t>
   </si>
   <si>
-    <t>VPN 切换类型</t>
-  </si>
-  <si>
-    <t>VPN Switch Type</t>
-  </si>
-  <si>
     <t>trans0661</t>
   </si>
   <si>
@@ -6293,7 +6305,7 @@
     <t>trans0735</t>
   </si>
   <si>
-    <t>第二注册服务器</t>
+    <t>备用注册服务器</t>
   </si>
   <si>
     <t>Secondary Register Server</t>
@@ -6302,7 +6314,7 @@
     <t>trans0736</t>
   </si>
   <si>
-    <t>第二注册服务器端口</t>
+    <t>备用注册服务器端口</t>
   </si>
   <si>
     <t>Secondary Register Server Port</t>
@@ -6563,9 +6575,21 @@
     <t>trans0766</t>
   </si>
   <si>
+    <t>代理服务器</t>
+  </si>
+  <si>
+    <t>Proxy Server</t>
+  </si>
+  <si>
     <t>trans0767</t>
   </si>
   <si>
+    <t>代理服务器端口</t>
+  </si>
+  <si>
+    <t>Proxy Server Port</t>
+  </si>
+  <si>
     <t>trans0768</t>
   </si>
   <si>
@@ -6587,6 +6611,12 @@
     <t>trans0770</t>
   </si>
   <si>
+    <t>备用代理服务器</t>
+  </si>
+  <si>
+    <t>Secondary Proxy Server</t>
+  </si>
+  <si>
     <t>trans0771</t>
   </si>
   <si>
@@ -6710,6 +6740,12 @@
     <t>trans0786</t>
   </si>
   <si>
+    <t>备用代理服务器端口</t>
+  </si>
+  <si>
+    <t>Secondary Proxy Server Port</t>
+  </si>
+  <si>
     <t>trans0787</t>
   </si>
   <si>
@@ -6971,10 +7007,10 @@
     <t>trans0817</t>
   </si>
   <si>
-    <t>根路径</t>
-  </si>
-  <si>
-    <t>Root Path</t>
+    <t>出站代理开关</t>
+  </si>
+  <si>
+    <t>Enable Outbound Proxy</t>
   </si>
   <si>
     <t>trans0818</t>
@@ -7094,6 +7130,12 @@
     <t>trans0831</t>
   </si>
   <si>
+    <t>出站代理</t>
+  </si>
+  <si>
+    <t>Outbound Proxy</t>
+  </si>
+  <si>
     <t>trans0832</t>
   </si>
   <si>
@@ -7121,58 +7163,568 @@
     <t>trans0835</t>
   </si>
   <si>
+    <t>漫游开关</t>
+  </si>
+  <si>
+    <t>Enable Steering</t>
+  </si>
+  <si>
     <t>trans0836</t>
   </si>
   <si>
+    <t>出站代理端口</t>
+  </si>
+  <si>
+    <t>Outbound Proxy Port</t>
+  </si>
+  <si>
     <t>trans0837</t>
   </si>
   <si>
+    <t>备用出站代理</t>
+  </si>
+  <si>
+    <t>Secondary Outbound Proxy</t>
+  </si>
+  <si>
     <t>trans0838</t>
   </si>
   <si>
+    <t>备用出站代理端口</t>
+  </si>
+  <si>
+    <t>Secondary Outbound Proxy Port</t>
+  </si>
+  <si>
     <t>trans0839</t>
   </si>
   <si>
+    <t>端口设置开关</t>
+  </si>
+  <si>
+    <t>Enable Port Setting</t>
+  </si>
+  <si>
     <t>trans0840</t>
   </si>
   <si>
+    <t>语音账号</t>
+  </si>
+  <si>
+    <t>VoIP Account</t>
+  </si>
+  <si>
     <t>trans0841</t>
   </si>
   <si>
+    <t>语音密码</t>
+  </si>
+  <si>
+    <t>VoIP Password</t>
+  </si>
+  <si>
     <t>trans0842</t>
   </si>
   <si>
+    <t>Registration Expire Timer(s)</t>
+  </si>
+  <si>
     <t>trans0843</t>
   </si>
   <si>
+    <t>Max Start Delay(s)</t>
+  </si>
+  <si>
     <t>trans0844</t>
   </si>
   <si>
+    <t>Register Retry Interval</t>
+  </si>
+  <si>
     <t>trans0845</t>
   </si>
   <si>
+    <t>Dm Start Time(s)</t>
+  </si>
+  <si>
     <t>trans0846</t>
   </si>
   <si>
+    <t>Dm Short Time(s)</t>
+  </si>
+  <si>
     <t>trans0847</t>
   </si>
   <si>
+    <t>Dm Long Time(s)</t>
+  </si>
+  <si>
     <t>trans0848</t>
   </si>
   <si>
+    <t>Dm "T" Time(s)</t>
+  </si>
+  <si>
     <t>trans0849</t>
   </si>
   <si>
+    <t>busytonetimer(s)</t>
+  </si>
+  <si>
     <t>trans0850</t>
   </si>
   <si>
+    <t>hangingremindertimer(s)</t>
+  </si>
+  <si>
     <t>trans0851</t>
   </si>
   <si>
+    <t>noanswertimer(s)</t>
+  </si>
+  <si>
     <t>trans0852</t>
   </si>
   <si>
+    <t>Dm"T"mode</t>
+  </si>
+  <si>
     <t>trans0853</t>
+  </si>
+  <si>
+    <t>Dtmf Relay</t>
+  </si>
+  <si>
+    <t>trans0854</t>
+  </si>
+  <si>
+    <t>Faxctrl mode</t>
+  </si>
+  <si>
+    <t>trans0855</t>
+  </si>
+  <si>
+    <t>Faxpassthru</t>
+  </si>
+  <si>
+    <t>trans0856</t>
+  </si>
+  <si>
+    <t>Hot line implement style</t>
+  </si>
+  <si>
+    <t>trans0857</t>
+  </si>
+  <si>
+    <t>Message contains "user=phone"</t>
+  </si>
+  <si>
+    <t>trans0858</t>
+  </si>
+  <si>
+    <t>Support#transfer%23</t>
+  </si>
+  <si>
+    <t>trans0859</t>
+  </si>
+  <si>
+    <t>Support@transfer%40</t>
+  </si>
+  <si>
+    <t>trans0860</t>
+  </si>
+  <si>
+    <t>Support T38</t>
+  </si>
+  <si>
+    <t>trans0861</t>
+  </si>
+  <si>
+    <t>Enable Comfortnoise</t>
+  </si>
+  <si>
+    <t>trans0862</t>
+  </si>
+  <si>
+    <t>Enable Silence Compression</t>
+  </si>
+  <si>
+    <t>trans0863</t>
+  </si>
+  <si>
+    <t>Send Unregister message</t>
+  </si>
+  <si>
+    <t>trans0864</t>
+  </si>
+  <si>
+    <t>Enable Echo Cancel</t>
+  </si>
+  <si>
+    <t>trans0865</t>
+  </si>
+  <si>
+    <t>Enable Low Speed Fax Echo Cancel</t>
+  </si>
+  <si>
+    <t>trans0866</t>
+  </si>
+  <si>
+    <t>Enable Adaptive Jitter Buffer</t>
+  </si>
+  <si>
+    <t>trans0867</t>
+  </si>
+  <si>
+    <t>Jitter Buffer Max</t>
+  </si>
+  <si>
+    <t>trans0868</t>
+  </si>
+  <si>
+    <t>G.723 Speed</t>
+  </si>
+  <si>
+    <t>trans0869</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>trans0870</t>
+  </si>
+  <si>
+    <t>G.722</t>
+  </si>
+  <si>
+    <t>trans0871</t>
+  </si>
+  <si>
+    <t>G.711 a-law</t>
+  </si>
+  <si>
+    <t>trans0872</t>
+  </si>
+  <si>
+    <t>G.711 u-law</t>
+  </si>
+  <si>
+    <t>trans0873</t>
+  </si>
+  <si>
+    <t>G.729</t>
+  </si>
+  <si>
+    <t>trans0874</t>
+  </si>
+  <si>
+    <t>G.723</t>
+  </si>
+  <si>
+    <t>trans0875</t>
+  </si>
+  <si>
+    <t>Stime Setup</t>
+  </si>
+  <si>
+    <t>trans0876</t>
+  </si>
+  <si>
+    <t>Send Volume</t>
+  </si>
+  <si>
+    <t>trans0877</t>
+  </si>
+  <si>
+    <t>Receive Volume</t>
+  </si>
+  <si>
+    <t>trans0878</t>
+  </si>
+  <si>
+    <t>Warm Line</t>
+  </si>
+  <si>
+    <t>trans0879</t>
+  </si>
+  <si>
+    <t>Warm Line Number</t>
+  </si>
+  <si>
+    <t>trans0880</t>
+  </si>
+  <si>
+    <t>Warm Line Timeout(s)</t>
+  </si>
+  <si>
+    <t>trans0881</t>
+  </si>
+  <si>
+    <t>Call waiting</t>
+  </si>
+  <si>
+    <t>trans0882</t>
+  </si>
+  <si>
+    <t>Call transfer</t>
+  </si>
+  <si>
+    <t>trans0883</t>
+  </si>
+  <si>
+    <t>Call forwarding number</t>
+  </si>
+  <si>
+    <t>trans0884</t>
+  </si>
+  <si>
+    <t>Call forwarding unconditionally</t>
+  </si>
+  <si>
+    <t>trans0885</t>
+  </si>
+  <si>
+    <t>Call forwarding on "busy"</t>
+  </si>
+  <si>
+    <t>trans0886</t>
+  </si>
+  <si>
+    <t>Call forwarding on "no answer"</t>
+  </si>
+  <si>
+    <t>trans0887</t>
+  </si>
+  <si>
+    <t>Call forwarding on "no answer time(s)"</t>
+  </si>
+  <si>
+    <t>trans0888</t>
+  </si>
+  <si>
+    <t>Three party service</t>
+  </si>
+  <si>
+    <t>trans0889</t>
+  </si>
+  <si>
+    <t>Enable Server Mix</t>
+  </si>
+  <si>
+    <t>trans0890</t>
+  </si>
+  <si>
+    <t>Three Party Meeting Resource Access Code</t>
+  </si>
+  <si>
+    <t>trans0891</t>
+  </si>
+  <si>
+    <t>Caller id mode</t>
+  </si>
+  <si>
+    <t>trans0892</t>
+  </si>
+  <si>
+    <t>Min flash hook time interval(ms)</t>
+  </si>
+  <si>
+    <t>trans0893</t>
+  </si>
+  <si>
+    <t>Max flash hook time interval(ms)</t>
+  </si>
+  <si>
+    <t>trans0894</t>
+  </si>
+  <si>
+    <t>Min flash hook time release(ms)</t>
+  </si>
+  <si>
+    <t>trans0895</t>
+  </si>
+  <si>
+    <t>Synchronize phone date time</t>
+  </si>
+  <si>
+    <t>trans0896</t>
+  </si>
+  <si>
+    <t>Volume Setup(db)</t>
+  </si>
+  <si>
+    <t>trans0897</t>
+  </si>
+  <si>
+    <t>New Table For Complement Service</t>
+  </si>
+  <si>
+    <t>trans0898</t>
+  </si>
+  <si>
+    <t>Digimap Setup</t>
+  </si>
+  <si>
+    <t>trans0899</t>
+  </si>
+  <si>
+    <t>Enable DigitMap</t>
+  </si>
+  <si>
+    <t>trans0900</t>
+  </si>
+  <si>
+    <t>Enable DigitMap Special</t>
+  </si>
+  <si>
+    <t>trans0901</t>
+  </si>
+  <si>
+    <t>Enable PBXPrefix</t>
+  </si>
+  <si>
+    <t>trans0902</t>
+  </si>
+  <si>
+    <t>DigitMap</t>
+  </si>
+  <si>
+    <t>trans0903</t>
+  </si>
+  <si>
+    <t>DigitMap Special</t>
+  </si>
+  <si>
+    <t>trans0904</t>
+  </si>
+  <si>
+    <t>PBXPrefix</t>
+  </si>
+  <si>
+    <t>trans0905</t>
+  </si>
+  <si>
+    <t>Enable PBXDial Secondary</t>
+  </si>
+  <si>
+    <t>trans0906</t>
+  </si>
+  <si>
+    <t>FSK</t>
+  </si>
+  <si>
+    <t>trans0907</t>
+  </si>
+  <si>
+    <t>DTMF</t>
+  </si>
+  <si>
+    <t>trans0908</t>
+  </si>
+  <si>
+    <t>Telephone Event Payload Type</t>
+  </si>
+  <si>
+    <t>trans0909</t>
+  </si>
+  <si>
+    <t>DmShortTimer</t>
+  </si>
+  <si>
+    <t>trans0910</t>
+  </si>
+  <si>
+    <t>DmLongTimer</t>
+  </si>
+  <si>
+    <t>trans0911</t>
+  </si>
+  <si>
+    <t>Dm"T"Timer</t>
+  </si>
+  <si>
+    <t>trans0912</t>
+  </si>
+  <si>
+    <t>SIPInfo</t>
+  </si>
+  <si>
+    <t>trans0913</t>
+  </si>
+  <si>
+    <t>RFC2833</t>
+  </si>
+  <si>
+    <t>trans0914</t>
+  </si>
+  <si>
+    <t>InBand</t>
+  </si>
+  <si>
+    <t>trans0915</t>
+  </si>
+  <si>
+    <t>PCMU</t>
+  </si>
+  <si>
+    <t>trans0916</t>
+  </si>
+  <si>
+    <t>PCMA</t>
+  </si>
+  <si>
+    <t>trans0917</t>
+  </si>
+  <si>
+    <t>Report User Number</t>
+  </si>
+  <si>
+    <t>trans0918</t>
+  </si>
+  <si>
+    <t>ReportNoDial</t>
+  </si>
+  <si>
+    <t>trans0919</t>
+  </si>
+  <si>
+    <t>Report Activation Code</t>
+  </si>
+  <si>
+    <t>trans0920</t>
+  </si>
+  <si>
+    <t>PassThru</t>
+  </si>
+  <si>
+    <t>trans0921</t>
+  </si>
+  <si>
+    <t>T30fullcontrol</t>
+  </si>
+  <si>
+    <t>trans0922</t>
+  </si>
+  <si>
+    <t>Call forwarding Mode</t>
+  </si>
+  <si>
+    <t>trans0923</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>trans0924</t>
+  </si>
+  <si>
+    <t>语音高级设置</t>
+  </si>
+  <si>
+    <t>VoIP Advanced Settings</t>
+  </si>
+  <si>
+    <t>trans0925</t>
   </si>
   <si>
     <r>
@@ -10989,10 +11541,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2386</v>
+        <v>2570</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2387</v>
+        <v>2571</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -12201,10 +12753,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2388</v>
+        <v>2572</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2389</v>
+        <v>2573</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -12213,10 +12765,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2390</v>
+        <v>2574</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2391</v>
+        <v>2575</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -14270,124 +14822,128 @@
       <c r="A546" s="7" t="s">
         <v>1547</v>
       </c>
-      <c r="B546" s="9" t="s"/>
-      <c r="C546" s="9" t="s"/>
+      <c r="B546" s="9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C546" s="9" t="s">
+        <v>1549</v>
+      </c>
       <c r="D546" s="5" t="s"/>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="7" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B547" s="9" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C547" s="9" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D547" s="5" t="s"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="7" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="C548" s="9" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="D548" s="5" t="s"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="7" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B549" s="9" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C549" s="9" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D549" s="5" t="s"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="7" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="C550" s="9" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="D550" s="5" t="s"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="7" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="B551" s="9" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C551" s="9" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D551" s="5" t="s"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="7" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="C552" s="9" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="D552" s="5" t="s"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="7" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B553" s="9" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="C553" s="9" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="D553" s="5" t="s"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="7" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B554" s="9" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="C554" s="9" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="D554" s="5" t="s"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="7" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="B555" s="9" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C555" s="9" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D555" s="5" t="s"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="7" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="C556" s="9" t="s">
         <v>397</v>
@@ -14396,453 +14952,457 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="7" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="B557" s="9" t="s">
         <v>1057</v>
       </c>
       <c r="C557" s="9" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D557" s="5" t="s"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="7" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="B558" s="9" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="C558" s="9" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D558" s="5" t="s"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="7" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B559" s="9" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C559" s="9" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D559" s="5" t="s"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="7" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C560" s="9" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="D560" s="5" t="s"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="7" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C561" s="9" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D561" s="5" t="s"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="7" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B562" s="9" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="C562" s="9" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D562" s="5" t="s"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B563" s="9" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="C563" s="9" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="D563" s="5" t="s"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="7" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B564" s="9" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="C564" s="9" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D564" s="9" t="s"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="7" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B565" s="9" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C565" s="9" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D565" s="5" t="s"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="7" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B566" s="9" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C566" s="9" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D566" s="5" t="s"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="7" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B567" s="9" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="C567" s="9" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="D567" s="5" t="s"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="7" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="B568" s="9" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="C568" s="9" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D568" s="5" t="s"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="7" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B569" s="9" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C569" s="9" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D569" s="5" t="s"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="7" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="B570" s="9" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="C570" s="9" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="D570" s="5" t="s"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="7" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B571" s="9" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C571" s="9" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D571" s="5" t="s"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="7" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C572" s="9" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D572" s="5" t="s"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="7" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C573" s="9" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D573" s="5" t="s"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="7" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B574" s="9" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C574" s="9" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D574" s="5" t="s"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="7" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C575" s="9" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="D575" s="5" t="s"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="7" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B576" s="9" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C576" s="9" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D576" s="5" t="s"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="7" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C577" s="9" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D577" s="5" t="s"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="7" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C578" s="9" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D578" s="5" t="s"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="7" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B579" s="9" t="s"/>
-      <c r="C579" s="9" t="s"/>
+        <v>1644</v>
+      </c>
+      <c r="B579" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C579" s="9" t="s">
+        <v>1646</v>
+      </c>
       <c r="D579" s="5" t="s"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="7" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="C580" s="9" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="D580" s="5" t="s"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="7" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="C581" s="9" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="D581" s="5" t="s"/>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="7" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="B582" s="9" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="C582" s="9" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="D582" s="5" t="s"/>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="7" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="B583" s="9" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="C583" s="9" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="D583" s="5" t="s"/>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="7" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="B584" s="9" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="C584" s="9" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="D584" s="5" t="s"/>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="7" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="C585" s="9" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="D585" s="5" t="s"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="7" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="C586" s="9" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="D586" s="9" t="s"/>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="7" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="B587" s="9" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="C587" s="9" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="D587" s="5" t="s"/>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="7" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="B588" s="9" t="s">
         <v>1369</v>
       </c>
       <c r="C588" s="9" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="D588" s="5" t="s"/>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="7" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="C589" s="9" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="D589" s="5" t="s"/>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="7" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="B590" s="9" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="C590" s="9" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="D590" s="5" t="s"/>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="7" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="C591" s="9" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="D591" s="5" t="s"/>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="7" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="B592" s="9" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="C592" s="9" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="D592" s="5" t="s"/>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="7" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="B593" s="9" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="C593" s="9" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="D593" s="5" t="s"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="7" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="C594" s="9" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="D594" s="22" t="s">
         <v>347</v>
@@ -14850,37 +15410,37 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="7" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="B595" s="9" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="C595" s="9" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="D595" s="5" t="s"/>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="7" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="B596" s="9" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="C596" s="9" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="D596" s="5" t="s"/>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="7" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="B597" s="9" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="C597" s="9" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="D597" s="14" t="s">
         <v>347</v>
@@ -14888,67 +15448,67 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="7" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="C598" s="9" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="D598" s="5" t="s"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="7" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="C599" s="9" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="D599" s="5" t="s"/>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="7" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="B600" s="9" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="C600" s="9" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="D600" s="5" t="s"/>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="7" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="B601" s="9" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="C601" s="9" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="D601" s="5" t="s"/>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="7" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="B602" s="9" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="C602" s="9" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="D602" s="5" t="s"/>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="7" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="B603" s="9" t="s">
         <v>239</v>
@@ -14960,111 +15520,115 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="7" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B604" s="9" t="s"/>
-      <c r="C604" s="9" t="s"/>
+        <v>1715</v>
+      </c>
+      <c r="B604" s="9" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C604" s="9" t="s">
+        <v>1717</v>
+      </c>
       <c r="D604" s="5" t="s"/>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="7" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="B605" s="9" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="C605" s="9" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="D605" s="5" t="s"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="7" t="s">
-        <v>1714</v>
+        <v>1720</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="C606" s="9" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
       <c r="D606" s="5" t="s"/>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="7" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>1718</v>
+        <v>1724</v>
       </c>
       <c r="C607" s="9" t="s">
-        <v>1719</v>
+        <v>1725</v>
       </c>
       <c r="D607" s="5" t="s"/>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="7" t="s">
-        <v>1720</v>
+        <v>1726</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="C608" s="9" t="s">
-        <v>1721</v>
+        <v>1727</v>
       </c>
       <c r="D608" s="5" t="s"/>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="7" t="s">
-        <v>1722</v>
+        <v>1728</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>1723</v>
+        <v>1729</v>
       </c>
       <c r="C609" s="9" t="s">
-        <v>1724</v>
+        <v>1730</v>
       </c>
       <c r="D609" s="5" t="s"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="7" t="s">
-        <v>1725</v>
+        <v>1731</v>
       </c>
       <c r="B610" s="9" t="s">
-        <v>1726</v>
+        <v>1732</v>
       </c>
       <c r="C610" s="9" t="s">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="D610" s="5" t="s"/>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="7" t="s">
-        <v>1728</v>
+        <v>1734</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>1729</v>
+        <v>1735</v>
       </c>
       <c r="C611" s="9" t="s">
-        <v>1730</v>
+        <v>1736</v>
       </c>
       <c r="D611" s="5" t="s"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="7" t="s">
-        <v>1731</v>
+        <v>1737</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>1732</v>
+        <v>1738</v>
       </c>
       <c r="C612" s="9" t="s">
-        <v>1733</v>
+        <v>1739</v>
       </c>
       <c r="D612" s="5" t="s"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="7" t="s">
-        <v>1734</v>
+        <v>1740</v>
       </c>
       <c r="B613" s="9" t="s">
         <v>199</v>
@@ -15076,487 +15640,487 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="7" t="s">
-        <v>1735</v>
+        <v>1741</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>1736</v>
+        <v>1742</v>
       </c>
       <c r="C614" s="9" t="s">
-        <v>1737</v>
+        <v>1743</v>
       </c>
       <c r="D614" s="5" t="s"/>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="7" t="s">
-        <v>1738</v>
+        <v>1744</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>1739</v>
+        <v>1745</v>
       </c>
       <c r="C615" s="9" t="s">
-        <v>1740</v>
+        <v>1746</v>
       </c>
       <c r="D615" s="5" t="s"/>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="7" t="s">
-        <v>1741</v>
+        <v>1747</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>1742</v>
+        <v>1748</v>
       </c>
       <c r="C616" s="9" t="s">
-        <v>1743</v>
+        <v>1749</v>
       </c>
       <c r="D616" s="5" t="s"/>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="7" t="s">
-        <v>1744</v>
+        <v>1750</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>1745</v>
+        <v>1751</v>
       </c>
       <c r="C617" s="9" t="s">
-        <v>1746</v>
+        <v>1752</v>
       </c>
       <c r="D617" s="5" t="s"/>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="7" t="s">
-        <v>1747</v>
+        <v>1753</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>1748</v>
+        <v>1754</v>
       </c>
       <c r="C618" s="9" t="s">
-        <v>1749</v>
+        <v>1755</v>
       </c>
       <c r="D618" s="5" t="s"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="7" t="s">
-        <v>1750</v>
+        <v>1756</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>1751</v>
+        <v>1757</v>
       </c>
       <c r="C619" s="9" t="s">
-        <v>1752</v>
+        <v>1758</v>
       </c>
       <c r="D619" s="5" t="s"/>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="7" t="s">
-        <v>1753</v>
+        <v>1759</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>1754</v>
+        <v>1760</v>
       </c>
       <c r="C620" s="9" t="s">
-        <v>1755</v>
+        <v>1761</v>
       </c>
       <c r="D620" s="9" t="s"/>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="7" t="s">
-        <v>1756</v>
+        <v>1762</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>1757</v>
+        <v>1763</v>
       </c>
       <c r="C621" s="9" t="s">
-        <v>1758</v>
+        <v>1764</v>
       </c>
       <c r="D621" s="9" t="s"/>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="7" t="s">
-        <v>1759</v>
+        <v>1765</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>1760</v>
+        <v>1766</v>
       </c>
       <c r="C622" s="9" t="s">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="D622" s="5" t="s"/>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="7" t="s">
-        <v>1762</v>
+        <v>1768</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>1763</v>
+        <v>1769</v>
       </c>
       <c r="C623" s="9" t="s">
-        <v>1764</v>
+        <v>1770</v>
       </c>
       <c r="D623" s="9" t="s"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="7" t="s">
-        <v>1765</v>
+        <v>1771</v>
       </c>
       <c r="B624" s="9" t="s">
-        <v>1766</v>
+        <v>1772</v>
       </c>
       <c r="C624" s="9" t="s">
-        <v>1767</v>
+        <v>1773</v>
       </c>
       <c r="D624" s="23" t="s"/>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="7" t="s">
-        <v>1768</v>
+        <v>1774</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>1769</v>
+        <v>1775</v>
       </c>
       <c r="C625" s="9" t="s">
-        <v>1770</v>
+        <v>1776</v>
       </c>
       <c r="D625" s="9" t="s"/>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="7" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="B626" s="9" t="s">
-        <v>1772</v>
+        <v>1778</v>
       </c>
       <c r="C626" s="9" t="s">
-        <v>1773</v>
+        <v>1779</v>
       </c>
       <c r="D626" s="5" t="s"/>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="7" t="s">
-        <v>1774</v>
+        <v>1780</v>
       </c>
       <c r="B627" s="9" t="s">
-        <v>1775</v>
+        <v>1781</v>
       </c>
       <c r="C627" s="9" t="s">
-        <v>1775</v>
+        <v>1781</v>
       </c>
       <c r="D627" s="5" t="s"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="7" t="s">
-        <v>1776</v>
+        <v>1782</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>1777</v>
+        <v>1783</v>
       </c>
       <c r="C628" s="9" t="s">
-        <v>1778</v>
+        <v>1784</v>
       </c>
       <c r="D628" s="5" t="s"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="7" t="s">
-        <v>1779</v>
+        <v>1785</v>
       </c>
       <c r="B629" s="9" t="s">
-        <v>1780</v>
+        <v>1786</v>
       </c>
       <c r="C629" s="9" t="s">
-        <v>1781</v>
+        <v>1787</v>
       </c>
       <c r="D629" s="5" t="s"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="7" t="s">
-        <v>1782</v>
+        <v>1788</v>
       </c>
       <c r="B630" s="9" t="s">
-        <v>1783</v>
+        <v>1789</v>
       </c>
       <c r="C630" s="9" t="s">
-        <v>1784</v>
+        <v>1790</v>
       </c>
       <c r="D630" s="9" t="s"/>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="7" t="s">
-        <v>1785</v>
+        <v>1791</v>
       </c>
       <c r="B631" s="9" t="s">
-        <v>1786</v>
+        <v>1792</v>
       </c>
       <c r="C631" s="9" t="s">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="D631" s="5" t="s"/>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="7" t="s">
-        <v>1788</v>
+        <v>1794</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>1789</v>
+        <v>1795</v>
       </c>
       <c r="C632" s="9" t="s">
-        <v>1790</v>
+        <v>1796</v>
       </c>
       <c r="D632" s="5" t="s"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="7" t="s">
-        <v>1791</v>
+        <v>1797</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>1792</v>
+        <v>1798</v>
       </c>
       <c r="C633" s="13" t="s">
-        <v>1793</v>
+        <v>1799</v>
       </c>
       <c r="D633" s="5" t="s"/>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="7" t="s">
-        <v>1794</v>
+        <v>1800</v>
       </c>
       <c r="B634" s="9" t="s">
-        <v>1795</v>
+        <v>1801</v>
       </c>
       <c r="C634" s="9" t="s">
-        <v>1796</v>
+        <v>1802</v>
       </c>
       <c r="D634" s="5" t="s"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="7" t="s">
-        <v>1797</v>
+        <v>1803</v>
       </c>
       <c r="B635" s="9" t="s">
-        <v>1798</v>
+        <v>1804</v>
       </c>
       <c r="C635" s="9" t="s">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="D635" s="5" t="s"/>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="7" t="s">
-        <v>1800</v>
+        <v>1806</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>1801</v>
+        <v>1807</v>
       </c>
       <c r="C636" s="9" t="s">
-        <v>1802</v>
+        <v>1808</v>
       </c>
       <c r="D636" s="5" t="s"/>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="7" t="s">
-        <v>1803</v>
+        <v>1809</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>1804</v>
+        <v>1810</v>
       </c>
       <c r="C637" s="9" t="s">
-        <v>1805</v>
+        <v>1811</v>
       </c>
       <c r="D637" s="5" t="s"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="7" t="s">
-        <v>1806</v>
+        <v>1812</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>1807</v>
+        <v>1813</v>
       </c>
       <c r="C638" s="9" t="s">
-        <v>1808</v>
+        <v>1814</v>
       </c>
       <c r="D638" s="5" t="s"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="7" t="s">
-        <v>1809</v>
+        <v>1815</v>
       </c>
       <c r="B639" s="9" t="s">
-        <v>1810</v>
+        <v>1816</v>
       </c>
       <c r="C639" s="9" t="s">
-        <v>1811</v>
+        <v>1817</v>
       </c>
       <c r="D639" s="5" t="s"/>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="7" t="s">
-        <v>1812</v>
+        <v>1818</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>1813</v>
+        <v>1819</v>
       </c>
       <c r="C640" s="9" t="s">
-        <v>1814</v>
+        <v>1820</v>
       </c>
       <c r="D640" s="9" t="s"/>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="7" t="s">
-        <v>1815</v>
+        <v>1821</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>1816</v>
+        <v>1822</v>
       </c>
       <c r="C641" s="9" t="s">
-        <v>1816</v>
+        <v>1822</v>
       </c>
       <c r="D641" s="5" t="s"/>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="7" t="s">
-        <v>1817</v>
+        <v>1823</v>
       </c>
       <c r="B642" s="9" t="s">
-        <v>1818</v>
+        <v>1824</v>
       </c>
       <c r="C642" s="9" t="s">
-        <v>1819</v>
+        <v>1825</v>
       </c>
       <c r="D642" s="5" t="s"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="7" t="s">
-        <v>1820</v>
+        <v>1826</v>
       </c>
       <c r="B643" s="9" t="s">
-        <v>1821</v>
+        <v>1827</v>
       </c>
       <c r="C643" s="9" t="s">
-        <v>1822</v>
+        <v>1828</v>
       </c>
       <c r="D643" s="5" t="s"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="7" t="s">
-        <v>1823</v>
+        <v>1829</v>
       </c>
       <c r="B644" s="9" t="s">
-        <v>1824</v>
+        <v>1830</v>
       </c>
       <c r="C644" s="9" t="s">
-        <v>1825</v>
+        <v>1831</v>
       </c>
       <c r="D644" s="5" t="s"/>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="7" t="s">
-        <v>1826</v>
+        <v>1832</v>
       </c>
       <c r="B645" s="9" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="C645" s="9" t="s">
-        <v>1828</v>
+        <v>1834</v>
       </c>
       <c r="D645" s="5" t="s"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="7" t="s">
-        <v>1829</v>
+        <v>1835</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="C646" s="9" t="s">
-        <v>1831</v>
+        <v>1837</v>
       </c>
       <c r="D646" s="5" t="s"/>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="7" t="s">
-        <v>1832</v>
+        <v>1838</v>
       </c>
       <c r="B647" s="9" t="s">
-        <v>1833</v>
+        <v>1839</v>
       </c>
       <c r="C647" s="9" t="s">
-        <v>1833</v>
+        <v>1839</v>
       </c>
       <c r="D647" s="5" t="s"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="7" t="s">
-        <v>1834</v>
+        <v>1840</v>
       </c>
       <c r="B648" s="9" t="s">
-        <v>1835</v>
+        <v>1841</v>
       </c>
       <c r="C648" s="9" t="s">
-        <v>1836</v>
+        <v>1842</v>
       </c>
       <c r="D648" s="5" t="s"/>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="7" t="s">
-        <v>1837</v>
+        <v>1843</v>
       </c>
       <c r="B649" s="9" t="s">
-        <v>1838</v>
+        <v>1844</v>
       </c>
       <c r="C649" s="9" t="s">
-        <v>1839</v>
+        <v>1845</v>
       </c>
       <c r="D649" s="5" t="s"/>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="7" t="s">
-        <v>1840</v>
+        <v>1846</v>
       </c>
       <c r="B650" s="9" t="s">
-        <v>1841</v>
+        <v>1847</v>
       </c>
       <c r="C650" s="9" t="s">
-        <v>1842</v>
+        <v>1848</v>
       </c>
       <c r="D650" s="5" t="s"/>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="7" t="s">
-        <v>1843</v>
+        <v>1849</v>
       </c>
       <c r="B651" s="9" t="s">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="C651" s="9" t="s">
-        <v>1845</v>
+        <v>1851</v>
       </c>
       <c r="D651" s="5" t="s"/>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="7" t="s">
-        <v>1846</v>
+        <v>1852</v>
       </c>
       <c r="B652" s="9" t="s">
-        <v>1847</v>
+        <v>1853</v>
       </c>
       <c r="C652" s="9" t="s">
-        <v>1848</v>
+        <v>1854</v>
       </c>
       <c r="D652" s="5" t="s"/>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="7" t="s">
-        <v>1849</v>
+        <v>1855</v>
       </c>
       <c r="B653" s="9" t="s">
-        <v>1850</v>
+        <v>1856</v>
       </c>
       <c r="C653" s="9" t="s">
-        <v>1851</v>
+        <v>1857</v>
       </c>
       <c r="D653" s="5" t="s"/>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="7" t="s">
-        <v>1852</v>
+        <v>1858</v>
       </c>
       <c r="B654" s="9" t="s">
         <v>507</v>
@@ -15568,727 +16132,727 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="7" t="s">
-        <v>1853</v>
+        <v>1859</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>1854</v>
+        <v>1860</v>
       </c>
       <c r="C655" s="9" t="s">
-        <v>1855</v>
+        <v>1861</v>
       </c>
       <c r="D655" s="5" t="s"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="7" t="s">
-        <v>1856</v>
+        <v>1862</v>
       </c>
       <c r="B656" s="9" t="s">
-        <v>1857</v>
+        <v>1863</v>
       </c>
       <c r="C656" s="9" t="s">
-        <v>1858</v>
+        <v>1864</v>
       </c>
       <c r="D656" s="5" t="s"/>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="7" t="s">
-        <v>1859</v>
+        <v>1865</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>1860</v>
+        <v>1866</v>
       </c>
       <c r="C657" s="9" t="s">
-        <v>1861</v>
+        <v>1867</v>
       </c>
       <c r="D657" s="5" t="s"/>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="7" t="s">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="B658" s="9" t="s">
-        <v>1863</v>
+        <v>1869</v>
       </c>
       <c r="C658" s="9" t="s">
-        <v>1864</v>
+        <v>1870</v>
       </c>
       <c r="D658" s="5" t="s"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="7" t="s">
-        <v>1865</v>
+        <v>1871</v>
       </c>
       <c r="B659" s="9" t="s">
-        <v>1866</v>
+        <v>1872</v>
       </c>
       <c r="C659" s="9" t="s">
-        <v>1867</v>
+        <v>1873</v>
       </c>
       <c r="D659" s="5" t="s"/>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="7" t="s">
-        <v>1868</v>
+        <v>1874</v>
       </c>
       <c r="B660" s="9" t="s">
-        <v>1869</v>
+        <v>1841</v>
       </c>
       <c r="C660" s="9" t="s">
-        <v>1870</v>
+        <v>1842</v>
       </c>
       <c r="D660" s="5" t="s"/>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="7" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="C661" s="9" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="D661" s="5" t="s"/>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="7" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="C662" s="9" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="D662" s="5" t="s"/>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="7" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="C663" s="9" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="D663" s="5" t="s"/>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="7" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="C664" s="9" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="D664" s="5" t="s"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="7" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="C665" s="9" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="D665" s="5" t="s"/>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="7" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="C666" s="9" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="D666" s="5" t="s"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="7" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="C667" s="9" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="D667" s="5" t="s"/>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="3" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="C668" s="9" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="D668" s="5" t="s"/>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="3" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="C669" s="9" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="D669" s="5" t="s"/>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="3" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="B670" s="9" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="C670" s="13" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="D670" s="5" t="s"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="3" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="B671" s="9" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="C671" s="9" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="D671" s="5" t="s"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="3" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="B672" s="9" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="C672" s="9" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="D672" s="5" t="s"/>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="3" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="B673" s="9" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="C673" s="9" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="D673" s="5" t="s"/>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="3" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="C674" s="9" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="D674" s="5" t="s"/>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="3" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="C675" s="9" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="D675" s="5" t="s"/>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="3" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="B676" s="9" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="C676" s="9" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="D676" s="5" t="s"/>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="3" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="C677" s="9" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="D677" s="5" t="s"/>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="3" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="B678" s="9" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="C678" s="9" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="D678" s="5" t="s"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="3" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="B679" s="9" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="C679" s="9" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="D679" s="5" t="s"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="3" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="C680" s="9" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="D680" s="5" t="s"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="3" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="B681" s="9" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="C681" s="9" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="D681" s="5" t="s"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="3" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="B682" s="9" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="C682" s="9" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="D682" s="5" t="s"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="3" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="C683" s="9" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="D683" s="5" t="s"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="3" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="B684" s="9" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="C684" s="9" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="D684" s="5" t="s"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="3" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="B685" s="9" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="C685" s="9" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="D685" s="5" t="s"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="3" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="B686" s="9" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="C686" s="9" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="D686" s="5" t="s"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="3" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="B687" s="24" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="C687" s="9" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="D687" s="5" t="s"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="3" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="B688" s="9" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="C688" s="9" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="D688" s="5" t="s"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="3" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="B689" s="9" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="C689" s="9" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="D689" s="5" t="s"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="3" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="B690" s="9" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="C690" s="9" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="D690" s="5" t="s"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="3" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="B691" s="24" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="C691" s="9" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="D691" s="5" t="s"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="3" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="B692" s="9" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="C692" s="9" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="D692" s="5" t="s"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="3" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="B693" s="9" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="C693" s="9" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="D693" s="5" t="s"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="3" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="B694" s="9" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="C694" s="9" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="D694" s="5" t="s"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="3" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="B695" s="9" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="C695" s="9" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="D695" s="5" t="s"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="3" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B696" s="9" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="C696" s="9" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="D696" s="5" t="s"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="3" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="B697" s="9" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="C697" s="25" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="D697" s="5" t="s"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="3" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="B698" s="9" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="C698" s="9" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="D698" s="5" t="s"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="3" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="B699" s="9" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C699" s="9" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="D699" s="5" t="s"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="3" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B700" s="9" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C700" s="9" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="D700" s="5" t="s"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="3" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="B701" s="9" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C701" s="9" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="D701" s="5" t="s"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="3" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="B702" s="9" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C702" s="9" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D702" s="5" t="s"/>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="3" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="B703" s="9" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C703" s="9" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="D703" s="5" t="s"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="3" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B704" s="9" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C704" s="9" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="D704" s="5" t="s"/>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="3" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="B705" s="9" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C705" s="9" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D705" s="5" t="s"/>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="3" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B706" s="9" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C706" s="9" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D706" s="5" t="s"/>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="3" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="B707" s="9" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C707" s="9" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D707" s="5" t="s"/>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="3" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B708" s="9" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C708" s="9" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D708" s="5" t="s"/>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="3" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B709" s="9" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C709" s="9" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D709" s="5" t="s"/>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="3" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B710" s="9" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C710" s="9" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D710" s="5" t="s"/>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="3" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="B711" s="9" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="C711" s="9" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="D711" s="5" t="s"/>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="3" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="B712" s="9" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="C712" s="9" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="D712" s="5" t="s"/>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="3" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="B713" s="9" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="C713" s="9" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="D713" s="5" t="s"/>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="3" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="B714" s="25" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="C714" s="9" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="D714" s="5" t="s"/>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="3" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="B715" s="9" t="s">
         <v>1393</v>
@@ -16300,1074 +16864,1090 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="3" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="B716" s="9" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="C716" s="9" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="D716" s="5" t="s"/>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="3" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="B717" s="9" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="C717" s="9" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="D717" s="5" t="s"/>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="3" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="B718" s="9" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="C718" s="9" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="D718" s="5" t="s"/>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="3" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="B719" s="9" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="C719" s="9" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="D719" s="5" t="s"/>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="3" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="B720" s="9" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="C720" s="9" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="D720" s="5" t="s"/>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="3" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="B721" s="9" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="C721" s="9" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="D721" s="5" t="s"/>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="3" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="B722" s="9" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="C722" s="9" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="D722" s="5" t="s"/>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="3" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="B723" s="9" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="C723" s="9" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="D723" s="5" t="s"/>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="3" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="B724" s="9" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="C724" s="9" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="D724" s="5" t="s"/>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="3" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="B725" s="9" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="C725" s="9" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="D725" s="5" t="s"/>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="3" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="B726" s="9" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="C726" s="9" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="D726" s="5" t="s"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="B727" s="9" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="C727" s="9" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="D727" s="5" t="s"/>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="3" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="B728" s="9" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="C728" s="9" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="D728" s="5" t="s"/>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="3" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="B729" s="9" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="C729" s="9" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="D729" s="5" t="s"/>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="3" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="B730" s="9" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="C730" s="9" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="D730" s="5" t="s"/>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="3" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="B731" s="9" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="C731" s="9" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="D731" s="5" t="s"/>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="3" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="B732" s="9" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="C732" s="9" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="D732" s="5" t="s"/>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="3" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="B733" s="9" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="C733" s="9" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="D733" s="5" t="s"/>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="3" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="B734" s="9" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="C734" s="9" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="D734" s="5" t="s"/>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="3" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="B735" s="9" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="C735" s="9" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="D735" s="5" t="s"/>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="3" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="B736" s="25" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="C736" s="9" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="D736" s="5" t="s"/>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="3" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="B737" s="9" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="C737" s="9" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="D737" s="5" t="s"/>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="3" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="B738" s="9" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="C738" s="9" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="D738" s="5" t="s"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="3" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="B739" s="9" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="C739" s="9" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="D739" s="5" t="s"/>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="3" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="B740" s="9" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="C740" s="9" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="D740" s="5" t="s"/>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="3" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="B741" s="9" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="C741" s="9" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="D741" s="5" t="s"/>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="3" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="B742" s="9" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="C742" s="9" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="D742" s="5" t="s"/>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="3" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="B743" s="9" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="C743" s="9" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="D743" s="5" t="s"/>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="3" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="B744" s="9" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="C744" s="9" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="D744" s="5" t="s"/>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="3" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="B745" s="9" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="C745" s="9" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="D745" s="5" t="s"/>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="3" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="B746" s="9" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="C746" s="9" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="D746" s="5" t="s"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="3" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="B747" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C747" s="9" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="D747" s="5" t="s"/>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="3" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="B748" s="9" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="C748" s="9" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="D748" s="5" t="s"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="3" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="B749" s="9" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="C749" s="9" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="D749" s="5" t="s"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="3" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="B750" s="9" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="C750" s="9" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="D750" s="5" t="s"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="3" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="B751" s="9" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="C751" s="9" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="D751" s="5" t="s"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="3" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="C752" s="9" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="D752" s="5" t="s"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="3" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="C753" s="9" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="D753" s="5" t="s"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="3" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="B754" s="9" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="C754" s="9" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="D754" s="5" t="s"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="3" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="B755" s="9" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="C755" s="9" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="D755" s="5" t="s"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="3" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="C756" s="9" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="D756" s="5" t="s"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="3" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="B757" s="9" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="C757" s="9" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="D757" s="5" t="s"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="3" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="C758" s="9" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="D758" s="5" t="s"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="3" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="C759" s="9" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="D759" s="5" t="s"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="3" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="C760" s="9" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="D760" s="5" t="s"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="3" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="C761" s="9" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="D761" s="5" t="s"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="3" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="C762" s="9" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="D762" s="5" t="s"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="3" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="C763" s="9" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="D763" s="5" t="s"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="3" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
       <c r="B764" s="9" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="C764" s="9" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="D764" s="5" t="s"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="3" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="B765" s="9" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="C765" s="9" t="s">
-        <v>2180</v>
+        <v>2184</v>
       </c>
       <c r="D765" s="5" t="s"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="3" t="s">
-        <v>2181</v>
-      </c>
-      <c r="B766" s="9" t="s"/>
-      <c r="C766" s="9" t="s"/>
+        <v>2185</v>
+      </c>
+      <c r="B766" s="9" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C766" s="9" t="s">
+        <v>2187</v>
+      </c>
       <c r="D766" s="5" t="s"/>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="3" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B767" s="9" t="s"/>
-      <c r="C767" s="9" t="s"/>
+        <v>2188</v>
+      </c>
+      <c r="B767" s="9" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C767" s="9" t="s">
+        <v>2190</v>
+      </c>
       <c r="D767" s="5" t="s"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="3" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="B768" s="9" t="s">
-        <v>2184</v>
+        <v>2192</v>
       </c>
       <c r="C768" s="9" t="s">
-        <v>2185</v>
+        <v>2193</v>
       </c>
       <c r="D768" s="5" t="s"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="3" t="s">
-        <v>2186</v>
+        <v>2194</v>
       </c>
       <c r="B769" s="9" t="s">
-        <v>2187</v>
+        <v>2195</v>
       </c>
       <c r="C769" s="9" t="s">
-        <v>2188</v>
+        <v>2196</v>
       </c>
       <c r="D769" s="5" t="s"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="3" t="s">
-        <v>2189</v>
-      </c>
-      <c r="B770" s="9" t="s"/>
-      <c r="C770" s="9" t="s"/>
+        <v>2197</v>
+      </c>
+      <c r="B770" s="9" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C770" s="9" t="s">
+        <v>2199</v>
+      </c>
       <c r="D770" s="5" t="s"/>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="3" t="s">
-        <v>2190</v>
+        <v>2200</v>
       </c>
       <c r="B771" s="9" t="s">
-        <v>2191</v>
+        <v>2201</v>
       </c>
       <c r="C771" s="9" t="s">
-        <v>2192</v>
+        <v>2202</v>
       </c>
       <c r="D771" s="5" t="s"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="3" t="s">
-        <v>2193</v>
+        <v>2203</v>
       </c>
       <c r="B772" s="9" t="s">
-        <v>2194</v>
+        <v>2204</v>
       </c>
       <c r="C772" s="9" t="s">
-        <v>2195</v>
+        <v>2205</v>
       </c>
       <c r="D772" s="5" t="s"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="3" t="s">
-        <v>2196</v>
+        <v>2206</v>
       </c>
       <c r="B773" s="9" t="s">
-        <v>2197</v>
+        <v>2207</v>
       </c>
       <c r="C773" s="9" t="s">
-        <v>2198</v>
+        <v>2208</v>
       </c>
       <c r="D773" s="5" t="s"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="3" t="s">
-        <v>2199</v>
+        <v>2209</v>
       </c>
       <c r="B774" s="9" t="s">
-        <v>2200</v>
+        <v>2210</v>
       </c>
       <c r="C774" s="9" t="s">
-        <v>2201</v>
+        <v>2211</v>
       </c>
       <c r="D774" s="5" t="s"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="3" t="s">
-        <v>2202</v>
+        <v>2212</v>
       </c>
       <c r="B775" s="9" t="s">
-        <v>2203</v>
+        <v>2213</v>
       </c>
       <c r="C775" s="9" t="s">
-        <v>2203</v>
+        <v>2213</v>
       </c>
       <c r="D775" s="5" t="s"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="3" t="s">
-        <v>2204</v>
+        <v>2214</v>
       </c>
       <c r="B776" s="9" t="s">
-        <v>2205</v>
+        <v>2215</v>
       </c>
       <c r="C776" s="9" t="s">
-        <v>2205</v>
+        <v>2215</v>
       </c>
       <c r="D776" s="5" t="s"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="3" t="s">
-        <v>2206</v>
+        <v>2216</v>
       </c>
       <c r="B777" s="9" t="s">
-        <v>2207</v>
+        <v>2217</v>
       </c>
       <c r="C777" s="9" t="s">
-        <v>2208</v>
+        <v>2218</v>
       </c>
       <c r="D777" s="5" t="s"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="3" t="s">
-        <v>2209</v>
+        <v>2219</v>
       </c>
       <c r="B778" s="9" t="s">
-        <v>2210</v>
+        <v>2220</v>
       </c>
       <c r="C778" s="9" t="s">
-        <v>2211</v>
+        <v>2221</v>
       </c>
       <c r="D778" s="5" t="s"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="3" t="s">
-        <v>2212</v>
+        <v>2222</v>
       </c>
       <c r="B779" s="9" t="s">
-        <v>2213</v>
+        <v>2223</v>
       </c>
       <c r="C779" s="9" t="s">
-        <v>2214</v>
+        <v>2224</v>
       </c>
       <c r="D779" s="5" t="s"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="3" t="s">
-        <v>2215</v>
+        <v>2225</v>
       </c>
       <c r="B780" s="9" t="s">
-        <v>2216</v>
+        <v>2226</v>
       </c>
       <c r="C780" s="9" t="s">
-        <v>2217</v>
+        <v>2227</v>
       </c>
       <c r="D780" s="5" t="s"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="3" t="s">
-        <v>2218</v>
+        <v>2228</v>
       </c>
       <c r="B781" s="9" t="s">
-        <v>2219</v>
+        <v>2229</v>
       </c>
       <c r="C781" s="9" t="s">
-        <v>2219</v>
+        <v>2229</v>
       </c>
       <c r="D781" s="5" t="s"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="3" t="s">
-        <v>2220</v>
+        <v>2230</v>
       </c>
       <c r="B782" s="9" t="s">
-        <v>2221</v>
+        <v>2231</v>
       </c>
       <c r="C782" s="9" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="D782" s="5" t="s"/>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="3" t="s">
-        <v>2222</v>
+        <v>2232</v>
       </c>
       <c r="B783" s="9" t="s">
-        <v>2223</v>
+        <v>2233</v>
       </c>
       <c r="C783" s="9" t="s">
-        <v>2224</v>
+        <v>2234</v>
       </c>
       <c r="D783" s="5" t="s"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="3" t="s">
-        <v>2225</v>
+        <v>2235</v>
       </c>
       <c r="B784" s="9" t="s">
-        <v>2226</v>
+        <v>2236</v>
       </c>
       <c r="C784" s="9" t="s">
-        <v>2227</v>
+        <v>2237</v>
       </c>
       <c r="D784" s="5" t="s"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="3" t="s">
-        <v>2228</v>
+        <v>2238</v>
       </c>
       <c r="B785" s="9" t="s">
         <v>1347</v>
       </c>
       <c r="C785" s="9" t="s">
-        <v>2229</v>
+        <v>2239</v>
       </c>
       <c r="D785" s="5" t="s"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="3" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B786" s="9" t="s"/>
-      <c r="C786" s="9" t="s"/>
+        <v>2240</v>
+      </c>
+      <c r="B786" s="9" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C786" s="9" t="s">
+        <v>2242</v>
+      </c>
       <c r="D786" s="5" t="s"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="3" t="s">
-        <v>2231</v>
+        <v>2243</v>
       </c>
       <c r="B787" s="9" t="s">
-        <v>2232</v>
+        <v>2244</v>
       </c>
       <c r="C787" s="9" t="s">
-        <v>2233</v>
+        <v>2245</v>
       </c>
       <c r="D787" s="5" t="s"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="3" t="s">
-        <v>2234</v>
+        <v>2246</v>
       </c>
       <c r="B788" s="9" t="s">
-        <v>2235</v>
+        <v>2247</v>
       </c>
       <c r="C788" s="9" t="s">
-        <v>2236</v>
+        <v>2248</v>
       </c>
       <c r="D788" s="5" t="s"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="3" t="s">
-        <v>2237</v>
+        <v>2249</v>
       </c>
       <c r="B789" s="9" t="s">
-        <v>2238</v>
+        <v>2250</v>
       </c>
       <c r="C789" s="9" t="s">
-        <v>2239</v>
+        <v>2251</v>
       </c>
       <c r="D789" s="5" t="s"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="3" t="s">
-        <v>2240</v>
+        <v>2252</v>
       </c>
       <c r="B790" s="9" t="s">
-        <v>2241</v>
+        <v>2253</v>
       </c>
       <c r="C790" s="9" t="s">
-        <v>2242</v>
+        <v>2254</v>
       </c>
       <c r="D790" s="5" t="s"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="3" t="s">
-        <v>2243</v>
+        <v>2255</v>
       </c>
       <c r="B791" s="9" t="s">
-        <v>2244</v>
+        <v>2256</v>
       </c>
       <c r="C791" s="9" t="s">
-        <v>2245</v>
+        <v>2257</v>
       </c>
       <c r="D791" s="5" t="s"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="3" t="s">
-        <v>2246</v>
+        <v>2258</v>
       </c>
       <c r="B792" s="9" t="s">
-        <v>2247</v>
+        <v>2259</v>
       </c>
       <c r="C792" s="9" t="s">
-        <v>2248</v>
+        <v>2260</v>
       </c>
       <c r="D792" s="5" t="s"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="3" t="s">
-        <v>2249</v>
+        <v>2261</v>
       </c>
       <c r="B793" s="9" t="s">
-        <v>2250</v>
+        <v>2262</v>
       </c>
       <c r="C793" s="9" t="s">
-        <v>2251</v>
+        <v>2263</v>
       </c>
       <c r="D793" s="5" t="s"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="3" t="s">
-        <v>2252</v>
+        <v>2264</v>
       </c>
       <c r="B794" s="9" t="s">
-        <v>2253</v>
+        <v>2265</v>
       </c>
       <c r="C794" s="9" t="s">
-        <v>2254</v>
+        <v>2266</v>
       </c>
       <c r="D794" s="5" t="s"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="3" t="s">
-        <v>2255</v>
+        <v>2267</v>
       </c>
       <c r="B795" s="9" t="s">
-        <v>2256</v>
+        <v>2268</v>
       </c>
       <c r="C795" s="9" t="s">
-        <v>2257</v>
+        <v>2269</v>
       </c>
       <c r="D795" s="5" t="s"/>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="3" t="s">
-        <v>2258</v>
+        <v>2270</v>
       </c>
       <c r="B796" s="9" t="s">
-        <v>2259</v>
+        <v>2271</v>
       </c>
       <c r="C796" s="9" t="s">
-        <v>2260</v>
+        <v>2272</v>
       </c>
       <c r="D796" s="5" t="s"/>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="3" t="s">
-        <v>2261</v>
+        <v>2273</v>
       </c>
       <c r="B797" s="9" t="s">
-        <v>2262</v>
+        <v>2274</v>
       </c>
       <c r="C797" s="9" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="D797" s="5" t="s"/>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="3" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="B798" s="9" t="s">
-        <v>2265</v>
+        <v>2277</v>
       </c>
       <c r="C798" s="9" t="s">
-        <v>2266</v>
+        <v>2278</v>
       </c>
       <c r="D798" s="5" t="s"/>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="3" t="s">
-        <v>2267</v>
+        <v>2279</v>
       </c>
       <c r="B799" s="9" t="s">
-        <v>2268</v>
+        <v>2280</v>
       </c>
       <c r="C799" s="9" t="s">
-        <v>2268</v>
+        <v>2280</v>
       </c>
       <c r="D799" s="5" t="s"/>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="3" t="s">
-        <v>2269</v>
+        <v>2281</v>
       </c>
       <c r="B800" s="9" t="s">
-        <v>2270</v>
+        <v>2282</v>
       </c>
       <c r="C800" s="9" t="s">
-        <v>2271</v>
+        <v>2283</v>
       </c>
       <c r="D800" s="5" t="s"/>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="3" t="s">
-        <v>2272</v>
+        <v>2284</v>
       </c>
       <c r="B801" s="9" t="s">
-        <v>2273</v>
+        <v>2285</v>
       </c>
       <c r="C801" s="9" t="s">
-        <v>2274</v>
+        <v>2286</v>
       </c>
       <c r="D801" s="5" t="s"/>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="3" t="s">
-        <v>2275</v>
+        <v>2287</v>
       </c>
       <c r="B802" s="9" t="s">
-        <v>2276</v>
+        <v>2288</v>
       </c>
       <c r="C802" s="9" t="s">
-        <v>2277</v>
+        <v>2289</v>
       </c>
       <c r="D802" s="5" t="s"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="3" t="s">
-        <v>2278</v>
+        <v>2290</v>
       </c>
       <c r="B803" s="9" t="s">
-        <v>2279</v>
+        <v>2291</v>
       </c>
       <c r="C803" s="9" t="s">
-        <v>2280</v>
+        <v>2292</v>
       </c>
       <c r="D803" s="5" t="s"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="3" t="s">
-        <v>2281</v>
+        <v>2293</v>
       </c>
       <c r="B804" s="9" t="s">
-        <v>2282</v>
+        <v>2294</v>
       </c>
       <c r="C804" s="9" t="s">
-        <v>2283</v>
+        <v>2295</v>
       </c>
       <c r="D804" s="5" t="s"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="3" t="s">
-        <v>2284</v>
+        <v>2296</v>
       </c>
       <c r="B805" s="9" t="s">
-        <v>2285</v>
+        <v>2297</v>
       </c>
       <c r="C805" s="9" t="s">
-        <v>2286</v>
+        <v>2298</v>
       </c>
       <c r="D805" s="5" t="s"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="3" t="s">
-        <v>2287</v>
+        <v>2299</v>
       </c>
       <c r="B806" s="9" t="s">
-        <v>2288</v>
+        <v>2300</v>
       </c>
       <c r="C806" s="9" t="s">
         <v>706</v>
@@ -17376,916 +17956,1260 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="3" t="s">
-        <v>2289</v>
+        <v>2301</v>
       </c>
       <c r="B807" s="9" t="s">
-        <v>2290</v>
+        <v>2302</v>
       </c>
       <c r="C807" s="9" t="s">
-        <v>2291</v>
+        <v>2303</v>
       </c>
       <c r="D807" s="5" t="s"/>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="3" t="s">
-        <v>2292</v>
+        <v>2304</v>
       </c>
       <c r="B808" s="9" t="s">
-        <v>2293</v>
+        <v>2305</v>
       </c>
       <c r="C808" s="9" t="s">
-        <v>2294</v>
+        <v>2306</v>
       </c>
       <c r="D808" s="5" t="s"/>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="3" t="s">
-        <v>2295</v>
+        <v>2307</v>
       </c>
       <c r="B809" s="9" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="C809" s="9" t="s">
-        <v>2296</v>
+        <v>2308</v>
       </c>
       <c r="D809" s="5" t="s"/>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="3" t="s">
-        <v>2297</v>
+        <v>2309</v>
       </c>
       <c r="B810" s="9" t="s">
-        <v>2298</v>
+        <v>2310</v>
       </c>
       <c r="C810" s="9" t="s">
-        <v>2299</v>
+        <v>2311</v>
       </c>
       <c r="D810" s="5" t="s"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="3" t="s">
-        <v>2300</v>
+        <v>2312</v>
       </c>
       <c r="B811" s="9" t="s">
-        <v>2301</v>
+        <v>2313</v>
       </c>
       <c r="C811" s="9" t="s">
-        <v>2302</v>
+        <v>2314</v>
       </c>
       <c r="D811" s="5" t="s"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="3" t="s">
-        <v>2303</v>
+        <v>2315</v>
       </c>
       <c r="B812" s="9" t="s">
-        <v>2304</v>
+        <v>2316</v>
       </c>
       <c r="C812" s="9" t="s">
-        <v>2304</v>
+        <v>2316</v>
       </c>
       <c r="D812" s="5" t="s"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="3" t="s">
-        <v>2305</v>
+        <v>2317</v>
       </c>
       <c r="B813" s="9" t="s">
-        <v>2306</v>
+        <v>2318</v>
       </c>
       <c r="C813" s="9" t="s">
-        <v>2307</v>
+        <v>2319</v>
       </c>
       <c r="D813" s="5" t="s"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="3" t="s">
-        <v>2308</v>
+        <v>2320</v>
       </c>
       <c r="B814" s="9" t="s">
-        <v>2309</v>
+        <v>2321</v>
       </c>
       <c r="C814" s="9" t="s">
-        <v>2310</v>
+        <v>2322</v>
       </c>
       <c r="D814" s="5" t="s"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="3" t="s">
-        <v>2311</v>
+        <v>2323</v>
       </c>
       <c r="B815" s="9" t="s">
-        <v>2312</v>
+        <v>2324</v>
       </c>
       <c r="C815" s="9" t="s">
-        <v>2313</v>
+        <v>2325</v>
       </c>
       <c r="D815" s="5" t="s"/>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="3" t="s">
-        <v>2314</v>
+        <v>2326</v>
       </c>
       <c r="B816" s="9" t="s">
-        <v>2315</v>
+        <v>2327</v>
       </c>
       <c r="C816" s="9" t="s">
-        <v>2316</v>
+        <v>2328</v>
       </c>
       <c r="D816" s="5" t="s"/>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="3" t="s">
-        <v>2317</v>
+        <v>2329</v>
       </c>
       <c r="B817" s="9" t="s">
-        <v>2318</v>
+        <v>2330</v>
       </c>
       <c r="C817" s="9" t="s">
-        <v>2319</v>
+        <v>2331</v>
       </c>
       <c r="D817" s="5" t="s"/>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="3" t="s">
-        <v>2320</v>
+        <v>2332</v>
       </c>
       <c r="B818" s="9" t="s">
-        <v>2321</v>
+        <v>2333</v>
       </c>
       <c r="C818" s="9" t="s">
-        <v>2322</v>
+        <v>2334</v>
       </c>
       <c r="D818" s="5" t="s"/>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="3" t="s">
-        <v>2323</v>
+        <v>2335</v>
       </c>
       <c r="B819" s="9" t="s">
-        <v>2324</v>
+        <v>2336</v>
       </c>
       <c r="C819" s="9" t="s">
-        <v>2325</v>
+        <v>2337</v>
       </c>
       <c r="D819" s="5" t="s"/>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="3" t="s">
-        <v>2326</v>
+        <v>2338</v>
       </c>
       <c r="B820" s="9" t="s">
-        <v>2327</v>
+        <v>2339</v>
       </c>
       <c r="C820" s="9" t="s">
-        <v>2328</v>
+        <v>2340</v>
       </c>
       <c r="D820" s="5" t="s"/>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="3" t="s">
-        <v>2329</v>
+        <v>2341</v>
       </c>
       <c r="B821" s="9" t="s">
-        <v>2330</v>
+        <v>2342</v>
       </c>
       <c r="C821" s="9" t="s">
-        <v>2331</v>
+        <v>2343</v>
       </c>
       <c r="D821" s="5" t="s"/>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="3" t="s">
-        <v>2332</v>
+        <v>2344</v>
       </c>
       <c r="B822" s="9" t="s">
-        <v>2333</v>
+        <v>2345</v>
       </c>
       <c r="C822" s="9" t="s">
-        <v>2333</v>
+        <v>2345</v>
       </c>
       <c r="D822" s="5" t="s"/>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="3" t="s">
-        <v>2334</v>
+        <v>2346</v>
       </c>
       <c r="B823" s="9" t="s">
-        <v>2335</v>
+        <v>2347</v>
       </c>
       <c r="C823" s="9" t="s">
-        <v>2336</v>
+        <v>2348</v>
       </c>
       <c r="D823" s="5" t="s"/>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="3" t="s">
-        <v>2337</v>
+        <v>2349</v>
       </c>
       <c r="B824" s="9" t="s">
-        <v>2338</v>
+        <v>2350</v>
       </c>
       <c r="C824" s="9" t="s">
-        <v>2339</v>
+        <v>2351</v>
       </c>
       <c r="D824" s="5" t="s"/>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="3" t="s">
-        <v>2340</v>
+        <v>2352</v>
       </c>
       <c r="B825" s="9" t="s">
-        <v>2341</v>
+        <v>2353</v>
       </c>
       <c r="C825" s="9" t="s">
-        <v>2342</v>
+        <v>2354</v>
       </c>
       <c r="D825" s="5" t="s"/>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="3" t="s">
-        <v>2343</v>
+        <v>2355</v>
       </c>
       <c r="B826" s="9" t="s">
-        <v>2344</v>
+        <v>2356</v>
       </c>
       <c r="C826" s="9" t="s">
-        <v>2345</v>
+        <v>2357</v>
       </c>
       <c r="D826" s="5" t="s"/>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="3" t="s">
-        <v>2346</v>
+        <v>2358</v>
       </c>
       <c r="B827" s="9" t="s">
-        <v>2347</v>
+        <v>2359</v>
       </c>
       <c r="C827" s="9" t="s">
-        <v>2348</v>
+        <v>2360</v>
       </c>
       <c r="D827" s="5" t="s"/>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="3" t="s">
-        <v>2349</v>
+        <v>2361</v>
       </c>
       <c r="B828" s="9" t="s">
-        <v>2350</v>
+        <v>2362</v>
       </c>
       <c r="C828" s="9" t="s">
-        <v>2351</v>
+        <v>2363</v>
       </c>
       <c r="D828" s="5" t="s"/>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="3" t="s">
-        <v>2352</v>
+        <v>2364</v>
       </c>
       <c r="B829" s="9" t="s">
-        <v>2353</v>
+        <v>2365</v>
       </c>
       <c r="C829" s="9" t="s">
-        <v>2354</v>
+        <v>2366</v>
       </c>
       <c r="D829" s="5" t="s"/>
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="3" t="s">
-        <v>2355</v>
+        <v>2367</v>
       </c>
       <c r="B830" s="9" t="s">
-        <v>2356</v>
+        <v>2368</v>
       </c>
       <c r="C830" s="9" t="s">
-        <v>2357</v>
+        <v>2369</v>
       </c>
       <c r="D830" s="5" t="s"/>
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="3" t="s">
-        <v>2358</v>
-      </c>
-      <c r="B831" s="9" t="s"/>
-      <c r="C831" s="9" t="s"/>
+        <v>2370</v>
+      </c>
+      <c r="B831" s="9" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C831" s="9" t="s">
+        <v>2372</v>
+      </c>
       <c r="D831" s="5" t="s"/>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="3" t="s">
-        <v>2359</v>
+        <v>2373</v>
       </c>
       <c r="B832" s="9" t="s">
-        <v>2360</v>
+        <v>2374</v>
       </c>
       <c r="C832" s="9" t="s">
-        <v>2361</v>
+        <v>2375</v>
       </c>
       <c r="D832" s="5" t="s"/>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="3" t="s">
-        <v>2362</v>
+        <v>2376</v>
       </c>
       <c r="B833" s="9" t="s">
-        <v>2363</v>
+        <v>2377</v>
       </c>
       <c r="C833" s="9" t="s">
-        <v>2364</v>
+        <v>2378</v>
       </c>
       <c r="D833" s="5" t="s"/>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="3" t="s">
-        <v>2365</v>
+        <v>2379</v>
       </c>
       <c r="B834" s="9" t="s">
-        <v>2366</v>
+        <v>2380</v>
       </c>
       <c r="C834" s="9" t="s">
-        <v>2366</v>
+        <v>2380</v>
       </c>
       <c r="D834" s="5" t="s"/>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="3" t="s">
-        <v>2367</v>
-      </c>
-      <c r="B835" s="9" t="s"/>
-      <c r="C835" s="9" t="s"/>
+        <v>2381</v>
+      </c>
+      <c r="B835" s="9" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C835" s="9" t="s">
+        <v>2383</v>
+      </c>
       <c r="D835" s="5" t="s"/>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="3" t="s">
-        <v>2368</v>
-      </c>
-      <c r="B836" s="9" t="s"/>
-      <c r="C836" s="9" t="s"/>
+        <v>2384</v>
+      </c>
+      <c r="B836" s="9" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C836" s="9" t="s">
+        <v>2386</v>
+      </c>
       <c r="D836" s="5" t="s"/>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="3" t="s">
-        <v>2369</v>
-      </c>
-      <c r="B837" s="9" t="s"/>
-      <c r="C837" s="9" t="s"/>
+        <v>2387</v>
+      </c>
+      <c r="B837" s="9" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C837" s="9" t="s">
+        <v>2389</v>
+      </c>
       <c r="D837" s="5" t="s"/>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="3" t="s">
-        <v>2370</v>
-      </c>
-      <c r="B838" s="9" t="s"/>
-      <c r="C838" s="9" t="s"/>
+        <v>2390</v>
+      </c>
+      <c r="B838" s="9" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C838" s="9" t="s">
+        <v>2392</v>
+      </c>
       <c r="D838" s="5" t="s"/>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="3" t="s">
-        <v>2371</v>
-      </c>
-      <c r="B839" s="9" t="s"/>
-      <c r="C839" s="9" t="s"/>
+        <v>2393</v>
+      </c>
+      <c r="B839" s="9" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C839" s="9" t="s">
+        <v>2395</v>
+      </c>
       <c r="D839" s="5" t="s"/>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="3" t="s">
-        <v>2372</v>
-      </c>
-      <c r="B840" s="9" t="s"/>
-      <c r="C840" s="9" t="s"/>
+        <v>2396</v>
+      </c>
+      <c r="B840" s="9" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C840" s="9" t="s">
+        <v>2398</v>
+      </c>
       <c r="D840" s="5" t="s"/>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="3" t="s">
-        <v>2373</v>
-      </c>
-      <c r="B841" s="9" t="s"/>
-      <c r="C841" s="9" t="s"/>
+        <v>2399</v>
+      </c>
+      <c r="B841" s="9" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C841" s="9" t="s">
+        <v>2401</v>
+      </c>
       <c r="D841" s="5" t="s"/>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="3" t="s">
-        <v>2374</v>
+        <v>2402</v>
       </c>
       <c r="B842" s="9" t="s"/>
-      <c r="C842" s="9" t="s"/>
+      <c r="C842" s="9" t="s">
+        <v>2403</v>
+      </c>
       <c r="D842" s="5" t="s"/>
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="3" t="s">
-        <v>2375</v>
+        <v>2404</v>
       </c>
       <c r="B843" s="9" t="s"/>
-      <c r="C843" s="9" t="s"/>
+      <c r="C843" s="9" t="s">
+        <v>2405</v>
+      </c>
       <c r="D843" s="5" t="s"/>
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="3" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
       <c r="B844" s="9" t="s"/>
-      <c r="C844" s="9" t="s"/>
+      <c r="C844" s="9" t="s">
+        <v>2407</v>
+      </c>
       <c r="D844" s="5" t="s"/>
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="3" t="s">
-        <v>2377</v>
+        <v>2408</v>
       </c>
       <c r="B845" s="9" t="s"/>
-      <c r="C845" s="9" t="s"/>
+      <c r="C845" s="9" t="s">
+        <v>2409</v>
+      </c>
       <c r="D845" s="5" t="s"/>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="3" t="s">
-        <v>2378</v>
+        <v>2410</v>
       </c>
       <c r="B846" s="9" t="s"/>
-      <c r="C846" s="9" t="s"/>
+      <c r="C846" s="9" t="s">
+        <v>2411</v>
+      </c>
       <c r="D846" s="5" t="s"/>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="3" t="s">
-        <v>2379</v>
+        <v>2412</v>
       </c>
       <c r="B847" s="9" t="s"/>
-      <c r="C847" s="9" t="s"/>
+      <c r="C847" s="9" t="s">
+        <v>2413</v>
+      </c>
       <c r="D847" s="5" t="s"/>
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="3" t="s">
-        <v>2380</v>
+        <v>2414</v>
       </c>
       <c r="B848" s="9" t="s"/>
-      <c r="C848" s="9" t="s"/>
+      <c r="C848" s="9" t="s">
+        <v>2415</v>
+      </c>
       <c r="D848" s="5" t="s"/>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="3" t="s">
-        <v>2381</v>
+        <v>2416</v>
       </c>
       <c r="B849" s="9" t="s"/>
-      <c r="C849" s="9" t="s"/>
+      <c r="C849" s="9" t="s">
+        <v>2417</v>
+      </c>
       <c r="D849" s="5" t="s"/>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="3" t="s">
-        <v>2382</v>
+        <v>2418</v>
       </c>
       <c r="B850" s="9" t="s"/>
-      <c r="C850" s="9" t="s"/>
+      <c r="C850" s="9" t="s">
+        <v>2419</v>
+      </c>
       <c r="D850" s="5" t="s"/>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="3" t="s">
-        <v>2383</v>
+        <v>2420</v>
       </c>
       <c r="B851" s="9" t="s"/>
-      <c r="C851" s="9" t="s"/>
+      <c r="C851" s="9" t="s">
+        <v>2421</v>
+      </c>
       <c r="D851" s="5" t="s"/>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="3" t="s">
-        <v>2384</v>
+        <v>2422</v>
       </c>
       <c r="B852" s="9" t="s"/>
-      <c r="C852" s="9" t="s"/>
+      <c r="C852" s="9" t="s">
+        <v>2423</v>
+      </c>
       <c r="D852" s="5" t="s"/>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="3" t="s">
-        <v>2385</v>
+        <v>2424</v>
       </c>
       <c r="B853" s="9" t="s"/>
-      <c r="C853" s="9" t="s"/>
+      <c r="C853" s="9" t="s">
+        <v>2425</v>
+      </c>
       <c r="D853" s="5" t="s"/>
     </row>
     <row r="854" spans="1:4">
-      <c r="A854" s="3" t="s"/>
+      <c r="A854" s="3" t="s">
+        <v>2426</v>
+      </c>
       <c r="B854" s="9" t="s"/>
-      <c r="C854" s="9" t="s"/>
+      <c r="C854" s="9" t="s">
+        <v>2427</v>
+      </c>
       <c r="D854" s="5" t="s"/>
     </row>
     <row r="855" spans="1:4">
-      <c r="A855" s="3" t="s"/>
+      <c r="A855" s="3" t="s">
+        <v>2428</v>
+      </c>
       <c r="B855" s="9" t="s"/>
-      <c r="C855" s="9" t="s"/>
+      <c r="C855" s="9" t="s">
+        <v>2429</v>
+      </c>
       <c r="D855" s="5" t="s"/>
     </row>
     <row r="856" spans="1:4">
-      <c r="A856" s="3" t="s"/>
+      <c r="A856" s="3" t="s">
+        <v>2430</v>
+      </c>
       <c r="B856" s="9" t="s"/>
-      <c r="C856" s="9" t="s"/>
+      <c r="C856" s="9" t="s">
+        <v>2431</v>
+      </c>
       <c r="D856" s="5" t="s"/>
     </row>
     <row r="857" spans="1:4">
-      <c r="A857" s="3" t="s"/>
+      <c r="A857" s="3" t="s">
+        <v>2432</v>
+      </c>
       <c r="B857" s="9" t="s"/>
-      <c r="C857" s="9" t="s"/>
+      <c r="C857" s="9" t="s">
+        <v>2433</v>
+      </c>
       <c r="D857" s="5" t="s"/>
     </row>
     <row r="858" spans="1:4">
-      <c r="A858" s="3" t="s"/>
+      <c r="A858" s="3" t="s">
+        <v>2434</v>
+      </c>
       <c r="B858" s="9" t="s"/>
-      <c r="C858" s="9" t="s"/>
+      <c r="C858" s="9" t="s">
+        <v>2435</v>
+      </c>
       <c r="D858" s="5" t="s"/>
     </row>
     <row r="859" spans="1:4">
-      <c r="A859" s="3" t="s"/>
+      <c r="A859" s="3" t="s">
+        <v>2436</v>
+      </c>
       <c r="B859" s="9" t="s"/>
-      <c r="C859" s="9" t="s"/>
+      <c r="C859" s="9" t="s">
+        <v>2437</v>
+      </c>
       <c r="D859" s="5" t="s"/>
     </row>
     <row r="860" spans="1:4">
-      <c r="A860" s="3" t="s"/>
+      <c r="A860" s="3" t="s">
+        <v>2438</v>
+      </c>
       <c r="B860" s="9" t="s"/>
-      <c r="C860" s="9" t="s"/>
+      <c r="C860" s="9" t="s">
+        <v>2439</v>
+      </c>
       <c r="D860" s="5" t="s"/>
     </row>
     <row r="861" spans="1:4">
-      <c r="A861" s="3" t="s"/>
+      <c r="A861" s="3" t="s">
+        <v>2440</v>
+      </c>
       <c r="B861" s="9" t="s"/>
-      <c r="C861" s="9" t="s"/>
+      <c r="C861" s="9" t="s">
+        <v>2441</v>
+      </c>
       <c r="D861" s="5" t="s"/>
     </row>
     <row r="862" spans="1:4">
-      <c r="A862" s="3" t="s"/>
+      <c r="A862" s="3" t="s">
+        <v>2442</v>
+      </c>
       <c r="B862" s="9" t="s"/>
-      <c r="C862" s="9" t="s"/>
+      <c r="C862" s="9" t="s">
+        <v>2443</v>
+      </c>
       <c r="D862" s="5" t="s"/>
     </row>
     <row r="863" spans="1:4">
-      <c r="A863" s="3" t="s"/>
+      <c r="A863" s="3" t="s">
+        <v>2444</v>
+      </c>
       <c r="B863" s="9" t="s"/>
-      <c r="C863" s="9" t="s"/>
+      <c r="C863" s="9" t="s">
+        <v>2445</v>
+      </c>
       <c r="D863" s="5" t="s"/>
     </row>
     <row r="864" spans="1:4">
-      <c r="A864" s="3" t="s"/>
+      <c r="A864" s="3" t="s">
+        <v>2446</v>
+      </c>
       <c r="B864" s="9" t="s"/>
-      <c r="C864" s="9" t="s"/>
+      <c r="C864" s="9" t="s">
+        <v>2447</v>
+      </c>
       <c r="D864" s="5" t="s"/>
     </row>
     <row r="865" spans="1:4">
-      <c r="A865" s="3" t="s"/>
+      <c r="A865" s="3" t="s">
+        <v>2448</v>
+      </c>
       <c r="B865" s="9" t="s"/>
-      <c r="C865" s="9" t="s"/>
+      <c r="C865" s="9" t="s">
+        <v>2449</v>
+      </c>
       <c r="D865" s="5" t="s"/>
     </row>
     <row r="866" spans="1:4">
-      <c r="A866" s="3" t="s"/>
+      <c r="A866" s="3" t="s">
+        <v>2450</v>
+      </c>
       <c r="B866" s="9" t="s"/>
-      <c r="C866" s="9" t="s"/>
+      <c r="C866" s="9" t="s">
+        <v>2451</v>
+      </c>
       <c r="D866" s="5" t="s"/>
     </row>
     <row r="867" spans="1:4">
-      <c r="A867" s="3" t="s"/>
+      <c r="A867" s="3" t="s">
+        <v>2452</v>
+      </c>
       <c r="B867" s="9" t="s"/>
-      <c r="C867" s="9" t="s"/>
+      <c r="C867" s="9" t="s">
+        <v>2453</v>
+      </c>
       <c r="D867" s="5" t="s"/>
     </row>
     <row r="868" spans="1:4">
-      <c r="A868" s="3" t="s"/>
+      <c r="A868" s="3" t="s">
+        <v>2454</v>
+      </c>
       <c r="B868" s="9" t="s"/>
-      <c r="C868" s="9" t="s"/>
+      <c r="C868" s="9" t="s">
+        <v>2455</v>
+      </c>
       <c r="D868" s="5" t="s"/>
     </row>
     <row r="869" spans="1:4">
-      <c r="A869" s="3" t="s"/>
+      <c r="A869" s="3" t="s">
+        <v>2456</v>
+      </c>
       <c r="B869" s="9" t="s"/>
-      <c r="C869" s="9" t="s"/>
+      <c r="C869" s="9" t="s">
+        <v>2457</v>
+      </c>
       <c r="D869" s="5" t="s"/>
     </row>
     <row r="870" spans="1:4">
-      <c r="A870" s="3" t="s"/>
+      <c r="A870" s="3" t="s">
+        <v>2458</v>
+      </c>
       <c r="B870" s="9" t="s"/>
-      <c r="C870" s="9" t="s"/>
+      <c r="C870" s="9" t="s">
+        <v>2459</v>
+      </c>
       <c r="D870" s="5" t="s"/>
     </row>
     <row r="871" spans="1:4">
-      <c r="A871" s="3" t="s"/>
+      <c r="A871" s="3" t="s">
+        <v>2460</v>
+      </c>
       <c r="B871" s="9" t="s"/>
-      <c r="C871" s="9" t="s"/>
+      <c r="C871" s="9" t="s">
+        <v>2461</v>
+      </c>
       <c r="D871" s="5" t="s"/>
     </row>
     <row r="872" spans="1:4">
-      <c r="A872" s="3" t="s"/>
+      <c r="A872" s="3" t="s">
+        <v>2462</v>
+      </c>
       <c r="B872" s="9" t="s"/>
-      <c r="C872" s="9" t="s"/>
+      <c r="C872" s="9" t="s">
+        <v>2463</v>
+      </c>
       <c r="D872" s="5" t="s"/>
     </row>
     <row r="873" spans="1:4">
-      <c r="A873" s="3" t="s"/>
+      <c r="A873" s="3" t="s">
+        <v>2464</v>
+      </c>
       <c r="B873" s="9" t="s"/>
-      <c r="C873" s="9" t="s"/>
+      <c r="C873" s="9" t="s">
+        <v>2465</v>
+      </c>
       <c r="D873" s="5" t="s"/>
     </row>
     <row r="874" spans="1:4">
-      <c r="A874" s="3" t="s"/>
+      <c r="A874" s="3" t="s">
+        <v>2466</v>
+      </c>
       <c r="B874" s="9" t="s"/>
-      <c r="C874" s="9" t="s"/>
+      <c r="C874" s="9" t="s">
+        <v>2467</v>
+      </c>
       <c r="D874" s="5" t="s"/>
     </row>
     <row r="875" spans="1:4">
-      <c r="A875" s="3" t="s"/>
+      <c r="A875" s="3" t="s">
+        <v>2468</v>
+      </c>
       <c r="B875" s="9" t="s"/>
-      <c r="C875" s="9" t="s"/>
+      <c r="C875" s="9" t="s">
+        <v>2469</v>
+      </c>
       <c r="D875" s="5" t="s"/>
     </row>
     <row r="876" spans="1:4">
-      <c r="A876" s="3" t="s"/>
+      <c r="A876" s="3" t="s">
+        <v>2470</v>
+      </c>
       <c r="B876" s="9" t="s"/>
-      <c r="C876" s="9" t="s"/>
+      <c r="C876" s="9" t="s">
+        <v>2471</v>
+      </c>
       <c r="D876" s="5" t="s"/>
     </row>
     <row r="877" spans="1:4">
-      <c r="A877" s="3" t="s"/>
+      <c r="A877" s="3" t="s">
+        <v>2472</v>
+      </c>
       <c r="B877" s="9" t="s"/>
-      <c r="C877" s="9" t="s"/>
+      <c r="C877" s="9" t="s">
+        <v>2473</v>
+      </c>
       <c r="D877" s="5" t="s"/>
     </row>
     <row r="878" spans="1:4">
-      <c r="A878" s="3" t="s"/>
+      <c r="A878" s="3" t="s">
+        <v>2474</v>
+      </c>
       <c r="B878" s="9" t="s"/>
-      <c r="C878" s="9" t="s"/>
+      <c r="C878" s="9" t="s">
+        <v>2475</v>
+      </c>
       <c r="D878" s="5" t="s"/>
     </row>
     <row r="879" spans="1:4">
-      <c r="A879" s="3" t="s"/>
+      <c r="A879" s="3" t="s">
+        <v>2476</v>
+      </c>
       <c r="B879" s="9" t="s"/>
-      <c r="C879" s="9" t="s"/>
+      <c r="C879" s="9" t="s">
+        <v>2477</v>
+      </c>
       <c r="D879" s="5" t="s"/>
     </row>
     <row r="880" spans="1:4">
-      <c r="A880" s="3" t="s"/>
+      <c r="A880" s="3" t="s">
+        <v>2478</v>
+      </c>
       <c r="B880" s="9" t="s"/>
-      <c r="C880" s="9" t="s"/>
+      <c r="C880" s="9" t="s">
+        <v>2479</v>
+      </c>
       <c r="D880" s="5" t="s"/>
     </row>
     <row r="881" spans="1:4">
-      <c r="A881" s="3" t="s"/>
+      <c r="A881" s="3" t="s">
+        <v>2480</v>
+      </c>
       <c r="B881" s="9" t="s"/>
-      <c r="C881" s="9" t="s"/>
+      <c r="C881" s="9" t="s">
+        <v>2481</v>
+      </c>
       <c r="D881" s="5" t="s"/>
     </row>
     <row r="882" spans="1:4">
-      <c r="A882" s="3" t="s"/>
+      <c r="A882" s="3" t="s">
+        <v>2482</v>
+      </c>
       <c r="B882" s="9" t="s"/>
-      <c r="C882" s="9" t="s"/>
+      <c r="C882" s="9" t="s">
+        <v>2483</v>
+      </c>
       <c r="D882" s="5" t="s"/>
     </row>
     <row r="883" spans="1:4">
-      <c r="A883" s="3" t="s"/>
+      <c r="A883" s="3" t="s">
+        <v>2484</v>
+      </c>
       <c r="B883" s="9" t="s"/>
-      <c r="C883" s="9" t="s"/>
+      <c r="C883" s="9" t="s">
+        <v>2485</v>
+      </c>
       <c r="D883" s="5" t="s"/>
     </row>
     <row r="884" spans="1:4">
-      <c r="A884" s="3" t="s"/>
+      <c r="A884" s="3" t="s">
+        <v>2486</v>
+      </c>
       <c r="B884" s="9" t="s"/>
-      <c r="C884" s="9" t="s"/>
+      <c r="C884" s="9" t="s">
+        <v>2487</v>
+      </c>
       <c r="D884" s="5" t="s"/>
     </row>
     <row r="885" spans="1:4">
-      <c r="A885" s="3" t="s"/>
+      <c r="A885" s="3" t="s">
+        <v>2488</v>
+      </c>
       <c r="B885" s="9" t="s"/>
-      <c r="C885" s="9" t="s"/>
+      <c r="C885" s="9" t="s">
+        <v>2489</v>
+      </c>
       <c r="D885" s="5" t="s"/>
     </row>
     <row r="886" spans="1:4">
-      <c r="A886" s="3" t="s"/>
+      <c r="A886" s="3" t="s">
+        <v>2490</v>
+      </c>
       <c r="B886" s="9" t="s"/>
-      <c r="C886" s="9" t="s"/>
+      <c r="C886" s="9" t="s">
+        <v>2491</v>
+      </c>
       <c r="D886" s="5" t="s"/>
     </row>
     <row r="887" spans="1:4">
-      <c r="A887" s="3" t="s"/>
+      <c r="A887" s="3" t="s">
+        <v>2492</v>
+      </c>
       <c r="B887" s="9" t="s"/>
-      <c r="C887" s="9" t="s"/>
+      <c r="C887" s="9" t="s">
+        <v>2493</v>
+      </c>
       <c r="D887" s="5" t="s"/>
     </row>
     <row r="888" spans="1:4">
-      <c r="A888" s="3" t="s"/>
+      <c r="A888" s="3" t="s">
+        <v>2494</v>
+      </c>
       <c r="B888" s="9" t="s"/>
-      <c r="C888" s="9" t="s"/>
+      <c r="C888" s="9" t="s">
+        <v>2495</v>
+      </c>
       <c r="D888" s="5" t="s"/>
     </row>
     <row r="889" spans="1:4">
-      <c r="A889" s="3" t="s"/>
+      <c r="A889" s="3" t="s">
+        <v>2496</v>
+      </c>
       <c r="B889" s="9" t="s"/>
-      <c r="C889" s="9" t="s"/>
+      <c r="C889" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="D889" s="5" t="s"/>
     </row>
     <row r="890" spans="1:4">
-      <c r="A890" s="3" t="s"/>
+      <c r="A890" s="3" t="s">
+        <v>2498</v>
+      </c>
       <c r="B890" s="9" t="s"/>
-      <c r="C890" s="9" t="s"/>
+      <c r="C890" s="9" t="s">
+        <v>2499</v>
+      </c>
       <c r="D890" s="5" t="s"/>
     </row>
     <row r="891" spans="1:4">
-      <c r="A891" s="3" t="s"/>
+      <c r="A891" s="3" t="s">
+        <v>2500</v>
+      </c>
       <c r="B891" s="9" t="s"/>
-      <c r="C891" s="9" t="s"/>
+      <c r="C891" s="9" t="s">
+        <v>2501</v>
+      </c>
       <c r="D891" s="5" t="s"/>
     </row>
     <row r="892" spans="1:4">
-      <c r="A892" s="3" t="s"/>
+      <c r="A892" s="3" t="s">
+        <v>2502</v>
+      </c>
       <c r="B892" s="9" t="s"/>
-      <c r="C892" s="9" t="s"/>
+      <c r="C892" s="9" t="s">
+        <v>2503</v>
+      </c>
       <c r="D892" s="5" t="s"/>
     </row>
     <row r="893" spans="1:4">
-      <c r="A893" s="3" t="s"/>
+      <c r="A893" s="3" t="s">
+        <v>2504</v>
+      </c>
       <c r="B893" s="9" t="s"/>
-      <c r="C893" s="9" t="s"/>
+      <c r="C893" s="9" t="s">
+        <v>2505</v>
+      </c>
       <c r="D893" s="5" t="s"/>
     </row>
     <row r="894" spans="1:4">
-      <c r="A894" s="3" t="s"/>
+      <c r="A894" s="3" t="s">
+        <v>2506</v>
+      </c>
       <c r="B894" s="9" t="s"/>
-      <c r="C894" s="9" t="s"/>
+      <c r="C894" s="9" t="s">
+        <v>2507</v>
+      </c>
       <c r="D894" s="5" t="s"/>
     </row>
     <row r="895" spans="1:4">
-      <c r="A895" s="3" t="s"/>
+      <c r="A895" s="3" t="s">
+        <v>2508</v>
+      </c>
       <c r="B895" s="9" t="s"/>
-      <c r="C895" s="9" t="s"/>
+      <c r="C895" s="9" t="s">
+        <v>2509</v>
+      </c>
       <c r="D895" s="5" t="s"/>
     </row>
     <row r="896" spans="1:4">
-      <c r="A896" s="3" t="s"/>
+      <c r="A896" s="3" t="s">
+        <v>2510</v>
+      </c>
       <c r="B896" s="9" t="s"/>
-      <c r="C896" s="9" t="s"/>
+      <c r="C896" s="9" t="s">
+        <v>2511</v>
+      </c>
       <c r="D896" s="5" t="s"/>
     </row>
     <row r="897" spans="1:4">
-      <c r="A897" s="3" t="s"/>
+      <c r="A897" s="3" t="s">
+        <v>2512</v>
+      </c>
       <c r="B897" s="9" t="s"/>
-      <c r="C897" s="9" t="s"/>
+      <c r="C897" s="9" t="s">
+        <v>2513</v>
+      </c>
       <c r="D897" s="5" t="s"/>
     </row>
     <row r="898" spans="1:4">
-      <c r="A898" s="3" t="s"/>
+      <c r="A898" s="3" t="s">
+        <v>2514</v>
+      </c>
       <c r="B898" s="9" t="s"/>
-      <c r="C898" s="9" t="s"/>
+      <c r="C898" s="9" t="s">
+        <v>2515</v>
+      </c>
       <c r="D898" s="5" t="s"/>
     </row>
     <row r="899" spans="1:4">
-      <c r="A899" s="3" t="s"/>
+      <c r="A899" s="3" t="s">
+        <v>2516</v>
+      </c>
       <c r="B899" s="9" t="s"/>
-      <c r="C899" s="9" t="s"/>
+      <c r="C899" s="9" t="s">
+        <v>2517</v>
+      </c>
       <c r="D899" s="5" t="s"/>
     </row>
     <row r="900" spans="1:4">
-      <c r="A900" s="3" t="s"/>
+      <c r="A900" s="3" t="s">
+        <v>2518</v>
+      </c>
       <c r="B900" s="9" t="s"/>
-      <c r="C900" s="9" t="s"/>
+      <c r="C900" s="9" t="s">
+        <v>2519</v>
+      </c>
       <c r="D900" s="5" t="s"/>
     </row>
     <row r="901" spans="1:4">
-      <c r="A901" s="3" t="s"/>
+      <c r="A901" s="3" t="s">
+        <v>2520</v>
+      </c>
       <c r="B901" s="9" t="s"/>
-      <c r="C901" s="9" t="s"/>
+      <c r="C901" s="9" t="s">
+        <v>2521</v>
+      </c>
       <c r="D901" s="5" t="s"/>
     </row>
     <row r="902" spans="1:4">
-      <c r="A902" s="3" t="s"/>
+      <c r="A902" s="3" t="s">
+        <v>2522</v>
+      </c>
       <c r="B902" s="9" t="s"/>
-      <c r="C902" s="9" t="s"/>
+      <c r="C902" s="9" t="s">
+        <v>2523</v>
+      </c>
       <c r="D902" s="5" t="s"/>
     </row>
     <row r="903" spans="1:4">
-      <c r="A903" s="3" t="s"/>
+      <c r="A903" s="3" t="s">
+        <v>2524</v>
+      </c>
       <c r="B903" s="9" t="s"/>
-      <c r="C903" s="9" t="s"/>
+      <c r="C903" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="D903" s="5" t="s"/>
     </row>
     <row r="904" spans="1:4">
-      <c r="A904" s="3" t="s"/>
+      <c r="A904" s="3" t="s">
+        <v>2526</v>
+      </c>
       <c r="B904" s="9" t="s"/>
-      <c r="C904" s="9" t="s"/>
+      <c r="C904" s="9" t="s">
+        <v>2527</v>
+      </c>
       <c r="D904" s="5" t="s"/>
     </row>
     <row r="905" spans="1:4">
-      <c r="A905" s="3" t="s"/>
+      <c r="A905" s="3" t="s">
+        <v>2528</v>
+      </c>
       <c r="B905" s="9" t="s"/>
-      <c r="C905" s="9" t="s"/>
+      <c r="C905" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="D905" s="5" t="s"/>
     </row>
     <row r="906" spans="1:4">
-      <c r="A906" s="3" t="s"/>
+      <c r="A906" s="3" t="s">
+        <v>2530</v>
+      </c>
       <c r="B906" s="9" t="s"/>
-      <c r="C906" s="9" t="s"/>
+      <c r="C906" s="9" t="s">
+        <v>2531</v>
+      </c>
       <c r="D906" s="5" t="s"/>
     </row>
     <row r="907" spans="1:4">
-      <c r="A907" s="3" t="s"/>
+      <c r="A907" s="3" t="s">
+        <v>2532</v>
+      </c>
       <c r="B907" s="9" t="s"/>
-      <c r="C907" s="9" t="s"/>
+      <c r="C907" s="9" t="s">
+        <v>2533</v>
+      </c>
       <c r="D907" s="5" t="s"/>
     </row>
     <row r="908" spans="1:4">
-      <c r="A908" s="3" t="s"/>
+      <c r="A908" s="3" t="s">
+        <v>2534</v>
+      </c>
       <c r="B908" s="9" t="s"/>
-      <c r="C908" s="9" t="s"/>
+      <c r="C908" s="9" t="s">
+        <v>2535</v>
+      </c>
       <c r="D908" s="5" t="s"/>
     </row>
     <row r="909" spans="1:4">
-      <c r="A909" s="3" t="s"/>
+      <c r="A909" s="3" t="s">
+        <v>2536</v>
+      </c>
       <c r="B909" s="9" t="s"/>
-      <c r="C909" s="9" t="s"/>
+      <c r="C909" s="9" t="s">
+        <v>2537</v>
+      </c>
       <c r="D909" s="5" t="s"/>
     </row>
     <row r="910" spans="1:4">
-      <c r="A910" s="3" t="s"/>
+      <c r="A910" s="3" t="s">
+        <v>2538</v>
+      </c>
       <c r="B910" s="9" t="s"/>
-      <c r="C910" s="9" t="s"/>
+      <c r="C910" s="9" t="s">
+        <v>2539</v>
+      </c>
       <c r="D910" s="5" t="s"/>
     </row>
     <row r="911" spans="1:4">
-      <c r="A911" s="3" t="s"/>
+      <c r="A911" s="3" t="s">
+        <v>2540</v>
+      </c>
       <c r="B911" s="9" t="s"/>
-      <c r="C911" s="9" t="s"/>
+      <c r="C911" s="9" t="s">
+        <v>2541</v>
+      </c>
       <c r="D911" s="5" t="s"/>
     </row>
     <row r="912" spans="1:4">
-      <c r="A912" s="3" t="s"/>
+      <c r="A912" s="3" t="s">
+        <v>2542</v>
+      </c>
       <c r="B912" s="9" t="s"/>
-      <c r="C912" s="9" t="s"/>
+      <c r="C912" s="9" t="s">
+        <v>2543</v>
+      </c>
       <c r="D912" s="5" t="s"/>
     </row>
     <row r="913" spans="1:4">
-      <c r="A913" s="3" t="s"/>
+      <c r="A913" s="3" t="s">
+        <v>2544</v>
+      </c>
       <c r="B913" s="9" t="s"/>
-      <c r="C913" s="9" t="s"/>
+      <c r="C913" s="9" t="s">
+        <v>2545</v>
+      </c>
       <c r="D913" s="5" t="s"/>
     </row>
     <row r="914" spans="1:4">
-      <c r="A914" s="3" t="s"/>
+      <c r="A914" s="3" t="s">
+        <v>2546</v>
+      </c>
       <c r="B914" s="9" t="s"/>
-      <c r="C914" s="9" t="s"/>
+      <c r="C914" s="9" t="s">
+        <v>2547</v>
+      </c>
       <c r="D914" s="5" t="s"/>
     </row>
     <row r="915" spans="1:4">
-      <c r="A915" s="3" t="s"/>
+      <c r="A915" s="3" t="s">
+        <v>2548</v>
+      </c>
       <c r="B915" s="9" t="s"/>
-      <c r="C915" s="9" t="s"/>
+      <c r="C915" s="9" t="s">
+        <v>2549</v>
+      </c>
       <c r="D915" s="5" t="s"/>
     </row>
     <row r="916" spans="1:4">
-      <c r="A916" s="3" t="s"/>
+      <c r="A916" s="3" t="s">
+        <v>2550</v>
+      </c>
       <c r="B916" s="9" t="s"/>
-      <c r="C916" s="9" t="s"/>
+      <c r="C916" s="9" t="s">
+        <v>2551</v>
+      </c>
       <c r="D916" s="5" t="s"/>
     </row>
     <row r="917" spans="1:4">
-      <c r="A917" s="3" t="s"/>
+      <c r="A917" s="3" t="s">
+        <v>2552</v>
+      </c>
       <c r="B917" s="9" t="s"/>
-      <c r="C917" s="9" t="s"/>
+      <c r="C917" s="9" t="s">
+        <v>2553</v>
+      </c>
       <c r="D917" s="5" t="s"/>
     </row>
     <row r="918" spans="1:4">
-      <c r="A918" s="3" t="s"/>
+      <c r="A918" s="3" t="s">
+        <v>2554</v>
+      </c>
       <c r="B918" s="9" t="s"/>
-      <c r="C918" s="9" t="s"/>
+      <c r="C918" s="9" t="s">
+        <v>2555</v>
+      </c>
       <c r="D918" s="5" t="s"/>
     </row>
     <row r="919" spans="1:4">
-      <c r="A919" s="3" t="s"/>
+      <c r="A919" s="3" t="s">
+        <v>2556</v>
+      </c>
       <c r="B919" s="9" t="s"/>
-      <c r="C919" s="9" t="s"/>
+      <c r="C919" s="9" t="s">
+        <v>2557</v>
+      </c>
       <c r="D919" s="5" t="s"/>
     </row>
     <row r="920" spans="1:4">
-      <c r="A920" s="3" t="s"/>
+      <c r="A920" s="3" t="s">
+        <v>2558</v>
+      </c>
       <c r="B920" s="9" t="s"/>
-      <c r="C920" s="9" t="s"/>
+      <c r="C920" s="9" t="s">
+        <v>2559</v>
+      </c>
       <c r="D920" s="5" t="s"/>
     </row>
     <row r="921" spans="1:4">
-      <c r="A921" s="3" t="s"/>
+      <c r="A921" s="3" t="s">
+        <v>2560</v>
+      </c>
       <c r="B921" s="9" t="s"/>
-      <c r="C921" s="9" t="s"/>
+      <c r="C921" s="9" t="s">
+        <v>2561</v>
+      </c>
       <c r="D921" s="5" t="s"/>
     </row>
     <row r="922" spans="1:4">
-      <c r="A922" s="3" t="s"/>
+      <c r="A922" s="3" t="s">
+        <v>2562</v>
+      </c>
       <c r="B922" s="9" t="s"/>
-      <c r="C922" s="9" t="s"/>
+      <c r="C922" s="9" t="s">
+        <v>2563</v>
+      </c>
       <c r="D922" s="5" t="s"/>
     </row>
     <row r="923" spans="1:4">
-      <c r="A923" s="3" t="s"/>
+      <c r="A923" s="3" t="s">
+        <v>2564</v>
+      </c>
       <c r="B923" s="9" t="s"/>
-      <c r="C923" s="9" t="s"/>
+      <c r="C923" s="9" t="s">
+        <v>2565</v>
+      </c>
       <c r="D923" s="5" t="s"/>
     </row>
     <row r="924" spans="1:4">
-      <c r="A924" s="3" t="s"/>
-      <c r="B924" s="9" t="s"/>
-      <c r="C924" s="9" t="s"/>
+      <c r="A924" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B924" s="9" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C924" s="9" t="s">
+        <v>2568</v>
+      </c>
       <c r="D924" s="5" t="s"/>
     </row>
     <row r="925" spans="1:4">
-      <c r="A925" s="3" t="s"/>
+      <c r="A925" s="3" t="s">
+        <v>2569</v>
+      </c>
       <c r="B925" s="9" t="s"/>
       <c r="C925" s="9" t="s"/>
       <c r="D925" s="5" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -3773,7 +3773,7 @@
     <t>trans0443</t>
   </si>
   <si>
-    <t>Start Open Port必须为1 ~ 65535之间的整数</t>
+    <t>开启端口必须为1 ~ 65535之间的整数</t>
   </si>
   <si>
     <t>Start Open Port is must be an integer ranging from 1 to 65535</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="2576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="2574">
   <si>
     <t/>
   </si>
@@ -989,10 +989,10 @@
     <t>trans0114</t>
   </si>
   <si>
-    <t>选定一台路由器作为主设备，在此页面将其角色设置为主设备</t>
-  </si>
-  <si>
-    <t>Select a router as the controller device, and set its role as the controller on this page</t>
+    <t>在当前页面将当前设置为主设备</t>
+  </si>
+  <si>
+    <t>Use this device  as a controller device on this page</t>
   </si>
   <si>
     <t>trans0115</t>
@@ -1133,10 +1133,10 @@
     <t>trans0130</t>
   </si>
   <si>
-    <t>将另一台路由器作为从设备，在此页面将其角色设置为从设备</t>
-  </si>
-  <si>
-    <t>Use another router as a agent device, set its role as a agent on this page</t>
+    <t>将另一台路由器作为从设备</t>
+  </si>
+  <si>
+    <t>Use another router as a agent device</t>
   </si>
   <si>
     <t>trans0131</t>
@@ -7244,27 +7244,24 @@
     <t>trans0845</t>
   </si>
   <si>
-    <t>Dm Start Time(s)</t>
+    <t>Dial Start Timer(s)</t>
   </si>
   <si>
     <t>trans0846</t>
   </si>
   <si>
-    <t>Dm Short Time(s)</t>
+    <t>Dial Short Timer(s)</t>
   </si>
   <si>
     <t>trans0847</t>
   </si>
   <si>
-    <t>Dm Long Time(s)</t>
+    <t>Dial Long Timer(s)</t>
   </si>
   <si>
     <t>trans0848</t>
   </si>
   <si>
-    <t>Dm "T" Time(s)</t>
-  </si>
-  <si>
     <t>trans0849</t>
   </si>
   <si>
@@ -7286,13 +7283,13 @@
     <t>trans0852</t>
   </si>
   <si>
-    <t>Dm"T"mode</t>
+    <t>Digitmap "T" mode</t>
   </si>
   <si>
     <t>trans0853</t>
   </si>
   <si>
-    <t>Dtmf Relay</t>
+    <t>DTMF Relay</t>
   </si>
   <si>
     <t>trans0854</t>
@@ -7364,9 +7361,6 @@
     <t>trans0865</t>
   </si>
   <si>
-    <t>Enable Low Speed Fax Echo Cancel</t>
-  </si>
-  <si>
     <t>trans0866</t>
   </si>
   <si>
@@ -7424,7 +7418,7 @@
     <t>trans0875</t>
   </si>
   <si>
-    <t>Stime Setup</t>
+    <t>ptime Setup</t>
   </si>
   <si>
     <t>trans0876</t>
@@ -7508,15 +7502,9 @@
     <t>trans0889</t>
   </si>
   <si>
-    <t>Enable Server Mix</t>
-  </si>
-  <si>
     <t>trans0890</t>
   </si>
   <si>
-    <t>Three Party Meeting Resource Access Code</t>
-  </si>
-  <si>
     <t>trans0891</t>
   </si>
   <si>
@@ -7725,6 +7713,12 @@
   </si>
   <si>
     <t>trans0925</t>
+  </si>
+  <si>
+    <t>使能 SLAAC 后将优先使用</t>
+  </si>
+  <si>
+    <t>After enabling SLAAC, it will be given priority.</t>
   </si>
   <si>
     <r>
@@ -7906,7 +7900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7984,6 +7978,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -8294,6 +8291,7 @@
   <cols>
     <col min="2" max="2" width="25.8906" customWidth="true"/>
     <col min="3" max="3" width="37.9023" customWidth="true"/>
+    <col min="4" max="4" width="19.5508" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11541,10 +11539,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -12753,10 +12751,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -12765,10 +12763,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -18378,7 +18376,9 @@
       <c r="A842" s="3" t="s">
         <v>2402</v>
       </c>
-      <c r="B842" s="9" t="s"/>
+      <c r="B842" s="9" t="s">
+        <v>2403</v>
+      </c>
       <c r="C842" s="9" t="s">
         <v>2403</v>
       </c>
@@ -18388,7 +18388,9 @@
       <c r="A843" s="3" t="s">
         <v>2404</v>
       </c>
-      <c r="B843" s="9" t="s"/>
+      <c r="B843" s="9" t="s">
+        <v>2405</v>
+      </c>
       <c r="C843" s="9" t="s">
         <v>2405</v>
       </c>
@@ -18398,7 +18400,9 @@
       <c r="A844" s="3" t="s">
         <v>2406</v>
       </c>
-      <c r="B844" s="9" t="s"/>
+      <c r="B844" s="9" t="s">
+        <v>2407</v>
+      </c>
       <c r="C844" s="9" t="s">
         <v>2407</v>
       </c>
@@ -18408,810 +18412,956 @@
       <c r="A845" s="3" t="s">
         <v>2408</v>
       </c>
-      <c r="B845" s="9" t="s"/>
+      <c r="B845" s="9" t="s">
+        <v>2409</v>
+      </c>
       <c r="C845" s="9" t="s">
         <v>2409</v>
       </c>
-      <c r="D845" s="5" t="s"/>
+      <c r="D845" s="26" t="s"/>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="3" t="s">
         <v>2410</v>
       </c>
-      <c r="B846" s="9" t="s"/>
+      <c r="B846" s="9" t="s">
+        <v>2411</v>
+      </c>
       <c r="C846" s="9" t="s">
         <v>2411</v>
       </c>
-      <c r="D846" s="5" t="s"/>
+      <c r="D846" s="26" t="s"/>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="3" t="s">
         <v>2412</v>
       </c>
-      <c r="B847" s="9" t="s"/>
+      <c r="B847" s="9" t="s">
+        <v>2413</v>
+      </c>
       <c r="C847" s="9" t="s">
         <v>2413</v>
       </c>
-      <c r="D847" s="5" t="s"/>
+      <c r="D847" s="9" t="s"/>
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="3" t="s">
         <v>2414</v>
       </c>
       <c r="B848" s="9" t="s"/>
-      <c r="C848" s="9" t="s">
-        <v>2415</v>
-      </c>
+      <c r="C848" s="9" t="s"/>
       <c r="D848" s="5" t="s"/>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="3" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B849" s="9" t="s">
         <v>2416</v>
       </c>
-      <c r="B849" s="9" t="s"/>
       <c r="C849" s="9" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D849" s="5" t="s"/>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="3" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B850" s="9" t="s">
         <v>2418</v>
       </c>
-      <c r="B850" s="9" t="s"/>
       <c r="C850" s="9" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D850" s="5" t="s"/>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B851" s="9" t="s">
         <v>2420</v>
       </c>
-      <c r="B851" s="9" t="s"/>
       <c r="C851" s="9" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D851" s="5" t="s"/>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B852" s="9" t="s">
         <v>2422</v>
       </c>
-      <c r="B852" s="9" t="s"/>
       <c r="C852" s="9" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D852" s="5" t="s"/>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="3" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B853" s="9" t="s">
         <v>2424</v>
       </c>
-      <c r="B853" s="9" t="s"/>
       <c r="C853" s="9" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D853" s="5" t="s"/>
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="3" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B854" s="9" t="s">
         <v>2426</v>
       </c>
-      <c r="B854" s="9" t="s"/>
       <c r="C854" s="9" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D854" s="5" t="s"/>
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B855" s="9" t="s">
         <v>2428</v>
       </c>
-      <c r="B855" s="9" t="s"/>
       <c r="C855" s="9" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D855" s="5" t="s"/>
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="3" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B856" s="9" t="s">
         <v>2430</v>
       </c>
-      <c r="B856" s="9" t="s"/>
       <c r="C856" s="9" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D856" s="5" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="3" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B857" s="9" t="s">
         <v>2432</v>
       </c>
-      <c r="B857" s="9" t="s"/>
       <c r="C857" s="9" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D857" s="5" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B858" s="9" t="s">
         <v>2434</v>
       </c>
-      <c r="B858" s="9" t="s"/>
       <c r="C858" s="9" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D858" s="5" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="3" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B859" s="9" t="s">
         <v>2436</v>
       </c>
-      <c r="B859" s="9" t="s"/>
       <c r="C859" s="9" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D859" s="5" t="s"/>
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B860" s="9" t="s">
         <v>2438</v>
       </c>
-      <c r="B860" s="9" t="s"/>
       <c r="C860" s="9" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D860" s="5" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B861" s="9" t="s">
         <v>2440</v>
       </c>
-      <c r="B861" s="9" t="s"/>
       <c r="C861" s="9" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D861" s="5" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="3" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B862" s="9" t="s">
         <v>2442</v>
       </c>
-      <c r="B862" s="9" t="s"/>
       <c r="C862" s="9" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D862" s="5" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B863" s="9" t="s">
         <v>2444</v>
       </c>
-      <c r="B863" s="9" t="s"/>
       <c r="C863" s="9" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D863" s="5" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B864" s="9" t="s">
         <v>2446</v>
       </c>
-      <c r="B864" s="9" t="s"/>
       <c r="C864" s="9" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D864" s="5" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="3" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B865" s="9" t="s"/>
-      <c r="C865" s="9" t="s">
-        <v>2449</v>
-      </c>
+      <c r="C865" s="9" t="s"/>
       <c r="D865" s="5" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="3" t="s">
-        <v>2450</v>
-      </c>
-      <c r="B866" s="9" t="s"/>
+        <v>2448</v>
+      </c>
+      <c r="B866" s="9" t="s">
+        <v>2449</v>
+      </c>
       <c r="C866" s="9" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="D866" s="5" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="3" t="s">
-        <v>2452</v>
-      </c>
-      <c r="B867" s="9" t="s"/>
+        <v>2450</v>
+      </c>
+      <c r="B867" s="9" t="s">
+        <v>2451</v>
+      </c>
       <c r="C867" s="9" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="D867" s="5" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="3" t="s">
-        <v>2454</v>
-      </c>
-      <c r="B868" s="9" t="s"/>
+        <v>2452</v>
+      </c>
+      <c r="B868" s="9" t="s">
+        <v>2453</v>
+      </c>
       <c r="C868" s="9" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="D868" s="5" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="3" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B869" s="9" t="s"/>
+        <v>2454</v>
+      </c>
+      <c r="B869" s="9" t="s">
+        <v>2455</v>
+      </c>
       <c r="C869" s="9" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="D869" s="5" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="3" t="s">
-        <v>2458</v>
-      </c>
-      <c r="B870" s="9" t="s"/>
+        <v>2456</v>
+      </c>
+      <c r="B870" s="9" t="s">
+        <v>2457</v>
+      </c>
       <c r="C870" s="9" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="D870" s="5" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="3" t="s">
-        <v>2460</v>
-      </c>
-      <c r="B871" s="9" t="s"/>
+        <v>2458</v>
+      </c>
+      <c r="B871" s="9" t="s">
+        <v>2459</v>
+      </c>
       <c r="C871" s="9" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="D871" s="5" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="3" t="s">
-        <v>2462</v>
-      </c>
-      <c r="B872" s="9" t="s"/>
+        <v>2460</v>
+      </c>
+      <c r="B872" s="9" t="s">
+        <v>2461</v>
+      </c>
       <c r="C872" s="9" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="D872" s="5" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="3" t="s">
-        <v>2464</v>
-      </c>
-      <c r="B873" s="9" t="s"/>
+        <v>2462</v>
+      </c>
+      <c r="B873" s="9" t="s">
+        <v>2463</v>
+      </c>
       <c r="C873" s="9" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="D873" s="5" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="3" t="s">
-        <v>2466</v>
-      </c>
-      <c r="B874" s="9" t="s"/>
+        <v>2464</v>
+      </c>
+      <c r="B874" s="9" t="s">
+        <v>2465</v>
+      </c>
       <c r="C874" s="9" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="D874" s="5" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="3" t="s">
-        <v>2468</v>
-      </c>
-      <c r="B875" s="9" t="s"/>
+        <v>2466</v>
+      </c>
+      <c r="B875" s="9" t="s">
+        <v>2467</v>
+      </c>
       <c r="C875" s="9" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="D875" s="5" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="3" t="s">
-        <v>2470</v>
-      </c>
-      <c r="B876" s="9" t="s"/>
+        <v>2468</v>
+      </c>
+      <c r="B876" s="9" t="s">
+        <v>2469</v>
+      </c>
       <c r="C876" s="9" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="D876" s="5" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="3" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B877" s="9" t="s"/>
+        <v>2470</v>
+      </c>
+      <c r="B877" s="9" t="s">
+        <v>2471</v>
+      </c>
       <c r="C877" s="9" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="D877" s="5" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="3" t="s">
-        <v>2474</v>
-      </c>
-      <c r="B878" s="9" t="s"/>
+        <v>2472</v>
+      </c>
+      <c r="B878" s="9" t="s">
+        <v>2473</v>
+      </c>
       <c r="C878" s="9" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="D878" s="5" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="3" t="s">
-        <v>2476</v>
-      </c>
-      <c r="B879" s="9" t="s"/>
+        <v>2474</v>
+      </c>
+      <c r="B879" s="9" t="s">
+        <v>2475</v>
+      </c>
       <c r="C879" s="9" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="D879" s="5" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="3" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B880" s="9" t="s"/>
+        <v>2476</v>
+      </c>
+      <c r="B880" s="9" t="s">
+        <v>2477</v>
+      </c>
       <c r="C880" s="9" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="D880" s="5" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="3" t="s">
-        <v>2480</v>
-      </c>
-      <c r="B881" s="9" t="s"/>
+        <v>2478</v>
+      </c>
+      <c r="B881" s="9" t="s">
+        <v>2479</v>
+      </c>
       <c r="C881" s="9" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="D881" s="5" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="3" t="s">
-        <v>2482</v>
-      </c>
-      <c r="B882" s="9" t="s"/>
+        <v>2480</v>
+      </c>
+      <c r="B882" s="9" t="s">
+        <v>2481</v>
+      </c>
       <c r="C882" s="9" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="D882" s="5" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="3" t="s">
-        <v>2484</v>
-      </c>
-      <c r="B883" s="9" t="s"/>
+        <v>2482</v>
+      </c>
+      <c r="B883" s="9" t="s">
+        <v>2483</v>
+      </c>
       <c r="C883" s="9" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="D883" s="5" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="3" t="s">
-        <v>2486</v>
-      </c>
-      <c r="B884" s="9" t="s"/>
+        <v>2484</v>
+      </c>
+      <c r="B884" s="9" t="s">
+        <v>2485</v>
+      </c>
       <c r="C884" s="9" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="D884" s="5" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="3" t="s">
-        <v>2488</v>
-      </c>
-      <c r="B885" s="9" t="s"/>
+        <v>2486</v>
+      </c>
+      <c r="B885" s="9" t="s">
+        <v>2487</v>
+      </c>
       <c r="C885" s="9" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="D885" s="5" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="3" t="s">
-        <v>2490</v>
-      </c>
-      <c r="B886" s="9" t="s"/>
+        <v>2488</v>
+      </c>
+      <c r="B886" s="9" t="s">
+        <v>2489</v>
+      </c>
       <c r="C886" s="9" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="D886" s="5" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="3" t="s">
-        <v>2492</v>
-      </c>
-      <c r="B887" s="9" t="s"/>
+        <v>2490</v>
+      </c>
+      <c r="B887" s="9" t="s">
+        <v>2491</v>
+      </c>
       <c r="C887" s="9" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="D887" s="5" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="3" t="s">
-        <v>2494</v>
-      </c>
-      <c r="B888" s="9" t="s"/>
+        <v>2492</v>
+      </c>
+      <c r="B888" s="9" t="s">
+        <v>2493</v>
+      </c>
       <c r="C888" s="9" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="D888" s="5" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="3" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B889" s="9" t="s"/>
-      <c r="C889" s="9" t="s">
-        <v>2497</v>
-      </c>
+      <c r="C889" s="9" t="s"/>
       <c r="D889" s="5" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="3" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="B890" s="9" t="s"/>
-      <c r="C890" s="9" t="s">
-        <v>2499</v>
-      </c>
+      <c r="C890" s="9" t="s"/>
       <c r="D890" s="5" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="3" t="s">
-        <v>2500</v>
-      </c>
-      <c r="B891" s="9" t="s"/>
+        <v>2496</v>
+      </c>
+      <c r="B891" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="C891" s="9" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="D891" s="5" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="3" t="s">
-        <v>2502</v>
-      </c>
-      <c r="B892" s="9" t="s"/>
+        <v>2498</v>
+      </c>
+      <c r="B892" s="9" t="s">
+        <v>2499</v>
+      </c>
       <c r="C892" s="9" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="D892" s="5" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="3" t="s">
-        <v>2504</v>
-      </c>
-      <c r="B893" s="9" t="s"/>
+        <v>2500</v>
+      </c>
+      <c r="B893" s="9" t="s">
+        <v>2501</v>
+      </c>
       <c r="C893" s="9" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="D893" s="5" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="3" t="s">
-        <v>2506</v>
-      </c>
-      <c r="B894" s="9" t="s"/>
+        <v>2502</v>
+      </c>
+      <c r="B894" s="9" t="s">
+        <v>2503</v>
+      </c>
       <c r="C894" s="9" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="D894" s="5" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="3" t="s">
-        <v>2508</v>
-      </c>
-      <c r="B895" s="9" t="s"/>
+        <v>2504</v>
+      </c>
+      <c r="B895" s="9" t="s">
+        <v>2505</v>
+      </c>
       <c r="C895" s="9" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="D895" s="5" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="3" t="s">
-        <v>2510</v>
-      </c>
-      <c r="B896" s="9" t="s"/>
+        <v>2506</v>
+      </c>
+      <c r="B896" s="9" t="s">
+        <v>2507</v>
+      </c>
       <c r="C896" s="9" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="D896" s="5" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="3" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B897" s="9" t="s"/>
+        <v>2508</v>
+      </c>
+      <c r="B897" s="9" t="s">
+        <v>2509</v>
+      </c>
       <c r="C897" s="9" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="D897" s="5" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="3" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B898" s="9" t="s"/>
+        <v>2510</v>
+      </c>
+      <c r="B898" s="9" t="s">
+        <v>2511</v>
+      </c>
       <c r="C898" s="9" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="D898" s="5" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="3" t="s">
-        <v>2516</v>
-      </c>
-      <c r="B899" s="9" t="s"/>
+        <v>2512</v>
+      </c>
+      <c r="B899" s="9" t="s">
+        <v>2513</v>
+      </c>
       <c r="C899" s="9" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="D899" s="5" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="3" t="s">
-        <v>2518</v>
-      </c>
-      <c r="B900" s="9" t="s"/>
+        <v>2514</v>
+      </c>
+      <c r="B900" s="9" t="s">
+        <v>2515</v>
+      </c>
       <c r="C900" s="9" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="D900" s="5" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="3" t="s">
-        <v>2520</v>
-      </c>
-      <c r="B901" s="9" t="s"/>
+        <v>2516</v>
+      </c>
+      <c r="B901" s="9" t="s">
+        <v>2517</v>
+      </c>
       <c r="C901" s="9" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="D901" s="5" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="3" t="s">
-        <v>2522</v>
-      </c>
-      <c r="B902" s="9" t="s"/>
+        <v>2518</v>
+      </c>
+      <c r="B902" s="9" t="s">
+        <v>2519</v>
+      </c>
       <c r="C902" s="9" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="D902" s="5" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="3" t="s">
-        <v>2524</v>
-      </c>
-      <c r="B903" s="9" t="s"/>
+        <v>2520</v>
+      </c>
+      <c r="B903" s="9" t="s">
+        <v>2521</v>
+      </c>
       <c r="C903" s="9" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="D903" s="5" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="3" t="s">
-        <v>2526</v>
-      </c>
-      <c r="B904" s="9" t="s"/>
+        <v>2522</v>
+      </c>
+      <c r="B904" s="9" t="s">
+        <v>2523</v>
+      </c>
       <c r="C904" s="9" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="D904" s="5" t="s"/>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="3" t="s">
-        <v>2528</v>
-      </c>
-      <c r="B905" s="9" t="s"/>
+        <v>2524</v>
+      </c>
+      <c r="B905" s="9" t="s">
+        <v>2525</v>
+      </c>
       <c r="C905" s="9" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="D905" s="5" t="s"/>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="3" t="s">
-        <v>2530</v>
-      </c>
-      <c r="B906" s="9" t="s"/>
+        <v>2526</v>
+      </c>
+      <c r="B906" s="9" t="s">
+        <v>2527</v>
+      </c>
       <c r="C906" s="9" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="D906" s="5" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="3" t="s">
-        <v>2532</v>
-      </c>
-      <c r="B907" s="9" t="s"/>
+        <v>2528</v>
+      </c>
+      <c r="B907" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="C907" s="9" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="D907" s="5" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="3" t="s">
-        <v>2534</v>
-      </c>
-      <c r="B908" s="9" t="s"/>
+        <v>2530</v>
+      </c>
+      <c r="B908" s="9" t="s">
+        <v>2531</v>
+      </c>
       <c r="C908" s="9" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="D908" s="5" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="3" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B909" s="9" t="s"/>
+        <v>2532</v>
+      </c>
+      <c r="B909" s="9" t="s">
+        <v>2533</v>
+      </c>
       <c r="C909" s="9" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="D909" s="5" t="s"/>
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="3" t="s">
-        <v>2538</v>
-      </c>
-      <c r="B910" s="9" t="s"/>
+        <v>2534</v>
+      </c>
+      <c r="B910" s="9" t="s">
+        <v>2535</v>
+      </c>
       <c r="C910" s="9" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="D910" s="5" t="s"/>
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="3" t="s">
-        <v>2540</v>
-      </c>
-      <c r="B911" s="9" t="s"/>
+        <v>2536</v>
+      </c>
+      <c r="B911" s="9" t="s">
+        <v>2537</v>
+      </c>
       <c r="C911" s="9" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="D911" s="5" t="s"/>
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="3" t="s">
-        <v>2542</v>
-      </c>
-      <c r="B912" s="9" t="s"/>
+        <v>2538</v>
+      </c>
+      <c r="B912" s="9" t="s">
+        <v>2539</v>
+      </c>
       <c r="C912" s="9" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="D912" s="5" t="s"/>
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="3" t="s">
-        <v>2544</v>
-      </c>
-      <c r="B913" s="9" t="s"/>
+        <v>2540</v>
+      </c>
+      <c r="B913" s="9" t="s">
+        <v>2541</v>
+      </c>
       <c r="C913" s="9" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="D913" s="5" t="s"/>
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="3" t="s">
-        <v>2546</v>
-      </c>
-      <c r="B914" s="9" t="s"/>
+        <v>2542</v>
+      </c>
+      <c r="B914" s="9" t="s">
+        <v>2543</v>
+      </c>
       <c r="C914" s="9" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="D914" s="5" t="s"/>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="3" t="s">
-        <v>2548</v>
-      </c>
-      <c r="B915" s="9" t="s"/>
+        <v>2544</v>
+      </c>
+      <c r="B915" s="9" t="s">
+        <v>2545</v>
+      </c>
       <c r="C915" s="9" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="D915" s="5" t="s"/>
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="3" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B916" s="9" t="s"/>
+        <v>2546</v>
+      </c>
+      <c r="B916" s="9" t="s">
+        <v>2547</v>
+      </c>
       <c r="C916" s="9" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="D916" s="5" t="s"/>
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="3" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B917" s="9" t="s"/>
+        <v>2548</v>
+      </c>
+      <c r="B917" s="9" t="s">
+        <v>2549</v>
+      </c>
       <c r="C917" s="9" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="D917" s="5" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="3" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B918" s="9" t="s"/>
+        <v>2550</v>
+      </c>
+      <c r="B918" s="9" t="s">
+        <v>2551</v>
+      </c>
       <c r="C918" s="9" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="D918" s="5" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="3" t="s">
-        <v>2556</v>
-      </c>
-      <c r="B919" s="9" t="s"/>
+        <v>2552</v>
+      </c>
+      <c r="B919" s="9" t="s">
+        <v>2553</v>
+      </c>
       <c r="C919" s="9" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="D919" s="5" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="3" t="s">
-        <v>2558</v>
-      </c>
-      <c r="B920" s="9" t="s"/>
+        <v>2554</v>
+      </c>
+      <c r="B920" s="9" t="s">
+        <v>2555</v>
+      </c>
       <c r="C920" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="D920" s="5" t="s"/>
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="3" t="s">
-        <v>2560</v>
-      </c>
-      <c r="B921" s="9" t="s"/>
+        <v>2556</v>
+      </c>
+      <c r="B921" s="9" t="s">
+        <v>2557</v>
+      </c>
       <c r="C921" s="9" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="D921" s="5" t="s"/>
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="3" t="s">
-        <v>2562</v>
-      </c>
-      <c r="B922" s="9" t="s"/>
+        <v>2558</v>
+      </c>
+      <c r="B922" s="9" t="s">
+        <v>2559</v>
+      </c>
       <c r="C922" s="9" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="D922" s="5" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="3" t="s">
-        <v>2564</v>
-      </c>
-      <c r="B923" s="9" t="s"/>
+        <v>2560</v>
+      </c>
+      <c r="B923" s="9" t="s">
+        <v>2561</v>
+      </c>
       <c r="C923" s="9" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="D923" s="5" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="3" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="B924" s="9" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="C924" s="9" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="D924" s="5" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="3" t="s">
-        <v>2569</v>
-      </c>
-      <c r="B925" s="9" t="s"/>
-      <c r="C925" s="9" t="s"/>
+        <v>2565</v>
+      </c>
+      <c r="B925" s="9" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C925" s="9" t="s">
+        <v>2567</v>
+      </c>
       <c r="D925" s="5" t="s"/>
     </row>
     <row r="926" spans="1:4">

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="2574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="2578">
   <si>
     <t/>
   </si>
@@ -648,7 +648,7 @@
     <t>trans0075</t>
   </si>
   <si>
-    <t>路由器重启</t>
+    <t>重启</t>
   </si>
   <si>
     <t>Restart</t>
@@ -866,7 +866,7 @@
     <t>trans0099</t>
   </si>
   <si>
-    <t>静态DNS</t>
+    <t>静态 DNS</t>
   </si>
   <si>
     <t>Static DNS</t>
@@ -4643,7 +4643,7 @@
     <t>trans0544</t>
   </si>
   <si>
-    <t>%s基础网络</t>
+    <t>%s 基础网络</t>
   </si>
   <si>
     <t>%s Basic Network</t>
@@ -5222,7 +5222,7 @@
     <t>trans0611</t>
   </si>
   <si>
-    <t>%s高级网络</t>
+    <t>%s 高级网络</t>
   </si>
   <si>
     <t>%s Advanced Network</t>
@@ -6686,10 +6686,10 @@
     <t>trans0779</t>
   </si>
   <si>
-    <t>SLAAC 开关</t>
-  </si>
-  <si>
-    <t>Enable SLAAC</t>
+    <t>切换%s将丢弃当前配置，确认继续吗？</t>
+  </si>
+  <si>
+    <t>Switching %s will discard the current configuration. Are you sure to continue?</t>
   </si>
   <si>
     <t>trans0780</t>
@@ -7139,7 +7139,7 @@
     <t>trans0832</t>
   </si>
   <si>
-    <t>URL过滤</t>
+    <t>URL 过滤</t>
   </si>
   <si>
     <t>URL Filter</t>
@@ -7148,7 +7148,7 @@
     <t>trans0833</t>
   </si>
   <si>
-    <t>MAC过滤</t>
+    <t>MAC 过滤</t>
   </si>
   <si>
     <t>MAC Filter</t>
@@ -7262,6 +7262,12 @@
     <t>trans0848</t>
   </si>
   <si>
+    <t>连接模式</t>
+  </si>
+  <si>
+    <t>Link Mode</t>
+  </si>
+  <si>
     <t>trans0849</t>
   </si>
   <si>
@@ -7361,6 +7367,12 @@
     <t>trans0865</t>
   </si>
   <si>
+    <t>通过 PPP</t>
+  </si>
+  <si>
+    <t>Connect via PPP</t>
+  </si>
+  <si>
     <t>trans0866</t>
   </si>
   <si>
@@ -7502,6 +7514,12 @@
     <t>trans0889</t>
   </si>
   <si>
+    <t>通过 IP</t>
+  </si>
+  <si>
+    <t>Connect via IP</t>
+  </si>
+  <si>
     <t>trans0890</t>
   </si>
   <si>
@@ -7713,12 +7731,6 @@
   </si>
   <si>
     <t>trans0925</t>
-  </si>
-  <si>
-    <t>使能 SLAAC 后将优先使用</t>
-  </si>
-  <si>
-    <t>After enabling SLAAC, it will be given priority.</t>
   </si>
   <si>
     <r>
@@ -11539,10 +11551,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2568</v>
+        <v>2572</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -12751,10 +12763,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -12763,10 +12775,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -18448,497 +18460,509 @@
       <c r="A848" s="3" t="s">
         <v>2414</v>
       </c>
-      <c r="B848" s="9" t="s"/>
-      <c r="C848" s="9" t="s"/>
+      <c r="B848" s="9" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C848" s="9" t="s">
+        <v>2416</v>
+      </c>
       <c r="D848" s="5" t="s"/>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="3" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="B849" s="9" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="C849" s="9" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="D849" s="5" t="s"/>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="3" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="B850" s="9" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="C850" s="9" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="D850" s="5" t="s"/>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="3" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="B851" s="9" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="C851" s="9" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="D851" s="5" t="s"/>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="3" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="B852" s="9" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="C852" s="9" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="D852" s="5" t="s"/>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="3" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="B853" s="9" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="C853" s="9" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="D853" s="5" t="s"/>
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="3" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="B854" s="9" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="C854" s="9" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="D854" s="5" t="s"/>
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="3" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="B855" s="9" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="C855" s="9" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="D855" s="5" t="s"/>
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="3" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="B856" s="9" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="C856" s="9" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="D856" s="5" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="3" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="B857" s="9" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="C857" s="9" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="D857" s="5" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="3" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="B858" s="9" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="C858" s="9" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="D858" s="5" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="3" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="B859" s="9" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="C859" s="9" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="D859" s="5" t="s"/>
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="3" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="B860" s="9" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="C860" s="9" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="D860" s="5" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="3" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="B861" s="9" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="C861" s="9" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="D861" s="5" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="3" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="B862" s="9" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="C862" s="9" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="D862" s="5" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="3" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="B863" s="9" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="C863" s="9" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="D863" s="5" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="3" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="B864" s="9" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="C864" s="9" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="D864" s="5" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="3" t="s">
-        <v>2447</v>
-      </c>
-      <c r="B865" s="9" t="s"/>
-      <c r="C865" s="9" t="s"/>
+        <v>2449</v>
+      </c>
+      <c r="B865" s="9" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C865" s="9" t="s">
+        <v>2451</v>
+      </c>
       <c r="D865" s="5" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="3" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="B866" s="9" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="C866" s="9" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="D866" s="5" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="3" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="B867" s="9" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="C867" s="9" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="D867" s="5" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="3" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="B868" s="9" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="C868" s="9" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="D868" s="5" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="3" t="s">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="B869" s="9" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="C869" s="9" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="D869" s="5" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="3" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="B870" s="9" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="C870" s="9" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="D870" s="5" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="3" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="B871" s="9" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="C871" s="9" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="D871" s="5" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="3" t="s">
-        <v>2460</v>
+        <v>2464</v>
       </c>
       <c r="B872" s="9" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="C872" s="9" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="D872" s="5" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="3" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="B873" s="9" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="C873" s="9" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="D873" s="5" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="3" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="B874" s="9" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="C874" s="9" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="D874" s="5" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="3" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="B875" s="9" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="C875" s="9" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="D875" s="5" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="3" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="B876" s="9" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="C876" s="9" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="D876" s="5" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="3" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="B877" s="9" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="C877" s="9" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="D877" s="5" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="3" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="B878" s="9" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="C878" s="9" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="D878" s="5" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="3" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
       <c r="B879" s="9" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="C879" s="9" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="D879" s="5" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="3" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="B880" s="9" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="C880" s="9" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="D880" s="5" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="3" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
       <c r="B881" s="9" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="C881" s="9" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="D881" s="5" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="3" t="s">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="B882" s="9" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="C882" s="9" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="D882" s="5" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="3" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
       <c r="B883" s="9" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="C883" s="9" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="D883" s="5" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="3" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="B884" s="9" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="C884" s="9" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="D884" s="5" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="3" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="B885" s="9" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="C885" s="9" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="D885" s="5" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="3" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="B886" s="9" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
       <c r="C886" s="9" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
       <c r="D886" s="5" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="3" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="B887" s="9" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="C887" s="9" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="D887" s="5" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="3" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="B888" s="9" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="C888" s="9" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="D888" s="5" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="3" t="s">
-        <v>2494</v>
-      </c>
-      <c r="B889" s="9" t="s"/>
-      <c r="C889" s="9" t="s"/>
+        <v>2498</v>
+      </c>
+      <c r="B889" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C889" s="9" t="s">
+        <v>2500</v>
+      </c>
       <c r="D889" s="5" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="3" t="s">
-        <v>2495</v>
+        <v>2501</v>
       </c>
       <c r="B890" s="9" t="s"/>
       <c r="C890" s="9" t="s"/>
@@ -18946,422 +18970,418 @@
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="3" t="s">
-        <v>2496</v>
+        <v>2502</v>
       </c>
       <c r="B891" s="9" t="s">
-        <v>2497</v>
+        <v>2503</v>
       </c>
       <c r="C891" s="9" t="s">
-        <v>2497</v>
+        <v>2503</v>
       </c>
       <c r="D891" s="5" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="3" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="B892" s="9" t="s">
-        <v>2499</v>
+        <v>2505</v>
       </c>
       <c r="C892" s="9" t="s">
-        <v>2499</v>
+        <v>2505</v>
       </c>
       <c r="D892" s="5" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="3" t="s">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="B893" s="9" t="s">
-        <v>2501</v>
+        <v>2507</v>
       </c>
       <c r="C893" s="9" t="s">
-        <v>2501</v>
+        <v>2507</v>
       </c>
       <c r="D893" s="5" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="3" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="B894" s="9" t="s">
-        <v>2503</v>
+        <v>2509</v>
       </c>
       <c r="C894" s="9" t="s">
-        <v>2503</v>
+        <v>2509</v>
       </c>
       <c r="D894" s="5" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="3" t="s">
-        <v>2504</v>
+        <v>2510</v>
       </c>
       <c r="B895" s="9" t="s">
-        <v>2505</v>
+        <v>2511</v>
       </c>
       <c r="C895" s="9" t="s">
-        <v>2505</v>
+        <v>2511</v>
       </c>
       <c r="D895" s="5" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="3" t="s">
-        <v>2506</v>
+        <v>2512</v>
       </c>
       <c r="B896" s="9" t="s">
-        <v>2507</v>
+        <v>2513</v>
       </c>
       <c r="C896" s="9" t="s">
-        <v>2507</v>
+        <v>2513</v>
       </c>
       <c r="D896" s="5" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="3" t="s">
-        <v>2508</v>
+        <v>2514</v>
       </c>
       <c r="B897" s="9" t="s">
-        <v>2509</v>
+        <v>2515</v>
       </c>
       <c r="C897" s="9" t="s">
-        <v>2509</v>
+        <v>2515</v>
       </c>
       <c r="D897" s="5" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="3" t="s">
-        <v>2510</v>
+        <v>2516</v>
       </c>
       <c r="B898" s="9" t="s">
-        <v>2511</v>
+        <v>2517</v>
       </c>
       <c r="C898" s="9" t="s">
-        <v>2511</v>
+        <v>2517</v>
       </c>
       <c r="D898" s="5" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="3" t="s">
-        <v>2512</v>
+        <v>2518</v>
       </c>
       <c r="B899" s="9" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
       <c r="C899" s="9" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
       <c r="D899" s="5" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="3" t="s">
-        <v>2514</v>
+        <v>2520</v>
       </c>
       <c r="B900" s="9" t="s">
-        <v>2515</v>
+        <v>2521</v>
       </c>
       <c r="C900" s="9" t="s">
-        <v>2515</v>
+        <v>2521</v>
       </c>
       <c r="D900" s="5" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="3" t="s">
-        <v>2516</v>
+        <v>2522</v>
       </c>
       <c r="B901" s="9" t="s">
-        <v>2517</v>
+        <v>2523</v>
       </c>
       <c r="C901" s="9" t="s">
-        <v>2517</v>
+        <v>2523</v>
       </c>
       <c r="D901" s="5" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="3" t="s">
-        <v>2518</v>
+        <v>2524</v>
       </c>
       <c r="B902" s="9" t="s">
-        <v>2519</v>
+        <v>2525</v>
       </c>
       <c r="C902" s="9" t="s">
-        <v>2519</v>
+        <v>2525</v>
       </c>
       <c r="D902" s="5" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="3" t="s">
-        <v>2520</v>
+        <v>2526</v>
       </c>
       <c r="B903" s="9" t="s">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="C903" s="9" t="s">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="D903" s="5" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="3" t="s">
-        <v>2522</v>
+        <v>2528</v>
       </c>
       <c r="B904" s="9" t="s">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="C904" s="9" t="s">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="D904" s="5" t="s"/>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="3" t="s">
-        <v>2524</v>
+        <v>2530</v>
       </c>
       <c r="B905" s="9" t="s">
-        <v>2525</v>
+        <v>2531</v>
       </c>
       <c r="C905" s="9" t="s">
-        <v>2525</v>
+        <v>2531</v>
       </c>
       <c r="D905" s="5" t="s"/>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="3" t="s">
-        <v>2526</v>
+        <v>2532</v>
       </c>
       <c r="B906" s="9" t="s">
-        <v>2527</v>
+        <v>2533</v>
       </c>
       <c r="C906" s="9" t="s">
-        <v>2527</v>
+        <v>2533</v>
       </c>
       <c r="D906" s="5" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="3" t="s">
-        <v>2528</v>
+        <v>2534</v>
       </c>
       <c r="B907" s="9" t="s">
-        <v>2529</v>
+        <v>2535</v>
       </c>
       <c r="C907" s="9" t="s">
-        <v>2529</v>
+        <v>2535</v>
       </c>
       <c r="D907" s="5" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="3" t="s">
-        <v>2530</v>
+        <v>2536</v>
       </c>
       <c r="B908" s="9" t="s">
-        <v>2531</v>
+        <v>2537</v>
       </c>
       <c r="C908" s="9" t="s">
-        <v>2531</v>
+        <v>2537</v>
       </c>
       <c r="D908" s="5" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="3" t="s">
-        <v>2532</v>
+        <v>2538</v>
       </c>
       <c r="B909" s="9" t="s">
-        <v>2533</v>
+        <v>2539</v>
       </c>
       <c r="C909" s="9" t="s">
-        <v>2533</v>
+        <v>2539</v>
       </c>
       <c r="D909" s="5" t="s"/>
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="3" t="s">
-        <v>2534</v>
+        <v>2540</v>
       </c>
       <c r="B910" s="9" t="s">
-        <v>2535</v>
+        <v>2541</v>
       </c>
       <c r="C910" s="9" t="s">
-        <v>2535</v>
+        <v>2541</v>
       </c>
       <c r="D910" s="5" t="s"/>
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="3" t="s">
-        <v>2536</v>
+        <v>2542</v>
       </c>
       <c r="B911" s="9" t="s">
-        <v>2537</v>
+        <v>2543</v>
       </c>
       <c r="C911" s="9" t="s">
-        <v>2537</v>
+        <v>2543</v>
       </c>
       <c r="D911" s="5" t="s"/>
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="3" t="s">
-        <v>2538</v>
+        <v>2544</v>
       </c>
       <c r="B912" s="9" t="s">
-        <v>2539</v>
+        <v>2545</v>
       </c>
       <c r="C912" s="9" t="s">
-        <v>2539</v>
+        <v>2545</v>
       </c>
       <c r="D912" s="5" t="s"/>
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="3" t="s">
-        <v>2540</v>
+        <v>2546</v>
       </c>
       <c r="B913" s="9" t="s">
-        <v>2541</v>
+        <v>2547</v>
       </c>
       <c r="C913" s="9" t="s">
-        <v>2541</v>
+        <v>2547</v>
       </c>
       <c r="D913" s="5" t="s"/>
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="3" t="s">
-        <v>2542</v>
+        <v>2548</v>
       </c>
       <c r="B914" s="9" t="s">
-        <v>2543</v>
+        <v>2549</v>
       </c>
       <c r="C914" s="9" t="s">
-        <v>2543</v>
+        <v>2549</v>
       </c>
       <c r="D914" s="5" t="s"/>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="3" t="s">
-        <v>2544</v>
+        <v>2550</v>
       </c>
       <c r="B915" s="9" t="s">
-        <v>2545</v>
+        <v>2551</v>
       </c>
       <c r="C915" s="9" t="s">
-        <v>2545</v>
+        <v>2551</v>
       </c>
       <c r="D915" s="5" t="s"/>
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="3" t="s">
-        <v>2546</v>
+        <v>2552</v>
       </c>
       <c r="B916" s="9" t="s">
-        <v>2547</v>
+        <v>2553</v>
       </c>
       <c r="C916" s="9" t="s">
-        <v>2547</v>
+        <v>2553</v>
       </c>
       <c r="D916" s="5" t="s"/>
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="3" t="s">
-        <v>2548</v>
+        <v>2554</v>
       </c>
       <c r="B917" s="9" t="s">
-        <v>2549</v>
+        <v>2555</v>
       </c>
       <c r="C917" s="9" t="s">
-        <v>2549</v>
+        <v>2555</v>
       </c>
       <c r="D917" s="5" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="3" t="s">
-        <v>2550</v>
+        <v>2556</v>
       </c>
       <c r="B918" s="9" t="s">
-        <v>2551</v>
+        <v>2557</v>
       </c>
       <c r="C918" s="9" t="s">
-        <v>2551</v>
+        <v>2557</v>
       </c>
       <c r="D918" s="5" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="3" t="s">
-        <v>2552</v>
+        <v>2558</v>
       </c>
       <c r="B919" s="9" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="C919" s="9" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="D919" s="5" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="3" t="s">
-        <v>2554</v>
+        <v>2560</v>
       </c>
       <c r="B920" s="9" t="s">
-        <v>2555</v>
+        <v>2561</v>
       </c>
       <c r="C920" s="9" t="s">
-        <v>2555</v>
+        <v>2561</v>
       </c>
       <c r="D920" s="5" t="s"/>
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="3" t="s">
-        <v>2556</v>
+        <v>2562</v>
       </c>
       <c r="B921" s="9" t="s">
-        <v>2557</v>
+        <v>2563</v>
       </c>
       <c r="C921" s="9" t="s">
-        <v>2557</v>
+        <v>2563</v>
       </c>
       <c r="D921" s="5" t="s"/>
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="3" t="s">
-        <v>2558</v>
+        <v>2564</v>
       </c>
       <c r="B922" s="9" t="s">
-        <v>2559</v>
+        <v>2565</v>
       </c>
       <c r="C922" s="9" t="s">
-        <v>2559</v>
+        <v>2565</v>
       </c>
       <c r="D922" s="5" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="3" t="s">
-        <v>2560</v>
+        <v>2566</v>
       </c>
       <c r="B923" s="9" t="s">
-        <v>2561</v>
+        <v>2567</v>
       </c>
       <c r="C923" s="9" t="s">
-        <v>2561</v>
+        <v>2567</v>
       </c>
       <c r="D923" s="5" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="3" t="s">
-        <v>2562</v>
+        <v>2568</v>
       </c>
       <c r="B924" s="9" t="s">
-        <v>2563</v>
+        <v>2569</v>
       </c>
       <c r="C924" s="9" t="s">
-        <v>2564</v>
+        <v>2570</v>
       </c>
       <c r="D924" s="5" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="3" t="s">
-        <v>2565</v>
-      </c>
-      <c r="B925" s="9" t="s">
-        <v>2566</v>
-      </c>
-      <c r="C925" s="9" t="s">
-        <v>2567</v>
-      </c>
+        <v>2571</v>
+      </c>
+      <c r="B925" s="9" t="s"/>
+      <c r="C925" s="9" t="s"/>
       <c r="D925" s="5" t="s"/>
     </row>
     <row r="926" spans="1:4">

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -1895,10 +1895,10 @@
     <t>trans0222</t>
   </si>
   <si>
-    <t>未选择升级文件</t>
-  </si>
-  <si>
-    <t>The upgrade file is not selected</t>
+    <t>未选择文件</t>
+  </si>
+  <si>
+    <t>The file is not selected</t>
   </si>
   <si>
     <t>trans0223</t>
@@ -4154,7 +4154,7 @@
     <t>分配地址格式</t>
   </si>
   <si>
-    <t>Allocation Address Format</t>
+    <t>Address Assignment Format</t>
   </si>
   <si>
     <t>trans0490</t>
@@ -6686,10 +6686,10 @@
     <t>trans0779</t>
   </si>
   <si>
-    <t>切换%s将丢弃当前配置，确认继续吗？</t>
-  </si>
-  <si>
-    <t>Switching %s will discard the current configuration. Are you sure to continue?</t>
+    <t>切换%s将放弃当前配置，确认继续吗？</t>
+  </si>
+  <si>
+    <t>Switching %s will abandon the current configuration. Are you sure to continue?</t>
   </si>
   <si>
     <t>trans0780</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="2578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="2580">
   <si>
     <t/>
   </si>
@@ -7521,6 +7521,12 @@
   </si>
   <si>
     <t>trans0890</t>
+  </si>
+  <si>
+    <t>开启双频合一后，2.4G 和 5G 的名称和密码将设置为一样的</t>
+  </si>
+  <si>
+    <t>After enabling the bandsteering function, the 2.4G and 5G wireless names and passwords will be automatically configured to be the same</t>
   </si>
   <si>
     <t>trans0891</t>
@@ -11551,10 +11557,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="D271" s="5" t="s"/>
     </row>
@@ -12763,10 +12769,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="D372" s="5" t="s"/>
     </row>
@@ -12775,10 +12781,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="D373" s="5" t="s"/>
     </row>
@@ -18964,421 +18970,425 @@
       <c r="A890" s="3" t="s">
         <v>2501</v>
       </c>
-      <c r="B890" s="9" t="s"/>
-      <c r="C890" s="9" t="s"/>
+      <c r="B890" s="9" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C890" s="9" t="s">
+        <v>2503</v>
+      </c>
       <c r="D890" s="5" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="3" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="B891" s="9" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="C891" s="9" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="D891" s="5" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="3" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="B892" s="9" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="C892" s="9" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="D892" s="5" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="3" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="B893" s="9" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="C893" s="9" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="D893" s="5" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="3" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="B894" s="9" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="C894" s="9" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="D894" s="5" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="3" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="B895" s="9" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="C895" s="9" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="D895" s="5" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="3" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="B896" s="9" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="C896" s="9" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="D896" s="5" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="3" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="B897" s="9" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="C897" s="9" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="D897" s="5" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="3" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="B898" s="9" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="C898" s="9" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="D898" s="5" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="3" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="B899" s="9" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="C899" s="9" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="D899" s="5" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="3" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="B900" s="9" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="C900" s="9" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="D900" s="5" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="3" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="B901" s="9" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="C901" s="9" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="D901" s="5" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="3" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="B902" s="9" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="C902" s="9" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="D902" s="5" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="3" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="B903" s="9" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="C903" s="9" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="D903" s="5" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="3" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="B904" s="9" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="C904" s="9" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="D904" s="5" t="s"/>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="3" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="B905" s="9" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="C905" s="9" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="D905" s="5" t="s"/>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="3" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="B906" s="9" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="C906" s="9" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="D906" s="5" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="3" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="B907" s="9" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="C907" s="9" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="D907" s="5" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="3" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="B908" s="9" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="C908" s="9" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="D908" s="5" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="3" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="B909" s="9" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="C909" s="9" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="D909" s="5" t="s"/>
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="3" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="B910" s="9" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="C910" s="9" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="D910" s="5" t="s"/>
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="3" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="B911" s="9" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="C911" s="9" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="D911" s="5" t="s"/>
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="3" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="B912" s="9" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="C912" s="9" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="D912" s="5" t="s"/>
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="3" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="B913" s="9" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C913" s="9" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="D913" s="5" t="s"/>
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="3" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="B914" s="9" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="C914" s="9" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="D914" s="5" t="s"/>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="3" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="B915" s="9" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C915" s="9" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="D915" s="5" t="s"/>
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="3" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="B916" s="9" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="C916" s="9" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="D916" s="5" t="s"/>
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="3" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="B917" s="9" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="C917" s="9" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="D917" s="5" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="3" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="B918" s="9" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="C918" s="9" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="D918" s="5" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="3" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="B919" s="9" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="C919" s="9" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="D919" s="5" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="3" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="B920" s="9" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="C920" s="9" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="D920" s="5" t="s"/>
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="3" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="B921" s="9" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="C921" s="9" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="D921" s="5" t="s"/>
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="3" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B922" s="9" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="C922" s="9" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="D922" s="5" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="3" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="B923" s="9" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="C923" s="9" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D923" s="5" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="3" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="B924" s="9" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="C924" s="9" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="D924" s="5" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="3" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="B925" s="9" t="s"/>
       <c r="C925" s="9" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -3482,10 +3482,10 @@
     <t>trans0409</t>
   </si>
   <si>
-    <t>确定删除吗？</t>
-  </si>
-  <si>
-    <t>confirm to delete?</t>
+    <t>确定删除选择的规则吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to delete the selected rule?</t>
   </si>
   <si>
     <t>trans0410</t>
@@ -4154,7 +4154,7 @@
     <t>分配地址格式</t>
   </si>
   <si>
-    <t>Address Assignment Format</t>
+    <t>Address Assignment Mode</t>
   </si>
   <si>
     <t>trans0490</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="2582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="2614">
   <si>
     <t/>
   </si>
@@ -3515,6 +3515,12 @@
     <t>trans0412</t>
   </si>
   <si>
+    <t>连接中断</t>
+  </si>
+  <si>
+    <t>Connection Interrputed</t>
+  </si>
+  <si>
     <t>trans0413</t>
   </si>
   <si>
@@ -3815,6 +3821,12 @@
     <t>trans0447</t>
   </si>
   <si>
+    <t>远端WEB管理</t>
+  </si>
+  <si>
+    <t>Remote web management</t>
+  </si>
+  <si>
     <t>trans0448</t>
   </si>
   <si>
@@ -4100,6 +4112,12 @@
     <t>trans0482</t>
   </si>
   <si>
+    <t>设备信息</t>
+  </si>
+  <si>
+    <t>Device Information</t>
+  </si>
+  <si>
     <t>trans0483</t>
   </si>
   <si>
@@ -4151,7 +4169,7 @@
     <t>秒</t>
   </si>
   <si>
-    <t>seconds</t>
+    <t>Second (s)</t>
   </si>
   <si>
     <t>trans0489</t>
@@ -4250,7 +4268,7 @@
     <t>天</t>
   </si>
   <si>
-    <t>days</t>
+    <t>Day (s)</t>
   </si>
   <si>
     <t>trans0500</t>
@@ -4259,7 +4277,7 @@
     <t>小时</t>
   </si>
   <si>
-    <t>hours</t>
+    <t>Hour (s)</t>
   </si>
   <si>
     <t>trans0501</t>
@@ -4268,7 +4286,7 @@
     <t>分钟</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>Minute (s)</t>
   </si>
   <si>
     <t>trans0502</t>
@@ -7743,6 +7761,84 @@
   </si>
   <si>
     <t>trans0925</t>
+  </si>
+  <si>
+    <t>无警告</t>
+  </si>
+  <si>
+    <t>No Alarm</t>
+  </si>
+  <si>
+    <t>trans0926</t>
+  </si>
+  <si>
+    <t>线路%d</t>
+  </si>
+  <si>
+    <t>Line %d</t>
+  </si>
+  <si>
+    <t>trans0927</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>Year (s)</t>
+  </si>
+  <si>
+    <t>trans0928</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>Month (s)</t>
+  </si>
+  <si>
+    <t>trans0929</t>
+  </si>
+  <si>
+    <t>trans0930</t>
+  </si>
+  <si>
+    <t>trans0931</t>
+  </si>
+  <si>
+    <t>trans0932</t>
+  </si>
+  <si>
+    <t>trans0933</t>
+  </si>
+  <si>
+    <t>trans0934</t>
+  </si>
+  <si>
+    <t>trans0935</t>
+  </si>
+  <si>
+    <t>trans0936</t>
+  </si>
+  <si>
+    <t>trans0937</t>
+  </si>
+  <si>
+    <t>trans0938</t>
+  </si>
+  <si>
+    <t>trans0939</t>
+  </si>
+  <si>
+    <t>trans0940</t>
+  </si>
+  <si>
+    <t>trans0941</t>
+  </si>
+  <si>
+    <t>trans0942</t>
+  </si>
+  <si>
+    <t>trans0943</t>
   </si>
   <si>
     <r>
@@ -8317,7 +8413,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="D929"/>
+  <dimension ref="D1029"/>
   <sheetViews>
     <sheetView showGridLines="true" workbookViewId="0"/>
   </sheetViews>
@@ -11572,10 +11668,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2576</v>
+        <v>2608</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2577</v>
+        <v>2609</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12784,10 +12880,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2578</v>
+        <v>2610</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2579</v>
+        <v>2611</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12796,10 +12892,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2580</v>
+        <v>2612</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2581</v>
+        <v>2613</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -13263,124 +13359,128 @@
       <c r="A412" s="8" t="s">
         <v>1165</v>
       </c>
-      <c r="B412" s="10" t="s"/>
-      <c r="C412" s="10" t="s"/>
+      <c r="B412" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>1167</v>
+      </c>
       <c r="D412" s="6" t="s"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="8" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D413" s="6" t="s"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="8" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D414" s="6" t="s"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="8" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D415" s="6" t="s"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="8" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D416" s="6" t="s"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="8" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D417" s="6" t="s"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="8" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D418" s="6" t="s"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="8" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D419" s="6" t="s"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="8" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C420" s="10" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="D420" s="6" t="s"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="8" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D421" s="6" t="s"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="8" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C422" s="10" t="s">
         <v>1151</v>
@@ -13389,517 +13489,523 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="8" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B423" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D423" s="6" t="s"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="8" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D424" s="6" t="s"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="8" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D425" s="6" t="s"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="8" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C426" s="10" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D426" s="6" t="s"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="8" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D427" s="6" t="s"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="8" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D428" s="6" t="s"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="8" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D429" s="6" t="s"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="8" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D430" s="6" t="s"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="8" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D431" s="6" t="s"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="8" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="D432" s="6" t="s"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="8" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D433" s="6" t="s"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="8" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D434" s="6" t="s"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="8" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D435" s="6" t="s"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="8" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D436" s="6" t="s"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="8" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D437" s="6" t="s"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="8" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D438" s="6" t="s"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="8" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D439" s="6" t="s"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="8" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D440" s="6" t="s"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="8" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D441" s="6" t="s"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="8" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D442" s="6" t="s"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="8" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D443" s="6" t="s"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="8" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D444" s="6" t="s"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="8" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D445" s="6" t="s"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="8" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D446" s="6" t="s"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="8" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B447" s="10" t="s"/>
-      <c r="C447" s="10" t="s"/>
+        <v>1267</v>
+      </c>
+      <c r="B447" s="10" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>1269</v>
+      </c>
       <c r="D447" s="6" t="s"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="8" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="D448" s="6" t="s"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="8" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="D449" s="6" t="s"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="8" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B450" s="10" t="s"/>
+        <v>1276</v>
+      </c>
+      <c r="B450" s="10" t="s">
+        <v>1277</v>
+      </c>
       <c r="C450" s="10" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="D450" s="6" t="s"/>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="8" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="D451" s="6" t="s"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="8" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="C452" s="10" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="D452" s="6" t="s"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="8" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="D453" s="6" t="s"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="8" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="B454" s="10" t="s">
         <v>311</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="D454" s="6" t="s"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="8" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="D455" s="6" t="s"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="8" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="C456" s="10" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="D456" s="6" t="s"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="8" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="D457" s="6" t="s"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="8" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="D458" s="6" t="s"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="8" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="D459" s="6" t="s"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="8" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="D460" s="6" t="s"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="8" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="D461" s="6" t="s"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="8" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="D462" s="6" t="s"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="8" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="D463" s="6" t="s"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="8" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="D464" s="6" t="s"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="8" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="D465" s="10" t="s"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="8" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="B466" s="10" t="s">
         <v>1124</v>
@@ -13911,1074 +14017,1078 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="8" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D467" s="6" t="s"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="8" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="C468" s="10" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="D468" s="6" t="s"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="8" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="D469" s="6" t="s"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="8" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="C470" s="10" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="D470" s="6" t="s"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="8" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="D471" s="6" t="s"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="8" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="D472" s="19" t="s"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="8" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="D473" s="6" t="s"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="8" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="C474" s="10" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="D474" s="6" t="s"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="8" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="D475" s="20" t="s"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="8" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="D476" s="6" t="s"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="8" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="D477" s="6" t="s"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="8" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="D478" s="6" t="s"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="8" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="D479" s="6" t="s"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="8" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="C480" s="14" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="D480" s="6" t="s"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="8" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="D481" s="6" t="s"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="8" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B482" s="10" t="s"/>
-      <c r="C482" s="10" t="s"/>
+        <v>1364</v>
+      </c>
+      <c r="B482" s="10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C482" s="10" t="s">
+        <v>1366</v>
+      </c>
       <c r="D482" s="6" t="s"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="8" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="C483" s="14" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
       <c r="D483" s="6" t="s"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="8" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="C484" s="14" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="D484" s="6" t="s"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="8" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="D485" s="6" t="s"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="8" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="C486" s="10" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="D486" s="6" t="s"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="8" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="C487" s="10" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="D487" s="6" t="s"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="8" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="C488" s="10" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="D488" s="6" t="s"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="8" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="D489" s="6" t="s"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="8" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="C490" s="10" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="D490" s="6" t="s"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="8" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="C491" s="10" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="D491" s="6" t="s"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="8" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="B492" s="10" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="C492" s="10" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="D492" s="6" t="s"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="8" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="B493" s="10" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="D493" s="6" t="s"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="8" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
       <c r="B494" s="10" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="C494" s="10" t="s">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="D494" s="6" t="s"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="8" t="s">
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="D495" s="6" t="s"/>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="8" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="D496" s="6" t="s"/>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="8" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="D497" s="6" t="s"/>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="8" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="C498" s="10" t="s">
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="D498" s="6" t="s"/>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="8" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="B499" s="10" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="D499" s="6" t="s"/>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="8" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
       <c r="B500" s="10" t="s">
-        <v>1413</v>
+        <v>1419</v>
       </c>
       <c r="C500" s="10" t="s">
-        <v>1414</v>
+        <v>1420</v>
       </c>
       <c r="D500" s="6" t="s"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="8" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="B501" s="10" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="D501" s="6" t="s"/>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="8" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="B502" s="10" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="C502" s="10" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="D502" s="6" t="s"/>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="8" t="s">
-        <v>1421</v>
+        <v>1427</v>
       </c>
       <c r="B503" s="10" t="s">
-        <v>1422</v>
+        <v>1428</v>
       </c>
       <c r="C503" s="10" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
       <c r="D503" s="6" t="s"/>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="8" t="s">
-        <v>1424</v>
+        <v>1430</v>
       </c>
       <c r="B504" s="10" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
       <c r="C504" s="10" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
       <c r="D504" s="6" t="s"/>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="8" t="s">
-        <v>1427</v>
+        <v>1433</v>
       </c>
       <c r="B505" s="10" t="s">
-        <v>1428</v>
+        <v>1434</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>1429</v>
+        <v>1435</v>
       </c>
       <c r="D505" s="6" t="s"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="8" t="s">
-        <v>1430</v>
+        <v>1436</v>
       </c>
       <c r="B506" s="10" t="s">
-        <v>1431</v>
+        <v>1437</v>
       </c>
       <c r="C506" s="10" t="s">
-        <v>1432</v>
+        <v>1438</v>
       </c>
       <c r="D506" s="6" t="s"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="8" t="s">
-        <v>1433</v>
+        <v>1439</v>
       </c>
       <c r="B507" s="10" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="C507" s="10" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="D507" s="6" t="s"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="8" t="s">
-        <v>1436</v>
+        <v>1442</v>
       </c>
       <c r="B508" s="10" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="C508" s="10" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
       <c r="D508" s="21" t="s"/>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="8" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="B509" s="10" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="C509" s="10" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="D509" s="22" t="s"/>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="8" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="B510" s="10" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="C510" s="10" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="D510" s="6" t="s"/>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="8" t="s">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="B511" s="10" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
       <c r="C511" s="10" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="D511" s="6" t="s"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="8" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="B512" s="10" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="C512" s="10" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="D512" s="6" t="s"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="8" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="B513" s="10" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="D513" s="6" t="s"/>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="8" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
       <c r="B514" s="10" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="C514" s="10" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="D514" s="6" t="s"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="8" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="B515" s="10" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>1459</v>
+        <v>1465</v>
       </c>
       <c r="D515" s="6" t="s"/>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="8" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="B516" s="10" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="C516" s="10" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
       <c r="D516" s="6" t="s"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="8" t="s">
-        <v>1463</v>
+        <v>1469</v>
       </c>
       <c r="B517" s="10" t="s">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>1465</v>
+        <v>1471</v>
       </c>
       <c r="D517" s="6" t="s"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="8" t="s">
-        <v>1466</v>
+        <v>1472</v>
       </c>
       <c r="B518" s="10" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="C518" s="10" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
       <c r="D518" s="6" t="s"/>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="8" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="B519" s="10" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="D519" s="6" t="s"/>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="8" t="s">
-        <v>1471</v>
+        <v>1477</v>
       </c>
       <c r="B520" s="14" t="s">
-        <v>1472</v>
+        <v>1478</v>
       </c>
       <c r="C520" s="10" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="D520" s="6" t="s"/>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="8" t="s">
-        <v>1474</v>
+        <v>1480</v>
       </c>
       <c r="B521" s="10" t="s">
-        <v>1475</v>
+        <v>1481</v>
       </c>
       <c r="C521" s="10" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
       <c r="D521" s="6" t="s"/>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="8" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
       <c r="B522" s="10" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
       <c r="C522" s="10" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="D522" s="6" t="s"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="8" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
       <c r="B523" s="10" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="C523" s="10" t="s">
-        <v>1482</v>
+        <v>1488</v>
       </c>
       <c r="D523" s="6" t="s"/>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="8" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="C524" s="10" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="D524" s="6" t="s"/>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="8" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
       <c r="B525" s="10" t="s">
-        <v>1487</v>
+        <v>1493</v>
       </c>
       <c r="C525" s="10" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
       <c r="D525" s="6" t="s"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="8" t="s">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>1490</v>
+        <v>1496</v>
       </c>
       <c r="C526" s="10" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="D526" s="6" t="s"/>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="8" t="s">
-        <v>1492</v>
+        <v>1498</v>
       </c>
       <c r="B527" s="10" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="C527" s="10" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
       <c r="D527" s="6" t="s"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="8" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="B528" s="10" t="s">
-        <v>1496</v>
+        <v>1502</v>
       </c>
       <c r="C528" s="10" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="D528" s="6" t="s"/>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="8" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
       <c r="B529" s="10" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="C529" s="10" t="s">
-        <v>1500</v>
+        <v>1506</v>
       </c>
       <c r="D529" s="6" t="s"/>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="8" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="B530" s="10" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="C530" s="10" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="D530" s="6" t="s"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="8" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="B531" s="10" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="C531" s="10" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="D531" s="6" t="s"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="8" t="s">
-        <v>1507</v>
+        <v>1513</v>
       </c>
       <c r="B532" s="10" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="C532" s="10" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="D532" s="6" t="s"/>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="8" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="B533" s="10" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="C533" s="10" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="D533" s="6" t="s"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="8" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
       <c r="B534" s="10" t="s">
-        <v>1514</v>
+        <v>1520</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>1515</v>
+        <v>1521</v>
       </c>
       <c r="D534" s="6" t="s"/>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="8" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
       <c r="B535" s="10" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="D535" s="6" t="s"/>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="8" t="s">
-        <v>1519</v>
+        <v>1525</v>
       </c>
       <c r="B536" s="10" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
       <c r="C536" s="10" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="D536" s="6" t="s"/>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="8" t="s">
-        <v>1522</v>
+        <v>1528</v>
       </c>
       <c r="B537" s="10" t="s">
-        <v>1523</v>
+        <v>1529</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
       <c r="D537" s="6" t="s"/>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="8" t="s">
-        <v>1525</v>
+        <v>1531</v>
       </c>
       <c r="B538" s="10" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="C538" s="10" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="D538" s="6" t="s"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="8" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="B539" s="10" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="C539" s="10" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="D539" s="6" t="s"/>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="8" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="B540" s="10" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
       <c r="C540" s="10" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="D540" s="6" t="s"/>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="8" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="B541" s="10" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="C541" s="10" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="D541" s="6" t="s"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="8" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="B542" s="10" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="C542" s="10" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="D542" s="6" t="s"/>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="8" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="B543" s="10" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="C543" s="10" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="D543" s="6" t="s"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="8" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="B544" s="10" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="C544" s="10" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="D544" s="6" t="s"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="8" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="B545" s="10" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="C545" s="10" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="D545" s="6" t="s"/>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="8" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="B546" s="10" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="C546" s="10" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="D546" s="6" t="s"/>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="8" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="B547" s="10" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="C547" s="10" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="D547" s="6" t="s"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="8" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="B548" s="10" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="C548" s="10" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="D548" s="6" t="s"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="8" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="B549" s="10" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="C549" s="10" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="D549" s="6" t="s"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="8" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="B550" s="10" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="C550" s="10" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
       <c r="D550" s="6" t="s"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="8" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="B551" s="10" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="D551" s="6" t="s"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="8" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="B552" s="10" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="C552" s="10" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
       <c r="D552" s="6" t="s"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="8" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="B553" s="10" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="C553" s="10" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="D553" s="6" t="s"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="8" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="B554" s="10" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="C554" s="10" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="D554" s="6" t="s"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="8" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="B555" s="10" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="C555" s="10" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="D555" s="6" t="s"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="8" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="B556" s="10" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C556" s="10" t="s">
         <v>397</v>
@@ -14987,457 +15097,457 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="8" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="B557" s="10" t="s">
         <v>1057</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="D557" s="6" t="s"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="8" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="B558" s="10" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="D558" s="6" t="s"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="8" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="B559" s="10" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="D559" s="6" t="s"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="8" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="B560" s="10" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="D560" s="6" t="s"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="8" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="B561" s="10" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="D561" s="6" t="s"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="8" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="B562" s="10" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="D562" s="6" t="s"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="8" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="B563" s="10" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="D563" s="6" t="s"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="8" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="B564" s="10" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="C564" s="10" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="D564" s="10" t="s"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="8" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="B565" s="10" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="D565" s="6" t="s"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="8" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="B566" s="10" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="C566" s="10" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="D566" s="6" t="s"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="8" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="B567" s="10" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="D567" s="6" t="s"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="8" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="B568" s="10" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="C568" s="10" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="D568" s="6" t="s"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="8" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="B569" s="10" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="D569" s="6" t="s"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="8" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="B570" s="10" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
       <c r="C570" s="10" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="D570" s="6" t="s"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="8" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="B571" s="10" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
       <c r="D571" s="6" t="s"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="8" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="B572" s="10" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="C572" s="10" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="D572" s="6" t="s"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="8" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
       <c r="B573" s="10" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="D573" s="6" t="s"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="8" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="B574" s="10" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
       <c r="C574" s="10" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="D574" s="6" t="s"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="8" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
       <c r="B575" s="10" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="D575" s="6" t="s"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="8" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="B576" s="10" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="C576" s="10" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="D576" s="6" t="s"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="8" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="B577" s="10" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="D577" s="6" t="s"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="8" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="B578" s="10" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="C578" s="10" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="D578" s="6" t="s"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="8" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="B579" s="10" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="D579" s="6" t="s"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="8" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
       <c r="B580" s="10" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="C580" s="10" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="D580" s="6" t="s"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="8" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="B581" s="10" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="D581" s="6" t="s"/>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="8" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="B582" s="10" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="C582" s="10" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="D582" s="6" t="s"/>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="8" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="B583" s="10" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
       <c r="D583" s="6" t="s"/>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="8" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="B584" s="10" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="C584" s="10" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="D584" s="6" t="s"/>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="8" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="B585" s="10" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="D585" s="6" t="s"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="8" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="B586" s="10" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="C586" s="10" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="D586" s="10" t="s"/>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="8" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="B587" s="10" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="D587" s="6" t="s"/>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="8" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="B588" s="10" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="C588" s="10" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="D588" s="6" t="s"/>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="8" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
       <c r="B589" s="10" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="D589" s="6" t="s"/>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="8" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="B590" s="10" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="C590" s="10" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="D590" s="6" t="s"/>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="8" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="B591" s="10" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="D591" s="6" t="s"/>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="8" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="B592" s="10" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="C592" s="10" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="D592" s="6" t="s"/>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="8" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="B593" s="10" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="D593" s="6" t="s"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="8" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="B594" s="10" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="C594" s="10" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="D594" s="23" t="s">
         <v>347</v>
@@ -15445,37 +15555,37 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="8" t="s">
-        <v>1693</v>
+        <v>1699</v>
       </c>
       <c r="B595" s="10" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>1695</v>
+        <v>1701</v>
       </c>
       <c r="D595" s="6" t="s"/>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="8" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="B596" s="10" t="s">
-        <v>1697</v>
+        <v>1703</v>
       </c>
       <c r="C596" s="10" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
       <c r="D596" s="6" t="s"/>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="8" t="s">
-        <v>1699</v>
+        <v>1705</v>
       </c>
       <c r="B597" s="10" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="C597" s="10" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="D597" s="15" t="s">
         <v>347</v>
@@ -15483,67 +15593,67 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="8" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="B598" s="10" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="C598" s="10" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
       <c r="D598" s="6" t="s"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="8" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="B599" s="10" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="C599" s="10" t="s">
-        <v>1706</v>
+        <v>1712</v>
       </c>
       <c r="D599" s="6" t="s"/>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="8" t="s">
-        <v>1707</v>
+        <v>1713</v>
       </c>
       <c r="B600" s="10" t="s">
-        <v>1708</v>
+        <v>1714</v>
       </c>
       <c r="C600" s="10" t="s">
-        <v>1709</v>
+        <v>1715</v>
       </c>
       <c r="D600" s="6" t="s"/>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="8" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="B601" s="10" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="C601" s="10" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="D601" s="6" t="s"/>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="8" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="B602" s="10" t="s">
-        <v>1714</v>
+        <v>1720</v>
       </c>
       <c r="C602" s="10" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="D602" s="6" t="s"/>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="8" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
       <c r="B603" s="10" t="s">
         <v>239</v>
@@ -15555,115 +15665,115 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="8" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
       <c r="B604" s="10" t="s">
-        <v>1718</v>
+        <v>1724</v>
       </c>
       <c r="C604" s="10" t="s">
-        <v>1719</v>
+        <v>1725</v>
       </c>
       <c r="D604" s="6" t="s"/>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="8" t="s">
-        <v>1720</v>
+        <v>1726</v>
       </c>
       <c r="B605" s="10" t="s">
-        <v>1721</v>
+        <v>1727</v>
       </c>
       <c r="C605" s="10" t="s">
-        <v>1721</v>
+        <v>1727</v>
       </c>
       <c r="D605" s="6" t="s"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="8" t="s">
-        <v>1722</v>
+        <v>1728</v>
       </c>
       <c r="B606" s="10" t="s">
-        <v>1723</v>
+        <v>1729</v>
       </c>
       <c r="C606" s="10" t="s">
-        <v>1724</v>
+        <v>1730</v>
       </c>
       <c r="D606" s="6" t="s"/>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="8" t="s">
-        <v>1725</v>
+        <v>1731</v>
       </c>
       <c r="B607" s="10" t="s">
-        <v>1726</v>
+        <v>1732</v>
       </c>
       <c r="C607" s="10" t="s">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="D607" s="6" t="s"/>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="8" t="s">
-        <v>1728</v>
+        <v>1734</v>
       </c>
       <c r="B608" s="10" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="C608" s="10" t="s">
-        <v>1729</v>
+        <v>1735</v>
       </c>
       <c r="D608" s="6" t="s"/>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="8" t="s">
-        <v>1730</v>
+        <v>1736</v>
       </c>
       <c r="B609" s="10" t="s">
-        <v>1731</v>
+        <v>1737</v>
       </c>
       <c r="C609" s="10" t="s">
-        <v>1732</v>
+        <v>1738</v>
       </c>
       <c r="D609" s="6" t="s"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="8" t="s">
-        <v>1733</v>
+        <v>1739</v>
       </c>
       <c r="B610" s="10" t="s">
-        <v>1734</v>
+        <v>1740</v>
       </c>
       <c r="C610" s="10" t="s">
-        <v>1735</v>
+        <v>1741</v>
       </c>
       <c r="D610" s="6" t="s"/>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="8" t="s">
-        <v>1736</v>
+        <v>1742</v>
       </c>
       <c r="B611" s="10" t="s">
-        <v>1737</v>
+        <v>1743</v>
       </c>
       <c r="C611" s="10" t="s">
-        <v>1738</v>
+        <v>1744</v>
       </c>
       <c r="D611" s="6" t="s"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="8" t="s">
-        <v>1739</v>
+        <v>1745</v>
       </c>
       <c r="B612" s="10" t="s">
-        <v>1740</v>
+        <v>1746</v>
       </c>
       <c r="C612" s="10" t="s">
-        <v>1741</v>
+        <v>1747</v>
       </c>
       <c r="D612" s="6" t="s"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="8" t="s">
-        <v>1742</v>
+        <v>1748</v>
       </c>
       <c r="B613" s="10" t="s">
         <v>199</v>
@@ -15675,487 +15785,487 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="8" t="s">
-        <v>1743</v>
+        <v>1749</v>
       </c>
       <c r="B614" s="10" t="s">
-        <v>1744</v>
+        <v>1750</v>
       </c>
       <c r="C614" s="10" t="s">
-        <v>1745</v>
+        <v>1751</v>
       </c>
       <c r="D614" s="6" t="s"/>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="8" t="s">
-        <v>1746</v>
+        <v>1752</v>
       </c>
       <c r="B615" s="10" t="s">
-        <v>1747</v>
+        <v>1753</v>
       </c>
       <c r="C615" s="10" t="s">
-        <v>1748</v>
+        <v>1754</v>
       </c>
       <c r="D615" s="6" t="s"/>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="8" t="s">
-        <v>1749</v>
+        <v>1755</v>
       </c>
       <c r="B616" s="10" t="s">
-        <v>1750</v>
+        <v>1756</v>
       </c>
       <c r="C616" s="10" t="s">
-        <v>1751</v>
+        <v>1757</v>
       </c>
       <c r="D616" s="6" t="s"/>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="8" t="s">
-        <v>1752</v>
+        <v>1758</v>
       </c>
       <c r="B617" s="10" t="s">
-        <v>1753</v>
+        <v>1759</v>
       </c>
       <c r="C617" s="10" t="s">
-        <v>1754</v>
+        <v>1760</v>
       </c>
       <c r="D617" s="6" t="s"/>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="8" t="s">
-        <v>1755</v>
+        <v>1761</v>
       </c>
       <c r="B618" s="10" t="s">
-        <v>1756</v>
+        <v>1762</v>
       </c>
       <c r="C618" s="10" t="s">
-        <v>1757</v>
+        <v>1763</v>
       </c>
       <c r="D618" s="6" t="s"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="8" t="s">
-        <v>1758</v>
+        <v>1764</v>
       </c>
       <c r="B619" s="10" t="s">
-        <v>1759</v>
+        <v>1765</v>
       </c>
       <c r="C619" s="10" t="s">
-        <v>1760</v>
+        <v>1766</v>
       </c>
       <c r="D619" s="6" t="s"/>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="8" t="s">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="B620" s="10" t="s">
-        <v>1762</v>
+        <v>1768</v>
       </c>
       <c r="C620" s="10" t="s">
-        <v>1763</v>
+        <v>1769</v>
       </c>
       <c r="D620" s="10" t="s"/>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="8" t="s">
-        <v>1764</v>
+        <v>1770</v>
       </c>
       <c r="B621" s="10" t="s">
-        <v>1765</v>
+        <v>1771</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>1766</v>
+        <v>1772</v>
       </c>
       <c r="D621" s="10" t="s"/>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="8" t="s">
-        <v>1767</v>
+        <v>1773</v>
       </c>
       <c r="B622" s="10" t="s">
-        <v>1768</v>
+        <v>1774</v>
       </c>
       <c r="C622" s="10" t="s">
-        <v>1769</v>
+        <v>1775</v>
       </c>
       <c r="D622" s="6" t="s"/>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="8" t="s">
-        <v>1770</v>
+        <v>1776</v>
       </c>
       <c r="B623" s="10" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="C623" s="10" t="s">
-        <v>1772</v>
+        <v>1778</v>
       </c>
       <c r="D623" s="10" t="s"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="8" t="s">
-        <v>1773</v>
+        <v>1779</v>
       </c>
       <c r="B624" s="10" t="s">
-        <v>1774</v>
+        <v>1780</v>
       </c>
       <c r="C624" s="10" t="s">
-        <v>1775</v>
+        <v>1781</v>
       </c>
       <c r="D624" s="24" t="s"/>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="8" t="s">
-        <v>1776</v>
+        <v>1782</v>
       </c>
       <c r="B625" s="10" t="s">
-        <v>1777</v>
+        <v>1783</v>
       </c>
       <c r="C625" s="10" t="s">
-        <v>1778</v>
+        <v>1784</v>
       </c>
       <c r="D625" s="10" t="s"/>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="8" t="s">
-        <v>1779</v>
+        <v>1785</v>
       </c>
       <c r="B626" s="10" t="s">
-        <v>1780</v>
+        <v>1786</v>
       </c>
       <c r="C626" s="10" t="s">
-        <v>1781</v>
+        <v>1787</v>
       </c>
       <c r="D626" s="6" t="s"/>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="8" t="s">
-        <v>1782</v>
+        <v>1788</v>
       </c>
       <c r="B627" s="10" t="s">
-        <v>1783</v>
+        <v>1789</v>
       </c>
       <c r="C627" s="10" t="s">
-        <v>1783</v>
+        <v>1789</v>
       </c>
       <c r="D627" s="6" t="s"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="8" t="s">
-        <v>1784</v>
+        <v>1790</v>
       </c>
       <c r="B628" s="10" t="s">
-        <v>1785</v>
+        <v>1791</v>
       </c>
       <c r="C628" s="10" t="s">
-        <v>1786</v>
+        <v>1792</v>
       </c>
       <c r="D628" s="6" t="s"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="8" t="s">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="B629" s="10" t="s">
-        <v>1788</v>
+        <v>1794</v>
       </c>
       <c r="C629" s="10" t="s">
-        <v>1789</v>
+        <v>1795</v>
       </c>
       <c r="D629" s="6" t="s"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="8" t="s">
-        <v>1790</v>
+        <v>1796</v>
       </c>
       <c r="B630" s="10" t="s">
-        <v>1791</v>
+        <v>1797</v>
       </c>
       <c r="C630" s="10" t="s">
-        <v>1792</v>
+        <v>1798</v>
       </c>
       <c r="D630" s="10" t="s"/>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="8" t="s">
-        <v>1793</v>
+        <v>1799</v>
       </c>
       <c r="B631" s="10" t="s">
-        <v>1794</v>
+        <v>1800</v>
       </c>
       <c r="C631" s="10" t="s">
-        <v>1795</v>
+        <v>1801</v>
       </c>
       <c r="D631" s="6" t="s"/>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="8" t="s">
-        <v>1796</v>
+        <v>1802</v>
       </c>
       <c r="B632" s="10" t="s">
-        <v>1797</v>
+        <v>1803</v>
       </c>
       <c r="C632" s="10" t="s">
-        <v>1798</v>
+        <v>1804</v>
       </c>
       <c r="D632" s="6" t="s"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="8" t="s">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="B633" s="10" t="s">
-        <v>1800</v>
+        <v>1806</v>
       </c>
       <c r="C633" s="14" t="s">
-        <v>1801</v>
+        <v>1807</v>
       </c>
       <c r="D633" s="6" t="s"/>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="8" t="s">
-        <v>1802</v>
+        <v>1808</v>
       </c>
       <c r="B634" s="10" t="s">
-        <v>1803</v>
+        <v>1809</v>
       </c>
       <c r="C634" s="10" t="s">
-        <v>1804</v>
+        <v>1810</v>
       </c>
       <c r="D634" s="6" t="s"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="8" t="s">
-        <v>1805</v>
+        <v>1811</v>
       </c>
       <c r="B635" s="10" t="s">
-        <v>1806</v>
+        <v>1812</v>
       </c>
       <c r="C635" s="10" t="s">
-        <v>1807</v>
+        <v>1813</v>
       </c>
       <c r="D635" s="6" t="s"/>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="8" t="s">
-        <v>1808</v>
+        <v>1814</v>
       </c>
       <c r="B636" s="10" t="s">
-        <v>1809</v>
+        <v>1815</v>
       </c>
       <c r="C636" s="10" t="s">
-        <v>1810</v>
+        <v>1816</v>
       </c>
       <c r="D636" s="6" t="s"/>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="8" t="s">
-        <v>1811</v>
+        <v>1817</v>
       </c>
       <c r="B637" s="10" t="s">
-        <v>1812</v>
+        <v>1818</v>
       </c>
       <c r="C637" s="10" t="s">
-        <v>1813</v>
+        <v>1819</v>
       </c>
       <c r="D637" s="6" t="s"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="8" t="s">
-        <v>1814</v>
+        <v>1820</v>
       </c>
       <c r="B638" s="10" t="s">
-        <v>1815</v>
+        <v>1821</v>
       </c>
       <c r="C638" s="10" t="s">
-        <v>1816</v>
+        <v>1822</v>
       </c>
       <c r="D638" s="6" t="s"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="8" t="s">
-        <v>1817</v>
+        <v>1823</v>
       </c>
       <c r="B639" s="10" t="s">
-        <v>1818</v>
+        <v>1824</v>
       </c>
       <c r="C639" s="10" t="s">
-        <v>1819</v>
+        <v>1825</v>
       </c>
       <c r="D639" s="6" t="s"/>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="8" t="s">
-        <v>1820</v>
+        <v>1826</v>
       </c>
       <c r="B640" s="10" t="s">
-        <v>1821</v>
+        <v>1827</v>
       </c>
       <c r="C640" s="10" t="s">
-        <v>1822</v>
+        <v>1828</v>
       </c>
       <c r="D640" s="10" t="s"/>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="8" t="s">
-        <v>1823</v>
+        <v>1829</v>
       </c>
       <c r="B641" s="10" t="s">
-        <v>1824</v>
+        <v>1830</v>
       </c>
       <c r="C641" s="10" t="s">
-        <v>1824</v>
+        <v>1830</v>
       </c>
       <c r="D641" s="6" t="s"/>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="8" t="s">
-        <v>1825</v>
+        <v>1831</v>
       </c>
       <c r="B642" s="10" t="s">
-        <v>1826</v>
+        <v>1832</v>
       </c>
       <c r="C642" s="10" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="D642" s="6" t="s"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="8" t="s">
-        <v>1828</v>
+        <v>1834</v>
       </c>
       <c r="B643" s="10" t="s">
-        <v>1829</v>
+        <v>1835</v>
       </c>
       <c r="C643" s="10" t="s">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="D643" s="6" t="s"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="8" t="s">
-        <v>1831</v>
+        <v>1837</v>
       </c>
       <c r="B644" s="10" t="s">
-        <v>1832</v>
+        <v>1838</v>
       </c>
       <c r="C644" s="10" t="s">
-        <v>1833</v>
+        <v>1839</v>
       </c>
       <c r="D644" s="6" t="s"/>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="8" t="s">
-        <v>1834</v>
+        <v>1840</v>
       </c>
       <c r="B645" s="10" t="s">
-        <v>1835</v>
+        <v>1841</v>
       </c>
       <c r="C645" s="10" t="s">
-        <v>1836</v>
+        <v>1842</v>
       </c>
       <c r="D645" s="6" t="s"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="8" t="s">
-        <v>1837</v>
+        <v>1843</v>
       </c>
       <c r="B646" s="10" t="s">
-        <v>1838</v>
+        <v>1844</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1839</v>
+        <v>1845</v>
       </c>
       <c r="D646" s="6" t="s"/>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="8" t="s">
-        <v>1840</v>
+        <v>1846</v>
       </c>
       <c r="B647" s="10" t="s">
-        <v>1841</v>
+        <v>1847</v>
       </c>
       <c r="C647" s="10" t="s">
-        <v>1841</v>
+        <v>1847</v>
       </c>
       <c r="D647" s="6" t="s"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="8" t="s">
-        <v>1842</v>
+        <v>1848</v>
       </c>
       <c r="B648" s="10" t="s">
-        <v>1843</v>
+        <v>1849</v>
       </c>
       <c r="C648" s="10" t="s">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="D648" s="6" t="s"/>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="8" t="s">
-        <v>1845</v>
+        <v>1851</v>
       </c>
       <c r="B649" s="10" t="s">
-        <v>1846</v>
+        <v>1852</v>
       </c>
       <c r="C649" s="10" t="s">
-        <v>1847</v>
+        <v>1853</v>
       </c>
       <c r="D649" s="6" t="s"/>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="8" t="s">
-        <v>1848</v>
+        <v>1854</v>
       </c>
       <c r="B650" s="10" t="s">
-        <v>1849</v>
+        <v>1855</v>
       </c>
       <c r="C650" s="10" t="s">
-        <v>1850</v>
+        <v>1856</v>
       </c>
       <c r="D650" s="6" t="s"/>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="8" t="s">
-        <v>1851</v>
+        <v>1857</v>
       </c>
       <c r="B651" s="10" t="s">
-        <v>1852</v>
+        <v>1858</v>
       </c>
       <c r="C651" s="10" t="s">
-        <v>1853</v>
+        <v>1859</v>
       </c>
       <c r="D651" s="6" t="s"/>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="8" t="s">
-        <v>1854</v>
+        <v>1860</v>
       </c>
       <c r="B652" s="10" t="s">
-        <v>1855</v>
+        <v>1861</v>
       </c>
       <c r="C652" s="10" t="s">
-        <v>1856</v>
+        <v>1862</v>
       </c>
       <c r="D652" s="6" t="s"/>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="8" t="s">
-        <v>1857</v>
+        <v>1863</v>
       </c>
       <c r="B653" s="10" t="s">
-        <v>1858</v>
+        <v>1864</v>
       </c>
       <c r="C653" s="10" t="s">
-        <v>1859</v>
+        <v>1865</v>
       </c>
       <c r="D653" s="6" t="s"/>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="8" t="s">
-        <v>1860</v>
+        <v>1866</v>
       </c>
       <c r="B654" s="10" t="s">
         <v>507</v>
@@ -16167,1822 +16277,1822 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="8" t="s">
-        <v>1861</v>
+        <v>1867</v>
       </c>
       <c r="B655" s="10" t="s">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="C655" s="10" t="s">
-        <v>1863</v>
+        <v>1869</v>
       </c>
       <c r="D655" s="6" t="s"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="8" t="s">
-        <v>1864</v>
+        <v>1870</v>
       </c>
       <c r="B656" s="10" t="s">
-        <v>1865</v>
+        <v>1871</v>
       </c>
       <c r="C656" s="10" t="s">
-        <v>1866</v>
+        <v>1872</v>
       </c>
       <c r="D656" s="6" t="s"/>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="8" t="s">
-        <v>1867</v>
+        <v>1873</v>
       </c>
       <c r="B657" s="10" t="s">
-        <v>1868</v>
+        <v>1874</v>
       </c>
       <c r="C657" s="10" t="s">
-        <v>1869</v>
+        <v>1875</v>
       </c>
       <c r="D657" s="6" t="s"/>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="8" t="s">
-        <v>1870</v>
+        <v>1876</v>
       </c>
       <c r="B658" s="10" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="C658" s="10" t="s">
-        <v>1872</v>
+        <v>1878</v>
       </c>
       <c r="D658" s="6" t="s"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="8" t="s">
-        <v>1873</v>
+        <v>1879</v>
       </c>
       <c r="B659" s="10" t="s">
-        <v>1874</v>
+        <v>1880</v>
       </c>
       <c r="C659" s="10" t="s">
-        <v>1875</v>
+        <v>1881</v>
       </c>
       <c r="D659" s="6" t="s"/>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="8" t="s">
-        <v>1876</v>
+        <v>1882</v>
       </c>
       <c r="B660" s="10" t="s">
-        <v>1843</v>
+        <v>1849</v>
       </c>
       <c r="C660" s="10" t="s">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="D660" s="6" t="s"/>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="8" t="s">
-        <v>1877</v>
+        <v>1883</v>
       </c>
       <c r="B661" s="10" t="s">
-        <v>1878</v>
+        <v>1884</v>
       </c>
       <c r="C661" s="10" t="s">
-        <v>1879</v>
+        <v>1885</v>
       </c>
       <c r="D661" s="6" t="s"/>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="8" t="s">
-        <v>1880</v>
+        <v>1886</v>
       </c>
       <c r="B662" s="10" t="s">
-        <v>1881</v>
+        <v>1887</v>
       </c>
       <c r="C662" s="10" t="s">
-        <v>1882</v>
+        <v>1888</v>
       </c>
       <c r="D662" s="6" t="s"/>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="8" t="s">
-        <v>1883</v>
+        <v>1889</v>
       </c>
       <c r="B663" s="10" t="s">
-        <v>1884</v>
+        <v>1890</v>
       </c>
       <c r="C663" s="10" t="s">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="D663" s="6" t="s"/>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="8" t="s">
-        <v>1886</v>
+        <v>1892</v>
       </c>
       <c r="B664" s="10" t="s">
-        <v>1887</v>
+        <v>1893</v>
       </c>
       <c r="C664" s="10" t="s">
-        <v>1888</v>
+        <v>1894</v>
       </c>
       <c r="D664" s="6" t="s"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="8" t="s">
-        <v>1889</v>
+        <v>1895</v>
       </c>
       <c r="B665" s="10" t="s">
-        <v>1890</v>
+        <v>1896</v>
       </c>
       <c r="C665" s="10" t="s">
-        <v>1891</v>
+        <v>1897</v>
       </c>
       <c r="D665" s="6" t="s"/>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="8" t="s">
-        <v>1892</v>
+        <v>1898</v>
       </c>
       <c r="B666" s="10" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="C666" s="10" t="s">
-        <v>1894</v>
+        <v>1900</v>
       </c>
       <c r="D666" s="6" t="s"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="8" t="s">
-        <v>1895</v>
+        <v>1901</v>
       </c>
       <c r="B667" s="10" t="s">
-        <v>1896</v>
+        <v>1902</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>1897</v>
+        <v>1903</v>
       </c>
       <c r="D667" s="6" t="s"/>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="4" t="s">
-        <v>1898</v>
+        <v>1904</v>
       </c>
       <c r="B668" s="10" t="s">
-        <v>1899</v>
+        <v>1905</v>
       </c>
       <c r="C668" s="10" t="s">
-        <v>1900</v>
+        <v>1906</v>
       </c>
       <c r="D668" s="6" t="s"/>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="4" t="s">
-        <v>1901</v>
+        <v>1907</v>
       </c>
       <c r="B669" s="10" t="s">
-        <v>1902</v>
+        <v>1908</v>
       </c>
       <c r="C669" s="10" t="s">
-        <v>1903</v>
+        <v>1909</v>
       </c>
       <c r="D669" s="6" t="s"/>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="4" t="s">
-        <v>1904</v>
+        <v>1910</v>
       </c>
       <c r="B670" s="10" t="s">
-        <v>1905</v>
+        <v>1911</v>
       </c>
       <c r="C670" s="14" t="s">
-        <v>1906</v>
+        <v>1912</v>
       </c>
       <c r="D670" s="6" t="s"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="4" t="s">
-        <v>1907</v>
+        <v>1913</v>
       </c>
       <c r="B671" s="10" t="s">
-        <v>1908</v>
+        <v>1914</v>
       </c>
       <c r="C671" s="10" t="s">
-        <v>1909</v>
+        <v>1915</v>
       </c>
       <c r="D671" s="6" t="s"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="4" t="s">
-        <v>1910</v>
+        <v>1916</v>
       </c>
       <c r="B672" s="10" t="s">
-        <v>1911</v>
+        <v>1917</v>
       </c>
       <c r="C672" s="10" t="s">
-        <v>1912</v>
+        <v>1918</v>
       </c>
       <c r="D672" s="6" t="s"/>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="4" t="s">
-        <v>1913</v>
+        <v>1919</v>
       </c>
       <c r="B673" s="10" t="s">
-        <v>1914</v>
+        <v>1920</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>1915</v>
+        <v>1921</v>
       </c>
       <c r="D673" s="6" t="s"/>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="4" t="s">
-        <v>1916</v>
+        <v>1922</v>
       </c>
       <c r="B674" s="10" t="s">
-        <v>1917</v>
+        <v>1923</v>
       </c>
       <c r="C674" s="10" t="s">
-        <v>1918</v>
+        <v>1924</v>
       </c>
       <c r="D674" s="6" t="s"/>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="4" t="s">
-        <v>1919</v>
+        <v>1925</v>
       </c>
       <c r="B675" s="10" t="s">
-        <v>1920</v>
+        <v>1926</v>
       </c>
       <c r="C675" s="10" t="s">
-        <v>1921</v>
+        <v>1927</v>
       </c>
       <c r="D675" s="6" t="s"/>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="4" t="s">
-        <v>1922</v>
+        <v>1928</v>
       </c>
       <c r="B676" s="10" t="s">
-        <v>1923</v>
+        <v>1929</v>
       </c>
       <c r="C676" s="10" t="s">
-        <v>1924</v>
+        <v>1930</v>
       </c>
       <c r="D676" s="6" t="s"/>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="4" t="s">
-        <v>1925</v>
+        <v>1931</v>
       </c>
       <c r="B677" s="10" t="s">
-        <v>1926</v>
+        <v>1932</v>
       </c>
       <c r="C677" s="10" t="s">
-        <v>1927</v>
+        <v>1933</v>
       </c>
       <c r="D677" s="6" t="s"/>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="4" t="s">
-        <v>1928</v>
+        <v>1934</v>
       </c>
       <c r="B678" s="10" t="s">
-        <v>1929</v>
+        <v>1935</v>
       </c>
       <c r="C678" s="10" t="s">
-        <v>1930</v>
+        <v>1936</v>
       </c>
       <c r="D678" s="6" t="s"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="4" t="s">
-        <v>1931</v>
+        <v>1937</v>
       </c>
       <c r="B679" s="10" t="s">
-        <v>1932</v>
+        <v>1938</v>
       </c>
       <c r="C679" s="10" t="s">
-        <v>1933</v>
+        <v>1939</v>
       </c>
       <c r="D679" s="6" t="s"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="4" t="s">
-        <v>1934</v>
+        <v>1940</v>
       </c>
       <c r="B680" s="10" t="s">
-        <v>1935</v>
+        <v>1941</v>
       </c>
       <c r="C680" s="10" t="s">
-        <v>1936</v>
+        <v>1942</v>
       </c>
       <c r="D680" s="6" t="s"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="4" t="s">
-        <v>1937</v>
+        <v>1943</v>
       </c>
       <c r="B681" s="10" t="s">
-        <v>1938</v>
+        <v>1944</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>1939</v>
+        <v>1945</v>
       </c>
       <c r="D681" s="6" t="s"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="4" t="s">
-        <v>1940</v>
+        <v>1946</v>
       </c>
       <c r="B682" s="10" t="s">
-        <v>1941</v>
+        <v>1947</v>
       </c>
       <c r="C682" s="10" t="s">
-        <v>1942</v>
+        <v>1948</v>
       </c>
       <c r="D682" s="6" t="s"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="4" t="s">
-        <v>1943</v>
+        <v>1949</v>
       </c>
       <c r="B683" s="10" t="s">
-        <v>1944</v>
+        <v>1950</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>1945</v>
+        <v>1951</v>
       </c>
       <c r="D683" s="6" t="s"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="4" t="s">
-        <v>1946</v>
+        <v>1952</v>
       </c>
       <c r="B684" s="10" t="s">
-        <v>1947</v>
+        <v>1953</v>
       </c>
       <c r="C684" s="10" t="s">
-        <v>1948</v>
+        <v>1954</v>
       </c>
       <c r="D684" s="6" t="s"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="4" t="s">
-        <v>1949</v>
+        <v>1955</v>
       </c>
       <c r="B685" s="10" t="s">
-        <v>1950</v>
+        <v>1956</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>1951</v>
+        <v>1957</v>
       </c>
       <c r="D685" s="6" t="s"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="4" t="s">
-        <v>1952</v>
+        <v>1958</v>
       </c>
       <c r="B686" s="10" t="s">
-        <v>1953</v>
+        <v>1959</v>
       </c>
       <c r="C686" s="10" t="s">
-        <v>1954</v>
+        <v>1960</v>
       </c>
       <c r="D686" s="6" t="s"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="4" t="s">
-        <v>1955</v>
+        <v>1961</v>
       </c>
       <c r="B687" s="25" t="s">
-        <v>1956</v>
+        <v>1962</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>1957</v>
+        <v>1963</v>
       </c>
       <c r="D687" s="6" t="s"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="4" t="s">
-        <v>1958</v>
+        <v>1964</v>
       </c>
       <c r="B688" s="10" t="s">
-        <v>1959</v>
+        <v>1965</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>1960</v>
+        <v>1966</v>
       </c>
       <c r="D688" s="6" t="s"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="4" t="s">
-        <v>1961</v>
+        <v>1967</v>
       </c>
       <c r="B689" s="10" t="s">
-        <v>1962</v>
+        <v>1968</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1963</v>
+        <v>1969</v>
       </c>
       <c r="D689" s="6" t="s"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="4" t="s">
-        <v>1964</v>
+        <v>1970</v>
       </c>
       <c r="B690" s="10" t="s">
-        <v>1965</v>
+        <v>1971</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1966</v>
+        <v>1972</v>
       </c>
       <c r="D690" s="6" t="s"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="4" t="s">
-        <v>1967</v>
+        <v>1973</v>
       </c>
       <c r="B691" s="25" t="s">
-        <v>1968</v>
+        <v>1974</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="D691" s="6" t="s"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="4" t="s">
-        <v>1970</v>
+        <v>1976</v>
       </c>
       <c r="B692" s="10" t="s">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1972</v>
+        <v>1978</v>
       </c>
       <c r="D692" s="6" t="s"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="4" t="s">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="B693" s="10" t="s">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>1975</v>
+        <v>1981</v>
       </c>
       <c r="D693" s="6" t="s"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="4" t="s">
-        <v>1976</v>
+        <v>1982</v>
       </c>
       <c r="B694" s="10" t="s">
-        <v>1977</v>
+        <v>1983</v>
       </c>
       <c r="C694" s="10" t="s">
-        <v>1978</v>
+        <v>1984</v>
       </c>
       <c r="D694" s="6" t="s"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="4" t="s">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="B695" s="10" t="s">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>1981</v>
+        <v>1987</v>
       </c>
       <c r="D695" s="6" t="s"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="4" t="s">
-        <v>1982</v>
+        <v>1988</v>
       </c>
       <c r="B696" s="10" t="s">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>1984</v>
+        <v>1990</v>
       </c>
       <c r="D696" s="6" t="s"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="4" t="s">
-        <v>1985</v>
+        <v>1991</v>
       </c>
       <c r="B697" s="10" t="s">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="C697" s="26" t="s">
-        <v>1987</v>
+        <v>1993</v>
       </c>
       <c r="D697" s="6" t="s"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="4" t="s">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="B698" s="10" t="s">
-        <v>1989</v>
+        <v>1995</v>
       </c>
       <c r="C698" s="10" t="s">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="D698" s="6" t="s"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="4" t="s">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="B699" s="10" t="s">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="D699" s="6" t="s"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="4" t="s">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="B700" s="10" t="s">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="D700" s="6" t="s"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="4" t="s">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="B701" s="10" t="s">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="D701" s="6" t="s"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="4" t="s">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="B702" s="10" t="s">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D702" s="6" t="s"/>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="4" t="s">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="B703" s="10" t="s">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C703" s="10" t="s">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D703" s="6" t="s"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="4" t="s">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="B704" s="10" t="s">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="C704" s="10" t="s">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="D704" s="6" t="s"/>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="4" t="s">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="B705" s="10" t="s">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C705" s="10" t="s">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D705" s="6" t="s"/>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="4" t="s">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="B706" s="10" t="s">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C706" s="10" t="s">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D706" s="6" t="s"/>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="4" t="s">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="B707" s="10" t="s">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C707" s="10" t="s">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D707" s="6" t="s"/>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="4" t="s">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="B708" s="10" t="s">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>2020</v>
+        <v>2026</v>
       </c>
       <c r="D708" s="6" t="s"/>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="4" t="s">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="B709" s="10" t="s">
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="C709" s="10" t="s">
-        <v>2023</v>
+        <v>2029</v>
       </c>
       <c r="D709" s="6" t="s"/>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="4" t="s">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="B710" s="10" t="s">
-        <v>2025</v>
+        <v>2031</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>2026</v>
+        <v>2032</v>
       </c>
       <c r="D710" s="6" t="s"/>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="4" t="s">
-        <v>2027</v>
+        <v>2033</v>
       </c>
       <c r="B711" s="10" t="s">
-        <v>2028</v>
+        <v>2034</v>
       </c>
       <c r="C711" s="10" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="D711" s="6" t="s"/>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="4" t="s">
-        <v>2030</v>
+        <v>2036</v>
       </c>
       <c r="B712" s="10" t="s">
-        <v>2031</v>
+        <v>2037</v>
       </c>
       <c r="C712" s="10" t="s">
-        <v>2032</v>
+        <v>2038</v>
       </c>
       <c r="D712" s="6" t="s"/>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="4" t="s">
-        <v>2033</v>
+        <v>2039</v>
       </c>
       <c r="B713" s="10" t="s">
-        <v>2034</v>
+        <v>2040</v>
       </c>
       <c r="C713" s="10" t="s">
-        <v>2035</v>
+        <v>2041</v>
       </c>
       <c r="D713" s="6" t="s"/>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="4" t="s">
-        <v>2036</v>
+        <v>2042</v>
       </c>
       <c r="B714" s="26" t="s">
-        <v>2037</v>
+        <v>2043</v>
       </c>
       <c r="C714" s="10" t="s">
-        <v>2038</v>
+        <v>2044</v>
       </c>
       <c r="D714" s="6" t="s"/>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="4" t="s">
-        <v>2039</v>
+        <v>2045</v>
       </c>
       <c r="B715" s="10" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="C715" s="10" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="D715" s="6" t="s"/>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="4" t="s">
-        <v>2040</v>
+        <v>2046</v>
       </c>
       <c r="B716" s="10" t="s">
-        <v>2041</v>
+        <v>2047</v>
       </c>
       <c r="C716" s="10" t="s">
-        <v>2042</v>
+        <v>2048</v>
       </c>
       <c r="D716" s="6" t="s"/>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="4" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="B717" s="10" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="C717" s="10" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="D717" s="6" t="s"/>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="4" t="s">
-        <v>2046</v>
+        <v>2052</v>
       </c>
       <c r="B718" s="10" t="s">
-        <v>2047</v>
+        <v>2053</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>2048</v>
+        <v>2054</v>
       </c>
       <c r="D718" s="6" t="s"/>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="4" t="s">
-        <v>2049</v>
+        <v>2055</v>
       </c>
       <c r="B719" s="10" t="s">
-        <v>2050</v>
+        <v>2056</v>
       </c>
       <c r="C719" s="10" t="s">
-        <v>2051</v>
+        <v>2057</v>
       </c>
       <c r="D719" s="6" t="s"/>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="4" t="s">
-        <v>2052</v>
+        <v>2058</v>
       </c>
       <c r="B720" s="10" t="s">
-        <v>2053</v>
+        <v>2059</v>
       </c>
       <c r="C720" s="10" t="s">
-        <v>2054</v>
+        <v>2060</v>
       </c>
       <c r="D720" s="6" t="s"/>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="4" t="s">
-        <v>2055</v>
+        <v>2061</v>
       </c>
       <c r="B721" s="10" t="s">
-        <v>2056</v>
+        <v>2062</v>
       </c>
       <c r="C721" s="10" t="s">
-        <v>2057</v>
+        <v>2063</v>
       </c>
       <c r="D721" s="6" t="s"/>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="4" t="s">
-        <v>2058</v>
+        <v>2064</v>
       </c>
       <c r="B722" s="10" t="s">
-        <v>2059</v>
+        <v>2065</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>2060</v>
+        <v>2066</v>
       </c>
       <c r="D722" s="6" t="s"/>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="4" t="s">
-        <v>2061</v>
+        <v>2067</v>
       </c>
       <c r="B723" s="10" t="s">
-        <v>2062</v>
+        <v>2068</v>
       </c>
       <c r="C723" s="10" t="s">
-        <v>2063</v>
+        <v>2069</v>
       </c>
       <c r="D723" s="6" t="s"/>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="4" t="s">
-        <v>2064</v>
+        <v>2070</v>
       </c>
       <c r="B724" s="10" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="C724" s="10" t="s">
-        <v>2066</v>
+        <v>2072</v>
       </c>
       <c r="D724" s="6" t="s"/>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="4" t="s">
-        <v>2067</v>
+        <v>2073</v>
       </c>
       <c r="B725" s="10" t="s">
-        <v>2068</v>
+        <v>2074</v>
       </c>
       <c r="C725" s="10" t="s">
-        <v>2069</v>
+        <v>2075</v>
       </c>
       <c r="D725" s="6" t="s"/>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="4" t="s">
-        <v>2070</v>
+        <v>2076</v>
       </c>
       <c r="B726" s="10" t="s">
-        <v>2071</v>
+        <v>2077</v>
       </c>
       <c r="C726" s="10" t="s">
-        <v>2072</v>
+        <v>2078</v>
       </c>
       <c r="D726" s="6" t="s"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="4" t="s">
-        <v>2073</v>
+        <v>2079</v>
       </c>
       <c r="B727" s="10" t="s">
-        <v>2074</v>
+        <v>2080</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>2075</v>
+        <v>2081</v>
       </c>
       <c r="D727" s="6" t="s"/>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="4" t="s">
-        <v>2076</v>
+        <v>2082</v>
       </c>
       <c r="B728" s="10" t="s">
-        <v>2077</v>
+        <v>2083</v>
       </c>
       <c r="C728" s="10" t="s">
-        <v>2078</v>
+        <v>2084</v>
       </c>
       <c r="D728" s="6" t="s"/>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="4" t="s">
-        <v>2079</v>
+        <v>2085</v>
       </c>
       <c r="B729" s="10" t="s">
-        <v>2080</v>
+        <v>2086</v>
       </c>
       <c r="C729" s="10" t="s">
-        <v>2081</v>
+        <v>2087</v>
       </c>
       <c r="D729" s="6" t="s"/>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="4" t="s">
-        <v>2082</v>
+        <v>2088</v>
       </c>
       <c r="B730" s="10" t="s">
-        <v>2083</v>
+        <v>2089</v>
       </c>
       <c r="C730" s="10" t="s">
-        <v>2084</v>
+        <v>2090</v>
       </c>
       <c r="D730" s="6" t="s"/>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="4" t="s">
-        <v>2085</v>
+        <v>2091</v>
       </c>
       <c r="B731" s="10" t="s">
-        <v>2086</v>
+        <v>2092</v>
       </c>
       <c r="C731" s="10" t="s">
-        <v>2087</v>
+        <v>2093</v>
       </c>
       <c r="D731" s="6" t="s"/>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="4" t="s">
-        <v>2088</v>
+        <v>2094</v>
       </c>
       <c r="B732" s="10" t="s">
-        <v>2089</v>
+        <v>2095</v>
       </c>
       <c r="C732" s="10" t="s">
-        <v>2090</v>
+        <v>2096</v>
       </c>
       <c r="D732" s="6" t="s"/>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="4" t="s">
-        <v>2091</v>
+        <v>2097</v>
       </c>
       <c r="B733" s="10" t="s">
-        <v>2092</v>
+        <v>2098</v>
       </c>
       <c r="C733" s="10" t="s">
-        <v>2093</v>
+        <v>2099</v>
       </c>
       <c r="D733" s="6" t="s"/>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="4" t="s">
-        <v>2094</v>
+        <v>2100</v>
       </c>
       <c r="B734" s="10" t="s">
-        <v>2095</v>
+        <v>2101</v>
       </c>
       <c r="C734" s="10" t="s">
-        <v>2096</v>
+        <v>2102</v>
       </c>
       <c r="D734" s="6" t="s"/>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="4" t="s">
-        <v>2097</v>
+        <v>2103</v>
       </c>
       <c r="B735" s="10" t="s">
-        <v>2098</v>
+        <v>2104</v>
       </c>
       <c r="C735" s="10" t="s">
-        <v>2099</v>
+        <v>2105</v>
       </c>
       <c r="D735" s="6" t="s"/>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="4" t="s">
-        <v>2100</v>
+        <v>2106</v>
       </c>
       <c r="B736" s="26" t="s">
-        <v>2101</v>
+        <v>2107</v>
       </c>
       <c r="C736" s="10" t="s">
-        <v>2102</v>
+        <v>2108</v>
       </c>
       <c r="D736" s="6" t="s"/>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="4" t="s">
-        <v>2103</v>
+        <v>2109</v>
       </c>
       <c r="B737" s="10" t="s">
-        <v>2104</v>
+        <v>2110</v>
       </c>
       <c r="C737" s="10" t="s">
-        <v>2105</v>
+        <v>2111</v>
       </c>
       <c r="D737" s="6" t="s"/>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="4" t="s">
-        <v>2106</v>
+        <v>2112</v>
       </c>
       <c r="B738" s="10" t="s">
-        <v>2107</v>
+        <v>2113</v>
       </c>
       <c r="C738" s="10" t="s">
-        <v>2108</v>
+        <v>2114</v>
       </c>
       <c r="D738" s="6" t="s"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="4" t="s">
-        <v>2109</v>
+        <v>2115</v>
       </c>
       <c r="B739" s="10" t="s">
-        <v>2110</v>
+        <v>2116</v>
       </c>
       <c r="C739" s="10" t="s">
-        <v>2111</v>
+        <v>2117</v>
       </c>
       <c r="D739" s="6" t="s"/>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="4" t="s">
-        <v>2112</v>
+        <v>2118</v>
       </c>
       <c r="B740" s="10" t="s">
-        <v>2113</v>
+        <v>2119</v>
       </c>
       <c r="C740" s="10" t="s">
-        <v>2114</v>
+        <v>2120</v>
       </c>
       <c r="D740" s="6" t="s"/>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="4" t="s">
-        <v>2115</v>
+        <v>2121</v>
       </c>
       <c r="B741" s="10" t="s">
-        <v>2116</v>
+        <v>2122</v>
       </c>
       <c r="C741" s="10" t="s">
-        <v>2117</v>
+        <v>2123</v>
       </c>
       <c r="D741" s="6" t="s"/>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="4" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="B742" s="10" t="s">
-        <v>2119</v>
+        <v>2125</v>
       </c>
       <c r="C742" s="10" t="s">
-        <v>2120</v>
+        <v>2126</v>
       </c>
       <c r="D742" s="6" t="s"/>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="4" t="s">
-        <v>2121</v>
+        <v>2127</v>
       </c>
       <c r="B743" s="10" t="s">
-        <v>2122</v>
+        <v>2128</v>
       </c>
       <c r="C743" s="10" t="s">
-        <v>2123</v>
+        <v>2129</v>
       </c>
       <c r="D743" s="6" t="s"/>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="4" t="s">
-        <v>2124</v>
+        <v>2130</v>
       </c>
       <c r="B744" s="10" t="s">
-        <v>2125</v>
+        <v>2131</v>
       </c>
       <c r="C744" s="10" t="s">
-        <v>2126</v>
+        <v>2132</v>
       </c>
       <c r="D744" s="6" t="s"/>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="4" t="s">
-        <v>2127</v>
+        <v>2133</v>
       </c>
       <c r="B745" s="10" t="s">
-        <v>2128</v>
+        <v>2134</v>
       </c>
       <c r="C745" s="10" t="s">
-        <v>2129</v>
+        <v>2135</v>
       </c>
       <c r="D745" s="6" t="s"/>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="4" t="s">
-        <v>2130</v>
+        <v>2136</v>
       </c>
       <c r="B746" s="10" t="s">
-        <v>2131</v>
+        <v>2137</v>
       </c>
       <c r="C746" s="10" t="s">
-        <v>2132</v>
+        <v>2138</v>
       </c>
       <c r="D746" s="6" t="s"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="4" t="s">
-        <v>2133</v>
+        <v>2139</v>
       </c>
       <c r="B747" s="10" t="s">
         <v>197</v>
       </c>
       <c r="C747" s="10" t="s">
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="D747" s="6" t="s"/>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="4" t="s">
-        <v>2135</v>
+        <v>2141</v>
       </c>
       <c r="B748" s="10" t="s">
-        <v>2136</v>
+        <v>2142</v>
       </c>
       <c r="C748" s="10" t="s">
-        <v>2137</v>
+        <v>2143</v>
       </c>
       <c r="D748" s="6" t="s"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="4" t="s">
-        <v>2138</v>
+        <v>2144</v>
       </c>
       <c r="B749" s="10" t="s">
-        <v>2139</v>
+        <v>2145</v>
       </c>
       <c r="C749" s="10" t="s">
-        <v>2140</v>
+        <v>2146</v>
       </c>
       <c r="D749" s="6" t="s"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="4" t="s">
-        <v>2141</v>
+        <v>2147</v>
       </c>
       <c r="B750" s="10" t="s">
-        <v>2142</v>
+        <v>2148</v>
       </c>
       <c r="C750" s="10" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="D750" s="6" t="s"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="4" t="s">
-        <v>2144</v>
+        <v>2150</v>
       </c>
       <c r="B751" s="10" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="C751" s="10" t="s">
-        <v>2146</v>
+        <v>2152</v>
       </c>
       <c r="D751" s="6" t="s"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="4" t="s">
-        <v>2147</v>
+        <v>2153</v>
       </c>
       <c r="B752" s="10" t="s">
-        <v>2148</v>
+        <v>2154</v>
       </c>
       <c r="C752" s="10" t="s">
-        <v>2149</v>
+        <v>2155</v>
       </c>
       <c r="D752" s="6" t="s"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="4" t="s">
-        <v>2150</v>
+        <v>2156</v>
       </c>
       <c r="B753" s="10" t="s">
-        <v>2151</v>
+        <v>2157</v>
       </c>
       <c r="C753" s="10" t="s">
-        <v>2152</v>
+        <v>2158</v>
       </c>
       <c r="D753" s="6" t="s"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="4" t="s">
-        <v>2153</v>
+        <v>2159</v>
       </c>
       <c r="B754" s="10" t="s">
-        <v>2154</v>
+        <v>2160</v>
       </c>
       <c r="C754" s="10" t="s">
-        <v>2155</v>
+        <v>2161</v>
       </c>
       <c r="D754" s="6" t="s"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="4" t="s">
-        <v>2156</v>
+        <v>2162</v>
       </c>
       <c r="B755" s="10" t="s">
-        <v>2157</v>
+        <v>2163</v>
       </c>
       <c r="C755" s="10" t="s">
-        <v>2158</v>
+        <v>2164</v>
       </c>
       <c r="D755" s="6" t="s"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="4" t="s">
-        <v>2159</v>
+        <v>2165</v>
       </c>
       <c r="B756" s="10" t="s">
-        <v>2160</v>
+        <v>2166</v>
       </c>
       <c r="C756" s="10" t="s">
-        <v>2161</v>
+        <v>2167</v>
       </c>
       <c r="D756" s="6" t="s"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="4" t="s">
-        <v>2162</v>
+        <v>2168</v>
       </c>
       <c r="B757" s="10" t="s">
-        <v>2163</v>
+        <v>2169</v>
       </c>
       <c r="C757" s="10" t="s">
-        <v>2164</v>
+        <v>2170</v>
       </c>
       <c r="D757" s="6" t="s"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="4" t="s">
-        <v>2165</v>
+        <v>2171</v>
       </c>
       <c r="B758" s="10" t="s">
-        <v>2166</v>
+        <v>2172</v>
       </c>
       <c r="C758" s="10" t="s">
-        <v>2167</v>
+        <v>2173</v>
       </c>
       <c r="D758" s="6" t="s"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="4" t="s">
-        <v>2168</v>
+        <v>2174</v>
       </c>
       <c r="B759" s="10" t="s">
-        <v>2169</v>
+        <v>2175</v>
       </c>
       <c r="C759" s="10" t="s">
-        <v>2170</v>
+        <v>2176</v>
       </c>
       <c r="D759" s="6" t="s"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="4" t="s">
-        <v>2171</v>
+        <v>2177</v>
       </c>
       <c r="B760" s="10" t="s">
-        <v>2172</v>
+        <v>2178</v>
       </c>
       <c r="C760" s="10" t="s">
-        <v>2173</v>
+        <v>2179</v>
       </c>
       <c r="D760" s="6" t="s"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="4" t="s">
-        <v>2174</v>
+        <v>2180</v>
       </c>
       <c r="B761" s="10" t="s">
-        <v>2175</v>
+        <v>2181</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>2176</v>
+        <v>2182</v>
       </c>
       <c r="D761" s="6" t="s"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="4" t="s">
-        <v>2177</v>
+        <v>2183</v>
       </c>
       <c r="B762" s="10" t="s">
-        <v>2178</v>
+        <v>2184</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>2179</v>
+        <v>2185</v>
       </c>
       <c r="D762" s="6" t="s"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="4" t="s">
-        <v>2180</v>
+        <v>2186</v>
       </c>
       <c r="B763" s="10" t="s">
-        <v>2181</v>
+        <v>2187</v>
       </c>
       <c r="C763" s="10" t="s">
-        <v>2182</v>
+        <v>2188</v>
       </c>
       <c r="D763" s="6" t="s"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="4" t="s">
-        <v>2183</v>
+        <v>2189</v>
       </c>
       <c r="B764" s="10" t="s">
-        <v>2157</v>
+        <v>2163</v>
       </c>
       <c r="C764" s="10" t="s">
-        <v>2158</v>
+        <v>2164</v>
       </c>
       <c r="D764" s="6" t="s"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="4" t="s">
-        <v>2184</v>
+        <v>2190</v>
       </c>
       <c r="B765" s="10" t="s">
-        <v>2185</v>
+        <v>2191</v>
       </c>
       <c r="C765" s="10" t="s">
-        <v>2186</v>
+        <v>2192</v>
       </c>
       <c r="D765" s="6" t="s"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="4" t="s">
-        <v>2187</v>
+        <v>2193</v>
       </c>
       <c r="B766" s="10" t="s">
-        <v>2188</v>
+        <v>2194</v>
       </c>
       <c r="C766" s="10" t="s">
-        <v>2189</v>
+        <v>2195</v>
       </c>
       <c r="D766" s="6" t="s"/>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="4" t="s">
-        <v>2190</v>
+        <v>2196</v>
       </c>
       <c r="B767" s="10" t="s">
-        <v>2191</v>
+        <v>2197</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>2192</v>
+        <v>2198</v>
       </c>
       <c r="D767" s="6" t="s"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="4" t="s">
-        <v>2193</v>
+        <v>2199</v>
       </c>
       <c r="B768" s="10" t="s">
-        <v>2194</v>
+        <v>2200</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>2195</v>
+        <v>2201</v>
       </c>
       <c r="D768" s="6" t="s"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="4" t="s">
-        <v>2196</v>
+        <v>2202</v>
       </c>
       <c r="B769" s="10" t="s">
-        <v>2197</v>
+        <v>2203</v>
       </c>
       <c r="C769" s="10" t="s">
-        <v>2198</v>
+        <v>2204</v>
       </c>
       <c r="D769" s="6" t="s"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="4" t="s">
-        <v>2199</v>
+        <v>2205</v>
       </c>
       <c r="B770" s="10" t="s">
-        <v>2200</v>
+        <v>2206</v>
       </c>
       <c r="C770" s="10" t="s">
-        <v>2201</v>
+        <v>2207</v>
       </c>
       <c r="D770" s="6" t="s"/>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="4" t="s">
-        <v>2202</v>
+        <v>2208</v>
       </c>
       <c r="B771" s="10" t="s">
-        <v>2203</v>
+        <v>2209</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>2204</v>
+        <v>2210</v>
       </c>
       <c r="D771" s="6" t="s"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="4" t="s">
-        <v>2205</v>
+        <v>2211</v>
       </c>
       <c r="B772" s="10" t="s">
-        <v>2206</v>
+        <v>2212</v>
       </c>
       <c r="C772" s="10" t="s">
-        <v>2207</v>
+        <v>2213</v>
       </c>
       <c r="D772" s="6" t="s"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="4" t="s">
-        <v>2208</v>
+        <v>2214</v>
       </c>
       <c r="B773" s="10" t="s">
-        <v>2209</v>
+        <v>2215</v>
       </c>
       <c r="C773" s="10" t="s">
-        <v>2210</v>
+        <v>2216</v>
       </c>
       <c r="D773" s="6" t="s"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="4" t="s">
-        <v>2211</v>
+        <v>2217</v>
       </c>
       <c r="B774" s="10" t="s">
-        <v>2212</v>
+        <v>2218</v>
       </c>
       <c r="C774" s="10" t="s">
-        <v>2213</v>
+        <v>2219</v>
       </c>
       <c r="D774" s="6" t="s"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="4" t="s">
-        <v>2214</v>
+        <v>2220</v>
       </c>
       <c r="B775" s="10" t="s">
-        <v>2215</v>
+        <v>2221</v>
       </c>
       <c r="C775" s="10" t="s">
-        <v>2215</v>
+        <v>2221</v>
       </c>
       <c r="D775" s="6" t="s"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="4" t="s">
-        <v>2216</v>
+        <v>2222</v>
       </c>
       <c r="B776" s="10" t="s">
-        <v>2217</v>
+        <v>2223</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>2217</v>
+        <v>2223</v>
       </c>
       <c r="D776" s="6" t="s"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="4" t="s">
-        <v>2218</v>
+        <v>2224</v>
       </c>
       <c r="B777" s="10" t="s">
-        <v>2219</v>
+        <v>2225</v>
       </c>
       <c r="C777" s="10" t="s">
-        <v>2220</v>
+        <v>2226</v>
       </c>
       <c r="D777" s="6" t="s"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="4" t="s">
-        <v>2221</v>
+        <v>2227</v>
       </c>
       <c r="B778" s="10" t="s">
-        <v>2222</v>
+        <v>2228</v>
       </c>
       <c r="C778" s="10" t="s">
-        <v>2223</v>
+        <v>2229</v>
       </c>
       <c r="D778" s="6" t="s"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="4" t="s">
-        <v>2224</v>
+        <v>2230</v>
       </c>
       <c r="B779" s="10" t="s">
-        <v>2225</v>
+        <v>2231</v>
       </c>
       <c r="C779" s="10" t="s">
-        <v>2226</v>
+        <v>2232</v>
       </c>
       <c r="D779" s="6" t="s"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="4" t="s">
-        <v>2227</v>
+        <v>2233</v>
       </c>
       <c r="B780" s="10" t="s">
-        <v>2228</v>
+        <v>2234</v>
       </c>
       <c r="C780" s="10" t="s">
-        <v>2229</v>
+        <v>2235</v>
       </c>
       <c r="D780" s="6" t="s"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="4" t="s">
-        <v>2230</v>
+        <v>2236</v>
       </c>
       <c r="B781" s="10" t="s">
-        <v>2231</v>
+        <v>2237</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>2231</v>
+        <v>2237</v>
       </c>
       <c r="D781" s="6" t="s"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="4" t="s">
-        <v>2232</v>
+        <v>2238</v>
       </c>
       <c r="B782" s="10" t="s">
-        <v>2233</v>
+        <v>2239</v>
       </c>
       <c r="C782" s="10" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="D782" s="6" t="s"/>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="4" t="s">
-        <v>2234</v>
+        <v>2240</v>
       </c>
       <c r="B783" s="10" t="s">
-        <v>2235</v>
+        <v>2241</v>
       </c>
       <c r="C783" s="10" t="s">
-        <v>2236</v>
+        <v>2242</v>
       </c>
       <c r="D783" s="6" t="s"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="4" t="s">
-        <v>2237</v>
+        <v>2243</v>
       </c>
       <c r="B784" s="10" t="s">
-        <v>2238</v>
+        <v>2244</v>
       </c>
       <c r="C784" s="10" t="s">
-        <v>2239</v>
+        <v>2245</v>
       </c>
       <c r="D784" s="6" t="s"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="4" t="s">
-        <v>2240</v>
+        <v>2246</v>
       </c>
       <c r="B785" s="10" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="C785" s="10" t="s">
-        <v>2241</v>
+        <v>2247</v>
       </c>
       <c r="D785" s="6" t="s"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="4" t="s">
-        <v>2242</v>
+        <v>2248</v>
       </c>
       <c r="B786" s="10" t="s">
-        <v>2243</v>
+        <v>2249</v>
       </c>
       <c r="C786" s="10" t="s">
-        <v>2244</v>
+        <v>2250</v>
       </c>
       <c r="D786" s="6" t="s"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="4" t="s">
-        <v>2245</v>
+        <v>2251</v>
       </c>
       <c r="B787" s="10" t="s">
-        <v>2246</v>
+        <v>2252</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>2247</v>
+        <v>2253</v>
       </c>
       <c r="D787" s="6" t="s"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="4" t="s">
-        <v>2248</v>
+        <v>2254</v>
       </c>
       <c r="B788" s="10" t="s">
-        <v>2249</v>
+        <v>2255</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>2250</v>
+        <v>2256</v>
       </c>
       <c r="D788" s="6" t="s"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="4" t="s">
-        <v>2251</v>
+        <v>2257</v>
       </c>
       <c r="B789" s="10" t="s">
-        <v>2252</v>
+        <v>2258</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>2253</v>
+        <v>2259</v>
       </c>
       <c r="D789" s="6" t="s"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="4" t="s">
-        <v>2254</v>
+        <v>2260</v>
       </c>
       <c r="B790" s="10" t="s">
-        <v>2255</v>
+        <v>2261</v>
       </c>
       <c r="C790" s="10" t="s">
-        <v>2256</v>
+        <v>2262</v>
       </c>
       <c r="D790" s="6" t="s"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="4" t="s">
-        <v>2257</v>
+        <v>2263</v>
       </c>
       <c r="B791" s="10" t="s">
-        <v>2258</v>
+        <v>2264</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>2259</v>
+        <v>2265</v>
       </c>
       <c r="D791" s="6" t="s"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="4" t="s">
-        <v>2260</v>
+        <v>2266</v>
       </c>
       <c r="B792" s="10" t="s">
-        <v>2261</v>
+        <v>2267</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>2262</v>
+        <v>2268</v>
       </c>
       <c r="D792" s="6" t="s"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="4" t="s">
-        <v>2263</v>
+        <v>2269</v>
       </c>
       <c r="B793" s="10" t="s">
-        <v>2264</v>
+        <v>2270</v>
       </c>
       <c r="C793" s="10" t="s">
-        <v>2265</v>
+        <v>2271</v>
       </c>
       <c r="D793" s="6" t="s"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="4" t="s">
-        <v>2266</v>
+        <v>2272</v>
       </c>
       <c r="B794" s="10" t="s">
-        <v>2267</v>
+        <v>2273</v>
       </c>
       <c r="C794" s="10" t="s">
-        <v>2268</v>
+        <v>2274</v>
       </c>
       <c r="D794" s="6" t="s"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="4" t="s">
-        <v>2269</v>
+        <v>2275</v>
       </c>
       <c r="B795" s="10" t="s">
-        <v>2270</v>
+        <v>2276</v>
       </c>
       <c r="C795" s="10" t="s">
-        <v>2271</v>
+        <v>2277</v>
       </c>
       <c r="D795" s="6" t="s"/>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="4" t="s">
-        <v>2272</v>
+        <v>2278</v>
       </c>
       <c r="B796" s="10" t="s">
-        <v>2273</v>
+        <v>2279</v>
       </c>
       <c r="C796" s="10" t="s">
-        <v>2274</v>
+        <v>2280</v>
       </c>
       <c r="D796" s="6" t="s"/>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="4" t="s">
-        <v>2275</v>
+        <v>2281</v>
       </c>
       <c r="B797" s="10" t="s">
-        <v>2276</v>
+        <v>2282</v>
       </c>
       <c r="C797" s="10" t="s">
-        <v>2277</v>
+        <v>2283</v>
       </c>
       <c r="D797" s="6" t="s"/>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="4" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="B798" s="10" t="s">
-        <v>2279</v>
+        <v>2285</v>
       </c>
       <c r="C798" s="10" t="s">
-        <v>2280</v>
+        <v>2286</v>
       </c>
       <c r="D798" s="6" t="s"/>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="4" t="s">
-        <v>2281</v>
+        <v>2287</v>
       </c>
       <c r="B799" s="10" t="s">
-        <v>2282</v>
+        <v>2288</v>
       </c>
       <c r="C799" s="10" t="s">
-        <v>2282</v>
+        <v>2288</v>
       </c>
       <c r="D799" s="6" t="s"/>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="4" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
       <c r="B800" s="10" t="s">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="C800" s="10" t="s">
-        <v>2285</v>
+        <v>2291</v>
       </c>
       <c r="D800" s="6" t="s"/>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="4" t="s">
-        <v>2286</v>
+        <v>2292</v>
       </c>
       <c r="B801" s="10" t="s">
-        <v>2287</v>
+        <v>2293</v>
       </c>
       <c r="C801" s="10" t="s">
-        <v>2288</v>
+        <v>2294</v>
       </c>
       <c r="D801" s="6" t="s"/>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="4" t="s">
-        <v>2289</v>
+        <v>2295</v>
       </c>
       <c r="B802" s="10" t="s">
-        <v>2290</v>
+        <v>2296</v>
       </c>
       <c r="C802" s="10" t="s">
-        <v>2291</v>
+        <v>2297</v>
       </c>
       <c r="D802" s="6" t="s"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="4" t="s">
-        <v>2292</v>
+        <v>2298</v>
       </c>
       <c r="B803" s="10" t="s">
-        <v>2293</v>
+        <v>2299</v>
       </c>
       <c r="C803" s="10" t="s">
-        <v>2294</v>
+        <v>2300</v>
       </c>
       <c r="D803" s="6" t="s"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="4" t="s">
-        <v>2295</v>
+        <v>2301</v>
       </c>
       <c r="B804" s="10" t="s">
-        <v>2296</v>
+        <v>2302</v>
       </c>
       <c r="C804" s="10" t="s">
-        <v>2297</v>
+        <v>2303</v>
       </c>
       <c r="D804" s="6" t="s"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="4" t="s">
-        <v>2298</v>
+        <v>2304</v>
       </c>
       <c r="B805" s="10" t="s">
-        <v>2299</v>
+        <v>2305</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>2300</v>
+        <v>2306</v>
       </c>
       <c r="D805" s="6" t="s"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="4" t="s">
-        <v>2301</v>
+        <v>2307</v>
       </c>
       <c r="B806" s="10" t="s">
-        <v>2302</v>
+        <v>2308</v>
       </c>
       <c r="C806" s="10" t="s">
         <v>706</v>
@@ -17991,1451 +18101,2103 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="4" t="s">
-        <v>2303</v>
+        <v>2309</v>
       </c>
       <c r="B807" s="10" t="s">
-        <v>2304</v>
+        <v>2310</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>2305</v>
+        <v>2311</v>
       </c>
       <c r="D807" s="6" t="s"/>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="4" t="s">
-        <v>2306</v>
+        <v>2312</v>
       </c>
       <c r="B808" s="10" t="s">
-        <v>2307</v>
+        <v>2313</v>
       </c>
       <c r="C808" s="10" t="s">
-        <v>2308</v>
+        <v>2314</v>
       </c>
       <c r="D808" s="6" t="s"/>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="4" t="s">
-        <v>2309</v>
+        <v>2315</v>
       </c>
       <c r="B809" s="10" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="C809" s="10" t="s">
-        <v>2310</v>
+        <v>2316</v>
       </c>
       <c r="D809" s="6" t="s"/>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="4" t="s">
-        <v>2311</v>
+        <v>2317</v>
       </c>
       <c r="B810" s="10" t="s">
-        <v>2312</v>
+        <v>2318</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>2313</v>
+        <v>2319</v>
       </c>
       <c r="D810" s="6" t="s"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="4" t="s">
-        <v>2314</v>
+        <v>2320</v>
       </c>
       <c r="B811" s="10" t="s">
-        <v>2315</v>
+        <v>2321</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>2316</v>
+        <v>2322</v>
       </c>
       <c r="D811" s="6" t="s"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="4" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
       <c r="B812" s="10" t="s">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="D812" s="6" t="s"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="4" t="s">
-        <v>2319</v>
+        <v>2325</v>
       </c>
       <c r="B813" s="10" t="s">
-        <v>2320</v>
+        <v>2326</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>2321</v>
+        <v>2327</v>
       </c>
       <c r="D813" s="6" t="s"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="4" t="s">
-        <v>2322</v>
+        <v>2328</v>
       </c>
       <c r="B814" s="10" t="s">
-        <v>2323</v>
+        <v>2329</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>2324</v>
+        <v>2330</v>
       </c>
       <c r="D814" s="6" t="s"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="4" t="s">
-        <v>2325</v>
+        <v>2331</v>
       </c>
       <c r="B815" s="10" t="s">
-        <v>2326</v>
+        <v>2332</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>2327</v>
+        <v>2333</v>
       </c>
       <c r="D815" s="6" t="s"/>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="4" t="s">
-        <v>2328</v>
+        <v>2334</v>
       </c>
       <c r="B816" s="10" t="s">
-        <v>2329</v>
+        <v>2335</v>
       </c>
       <c r="C816" s="10" t="s">
-        <v>2330</v>
+        <v>2336</v>
       </c>
       <c r="D816" s="6" t="s"/>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="4" t="s">
-        <v>2331</v>
+        <v>2337</v>
       </c>
       <c r="B817" s="10" t="s">
-        <v>2332</v>
+        <v>2338</v>
       </c>
       <c r="C817" s="10" t="s">
-        <v>2333</v>
+        <v>2339</v>
       </c>
       <c r="D817" s="6" t="s"/>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="4" t="s">
-        <v>2334</v>
+        <v>2340</v>
       </c>
       <c r="B818" s="10" t="s">
-        <v>2335</v>
+        <v>2341</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>2336</v>
+        <v>2342</v>
       </c>
       <c r="D818" s="6" t="s"/>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="4" t="s">
-        <v>2337</v>
+        <v>2343</v>
       </c>
       <c r="B819" s="10" t="s">
-        <v>2338</v>
+        <v>2344</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>2339</v>
+        <v>2345</v>
       </c>
       <c r="D819" s="6" t="s"/>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="4" t="s">
-        <v>2340</v>
+        <v>2346</v>
       </c>
       <c r="B820" s="10" t="s">
-        <v>2341</v>
+        <v>2347</v>
       </c>
       <c r="C820" s="10" t="s">
-        <v>2342</v>
+        <v>2348</v>
       </c>
       <c r="D820" s="6" t="s"/>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="4" t="s">
-        <v>2343</v>
+        <v>2349</v>
       </c>
       <c r="B821" s="10" t="s">
-        <v>2344</v>
+        <v>2350</v>
       </c>
       <c r="C821" s="10" t="s">
-        <v>2345</v>
+        <v>2351</v>
       </c>
       <c r="D821" s="6" t="s"/>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="4" t="s">
-        <v>2346</v>
+        <v>2352</v>
       </c>
       <c r="B822" s="10" t="s">
-        <v>2347</v>
+        <v>2353</v>
       </c>
       <c r="C822" s="10" t="s">
-        <v>2347</v>
+        <v>2353</v>
       </c>
       <c r="D822" s="6" t="s"/>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="4" t="s">
-        <v>2348</v>
+        <v>2354</v>
       </c>
       <c r="B823" s="10" t="s">
-        <v>2349</v>
+        <v>2355</v>
       </c>
       <c r="C823" s="10" t="s">
-        <v>2350</v>
+        <v>2356</v>
       </c>
       <c r="D823" s="6" t="s"/>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="4" t="s">
-        <v>2351</v>
+        <v>2357</v>
       </c>
       <c r="B824" s="10" t="s">
-        <v>2352</v>
+        <v>2358</v>
       </c>
       <c r="C824" s="10" t="s">
-        <v>2353</v>
+        <v>2359</v>
       </c>
       <c r="D824" s="6" t="s"/>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="4" t="s">
-        <v>2354</v>
+        <v>2360</v>
       </c>
       <c r="B825" s="10" t="s">
-        <v>2355</v>
+        <v>2361</v>
       </c>
       <c r="C825" s="10" t="s">
-        <v>2356</v>
+        <v>2362</v>
       </c>
       <c r="D825" s="6" t="s"/>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="4" t="s">
-        <v>2357</v>
+        <v>2363</v>
       </c>
       <c r="B826" s="10" t="s">
-        <v>2358</v>
+        <v>2364</v>
       </c>
       <c r="C826" s="10" t="s">
-        <v>2359</v>
+        <v>2365</v>
       </c>
       <c r="D826" s="6" t="s"/>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="4" t="s">
-        <v>2360</v>
+        <v>2366</v>
       </c>
       <c r="B827" s="10" t="s">
-        <v>2361</v>
+        <v>2367</v>
       </c>
       <c r="C827" s="10" t="s">
-        <v>2362</v>
+        <v>2368</v>
       </c>
       <c r="D827" s="6" t="s"/>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="4" t="s">
-        <v>2363</v>
+        <v>2369</v>
       </c>
       <c r="B828" s="10" t="s">
-        <v>2364</v>
+        <v>2370</v>
       </c>
       <c r="C828" s="10" t="s">
-        <v>2365</v>
+        <v>2371</v>
       </c>
       <c r="D828" s="6" t="s"/>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="4" t="s">
-        <v>2366</v>
+        <v>2372</v>
       </c>
       <c r="B829" s="10" t="s">
-        <v>2367</v>
+        <v>2373</v>
       </c>
       <c r="C829" s="10" t="s">
-        <v>2368</v>
+        <v>2374</v>
       </c>
       <c r="D829" s="6" t="s"/>
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="4" t="s">
-        <v>2369</v>
+        <v>2375</v>
       </c>
       <c r="B830" s="10" t="s">
-        <v>2370</v>
+        <v>2376</v>
       </c>
       <c r="C830" s="10" t="s">
-        <v>2371</v>
+        <v>2377</v>
       </c>
       <c r="D830" s="6" t="s"/>
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="4" t="s">
-        <v>2372</v>
+        <v>2378</v>
       </c>
       <c r="B831" s="10" t="s">
-        <v>2373</v>
+        <v>2379</v>
       </c>
       <c r="C831" s="10" t="s">
-        <v>2374</v>
+        <v>2380</v>
       </c>
       <c r="D831" s="6" t="s"/>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="4" t="s">
-        <v>2375</v>
+        <v>2381</v>
       </c>
       <c r="B832" s="10" t="s">
-        <v>2376</v>
+        <v>2382</v>
       </c>
       <c r="C832" s="10" t="s">
-        <v>2377</v>
+        <v>2383</v>
       </c>
       <c r="D832" s="6" t="s"/>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="4" t="s">
-        <v>2378</v>
+        <v>2384</v>
       </c>
       <c r="B833" s="10" t="s">
-        <v>2379</v>
+        <v>2385</v>
       </c>
       <c r="C833" s="10" t="s">
-        <v>2380</v>
+        <v>2386</v>
       </c>
       <c r="D833" s="6" t="s"/>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="4" t="s">
-        <v>2381</v>
+        <v>2387</v>
       </c>
       <c r="B834" s="10" t="s">
-        <v>2382</v>
+        <v>2388</v>
       </c>
       <c r="C834" s="10" t="s">
-        <v>2382</v>
+        <v>2388</v>
       </c>
       <c r="D834" s="6" t="s"/>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="4" t="s">
-        <v>2383</v>
+        <v>2389</v>
       </c>
       <c r="B835" s="10" t="s">
-        <v>2384</v>
+        <v>2390</v>
       </c>
       <c r="C835" s="10" t="s">
-        <v>2385</v>
+        <v>2391</v>
       </c>
       <c r="D835" s="6" t="s"/>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="4" t="s">
-        <v>2386</v>
+        <v>2392</v>
       </c>
       <c r="B836" s="10" t="s">
-        <v>2387</v>
+        <v>2393</v>
       </c>
       <c r="C836" s="10" t="s">
-        <v>2388</v>
+        <v>2394</v>
       </c>
       <c r="D836" s="6" t="s"/>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="4" t="s">
-        <v>2389</v>
+        <v>2395</v>
       </c>
       <c r="B837" s="10" t="s">
-        <v>2390</v>
+        <v>2396</v>
       </c>
       <c r="C837" s="10" t="s">
-        <v>2391</v>
+        <v>2397</v>
       </c>
       <c r="D837" s="6" t="s"/>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="4" t="s">
-        <v>2392</v>
+        <v>2398</v>
       </c>
       <c r="B838" s="10" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
       <c r="C838" s="10" t="s">
-        <v>2394</v>
+        <v>2400</v>
       </c>
       <c r="D838" s="6" t="s"/>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="4" t="s">
-        <v>2395</v>
+        <v>2401</v>
       </c>
       <c r="B839" s="10" t="s">
-        <v>2396</v>
+        <v>2402</v>
       </c>
       <c r="C839" s="10" t="s">
-        <v>2397</v>
+        <v>2403</v>
       </c>
       <c r="D839" s="6" t="s"/>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="4" t="s">
-        <v>2398</v>
+        <v>2404</v>
       </c>
       <c r="B840" s="10" t="s">
-        <v>2399</v>
+        <v>2405</v>
       </c>
       <c r="C840" s="10" t="s">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="D840" s="6" t="s"/>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="4" t="s">
-        <v>2401</v>
+        <v>2407</v>
       </c>
       <c r="B841" s="10" t="s">
-        <v>2402</v>
+        <v>2408</v>
       </c>
       <c r="C841" s="10" t="s">
-        <v>2403</v>
+        <v>2409</v>
       </c>
       <c r="D841" s="6" t="s"/>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="4" t="s">
-        <v>2404</v>
+        <v>2410</v>
       </c>
       <c r="B842" s="10" t="s">
-        <v>2405</v>
+        <v>2411</v>
       </c>
       <c r="C842" s="10" t="s">
-        <v>2405</v>
+        <v>2411</v>
       </c>
       <c r="D842" s="6" t="s"/>
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="4" t="s">
-        <v>2406</v>
+        <v>2412</v>
       </c>
       <c r="B843" s="10" t="s">
-        <v>2407</v>
+        <v>2413</v>
       </c>
       <c r="C843" s="10" t="s">
-        <v>2407</v>
+        <v>2413</v>
       </c>
       <c r="D843" s="6" t="s"/>
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="4" t="s">
-        <v>2408</v>
+        <v>2414</v>
       </c>
       <c r="B844" s="10" t="s">
-        <v>2409</v>
+        <v>2415</v>
       </c>
       <c r="C844" s="10" t="s">
-        <v>2409</v>
+        <v>2415</v>
       </c>
       <c r="D844" s="6" t="s"/>
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="4" t="s">
-        <v>2410</v>
+        <v>2416</v>
       </c>
       <c r="B845" s="10" t="s">
-        <v>2411</v>
+        <v>2417</v>
       </c>
       <c r="C845" s="10" t="s">
-        <v>2411</v>
+        <v>2417</v>
       </c>
       <c r="D845" s="27" t="s"/>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="4" t="s">
-        <v>2412</v>
+        <v>2418</v>
       </c>
       <c r="B846" s="10" t="s">
-        <v>2413</v>
+        <v>2419</v>
       </c>
       <c r="C846" s="10" t="s">
-        <v>2413</v>
+        <v>2419</v>
       </c>
       <c r="D846" s="27" t="s"/>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="4" t="s">
-        <v>2414</v>
+        <v>2420</v>
       </c>
       <c r="B847" s="10" t="s">
-        <v>2415</v>
+        <v>2421</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>2415</v>
+        <v>2421</v>
       </c>
       <c r="D847" s="10" t="s"/>
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="4" t="s">
-        <v>2416</v>
+        <v>2422</v>
       </c>
       <c r="B848" s="10" t="s">
-        <v>2417</v>
+        <v>2423</v>
       </c>
       <c r="C848" s="10" t="s">
-        <v>2418</v>
+        <v>2424</v>
       </c>
       <c r="D848" s="6" t="s"/>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="4" t="s">
-        <v>2419</v>
+        <v>2425</v>
       </c>
       <c r="B849" s="10" t="s">
-        <v>2420</v>
+        <v>2426</v>
       </c>
       <c r="C849" s="10" t="s">
-        <v>2420</v>
+        <v>2426</v>
       </c>
       <c r="D849" s="6" t="s"/>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="4" t="s">
-        <v>2421</v>
+        <v>2427</v>
       </c>
       <c r="B850" s="10" t="s">
-        <v>2422</v>
+        <v>2428</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>2422</v>
+        <v>2428</v>
       </c>
       <c r="D850" s="6" t="s"/>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="4" t="s">
-        <v>2423</v>
+        <v>2429</v>
       </c>
       <c r="B851" s="10" t="s">
-        <v>2424</v>
+        <v>2430</v>
       </c>
       <c r="C851" s="10" t="s">
-        <v>2424</v>
+        <v>2430</v>
       </c>
       <c r="D851" s="6" t="s"/>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="4" t="s">
-        <v>2425</v>
+        <v>2431</v>
       </c>
       <c r="B852" s="10" t="s">
-        <v>2426</v>
+        <v>2432</v>
       </c>
       <c r="C852" s="10" t="s">
-        <v>2426</v>
+        <v>2432</v>
       </c>
       <c r="D852" s="6" t="s"/>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="4" t="s">
-        <v>2427</v>
+        <v>2433</v>
       </c>
       <c r="B853" s="10" t="s">
-        <v>2428</v>
+        <v>2434</v>
       </c>
       <c r="C853" s="10" t="s">
-        <v>2428</v>
+        <v>2434</v>
       </c>
       <c r="D853" s="6" t="s"/>
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="4" t="s">
-        <v>2429</v>
+        <v>2435</v>
       </c>
       <c r="B854" s="10" t="s">
-        <v>2430</v>
+        <v>2436</v>
       </c>
       <c r="C854" s="10" t="s">
-        <v>2430</v>
+        <v>2436</v>
       </c>
       <c r="D854" s="6" t="s"/>
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="4" t="s">
-        <v>2431</v>
+        <v>2437</v>
       </c>
       <c r="B855" s="10" t="s">
-        <v>2432</v>
+        <v>2438</v>
       </c>
       <c r="C855" s="10" t="s">
-        <v>2432</v>
+        <v>2438</v>
       </c>
       <c r="D855" s="6" t="s"/>
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="4" t="s">
-        <v>2433</v>
+        <v>2439</v>
       </c>
       <c r="B856" s="10" t="s">
-        <v>2434</v>
+        <v>2440</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>2434</v>
+        <v>2440</v>
       </c>
       <c r="D856" s="6" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="4" t="s">
-        <v>2435</v>
+        <v>2441</v>
       </c>
       <c r="B857" s="10" t="s">
-        <v>2436</v>
+        <v>2442</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>2436</v>
+        <v>2442</v>
       </c>
       <c r="D857" s="6" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="4" t="s">
-        <v>2437</v>
+        <v>2443</v>
       </c>
       <c r="B858" s="10" t="s">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="D858" s="6" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="4" t="s">
-        <v>2439</v>
+        <v>2445</v>
       </c>
       <c r="B859" s="10" t="s">
-        <v>2440</v>
+        <v>2446</v>
       </c>
       <c r="C859" s="10" t="s">
-        <v>2440</v>
+        <v>2446</v>
       </c>
       <c r="D859" s="6" t="s"/>
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2441</v>
+        <v>2447</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2442</v>
+        <v>2448</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2442</v>
+        <v>2448</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2443</v>
+        <v>2449</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2444</v>
+        <v>2450</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2444</v>
+        <v>2450</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2445</v>
+        <v>2451</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2446</v>
+        <v>2452</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2446</v>
+        <v>2452</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2447</v>
+        <v>2453</v>
       </c>
       <c r="B863" s="10" t="s">
-        <v>2448</v>
+        <v>2454</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>2448</v>
+        <v>2454</v>
       </c>
       <c r="D863" s="6" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2449</v>
+        <v>2455</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2450</v>
+        <v>2456</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2450</v>
+        <v>2456</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2451</v>
+        <v>2457</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2452</v>
+        <v>2458</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2453</v>
+        <v>2459</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2454</v>
+        <v>2460</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2455</v>
+        <v>2461</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2455</v>
+        <v>2461</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2456</v>
+        <v>2462</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2457</v>
+        <v>2463</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2457</v>
+        <v>2463</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2458</v>
+        <v>2464</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2459</v>
+        <v>2465</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2459</v>
+        <v>2465</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2460</v>
+        <v>2466</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2461</v>
+        <v>2467</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2461</v>
+        <v>2467</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2462</v>
+        <v>2468</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2463</v>
+        <v>2469</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2463</v>
+        <v>2469</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2464</v>
+        <v>2470</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2465</v>
+        <v>2471</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2465</v>
+        <v>2471</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2466</v>
+        <v>2472</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2467</v>
+        <v>2473</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2467</v>
+        <v>2473</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2468</v>
+        <v>2474</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2469</v>
+        <v>2475</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2469</v>
+        <v>2475</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2470</v>
+        <v>2476</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2471</v>
+        <v>2477</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2471</v>
+        <v>2477</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2472</v>
+        <v>2478</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2473</v>
+        <v>2479</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2473</v>
+        <v>2479</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2474</v>
+        <v>2480</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2475</v>
+        <v>2481</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2475</v>
+        <v>2481</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2476</v>
+        <v>2482</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2477</v>
+        <v>2483</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2477</v>
+        <v>2483</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2478</v>
+        <v>2484</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2479</v>
+        <v>2485</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2479</v>
+        <v>2485</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2480</v>
+        <v>2486</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2481</v>
+        <v>2487</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2481</v>
+        <v>2487</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2482</v>
+        <v>2488</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2483</v>
+        <v>2489</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2483</v>
+        <v>2489</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2484</v>
+        <v>2490</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2485</v>
+        <v>2491</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2485</v>
+        <v>2491</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2486</v>
+        <v>2492</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2487</v>
+        <v>2493</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2487</v>
+        <v>2493</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2488</v>
+        <v>2494</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2489</v>
+        <v>2495</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2489</v>
+        <v>2495</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2490</v>
+        <v>2496</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2491</v>
+        <v>2497</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2491</v>
+        <v>2497</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2492</v>
+        <v>2498</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2493</v>
+        <v>2499</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2493</v>
+        <v>2499</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2494</v>
+        <v>2500</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2495</v>
+        <v>2501</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2495</v>
+        <v>2501</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2496</v>
+        <v>2502</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2497</v>
+        <v>2503</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2497</v>
+        <v>2503</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2499</v>
+        <v>2505</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2499</v>
+        <v>2505</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2501</v>
+        <v>2507</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2503</v>
+        <v>2509</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2504</v>
+        <v>2510</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2505</v>
+        <v>2511</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2506</v>
+        <v>2512</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2507</v>
+        <v>2513</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2507</v>
+        <v>2513</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2508</v>
+        <v>2514</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2509</v>
+        <v>2515</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2509</v>
+        <v>2515</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2510</v>
+        <v>2516</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2511</v>
+        <v>2517</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2511</v>
+        <v>2517</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2512</v>
+        <v>2518</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2514</v>
+        <v>2520</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2515</v>
+        <v>2521</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2515</v>
+        <v>2521</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2516</v>
+        <v>2522</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2517</v>
+        <v>2523</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2517</v>
+        <v>2523</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2518</v>
+        <v>2524</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2519</v>
+        <v>2525</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2519</v>
+        <v>2525</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2520</v>
+        <v>2526</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2522</v>
+        <v>2528</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2524</v>
+        <v>2530</v>
       </c>
       <c r="B900" s="10" t="s">
-        <v>2525</v>
+        <v>2531</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2525</v>
+        <v>2531</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2526</v>
+        <v>2532</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>2527</v>
+        <v>2533</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2527</v>
+        <v>2533</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2528</v>
+        <v>2534</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>2529</v>
+        <v>2535</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>2529</v>
+        <v>2535</v>
       </c>
       <c r="D902" s="6" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2530</v>
+        <v>2536</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>2531</v>
+        <v>2537</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>2531</v>
+        <v>2537</v>
       </c>
       <c r="D903" s="6" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2532</v>
+        <v>2538</v>
       </c>
       <c r="B904" s="10" t="s">
-        <v>2533</v>
+        <v>2539</v>
       </c>
       <c r="C904" s="10" t="s">
-        <v>2533</v>
+        <v>2539</v>
       </c>
       <c r="D904" s="6" t="s"/>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2534</v>
+        <v>2540</v>
       </c>
       <c r="B905" s="10" t="s">
-        <v>2535</v>
+        <v>2541</v>
       </c>
       <c r="C905" s="10" t="s">
-        <v>2535</v>
+        <v>2541</v>
       </c>
       <c r="D905" s="6" t="s"/>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2536</v>
+        <v>2542</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2537</v>
+        <v>2543</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2537</v>
+        <v>2543</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2538</v>
+        <v>2544</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2539</v>
+        <v>2545</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2539</v>
+        <v>2545</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2540</v>
+        <v>2546</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2541</v>
+        <v>2547</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2541</v>
+        <v>2547</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2542</v>
+        <v>2548</v>
       </c>
       <c r="B909" s="10" t="s">
-        <v>2543</v>
+        <v>2549</v>
       </c>
       <c r="C909" s="10" t="s">
-        <v>2543</v>
+        <v>2549</v>
       </c>
       <c r="D909" s="6" t="s"/>
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2544</v>
+        <v>2550</v>
       </c>
       <c r="B910" s="10" t="s">
-        <v>2545</v>
+        <v>2551</v>
       </c>
       <c r="C910" s="10" t="s">
-        <v>2545</v>
+        <v>2551</v>
       </c>
       <c r="D910" s="6" t="s"/>
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2546</v>
+        <v>2552</v>
       </c>
       <c r="B911" s="10" t="s">
-        <v>2547</v>
+        <v>2553</v>
       </c>
       <c r="C911" s="10" t="s">
-        <v>2547</v>
+        <v>2553</v>
       </c>
       <c r="D911" s="6" t="s"/>
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2548</v>
+        <v>2554</v>
       </c>
       <c r="B912" s="10" t="s">
-        <v>2549</v>
+        <v>2555</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>2549</v>
+        <v>2555</v>
       </c>
       <c r="D912" s="6" t="s"/>
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2550</v>
+        <v>2556</v>
       </c>
       <c r="B913" s="10" t="s">
-        <v>2551</v>
+        <v>2557</v>
       </c>
       <c r="C913" s="10" t="s">
-        <v>2551</v>
+        <v>2557</v>
       </c>
       <c r="D913" s="6" t="s"/>
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2552</v>
+        <v>2558</v>
       </c>
       <c r="B914" s="10" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="C914" s="10" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="D914" s="6" t="s"/>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2554</v>
+        <v>2560</v>
       </c>
       <c r="B915" s="10" t="s">
-        <v>2555</v>
+        <v>2561</v>
       </c>
       <c r="C915" s="10" t="s">
-        <v>2555</v>
+        <v>2561</v>
       </c>
       <c r="D915" s="6" t="s"/>
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2556</v>
+        <v>2562</v>
       </c>
       <c r="B916" s="10" t="s">
-        <v>2557</v>
+        <v>2563</v>
       </c>
       <c r="C916" s="10" t="s">
-        <v>2557</v>
+        <v>2563</v>
       </c>
       <c r="D916" s="6" t="s"/>
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2558</v>
+        <v>2564</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2559</v>
+        <v>2565</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2559</v>
+        <v>2565</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2560</v>
+        <v>2566</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2561</v>
+        <v>2567</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2561</v>
+        <v>2567</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2562</v>
+        <v>2568</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2563</v>
+        <v>2569</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2563</v>
+        <v>2569</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2564</v>
+        <v>2570</v>
       </c>
       <c r="B920" s="10" t="s">
-        <v>2565</v>
+        <v>2571</v>
       </c>
       <c r="C920" s="10" t="s">
-        <v>2565</v>
+        <v>2571</v>
       </c>
       <c r="D920" s="6" t="s"/>
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2566</v>
+        <v>2572</v>
       </c>
       <c r="B921" s="10" t="s">
-        <v>2567</v>
+        <v>2573</v>
       </c>
       <c r="C921" s="10" t="s">
-        <v>2567</v>
+        <v>2573</v>
       </c>
       <c r="D921" s="6" t="s"/>
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2568</v>
+        <v>2574</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2569</v>
+        <v>2575</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2569</v>
+        <v>2575</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2570</v>
+        <v>2576</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2571</v>
+        <v>2577</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2571</v>
+        <v>2577</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2572</v>
+        <v>2578</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2573</v>
+        <v>2579</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2574</v>
+        <v>2580</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2575</v>
-      </c>
-      <c r="B925" s="10" t="s"/>
-      <c r="C925" s="10" t="s"/>
+        <v>2581</v>
+      </c>
+      <c r="B925" s="10" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C925" s="10" t="s">
+        <v>2583</v>
+      </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
-      <c r="A926" s="4" t="s"/>
-      <c r="B926" s="10" t="s"/>
-      <c r="C926" s="10" t="s"/>
+      <c r="A926" s="4" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B926" s="10" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C926" s="10" t="s">
+        <v>2586</v>
+      </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
-      <c r="A927" s="4" t="s"/>
-      <c r="B927" s="10" t="s"/>
-      <c r="C927" s="10" t="s"/>
+      <c r="A927" s="4" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B927" s="10" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C927" s="10" t="s">
+        <v>2589</v>
+      </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
-      <c r="A928" s="4" t="s"/>
-      <c r="B928" s="10" t="s"/>
-      <c r="C928" s="10" t="s"/>
+      <c r="A928" s="4" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B928" s="10" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C928" s="10" t="s">
+        <v>2592</v>
+      </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
-      <c r="A929" s="4" t="s"/>
+      <c r="A929" s="4" t="s">
+        <v>2593</v>
+      </c>
       <c r="B929" s="10" t="s"/>
       <c r="C929" s="10" t="s"/>
       <c r="D929" s="6" t="s"/>
+    </row>
+    <row r="930" spans="1:4">
+      <c r="A930" s="4" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B930" s="10" t="s"/>
+      <c r="C930" s="10" t="s"/>
+      <c r="D930" s="6" t="s"/>
+    </row>
+    <row r="931" spans="1:4">
+      <c r="A931" s="4" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B931" s="10" t="s"/>
+      <c r="C931" s="10" t="s"/>
+      <c r="D931" s="6" t="s"/>
+    </row>
+    <row r="932" spans="1:4">
+      <c r="A932" s="4" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B932" s="10" t="s"/>
+      <c r="C932" s="10" t="s"/>
+      <c r="D932" s="6" t="s"/>
+    </row>
+    <row r="933" spans="1:4">
+      <c r="A933" s="4" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B933" s="10" t="s"/>
+      <c r="C933" s="10" t="s"/>
+      <c r="D933" s="6" t="s"/>
+    </row>
+    <row r="934" spans="1:4">
+      <c r="A934" s="4" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B934" s="10" t="s"/>
+      <c r="C934" s="10" t="s"/>
+      <c r="D934" s="6" t="s"/>
+    </row>
+    <row r="935" spans="1:4">
+      <c r="A935" s="4" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B935" s="10" t="s"/>
+      <c r="C935" s="10" t="s"/>
+      <c r="D935" s="6" t="s"/>
+    </row>
+    <row r="936" spans="1:4">
+      <c r="A936" s="4" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B936" s="10" t="s"/>
+      <c r="C936" s="10" t="s"/>
+      <c r="D936" s="6" t="s"/>
+    </row>
+    <row r="937" spans="1:4">
+      <c r="A937" s="4" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B937" s="10" t="s"/>
+      <c r="C937" s="10" t="s"/>
+      <c r="D937" s="6" t="s"/>
+    </row>
+    <row r="938" spans="1:4">
+      <c r="A938" s="4" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B938" s="10" t="s"/>
+      <c r="C938" s="10" t="s"/>
+      <c r="D938" s="6" t="s"/>
+    </row>
+    <row r="939" spans="1:4">
+      <c r="A939" s="4" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B939" s="10" t="s"/>
+      <c r="C939" s="10" t="s"/>
+      <c r="D939" s="6" t="s"/>
+    </row>
+    <row r="940" spans="1:4">
+      <c r="A940" s="4" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B940" s="10" t="s"/>
+      <c r="C940" s="10" t="s"/>
+      <c r="D940" s="6" t="s"/>
+    </row>
+    <row r="941" spans="1:4">
+      <c r="A941" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B941" s="10" t="s"/>
+      <c r="C941" s="10" t="s"/>
+      <c r="D941" s="6" t="s"/>
+    </row>
+    <row r="942" spans="1:4">
+      <c r="A942" s="4" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B942" s="10" t="s"/>
+      <c r="C942" s="10" t="s"/>
+      <c r="D942" s="6" t="s"/>
+    </row>
+    <row r="943" spans="1:4">
+      <c r="A943" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B943" s="10" t="s"/>
+      <c r="C943" s="10" t="s"/>
+      <c r="D943" s="6" t="s"/>
+    </row>
+    <row r="944" spans="1:4">
+      <c r="A944" s="4" t="s"/>
+      <c r="B944" s="10" t="s"/>
+      <c r="C944" s="10" t="s"/>
+      <c r="D944" s="6" t="s"/>
+    </row>
+    <row r="945" spans="1:4">
+      <c r="A945" s="4" t="s"/>
+      <c r="B945" s="10" t="s"/>
+      <c r="C945" s="10" t="s"/>
+      <c r="D945" s="6" t="s"/>
+    </row>
+    <row r="946" spans="1:4">
+      <c r="A946" s="4" t="s"/>
+      <c r="B946" s="10" t="s"/>
+      <c r="C946" s="10" t="s"/>
+      <c r="D946" s="6" t="s"/>
+    </row>
+    <row r="947" spans="1:4">
+      <c r="A947" s="4" t="s"/>
+      <c r="B947" s="10" t="s"/>
+      <c r="C947" s="10" t="s"/>
+      <c r="D947" s="6" t="s"/>
+    </row>
+    <row r="948" spans="1:4">
+      <c r="A948" s="4" t="s"/>
+      <c r="B948" s="10" t="s"/>
+      <c r="C948" s="10" t="s"/>
+      <c r="D948" s="6" t="s"/>
+    </row>
+    <row r="949" spans="1:4">
+      <c r="A949" s="4" t="s"/>
+      <c r="B949" s="10" t="s"/>
+      <c r="C949" s="10" t="s"/>
+      <c r="D949" s="6" t="s"/>
+    </row>
+    <row r="950" spans="1:4">
+      <c r="A950" s="4" t="s"/>
+      <c r="B950" s="10" t="s"/>
+      <c r="C950" s="10" t="s"/>
+      <c r="D950" s="6" t="s"/>
+    </row>
+    <row r="951" spans="1:4">
+      <c r="A951" s="4" t="s"/>
+      <c r="B951" s="10" t="s"/>
+      <c r="C951" s="10" t="s"/>
+      <c r="D951" s="6" t="s"/>
+    </row>
+    <row r="952" spans="1:4">
+      <c r="A952" s="4" t="s"/>
+      <c r="B952" s="10" t="s"/>
+      <c r="C952" s="10" t="s"/>
+      <c r="D952" s="6" t="s"/>
+    </row>
+    <row r="953" spans="1:4">
+      <c r="A953" s="4" t="s"/>
+      <c r="B953" s="10" t="s"/>
+      <c r="C953" s="10" t="s"/>
+      <c r="D953" s="6" t="s"/>
+    </row>
+    <row r="954" spans="1:4">
+      <c r="A954" s="4" t="s"/>
+      <c r="B954" s="10" t="s"/>
+      <c r="C954" s="10" t="s"/>
+      <c r="D954" s="6" t="s"/>
+    </row>
+    <row r="955" spans="1:4">
+      <c r="A955" s="4" t="s"/>
+      <c r="B955" s="10" t="s"/>
+      <c r="C955" s="10" t="s"/>
+      <c r="D955" s="6" t="s"/>
+    </row>
+    <row r="956" spans="1:4">
+      <c r="A956" s="4" t="s"/>
+      <c r="B956" s="10" t="s"/>
+      <c r="C956" s="10" t="s"/>
+      <c r="D956" s="6" t="s"/>
+    </row>
+    <row r="957" spans="1:4">
+      <c r="A957" s="4" t="s"/>
+      <c r="B957" s="10" t="s"/>
+      <c r="C957" s="10" t="s"/>
+      <c r="D957" s="6" t="s"/>
+    </row>
+    <row r="958" spans="1:4">
+      <c r="A958" s="4" t="s"/>
+      <c r="B958" s="10" t="s"/>
+      <c r="C958" s="10" t="s"/>
+      <c r="D958" s="6" t="s"/>
+    </row>
+    <row r="959" spans="1:4">
+      <c r="A959" s="4" t="s"/>
+      <c r="B959" s="10" t="s"/>
+      <c r="C959" s="10" t="s"/>
+      <c r="D959" s="6" t="s"/>
+    </row>
+    <row r="960" spans="1:4">
+      <c r="A960" s="4" t="s"/>
+      <c r="B960" s="10" t="s"/>
+      <c r="C960" s="10" t="s"/>
+      <c r="D960" s="6" t="s"/>
+    </row>
+    <row r="961" spans="1:4">
+      <c r="A961" s="4" t="s"/>
+      <c r="B961" s="10" t="s"/>
+      <c r="C961" s="10" t="s"/>
+      <c r="D961" s="6" t="s"/>
+    </row>
+    <row r="962" spans="1:4">
+      <c r="A962" s="4" t="s"/>
+      <c r="B962" s="10" t="s"/>
+      <c r="C962" s="10" t="s"/>
+      <c r="D962" s="6" t="s"/>
+    </row>
+    <row r="963" spans="1:4">
+      <c r="A963" s="4" t="s"/>
+      <c r="B963" s="10" t="s"/>
+      <c r="C963" s="10" t="s"/>
+      <c r="D963" s="6" t="s"/>
+    </row>
+    <row r="964" spans="1:4">
+      <c r="A964" s="4" t="s"/>
+      <c r="B964" s="10" t="s"/>
+      <c r="C964" s="10" t="s"/>
+      <c r="D964" s="6" t="s"/>
+    </row>
+    <row r="965" spans="1:4">
+      <c r="A965" s="4" t="s"/>
+      <c r="B965" s="10" t="s"/>
+      <c r="C965" s="10" t="s"/>
+      <c r="D965" s="6" t="s"/>
+    </row>
+    <row r="966" spans="1:4">
+      <c r="A966" s="4" t="s"/>
+      <c r="B966" s="10" t="s"/>
+      <c r="C966" s="10" t="s"/>
+      <c r="D966" s="6" t="s"/>
+    </row>
+    <row r="967" spans="1:4">
+      <c r="A967" s="4" t="s"/>
+      <c r="B967" s="10" t="s"/>
+      <c r="C967" s="10" t="s"/>
+      <c r="D967" s="6" t="s"/>
+    </row>
+    <row r="968" spans="1:4">
+      <c r="A968" s="4" t="s"/>
+      <c r="B968" s="10" t="s"/>
+      <c r="C968" s="10" t="s"/>
+      <c r="D968" s="6" t="s"/>
+    </row>
+    <row r="969" spans="1:4">
+      <c r="A969" s="4" t="s"/>
+      <c r="B969" s="10" t="s"/>
+      <c r="C969" s="10" t="s"/>
+      <c r="D969" s="6" t="s"/>
+    </row>
+    <row r="970" spans="1:4">
+      <c r="A970" s="4" t="s"/>
+      <c r="B970" s="10" t="s"/>
+      <c r="C970" s="10" t="s"/>
+      <c r="D970" s="6" t="s"/>
+    </row>
+    <row r="971" spans="1:4">
+      <c r="A971" s="4" t="s"/>
+      <c r="B971" s="10" t="s"/>
+      <c r="C971" s="10" t="s"/>
+      <c r="D971" s="6" t="s"/>
+    </row>
+    <row r="972" spans="1:4">
+      <c r="A972" s="4" t="s"/>
+      <c r="B972" s="10" t="s"/>
+      <c r="C972" s="10" t="s"/>
+      <c r="D972" s="6" t="s"/>
+    </row>
+    <row r="973" spans="1:4">
+      <c r="A973" s="4" t="s"/>
+      <c r="B973" s="10" t="s"/>
+      <c r="C973" s="10" t="s"/>
+      <c r="D973" s="6" t="s"/>
+    </row>
+    <row r="974" spans="1:4">
+      <c r="A974" s="4" t="s"/>
+      <c r="B974" s="10" t="s"/>
+      <c r="C974" s="10" t="s"/>
+      <c r="D974" s="6" t="s"/>
+    </row>
+    <row r="975" spans="1:4">
+      <c r="A975" s="4" t="s"/>
+      <c r="B975" s="10" t="s"/>
+      <c r="C975" s="10" t="s"/>
+      <c r="D975" s="6" t="s"/>
+    </row>
+    <row r="976" spans="1:4">
+      <c r="A976" s="4" t="s"/>
+      <c r="B976" s="10" t="s"/>
+      <c r="C976" s="10" t="s"/>
+      <c r="D976" s="6" t="s"/>
+    </row>
+    <row r="977" spans="1:4">
+      <c r="A977" s="4" t="s"/>
+      <c r="B977" s="10" t="s"/>
+      <c r="C977" s="10" t="s"/>
+      <c r="D977" s="6" t="s"/>
+    </row>
+    <row r="978" spans="1:4">
+      <c r="A978" s="4" t="s"/>
+      <c r="B978" s="10" t="s"/>
+      <c r="C978" s="10" t="s"/>
+      <c r="D978" s="6" t="s"/>
+    </row>
+    <row r="979" spans="1:4">
+      <c r="A979" s="4" t="s"/>
+      <c r="B979" s="10" t="s"/>
+      <c r="C979" s="10" t="s"/>
+      <c r="D979" s="6" t="s"/>
+    </row>
+    <row r="980" spans="1:4">
+      <c r="A980" s="4" t="s"/>
+      <c r="B980" s="10" t="s"/>
+      <c r="C980" s="10" t="s"/>
+      <c r="D980" s="6" t="s"/>
+    </row>
+    <row r="981" spans="1:4">
+      <c r="A981" s="4" t="s"/>
+      <c r="B981" s="10" t="s"/>
+      <c r="C981" s="10" t="s"/>
+      <c r="D981" s="6" t="s"/>
+    </row>
+    <row r="982" spans="1:4">
+      <c r="A982" s="4" t="s"/>
+      <c r="B982" s="10" t="s"/>
+      <c r="C982" s="10" t="s"/>
+      <c r="D982" s="6" t="s"/>
+    </row>
+    <row r="983" spans="1:4">
+      <c r="A983" s="4" t="s"/>
+      <c r="B983" s="10" t="s"/>
+      <c r="C983" s="10" t="s"/>
+      <c r="D983" s="6" t="s"/>
+    </row>
+    <row r="984" spans="1:4">
+      <c r="A984" s="4" t="s"/>
+      <c r="B984" s="10" t="s"/>
+      <c r="C984" s="10" t="s"/>
+      <c r="D984" s="6" t="s"/>
+    </row>
+    <row r="985" spans="1:4">
+      <c r="A985" s="4" t="s"/>
+      <c r="B985" s="10" t="s"/>
+      <c r="C985" s="10" t="s"/>
+      <c r="D985" s="6" t="s"/>
+    </row>
+    <row r="986" spans="1:4">
+      <c r="A986" s="4" t="s"/>
+      <c r="B986" s="10" t="s"/>
+      <c r="C986" s="10" t="s"/>
+      <c r="D986" s="6" t="s"/>
+    </row>
+    <row r="987" spans="1:4">
+      <c r="A987" s="4" t="s"/>
+      <c r="B987" s="10" t="s"/>
+      <c r="C987" s="10" t="s"/>
+      <c r="D987" s="6" t="s"/>
+    </row>
+    <row r="988" spans="1:4">
+      <c r="A988" s="4" t="s"/>
+      <c r="B988" s="10" t="s"/>
+      <c r="C988" s="10" t="s"/>
+      <c r="D988" s="6" t="s"/>
+    </row>
+    <row r="989" spans="1:4">
+      <c r="A989" s="4" t="s"/>
+      <c r="B989" s="10" t="s"/>
+      <c r="C989" s="10" t="s"/>
+      <c r="D989" s="6" t="s"/>
+    </row>
+    <row r="990" spans="1:4">
+      <c r="A990" s="4" t="s"/>
+      <c r="B990" s="10" t="s"/>
+      <c r="C990" s="10" t="s"/>
+      <c r="D990" s="6" t="s"/>
+    </row>
+    <row r="991" spans="1:4">
+      <c r="A991" s="4" t="s"/>
+      <c r="B991" s="10" t="s"/>
+      <c r="C991" s="10" t="s"/>
+      <c r="D991" s="6" t="s"/>
+    </row>
+    <row r="992" spans="1:4">
+      <c r="A992" s="4" t="s"/>
+      <c r="B992" s="10" t="s"/>
+      <c r="C992" s="10" t="s"/>
+      <c r="D992" s="6" t="s"/>
+    </row>
+    <row r="993" spans="1:4">
+      <c r="A993" s="4" t="s"/>
+      <c r="B993" s="10" t="s"/>
+      <c r="C993" s="10" t="s"/>
+      <c r="D993" s="6" t="s"/>
+    </row>
+    <row r="994" spans="1:4">
+      <c r="A994" s="4" t="s"/>
+      <c r="B994" s="10" t="s"/>
+      <c r="C994" s="10" t="s"/>
+      <c r="D994" s="6" t="s"/>
+    </row>
+    <row r="995" spans="1:4">
+      <c r="A995" s="4" t="s"/>
+      <c r="B995" s="10" t="s"/>
+      <c r="C995" s="10" t="s"/>
+      <c r="D995" s="6" t="s"/>
+    </row>
+    <row r="996" spans="1:4">
+      <c r="A996" s="4" t="s"/>
+      <c r="B996" s="10" t="s"/>
+      <c r="C996" s="10" t="s"/>
+      <c r="D996" s="6" t="s"/>
+    </row>
+    <row r="997" spans="1:4">
+      <c r="A997" s="4" t="s"/>
+      <c r="B997" s="10" t="s"/>
+      <c r="C997" s="10" t="s"/>
+      <c r="D997" s="6" t="s"/>
+    </row>
+    <row r="998" spans="1:4">
+      <c r="A998" s="4" t="s"/>
+      <c r="B998" s="10" t="s"/>
+      <c r="C998" s="10" t="s"/>
+      <c r="D998" s="6" t="s"/>
+    </row>
+    <row r="999" spans="1:4">
+      <c r="A999" s="4" t="s"/>
+      <c r="B999" s="10" t="s"/>
+      <c r="C999" s="10" t="s"/>
+      <c r="D999" s="6" t="s"/>
+    </row>
+    <row r="1000" spans="1:4">
+      <c r="A1000" s="4" t="s"/>
+      <c r="B1000" s="10" t="s"/>
+      <c r="C1000" s="10" t="s"/>
+      <c r="D1000" s="6" t="s"/>
+    </row>
+    <row r="1001" spans="1:4">
+      <c r="A1001" s="4" t="s"/>
+      <c r="B1001" s="10" t="s"/>
+      <c r="C1001" s="10" t="s"/>
+      <c r="D1001" s="6" t="s"/>
+    </row>
+    <row r="1002" spans="1:4">
+      <c r="A1002" s="4" t="s"/>
+      <c r="B1002" s="10" t="s"/>
+      <c r="C1002" s="10" t="s"/>
+      <c r="D1002" s="6" t="s"/>
+    </row>
+    <row r="1003" spans="1:4">
+      <c r="A1003" s="4" t="s"/>
+      <c r="B1003" s="10" t="s"/>
+      <c r="C1003" s="10" t="s"/>
+      <c r="D1003" s="6" t="s"/>
+    </row>
+    <row r="1004" spans="1:4">
+      <c r="A1004" s="4" t="s"/>
+      <c r="B1004" s="10" t="s"/>
+      <c r="C1004" s="10" t="s"/>
+      <c r="D1004" s="6" t="s"/>
+    </row>
+    <row r="1005" spans="1:4">
+      <c r="A1005" s="4" t="s"/>
+      <c r="B1005" s="10" t="s"/>
+      <c r="C1005" s="10" t="s"/>
+      <c r="D1005" s="6" t="s"/>
+    </row>
+    <row r="1006" spans="1:4">
+      <c r="A1006" s="4" t="s"/>
+      <c r="B1006" s="10" t="s"/>
+      <c r="C1006" s="10" t="s"/>
+      <c r="D1006" s="6" t="s"/>
+    </row>
+    <row r="1007" spans="1:4">
+      <c r="A1007" s="4" t="s"/>
+      <c r="B1007" s="10" t="s"/>
+      <c r="C1007" s="10" t="s"/>
+      <c r="D1007" s="6" t="s"/>
+    </row>
+    <row r="1008" spans="1:4">
+      <c r="A1008" s="4" t="s"/>
+      <c r="B1008" s="10" t="s"/>
+      <c r="C1008" s="10" t="s"/>
+      <c r="D1008" s="6" t="s"/>
+    </row>
+    <row r="1009" spans="1:4">
+      <c r="A1009" s="4" t="s"/>
+      <c r="B1009" s="10" t="s"/>
+      <c r="C1009" s="10" t="s"/>
+      <c r="D1009" s="6" t="s"/>
+    </row>
+    <row r="1010" spans="1:4">
+      <c r="A1010" s="4" t="s"/>
+      <c r="B1010" s="10" t="s"/>
+      <c r="C1010" s="10" t="s"/>
+      <c r="D1010" s="6" t="s"/>
+    </row>
+    <row r="1011" spans="1:4">
+      <c r="A1011" s="4" t="s"/>
+      <c r="B1011" s="10" t="s"/>
+      <c r="C1011" s="10" t="s"/>
+      <c r="D1011" s="6" t="s"/>
+    </row>
+    <row r="1012" spans="1:4">
+      <c r="A1012" s="4" t="s"/>
+      <c r="B1012" s="10" t="s"/>
+      <c r="C1012" s="10" t="s"/>
+      <c r="D1012" s="6" t="s"/>
+    </row>
+    <row r="1013" spans="1:4">
+      <c r="A1013" s="4" t="s"/>
+      <c r="B1013" s="10" t="s"/>
+      <c r="C1013" s="10" t="s"/>
+      <c r="D1013" s="6" t="s"/>
+    </row>
+    <row r="1014" spans="1:4">
+      <c r="A1014" s="4" t="s"/>
+      <c r="B1014" s="10" t="s"/>
+      <c r="C1014" s="10" t="s"/>
+      <c r="D1014" s="6" t="s"/>
+    </row>
+    <row r="1015" spans="1:4">
+      <c r="A1015" s="4" t="s"/>
+      <c r="B1015" s="10" t="s"/>
+      <c r="C1015" s="10" t="s"/>
+      <c r="D1015" s="6" t="s"/>
+    </row>
+    <row r="1016" spans="1:4">
+      <c r="A1016" s="4" t="s"/>
+      <c r="B1016" s="10" t="s"/>
+      <c r="C1016" s="10" t="s"/>
+      <c r="D1016" s="6" t="s"/>
+    </row>
+    <row r="1017" spans="1:4">
+      <c r="A1017" s="4" t="s"/>
+      <c r="B1017" s="10" t="s"/>
+      <c r="C1017" s="10" t="s"/>
+      <c r="D1017" s="6" t="s"/>
+    </row>
+    <row r="1018" spans="1:4">
+      <c r="A1018" s="4" t="s"/>
+      <c r="B1018" s="10" t="s"/>
+      <c r="C1018" s="10" t="s"/>
+      <c r="D1018" s="6" t="s"/>
+    </row>
+    <row r="1019" spans="1:4">
+      <c r="A1019" s="4" t="s"/>
+      <c r="B1019" s="10" t="s"/>
+      <c r="C1019" s="10" t="s"/>
+      <c r="D1019" s="6" t="s"/>
+    </row>
+    <row r="1020" spans="1:4">
+      <c r="A1020" s="4" t="s"/>
+      <c r="B1020" s="10" t="s"/>
+      <c r="C1020" s="10" t="s"/>
+      <c r="D1020" s="6" t="s"/>
+    </row>
+    <row r="1021" spans="1:4">
+      <c r="A1021" s="4" t="s"/>
+      <c r="B1021" s="10" t="s"/>
+      <c r="C1021" s="10" t="s"/>
+      <c r="D1021" s="6" t="s"/>
+    </row>
+    <row r="1022" spans="1:4">
+      <c r="A1022" s="4" t="s"/>
+      <c r="B1022" s="10" t="s"/>
+      <c r="C1022" s="10" t="s"/>
+      <c r="D1022" s="6" t="s"/>
+    </row>
+    <row r="1023" spans="1:4">
+      <c r="A1023" s="4" t="s"/>
+      <c r="B1023" s="10" t="s"/>
+      <c r="C1023" s="10" t="s"/>
+      <c r="D1023" s="6" t="s"/>
+    </row>
+    <row r="1024" spans="1:4">
+      <c r="A1024" s="4" t="s"/>
+      <c r="B1024" s="10" t="s"/>
+      <c r="C1024" s="10" t="s"/>
+      <c r="D1024" s="6" t="s"/>
+    </row>
+    <row r="1025" spans="1:4">
+      <c r="A1025" s="4" t="s"/>
+      <c r="B1025" s="10" t="s"/>
+      <c r="C1025" s="10" t="s"/>
+      <c r="D1025" s="6" t="s"/>
+    </row>
+    <row r="1026" spans="1:4">
+      <c r="A1026" s="4" t="s"/>
+      <c r="B1026" s="10" t="s"/>
+      <c r="C1026" s="10" t="s"/>
+      <c r="D1026" s="6" t="s"/>
+    </row>
+    <row r="1027" spans="1:4">
+      <c r="A1027" s="4" t="s"/>
+      <c r="B1027" s="10" t="s"/>
+      <c r="C1027" s="10" t="s"/>
+      <c r="D1027" s="6" t="s"/>
+    </row>
+    <row r="1028" spans="1:4">
+      <c r="A1028" s="4" t="s"/>
+      <c r="B1028" s="10" t="s"/>
+      <c r="C1028" s="10" t="s"/>
+      <c r="D1028" s="6" t="s"/>
+    </row>
+    <row r="1029" spans="1:4">
+      <c r="A1029" s="4" t="s"/>
+      <c r="B1029" s="10" t="s"/>
+      <c r="C1029" s="10" t="s"/>
+      <c r="D1029" s="6" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="2614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="2616">
   <si>
     <t/>
   </si>
@@ -7797,6 +7797,12 @@
   </si>
   <si>
     <t>trans0929</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>Details</t>
   </si>
   <si>
     <t>trans0930</t>
@@ -11668,10 +11674,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12880,10 +12886,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12892,10 +12898,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19567,13 +19573,17 @@
       <c r="A929" s="4" t="s">
         <v>2593</v>
       </c>
-      <c r="B929" s="10" t="s"/>
-      <c r="C929" s="10" t="s"/>
+      <c r="B929" s="10" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C929" s="10" t="s">
+        <v>2595</v>
+      </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="B930" s="10" t="s"/>
       <c r="C930" s="10" t="s"/>
@@ -19581,7 +19591,7 @@
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="B931" s="10" t="s"/>
       <c r="C931" s="10" t="s"/>
@@ -19589,7 +19599,7 @@
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="B932" s="10" t="s"/>
       <c r="C932" s="10" t="s"/>
@@ -19597,7 +19607,7 @@
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="B933" s="10" t="s"/>
       <c r="C933" s="10" t="s"/>
@@ -19605,7 +19615,7 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="B934" s="10" t="s"/>
       <c r="C934" s="10" t="s"/>
@@ -19613,7 +19623,7 @@
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="B935" s="10" t="s"/>
       <c r="C935" s="10" t="s"/>
@@ -19621,7 +19631,7 @@
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="B936" s="10" t="s"/>
       <c r="C936" s="10" t="s"/>
@@ -19629,7 +19639,7 @@
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="B937" s="10" t="s"/>
       <c r="C937" s="10" t="s"/>
@@ -19637,7 +19647,7 @@
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="B938" s="10" t="s"/>
       <c r="C938" s="10" t="s"/>
@@ -19645,7 +19655,7 @@
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="B939" s="10" t="s"/>
       <c r="C939" s="10" t="s"/>
@@ -19653,7 +19663,7 @@
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="B940" s="10" t="s"/>
       <c r="C940" s="10" t="s"/>
@@ -19661,7 +19671,7 @@
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="B941" s="10" t="s"/>
       <c r="C941" s="10" t="s"/>
@@ -19669,7 +19679,7 @@
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="B942" s="10" t="s"/>
       <c r="C942" s="10" t="s"/>
@@ -19677,7 +19687,7 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="2616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="2618">
   <si>
     <t/>
   </si>
@@ -7806,6 +7806,12 @@
   </si>
   <si>
     <t>trans0930</t>
+  </si>
+  <si>
+    <t>可以用分号分隔多个vlan绑定对</t>
+  </si>
+  <si>
+    <t>Multiple VLAN binding pairs can be separated by semicolons</t>
   </si>
   <si>
     <t>trans0931</t>
@@ -11674,10 +11680,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12886,10 +12892,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12898,10 +12904,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19585,13 +19591,17 @@
       <c r="A930" s="4" t="s">
         <v>2596</v>
       </c>
-      <c r="B930" s="10" t="s"/>
-      <c r="C930" s="10" t="s"/>
+      <c r="B930" s="10" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C930" s="10" t="s">
+        <v>2598</v>
+      </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="B931" s="10" t="s"/>
       <c r="C931" s="10" t="s"/>
@@ -19599,7 +19609,7 @@
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="B932" s="10" t="s"/>
       <c r="C932" s="10" t="s"/>
@@ -19607,7 +19617,7 @@
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="B933" s="10" t="s"/>
       <c r="C933" s="10" t="s"/>
@@ -19615,7 +19625,7 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="B934" s="10" t="s"/>
       <c r="C934" s="10" t="s"/>
@@ -19623,7 +19633,7 @@
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="B935" s="10" t="s"/>
       <c r="C935" s="10" t="s"/>
@@ -19631,7 +19641,7 @@
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="B936" s="10" t="s"/>
       <c r="C936" s="10" t="s"/>
@@ -19639,7 +19649,7 @@
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="B937" s="10" t="s"/>
       <c r="C937" s="10" t="s"/>
@@ -19647,7 +19657,7 @@
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="B938" s="10" t="s"/>
       <c r="C938" s="10" t="s"/>
@@ -19655,7 +19665,7 @@
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="B939" s="10" t="s"/>
       <c r="C939" s="10" t="s"/>
@@ -19663,7 +19673,7 @@
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="B940" s="10" t="s"/>
       <c r="C940" s="10" t="s"/>
@@ -19671,7 +19681,7 @@
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="B941" s="10" t="s"/>
       <c r="C941" s="10" t="s"/>
@@ -19679,7 +19689,7 @@
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="B942" s="10" t="s"/>
       <c r="C942" s="10" t="s"/>
@@ -19687,7 +19697,7 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="2618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="2626">
   <si>
     <t/>
   </si>
@@ -2867,7 +2867,7 @@
     <t>仰光</t>
   </si>
   <si>
-    <t>Rangoon</t>
+    <t>Yangon</t>
   </si>
   <si>
     <t>trans0334</t>
@@ -4337,28 +4337,28 @@
     <t>trans0507</t>
   </si>
   <si>
-    <t>Wi-Fi 信道</t>
-  </si>
-  <si>
-    <t>Wi-Fi Channel</t>
+    <t>信道</t>
+  </si>
+  <si>
+    <t>Channel</t>
   </si>
   <si>
     <t>trans0508</t>
   </si>
   <si>
-    <t>Wi-Fi 模式</t>
-  </si>
-  <si>
-    <t>Wi-Fi Mode</t>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>Mode</t>
   </si>
   <si>
     <t>trans0509</t>
   </si>
   <si>
-    <t>Wi-Fi 频宽</t>
-  </si>
-  <si>
-    <t>Wi-Fi Bandwidth</t>
+    <t>频宽</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
   </si>
   <si>
     <t>trans0510</t>
@@ -6038,10 +6038,10 @@
     <t>trans0702</t>
   </si>
   <si>
-    <t>2.4GHz无线接口信息</t>
-  </si>
-  <si>
-    <t>2.4GHz Wlan Interface Information</t>
+    <t>2.4GHz无线信息</t>
+  </si>
+  <si>
+    <t>2.4GHz Wlan Information</t>
   </si>
   <si>
     <t>trans0703</t>
@@ -6056,19 +6056,19 @@
     <t>trans0704</t>
   </si>
   <si>
-    <t>5GHz无线接口信息</t>
-  </si>
-  <si>
-    <t>5GHz Wlan Interface Information</t>
+    <t>5GHz无线信息</t>
+  </si>
+  <si>
+    <t>5GHz Wlan Information</t>
   </si>
   <si>
     <t>trans0705</t>
   </si>
   <si>
-    <t>无线网络连接状态</t>
-  </si>
-  <si>
-    <t>Wireless Network Connection Status</t>
+    <t>无线状态</t>
+  </si>
+  <si>
+    <t>Wlan Status</t>
   </si>
   <si>
     <t>trans0706</t>
@@ -7817,13 +7817,37 @@
     <t>trans0931</t>
   </si>
   <si>
+    <t>无线信息</t>
+  </si>
+  <si>
+    <t>Wlan Information</t>
+  </si>
+  <si>
     <t>trans0932</t>
   </si>
   <si>
+    <t>无线设备</t>
+  </si>
+  <si>
+    <t>Wlan Devices</t>
+  </si>
+  <si>
     <t>trans0933</t>
   </si>
   <si>
+    <t>2.4GHz无线设备</t>
+  </si>
+  <si>
+    <t>2.4GHz Wlan Devices</t>
+  </si>
+  <si>
     <t>trans0934</t>
+  </si>
+  <si>
+    <t>5GHz无线设备</t>
+  </si>
+  <si>
+    <t>5GHz Wlan Devices</t>
   </si>
   <si>
     <t>trans0935</t>
@@ -11680,10 +11704,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2612</v>
+        <v>2620</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2613</v>
+        <v>2621</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12892,10 +12916,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2614</v>
+        <v>2622</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2615</v>
+        <v>2623</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12904,10 +12928,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2616</v>
+        <v>2624</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2617</v>
+        <v>2625</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19603,37 +19627,53 @@
       <c r="A931" s="4" t="s">
         <v>2599</v>
       </c>
-      <c r="B931" s="10" t="s"/>
-      <c r="C931" s="10" t="s"/>
+      <c r="B931" s="10" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C931" s="10" t="s">
+        <v>2601</v>
+      </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2600</v>
-      </c>
-      <c r="B932" s="10" t="s"/>
-      <c r="C932" s="10" t="s"/>
+        <v>2602</v>
+      </c>
+      <c r="B932" s="10" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C932" s="10" t="s">
+        <v>2604</v>
+      </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2601</v>
-      </c>
-      <c r="B933" s="10" t="s"/>
-      <c r="C933" s="10" t="s"/>
+        <v>2605</v>
+      </c>
+      <c r="B933" s="10" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C933" s="10" t="s">
+        <v>2607</v>
+      </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2602</v>
-      </c>
-      <c r="B934" s="10" t="s"/>
-      <c r="C934" s="10" t="s"/>
+        <v>2608</v>
+      </c>
+      <c r="B934" s="10" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C934" s="10" t="s">
+        <v>2610</v>
+      </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2603</v>
+        <v>2611</v>
       </c>
       <c r="B935" s="10" t="s"/>
       <c r="C935" s="10" t="s"/>
@@ -19641,7 +19681,7 @@
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2604</v>
+        <v>2612</v>
       </c>
       <c r="B936" s="10" t="s"/>
       <c r="C936" s="10" t="s"/>
@@ -19649,7 +19689,7 @@
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2605</v>
+        <v>2613</v>
       </c>
       <c r="B937" s="10" t="s"/>
       <c r="C937" s="10" t="s"/>
@@ -19657,7 +19697,7 @@
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2606</v>
+        <v>2614</v>
       </c>
       <c r="B938" s="10" t="s"/>
       <c r="C938" s="10" t="s"/>
@@ -19665,7 +19705,7 @@
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2607</v>
+        <v>2615</v>
       </c>
       <c r="B939" s="10" t="s"/>
       <c r="C939" s="10" t="s"/>
@@ -19673,7 +19713,7 @@
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2608</v>
+        <v>2616</v>
       </c>
       <c r="B940" s="10" t="s"/>
       <c r="C940" s="10" t="s"/>
@@ -19681,7 +19721,7 @@
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2609</v>
+        <v>2617</v>
       </c>
       <c r="B941" s="10" t="s"/>
       <c r="C941" s="10" t="s"/>
@@ -19689,7 +19729,7 @@
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2610</v>
+        <v>2618</v>
       </c>
       <c r="B942" s="10" t="s"/>
       <c r="C942" s="10" t="s"/>
@@ -19697,7 +19737,7 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2611</v>
+        <v>2619</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="2626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="2630">
   <si>
     <t/>
   </si>
@@ -7853,7 +7853,19 @@
     <t>trans0935</t>
   </si>
   <si>
+    <t>主机名称</t>
+  </si>
+  <si>
+    <t>Host Name</t>
+  </si>
+  <si>
     <t>trans0936</t>
+  </si>
+  <si>
+    <t>有线信息</t>
+  </si>
+  <si>
+    <t>Lan Information</t>
   </si>
   <si>
     <t>trans0937</t>
@@ -11704,10 +11716,10 @@
         <v>761</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12916,10 +12928,10 @@
         <v>1062</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12928,10 +12940,10 @@
         <v>1063</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19675,21 +19687,29 @@
       <c r="A935" s="4" t="s">
         <v>2611</v>
       </c>
-      <c r="B935" s="10" t="s"/>
-      <c r="C935" s="10" t="s"/>
+      <c r="B935" s="10" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C935" s="10" t="s">
+        <v>2613</v>
+      </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2612</v>
-      </c>
-      <c r="B936" s="10" t="s"/>
-      <c r="C936" s="10" t="s"/>
+        <v>2614</v>
+      </c>
+      <c r="B936" s="10" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C936" s="10" t="s">
+        <v>2616</v>
+      </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2613</v>
+        <v>2617</v>
       </c>
       <c r="B937" s="10" t="s"/>
       <c r="C937" s="10" t="s"/>
@@ -19697,7 +19717,7 @@
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2614</v>
+        <v>2618</v>
       </c>
       <c r="B938" s="10" t="s"/>
       <c r="C938" s="10" t="s"/>
@@ -19705,7 +19725,7 @@
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="B939" s="10" t="s"/>
       <c r="C939" s="10" t="s"/>
@@ -19713,7 +19733,7 @@
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="B940" s="10" t="s"/>
       <c r="C940" s="10" t="s"/>
@@ -19721,7 +19741,7 @@
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="B941" s="10" t="s"/>
       <c r="C941" s="10" t="s"/>
@@ -19729,7 +19749,7 @@
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="B942" s="10" t="s"/>
       <c r="C942" s="10" t="s"/>
@@ -19737,7 +19757,7 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2619</v>
+        <v>2623</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -1226,10 +1226,10 @@
     <t>trans0140</t>
   </si>
   <si>
-    <t>网口</t>
-  </si>
-  <si>
-    <t>Interface</t>
+    <t>WAN 名称</t>
+  </si>
+  <si>
+    <t>WAN Name</t>
   </si>
   <si>
     <t>trans0141</t>
@@ -3410,7 +3410,7 @@
     <t>trans0399</t>
   </si>
   <si>
-    <t>IP地址已经存在。</t>
+    <t>IP地址已经存在</t>
   </si>
   <si>
     <t>The IP address already exists</t>
@@ -3419,7 +3419,7 @@
     <t>trans0400</t>
   </si>
   <si>
-    <t>Mac地址已经存在。</t>
+    <t>Mac地址已经存在</t>
   </si>
   <si>
     <t>The Mac address already exists</t>
@@ -4160,7 +4160,7 @@
     <t>秒</t>
   </si>
   <si>
-    <t>Second (s)</t>
+    <t>Second(s)</t>
   </si>
   <si>
     <t>trans0489</t>
@@ -4259,7 +4259,7 @@
     <t>天</t>
   </si>
   <si>
-    <t>Day (s)</t>
+    <t>Day(s)</t>
   </si>
   <si>
     <t>trans0500</t>
@@ -4268,7 +4268,7 @@
     <t>小时</t>
   </si>
   <si>
-    <t>Hour (s)</t>
+    <t>Hour(s)</t>
   </si>
   <si>
     <t>trans0501</t>
@@ -4277,7 +4277,7 @@
     <t>分钟</t>
   </si>
   <si>
-    <t>Minute (s)</t>
+    <t>Minute(s)</t>
   </si>
   <si>
     <t>trans0502</t>
@@ -5090,10 +5090,10 @@
     <t>trans0593</t>
   </si>
   <si>
-    <t>%s信息</t>
-  </si>
-  <si>
-    <t>%s information</t>
+    <t>%s 信息</t>
+  </si>
+  <si>
+    <t>%s Information</t>
   </si>
   <si>
     <t>trans0594</t>
@@ -5219,7 +5219,7 @@
     <t>trans0609</t>
   </si>
   <si>
-    <t>%s 有效格式是： XXXX:XXXX:XXXX:XXXX::/XX</t>
+    <t>IP 前缀的有效格式是： XXXX:XXXX:XXXX:XXXX::/XX</t>
   </si>
   <si>
     <t>Invalid IP prefix! Format for XXXX:XXXX:XXXX:XXXX::/XX</t>
@@ -5228,7 +5228,7 @@
     <t>trans0610</t>
   </si>
   <si>
-    <t>%s 有效格式是： XXXX:XXXX:XXXX:XXXX::</t>
+    <t>地址前缀的有效格式是： XXXX:XXXX:XXXX:XXXX::</t>
   </si>
   <si>
     <t>Invalid address prefix! Format for XXXX:XXXX:XXXX:XXXX::/XX</t>
@@ -7775,7 +7775,7 @@
     <t>年</t>
   </si>
   <si>
-    <t>Year (s)</t>
+    <t>Year(s)</t>
   </si>
   <si>
     <t>trans0928</t>
@@ -7784,7 +7784,7 @@
     <t>月</t>
   </si>
   <si>
-    <t>Month (s)</t>
+    <t>Month(s)</t>
   </si>
   <si>
     <t>trans0929</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="2629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="2631">
   <si>
     <t/>
   </si>
@@ -1154,19 +1154,19 @@
     <t>trans0132</t>
   </si>
   <si>
-    <t>配置上行IPV4过滤规则</t>
-  </si>
-  <si>
-    <t>Configure The Upstream IPV4 Filtering Rules</t>
+    <t>上行IPV4过滤</t>
+  </si>
+  <si>
+    <t>The Upstream IPV4 Filtering</t>
   </si>
   <si>
     <t>trans0133</t>
   </si>
   <si>
-    <t>配置下行IPV4过滤规则</t>
-  </si>
-  <si>
-    <t>Configure The Downstream IPV4 Filtering Rules</t>
+    <t>下行IPV4过滤</t>
+  </si>
+  <si>
+    <t>The Downstream IPV4 Filtering</t>
   </si>
   <si>
     <t>trans0134</t>
@@ -6410,10 +6410,10 @@
     <t>trans0745</t>
   </si>
   <si>
-    <t>剩余租约</t>
-  </si>
-  <si>
-    <t>Lease Remaining</t>
+    <t>剩余租约时间</t>
+  </si>
+  <si>
+    <t>Lease Remaining Time</t>
   </si>
   <si>
     <t>trans0746</t>
@@ -7862,13 +7862,19 @@
     <t>trans0937</t>
   </si>
   <si>
-    <t>确认将这台设备加入黑名单吗</t>
-  </si>
-  <si>
-    <t>Are you sure to add this device to the blacklist？</t>
+    <t>确认将这台设备加入Wi-fi MAC过滤黑名单吗</t>
+  </si>
+  <si>
+    <t>Are you sure to add this MAC to the Wi-fi MAC Filter blacklist?</t>
   </si>
   <si>
     <t>trans0938</t>
+  </si>
+  <si>
+    <t>DHCP 信息</t>
+  </si>
+  <si>
+    <t>DHCP Information</t>
   </si>
   <si>
     <t>trans0939</t>
@@ -11713,10 +11719,10 @@
         <v>762</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12925,10 +12931,10 @@
         <v>1063</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12937,10 +12943,10 @@
         <v>1064</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19708,13 +19714,17 @@
       <c r="A938" s="4" t="s">
         <v>2617</v>
       </c>
-      <c r="B938" s="10" t="s"/>
-      <c r="C938" s="10" t="s"/>
+      <c r="B938" s="10" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C938" s="10" t="s">
+        <v>2619</v>
+      </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="B939" s="10" t="s"/>
       <c r="C939" s="10" t="s"/>
@@ -19722,7 +19732,7 @@
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="B940" s="10" t="s"/>
       <c r="C940" s="10" t="s"/>
@@ -19730,7 +19740,7 @@
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="B941" s="10" t="s"/>
       <c r="C941" s="10" t="s"/>
@@ -19738,7 +19748,7 @@
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="B942" s="10" t="s"/>
       <c r="C942" s="10" t="s"/>
@@ -19746,7 +19756,7 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="2623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="2630">
   <si>
     <t/>
   </si>
@@ -2129,7 +2129,7 @@
     <t>trans0250</t>
   </si>
   <si>
-    <t>静态 IP 绑定</t>
+    <t>DHCP 静态 IP</t>
   </si>
   <si>
     <t>DHCP Static IP</t>
@@ -2138,7 +2138,7 @@
     <t>trans0251</t>
   </si>
   <si>
-    <t>DHCPv6 静态 IP 配置</t>
+    <t>DHCPv6 静态 IP</t>
   </si>
   <si>
     <t>DHCPv6 Static IP</t>
@@ -3521,10 +3521,10 @@
     <t>trans0414</t>
   </si>
   <si>
-    <t>DHCPv6静态IP配置</t>
-  </si>
-  <si>
-    <t>DHCPv6 Static IP Configuration</t>
+    <t>接口 ID</t>
+  </si>
+  <si>
+    <t>Interface ID</t>
   </si>
   <si>
     <t>trans0415</t>
@@ -5378,7 +5378,7 @@
     <t>LAN 设备</t>
   </si>
   <si>
-    <t>LAN Device</t>
+    <t>LAN Devices</t>
   </si>
   <si>
     <t>trans0629</t>
@@ -6140,6 +6140,12 @@
     <t>trans0715</t>
   </si>
   <si>
+    <t>Wan 信息</t>
+  </si>
+  <si>
+    <t>Wan Information</t>
+  </si>
+  <si>
     <t>trans0716</t>
   </si>
   <si>
@@ -6926,9 +6932,6 @@
     <t>trans0806</t>
   </si>
   <si>
-    <t>DHCP 静态 IP</t>
-  </si>
-  <si>
     <t>trans0807</t>
   </si>
   <si>
@@ -7337,7 +7340,7 @@
     <t>共 %d 项</t>
   </si>
   <si>
-    <t>%d items</t>
+    <t>Total %d items</t>
   </si>
   <si>
     <t>trans0859</t>
@@ -7838,7 +7841,7 @@
     <t>trans0937</t>
   </si>
   <si>
-    <t>确认将这台设备加入Wi-fi MAC过滤黑名单吗</t>
+    <t>确认将这台设备加入 Wi-fi MAC 过滤黑名单吗</t>
   </si>
   <si>
     <t>Are you sure to add this MAC to the Wi-fi MAC Filter blacklist?</t>
@@ -7856,10 +7859,28 @@
     <t>trans0939</t>
   </si>
   <si>
+    <t>确认将这台设备加入 MAC 过滤黑名单吗</t>
+  </si>
+  <si>
+    <t>Are you sure to add this MAC to the MAC Filter blacklist?</t>
+  </si>
+  <si>
     <t>trans0940</t>
   </si>
   <si>
+    <t>确认开启 Wi-fi MAC 过滤吗</t>
+  </si>
+  <si>
+    <t>Are you sure to open the Wi-fi MAC Filter?</t>
+  </si>
+  <si>
     <t>trans0941</t>
+  </si>
+  <si>
+    <t>确认开启 MAC 过滤吗</t>
+  </si>
+  <si>
+    <t>Are you sure to open the MAC Filter?</t>
   </si>
   <si>
     <t>trans0942</t>
@@ -8445,7 +8466,7 @@
     <sheetView showGridLines="true" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="2" max="2" width="25.8906" customWidth="true"/>
+    <col min="2" max="2" width="40.1914" customWidth="true"/>
     <col min="3" max="3" width="51.3906" customWidth="true"/>
     <col min="4" max="4" width="19.5508" customWidth="true"/>
   </cols>
@@ -11691,10 +11712,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2617</v>
+        <v>2624</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2618</v>
+        <v>2625</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12903,10 +12924,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2619</v>
+        <v>2626</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2620</v>
+        <v>2627</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12915,10 +12936,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2621</v>
+        <v>2628</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2622</v>
+        <v>2629</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -17014,808 +17035,812 @@
       <c r="A715" s="4" t="s">
         <v>2040</v>
       </c>
-      <c r="B715" s="10" t="s"/>
-      <c r="C715" s="10" t="s"/>
+      <c r="B715" s="10" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C715" s="10" t="s">
+        <v>2042</v>
+      </c>
       <c r="D715" s="6" t="s"/>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="4" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="B716" s="10" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="C716" s="10" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="D716" s="6" t="s"/>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="4" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B717" s="10" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="C717" s="10" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="D717" s="6" t="s"/>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="4" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="B718" s="10" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="D718" s="6" t="s"/>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="4" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="B719" s="10" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="C719" s="10" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="D719" s="6" t="s"/>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="4" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B720" s="10" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="C720" s="10" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="D720" s="6" t="s"/>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="4" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="B721" s="10" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="C721" s="10" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="D721" s="6" t="s"/>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="4" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="B722" s="10" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="D722" s="6" t="s"/>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="4" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="B723" s="10" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="C723" s="10" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="D723" s="6" t="s"/>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="4" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="B724" s="10" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="C724" s="10" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="D724" s="6" t="s"/>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="4" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="B725" s="10" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="C725" s="10" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="D725" s="6" t="s"/>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="4" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="B726" s="10" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="C726" s="10" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="D726" s="6" t="s"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="4" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="B727" s="10" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="D727" s="6" t="s"/>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="4" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="B728" s="10" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="C728" s="10" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="D728" s="6" t="s"/>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="4" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="B729" s="10" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="C729" s="10" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="D729" s="6" t="s"/>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="4" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="B730" s="10" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="C730" s="10" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="D730" s="6" t="s"/>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="4" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="B731" s="10" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="C731" s="10" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="D731" s="6" t="s"/>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="4" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="B732" s="10" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="C732" s="10" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="D732" s="6" t="s"/>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="4" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="B733" s="10" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="C733" s="10" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="D733" s="6" t="s"/>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="4" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="B734" s="10" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="C734" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="D734" s="6" t="s"/>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="4" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="B735" s="10" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="C735" s="10" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="D735" s="6" t="s"/>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="4" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="B736" s="26" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="C736" s="10" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="D736" s="6" t="s"/>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="4" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="B737" s="10" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="C737" s="10" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="D737" s="6" t="s"/>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="4" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="B738" s="10" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="C738" s="10" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="D738" s="6" t="s"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="4" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="B739" s="10" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="C739" s="10" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="D739" s="6" t="s"/>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="4" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="B740" s="10" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="C740" s="10" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="D740" s="6" t="s"/>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="4" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="B741" s="10" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="C741" s="10" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="D741" s="6" t="s"/>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="4" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="B742" s="10" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="C742" s="10" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="D742" s="6" t="s"/>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="4" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="B743" s="10" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="C743" s="10" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="D743" s="6" t="s"/>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="4" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="B744" s="10" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="C744" s="10" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="D744" s="6" t="s"/>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="4" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="B745" s="10" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="C745" s="10" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="D745" s="6" t="s"/>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="4" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="B746" s="10" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="C746" s="10" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="D746" s="6" t="s"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="4" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="B747" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C747" s="10" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="D747" s="6" t="s"/>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="4" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="B748" s="10" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="C748" s="10" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="D748" s="6" t="s"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="4" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="B749" s="10" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="C749" s="10" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="D749" s="6" t="s"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="4" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="B750" s="10" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="C750" s="10" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="D750" s="6" t="s"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="4" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="B751" s="10" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="C751" s="10" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="D751" s="6" t="s"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="4" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="B752" s="10" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="C752" s="10" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="D752" s="6" t="s"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="4" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="B753" s="10" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="C753" s="10" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D753" s="6" t="s"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="4" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="B754" s="10" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="C754" s="10" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="D754" s="6" t="s"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="4" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="B755" s="10" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="C755" s="10" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="D755" s="6" t="s"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="4" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="B756" s="10" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="C756" s="10" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="D756" s="6" t="s"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="4" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="B757" s="10" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="C757" s="10" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="D757" s="6" t="s"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="4" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="B758" s="10" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="C758" s="10" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="D758" s="6" t="s"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="4" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="B759" s="10" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="C759" s="10" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="D759" s="6" t="s"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="4" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="B760" s="10" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="C760" s="10" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="D760" s="6" t="s"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="4" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="B761" s="10" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="D761" s="6" t="s"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="4" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="B762" s="10" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="D762" s="6" t="s"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="4" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="B763" s="10" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="C763" s="10" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="D763" s="6" t="s"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="4" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="B764" s="10" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="C764" s="10" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="D764" s="6" t="s"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="4" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="B765" s="10" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="C765" s="10" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="D765" s="6" t="s"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="4" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="B766" s="10" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="C766" s="10" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="D766" s="6" t="s"/>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="4" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="B767" s="10" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="D767" s="6" t="s"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="4" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="B768" s="10" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="D768" s="6" t="s"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="4" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="B769" s="10" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="C769" s="10" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="D769" s="6" t="s"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="4" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="B770" s="10" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="C770" s="10" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="D770" s="6" t="s"/>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="4" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="B771" s="10" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="D771" s="6" t="s"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="4" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="B772" s="10" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="C772" s="10" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="D772" s="6" t="s"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="4" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="B773" s="10" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="C773" s="10" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="D773" s="6" t="s"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="4" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="B774" s="10" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="C774" s="10" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="D774" s="6" t="s"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="4" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="B775" s="10" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="C775" s="10" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="D775" s="6" t="s"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="4" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="B776" s="10" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="D776" s="6" t="s"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="4" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="B777" s="10" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="C777" s="10" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="D777" s="6" t="s"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="4" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="B778" s="10" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="C778" s="10" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="D778" s="6" t="s"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="4" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="B779" s="10" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="C779" s="10" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="D779" s="6" t="s"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="4" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="B780" s="10" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="C780" s="10" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="D780" s="6" t="s"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="4" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="B781" s="10" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="D781" s="6" t="s"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="4" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="B782" s="10" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="C782" s="10" t="s">
         <v>1693</v>
@@ -17824,919 +17849,915 @@
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="4" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="B783" s="10" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="C783" s="10" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="D783" s="6" t="s"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="4" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="B784" s="10" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="C784" s="10" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="D784" s="6" t="s"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="4" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="B785" s="10" t="s">
         <v>1348</v>
       </c>
       <c r="C785" s="10" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="D785" s="6" t="s"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="4" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="B786" s="10" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="C786" s="10" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="D786" s="6" t="s"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="4" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="B787" s="10" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="D787" s="6" t="s"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="4" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="B788" s="10" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="D788" s="6" t="s"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="4" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="B789" s="10" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="D789" s="6" t="s"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="4" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="B790" s="10" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="C790" s="10" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="D790" s="6" t="s"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="4" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="B791" s="10" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="D791" s="6" t="s"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="4" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="B792" s="10" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="D792" s="6" t="s"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="4" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="B793" s="10" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="C793" s="10" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="D793" s="6" t="s"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="4" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="B794" s="10" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="C794" s="10" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="D794" s="6" t="s"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="4" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="B795" s="10" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="C795" s="10" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="D795" s="6" t="s"/>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="4" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="B796" s="10" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="C796" s="10" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="D796" s="6" t="s"/>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="4" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="B797" s="10" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="C797" s="10" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="D797" s="6" t="s"/>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="4" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="B798" s="10" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="C798" s="10" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="D798" s="6" t="s"/>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="4" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="B799" s="10" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="C799" s="10" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="D799" s="6" t="s"/>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="4" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="B800" s="10" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="C800" s="10" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="D800" s="6" t="s"/>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="4" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="B801" s="10" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="C801" s="10" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="D801" s="6" t="s"/>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="4" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="B802" s="10" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="C802" s="10" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="D802" s="6" t="s"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="4" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="B803" s="10" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="C803" s="10" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="D803" s="6" t="s"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="4" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="B804" s="10" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="C804" s="10" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="D804" s="6" t="s"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="4" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="B805" s="10" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="D805" s="6" t="s"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="4" t="s">
-        <v>2302</v>
-      </c>
-      <c r="B806" s="10" t="s">
-        <v>2303</v>
-      </c>
-      <c r="C806" s="10" t="s">
-        <v>705</v>
-      </c>
+        <v>2304</v>
+      </c>
+      <c r="B806" s="10" t="s"/>
+      <c r="C806" s="10" t="s"/>
       <c r="D806" s="6" t="s"/>
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="4" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="B807" s="10" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="D807" s="6" t="s"/>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="4" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="B808" s="10" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="C808" s="10" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="D808" s="6" t="s"/>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="4" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="B809" s="10" t="s">
         <v>1651</v>
       </c>
       <c r="C809" s="10" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="D809" s="6" t="s"/>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="4" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="B810" s="10" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="D810" s="6" t="s"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="4" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="B811" s="10" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="D811" s="6" t="s"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="4" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="B812" s="10" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="D812" s="6" t="s"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="4" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="B813" s="10" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="D813" s="6" t="s"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="4" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="B814" s="10" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="D814" s="6" t="s"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="4" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="B815" s="10" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D815" s="6" t="s"/>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="4" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="B816" s="10" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C816" s="10" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="D816" s="6" t="s"/>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="4" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="B817" s="10" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="C817" s="10" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="D817" s="6" t="s"/>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="4" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="B818" s="10" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="D818" s="6" t="s"/>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="4" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="B819" s="10" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="D819" s="6" t="s"/>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="4" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="B820" s="10" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="C820" s="10" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="D820" s="6" t="s"/>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="4" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="B821" s="10" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="C821" s="10" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="D821" s="6" t="s"/>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="4" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="B822" s="10" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="C822" s="10" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="D822" s="6" t="s"/>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="4" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="B823" s="10" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="C823" s="10" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="D823" s="6" t="s"/>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="4" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="B824" s="10" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="C824" s="10" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="D824" s="6" t="s"/>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="4" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="B825" s="10" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="C825" s="10" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="D825" s="6" t="s"/>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="4" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="B826" s="10" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="C826" s="10" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="D826" s="6" t="s"/>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="4" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="B827" s="10" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="C827" s="10" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="D827" s="6" t="s"/>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="4" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="B828" s="10" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="C828" s="10" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="D828" s="6" t="s"/>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="4" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="B829" s="10" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="C829" s="10" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="D829" s="6" t="s"/>
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="4" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="B830" s="10" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C830" s="10" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="D830" s="6" t="s"/>
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="4" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="B831" s="10" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="C831" s="10" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="D831" s="6" t="s"/>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="4" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="B832" s="10" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="C832" s="10" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="D832" s="6" t="s"/>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="4" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="B833" s="10" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="C833" s="10" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="D833" s="6" t="s"/>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="4" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="B834" s="10" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="C834" s="10" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="D834" s="6" t="s"/>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="4" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B835" s="10" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C835" s="10" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="D835" s="6" t="s"/>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="4" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="B836" s="10" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="C836" s="10" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="D836" s="6" t="s"/>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="4" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="B837" s="10" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C837" s="10" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="D837" s="6" t="s"/>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="4" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="B838" s="10" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="C838" s="10" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="D838" s="6" t="s"/>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="4" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="B839" s="10" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="C839" s="10" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="D839" s="6" t="s"/>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="4" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="B840" s="10" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="C840" s="10" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="D840" s="6" t="s"/>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="4" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B841" s="10" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="C841" s="10" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="D841" s="6" t="s"/>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="4" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="B842" s="10" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C842" s="10" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="D842" s="6" t="s"/>
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="4" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="B843" s="10" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="C843" s="10" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="D843" s="6" t="s"/>
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="4" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="B844" s="10" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="C844" s="10" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="D844" s="6" t="s"/>
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="4" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="B845" s="10" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="C845" s="10" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="D845" s="27" t="s"/>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="4" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="B846" s="10" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="C846" s="10" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="D846" s="27" t="s"/>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="4" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="B847" s="10" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="D847" s="10" t="s"/>
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="4" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="B848" s="10" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C848" s="10" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="D848" s="6" t="s"/>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="4" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="B849" s="10" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="C849" s="10" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="D849" s="6" t="s"/>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="4" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="B850" s="10" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="D850" s="6" t="s"/>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="4" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="B851" s="10" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="C851" s="10" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="D851" s="6" t="s"/>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="4" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="B852" s="10" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="C852" s="10" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="D852" s="6" t="s"/>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="4" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="B853" s="10" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="C853" s="10" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="D853" s="6" t="s"/>
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="4" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="B854" s="10" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="C854" s="10" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="D854" s="6" t="s"/>
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="4" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="B855" s="10" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="C855" s="10" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="D855" s="6" t="s"/>
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="4" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="B856" s="10" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="D856" s="6" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="4" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="B857" s="10" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="D857" s="6" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="4" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="B858" s="10" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="D858" s="6" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="4" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="B859" s="10" t="s"/>
       <c r="C859" s="10" t="s"/>
@@ -18744,595 +18765,595 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="B863" s="10" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="D863" s="6" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="B900" s="10" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="D902" s="6" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="D903" s="6" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="B904" s="10" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="C904" s="10" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="D904" s="6" t="s"/>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="B905" s="10" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="C905" s="10" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="D905" s="6" t="s"/>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19340,7 +19361,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19348,7 +19369,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19356,7 +19377,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19364,7 +19385,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19372,7 +19393,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19380,319 +19401,331 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="B915" s="10" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="C915" s="10" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="D915" s="6" t="s"/>
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="B916" s="10" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="C916" s="10" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="D916" s="6" t="s"/>
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="B920" s="10" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="C920" s="10" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="D920" s="6" t="s"/>
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="B921" s="10" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="C921" s="10" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="D921" s="6" t="s"/>
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2612</v>
-      </c>
-      <c r="B939" s="10" t="s"/>
-      <c r="C939" s="10" t="s"/>
+        <v>2613</v>
+      </c>
+      <c r="B939" s="10" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C939" s="10" t="s">
+        <v>2615</v>
+      </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2613</v>
-      </c>
-      <c r="B940" s="10" t="s"/>
-      <c r="C940" s="10" t="s"/>
+        <v>2616</v>
+      </c>
+      <c r="B940" s="10" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C940" s="10" t="s">
+        <v>2618</v>
+      </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B941" s="10" t="s"/>
-      <c r="C941" s="10" t="s"/>
+        <v>2619</v>
+      </c>
+      <c r="B941" s="10" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C941" s="10" t="s">
+        <v>2621</v>
+      </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2615</v>
+        <v>2622</v>
       </c>
       <c r="B942" s="10" t="s"/>
       <c r="C942" s="10" t="s"/>
@@ -19700,7 +19733,7 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2616</v>
+        <v>2623</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="2630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="2632">
   <si>
     <t/>
   </si>
@@ -1850,7 +1850,7 @@
     <t>trans0217</t>
   </si>
   <si>
-    <t>(Format: AA:BB:CC:DD:EE:FF)</t>
+    <t>AA:BB:CC:DD:EE:FF</t>
   </si>
   <si>
     <t>trans0218</t>
@@ -3515,7 +3515,7 @@
     <t>trans0413</t>
   </si>
   <si>
-    <t>(XXXX:XXXX:XXXX:XXXX)</t>
+    <t>XXXX:XXXX:XXXX:XXXX</t>
   </si>
   <si>
     <t>trans0414</t>
@@ -7884,6 +7884,13 @@
   </si>
   <si>
     <t>trans0942</t>
+  </si>
+  <si>
+    <t>IPV6 GUA地址是接口ID与LAN侧配置的子
+网前缀的组合</t>
+  </si>
+  <si>
+    <t>The IPv6 GUA address is a combination of the interface ID and prefix configured on the LAN side</t>
   </si>
   <si>
     <t>trans0943</t>
@@ -11712,10 +11719,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12924,10 +12931,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12936,10 +12943,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19727,13 +19734,17 @@
       <c r="A942" s="4" t="s">
         <v>2622</v>
       </c>
-      <c r="B942" s="10" t="s"/>
-      <c r="C942" s="10" t="s"/>
+      <c r="B942" s="10" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C942" s="10" t="s">
+        <v>2624</v>
+      </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="2616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="2621">
   <si>
     <t/>
   </si>
@@ -3233,10 +3233,10 @@
     <t>trans0378</t>
   </si>
   <si>
-    <t>必须填写数字</t>
-  </si>
-  <si>
-    <t>Numbers are required</t>
+    <t>只能填写数字</t>
+  </si>
+  <si>
+    <t>Can only be digits</t>
   </si>
   <si>
     <t>trans0379</t>
@@ -3488,6 +3488,12 @@
     <t>trans0410</t>
   </si>
   <si>
+    <t>删除成功</t>
+  </si>
+  <si>
+    <t>Deletion successful.</t>
+  </si>
+  <si>
     <t>trans0411</t>
   </si>
   <si>
@@ -3572,7 +3578,7 @@
     <t>接口ID值是一个十六进制数字，不能超过64个字符</t>
   </si>
   <si>
-    <t>Interface ID value is a hexadecimal number and cannot exceed 64 characters</t>
+    <t>Interface ID value is a hexadecimal digits and cannot exceed 64 characters</t>
   </si>
   <si>
     <t>trans0421</t>
@@ -5201,9 +5207,6 @@
     <t>trans0608</t>
   </si>
   <si>
-    <t>Only numbers in the range [%d-%d] can be entered</t>
-  </si>
-  <si>
     <t>trans0609</t>
   </si>
   <si>
@@ -6794,6 +6797,12 @@
     <t>trans0791</t>
   </si>
   <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>Save successful</t>
+  </si>
+  <si>
     <t>trans0792</t>
   </si>
   <si>
@@ -6918,6 +6927,12 @@
   </si>
   <si>
     <t>trans0806</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>Login successful</t>
   </si>
   <si>
     <t>trans0807</t>
@@ -11675,10 +11690,10 @@
         <v>758</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2610</v>
+        <v>2615</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2611</v>
+        <v>2616</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12887,10 +12902,10 @@
         <v>1059</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2612</v>
+        <v>2617</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2613</v>
+        <v>2618</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12899,10 +12914,10 @@
         <v>1060</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2614</v>
+        <v>2619</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2615</v>
+        <v>2620</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -13342,148 +13357,152 @@
       <c r="A410" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="B410" s="10" t="s"/>
-      <c r="C410" s="10" t="s"/>
+      <c r="B410" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>1158</v>
+      </c>
       <c r="D410" s="6" t="s"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="8" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D411" s="6" t="s"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="8" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D412" s="6" t="s"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="8" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D413" s="6" t="s"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="8" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D414" s="6" t="s"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="8" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D415" s="6" t="s"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="8" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D416" s="6" t="s"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="8" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D417" s="6" t="s"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="8" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D418" s="6" t="s"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="8" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D419" s="6" t="s"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="8" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C420" s="10" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D420" s="6" t="s"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="8" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="D421" s="6" t="s"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="8" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C422" s="10" t="s">
         <v>1148</v>
@@ -13492,391 +13511,391 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="8" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B423" s="10" t="s">
         <v>183</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D423" s="6" t="s"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="8" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D424" s="6" t="s"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="8" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D425" s="6" t="s"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="8" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C426" s="10" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D426" s="6" t="s"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="8" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D427" s="6" t="s"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="8" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D428" s="6" t="s"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="8" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D429" s="6" t="s"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="8" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D430" s="6" t="s"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="8" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D431" s="6" t="s"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="8" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D432" s="6" t="s"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="8" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="D433" s="6" t="s"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="8" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D434" s="6" t="s"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="8" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D435" s="6" t="s"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="8" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D436" s="6" t="s"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="8" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D437" s="6" t="s"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="8" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D438" s="6" t="s"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="8" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D439" s="6" t="s"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="8" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D440" s="6" t="s"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="8" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D441" s="6" t="s"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="8" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D442" s="6" t="s"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="8" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D443" s="6" t="s"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="8" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D444" s="6" t="s"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="8" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D445" s="6" t="s"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="8" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D446" s="6" t="s"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="8" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D447" s="6" t="s"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="8" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D448" s="6" t="s"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="8" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D449" s="6" t="s"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="8" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D450" s="6" t="s"/>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="8" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D451" s="6" t="s"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="8" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C452" s="10" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D452" s="6" t="s"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="8" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D453" s="6" t="s"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="8" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B454" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D454" s="6" t="s"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="8" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B455" s="10" t="s"/>
       <c r="C455" s="10" t="s"/>
@@ -13884,127 +13903,127 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="8" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C456" s="10" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D456" s="6" t="s"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="8" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D457" s="6" t="s"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="8" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D458" s="6" t="s"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="8" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="D459" s="6" t="s"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="8" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D460" s="6" t="s"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="8" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D461" s="6" t="s"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="8" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D462" s="6" t="s"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="8" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D463" s="6" t="s"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="8" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D464" s="6" t="s"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="8" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="D465" s="10" t="s"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="8" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B466" s="10" t="s">
         <v>1121</v>
@@ -14016,1078 +14035,1078 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="8" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D467" s="6" t="s"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="8" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C468" s="10" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D468" s="6" t="s"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="8" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D469" s="6" t="s"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="8" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C470" s="10" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="D470" s="6" t="s"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="8" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D471" s="6" t="s"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="8" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="D472" s="19" t="s"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="8" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D473" s="6" t="s"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C474" s="10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D474" s="6" t="s"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="8" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D475" s="20" t="s"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="8" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="D476" s="6" t="s"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="8" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="D477" s="6" t="s"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="8" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D478" s="6" t="s"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="8" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D479" s="6" t="s"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="8" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C480" s="14" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="D480" s="6" t="s"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="8" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="D481" s="6" t="s"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="8" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C482" s="10" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="D482" s="6" t="s"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="8" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C483" s="14" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D483" s="6" t="s"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="8" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C484" s="14" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D484" s="6" t="s"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="8" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D485" s="6" t="s"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="8" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C486" s="10" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D486" s="6" t="s"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="8" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C487" s="10" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D487" s="6" t="s"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="8" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C488" s="10" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="D488" s="6" t="s"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="8" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D489" s="6" t="s"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="8" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C490" s="10" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D490" s="6" t="s"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="8" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C491" s="10" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="D491" s="6" t="s"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="8" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B492" s="10" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C492" s="10" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="D492" s="6" t="s"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="8" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="B493" s="10" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D493" s="6" t="s"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="8" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B494" s="10" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C494" s="10" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D494" s="6" t="s"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="8" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="D495" s="6" t="s"/>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="8" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="D496" s="6" t="s"/>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="8" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="D497" s="6" t="s"/>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="8" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C498" s="10" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="D498" s="6" t="s"/>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="8" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="B499" s="10" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D499" s="6" t="s"/>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="8" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="B500" s="10" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="C500" s="10" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D500" s="6" t="s"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="8" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B501" s="10" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="D501" s="6" t="s"/>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="8" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B502" s="10" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="C502" s="10" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="D502" s="6" t="s"/>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="8" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B503" s="10" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C503" s="10" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="D503" s="6" t="s"/>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="8" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B504" s="10" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C504" s="10" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="D504" s="6" t="s"/>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="8" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B505" s="10" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="D505" s="6" t="s"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="8" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B506" s="10" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C506" s="10" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="D506" s="6" t="s"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="8" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B507" s="10" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C507" s="10" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="D507" s="6" t="s"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="8" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="B508" s="10" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C508" s="10" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D508" s="21" t="s"/>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="8" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B509" s="10" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C509" s="10" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D509" s="22" t="s"/>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="8" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="B510" s="10" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="C510" s="10" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="D510" s="6" t="s"/>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="8" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B511" s="10" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C511" s="10" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="D511" s="6" t="s"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="8" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="B512" s="10" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="C512" s="10" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="D512" s="6" t="s"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="8" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="B513" s="10" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="D513" s="6" t="s"/>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="8" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="B514" s="10" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C514" s="10" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="D514" s="6" t="s"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="8" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="B515" s="10" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="D515" s="6" t="s"/>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="8" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="B516" s="10" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="C516" s="10" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="D516" s="6" t="s"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="8" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="B517" s="10" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D517" s="6" t="s"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="8" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="B518" s="10" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C518" s="10" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="D518" s="6" t="s"/>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="8" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="B519" s="10" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="D519" s="6" t="s"/>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="8" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B520" s="14" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C520" s="10" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="D520" s="6" t="s"/>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="8" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B521" s="10" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C521" s="10" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="D521" s="6" t="s"/>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="8" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="B522" s="10" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C522" s="10" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="D522" s="6" t="s"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="8" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="B523" s="10" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="C523" s="10" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="D523" s="6" t="s"/>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="8" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C524" s="10" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D524" s="6" t="s"/>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="8" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="B525" s="10" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="C525" s="10" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="D525" s="6" t="s"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="8" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="C526" s="10" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D526" s="6" t="s"/>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="8" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="B527" s="10" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="C527" s="10" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D527" s="6" t="s"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="8" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="B528" s="10" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="C528" s="10" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="D528" s="6" t="s"/>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="8" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B529" s="10" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C529" s="10" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="D529" s="6" t="s"/>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="8" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B530" s="10" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C530" s="10" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="D530" s="6" t="s"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="8" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B531" s="10" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C531" s="10" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="D531" s="6" t="s"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="8" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B532" s="10" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C532" s="10" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="D532" s="6" t="s"/>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="8" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B533" s="10" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C533" s="10" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D533" s="6" t="s"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="8" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B534" s="10" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D534" s="6" t="s"/>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="8" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B535" s="10" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="D535" s="6" t="s"/>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="8" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B536" s="10" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C536" s="10" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="D536" s="6" t="s"/>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="8" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B537" s="10" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D537" s="6" t="s"/>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="8" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B538" s="10" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C538" s="10" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="D538" s="6" t="s"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="8" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B539" s="10" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C539" s="10" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="D539" s="6" t="s"/>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="8" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B540" s="10" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="C540" s="10" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="D540" s="6" t="s"/>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="8" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="B541" s="10" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="C541" s="10" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="D541" s="6" t="s"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="8" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B542" s="10" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C542" s="10" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="D542" s="6" t="s"/>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="8" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="B543" s="10" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="C543" s="10" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="D543" s="6" t="s"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="8" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="B544" s="10" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="C544" s="10" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="D544" s="6" t="s"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="8" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B545" s="10" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="C545" s="10" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="D545" s="6" t="s"/>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="8" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B546" s="10" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C546" s="10" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D546" s="6" t="s"/>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="8" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B547" s="10" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="C547" s="10" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="D547" s="6" t="s"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="8" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B548" s="10" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C548" s="10" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D548" s="6" t="s"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="8" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B549" s="10" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="C549" s="10" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="D549" s="6" t="s"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="8" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="B550" s="10" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C550" s="10" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D550" s="6" t="s"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="8" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B551" s="10" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="D551" s="6" t="s"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="8" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B552" s="10" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="C552" s="10" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="D552" s="6" t="s"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="8" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B553" s="10" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="C553" s="10" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="D553" s="6" t="s"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="8" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="B554" s="10" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C554" s="10" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D554" s="6" t="s"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="8" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B555" s="10" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="C555" s="10" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="D555" s="6" t="s"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="8" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="B556" s="10" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="C556" s="10" t="s">
         <v>394</v>
@@ -15096,457 +15115,457 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="8" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="B557" s="10" t="s">
         <v>1054</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D557" s="6" t="s"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="8" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B558" s="10" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D558" s="6" t="s"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="8" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="B559" s="10" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="D559" s="6" t="s"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="8" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B560" s="10" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D560" s="6" t="s"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="8" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B561" s="10" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D561" s="6" t="s"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="8" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B562" s="10" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="D562" s="6" t="s"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="8" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B563" s="10" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D563" s="6" t="s"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="8" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B564" s="10" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C564" s="10" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D564" s="10" t="s"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="8" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B565" s="10" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D565" s="6" t="s"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="8" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B566" s="10" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="C566" s="10" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="D566" s="6" t="s"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="8" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="B567" s="10" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D567" s="6" t="s"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="8" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B568" s="10" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C568" s="10" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D568" s="6" t="s"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="8" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="B569" s="10" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="D569" s="6" t="s"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="8" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B570" s="10" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C570" s="10" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D570" s="6" t="s"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="8" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B571" s="10" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D571" s="6" t="s"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="8" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B572" s="10" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C572" s="10" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D572" s="6" t="s"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="8" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B573" s="10" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D573" s="6" t="s"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="8" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B574" s="10" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C574" s="10" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="D574" s="6" t="s"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="8" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B575" s="10" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D575" s="6" t="s"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="8" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="B576" s="10" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C576" s="10" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D576" s="6" t="s"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="8" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B577" s="10" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D577" s="6" t="s"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="8" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="B578" s="10" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C578" s="10" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D578" s="6" t="s"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="8" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B579" s="10" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D579" s="6" t="s"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="8" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="B580" s="10" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C580" s="10" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="D580" s="6" t="s"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="8" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B581" s="10" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="D581" s="6" t="s"/>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="8" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="B582" s="10" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C582" s="10" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D582" s="6" t="s"/>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="8" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="B583" s="10" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="D583" s="6" t="s"/>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="8" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="B584" s="10" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="C584" s="10" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="D584" s="6" t="s"/>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="8" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B585" s="10" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D585" s="6" t="s"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="8" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B586" s="10" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C586" s="10" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="D586" s="10" t="s"/>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="8" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B587" s="10" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D587" s="6" t="s"/>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="8" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B588" s="10" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C588" s="10" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="D588" s="6" t="s"/>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="8" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="B589" s="10" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="D589" s="6" t="s"/>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="8" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B590" s="10" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C590" s="10" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="D590" s="6" t="s"/>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="8" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B591" s="10" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="D591" s="6" t="s"/>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="8" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B592" s="10" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C592" s="10" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="D592" s="6" t="s"/>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="8" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B593" s="10" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="D593" s="6" t="s"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="8" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="B594" s="10" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C594" s="10" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="D594" s="23" t="s">
         <v>344</v>
@@ -15554,37 +15573,37 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="8" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="B595" s="10" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="D595" s="6" t="s"/>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="8" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="B596" s="10" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C596" s="10" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="D596" s="6" t="s"/>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="8" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="B597" s="10" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="C597" s="10" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="D597" s="15" t="s">
         <v>344</v>
@@ -15592,67 +15611,67 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="8" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="B598" s="10" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="C598" s="10" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="D598" s="6" t="s"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="8" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="B599" s="10" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C599" s="10" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D599" s="6" t="s"/>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="8" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B600" s="10" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C600" s="10" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="D600" s="6" t="s"/>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="8" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B601" s="10" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C601" s="10" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="D601" s="6" t="s"/>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="8" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="B602" s="10" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="C602" s="10" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="D602" s="6" t="s"/>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="8" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B603" s="10" t="s"/>
       <c r="C603" s="10" t="s"/>
@@ -15660,115 +15679,111 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="8" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B604" s="10" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C604" s="10" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="D604" s="6" t="s"/>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="8" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B605" s="10" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="C605" s="10" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D605" s="6" t="s"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="8" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="B606" s="10" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C606" s="10" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="D606" s="6" t="s"/>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="8" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="B607" s="10" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="C607" s="10" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="D607" s="6" t="s"/>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="8" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B608" s="10" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C608" s="10" t="s">
-        <v>1728</v>
-      </c>
+        <v>1729</v>
+      </c>
+      <c r="B608" s="10" t="s"/>
+      <c r="C608" s="10" t="s"/>
       <c r="D608" s="6" t="s"/>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="8" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B609" s="10" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C609" s="10" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D609" s="6" t="s"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="8" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B610" s="10" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C610" s="10" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="D610" s="6" t="s"/>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="8" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B611" s="10" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C611" s="10" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="D611" s="6" t="s"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="8" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B612" s="10" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C612" s="10" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="D612" s="6" t="s"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="8" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B613" s="10" t="s">
         <v>200</v>
@@ -15780,487 +15795,487 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="8" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B614" s="10" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C614" s="10" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D614" s="6" t="s"/>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="8" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B615" s="10" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C615" s="10" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D615" s="6" t="s"/>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="8" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B616" s="10" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C616" s="10" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D616" s="6" t="s"/>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="8" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B617" s="10" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C617" s="10" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D617" s="6" t="s"/>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="8" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B618" s="10" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C618" s="10" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D618" s="6" t="s"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="8" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B619" s="10" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C619" s="10" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D619" s="6" t="s"/>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="8" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B620" s="10" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C620" s="10" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D620" s="10" t="s"/>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="8" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B621" s="10" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D621" s="10" t="s"/>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="8" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B622" s="10" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C622" s="10" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D622" s="6" t="s"/>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="8" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B623" s="10" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C623" s="10" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="D623" s="10" t="s"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="8" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B624" s="10" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C624" s="10" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D624" s="24" t="s"/>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="8" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B625" s="10" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C625" s="10" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D625" s="10" t="s"/>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="8" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B626" s="10" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C626" s="10" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D626" s="6" t="s"/>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="8" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B627" s="10" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C627" s="10" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D627" s="6" t="s"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="8" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B628" s="10" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C628" s="10" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D628" s="6" t="s"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="8" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B629" s="10" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C629" s="10" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D629" s="6" t="s"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="8" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B630" s="10" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C630" s="10" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D630" s="10" t="s"/>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="8" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B631" s="10" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C631" s="10" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="D631" s="6" t="s"/>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="8" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B632" s="10" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C632" s="10" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="D632" s="6" t="s"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="8" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B633" s="10" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C633" s="14" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D633" s="6" t="s"/>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="8" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B634" s="10" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="C634" s="10" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="D634" s="6" t="s"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="8" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B635" s="10" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C635" s="10" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D635" s="6" t="s"/>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="8" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B636" s="10" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C636" s="10" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D636" s="6" t="s"/>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="8" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B637" s="10" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C637" s="10" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D637" s="6" t="s"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="8" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B638" s="10" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C638" s="10" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D638" s="6" t="s"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="8" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B639" s="10" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C639" s="10" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D639" s="6" t="s"/>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="8" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B640" s="10" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C640" s="10" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D640" s="10" t="s"/>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="8" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B641" s="10" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C641" s="10" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D641" s="6" t="s"/>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="8" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B642" s="10" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C642" s="10" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D642" s="6" t="s"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="8" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B643" s="10" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C643" s="10" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D643" s="6" t="s"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="8" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B644" s="10" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C644" s="10" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D644" s="6" t="s"/>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="8" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B645" s="10" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C645" s="10" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D645" s="6" t="s"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="8" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B646" s="10" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D646" s="6" t="s"/>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="8" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B647" s="10" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C647" s="10" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D647" s="6" t="s"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="8" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B648" s="10" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C648" s="10" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D648" s="6" t="s"/>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="8" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B649" s="10" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C649" s="10" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D649" s="6" t="s"/>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="8" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B650" s="10" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C650" s="10" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D650" s="6" t="s"/>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="8" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B651" s="10" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C651" s="10" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D651" s="6" t="s"/>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="8" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B652" s="10" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C652" s="10" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D652" s="6" t="s"/>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="8" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B653" s="10" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C653" s="10" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="D653" s="6" t="s"/>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="8" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B654" s="10" t="s">
         <v>504</v>
@@ -16272,2243 +16287,2251 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="8" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B655" s="10" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C655" s="10" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="D655" s="6" t="s"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="8" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B656" s="10" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C656" s="10" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D656" s="6" t="s"/>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="8" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B657" s="10" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C657" s="10" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D657" s="6" t="s"/>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="8" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B658" s="10" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C658" s="10" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D658" s="6" t="s"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="8" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B659" s="10" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="C659" s="10" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D659" s="6" t="s"/>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="8" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B660" s="10" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C660" s="10" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D660" s="6" t="s"/>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="8" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B661" s="10" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C661" s="10" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D661" s="6" t="s"/>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="8" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B662" s="10" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C662" s="10" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="D662" s="6" t="s"/>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="8" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B663" s="10" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C663" s="10" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D663" s="6" t="s"/>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="8" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B664" s="10" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C664" s="10" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D664" s="6" t="s"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="8" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B665" s="10" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C665" s="10" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D665" s="6" t="s"/>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="8" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B666" s="10" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C666" s="10" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D666" s="6" t="s"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="8" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B667" s="10" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D667" s="6" t="s"/>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="4" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B668" s="10" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="C668" s="10" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="D668" s="6" t="s"/>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="4" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B669" s="10" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C669" s="10" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D669" s="6" t="s"/>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="4" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B670" s="10" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C670" s="14" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D670" s="6" t="s"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="4" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B671" s="10" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C671" s="10" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="D671" s="6" t="s"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="4" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B672" s="10" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C672" s="10" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="D672" s="6" t="s"/>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="4" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B673" s="10" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="D673" s="6" t="s"/>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="4" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B674" s="10" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C674" s="10" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D674" s="6" t="s"/>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="4" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B675" s="10" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C675" s="10" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D675" s="6" t="s"/>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="4" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B676" s="10" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C676" s="10" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D676" s="6" t="s"/>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="4" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B677" s="10" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C677" s="10" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="D677" s="6" t="s"/>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="4" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B678" s="10" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C678" s="10" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="D678" s="6" t="s"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="4" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B679" s="10" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C679" s="10" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="D679" s="6" t="s"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="4" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B680" s="10" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C680" s="10" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="D680" s="6" t="s"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="4" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B681" s="10" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="D681" s="6" t="s"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="4" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B682" s="10" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C682" s="10" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="D682" s="6" t="s"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="4" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B683" s="10" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="D683" s="6" t="s"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="4" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B684" s="10" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C684" s="10" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="D684" s="6" t="s"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="4" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B685" s="10" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="D685" s="6" t="s"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="4" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B686" s="10" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C686" s="10" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D686" s="6" t="s"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="4" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B687" s="25" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="D687" s="6" t="s"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="4" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B688" s="10" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D688" s="6" t="s"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="4" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B689" s="10" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="D689" s="6" t="s"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="4" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B690" s="10" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D690" s="6" t="s"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="4" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B691" s="25" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D691" s="6" t="s"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="4" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B692" s="10" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="D692" s="6" t="s"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="4" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B693" s="10" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D693" s="6" t="s"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="4" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B694" s="10" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C694" s="10" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="D694" s="6" t="s"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="4" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B695" s="10" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D695" s="6" t="s"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="4" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B696" s="10" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D696" s="6" t="s"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="4" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B697" s="10" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C697" s="26" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="D697" s="6" t="s"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="4" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B698" s="10" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="C698" s="10" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D698" s="6" t="s"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="4" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B699" s="10" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D699" s="6" t="s"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="4" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B700" s="10" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D700" s="6" t="s"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="4" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B701" s="10" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D701" s="6" t="s"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="4" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B702" s="10" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D702" s="6" t="s"/>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="4" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B703" s="10" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C703" s="10" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D703" s="6" t="s"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="4" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B704" s="10" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C704" s="10" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D704" s="6" t="s"/>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="4" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B705" s="10" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C705" s="10" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D705" s="6" t="s"/>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="4" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B706" s="10" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C706" s="10" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D706" s="6" t="s"/>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="4" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B707" s="10" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C707" s="10" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D707" s="6" t="s"/>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="4" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B708" s="10" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D708" s="6" t="s"/>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="4" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B709" s="10" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C709" s="10" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D709" s="6" t="s"/>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="4" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B710" s="10" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D710" s="6" t="s"/>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="4" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B711" s="10" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C711" s="10" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="D711" s="6" t="s"/>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="4" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B712" s="10" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C712" s="10" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="D712" s="6" t="s"/>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="4" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B713" s="10" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C713" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="D713" s="6" t="s"/>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="4" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B714" s="26" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C714" s="10" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="D714" s="6" t="s"/>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="4" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B715" s="10" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C715" s="10" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D715" s="6" t="s"/>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="4" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B716" s="10" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C716" s="10" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="D716" s="6" t="s"/>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="4" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B717" s="10" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="C717" s="10" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="D717" s="6" t="s"/>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="4" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B718" s="10" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="D718" s="6" t="s"/>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B719" s="10" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="C719" s="10" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="D719" s="6" t="s"/>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="4" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B720" s="10" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="C720" s="10" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="D720" s="6" t="s"/>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="4" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B721" s="10" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="C721" s="10" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="D721" s="6" t="s"/>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="4" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B722" s="10" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="D722" s="6" t="s"/>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="4" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B723" s="10" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C723" s="10" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="D723" s="6" t="s"/>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="4" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B724" s="10" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="C724" s="10" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="D724" s="6" t="s"/>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="4" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B725" s="10" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="C725" s="10" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="D725" s="6" t="s"/>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="4" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B726" s="10" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="C726" s="10" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D726" s="6" t="s"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="4" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B727" s="10" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D727" s="6" t="s"/>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="4" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="B728" s="10" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C728" s="10" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="D728" s="6" t="s"/>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="4" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="B729" s="10" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="C729" s="10" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="D729" s="6" t="s"/>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="4" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="B730" s="10" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="C730" s="10" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="D730" s="6" t="s"/>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="4" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="B731" s="10" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="C731" s="10" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="D731" s="6" t="s"/>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="4" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="B732" s="10" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="C732" s="10" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="D732" s="6" t="s"/>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="4" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="B733" s="10" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="C733" s="10" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D733" s="6" t="s"/>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="4" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="B734" s="10" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="C734" s="10" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="D734" s="6" t="s"/>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="4" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B735" s="10" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C735" s="10" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="D735" s="6" t="s"/>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="4" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B736" s="26" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="C736" s="10" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="D736" s="6" t="s"/>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="4" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B737" s="10" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="C737" s="10" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="D737" s="6" t="s"/>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="4" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="B738" s="10" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="C738" s="10" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="D738" s="6" t="s"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="4" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="B739" s="10" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="C739" s="10" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D739" s="6" t="s"/>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="4" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="B740" s="10" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="C740" s="10" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="D740" s="6" t="s"/>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="4" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="B741" s="10" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="C741" s="10" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="D741" s="6" t="s"/>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="4" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="B742" s="10" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="C742" s="10" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="D742" s="6" t="s"/>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="4" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="B743" s="10" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="C743" s="10" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="D743" s="6" t="s"/>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="4" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="B744" s="10" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="C744" s="10" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="D744" s="6" t="s"/>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="4" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="B745" s="10" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="C745" s="10" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="D745" s="6" t="s"/>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="4" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="B746" s="10" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="C746" s="10" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="D746" s="6" t="s"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="4" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="B747" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C747" s="10" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="D747" s="6" t="s"/>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="4" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="B748" s="10" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="C748" s="10" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="D748" s="6" t="s"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="4" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="B749" s="10" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="C749" s="10" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="D749" s="6" t="s"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="4" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="B750" s="10" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C750" s="10" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="D750" s="6" t="s"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="4" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="B751" s="10" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C751" s="10" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="D751" s="6" t="s"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="B752" s="10" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="C752" s="10" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="D752" s="6" t="s"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B753" s="10" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C753" s="10" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="D753" s="6" t="s"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="B754" s="10" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="C754" s="10" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D754" s="6" t="s"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="4" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="B755" s="10" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="C755" s="10" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="D755" s="6" t="s"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B756" s="10" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C756" s="10" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="D756" s="6" t="s"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="B757" s="10" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="C757" s="10" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="D757" s="6" t="s"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="B758" s="10" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="C758" s="10" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="D758" s="6" t="s"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="B759" s="10" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="C759" s="10" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="D759" s="6" t="s"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="4" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="B760" s="10" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="C760" s="10" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="D760" s="6" t="s"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="4" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="B761" s="10" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="D761" s="6" t="s"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="4" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="B762" s="10" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="D762" s="6" t="s"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="4" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B763" s="10" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="C763" s="10" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="D763" s="6" t="s"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="4" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="B764" s="10" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="C764" s="10" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="D764" s="6" t="s"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="4" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B765" s="10" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="C765" s="10" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="D765" s="6" t="s"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="4" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B766" s="10" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="C766" s="10" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="D766" s="6" t="s"/>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="4" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="B767" s="10" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="D767" s="6" t="s"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="B768" s="10" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="D768" s="6" t="s"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="4" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="B769" s="10" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="C769" s="10" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="D769" s="6" t="s"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="4" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="B770" s="10" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="C770" s="10" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="D770" s="6" t="s"/>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="4" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B771" s="10" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="D771" s="6" t="s"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="4" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="B772" s="10" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="C772" s="10" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="D772" s="6" t="s"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="4" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="B773" s="10" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C773" s="10" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="D773" s="6" t="s"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="4" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="B774" s="10" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="C774" s="10" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="D774" s="6" t="s"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="4" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="B775" s="10" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="C775" s="10" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="D775" s="6" t="s"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="4" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="B776" s="10" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="D776" s="6" t="s"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="B777" s="10" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="C777" s="10" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="D777" s="6" t="s"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="4" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="B778" s="10" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="C778" s="10" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="D778" s="6" t="s"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="4" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="B779" s="10" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="C779" s="10" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="D779" s="6" t="s"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="4" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="B780" s="10" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="C780" s="10" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D780" s="6" t="s"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="4" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="B781" s="10" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="D781" s="6" t="s"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="4" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="B782" s="10" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="C782" s="10" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="D782" s="6" t="s"/>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="4" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="B783" s="10" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="C783" s="10" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="D783" s="6" t="s"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="4" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="B784" s="10" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="C784" s="10" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="D784" s="6" t="s"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="4" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="B785" s="10" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C785" s="10" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D785" s="6" t="s"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="4" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="B786" s="10" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="C786" s="10" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="D786" s="6" t="s"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="4" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="B787" s="10" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="D787" s="6" t="s"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="4" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="B788" s="10" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="D788" s="6" t="s"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="4" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="B789" s="10" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="D789" s="6" t="s"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="4" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B790" s="10" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C790" s="10" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="D790" s="6" t="s"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="4" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B791" s="10" t="s"/>
-      <c r="C791" s="10" t="s"/>
+        <v>2259</v>
+      </c>
+      <c r="B791" s="10" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C791" s="10" t="s">
+        <v>2261</v>
+      </c>
       <c r="D791" s="6" t="s"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="4" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="B792" s="10" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="D792" s="6" t="s"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="4" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="B793" s="10" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="C793" s="10" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="D793" s="6" t="s"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="4" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="B794" s="10" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="C794" s="10" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="D794" s="6" t="s"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="4" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="B795" s="10" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="C795" s="10" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="D795" s="6" t="s"/>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="4" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="B796" s="10" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="C796" s="10" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="D796" s="6" t="s"/>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="4" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="B797" s="10" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="C797" s="10" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="D797" s="6" t="s"/>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="4" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="B798" s="10" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="C798" s="10" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="D798" s="6" t="s"/>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="4" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="B799" s="10" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="C799" s="10" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="D799" s="6" t="s"/>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="4" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="B800" s="10" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="C800" s="10" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="D800" s="6" t="s"/>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="4" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="B801" s="10" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="C801" s="10" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="D801" s="6" t="s"/>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="4" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="B802" s="10" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="C802" s="10" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="D802" s="6" t="s"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="4" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="B803" s="10" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="C803" s="10" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="D803" s="6" t="s"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="4" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="B804" s="10" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="C804" s="10" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="D804" s="6" t="s"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="4" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="B805" s="10" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="D805" s="6" t="s"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="4" t="s">
-        <v>2300</v>
-      </c>
-      <c r="B806" s="10" t="s"/>
-      <c r="C806" s="10" t="s"/>
+        <v>2303</v>
+      </c>
+      <c r="B806" s="10" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C806" s="10" t="s">
+        <v>2305</v>
+      </c>
       <c r="D806" s="6" t="s"/>
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="4" t="s">
-        <v>2301</v>
+        <v>2306</v>
       </c>
       <c r="B807" s="10" t="s">
-        <v>2302</v>
+        <v>2307</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>2303</v>
+        <v>2308</v>
       </c>
       <c r="D807" s="6" t="s"/>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="4" t="s">
-        <v>2304</v>
+        <v>2309</v>
       </c>
       <c r="B808" s="10" t="s">
-        <v>2305</v>
+        <v>2310</v>
       </c>
       <c r="C808" s="10" t="s">
-        <v>2306</v>
+        <v>2311</v>
       </c>
       <c r="D808" s="6" t="s"/>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="4" t="s">
-        <v>2307</v>
+        <v>2312</v>
       </c>
       <c r="B809" s="10" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C809" s="10" t="s">
-        <v>2308</v>
+        <v>2313</v>
       </c>
       <c r="D809" s="6" t="s"/>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="4" t="s">
-        <v>2309</v>
+        <v>2314</v>
       </c>
       <c r="B810" s="10" t="s">
-        <v>2310</v>
+        <v>2315</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>2311</v>
+        <v>2316</v>
       </c>
       <c r="D810" s="6" t="s"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="4" t="s">
-        <v>2312</v>
+        <v>2317</v>
       </c>
       <c r="B811" s="10" t="s">
-        <v>2313</v>
+        <v>2318</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>2314</v>
+        <v>2319</v>
       </c>
       <c r="D811" s="6" t="s"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="4" t="s">
-        <v>2315</v>
+        <v>2320</v>
       </c>
       <c r="B812" s="10" t="s">
-        <v>2316</v>
+        <v>2321</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>2316</v>
+        <v>2321</v>
       </c>
       <c r="D812" s="6" t="s"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="4" t="s">
-        <v>2317</v>
+        <v>2322</v>
       </c>
       <c r="B813" s="10" t="s">
-        <v>2318</v>
+        <v>2323</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>2319</v>
+        <v>2324</v>
       </c>
       <c r="D813" s="6" t="s"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="4" t="s">
-        <v>2320</v>
+        <v>2325</v>
       </c>
       <c r="B814" s="10" t="s">
-        <v>2321</v>
+        <v>2326</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>2322</v>
+        <v>2327</v>
       </c>
       <c r="D814" s="6" t="s"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="4" t="s">
-        <v>2323</v>
+        <v>2328</v>
       </c>
       <c r="B815" s="10" t="s">
-        <v>2324</v>
+        <v>2329</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="D815" s="6" t="s"/>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="4" t="s">
-        <v>2326</v>
+        <v>2331</v>
       </c>
       <c r="B816" s="10" t="s">
-        <v>2327</v>
+        <v>2332</v>
       </c>
       <c r="C816" s="10" t="s">
-        <v>2328</v>
+        <v>2333</v>
       </c>
       <c r="D816" s="6" t="s"/>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="4" t="s">
-        <v>2329</v>
+        <v>2334</v>
       </c>
       <c r="B817" s="10" t="s">
-        <v>2330</v>
+        <v>2335</v>
       </c>
       <c r="C817" s="10" t="s">
-        <v>2331</v>
+        <v>2336</v>
       </c>
       <c r="D817" s="6" t="s"/>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="4" t="s">
-        <v>2332</v>
+        <v>2337</v>
       </c>
       <c r="B818" s="10" t="s">
-        <v>2333</v>
+        <v>2338</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>2334</v>
+        <v>2339</v>
       </c>
       <c r="D818" s="6" t="s"/>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="4" t="s">
-        <v>2335</v>
+        <v>2340</v>
       </c>
       <c r="B819" s="10" t="s">
-        <v>2336</v>
+        <v>2341</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>2337</v>
+        <v>2342</v>
       </c>
       <c r="D819" s="6" t="s"/>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="4" t="s">
-        <v>2338</v>
+        <v>2343</v>
       </c>
       <c r="B820" s="10" t="s">
-        <v>2339</v>
+        <v>2344</v>
       </c>
       <c r="C820" s="10" t="s">
-        <v>2340</v>
+        <v>2345</v>
       </c>
       <c r="D820" s="6" t="s"/>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="4" t="s">
-        <v>2341</v>
+        <v>2346</v>
       </c>
       <c r="B821" s="10" t="s">
-        <v>2342</v>
+        <v>2347</v>
       </c>
       <c r="C821" s="10" t="s">
-        <v>2343</v>
+        <v>2348</v>
       </c>
       <c r="D821" s="6" t="s"/>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="4" t="s">
-        <v>2344</v>
+        <v>2349</v>
       </c>
       <c r="B822" s="10" t="s">
-        <v>2345</v>
+        <v>2350</v>
       </c>
       <c r="C822" s="10" t="s">
-        <v>2345</v>
+        <v>2350</v>
       </c>
       <c r="D822" s="6" t="s"/>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="4" t="s">
-        <v>2346</v>
+        <v>2351</v>
       </c>
       <c r="B823" s="10" t="s">
-        <v>2347</v>
+        <v>2352</v>
       </c>
       <c r="C823" s="10" t="s">
-        <v>2348</v>
+        <v>2353</v>
       </c>
       <c r="D823" s="6" t="s"/>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="4" t="s">
-        <v>2349</v>
+        <v>2354</v>
       </c>
       <c r="B824" s="10" t="s">
-        <v>2350</v>
+        <v>2355</v>
       </c>
       <c r="C824" s="10" t="s">
-        <v>2351</v>
+        <v>2356</v>
       </c>
       <c r="D824" s="6" t="s"/>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="4" t="s">
-        <v>2352</v>
+        <v>2357</v>
       </c>
       <c r="B825" s="10" t="s">
-        <v>2353</v>
+        <v>2358</v>
       </c>
       <c r="C825" s="10" t="s">
-        <v>2354</v>
+        <v>2359</v>
       </c>
       <c r="D825" s="6" t="s"/>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="4" t="s">
-        <v>2355</v>
+        <v>2360</v>
       </c>
       <c r="B826" s="10" t="s">
-        <v>2356</v>
+        <v>2361</v>
       </c>
       <c r="C826" s="10" t="s">
-        <v>2357</v>
+        <v>2362</v>
       </c>
       <c r="D826" s="6" t="s"/>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="4" t="s">
-        <v>2358</v>
+        <v>2363</v>
       </c>
       <c r="B827" s="10" t="s">
-        <v>2359</v>
+        <v>2364</v>
       </c>
       <c r="C827" s="10" t="s">
-        <v>2360</v>
+        <v>2365</v>
       </c>
       <c r="D827" s="6" t="s"/>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="4" t="s">
-        <v>2361</v>
+        <v>2366</v>
       </c>
       <c r="B828" s="10" t="s">
-        <v>2362</v>
+        <v>2367</v>
       </c>
       <c r="C828" s="10" t="s">
-        <v>2363</v>
+        <v>2368</v>
       </c>
       <c r="D828" s="6" t="s"/>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="4" t="s">
-        <v>2364</v>
+        <v>2369</v>
       </c>
       <c r="B829" s="10" t="s">
-        <v>2365</v>
+        <v>2370</v>
       </c>
       <c r="C829" s="10" t="s">
-        <v>2366</v>
+        <v>2371</v>
       </c>
       <c r="D829" s="6" t="s"/>
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="4" t="s">
-        <v>2367</v>
+        <v>2372</v>
       </c>
       <c r="B830" s="10" t="s">
-        <v>2368</v>
+        <v>2373</v>
       </c>
       <c r="C830" s="10" t="s">
-        <v>2369</v>
+        <v>2374</v>
       </c>
       <c r="D830" s="6" t="s"/>
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="4" t="s">
-        <v>2370</v>
+        <v>2375</v>
       </c>
       <c r="B831" s="10" t="s">
-        <v>2371</v>
+        <v>2376</v>
       </c>
       <c r="C831" s="10" t="s">
-        <v>2372</v>
+        <v>2377</v>
       </c>
       <c r="D831" s="6" t="s"/>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="4" t="s">
-        <v>2373</v>
+        <v>2378</v>
       </c>
       <c r="B832" s="10" t="s">
-        <v>2374</v>
+        <v>2379</v>
       </c>
       <c r="C832" s="10" t="s">
-        <v>2375</v>
+        <v>2380</v>
       </c>
       <c r="D832" s="6" t="s"/>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="4" t="s">
-        <v>2376</v>
+        <v>2381</v>
       </c>
       <c r="B833" s="10" t="s">
-        <v>2377</v>
+        <v>2382</v>
       </c>
       <c r="C833" s="10" t="s">
-        <v>2378</v>
+        <v>2383</v>
       </c>
       <c r="D833" s="6" t="s"/>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="4" t="s">
-        <v>2379</v>
+        <v>2384</v>
       </c>
       <c r="B834" s="10" t="s">
-        <v>2380</v>
+        <v>2385</v>
       </c>
       <c r="C834" s="10" t="s">
-        <v>2380</v>
+        <v>2385</v>
       </c>
       <c r="D834" s="6" t="s"/>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="4" t="s">
-        <v>2381</v>
+        <v>2386</v>
       </c>
       <c r="B835" s="10" t="s">
-        <v>2382</v>
+        <v>2387</v>
       </c>
       <c r="C835" s="10" t="s">
-        <v>2383</v>
+        <v>2388</v>
       </c>
       <c r="D835" s="6" t="s"/>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="4" t="s">
-        <v>2384</v>
+        <v>2389</v>
       </c>
       <c r="B836" s="10" t="s">
-        <v>2385</v>
+        <v>2390</v>
       </c>
       <c r="C836" s="10" t="s">
-        <v>2386</v>
+        <v>2391</v>
       </c>
       <c r="D836" s="6" t="s"/>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="4" t="s">
-        <v>2387</v>
+        <v>2392</v>
       </c>
       <c r="B837" s="10" t="s">
-        <v>2388</v>
+        <v>2393</v>
       </c>
       <c r="C837" s="10" t="s">
-        <v>2389</v>
+        <v>2394</v>
       </c>
       <c r="D837" s="6" t="s"/>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="4" t="s">
-        <v>2390</v>
+        <v>2395</v>
       </c>
       <c r="B838" s="10" t="s">
-        <v>2391</v>
+        <v>2396</v>
       </c>
       <c r="C838" s="10" t="s">
-        <v>2392</v>
+        <v>2397</v>
       </c>
       <c r="D838" s="6" t="s"/>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="4" t="s">
-        <v>2393</v>
+        <v>2398</v>
       </c>
       <c r="B839" s="10" t="s">
-        <v>2394</v>
+        <v>2399</v>
       </c>
       <c r="C839" s="10" t="s">
-        <v>2395</v>
+        <v>2400</v>
       </c>
       <c r="D839" s="6" t="s"/>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="4" t="s">
-        <v>2396</v>
+        <v>2401</v>
       </c>
       <c r="B840" s="10" t="s">
-        <v>2397</v>
+        <v>2402</v>
       </c>
       <c r="C840" s="10" t="s">
-        <v>2398</v>
+        <v>2403</v>
       </c>
       <c r="D840" s="6" t="s"/>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="4" t="s">
-        <v>2399</v>
+        <v>2404</v>
       </c>
       <c r="B841" s="10" t="s">
-        <v>2400</v>
+        <v>2405</v>
       </c>
       <c r="C841" s="10" t="s">
-        <v>2401</v>
+        <v>2406</v>
       </c>
       <c r="D841" s="6" t="s"/>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="4" t="s">
-        <v>2402</v>
+        <v>2407</v>
       </c>
       <c r="B842" s="10" t="s"/>
       <c r="C842" s="10" t="s"/>
@@ -18516,7 +18539,7 @@
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="4" t="s">
-        <v>2403</v>
+        <v>2408</v>
       </c>
       <c r="B843" s="10" t="s"/>
       <c r="C843" s="10" t="s"/>
@@ -18524,7 +18547,7 @@
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="4" t="s">
-        <v>2404</v>
+        <v>2409</v>
       </c>
       <c r="B844" s="10" t="s"/>
       <c r="C844" s="10" t="s"/>
@@ -18532,103 +18555,103 @@
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="4" t="s">
-        <v>2405</v>
+        <v>2410</v>
       </c>
       <c r="B845" s="10" t="s">
-        <v>2406</v>
+        <v>2411</v>
       </c>
       <c r="C845" s="10" t="s">
-        <v>2406</v>
+        <v>2411</v>
       </c>
       <c r="D845" s="27" t="s"/>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="4" t="s">
-        <v>2407</v>
+        <v>2412</v>
       </c>
       <c r="B846" s="10" t="s">
-        <v>2408</v>
+        <v>2413</v>
       </c>
       <c r="C846" s="10" t="s">
-        <v>2408</v>
+        <v>2413</v>
       </c>
       <c r="D846" s="27" t="s"/>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="4" t="s">
-        <v>2409</v>
+        <v>2414</v>
       </c>
       <c r="B847" s="10" t="s">
-        <v>2410</v>
+        <v>2415</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>2410</v>
+        <v>2415</v>
       </c>
       <c r="D847" s="10" t="s"/>
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="4" t="s">
-        <v>2411</v>
+        <v>2416</v>
       </c>
       <c r="B848" s="10" t="s">
-        <v>2412</v>
+        <v>2417</v>
       </c>
       <c r="C848" s="10" t="s">
-        <v>2413</v>
+        <v>2418</v>
       </c>
       <c r="D848" s="6" t="s"/>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="4" t="s">
-        <v>2414</v>
+        <v>2419</v>
       </c>
       <c r="B849" s="10" t="s">
-        <v>2415</v>
+        <v>2420</v>
       </c>
       <c r="C849" s="10" t="s">
-        <v>2415</v>
+        <v>2420</v>
       </c>
       <c r="D849" s="6" t="s"/>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="4" t="s">
-        <v>2416</v>
+        <v>2421</v>
       </c>
       <c r="B850" s="10" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="D850" s="6" t="s"/>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="4" t="s">
-        <v>2418</v>
+        <v>2423</v>
       </c>
       <c r="B851" s="10" t="s">
-        <v>2419</v>
+        <v>2424</v>
       </c>
       <c r="C851" s="10" t="s">
-        <v>2419</v>
+        <v>2424</v>
       </c>
       <c r="D851" s="6" t="s"/>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="4" t="s">
-        <v>2420</v>
+        <v>2425</v>
       </c>
       <c r="B852" s="10" t="s">
-        <v>2421</v>
+        <v>2426</v>
       </c>
       <c r="C852" s="10" t="s">
-        <v>2421</v>
+        <v>2426</v>
       </c>
       <c r="D852" s="6" t="s"/>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="4" t="s">
-        <v>2422</v>
+        <v>2427</v>
       </c>
       <c r="B853" s="10" t="s"/>
       <c r="C853" s="10" t="s"/>
@@ -18636,7 +18659,7 @@
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="4" t="s">
-        <v>2423</v>
+        <v>2428</v>
       </c>
       <c r="B854" s="10" t="s"/>
       <c r="C854" s="10" t="s"/>
@@ -18644,7 +18667,7 @@
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="4" t="s">
-        <v>2424</v>
+        <v>2429</v>
       </c>
       <c r="B855" s="10" t="s"/>
       <c r="C855" s="10" t="s"/>
@@ -18652,43 +18675,43 @@
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="4" t="s">
-        <v>2425</v>
+        <v>2430</v>
       </c>
       <c r="B856" s="10" t="s">
-        <v>2426</v>
+        <v>2431</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>2426</v>
+        <v>2431</v>
       </c>
       <c r="D856" s="6" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="4" t="s">
-        <v>2427</v>
+        <v>2432</v>
       </c>
       <c r="B857" s="10" t="s">
-        <v>2428</v>
+        <v>2433</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>2428</v>
+        <v>2433</v>
       </c>
       <c r="D857" s="6" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="4" t="s">
-        <v>2429</v>
+        <v>2434</v>
       </c>
       <c r="B858" s="10" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="D858" s="6" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="4" t="s">
-        <v>2432</v>
+        <v>2437</v>
       </c>
       <c r="B859" s="10" t="s"/>
       <c r="C859" s="10" t="s"/>
@@ -18696,43 +18719,43 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2433</v>
+        <v>2438</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2434</v>
+        <v>2439</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2434</v>
+        <v>2439</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2435</v>
+        <v>2440</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2436</v>
+        <v>2441</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2436</v>
+        <v>2441</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2437</v>
+        <v>2442</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2438</v>
+        <v>2443</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2438</v>
+        <v>2443</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2439</v>
+        <v>2444</v>
       </c>
       <c r="B863" s="10" t="s"/>
       <c r="C863" s="10" t="s"/>
@@ -18740,463 +18763,463 @@
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2440</v>
+        <v>2445</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2441</v>
+        <v>2446</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2441</v>
+        <v>2446</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2442</v>
+        <v>2447</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2443</v>
+        <v>2448</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2444</v>
+        <v>2449</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2445</v>
+        <v>2450</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2446</v>
+        <v>2451</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2447</v>
+        <v>2452</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2448</v>
+        <v>2453</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2449</v>
+        <v>2454</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2450</v>
+        <v>2455</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2451</v>
+        <v>2456</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2452</v>
+        <v>2457</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2452</v>
+        <v>2457</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2453</v>
+        <v>2458</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2454</v>
+        <v>2459</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2454</v>
+        <v>2459</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2455</v>
+        <v>2460</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2456</v>
+        <v>2461</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2456</v>
+        <v>2461</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2457</v>
+        <v>2462</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2458</v>
+        <v>2463</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2458</v>
+        <v>2463</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2459</v>
+        <v>2464</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2460</v>
+        <v>2465</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2460</v>
+        <v>2465</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2461</v>
+        <v>2466</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2462</v>
+        <v>2467</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2462</v>
+        <v>2467</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2463</v>
+        <v>2468</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2464</v>
+        <v>2469</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2464</v>
+        <v>2469</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2465</v>
+        <v>2470</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2466</v>
+        <v>2471</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2466</v>
+        <v>2471</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2468</v>
+        <v>2473</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2468</v>
+        <v>2473</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2469</v>
+        <v>2474</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2470</v>
+        <v>2475</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2470</v>
+        <v>2475</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2471</v>
+        <v>2476</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2472</v>
+        <v>2477</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2472</v>
+        <v>2477</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2473</v>
+        <v>2478</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2474</v>
+        <v>2479</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2474</v>
+        <v>2479</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2475</v>
+        <v>2480</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2476</v>
+        <v>2481</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2476</v>
+        <v>2481</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2477</v>
+        <v>2482</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2478</v>
+        <v>2483</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2478</v>
+        <v>2483</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2479</v>
+        <v>2484</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2480</v>
+        <v>2485</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2480</v>
+        <v>2485</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2481</v>
+        <v>2486</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2482</v>
+        <v>2487</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2482</v>
+        <v>2487</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2483</v>
+        <v>2488</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2484</v>
+        <v>2489</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2484</v>
+        <v>2489</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2485</v>
+        <v>2490</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2487</v>
+        <v>2492</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2488</v>
+        <v>2493</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2488</v>
+        <v>2493</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2489</v>
+        <v>2494</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2490</v>
+        <v>2495</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2490</v>
+        <v>2495</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2491</v>
+        <v>2496</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2492</v>
+        <v>2497</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2492</v>
+        <v>2497</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2493</v>
+        <v>2498</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2494</v>
+        <v>2499</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2495</v>
+        <v>2500</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2496</v>
+        <v>2501</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2497</v>
+        <v>2502</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2498</v>
+        <v>2503</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2499</v>
+        <v>2504</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2500</v>
+        <v>2505</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2500</v>
+        <v>2505</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2501</v>
+        <v>2506</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2502</v>
+        <v>2507</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2502</v>
+        <v>2507</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2503</v>
+        <v>2508</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2504</v>
+        <v>2509</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2504</v>
+        <v>2509</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2505</v>
+        <v>2510</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2506</v>
+        <v>2511</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2506</v>
+        <v>2511</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2507</v>
+        <v>2512</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2508</v>
+        <v>2513</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2508</v>
+        <v>2513</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2509</v>
+        <v>2514</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2510</v>
+        <v>2515</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2510</v>
+        <v>2515</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2511</v>
+        <v>2516</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2512</v>
+        <v>2517</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2512</v>
+        <v>2517</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2513</v>
+        <v>2518</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2514</v>
+        <v>2519</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2514</v>
+        <v>2519</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2515</v>
+        <v>2520</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2516</v>
+        <v>2521</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2517</v>
+        <v>2522</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2518</v>
+        <v>2523</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>1054</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2519</v>
+        <v>2524</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2520</v>
+        <v>2525</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2522</v>
+        <v>2527</v>
       </c>
       <c r="B902" s="10" t="s"/>
       <c r="C902" s="10" t="s"/>
@@ -19204,7 +19227,7 @@
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2523</v>
+        <v>2528</v>
       </c>
       <c r="B903" s="10" t="s"/>
       <c r="C903" s="10" t="s"/>
@@ -19212,7 +19235,7 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2524</v>
+        <v>2529</v>
       </c>
       <c r="B904" s="10" t="s"/>
       <c r="C904" s="10" t="s"/>
@@ -19220,7 +19243,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2525</v>
+        <v>2530</v>
       </c>
       <c r="B905" s="10" t="s"/>
       <c r="C905" s="10" t="s"/>
@@ -19228,43 +19251,43 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2526</v>
+        <v>2531</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2527</v>
+        <v>2532</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2527</v>
+        <v>2532</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2528</v>
+        <v>2533</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2529</v>
+        <v>2534</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2529</v>
+        <v>2534</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2530</v>
+        <v>2535</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2531</v>
+        <v>2536</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2531</v>
+        <v>2536</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2532</v>
+        <v>2537</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19272,7 +19295,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2533</v>
+        <v>2538</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19280,7 +19303,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2534</v>
+        <v>2539</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19288,7 +19311,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2535</v>
+        <v>2540</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19296,7 +19319,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2536</v>
+        <v>2541</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19304,7 +19327,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2537</v>
+        <v>2542</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19312,7 +19335,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2538</v>
+        <v>2543</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19320,7 +19343,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2539</v>
+        <v>2544</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19328,43 +19351,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2540</v>
+        <v>2545</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2541</v>
+        <v>2546</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2541</v>
+        <v>2546</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2542</v>
+        <v>2547</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2543</v>
+        <v>2548</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2543</v>
+        <v>2548</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2544</v>
+        <v>2549</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2545</v>
+        <v>2550</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2545</v>
+        <v>2550</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2546</v>
+        <v>2551</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19372,7 +19395,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2547</v>
+        <v>2552</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19380,259 +19403,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2548</v>
+        <v>2553</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2549</v>
+        <v>2554</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2549</v>
+        <v>2554</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2550</v>
+        <v>2555</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2551</v>
+        <v>2556</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2551</v>
+        <v>2556</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2552</v>
+        <v>2557</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2553</v>
+        <v>2558</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2554</v>
+        <v>2559</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2555</v>
+        <v>2560</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2556</v>
+        <v>2561</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2557</v>
+        <v>2562</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2558</v>
+        <v>2563</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2559</v>
+        <v>2564</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2560</v>
+        <v>2565</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2561</v>
+        <v>2566</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2562</v>
+        <v>2567</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2563</v>
+        <v>2568</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2564</v>
+        <v>2569</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2565</v>
+        <v>2570</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2566</v>
+        <v>2571</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2567</v>
+        <v>2572</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2571</v>
+        <v>2576</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2572</v>
+        <v>2577</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2573</v>
+        <v>2578</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2574</v>
+        <v>2579</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2576</v>
+        <v>2581</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2577</v>
+        <v>2582</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2578</v>
+        <v>2583</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2581</v>
+        <v>2586</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2582</v>
+        <v>2587</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2583</v>
+        <v>2588</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2584</v>
+        <v>2589</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2585</v>
+        <v>2590</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2586</v>
+        <v>2591</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2587</v>
+        <v>2592</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2588</v>
+        <v>2593</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2590</v>
+        <v>2595</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2591</v>
+        <v>2596</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2592</v>
+        <v>2597</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2593</v>
+        <v>2598</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2594</v>
+        <v>2599</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2595</v>
+        <v>2600</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2596</v>
+        <v>2601</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2597</v>
+        <v>2602</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2598</v>
+        <v>2603</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2599</v>
+        <v>2604</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2600</v>
+        <v>2605</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2601</v>
+        <v>2606</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2602</v>
+        <v>2607</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2603</v>
+        <v>2608</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2604</v>
+        <v>2609</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2605</v>
+        <v>2610</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2606</v>
+        <v>2611</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2607</v>
+        <v>2612</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2608</v>
+        <v>2613</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2609</v>
+        <v>2614</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="2633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="2635">
   <si>
     <t/>
   </si>
@@ -7281,6 +7281,12 @@
   </si>
   <si>
     <t>trans0844</t>
+  </si>
+  <si>
+    <t>防火墙功能未启用</t>
+  </si>
+  <si>
+    <t>The Firewall function is disabled</t>
   </si>
   <si>
     <t>trans0845</t>
@@ -11730,10 +11736,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12942,10 +12948,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12954,10 +12960,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -18609,109 +18615,113 @@
       <c r="A844" s="4" t="s">
         <v>2421</v>
       </c>
-      <c r="B844" s="10" t="s"/>
-      <c r="C844" s="10" t="s"/>
+      <c r="B844" s="10" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C844" s="10" t="s">
+        <v>2423</v>
+      </c>
       <c r="D844" s="6" t="s"/>
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="4" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="B845" s="10" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="C845" s="10" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="D845" s="27" t="s"/>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="4" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="B846" s="10" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="C846" s="10" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="D846" s="27" t="s"/>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="4" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="B847" s="10" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="D847" s="10" t="s"/>
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="4" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="B848" s="10" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C848" s="10" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="D848" s="6" t="s"/>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="4" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="B849" s="10" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="C849" s="10" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="D849" s="6" t="s"/>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="4" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="B850" s="10" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="D850" s="6" t="s"/>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="4" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="B851" s="10" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="C851" s="10" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="D851" s="6" t="s"/>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="4" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="B852" s="10" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="C852" s="10" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="D852" s="6" t="s"/>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="4" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="B853" s="10" t="s"/>
       <c r="C853" s="10" t="s"/>
@@ -18719,7 +18729,7 @@
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="4" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="B854" s="10" t="s"/>
       <c r="C854" s="10" t="s"/>
@@ -18727,7 +18737,7 @@
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="4" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="B855" s="10" t="s"/>
       <c r="C855" s="10" t="s"/>
@@ -18735,43 +18745,43 @@
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="4" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="B856" s="10" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="D856" s="6" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="4" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="B857" s="10" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="D857" s="6" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="4" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="B858" s="10" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="D858" s="6" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="4" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="B859" s="10" t="s"/>
       <c r="C859" s="10" t="s"/>
@@ -18779,43 +18789,43 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="B863" s="10" t="s"/>
       <c r="C863" s="10" t="s"/>
@@ -18823,463 +18833,463 @@
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="B901" s="10" t="s">
         <v>2306</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="B902" s="10" t="s"/>
       <c r="C902" s="10" t="s"/>
@@ -19287,7 +19297,7 @@
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="B903" s="10" t="s"/>
       <c r="C903" s="10" t="s"/>
@@ -19295,7 +19305,7 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="B904" s="10" t="s"/>
       <c r="C904" s="10" t="s"/>
@@ -19303,7 +19313,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="B905" s="10" t="s"/>
       <c r="C905" s="10" t="s"/>
@@ -19311,43 +19321,43 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19355,7 +19365,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19363,7 +19373,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19371,7 +19381,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19379,7 +19389,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19387,7 +19397,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19395,7 +19405,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19403,7 +19413,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19411,43 +19421,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19455,7 +19465,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19463,259 +19473,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="2635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="2632">
   <si>
     <t/>
   </si>
@@ -3431,19 +3431,10 @@
     <t>trans0402</t>
   </si>
   <si>
-    <t>SSH 状态</t>
-  </si>
-  <si>
     <t>SSH</t>
   </si>
   <si>
     <t>trans0403</t>
-  </si>
-  <si>
-    <t>Telnet 状态</t>
-  </si>
-  <si>
-    <t>Telnet</t>
   </si>
   <si>
     <t>trans0404</t>
@@ -11736,10 +11727,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12948,10 +12939,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12960,10 +12951,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -13311,769 +13302,765 @@
         <v>1138</v>
       </c>
       <c r="C402" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D402" s="6" t="s"/>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B403" s="10" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C403" s="10" t="s">
-        <v>1142</v>
-      </c>
+        <v>1139</v>
+      </c>
+      <c r="B403" s="10" t="s"/>
+      <c r="C403" s="10" t="s"/>
       <c r="D403" s="6" t="s"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="8" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D404" s="6" t="s"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="8" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D405" s="6" t="s"/>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="8" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D406" s="6" t="s"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="8" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D407" s="6" t="s"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="8" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D408" s="6" t="s"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="8" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D409" s="6" t="s"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="8" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D410" s="6" t="s"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="8" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D411" s="6" t="s"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="8" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D412" s="6" t="s"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="8" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D413" s="6" t="s"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="8" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D414" s="6" t="s"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="8" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="D415" s="6" t="s"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="8" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D416" s="6" t="s"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="8" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D417" s="6" t="s"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="8" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D418" s="6" t="s"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="8" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D419" s="6" t="s"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="8" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C420" s="10" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D420" s="6" t="s"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="8" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D421" s="6" t="s"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="8" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C422" s="10" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D422" s="6" t="s"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="8" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B423" s="10" t="s">
         <v>183</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="D423" s="6" t="s"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="8" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D424" s="6" t="s"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="8" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D425" s="6" t="s"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="8" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C426" s="10" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D426" s="6" t="s"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="8" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D427" s="6" t="s"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="8" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D428" s="6" t="s"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="8" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="D429" s="6" t="s"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="8" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D430" s="6" t="s"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="8" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D431" s="6" t="s"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="8" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="D432" s="6" t="s"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="8" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D433" s="6" t="s"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="8" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D434" s="6" t="s"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="8" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D435" s="6" t="s"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="8" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D436" s="6" t="s"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="8" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D437" s="6" t="s"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="8" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="D438" s="6" t="s"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="8" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D439" s="6" t="s"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="8" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D440" s="6" t="s"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="8" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D441" s="6" t="s"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="8" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D442" s="6" t="s"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="8" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D443" s="6" t="s"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="8" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D444" s="6" t="s"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="8" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D445" s="6" t="s"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="8" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D446" s="6" t="s"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="8" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D447" s="6" t="s"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="8" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D448" s="6" t="s"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="8" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D449" s="6" t="s"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="8" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D450" s="6" t="s"/>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="8" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D451" s="6" t="s"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="8" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C452" s="10" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D452" s="6" t="s"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="8" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D453" s="6" t="s"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="8" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="B454" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D454" s="6" t="s"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="8" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D455" s="6" t="s"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="8" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C456" s="10" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D456" s="6" t="s"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="8" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D457" s="6" t="s"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="8" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D458" s="6" t="s"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="8" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D459" s="6" t="s"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="8" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D460" s="6" t="s"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="8" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D461" s="6" t="s"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="8" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D462" s="6" t="s"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="8" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D463" s="6" t="s"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="8" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D464" s="6" t="s"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="8" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D465" s="10" t="s"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="8" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B466" s="10" t="s">
         <v>1123</v>
@@ -14085,1078 +14072,1078 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="8" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="D467" s="6" t="s"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="8" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C468" s="10" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D468" s="6" t="s"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="8" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D469" s="6" t="s"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="8" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C470" s="10" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D470" s="6" t="s"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="8" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D471" s="6" t="s"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="8" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D472" s="19" t="s"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="8" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D473" s="6" t="s"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="8" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C474" s="10" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="D474" s="6" t="s"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="8" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D475" s="20" t="s"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="8" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D476" s="6" t="s"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="8" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D477" s="6" t="s"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="8" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D478" s="6" t="s"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="8" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D479" s="6" t="s"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="8" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C480" s="14" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D480" s="6" t="s"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="8" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D481" s="6" t="s"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="8" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C482" s="10" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D482" s="6" t="s"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="8" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C483" s="14" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D483" s="6" t="s"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="8" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C484" s="14" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D484" s="6" t="s"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="8" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D485" s="6" t="s"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="8" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C486" s="10" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D486" s="6" t="s"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="8" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C487" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="D487" s="6" t="s"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="8" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C488" s="10" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D488" s="6" t="s"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="8" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D489" s="6" t="s"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="8" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C490" s="10" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D490" s="6" t="s"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="8" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C491" s="10" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D491" s="6" t="s"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="8" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B492" s="10" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C492" s="10" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D492" s="6" t="s"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="8" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B493" s="10" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D493" s="6" t="s"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="8" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B494" s="10" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C494" s="10" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D494" s="6" t="s"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="8" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D495" s="6" t="s"/>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="8" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D496" s="6" t="s"/>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D497" s="6" t="s"/>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="8" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C498" s="10" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D498" s="6" t="s"/>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B499" s="10" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D499" s="6" t="s"/>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="8" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B500" s="10" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C500" s="10" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D500" s="6" t="s"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="8" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B501" s="10" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D501" s="6" t="s"/>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="8" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B502" s="10" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C502" s="10" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="D502" s="6" t="s"/>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="8" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B503" s="10" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="C503" s="10" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D503" s="6" t="s"/>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="8" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B504" s="10" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C504" s="10" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D504" s="6" t="s"/>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="8" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B505" s="10" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D505" s="6" t="s"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="8" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B506" s="10" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C506" s="10" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D506" s="6" t="s"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="8" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B507" s="10" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C507" s="10" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D507" s="6" t="s"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="8" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B508" s="10" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C508" s="10" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D508" s="21" t="s"/>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="8" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B509" s="10" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C509" s="10" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D509" s="22" t="s"/>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="8" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="B510" s="10" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C510" s="10" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D510" s="6" t="s"/>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="8" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B511" s="10" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C511" s="10" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D511" s="6" t="s"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="8" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B512" s="10" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C512" s="10" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="D512" s="6" t="s"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="8" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B513" s="10" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D513" s="6" t="s"/>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="8" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B514" s="10" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="C514" s="10" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="D514" s="6" t="s"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="8" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B515" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D515" s="6" t="s"/>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="8" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B516" s="10" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C516" s="10" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D516" s="6" t="s"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="8" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B517" s="10" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="D517" s="6" t="s"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="8" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B518" s="10" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C518" s="10" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D518" s="6" t="s"/>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="8" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B519" s="10" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="D519" s="6" t="s"/>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="8" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B520" s="14" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="C520" s="10" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="D520" s="6" t="s"/>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="8" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B521" s="10" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C521" s="10" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="D521" s="6" t="s"/>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="8" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B522" s="10" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C522" s="10" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="D522" s="6" t="s"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="8" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B523" s="10" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C523" s="10" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="D523" s="6" t="s"/>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="8" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="C524" s="10" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="D524" s="6" t="s"/>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="8" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B525" s="10" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C525" s="10" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="D525" s="6" t="s"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="8" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C526" s="10" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="D526" s="6" t="s"/>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="8" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B527" s="10" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C527" s="10" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="D527" s="6" t="s"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="8" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B528" s="10" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C528" s="10" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="D528" s="6" t="s"/>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="8" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B529" s="10" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C529" s="10" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="D529" s="6" t="s"/>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="8" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="B530" s="10" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C530" s="10" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="D530" s="6" t="s"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="8" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B531" s="10" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C531" s="10" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="D531" s="6" t="s"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="8" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B532" s="10" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C532" s="10" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="D532" s="6" t="s"/>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="8" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B533" s="10" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C533" s="10" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="D533" s="6" t="s"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="8" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B534" s="10" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="D534" s="6" t="s"/>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="8" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B535" s="10" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="D535" s="6" t="s"/>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="8" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B536" s="10" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C536" s="10" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="D536" s="6" t="s"/>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="8" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B537" s="10" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D537" s="6" t="s"/>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="8" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B538" s="10" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="C538" s="10" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D538" s="6" t="s"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="8" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="B539" s="10" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C539" s="10" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="D539" s="6" t="s"/>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="8" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="B540" s="10" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C540" s="10" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="D540" s="6" t="s"/>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="8" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="B541" s="10" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C541" s="10" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D541" s="6" t="s"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="8" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B542" s="10" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C542" s="10" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="D542" s="6" t="s"/>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="8" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="B543" s="10" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C543" s="10" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D543" s="6" t="s"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="8" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="B544" s="10" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C544" s="10" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="D544" s="6" t="s"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="8" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B545" s="10" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C545" s="10" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="D545" s="6" t="s"/>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="8" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B546" s="10" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C546" s="10" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="D546" s="6" t="s"/>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="8" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="B547" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="C547" s="10" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="D547" s="6" t="s"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="8" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="B548" s="10" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C548" s="10" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="D548" s="6" t="s"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="8" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B549" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C549" s="10" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D549" s="6" t="s"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="8" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="B550" s="10" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="C550" s="10" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D550" s="6" t="s"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="8" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B551" s="10" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D551" s="6" t="s"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="8" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B552" s="10" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="C552" s="10" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D552" s="6" t="s"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="8" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="B553" s="10" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C553" s="10" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D553" s="6" t="s"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="8" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="B554" s="10" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C554" s="10" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="D554" s="6" t="s"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="8" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B555" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C555" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="D555" s="6" t="s"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="8" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B556" s="10" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="C556" s="10" t="s">
         <v>394</v>
@@ -15165,457 +15152,457 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="8" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B557" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D557" s="6" t="s"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="8" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B558" s="10" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D558" s="6" t="s"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="8" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B559" s="10" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D559" s="6" t="s"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="8" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B560" s="10" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D560" s="6" t="s"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="8" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B561" s="10" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D561" s="6" t="s"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="8" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B562" s="10" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="D562" s="6" t="s"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="8" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B563" s="10" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="D563" s="6" t="s"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="8" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B564" s="10" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C564" s="10" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D564" s="10" t="s"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="8" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="B565" s="10" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="D565" s="6" t="s"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="8" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B566" s="10" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="C566" s="10" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="D566" s="6" t="s"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="8" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B567" s="10" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D567" s="6" t="s"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="8" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="B568" s="10" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C568" s="10" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D568" s="6" t="s"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="8" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B569" s="10" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D569" s="6" t="s"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="8" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="B570" s="10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C570" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D570" s="6" t="s"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="8" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B571" s="10" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="D571" s="6" t="s"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="8" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B572" s="10" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="C572" s="10" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="D572" s="6" t="s"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="8" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="B573" s="10" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="D573" s="6" t="s"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="8" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="B574" s="10" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="C574" s="10" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="D574" s="6" t="s"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="8" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="B575" s="10" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="D575" s="6" t="s"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="8" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="B576" s="10" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C576" s="10" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D576" s="6" t="s"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="8" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="B577" s="10" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="D577" s="6" t="s"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="8" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="B578" s="10" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C578" s="10" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="D578" s="6" t="s"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="8" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B579" s="10" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="D579" s="6" t="s"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="8" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="B580" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="C580" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="D580" s="6" t="s"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="8" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="B581" s="10" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="D581" s="6" t="s"/>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="8" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="B582" s="10" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="C582" s="10" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="D582" s="6" t="s"/>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="8" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="B583" s="10" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="D583" s="6" t="s"/>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="8" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="B584" s="10" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="C584" s="10" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="D584" s="6" t="s"/>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="8" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="B585" s="10" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="D585" s="6" t="s"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="8" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="B586" s="10" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C586" s="10" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D586" s="10" t="s"/>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="8" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="B587" s="10" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D587" s="6" t="s"/>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="8" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B588" s="10" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C588" s="10" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="D588" s="6" t="s"/>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="8" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="B589" s="10" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="D589" s="6" t="s"/>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="8" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="B590" s="10" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="C590" s="10" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="D590" s="6" t="s"/>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="8" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="B591" s="10" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D591" s="6" t="s"/>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="8" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="B592" s="10" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="C592" s="10" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="D592" s="6" t="s"/>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="8" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="B593" s="10" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="D593" s="6" t="s"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="8" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B594" s="10" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="C594" s="10" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="D594" s="23" t="s">
         <v>344</v>
@@ -15623,37 +15610,37 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="8" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="B595" s="10" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="D595" s="6" t="s"/>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="8" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="B596" s="10" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="C596" s="10" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="D596" s="6" t="s"/>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="8" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="B597" s="10" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="C597" s="10" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="D597" s="15" t="s">
         <v>344</v>
@@ -15661,187 +15648,187 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="8" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B598" s="10" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="C598" s="10" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="D598" s="6" t="s"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="8" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="B599" s="10" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C599" s="10" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="D599" s="6" t="s"/>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="8" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="B600" s="10" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C600" s="10" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D600" s="6" t="s"/>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="8" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="B601" s="10" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="C601" s="10" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="D601" s="6" t="s"/>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="8" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B602" s="10" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C602" s="10" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="D602" s="6" t="s"/>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="8" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B603" s="10" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="C603" s="10" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="D603" s="6" t="s"/>
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="8" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="B604" s="10" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="C604" s="10" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="D604" s="6" t="s"/>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="8" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="B605" s="10" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="C605" s="10" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D605" s="6" t="s"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="8" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="B606" s="10" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="C606" s="10" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D606" s="6" t="s"/>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="8" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="B607" s="10" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C607" s="10" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="D607" s="6" t="s"/>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="8" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="B608" s="10" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="C608" s="10" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D608" s="6" t="s"/>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="8" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="B609" s="10" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="C609" s="10" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="D609" s="6" t="s"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="8" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="B610" s="10" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="C610" s="10" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="D610" s="6" t="s"/>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="8" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B611" s="10" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="C611" s="10" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="D611" s="6" t="s"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="8" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="B612" s="10" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="C612" s="10" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="D612" s="6" t="s"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="8" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="B613" s="10" t="s">
         <v>200</v>
@@ -15853,487 +15840,487 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="8" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="B614" s="10" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C614" s="10" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="D614" s="6" t="s"/>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="8" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="B615" s="10" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C615" s="10" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="D615" s="6" t="s"/>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="8" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="B616" s="10" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C616" s="10" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D616" s="6" t="s"/>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="8" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="B617" s="10" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="C617" s="10" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D617" s="6" t="s"/>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="8" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="B618" s="10" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="C618" s="10" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D618" s="6" t="s"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="8" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="B619" s="10" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="C619" s="10" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="D619" s="6" t="s"/>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="8" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="B620" s="10" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="C620" s="10" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D620" s="10" t="s"/>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="8" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="B621" s="10" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D621" s="10" t="s"/>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="8" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="B622" s="10" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="C622" s="10" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D622" s="6" t="s"/>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="8" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="B623" s="10" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="C623" s="10" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="D623" s="10" t="s"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="8" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="B624" s="10" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="C624" s="10" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D624" s="24" t="s"/>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="8" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="B625" s="10" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="C625" s="10" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="D625" s="10" t="s"/>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="8" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B626" s="10" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="C626" s="10" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="D626" s="6" t="s"/>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="8" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="B627" s="10" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="C627" s="10" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="D627" s="6" t="s"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="8" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="B628" s="10" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="C628" s="10" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="D628" s="6" t="s"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="8" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="B629" s="10" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="C629" s="10" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="D629" s="6" t="s"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="8" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B630" s="10" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="C630" s="10" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="D630" s="10" t="s"/>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="8" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B631" s="10" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="C631" s="10" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D631" s="6" t="s"/>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="8" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="B632" s="10" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="C632" s="10" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="D632" s="6" t="s"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="8" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="B633" s="10" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="C633" s="14" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="D633" s="6" t="s"/>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="8" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="B634" s="10" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="C634" s="10" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="D634" s="6" t="s"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="8" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="B635" s="10" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="C635" s="10" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="D635" s="6" t="s"/>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="8" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="B636" s="10" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="C636" s="10" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="D636" s="6" t="s"/>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="8" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="B637" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="C637" s="10" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="D637" s="6" t="s"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="8" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="B638" s="10" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="C638" s="10" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="D638" s="6" t="s"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="8" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="B639" s="10" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="C639" s="10" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="D639" s="6" t="s"/>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="8" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="B640" s="10" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="C640" s="10" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="D640" s="10" t="s"/>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="8" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B641" s="10" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="C641" s="10" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="D641" s="6" t="s"/>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="8" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="B642" s="10" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="C642" s="10" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D642" s="6" t="s"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="8" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="B643" s="10" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="C643" s="10" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="D643" s="6" t="s"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="8" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="B644" s="10" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="C644" s="10" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="D644" s="6" t="s"/>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="8" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="B645" s="10" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="C645" s="10" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="D645" s="6" t="s"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="8" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="B646" s="10" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="D646" s="6" t="s"/>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="8" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="B647" s="10" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="C647" s="10" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="D647" s="6" t="s"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="8" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="B648" s="10" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C648" s="10" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D648" s="6" t="s"/>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="8" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="B649" s="10" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="C649" s="10" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D649" s="6" t="s"/>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="8" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="B650" s="10" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="C650" s="10" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="D650" s="6" t="s"/>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="8" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="B651" s="10" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C651" s="10" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="D651" s="6" t="s"/>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="8" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="B652" s="10" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="C652" s="10" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="D652" s="6" t="s"/>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="8" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="B653" s="10" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C653" s="10" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="D653" s="6" t="s"/>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="8" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="B654" s="10" t="s">
         <v>506</v>
@@ -16345,2383 +16332,2383 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="8" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="B655" s="10" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="C655" s="10" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="D655" s="6" t="s"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="8" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="B656" s="10" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="C656" s="10" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D656" s="6" t="s"/>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="8" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="B657" s="10" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="C657" s="10" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="D657" s="6" t="s"/>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="8" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="B658" s="10" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="C658" s="10" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="D658" s="6" t="s"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="8" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="B659" s="10" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="C659" s="10" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="D659" s="6" t="s"/>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="8" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="B660" s="10" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C660" s="10" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D660" s="6" t="s"/>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="8" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="B661" s="10" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="C661" s="10" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="D661" s="6" t="s"/>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="8" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="B662" s="10" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="C662" s="10" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="D662" s="6" t="s"/>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="8" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="B663" s="10" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="C663" s="10" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="D663" s="6" t="s"/>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="8" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="B664" s="10" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="C664" s="10" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="D664" s="6" t="s"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="8" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="B665" s="10" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="C665" s="10" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="D665" s="6" t="s"/>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="8" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="B666" s="10" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="C666" s="10" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="D666" s="6" t="s"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="8" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="B667" s="10" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="D667" s="6" t="s"/>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="4" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="B668" s="10" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="C668" s="10" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="D668" s="6" t="s"/>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="4" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="B669" s="10" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="C669" s="10" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="D669" s="6" t="s"/>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="4" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="B670" s="10" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="C670" s="14" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="D670" s="6" t="s"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="4" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="B671" s="10" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="C671" s="10" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="D671" s="6" t="s"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="4" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="B672" s="10" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="C672" s="10" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="D672" s="6" t="s"/>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="4" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="B673" s="10" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="D673" s="6" t="s"/>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="4" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="B674" s="10" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="C674" s="10" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="D674" s="6" t="s"/>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="4" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="B675" s="10" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="C675" s="10" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="D675" s="6" t="s"/>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="4" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="B676" s="10" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="C676" s="10" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="D676" s="6" t="s"/>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="4" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="B677" s="10" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="C677" s="10" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="D677" s="6" t="s"/>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="4" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="B678" s="10" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="C678" s="10" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="D678" s="6" t="s"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="4" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="B679" s="10" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="C679" s="10" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="D679" s="6" t="s"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="4" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="B680" s="10" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="C680" s="10" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="D680" s="6" t="s"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="4" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="B681" s="10" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="D681" s="6" t="s"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="4" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="B682" s="10" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="C682" s="10" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="D682" s="6" t="s"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="4" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="B683" s="10" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="D683" s="6" t="s"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="4" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="B684" s="10" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="C684" s="10" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="D684" s="6" t="s"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="4" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="B685" s="10" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="D685" s="6" t="s"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="4" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="B686" s="10" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="C686" s="10" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="D686" s="6" t="s"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="4" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="B687" s="25" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="D687" s="6" t="s"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="4" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B688" s="10" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D688" s="6" t="s"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="4" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="B689" s="10" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="D689" s="6" t="s"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="4" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="B690" s="10" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="D690" s="6" t="s"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="4" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="B691" s="25" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="D691" s="6" t="s"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="4" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="B692" s="10" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="D692" s="6" t="s"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="4" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="B693" s="10" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D693" s="6" t="s"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="4" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B694" s="10" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="C694" s="10" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="D694" s="6" t="s"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="4" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B695" s="10" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="D695" s="6" t="s"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="4" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="B696" s="10" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="D696" s="6" t="s"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="4" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B697" s="10" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="C697" s="26" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="D697" s="6" t="s"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="4" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B698" s="10" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C698" s="10" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="D698" s="6" t="s"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="4" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B699" s="10" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="D699" s="6" t="s"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="4" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B700" s="10" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="D700" s="6" t="s"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="4" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B701" s="10" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D701" s="6" t="s"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="4" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B702" s="10" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D702" s="6" t="s"/>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="4" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B703" s="10" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C703" s="10" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D703" s="6" t="s"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="4" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B704" s="10" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C704" s="10" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D704" s="6" t="s"/>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="4" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B705" s="10" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C705" s="10" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D705" s="6" t="s"/>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="4" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B706" s="10" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C706" s="10" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D706" s="6" t="s"/>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="4" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B707" s="10" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C707" s="10" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D707" s="6" t="s"/>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="4" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="B708" s="10" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="D708" s="6" t="s"/>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="4" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="B709" s="10" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="C709" s="10" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="D709" s="6" t="s"/>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="4" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="B710" s="10" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="D710" s="6" t="s"/>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="4" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="B711" s="10" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="C711" s="10" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="D711" s="6" t="s"/>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="4" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="B712" s="10" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="C712" s="10" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="D712" s="6" t="s"/>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="4" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="B713" s="10" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="C713" s="10" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="D713" s="6" t="s"/>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="4" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="B714" s="26" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="C714" s="10" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D714" s="6" t="s"/>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="4" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="B715" s="10" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="C715" s="10" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D715" s="6" t="s"/>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="4" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="B716" s="10" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="C716" s="10" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D716" s="6" t="s"/>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="4" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="B717" s="10" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="C717" s="10" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="D717" s="6" t="s"/>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="4" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="B718" s="10" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D718" s="6" t="s"/>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="4" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="B719" s="10" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="C719" s="10" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D719" s="6" t="s"/>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="4" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="B720" s="10" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="C720" s="10" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D720" s="6" t="s"/>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="4" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="B721" s="10" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="C721" s="10" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D721" s="6" t="s"/>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="4" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="B722" s="10" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="D722" s="6" t="s"/>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="4" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="B723" s="10" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="C723" s="10" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="D723" s="6" t="s"/>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="4" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="B724" s="10" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="C724" s="10" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="D724" s="6" t="s"/>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="4" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="B725" s="10" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="C725" s="10" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="D725" s="6" t="s"/>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="4" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="B726" s="10" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="C726" s="10" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="D726" s="6" t="s"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="4" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="B727" s="10" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="D727" s="6" t="s"/>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="4" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="B728" s="10" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="C728" s="10" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="D728" s="6" t="s"/>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="B729" s="10" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="C729" s="10" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="D729" s="6" t="s"/>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="4" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="B730" s="10" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="C730" s="10" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="D730" s="6" t="s"/>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="4" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="B731" s="10" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="C731" s="10" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="D731" s="6" t="s"/>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="4" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="B732" s="10" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="C732" s="10" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="D732" s="6" t="s"/>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="4" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="B733" s="10" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="C733" s="10" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="D733" s="6" t="s"/>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="4" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="B734" s="10" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="C734" s="10" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="D734" s="6" t="s"/>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="4" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="B735" s="10" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="C735" s="10" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D735" s="6" t="s"/>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="4" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="B736" s="26" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="C736" s="10" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D736" s="6" t="s"/>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="4" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="B737" s="10" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="C737" s="10" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="D737" s="6" t="s"/>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="4" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B738" s="10" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="C738" s="10" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D738" s="6" t="s"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="4" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="B739" s="10" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="C739" s="10" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="D739" s="6" t="s"/>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="4" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="B740" s="10" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="C740" s="10" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="D740" s="6" t="s"/>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="4" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="B741" s="10" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="C741" s="10" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="D741" s="6" t="s"/>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="4" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="B742" s="10" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="C742" s="10" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="D742" s="6" t="s"/>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="4" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="B743" s="10" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="C743" s="10" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="D743" s="6" t="s"/>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="4" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="B744" s="10" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="C744" s="10" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D744" s="6" t="s"/>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="4" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="B745" s="10" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="C745" s="10" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="D745" s="6" t="s"/>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="4" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="B746" s="10" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="C746" s="10" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="D746" s="6" t="s"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="4" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="B747" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C747" s="10" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="D747" s="6" t="s"/>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="4" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="B748" s="10" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="C748" s="10" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="D748" s="6" t="s"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="4" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="B749" s="10" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="C749" s="10" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="D749" s="6" t="s"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="4" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="B750" s="10" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C750" s="10" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="D750" s="6" t="s"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="4" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="B751" s="10" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="C751" s="10" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D751" s="6" t="s"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="4" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="B752" s="10" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="C752" s="10" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="D752" s="6" t="s"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="4" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="B753" s="10" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="C753" s="10" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="D753" s="6" t="s"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="4" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="B754" s="10" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="C754" s="10" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="D754" s="6" t="s"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="4" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="B755" s="10" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="C755" s="10" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="D755" s="6" t="s"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="4" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="B756" s="10" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="C756" s="10" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="D756" s="6" t="s"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="4" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="B757" s="10" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="C757" s="10" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="D757" s="6" t="s"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="4" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="B758" s="10" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="C758" s="10" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="D758" s="6" t="s"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="4" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="B759" s="10" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="C759" s="10" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="D759" s="6" t="s"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="4" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="B760" s="10" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="C760" s="10" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="D760" s="6" t="s"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="4" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="B761" s="10" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="D761" s="6" t="s"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="4" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="B762" s="10" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="D762" s="6" t="s"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="4" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="B763" s="10" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="C763" s="10" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="D763" s="6" t="s"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="4" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="B764" s="10" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="C764" s="10" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="D764" s="6" t="s"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="4" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="B765" s="10" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="C765" s="10" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="D765" s="6" t="s"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="4" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="B766" s="10" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="C766" s="10" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="D766" s="6" t="s"/>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="4" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="B767" s="10" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="D767" s="6" t="s"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="4" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="B768" s="10" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="D768" s="6" t="s"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="4" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="B769" s="10" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="C769" s="10" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="D769" s="6" t="s"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="4" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="B770" s="10" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="C770" s="10" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="D770" s="6" t="s"/>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="4" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="B771" s="10" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="D771" s="6" t="s"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="4" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="B772" s="10" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="C772" s="10" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="D772" s="6" t="s"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="4" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="B773" s="10" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="C773" s="10" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D773" s="6" t="s"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="4" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="B774" s="10" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="C774" s="10" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="D774" s="6" t="s"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="4" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="B775" s="10" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="C775" s="10" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="D775" s="6" t="s"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="4" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="B776" s="10" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="D776" s="6" t="s"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="4" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="B777" s="10" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="C777" s="10" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="D777" s="6" t="s"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="4" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="B778" s="10" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="C778" s="10" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="D778" s="6" t="s"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="4" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="B779" s="10" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="C779" s="10" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="D779" s="6" t="s"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="4" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="B780" s="10" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="C780" s="10" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D780" s="6" t="s"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="4" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="B781" s="10" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="D781" s="6" t="s"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="4" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="B782" s="10" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="C782" s="10" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="D782" s="6" t="s"/>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="4" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="B783" s="10" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="C783" s="10" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="D783" s="6" t="s"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="4" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="B784" s="10" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="C784" s="10" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="D784" s="6" t="s"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="4" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="B785" s="10" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C785" s="10" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="D785" s="6" t="s"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="4" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="B786" s="10" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="C786" s="10" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="D786" s="6" t="s"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="4" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="B787" s="10" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="D787" s="6" t="s"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="4" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="B788" s="10" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="D788" s="6" t="s"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="B789" s="10" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="D789" s="6" t="s"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="4" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="B790" s="10" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="C790" s="10" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="D790" s="6" t="s"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="B791" s="10" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="D791" s="6" t="s"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="4" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="B792" s="10" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="D792" s="6" t="s"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="4" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="B793" s="10" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="C793" s="10" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="D793" s="6" t="s"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="4" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="B794" s="10" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="C794" s="10" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="D794" s="6" t="s"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="4" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="B795" s="10" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C795" s="10" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D795" s="6" t="s"/>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="4" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="B796" s="10" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="C796" s="10" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="D796" s="6" t="s"/>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="4" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="B797" s="10" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="C797" s="10" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="D797" s="6" t="s"/>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="4" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="B798" s="10" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="C798" s="10" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="D798" s="6" t="s"/>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="4" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="B799" s="10" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="C799" s="10" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="D799" s="6" t="s"/>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="4" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="B800" s="10" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="C800" s="10" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="D800" s="6" t="s"/>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="4" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="B801" s="10" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="C801" s="10" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="D801" s="6" t="s"/>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="4" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="B802" s="10" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="C802" s="10" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="D802" s="6" t="s"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="4" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="B803" s="10" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="C803" s="10" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="D803" s="6" t="s"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="4" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="B804" s="10" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="C804" s="10" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="D804" s="6" t="s"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="4" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="B805" s="10" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="D805" s="6" t="s"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="4" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="B806" s="10" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="C806" s="10" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="D806" s="6" t="s"/>
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="4" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="B807" s="10" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D807" s="6" t="s"/>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="4" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="B808" s="10" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="C808" s="10" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="D808" s="6" t="s"/>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="4" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="B809" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="C809" s="10" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="D809" s="6" t="s"/>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="4" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="B810" s="10" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="D810" s="6" t="s"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="4" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="B811" s="10" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="D811" s="6" t="s"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="4" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="B812" s="10" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="D812" s="6" t="s"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="4" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="B813" s="10" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="D813" s="6" t="s"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="4" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="B814" s="10" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="D814" s="6" t="s"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="4" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="B815" s="10" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="D815" s="6" t="s"/>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="4" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="B816" s="10" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="C816" s="10" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="D816" s="6" t="s"/>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="4" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="B817" s="10" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="C817" s="10" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="D817" s="6" t="s"/>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="4" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="B818" s="10" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="D818" s="6" t="s"/>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="4" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="B819" s="10" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="D819" s="6" t="s"/>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="4" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="B820" s="10" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="C820" s="10" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="D820" s="6" t="s"/>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="4" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="B821" s="10" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="C821" s="10" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="D821" s="6" t="s"/>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="4" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="B822" s="10" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="C822" s="10" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="D822" s="6" t="s"/>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="4" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="B823" s="10" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="C823" s="10" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="D823" s="6" t="s"/>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="4" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="B824" s="10" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="C824" s="10" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="D824" s="6" t="s"/>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="4" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="B825" s="10" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="C825" s="10" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="D825" s="6" t="s"/>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="4" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="B826" s="10" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="C826" s="10" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="D826" s="6" t="s"/>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="4" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="B827" s="10" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="C827" s="10" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="D827" s="6" t="s"/>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="4" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="B828" s="10" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="C828" s="10" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="D828" s="6" t="s"/>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="4" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="B829" s="10" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="C829" s="10" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="D829" s="6" t="s"/>
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="4" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="B830" s="10" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="C830" s="10" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="D830" s="6" t="s"/>
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="4" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="B831" s="10" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="C831" s="10" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="D831" s="6" t="s"/>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="4" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="B832" s="10" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="C832" s="10" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="D832" s="6" t="s"/>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="4" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="B833" s="10" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="C833" s="10" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="D833" s="6" t="s"/>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="4" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="B834" s="10" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="C834" s="10" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="D834" s="6" t="s"/>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="4" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="B835" s="10" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="C835" s="10" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="D835" s="6" t="s"/>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="4" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="B836" s="10" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="C836" s="10" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="D836" s="6" t="s"/>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="4" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="B837" s="10" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="C837" s="10" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="D837" s="6" t="s"/>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="4" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="B838" s="10" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="C838" s="10" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="D838" s="6" t="s"/>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="4" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="B839" s="10" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="C839" s="10" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="D839" s="6" t="s"/>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="4" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="B840" s="10" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="C840" s="10" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="D840" s="6" t="s"/>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="4" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="B841" s="10" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="C841" s="10" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="D841" s="6" t="s"/>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="4" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="B842" s="10" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="C842" s="10" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="D842" s="6" t="s"/>
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="4" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="B843" s="10" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="C843" s="10" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="D843" s="6" t="s"/>
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="4" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="B844" s="10" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="C844" s="10" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="D844" s="6" t="s"/>
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="4" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="B845" s="10" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="C845" s="10" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="D845" s="27" t="s"/>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="4" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="B846" s="10" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="C846" s="10" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="D846" s="27" t="s"/>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="4" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="B847" s="10" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="D847" s="10" t="s"/>
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="4" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="B848" s="10" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="C848" s="10" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="D848" s="6" t="s"/>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="4" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="B849" s="10" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="C849" s="10" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="D849" s="6" t="s"/>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="4" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="B850" s="10" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="D850" s="6" t="s"/>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="4" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="B851" s="10" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="C851" s="10" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="D851" s="6" t="s"/>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="4" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="B852" s="10" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="C852" s="10" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="D852" s="6" t="s"/>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="4" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="B853" s="10" t="s"/>
       <c r="C853" s="10" t="s"/>
@@ -18729,7 +18716,7 @@
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="4" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="B854" s="10" t="s"/>
       <c r="C854" s="10" t="s"/>
@@ -18737,7 +18724,7 @@
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="4" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="B855" s="10" t="s"/>
       <c r="C855" s="10" t="s"/>
@@ -18745,43 +18732,43 @@
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="4" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="B856" s="10" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="D856" s="6" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="4" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="B857" s="10" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="D857" s="6" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="4" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="B858" s="10" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="D858" s="6" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="4" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="B859" s="10" t="s"/>
       <c r="C859" s="10" t="s"/>
@@ -18789,43 +18776,43 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="B863" s="10" t="s"/>
       <c r="C863" s="10" t="s"/>
@@ -18833,463 +18820,463 @@
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="B902" s="10" t="s"/>
       <c r="C902" s="10" t="s"/>
@@ -19297,7 +19284,7 @@
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="B903" s="10" t="s"/>
       <c r="C903" s="10" t="s"/>
@@ -19305,7 +19292,7 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="B904" s="10" t="s"/>
       <c r="C904" s="10" t="s"/>
@@ -19313,7 +19300,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="B905" s="10" t="s"/>
       <c r="C905" s="10" t="s"/>
@@ -19321,43 +19308,43 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19365,7 +19352,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19373,7 +19360,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19381,7 +19368,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19389,7 +19376,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19397,7 +19384,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19405,7 +19392,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19413,7 +19400,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19421,43 +19408,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19465,7 +19452,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19473,259 +19460,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="2632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="2634">
   <si>
     <t/>
   </si>
@@ -1307,7 +1307,7 @@
     <t>开始 IP 地址</t>
   </si>
   <si>
-    <t>Start IP address</t>
+    <t>Start IP Address</t>
   </si>
   <si>
     <t>trans0152</t>
@@ -1316,7 +1316,7 @@
     <t>结束 IP 地址</t>
   </si>
   <si>
-    <t>End IP address</t>
+    <t>End IP Address</t>
   </si>
   <si>
     <t>trans0153</t>
@@ -1430,7 +1430,7 @@
     <t>开始 IP 地址不合法</t>
   </si>
   <si>
-    <t>Start IP address is invalid</t>
+    <t>Start IP Address is invalid</t>
   </si>
   <si>
     <t>trans0169</t>
@@ -1439,7 +1439,7 @@
     <t>结束 IP 地址不合法</t>
   </si>
   <si>
-    <t>End IP address is invalid</t>
+    <t>End IP Address is invalid</t>
   </si>
   <si>
     <t>trans0170</t>
@@ -1448,7 +1448,7 @@
     <t>开始 IP 地址不能大于结束 IP 地址</t>
   </si>
   <si>
-    <t>The start IP address cannot be greater than the end IP address</t>
+    <t>The Start IP Address cannot be greater than the End IP Address</t>
   </si>
   <si>
     <t>trans0171</t>
@@ -4874,10 +4874,10 @@
     <t>trans0569</t>
   </si>
   <si>
-    <t>协商结果:</t>
-  </si>
-  <si>
-    <t>Negotiation:</t>
+    <t>协商结果</t>
+  </si>
+  <si>
+    <t>Negotiation</t>
   </si>
   <si>
     <t>trans0570</t>
@@ -6143,10 +6143,10 @@
     <t>trans0714</t>
   </si>
   <si>
-    <t>身份验证方法</t>
-  </si>
-  <si>
-    <t>Authentication Method</t>
+    <t>认证模式</t>
+  </si>
+  <si>
+    <t>Authentication Mode</t>
   </si>
   <si>
     <t>trans0715</t>
@@ -7383,6 +7383,12 @@
   </si>
   <si>
     <t>trans0863</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>Search</t>
   </si>
   <si>
     <t>trans0864</t>
@@ -11727,10 +11733,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12939,10 +12945,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12951,10 +12957,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -18814,469 +18820,473 @@
       <c r="A863" s="4" t="s">
         <v>2455</v>
       </c>
-      <c r="B863" s="10" t="s"/>
-      <c r="C863" s="10" t="s"/>
+      <c r="B863" s="10" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C863" s="10" t="s">
+        <v>2457</v>
+      </c>
       <c r="D863" s="6" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="B901" s="10" t="s">
         <v>2303</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="B902" s="10" t="s"/>
       <c r="C902" s="10" t="s"/>
@@ -19284,7 +19294,7 @@
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="B903" s="10" t="s"/>
       <c r="C903" s="10" t="s"/>
@@ -19292,7 +19302,7 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="B904" s="10" t="s"/>
       <c r="C904" s="10" t="s"/>
@@ -19300,7 +19310,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="B905" s="10" t="s"/>
       <c r="C905" s="10" t="s"/>
@@ -19308,43 +19318,43 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19352,7 +19362,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19360,7 +19370,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19368,7 +19378,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19376,7 +19386,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19384,7 +19394,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19392,7 +19402,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19400,7 +19410,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19408,43 +19418,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19452,7 +19462,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19460,259 +19470,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="2634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="2636">
   <si>
     <t/>
   </si>
@@ -6584,7 +6584,7 @@
     <t>WAN 服务模式</t>
   </si>
   <si>
-    <t>WAN Service type</t>
+    <t>WAN Service Type</t>
   </si>
   <si>
     <t>trans0764</t>
@@ -7638,6 +7638,12 @@
   </si>
   <si>
     <t>trans0902</t>
+  </si>
+  <si>
+    <t>若%s为一段范围，可用冒号（:）隔开</t>
+  </si>
+  <si>
+    <t>If %s is a range, it can be separated by a colon (:).</t>
   </si>
   <si>
     <t>trans0903</t>
@@ -11733,10 +11739,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12945,10 +12951,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12957,10 +12963,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19288,13 +19294,17 @@
       <c r="A902" s="4" t="s">
         <v>2540</v>
       </c>
-      <c r="B902" s="10" t="s"/>
-      <c r="C902" s="10" t="s"/>
+      <c r="B902" s="10" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C902" s="10" t="s">
+        <v>2542</v>
+      </c>
       <c r="D902" s="6" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="B903" s="10" t="s"/>
       <c r="C903" s="10" t="s"/>
@@ -19302,7 +19312,7 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="B904" s="10" t="s"/>
       <c r="C904" s="10" t="s"/>
@@ -19310,7 +19320,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="B905" s="10" t="s"/>
       <c r="C905" s="10" t="s"/>
@@ -19318,43 +19328,43 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19362,7 +19372,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19370,7 +19380,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19378,7 +19388,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19386,7 +19396,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19394,7 +19404,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19402,7 +19412,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19410,7 +19420,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19418,43 +19428,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19462,7 +19472,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19470,259 +19480,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="2638">
   <si>
     <t/>
   </si>
@@ -7647,6 +7647,12 @@
   </si>
   <si>
     <t>trans0903</t>
+  </si>
+  <si>
+    <t>该功能仅在防火墙开启且安全等级设为自定义时方可使用</t>
+  </si>
+  <si>
+    <t>This function is only available when the firewall is enabled and its security level is set to user-defined</t>
   </si>
   <si>
     <t>trans0904</t>
@@ -11739,10 +11745,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12951,10 +12957,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12963,10 +12969,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19306,13 +19312,17 @@
       <c r="A903" s="4" t="s">
         <v>2543</v>
       </c>
-      <c r="B903" s="10" t="s"/>
-      <c r="C903" s="10" t="s"/>
+      <c r="B903" s="10" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C903" s="10" t="s">
+        <v>2545</v>
+      </c>
       <c r="D903" s="6" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="B904" s="10" t="s"/>
       <c r="C904" s="10" t="s"/>
@@ -19320,7 +19330,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="B905" s="10" t="s"/>
       <c r="C905" s="10" t="s"/>
@@ -19328,43 +19338,43 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19372,7 +19382,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19380,7 +19390,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19388,7 +19398,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19396,7 +19406,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19404,7 +19414,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19412,7 +19422,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19420,7 +19430,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19428,43 +19438,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19472,7 +19482,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19480,259 +19490,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="2638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="2640">
   <si>
     <t/>
   </si>
@@ -7332,6 +7332,12 @@
   </si>
   <si>
     <t>trans0853</t>
+  </si>
+  <si>
+    <t>正在连接</t>
+  </si>
+  <si>
+    <t>Connecting</t>
   </si>
   <si>
     <t>trans0854</t>
@@ -11745,10 +11751,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12957,10 +12963,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12969,10 +12975,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -18728,13 +18734,17 @@
       <c r="A853" s="4" t="s">
         <v>2438</v>
       </c>
-      <c r="B853" s="10" t="s"/>
-      <c r="C853" s="10" t="s"/>
+      <c r="B853" s="10" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C853" s="10" t="s">
+        <v>2440</v>
+      </c>
       <c r="D853" s="6" t="s"/>
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="4" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="B854" s="10" t="s"/>
       <c r="C854" s="10" t="s"/>
@@ -18742,7 +18752,7 @@
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="4" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="B855" s="10" t="s"/>
       <c r="C855" s="10" t="s"/>
@@ -18750,43 +18760,43 @@
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="4" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="B856" s="10" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="D856" s="6" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="4" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="B857" s="10" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="D857" s="6" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="4" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="B858" s="10" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="D858" s="6" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="4" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="B859" s="10" t="s"/>
       <c r="C859" s="10" t="s"/>
@@ -18794,535 +18804,535 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="B863" s="10" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="D863" s="6" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="B901" s="10" t="s">
         <v>2303</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="D902" s="6" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="D903" s="6" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="B904" s="10" t="s"/>
       <c r="C904" s="10" t="s"/>
@@ -19330,7 +19340,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="B905" s="10" t="s"/>
       <c r="C905" s="10" t="s"/>
@@ -19338,43 +19348,43 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19382,7 +19392,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19390,7 +19400,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19398,7 +19408,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19406,7 +19416,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19414,7 +19424,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19422,7 +19432,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19430,7 +19440,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19438,43 +19448,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19482,7 +19492,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19490,259 +19500,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -4007,7 +4007,10 @@
     <t>trans0471</t>
   </si>
   <si>
-    <t>SLAAC</t>
+    <t>自动配置</t>
+  </si>
+  <si>
+    <t>AutoConfigured</t>
   </si>
   <si>
     <t>trans0472</t>
@@ -4143,9 +4146,6 @@
   </si>
   <si>
     <t>trans0487</t>
-  </si>
-  <si>
-    <t>自动配置</t>
   </si>
   <si>
     <t>Automatically</t>
@@ -14150,196 +14150,196 @@
         <v>1330</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D471" s="6" t="s"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="8" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D472" s="19" t="s"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="8" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D473" s="6" t="s"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="8" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C474" s="10" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D474" s="6" t="s"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="8" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D475" s="20" t="s"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="8" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D476" s="6" t="s"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="8" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D477" s="6" t="s"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="8" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D478" s="6" t="s"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="8" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D479" s="6" t="s"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="8" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C480" s="14" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D480" s="6" t="s"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="8" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D481" s="6" t="s"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="8" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C482" s="10" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D482" s="6" t="s"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="8" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C483" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D483" s="6" t="s"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="8" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C484" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D484" s="6" t="s"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="8" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D485" s="6" t="s"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="8" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C486" s="10" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D486" s="6" t="s"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="8" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>1376</v>
+        <v>1330</v>
       </c>
       <c r="C487" s="10" t="s">
         <v>1377</v>
@@ -15551,7 +15551,7 @@
         <v>1675</v>
       </c>
       <c r="B588" s="10" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C588" s="10" t="s">
         <v>1676</v>
@@ -17919,7 +17919,7 @@
         <v>2247</v>
       </c>
       <c r="B785" s="10" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C785" s="10" t="s">
         <v>2248</v>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="2640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2642">
   <si>
     <t/>
   </si>
@@ -6440,7 +6440,7 @@
     <t>trans0747</t>
   </si>
   <si>
-    <t>STA</t>
+    <t>Max Wi-Fi Connections</t>
   </si>
   <si>
     <t>trans0748</t>
@@ -7341,6 +7341,12 @@
   </si>
   <si>
     <t>trans0854</t>
+  </si>
+  <si>
+    <t>输入搜索内容</t>
+  </si>
+  <si>
+    <t>Enter search content</t>
   </si>
   <si>
     <t>trans0855</t>
@@ -11751,10 +11757,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12963,10 +12969,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12975,10 +12981,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -18746,13 +18752,17 @@
       <c r="A854" s="4" t="s">
         <v>2441</v>
       </c>
-      <c r="B854" s="10" t="s"/>
-      <c r="C854" s="10" t="s"/>
+      <c r="B854" s="10" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C854" s="10" t="s">
+        <v>2443</v>
+      </c>
       <c r="D854" s="6" t="s"/>
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="4" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="B855" s="10" t="s"/>
       <c r="C855" s="10" t="s"/>
@@ -18760,43 +18770,43 @@
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="4" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="B856" s="10" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="D856" s="6" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="4" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="B857" s="10" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="D857" s="6" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="4" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="B858" s="10" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="D858" s="6" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="4" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="B859" s="10" t="s"/>
       <c r="C859" s="10" t="s"/>
@@ -18804,535 +18814,535 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="B863" s="10" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="D863" s="6" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="B901" s="10" t="s">
         <v>2303</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="D902" s="6" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="D903" s="6" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="B904" s="10" t="s"/>
       <c r="C904" s="10" t="s"/>
@@ -19340,7 +19350,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B905" s="10" t="s"/>
       <c r="C905" s="10" t="s"/>
@@ -19348,43 +19358,43 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19392,7 +19402,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19400,7 +19410,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19408,7 +19418,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19416,7 +19426,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19424,7 +19434,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19432,7 +19442,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19440,7 +19450,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19448,43 +19458,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19492,7 +19502,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19500,259 +19510,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -4148,7 +4148,7 @@
     <t>trans0487</t>
   </si>
   <si>
-    <t>Automatically</t>
+    <t>Automatic</t>
   </si>
   <si>
     <t>trans0488</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="2644">
   <si>
     <t/>
   </si>
@@ -273,7 +273,7 @@
     <t>路由器重启后，%s Wi-Fi 将自动开启</t>
   </si>
   <si>
-    <t>After the router restarts, %s Wi-Fi will turn on automatically</t>
+    <t>After the onu restarts, %s Wi-Fi will turn on automatically</t>
   </si>
   <si>
     <t>trans0029</t>
@@ -4142,7 +4142,7 @@
     <t>手动配置</t>
   </si>
   <si>
-    <t>Manually</t>
+    <t>Manual</t>
   </si>
   <si>
     <t>trans0487</t>
@@ -5357,7 +5357,7 @@
     <t>若忘记密码，请将设备恢复出厂后重新设置</t>
   </si>
   <si>
-    <t>If you forget the password,please restore the router to the factory and reset it</t>
+    <t>If you forget the password,please restore the onu to the factory and reset it</t>
   </si>
   <si>
     <t>trans0625</t>
@@ -5366,7 +5366,7 @@
     <t>在通电状态下，用针状物长按复位键 5 秒以上，待指示灯熄灭后松开，完成恢复出厂设置</t>
   </si>
   <si>
-    <t>When the router is powered on, press the reset button for more than 5 seconds, and then release the reset button to restore the factory settings</t>
+    <t>When the onu is powered on, press the reset button for more than 5 seconds, and then release the reset button to restore the factory settings</t>
   </si>
   <si>
     <t>trans0626</t>
@@ -5531,7 +5531,7 @@
     <t>修改后，请使用新地址访问路由器配置界面</t>
   </si>
   <si>
-    <t>After modification,Please use the new address configuration router</t>
+    <t>After modification,Please use the new address configuration onu</t>
   </si>
   <si>
     <t>trans0645</t>
@@ -7229,10 +7229,10 @@
     <t>trans0839</t>
   </si>
   <si>
-    <t>端口设置开关</t>
-  </si>
-  <si>
-    <t>Enable Port Setting</t>
+    <t>线路1开关</t>
+  </si>
+  <si>
+    <t>Line1 Enable</t>
   </si>
   <si>
     <t>trans0840</t>
@@ -7350,6 +7350,12 @@
   </si>
   <si>
     <t>trans0855</t>
+  </si>
+  <si>
+    <t>路径为空或者/，代表目录是u盘根目录</t>
+  </si>
+  <si>
+    <t>If the path is empty or "/", it means the path is the root directory of the USB drive.</t>
   </si>
   <si>
     <t>trans0856</t>
@@ -11757,10 +11763,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12969,10 +12975,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12981,10 +12987,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -18764,49 +18770,53 @@
       <c r="A855" s="4" t="s">
         <v>2444</v>
       </c>
-      <c r="B855" s="10" t="s"/>
-      <c r="C855" s="10" t="s"/>
+      <c r="B855" s="10" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C855" s="10" t="s">
+        <v>2446</v>
+      </c>
       <c r="D855" s="6" t="s"/>
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="4" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="B856" s="10" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="D856" s="6" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="4" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="B857" s="10" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="D857" s="6" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="4" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="B858" s="10" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="D858" s="6" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="4" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="B859" s="10" t="s"/>
       <c r="C859" s="10" t="s"/>
@@ -18814,535 +18824,535 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="B863" s="10" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="D863" s="6" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="B901" s="10" t="s">
         <v>2303</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="D902" s="6" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="D903" s="6" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="B904" s="10" t="s"/>
       <c r="C904" s="10" t="s"/>
@@ -19350,7 +19360,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B905" s="10" t="s"/>
       <c r="C905" s="10" t="s"/>
@@ -19358,43 +19368,43 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19402,7 +19412,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19410,7 +19420,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19418,7 +19428,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19426,7 +19436,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19434,7 +19444,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19442,7 +19452,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19450,7 +19460,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19458,43 +19468,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19502,7 +19512,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19510,259 +19520,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="2644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="2650">
   <si>
     <t/>
   </si>
@@ -7382,6 +7382,12 @@
     <t>trans0859</t>
   </si>
   <si>
+    <t>拨打号码中</t>
+  </si>
+  <si>
+    <t>Dialing</t>
+  </si>
+  <si>
     <t>trans0860</t>
   </si>
   <si>
@@ -7676,7 +7682,19 @@
     <t>trans0904</t>
   </si>
   <si>
+    <t>无法保存相关信息，因为VoIP已打开，请在通话结束后再次保存。</t>
+  </si>
+  <si>
+    <t>Related information cannot be saved while a VoIP call is active. Please try again after the call is complete.</t>
+  </si>
+  <si>
     <t>trans0905</t>
+  </si>
+  <si>
+    <t>响铃中</t>
+  </si>
+  <si>
+    <t>Ringing</t>
   </si>
   <si>
     <t>trans0906</t>
@@ -11763,10 +11781,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2638</v>
+        <v>2644</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2639</v>
+        <v>2645</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12975,10 +12993,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2640</v>
+        <v>2646</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2641</v>
+        <v>2647</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -12987,10 +13005,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2642</v>
+        <v>2648</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2643</v>
+        <v>2649</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -18818,593 +18836,605 @@
       <c r="A859" s="4" t="s">
         <v>2454</v>
       </c>
-      <c r="B859" s="10" t="s"/>
-      <c r="C859" s="10" t="s"/>
+      <c r="B859" s="10" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C859" s="10" t="s">
+        <v>2456</v>
+      </c>
       <c r="D859" s="6" t="s"/>
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="B863" s="10" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="D863" s="6" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="B901" s="10" t="s">
         <v>2303</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="D902" s="6" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="D903" s="6" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B904" s="10" t="s"/>
-      <c r="C904" s="10" t="s"/>
+        <v>2554</v>
+      </c>
+      <c r="B904" s="10" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C904" s="10" t="s">
+        <v>2556</v>
+      </c>
       <c r="D904" s="6" t="s"/>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2553</v>
-      </c>
-      <c r="B905" s="10" t="s"/>
-      <c r="C905" s="10" t="s"/>
+        <v>2557</v>
+      </c>
+      <c r="B905" s="10" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C905" s="10" t="s">
+        <v>2559</v>
+      </c>
       <c r="D905" s="6" t="s"/>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2554</v>
+        <v>2560</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2555</v>
+        <v>2561</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2555</v>
+        <v>2561</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2556</v>
+        <v>2562</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2557</v>
+        <v>2563</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2557</v>
+        <v>2563</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2558</v>
+        <v>2564</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2559</v>
+        <v>2565</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2559</v>
+        <v>2565</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2560</v>
+        <v>2566</v>
       </c>
       <c r="B909" s="10" t="s"/>
       <c r="C909" s="10" t="s"/>
@@ -19412,7 +19442,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2561</v>
+        <v>2567</v>
       </c>
       <c r="B910" s="10" t="s"/>
       <c r="C910" s="10" t="s"/>
@@ -19420,7 +19450,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2562</v>
+        <v>2568</v>
       </c>
       <c r="B911" s="10" t="s"/>
       <c r="C911" s="10" t="s"/>
@@ -19428,7 +19458,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2563</v>
+        <v>2569</v>
       </c>
       <c r="B912" s="10" t="s"/>
       <c r="C912" s="10" t="s"/>
@@ -19436,7 +19466,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2564</v>
+        <v>2570</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19444,7 +19474,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2565</v>
+        <v>2571</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19452,7 +19482,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2566</v>
+        <v>2572</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19460,7 +19490,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2567</v>
+        <v>2573</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19468,43 +19498,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2568</v>
+        <v>2574</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2569</v>
+        <v>2575</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2569</v>
+        <v>2575</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2570</v>
+        <v>2576</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2571</v>
+        <v>2577</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2571</v>
+        <v>2577</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2572</v>
+        <v>2578</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2573</v>
+        <v>2579</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2573</v>
+        <v>2579</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2574</v>
+        <v>2580</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19512,7 +19542,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2575</v>
+        <v>2581</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19520,259 +19550,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2576</v>
+        <v>2582</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2577</v>
+        <v>2583</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2577</v>
+        <v>2583</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2578</v>
+        <v>2584</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2579</v>
+        <v>2585</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2579</v>
+        <v>2585</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2580</v>
+        <v>2586</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2581</v>
+        <v>2587</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2582</v>
+        <v>2588</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2583</v>
+        <v>2589</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2584</v>
+        <v>2590</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2585</v>
+        <v>2591</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2586</v>
+        <v>2592</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2587</v>
+        <v>2593</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2588</v>
+        <v>2594</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2589</v>
+        <v>2595</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2590</v>
+        <v>2596</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2591</v>
+        <v>2597</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2592</v>
+        <v>2598</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2593</v>
+        <v>2599</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2594</v>
+        <v>2600</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2595</v>
+        <v>2601</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2596</v>
+        <v>2602</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2597</v>
+        <v>2603</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2598</v>
+        <v>2604</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2599</v>
+        <v>2605</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2600</v>
+        <v>2606</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2601</v>
+        <v>2607</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2602</v>
+        <v>2608</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2603</v>
+        <v>2609</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2604</v>
+        <v>2610</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2605</v>
+        <v>2611</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2606</v>
+        <v>2612</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2607</v>
+        <v>2613</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2608</v>
+        <v>2614</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2610</v>
+        <v>2616</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2611</v>
+        <v>2617</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2612</v>
+        <v>2618</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2613</v>
+        <v>2619</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2614</v>
+        <v>2620</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2615</v>
+        <v>2621</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2616</v>
+        <v>2622</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2617</v>
+        <v>2623</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2618</v>
+        <v>2624</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2619</v>
+        <v>2625</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2620</v>
+        <v>2626</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2621</v>
+        <v>2627</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2622</v>
+        <v>2628</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2623</v>
+        <v>2629</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2624</v>
+        <v>2630</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2625</v>
+        <v>2631</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2626</v>
+        <v>2632</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2627</v>
+        <v>2633</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2628</v>
+        <v>2634</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2629</v>
+        <v>2635</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2630</v>
+        <v>2636</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2631</v>
+        <v>2637</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2632</v>
+        <v>2638</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2633</v>
+        <v>2639</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2634</v>
+        <v>2640</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2635</v>
+        <v>2641</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2636</v>
+        <v>2642</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2637</v>
+        <v>2643</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="2650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="2658">
   <si>
     <t/>
   </si>
@@ -7718,13 +7718,37 @@
     <t>trans0909</t>
   </si>
   <si>
+    <t>CWMP 功能未启用</t>
+  </si>
+  <si>
+    <t>The CWMP function is disabled</t>
+  </si>
+  <si>
     <t>trans0910</t>
   </si>
   <si>
+    <t>上报成功</t>
+  </si>
+  <si>
+    <t>Reported successful</t>
+  </si>
+  <si>
     <t>trans0911</t>
   </si>
   <si>
+    <t>上报失败</t>
+  </si>
+  <si>
+    <t>Reported fail</t>
+  </si>
+  <si>
     <t>trans0912</t>
+  </si>
+  <si>
+    <t>ACS 服务器</t>
+  </si>
+  <si>
+    <t>ACS server</t>
   </si>
   <si>
     <t>trans0913</t>
@@ -11781,10 +11805,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2644</v>
+        <v>2652</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2645</v>
+        <v>2653</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -12993,10 +13017,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2646</v>
+        <v>2654</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2647</v>
+        <v>2655</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -13005,10 +13029,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2648</v>
+        <v>2656</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2649</v>
+        <v>2657</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19436,37 +19460,53 @@
       <c r="A909" s="4" t="s">
         <v>2566</v>
       </c>
-      <c r="B909" s="10" t="s"/>
-      <c r="C909" s="10" t="s"/>
+      <c r="B909" s="10" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C909" s="10" t="s">
+        <v>2568</v>
+      </c>
       <c r="D909" s="6" t="s"/>
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B910" s="10" t="s"/>
-      <c r="C910" s="10" t="s"/>
+        <v>2569</v>
+      </c>
+      <c r="B910" s="10" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C910" s="10" t="s">
+        <v>2571</v>
+      </c>
       <c r="D910" s="6" t="s"/>
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2568</v>
-      </c>
-      <c r="B911" s="10" t="s"/>
-      <c r="C911" s="10" t="s"/>
+        <v>2572</v>
+      </c>
+      <c r="B911" s="10" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C911" s="10" t="s">
+        <v>2574</v>
+      </c>
       <c r="D911" s="6" t="s"/>
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2569</v>
-      </c>
-      <c r="B912" s="10" t="s"/>
-      <c r="C912" s="10" t="s"/>
+        <v>2575</v>
+      </c>
+      <c r="B912" s="10" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C912" s="10" t="s">
+        <v>2577</v>
+      </c>
       <c r="D912" s="6" t="s"/>
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2570</v>
+        <v>2578</v>
       </c>
       <c r="B913" s="10" t="s"/>
       <c r="C913" s="10" t="s"/>
@@ -19474,7 +19514,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2571</v>
+        <v>2579</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19482,7 +19522,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2572</v>
+        <v>2580</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19490,7 +19530,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2573</v>
+        <v>2581</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19498,43 +19538,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2574</v>
+        <v>2582</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2575</v>
+        <v>2583</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2575</v>
+        <v>2583</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2576</v>
+        <v>2584</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2577</v>
+        <v>2585</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2577</v>
+        <v>2585</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2578</v>
+        <v>2586</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2579</v>
+        <v>2587</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2579</v>
+        <v>2587</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2580</v>
+        <v>2588</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19542,7 +19582,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2581</v>
+        <v>2589</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19550,259 +19590,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2582</v>
+        <v>2590</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2583</v>
+        <v>2591</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2583</v>
+        <v>2591</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2584</v>
+        <v>2592</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2585</v>
+        <v>2593</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2585</v>
+        <v>2593</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2586</v>
+        <v>2594</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2587</v>
+        <v>2595</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2588</v>
+        <v>2596</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2589</v>
+        <v>2597</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2590</v>
+        <v>2598</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2591</v>
+        <v>2599</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2592</v>
+        <v>2600</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2593</v>
+        <v>2601</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2594</v>
+        <v>2602</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2595</v>
+        <v>2603</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2596</v>
+        <v>2604</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2597</v>
+        <v>2605</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2598</v>
+        <v>2606</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2599</v>
+        <v>2607</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2600</v>
+        <v>2608</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2601</v>
+        <v>2609</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2602</v>
+        <v>2610</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2603</v>
+        <v>2611</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2604</v>
+        <v>2612</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2605</v>
+        <v>2613</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2606</v>
+        <v>2614</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2607</v>
+        <v>2615</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2608</v>
+        <v>2616</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2609</v>
+        <v>2617</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2610</v>
+        <v>2618</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2611</v>
+        <v>2619</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2612</v>
+        <v>2620</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2613</v>
+        <v>2621</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2614</v>
+        <v>2622</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2615</v>
+        <v>2623</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2616</v>
+        <v>2624</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2617</v>
+        <v>2625</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2618</v>
+        <v>2626</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2619</v>
+        <v>2627</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2620</v>
+        <v>2628</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2621</v>
+        <v>2629</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2622</v>
+        <v>2630</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2623</v>
+        <v>2631</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2624</v>
+        <v>2632</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2625</v>
+        <v>2633</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2626</v>
+        <v>2634</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2627</v>
+        <v>2635</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2628</v>
+        <v>2636</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2629</v>
+        <v>2637</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2630</v>
+        <v>2638</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2631</v>
+        <v>2639</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2632</v>
+        <v>2640</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2633</v>
+        <v>2641</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2634</v>
+        <v>2642</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2635</v>
+        <v>2643</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2636</v>
+        <v>2644</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2637</v>
+        <v>2645</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2638</v>
+        <v>2646</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2639</v>
+        <v>2647</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2640</v>
+        <v>2648</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2641</v>
+        <v>2649</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2642</v>
+        <v>2650</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2643</v>
+        <v>2651</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="2658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="2660">
   <si>
     <t/>
   </si>
@@ -7752,6 +7752,12 @@
   </si>
   <si>
     <t>trans0913</t>
+  </si>
+  <si>
+    <t>仅支持ASCII方式</t>
+  </si>
+  <si>
+    <t>Only supports ASCII mode</t>
   </si>
   <si>
     <t>trans0914</t>
@@ -11805,10 +11811,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -13017,10 +13023,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -13029,10 +13035,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19508,13 +19514,17 @@
       <c r="A913" s="4" t="s">
         <v>2578</v>
       </c>
-      <c r="B913" s="10" t="s"/>
-      <c r="C913" s="10" t="s"/>
+      <c r="B913" s="10" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C913" s="10" t="s">
+        <v>2580</v>
+      </c>
       <c r="D913" s="6" t="s"/>
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="B914" s="10" t="s"/>
       <c r="C914" s="10" t="s"/>
@@ -19522,7 +19532,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19530,7 +19540,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19538,43 +19548,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19582,7 +19592,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19590,259 +19600,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -7124,10 +7124,10 @@
     <t>trans0827</t>
   </si>
   <si>
-    <t>Wi-fi Mac 过滤</t>
-  </si>
-  <si>
-    <t>Wi-fi Mac Filter</t>
+    <t>Wi-fi MAC 过滤</t>
+  </si>
+  <si>
+    <t>Wi-fi MAC Filter</t>
   </si>
   <si>
     <t>trans0828</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="2660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="2662">
   <si>
     <t/>
   </si>
@@ -7761,6 +7761,12 @@
   </si>
   <si>
     <t>trans0914</t>
+  </si>
+  <si>
+    <t>%s只能填写大于 %d 的数字</t>
+  </si>
+  <si>
+    <t>For %s, only numbers greater than %d can be entered</t>
   </si>
   <si>
     <t>trans0915</t>
@@ -11811,10 +11817,10 @@
         <v>760</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -13023,10 +13029,10 @@
         <v>1061</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -13035,10 +13041,10 @@
         <v>1062</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -19526,13 +19532,17 @@
       <c r="A914" s="4" t="s">
         <v>2581</v>
       </c>
-      <c r="B914" s="10" t="s"/>
-      <c r="C914" s="10" t="s"/>
+      <c r="B914" s="10" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C914" s="10" t="s">
+        <v>2583</v>
+      </c>
       <c r="D914" s="6" t="s"/>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="B915" s="10" t="s"/>
       <c r="C915" s="10" t="s"/>
@@ -19540,7 +19550,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="B916" s="10" t="s"/>
       <c r="C916" s="10" t="s"/>
@@ -19548,43 +19558,43 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="B920" s="10" t="s"/>
       <c r="C920" s="10" t="s"/>
@@ -19592,7 +19602,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="B921" s="10" t="s"/>
       <c r="C921" s="10" t="s"/>
@@ -19600,259 +19610,259 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="B940" s="10" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="B943" s="10" t="s"/>
       <c r="C943" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -6629,10 +6629,10 @@
     <t>trans0769</t>
   </si>
   <si>
-    <t>%s必须%s个字符</t>
-  </si>
-  <si>
-    <t>%s must have %s symbols</t>
+    <t>%s必须 %d 位的16进制数，或者 %d 个以 %d 个16进制数结尾的字符</t>
+  </si>
+  <si>
+    <t>%s must have %d hex digits,or %d characters that end with %d hexdigits</t>
   </si>
   <si>
     <t>trans0770</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -6629,10 +6629,10 @@
     <t>trans0769</t>
   </si>
   <si>
-    <t>%s必须 %d 位的16进制数，或者 %d 个以 %d 个16进制数结尾的字符</t>
-  </si>
-  <si>
-    <t>%s must have %d hex digits,or %d characters that end with %d hexdigits</t>
+    <t>%s必须是 %d 个以 %d 个16进制数结尾的字符</t>
+  </si>
+  <si>
+    <t>%s must have %d characters that end with %d hex digits</t>
   </si>
   <si>
     <t>trans0770</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -2426,7 +2426,7 @@
     <t>trans0230</t>
   </si>
   <si>
-    <t>Step3 观察指示灯，获知组网结果</t>
+    <t>步骤3 观察指示灯，获知组网结果</t>
   </si>
   <si>
     <t>Step3 Observe the indicator light to know the networking result</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -5249,7 +5249,7 @@
     <t>正在进行 Ping 测试,请稍后...</t>
   </si>
   <si>
-    <t>Start ping testing,please wait...</t>
+    <t>Ping test is in progress,please wait...</t>
   </si>
   <si>
     <t>trans0560</t>
@@ -5276,7 +5276,7 @@
     <t>正在进行 Traceroute 测试,请稍后...</t>
   </si>
   <si>
-    <t>Start tracert testing,please wait...</t>
+    <t>Tracert test is in progress,please wait...</t>
   </si>
   <si>
     <t>trans0563</t>
@@ -5600,7 +5600,7 @@
     <t>%s地址</t>
   </si>
   <si>
-    <t>%s address</t>
+    <t>%s Address</t>
   </si>
   <si>
     <t>trans0599</t>
@@ -7589,10 +7589,10 @@
     <t>trans0827</t>
   </si>
   <si>
-    <t>Wi-fi MAC 过滤</t>
-  </si>
-  <si>
-    <t>Wi-fi MAC Filter</t>
+    <t>Wi-Fi MAC 过滤</t>
+  </si>
+  <si>
+    <t>Wi-Fi MAC Filter</t>
   </si>
   <si>
     <t>trans0828</t>
@@ -8396,10 +8396,10 @@
     <t>trans0937</t>
   </si>
   <si>
-    <t>确认将这台设备加入 Wi-fi MAC 过滤黑名单吗</t>
-  </si>
-  <si>
-    <t>Are you sure to add this MAC to the Wi-fi MAC Filter blacklist?</t>
+    <t>确认将这台设备加入 Wi-Fi MAC 过滤黑名单吗</t>
+  </si>
+  <si>
+    <t>Are you sure to add this MAC to the Wi-Fi MAC Filter blacklist?</t>
   </si>
   <si>
     <t>trans0938</t>
@@ -8423,10 +8423,10 @@
     <t>trans0940</t>
   </si>
   <si>
-    <t>确认开启 Wi-fi MAC 过滤吗</t>
-  </si>
-  <si>
-    <t>Are you sure to open the Wi-fi MAC Filter?</t>
+    <t>确认开启 Wi-Fi MAC 过滤吗</t>
+  </si>
+  <si>
+    <t>Are you sure to open the Wi-Fi MAC Filter?</t>
   </si>
   <si>
     <t>trans0941</t>
@@ -19362,10 +19362,10 @@
       <c r="A827" s="4" t="s">
         <v>2523</v>
       </c>
-      <c r="B827" s="10" t="s">
+      <c r="B827" s="27" t="s">
         <v>2524</v>
       </c>
-      <c r="C827" s="10" t="s">
+      <c r="C827" s="27" t="s">
         <v>2525</v>
       </c>
       <c r="D827" s="6" t="s"/>
@@ -20666,10 +20666,10 @@
       <c r="A937" s="4" t="s">
         <v>2792</v>
       </c>
-      <c r="B937" s="10" t="s">
+      <c r="B937" s="27" t="s">
         <v>2793</v>
       </c>
-      <c r="C937" s="10" t="s">
+      <c r="C937" s="27" t="s">
         <v>2794</v>
       </c>
       <c r="D937" s="6" t="s"/>
@@ -20702,10 +20702,10 @@
       <c r="A940" s="4" t="s">
         <v>2801</v>
       </c>
-      <c r="B940" s="10" t="s">
+      <c r="B940" s="27" t="s">
         <v>2802</v>
       </c>
-      <c r="C940" s="10" t="s">
+      <c r="C940" s="27" t="s">
         <v>2803</v>
       </c>
       <c r="D940" s="6" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="2818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="2848">
   <si>
     <t/>
   </si>
@@ -3899,6 +3899,12 @@
     <t>trans0403</t>
   </si>
   <si>
+    <t>到平台的网络不通</t>
+  </si>
+  <si>
+    <t>No response</t>
+  </si>
+  <si>
     <t>trans0404</t>
   </si>
   <si>
@@ -8237,9 +8243,18 @@
     <t>trans0915</t>
   </si>
   <si>
+    <t>信息上报</t>
+  </si>
+  <si>
+    <t>Inform Upload</t>
+  </si>
+  <si>
     <t>trans0916</t>
   </si>
   <si>
+    <t>上报</t>
+  </si>
+  <si>
     <t>trans0917</t>
   </si>
   <si>
@@ -8261,7 +8276,19 @@
     <t>trans0920</t>
   </si>
   <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>trans0921</t>
+  </si>
+  <si>
+    <t>正在上报中</t>
+  </si>
+  <si>
+    <t>Uploading...</t>
   </si>
   <si>
     <t>trans0922</t>
@@ -8452,6 +8479,69 @@
   </si>
   <si>
     <t>WLAN Device</t>
+  </si>
+  <si>
+    <t>trans0944</t>
+  </si>
+  <si>
+    <t>Upload successful</t>
+  </si>
+  <si>
+    <t>trans0945</t>
+  </si>
+  <si>
+    <t>无上报(远程管理 WAN 连接失败)</t>
+  </si>
+  <si>
+    <t>No upload(Remote manage WAN connection failed)</t>
+  </si>
+  <si>
+    <t>trans0946</t>
+  </si>
+  <si>
+    <t>其他原因的失败</t>
+  </si>
+  <si>
+    <t>Failures due to other reasons</t>
+  </si>
+  <si>
+    <t>trans0947</t>
+  </si>
+  <si>
+    <t>trans0948</t>
+  </si>
+  <si>
+    <t>trans0949</t>
+  </si>
+  <si>
+    <t>trans0950</t>
+  </si>
+  <si>
+    <t>trans0951</t>
+  </si>
+  <si>
+    <t>trans0952</t>
+  </si>
+  <si>
+    <t>trans0953</t>
+  </si>
+  <si>
+    <t>trans0954</t>
+  </si>
+  <si>
+    <t>trans0955</t>
+  </si>
+  <si>
+    <t>trans0956</t>
+  </si>
+  <si>
+    <t>trans0957</t>
+  </si>
+  <si>
+    <t>trans0958</t>
+  </si>
+  <si>
+    <t>trans0959</t>
   </si>
   <si>
     <r>
@@ -12691,10 +12781,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2812</v>
+        <v>2842</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2813</v>
+        <v>2843</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -13903,10 +13993,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2814</v>
+        <v>2844</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2815</v>
+        <v>2845</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -13915,10 +14005,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2816</v>
+        <v>2846</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2817</v>
+        <v>2847</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -14274,757 +14364,761 @@
       <c r="A403" s="8" t="s">
         <v>1293</v>
       </c>
-      <c r="B403" s="10" t="s"/>
-      <c r="C403" s="10" t="s"/>
+      <c r="B403" s="10" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>1295</v>
+      </c>
       <c r="D403" s="6" t="s"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="8" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="D404" s="6" t="s"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="8" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D405" s="6" t="s"/>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="8" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D406" s="6" t="s"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="8" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D407" s="6" t="s"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="8" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D408" s="6" t="s"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="8" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D409" s="6" t="s"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="8" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D410" s="6" t="s"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="8" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="D411" s="6" t="s"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="8" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D412" s="6" t="s"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="8" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D413" s="6" t="s"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="8" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D414" s="6" t="s"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="8" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="D415" s="6" t="s"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="8" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D416" s="6" t="s"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="8" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D417" s="6" t="s"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="8" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D418" s="6" t="s"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="8" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D419" s="6" t="s"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="8" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="C420" s="10" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D420" s="6" t="s"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="8" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D421" s="6" t="s"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="8" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C422" s="10" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D422" s="6" t="s"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="8" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="B423" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D423" s="6" t="s"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="8" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D424" s="6" t="s"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="8" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="D425" s="6" t="s"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="8" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="C426" s="10" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="D426" s="6" t="s"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="8" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="D427" s="6" t="s"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="8" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D428" s="6" t="s"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="8" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D429" s="6" t="s"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="8" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D430" s="6" t="s"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="8" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D431" s="6" t="s"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="8" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D432" s="6" t="s"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="8" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="D433" s="6" t="s"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="8" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D434" s="6" t="s"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="8" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D435" s="6" t="s"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="8" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="D436" s="6" t="s"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="8" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="D437" s="6" t="s"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="8" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D438" s="6" t="s"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="8" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D439" s="6" t="s"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="8" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="D440" s="6" t="s"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="8" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="D441" s="6" t="s"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="8" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="D442" s="6" t="s"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="8" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="D443" s="6" t="s"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="8" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D444" s="6" t="s"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="8" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D445" s="6" t="s"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="8" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="D446" s="6" t="s"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="8" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="D447" s="6" t="s"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="8" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="D448" s="6" t="s"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="8" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="D449" s="6" t="s"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="8" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D450" s="6" t="s"/>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="8" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="D451" s="6" t="s"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="8" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C452" s="10" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D452" s="6" t="s"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="8" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D453" s="6" t="s"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="8" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B454" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D454" s="6" t="s"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="8" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D455" s="6" t="s"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="8" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C456" s="10" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="D456" s="6" t="s"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="8" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D457" s="6" t="s"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="8" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D458" s="6" t="s"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="8" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D459" s="6" t="s"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="8" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="D460" s="6" t="s"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="8" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D461" s="6" t="s"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="8" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="D462" s="6" t="s"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="8" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="D463" s="6" t="s"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="8" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="D464" s="6" t="s"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="8" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="D465" s="10" t="s"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="8" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B466" s="10" t="s">
         <v>1277</v>
@@ -15036,1078 +15130,1078 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="8" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D467" s="6" t="s"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="8" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C468" s="10" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="D468" s="6" t="s"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="8" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="D469" s="6" t="s"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="8" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C470" s="10" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D470" s="6" t="s"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="8" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D471" s="6" t="s"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="8" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D472" s="20" t="s"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="8" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D473" s="6" t="s"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="8" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="C474" s="10" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D474" s="6" t="s"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="8" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="D475" s="21" t="s"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="8" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="D476" s="6" t="s"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="8" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="D477" s="6" t="s"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="8" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="D478" s="6" t="s"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="8" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="D479" s="6" t="s"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="8" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D480" s="6" t="s"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="8" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D481" s="6" t="s"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="8" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C482" s="10" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="D482" s="6" t="s"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="8" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B483" s="15" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C483" s="15" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="D483" s="6" t="s"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="8" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B484" s="15" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D484" s="6" t="s"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="8" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="D485" s="6" t="s"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="8" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C486" s="10" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="D486" s="6" t="s"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="8" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="C487" s="10" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D487" s="6" t="s"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="8" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C488" s="10" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="D488" s="6" t="s"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="8" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C489" s="15" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D489" s="6" t="s"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="8" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C490" s="10" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D490" s="6" t="s"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="8" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="C491" s="10" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D491" s="6" t="s"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="8" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B492" s="10" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C492" s="10" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D492" s="6" t="s"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="8" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B493" s="10" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="D493" s="6" t="s"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="8" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B494" s="10" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C494" s="10" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D494" s="6" t="s"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="8" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D495" s="6" t="s"/>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="8" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D496" s="6" t="s"/>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="8" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="D497" s="6" t="s"/>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="8" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C498" s="10" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="D498" s="6" t="s"/>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="8" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="B499" s="10" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="D499" s="6" t="s"/>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="8" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="B500" s="10" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="C500" s="10" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D500" s="6" t="s"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="8" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B501" s="10" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="D501" s="6" t="s"/>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="8" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B502" s="10" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="C502" s="10" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="D502" s="6" t="s"/>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="8" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="B503" s="10" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="C503" s="10" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="D503" s="6" t="s"/>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="8" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="B504" s="10" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="C504" s="10" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="D504" s="6" t="s"/>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="8" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="B505" s="10" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="D505" s="6" t="s"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="8" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B506" s="10" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="C506" s="10" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D506" s="6" t="s"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="8" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="B507" s="10" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="C507" s="10" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="D507" s="6" t="s"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="8" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B508" s="10" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="C508" s="10" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="D508" s="22" t="s"/>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="8" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B509" s="10" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="C509" s="10" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="D509" s="23" t="s"/>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="8" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B510" s="10" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C510" s="10" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="D510" s="6" t="s"/>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="8" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="B511" s="10" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="C511" s="10" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="D511" s="6" t="s"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="8" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B512" s="10" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C512" s="10" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="D512" s="6" t="s"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="8" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="B513" s="10" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="D513" s="6" t="s"/>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="8" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="B514" s="10" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C514" s="10" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D514" s="6" t="s"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="8" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B515" s="10" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D515" s="6" t="s"/>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="8" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B516" s="10" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="C516" s="10" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D516" s="6" t="s"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="8" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="B517" s="10" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="D517" s="6" t="s"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="8" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="B518" s="10" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="C518" s="10" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="D518" s="6" t="s"/>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="8" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B519" s="10" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D519" s="6" t="s"/>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="8" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B520" s="15" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C520" s="10" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D520" s="6" t="s"/>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="8" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B521" s="10" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C521" s="10" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="D521" s="6" t="s"/>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="8" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B522" s="10" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C522" s="10" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D522" s="6" t="s"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="8" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="B523" s="10" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C523" s="10" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D523" s="6" t="s"/>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="8" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C524" s="10" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D524" s="6" t="s"/>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="8" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="B525" s="10" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C525" s="10" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D525" s="6" t="s"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="8" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C526" s="10" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D526" s="6" t="s"/>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="8" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="B527" s="10" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C527" s="10" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="D527" s="6" t="s"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="8" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B528" s="10" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C528" s="10" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="D528" s="6" t="s"/>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="8" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="B529" s="10" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C529" s="10" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D529" s="6" t="s"/>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="8" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="B530" s="10" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C530" s="10" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="D530" s="6" t="s"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="8" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="B531" s="10" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="C531" s="10" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="D531" s="6" t="s"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="8" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B532" s="10" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C532" s="10" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D532" s="6" t="s"/>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="8" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B533" s="10" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C533" s="10" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="D533" s="6" t="s"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="8" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B534" s="10" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D534" s="6" t="s"/>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="8" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B535" s="10" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="D535" s="6" t="s"/>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="8" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="B536" s="10" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C536" s="10" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="D536" s="6" t="s"/>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="8" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="B537" s="10" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="D537" s="6" t="s"/>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="8" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="B538" s="10" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C538" s="10" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="D538" s="6" t="s"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="8" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="B539" s="10" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C539" s="10" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="D539" s="6" t="s"/>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="8" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="B540" s="10" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C540" s="10" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="D540" s="6" t="s"/>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="8" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="B541" s="10" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C541" s="10" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="D541" s="6" t="s"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="8" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="B542" s="10" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C542" s="10" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="D542" s="6" t="s"/>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="8" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="B543" s="10" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C543" s="10" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D543" s="6" t="s"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="8" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="B544" s="10" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="C544" s="10" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="D544" s="6" t="s"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="8" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="B545" s="10" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="C545" s="10" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="D545" s="6" t="s"/>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="8" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="B546" s="10" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C546" s="10" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D546" s="6" t="s"/>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="8" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="B547" s="10" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="C547" s="10" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="D547" s="6" t="s"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="8" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B548" s="10" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C548" s="10" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="D548" s="6" t="s"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="8" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="B549" s="10" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C549" s="10" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="D549" s="6" t="s"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="8" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="B550" s="10" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C550" s="10" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="D550" s="6" t="s"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="8" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="B551" s="10" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="D551" s="6" t="s"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="8" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B552" s="10" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C552" s="10" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="D552" s="6" t="s"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="8" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="B553" s="10" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C553" s="10" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D553" s="6" t="s"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="8" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="B554" s="10" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C554" s="10" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="D554" s="6" t="s"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="8" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="B555" s="10" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="C555" s="10" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D555" s="6" t="s"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="8" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B556" s="10" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="C556" s="10" t="s">
         <v>497</v>
@@ -16116,683 +16210,683 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="8" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="B557" s="10" t="s">
         <v>1210</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D557" s="6" t="s"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="8" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="B558" s="10" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="D558" s="6" t="s"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="8" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="B559" s="10" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D559" s="6" t="s"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="8" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="B560" s="10" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="D560" s="6" t="s"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="8" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B561" s="10" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="D561" s="6" t="s"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="8" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B562" s="10" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="D562" s="6" t="s"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="8" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="B563" s="10" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="D563" s="6" t="s"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="8" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B564" s="10" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="C564" s="10" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="D564" s="10" t="s"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="8" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B565" s="10" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="D565" s="6" t="s"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="8" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="B566" s="10" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="C566" s="10" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D566" s="6" t="s"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="8" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B567" s="10" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="D567" s="6" t="s"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="8" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="B568" s="10" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="C568" s="10" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="D568" s="6" t="s"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="8" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B569" s="10" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="D569" s="6" t="s"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="8" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="B570" s="10" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="C570" s="10" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="D570" s="6" t="s"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="8" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="B571" s="10" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="D571" s="6" t="s"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="8" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="B572" s="10" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="C572" s="10" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="D572" s="6" t="s"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="8" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="B573" s="10" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="D573" s="6" t="s"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="8" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="B574" s="10" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="C574" s="10" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="D574" s="6" t="s"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="8" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="B575" s="10" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="D575" s="6" t="s"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="8" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="B576" s="10" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="C576" s="10" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="D576" s="6" t="s"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="8" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="B577" s="10" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="D577" s="6" t="s"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="8" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="B578" s="10" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="C578" s="10" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="D578" s="6" t="s"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="8" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B579" s="10" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="D579" s="6" t="s"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="8" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="B580" s="10" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="C580" s="10" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="D580" s="6" t="s"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="8" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="B581" s="10" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="D581" s="6" t="s"/>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="8" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="B582" s="10" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="C582" s="10" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="D582" s="6" t="s"/>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="8" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B583" s="10" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="D583" s="6" t="s"/>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="8" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="B584" s="10" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="C584" s="10" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="D584" s="6" t="s"/>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="8" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="B585" s="10" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="D585" s="6" t="s"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="8" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="B586" s="10" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="C586" s="10" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="D586" s="10" t="s"/>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="8" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B587" s="10" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="D587" s="6" t="s"/>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="8" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="B588" s="10" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C588" s="10" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="D588" s="6" t="s"/>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="8" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="B589" s="10" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="D589" s="6" t="s"/>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="8" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="B590" s="10" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="C590" s="10" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="D590" s="6" t="s"/>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="8" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="B591" s="10" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="D591" s="6" t="s"/>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="8" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="B592" s="10" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="C592" s="10" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="D592" s="6" t="s"/>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="8" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="B593" s="10" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="D593" s="6" t="s"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="8" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B594" s="10" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="C594" s="10" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="D594" s="24" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="8" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B595" s="10" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="D595" s="6" t="s"/>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="8" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="B596" s="10" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="C596" s="10" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="D596" s="6" t="s"/>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="8" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B597" s="10" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="C597" s="10" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="D597" s="16" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="8" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="B598" s="10" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="C598" s="10" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="D598" s="6" t="s"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="8" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B599" s="10" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C599" s="10" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="D599" s="6" t="s"/>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="8" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B600" s="10" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="C600" s="10" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="D600" s="6" t="s"/>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="8" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="B601" s="10" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="C601" s="10" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="D601" s="6" t="s"/>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="8" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B602" s="10" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="C602" s="10" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="D602" s="6" t="s"/>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="8" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="B603" s="10" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="C603" s="10" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="D603" s="6" t="s"/>
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="8" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="B604" s="10" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="C604" s="10" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="D604" s="6" t="s"/>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="8" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B605" s="10" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="C605" s="10" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="D605" s="6" t="s"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="8" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B606" s="10" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="C606" s="10" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="D606" s="6" t="s"/>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="8" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B607" s="10" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="C607" s="10" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="D607" s="6" t="s"/>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="8" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="B608" s="10" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="C608" s="10" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="D608" s="6" t="s"/>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="8" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B609" s="10" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="C609" s="10" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="D609" s="6" t="s"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="8" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="B610" s="10" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="C610" s="10" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="D610" s="6" t="s"/>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="8" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="B611" s="10" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="C611" s="10" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="D611" s="6" t="s"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="8" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="B612" s="10" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="C612" s="10" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="D612" s="6" t="s"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="8" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="B613" s="10" t="s">
         <v>247</v>
@@ -16804,487 +16898,487 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="8" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="B614" s="10" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="C614" s="10" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="D614" s="6" t="s"/>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="8" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B615" s="10" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="C615" s="10" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="D615" s="6" t="s"/>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="8" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B616" s="10" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="C616" s="10" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="D616" s="6" t="s"/>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="8" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="B617" s="10" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="C617" s="10" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="D617" s="6" t="s"/>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="8" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="B618" s="10" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="C618" s="10" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="D618" s="6" t="s"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="8" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B619" s="10" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="C619" s="10" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="D619" s="6" t="s"/>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="8" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B620" s="10" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="C620" s="10" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="D620" s="10" t="s"/>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="8" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B621" s="10" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="D621" s="10" t="s"/>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="8" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B622" s="10" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="C622" s="10" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="D622" s="6" t="s"/>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="8" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="B623" s="10" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="C623" s="10" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="D623" s="10" t="s"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="8" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B624" s="10" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="C624" s="10" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="D624" s="25" t="s"/>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="8" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="B625" s="10" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="C625" s="10" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="D625" s="10" t="s"/>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="8" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B626" s="10" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="C626" s="10" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="D626" s="6" t="s"/>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="8" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="B627" s="10" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="C627" s="10" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="D627" s="6" t="s"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="8" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="B628" s="10" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="C628" s="10" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="D628" s="6" t="s"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="8" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B629" s="10" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="C629" s="10" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="D629" s="6" t="s"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="8" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="B630" s="10" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="C630" s="10" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D630" s="10" t="s"/>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="8" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B631" s="10" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="C631" s="10" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="D631" s="6" t="s"/>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="8" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B632" s="10" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="C632" s="10" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D632" s="6" t="s"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="8" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="B633" s="10" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="C633" s="15" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="D633" s="6" t="s"/>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="8" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="B634" s="10" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C634" s="10" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="D634" s="6" t="s"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="8" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B635" s="10" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="C635" s="10" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="D635" s="6" t="s"/>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="8" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="B636" s="10" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="C636" s="10" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="D636" s="6" t="s"/>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="8" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="B637" s="10" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="C637" s="10" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="D637" s="6" t="s"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="8" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="B638" s="10" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="C638" s="10" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="D638" s="6" t="s"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="8" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="B639" s="10" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="C639" s="10" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="D639" s="6" t="s"/>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="8" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="B640" s="10" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="C640" s="10" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="D640" s="10" t="s"/>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="8" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="B641" s="10" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="C641" s="10" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="D641" s="6" t="s"/>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="8" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="B642" s="10" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="C642" s="10" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="D642" s="6" t="s"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="8" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="B643" s="10" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="C643" s="10" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="D643" s="6" t="s"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="8" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B644" s="10" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="C644" s="10" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="D644" s="6" t="s"/>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="8" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B645" s="10" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C645" s="10" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="D645" s="6" t="s"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="8" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B646" s="10" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="D646" s="6" t="s"/>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="8" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B647" s="10" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C647" s="10" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D647" s="6" t="s"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="8" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B648" s="10" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C648" s="10" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D648" s="6" t="s"/>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="8" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B649" s="10" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C649" s="10" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D649" s="6" t="s"/>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="8" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B650" s="10" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C650" s="10" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D650" s="6" t="s"/>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="8" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B651" s="10" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C651" s="10" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D651" s="6" t="s"/>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="8" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B652" s="10" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C652" s="10" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D652" s="6" t="s"/>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="8" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B653" s="10" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C653" s="10" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D653" s="6" t="s"/>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="8" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B654" s="10" t="s">
         <v>640</v>
@@ -17296,3548 +17390,3608 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="8" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B655" s="10" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C655" s="10" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D655" s="6" t="s"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="8" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B656" s="10" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C656" s="10" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="D656" s="6" t="s"/>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="8" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="B657" s="10" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="C657" s="10" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="D657" s="6" t="s"/>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="8" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="B658" s="10" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="C658" s="10" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="D658" s="6" t="s"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="8" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="B659" s="10" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="C659" s="10" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="D659" s="6" t="s"/>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="8" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="B660" s="10" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C660" s="10" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D660" s="6" t="s"/>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="8" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="B661" s="10" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="C661" s="10" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="D661" s="6" t="s"/>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="8" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="B662" s="10" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="C662" s="10" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="D662" s="6" t="s"/>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="8" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B663" s="10" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="C663" s="10" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="D663" s="6" t="s"/>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="8" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="B664" s="10" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="C664" s="10" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="D664" s="6" t="s"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="8" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="B665" s="10" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="C665" s="10" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="D665" s="6" t="s"/>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="8" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="B666" s="10" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="C666" s="10" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="D666" s="6" t="s"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="8" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="B667" s="10" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="D667" s="6" t="s"/>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="4" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="B668" s="10" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="C668" s="10" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="D668" s="6" t="s"/>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="4" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="B669" s="10" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="C669" s="10" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="D669" s="6" t="s"/>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="4" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="B670" s="10" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="C670" s="15" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="D670" s="6" t="s"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="4" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="B671" s="10" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="C671" s="10" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="D671" s="6" t="s"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="4" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="B672" s="10" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="C672" s="10" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="D672" s="6" t="s"/>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="4" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="B673" s="10" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="D673" s="6" t="s"/>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="4" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="B674" s="10" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="C674" s="10" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="D674" s="6" t="s"/>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="4" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="B675" s="10" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="C675" s="10" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="D675" s="6" t="s"/>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="4" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="B676" s="10" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="C676" s="10" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="D676" s="6" t="s"/>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="4" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="B677" s="10" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="C677" s="10" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="D677" s="6" t="s"/>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="4" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="B678" s="10" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="C678" s="10" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="D678" s="6" t="s"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="4" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="B679" s="10" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="C679" s="10" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="D679" s="6" t="s"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="4" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="B680" s="10" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="C680" s="10" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="D680" s="6" t="s"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="4" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="B681" s="10" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="D681" s="6" t="s"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="4" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="B682" s="10" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="C682" s="10" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="D682" s="6" t="s"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="4" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="B683" s="10" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="D683" s="6" t="s"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="4" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="B684" s="10" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="C684" s="10" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="D684" s="6" t="s"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="4" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="B685" s="10" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="D685" s="6" t="s"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="4" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="B686" s="10" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="C686" s="10" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="D686" s="6" t="s"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="4" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="B687" s="26" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="D687" s="6" t="s"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="4" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="B688" s="10" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="D688" s="6" t="s"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="4" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="B689" s="10" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="D689" s="6" t="s"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="4" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="B690" s="10" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="D690" s="6" t="s"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="4" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="B691" s="26" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="D691" s="6" t="s"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="4" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="B692" s="10" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="D692" s="6" t="s"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="4" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="B693" s="10" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="D693" s="6" t="s"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="4" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="B694" s="10" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="C694" s="10" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="D694" s="6" t="s"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="4" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="B695" s="10" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="D695" s="6" t="s"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="4" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="B696" s="10" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="D696" s="6" t="s"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="4" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="B697" s="10" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="C697" s="27" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="D697" s="6" t="s"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="4" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="B698" s="10" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="C698" s="10" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="D698" s="6" t="s"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="4" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="B699" s="10" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D699" s="6" t="s"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="4" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="B700" s="10" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="D700" s="6" t="s"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="4" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="B701" s="10" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="D701" s="6" t="s"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="4" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="B702" s="10" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="D702" s="6" t="s"/>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="4" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="B703" s="10" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="C703" s="10" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="D703" s="6" t="s"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="4" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="B704" s="10" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="C704" s="10" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="D704" s="6" t="s"/>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="4" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="B705" s="10" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="C705" s="10" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="D705" s="6" t="s"/>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="4" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="B706" s="10" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="C706" s="10" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="D706" s="6" t="s"/>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="4" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="B707" s="10" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="C707" s="10" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="D707" s="6" t="s"/>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="4" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="B708" s="10" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="D708" s="6" t="s"/>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="4" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="B709" s="10" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="C709" s="10" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="D709" s="6" t="s"/>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="4" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="B710" s="10" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="D710" s="6" t="s"/>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="4" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="B711" s="10" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="C711" s="10" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="D711" s="6" t="s"/>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="4" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="B712" s="10" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="C712" s="10" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="D712" s="6" t="s"/>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="4" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="B713" s="10" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="C713" s="10" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="D713" s="6" t="s"/>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="4" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="B714" s="27" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="C714" s="10" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="D714" s="6" t="s"/>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="4" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="B715" s="10" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="C715" s="10" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="D715" s="6" t="s"/>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="4" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="B716" s="10" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="C716" s="10" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="D716" s="6" t="s"/>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="4" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="B717" s="10" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="C717" s="10" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="D717" s="6" t="s"/>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="4" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="B718" s="10" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="D718" s="6" t="s"/>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="4" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="B719" s="10" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="C719" s="10" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="D719" s="6" t="s"/>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="4" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="B720" s="10" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="C720" s="10" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="D720" s="6" t="s"/>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="4" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="B721" s="10" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="C721" s="10" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="D721" s="6" t="s"/>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="4" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="B722" s="10" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="D722" s="6" t="s"/>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="4" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="B723" s="10" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="C723" s="10" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="D723" s="6" t="s"/>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="4" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="B724" s="10" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="C724" s="10" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="D724" s="6" t="s"/>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="4" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="B725" s="10" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="C725" s="10" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="D725" s="6" t="s"/>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="4" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="B726" s="10" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="C726" s="10" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="D726" s="6" t="s"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="4" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="B727" s="10" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="D727" s="6" t="s"/>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="4" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="B728" s="10" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="C728" s="10" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="D728" s="6" t="s"/>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="4" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="B729" s="10" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="C729" s="10" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="D729" s="6" t="s"/>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="4" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="B730" s="10" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="C730" s="10" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="D730" s="6" t="s"/>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="4" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="B731" s="10" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="C731" s="10" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="D731" s="6" t="s"/>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="4" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="B732" s="10" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="C732" s="10" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="D732" s="6" t="s"/>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="4" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="B733" s="10" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="C733" s="10" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="D733" s="6" t="s"/>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="4" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="B734" s="10" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="C734" s="10" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="D734" s="6" t="s"/>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="4" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="B735" s="10" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="C735" s="10" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="D735" s="6" t="s"/>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="4" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="B736" s="27" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="C736" s="10" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="D736" s="6" t="s"/>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="4" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="B737" s="10" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="C737" s="10" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="D737" s="6" t="s"/>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="4" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="B738" s="10" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="C738" s="10" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="D738" s="6" t="s"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="4" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="B739" s="10" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="C739" s="10" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="D739" s="6" t="s"/>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="4" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="B740" s="10" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="C740" s="10" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="D740" s="6" t="s"/>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="4" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="B741" s="10" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="C741" s="10" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="D741" s="6" t="s"/>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="4" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="B742" s="10" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="C742" s="10" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="D742" s="6" t="s"/>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="4" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="B743" s="10" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="C743" s="10" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="D743" s="6" t="s"/>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="4" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="B744" s="10" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="C744" s="10" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="D744" s="6" t="s"/>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="4" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="B745" s="10" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="C745" s="10" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="D745" s="6" t="s"/>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="4" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="B746" s="10" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="C746" s="10" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="D746" s="6" t="s"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="4" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="B747" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C747" s="10" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="D747" s="6" t="s"/>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="4" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="B748" s="10" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="C748" s="10" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="D748" s="6" t="s"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="4" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="B749" s="10" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="C749" s="10" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="D749" s="6" t="s"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="4" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="B750" s="10" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="C750" s="10" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="D750" s="6" t="s"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="4" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="B751" s="10" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="C751" s="10" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="D751" s="6" t="s"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="4" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="B752" s="10" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="C752" s="10" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="D752" s="6" t="s"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="4" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="B753" s="10" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="C753" s="10" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="D753" s="6" t="s"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="4" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="B754" s="10" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="C754" s="10" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="D754" s="6" t="s"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="4" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="B755" s="10" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="C755" s="10" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="D755" s="6" t="s"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="4" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="B756" s="10" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="C756" s="10" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="D756" s="6" t="s"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="4" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="B757" s="10" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="C757" s="10" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="D757" s="6" t="s"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="4" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="B758" s="10" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="C758" s="10" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="D758" s="6" t="s"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="4" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="B759" s="10" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="C759" s="10" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="D759" s="6" t="s"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="4" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="B760" s="10" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="C760" s="10" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="D760" s="6" t="s"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="4" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="B761" s="10" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="D761" s="6" t="s"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="4" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="B762" s="10" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="D762" s="6" t="s"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="4" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="B763" s="10" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="C763" s="10" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="D763" s="6" t="s"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="4" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="B764" s="10" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="C764" s="10" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="D764" s="6" t="s"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="4" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="B765" s="10" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="C765" s="10" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="D765" s="6" t="s"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="4" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="B766" s="10" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="C766" s="10" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="D766" s="6" t="s"/>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="4" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="B767" s="10" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="D767" s="6" t="s"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="4" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="B768" s="10" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="D768" s="6" t="s"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="4" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="B769" s="10" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="C769" s="10" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="D769" s="6" t="s"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="4" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="B770" s="10" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="C770" s="10" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="D770" s="6" t="s"/>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="4" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="B771" s="10" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="D771" s="6" t="s"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="4" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="B772" s="10" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="C772" s="10" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="D772" s="6" t="s"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="4" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="B773" s="10" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="C773" s="10" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="D773" s="6" t="s"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="4" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c r="B774" s="10" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="C774" s="10" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="D774" s="6" t="s"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="4" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="B775" s="10" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="C775" s="10" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="D775" s="6" t="s"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="4" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="B776" s="10" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="D776" s="6" t="s"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="4" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="B777" s="10" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="C777" s="10" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="D777" s="6" t="s"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="4" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="B778" s="10" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="C778" s="10" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="D778" s="6" t="s"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="4" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="B779" s="10" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="C779" s="10" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="D779" s="6" t="s"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="4" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="B780" s="10" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="C780" s="10" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="D780" s="6" t="s"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="4" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="B781" s="10" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="D781" s="6" t="s"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="4" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="B782" s="10" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="C782" s="10" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="D782" s="6" t="s"/>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="4" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="B783" s="10" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="C783" s="10" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="D783" s="6" t="s"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="4" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="B784" s="10" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="C784" s="10" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="D784" s="6" t="s"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="4" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="B785" s="10" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C785" s="10" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="D785" s="6" t="s"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="4" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="B786" s="10" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="C786" s="10" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="D786" s="6" t="s"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="4" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="B787" s="10" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="D787" s="6" t="s"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="4" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="B788" s="10" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="D788" s="6" t="s"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="4" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="B789" s="10" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="D789" s="6" t="s"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="4" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="B790" s="10" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C790" s="10" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="D790" s="6" t="s"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="4" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="B791" s="10" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="D791" s="6" t="s"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="4" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="B792" s="10" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="D792" s="6" t="s"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="4" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="B793" s="10" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="C793" s="10" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="D793" s="6" t="s"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="4" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="B794" s="10" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C794" s="10" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="D794" s="6" t="s"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="4" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="B795" s="10" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="C795" s="10" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="D795" s="6" t="s"/>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="4" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="B796" s="10" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="C796" s="10" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="D796" s="6" t="s"/>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="4" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="B797" s="10" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="C797" s="10" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="D797" s="6" t="s"/>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="4" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="B798" s="10" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="C798" s="10" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="D798" s="6" t="s"/>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="4" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="B799" s="10" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="C799" s="10" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="D799" s="6" t="s"/>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="4" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="B800" s="10" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="C800" s="10" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="D800" s="6" t="s"/>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="4" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="B801" s="10" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="C801" s="10" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="D801" s="6" t="s"/>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="4" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="B802" s="10" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="C802" s="10" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="D802" s="6" t="s"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="4" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="B803" s="10" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="C803" s="10" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="D803" s="6" t="s"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="4" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="B804" s="10" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C804" s="10" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="D804" s="6" t="s"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="4" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="B805" s="10" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="D805" s="6" t="s"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="4" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="B806" s="10" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="C806" s="10" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="D806" s="6" t="s"/>
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="4" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="B807" s="10" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="D807" s="6" t="s"/>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="4" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="B808" s="10" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C808" s="10" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="D808" s="6" t="s"/>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="4" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="B809" s="10" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="C809" s="10" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="D809" s="6" t="s"/>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="4" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="B810" s="10" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="D810" s="6" t="s"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="4" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="B811" s="10" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="D811" s="6" t="s"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="4" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="B812" s="10" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="D812" s="6" t="s"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="4" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="B813" s="10" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="D813" s="6" t="s"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="4" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="B814" s="10" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="D814" s="6" t="s"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="4" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="B815" s="10" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="D815" s="6" t="s"/>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="4" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="B816" s="10" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="C816" s="10" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="D816" s="6" t="s"/>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="4" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="B817" s="10" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="C817" s="10" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="D817" s="6" t="s"/>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="4" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="B818" s="10" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="D818" s="6" t="s"/>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="4" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="B819" s="10" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="D819" s="6" t="s"/>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="4" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="B820" s="10" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="C820" s="10" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="D820" s="6" t="s"/>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="4" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="B821" s="10" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="C821" s="10" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="D821" s="6" t="s"/>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="4" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="B822" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="C822" s="10" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="D822" s="6" t="s"/>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="4" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="B823" s="10" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="C823" s="10" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="D823" s="6" t="s"/>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="4" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="B824" s="10" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="C824" s="10" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="D824" s="6" t="s"/>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="4" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="B825" s="10" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="C825" s="10" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="D825" s="6" t="s"/>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="4" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="B826" s="10" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="C826" s="10" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="D826" s="6" t="s"/>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="4" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B827" s="27" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="C827" s="27" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="D827" s="6" t="s"/>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="4" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="B828" s="10" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="C828" s="10" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="D828" s="6" t="s"/>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="4" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="B829" s="10" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C829" s="10" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="D829" s="6" t="s"/>
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="4" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="B830" s="10" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="C830" s="10" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="D830" s="6" t="s"/>
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="4" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="B831" s="10" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="C831" s="10" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="D831" s="6" t="s"/>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="4" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="B832" s="10" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="C832" s="10" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="D832" s="6" t="s"/>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="4" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="B833" s="10" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="C833" s="10" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="D833" s="6" t="s"/>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="4" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="B834" s="10" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="C834" s="10" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="D834" s="6" t="s"/>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="4" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="B835" s="10" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C835" s="10" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="D835" s="6" t="s"/>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="4" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B836" s="10" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="C836" s="10" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="D836" s="6" t="s"/>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="B837" s="10" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="C837" s="10" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="D837" s="6" t="s"/>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="4" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="B838" s="10" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="C838" s="10" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="D838" s="6" t="s"/>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="4" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="B839" s="10" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="C839" s="10" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="D839" s="6" t="s"/>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="4" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="B840" s="10" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="C840" s="10" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="D840" s="6" t="s"/>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="4" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B841" s="10" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="C841" s="10" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="D841" s="6" t="s"/>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="4" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="B842" s="10" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="C842" s="10" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="D842" s="6" t="s"/>
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="4" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="B843" s="10" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="C843" s="10" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="D843" s="6" t="s"/>
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="B844" s="10" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="C844" s="10" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="D844" s="6" t="s"/>
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="4" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="B845" s="10" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="C845" s="10" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="D845" s="28" t="s"/>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="4" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="B846" s="10" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="C846" s="10" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="D846" s="28" t="s"/>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="4" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="B847" s="10" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="D847" s="10" t="s"/>
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="4" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="B848" s="10" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="C848" s="10" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="D848" s="6" t="s"/>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="4" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="B849" s="10" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="C849" s="10" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="D849" s="6" t="s"/>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="4" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="B850" s="10" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="D850" s="6" t="s"/>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="4" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="B851" s="10" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="C851" s="10" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="D851" s="6" t="s"/>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="4" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="B852" s="10" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="C852" s="10" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="D852" s="6" t="s"/>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="4" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="B853" s="10" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="C853" s="10" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="D853" s="6" t="s"/>
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="4" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="B854" s="10" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="C854" s="10" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="D854" s="6" t="s"/>
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="4" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="B855" s="10" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="C855" s="10" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="D855" s="6" t="s"/>
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="4" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="B856" s="10" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="D856" s="6" t="s"/>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="4" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="B857" s="10" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="D857" s="6" t="s"/>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="4" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="B858" s="10" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="D858" s="6" t="s"/>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="4" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="B859" s="10" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="C859" s="10" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="D859" s="6" t="s"/>
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="4" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="B860" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="D860" s="6" t="s"/>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="4" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="B861" s="10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="D861" s="6" t="s"/>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="4" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="B862" s="10" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="D862" s="6" t="s"/>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="4" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="B863" s="10" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="D863" s="6" t="s"/>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="4" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="D864" s="6" t="s"/>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="4" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B865" s="10" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D865" s="6" t="s"/>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="4" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="B866" s="10" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="D866" s="6" t="s"/>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="4" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="D867" s="6" t="s"/>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="4" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="B868" s="10" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="D868" s="6" t="s"/>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="4" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="B869" s="10" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="D869" s="6" t="s"/>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="4" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="B870" s="10" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="D870" s="6" t="s"/>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="4" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="D871" s="6" t="s"/>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="4" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="B872" s="10" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="D872" s="6" t="s"/>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="4" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="D873" s="6" t="s"/>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="4" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="D874" s="6" t="s"/>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="4" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="D875" s="6" t="s"/>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="4" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="D876" s="6" t="s"/>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="4" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="D877" s="6" t="s"/>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="4" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="D878" s="6" t="s"/>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="4" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="D879" s="6" t="s"/>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="4" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="B880" s="10" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="D880" s="6" t="s"/>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="4" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="B881" s="10" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="D881" s="6" t="s"/>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="4" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="B882" s="10" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="D882" s="6" t="s"/>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="4" t="s">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="B883" s="10" t="s">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c r="D883" s="6" t="s"/>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="4" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="B884" s="10" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="D884" s="6" t="s"/>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="4" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="B885" s="10" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="D885" s="6" t="s"/>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="4" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="B886" s="10" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="D886" s="6" t="s"/>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="4" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="B887" s="10" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="D887" s="6" t="s"/>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="4" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="D888" s="6" t="s"/>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="4" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="B889" s="10" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="D889" s="6" t="s"/>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="4" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="B890" s="10" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="D890" s="6" t="s"/>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="4" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="B891" s="10" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="D891" s="6" t="s"/>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="4" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="B892" s="10" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="D892" s="6" t="s"/>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="4" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="B893" s="10" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="D893" s="6" t="s"/>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="4" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="B894" s="10" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="D894" s="6" t="s"/>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="4" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="B895" s="10" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="D895" s="6" t="s"/>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="4" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="B896" s="10" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="D896" s="6" t="s"/>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="4" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="B897" s="10" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="D897" s="6" t="s"/>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="4" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="B898" s="10" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="D898" s="6" t="s"/>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="4" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="B899" s="10" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c r="D899" s="6" t="s"/>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="4" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c r="B900" s="10" t="s">
         <v>1210</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="D900" s="6" t="s"/>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="4" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="B901" s="10" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="D901" s="6" t="s"/>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="4" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="B902" s="10" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="D902" s="6" t="s"/>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="4" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="B903" s="10" t="s">
-        <v>2707</v>
+        <v>2709</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="D903" s="6" t="s"/>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="4" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="B904" s="10" t="s">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c r="C904" s="10" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="D904" s="6" t="s"/>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="4" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c r="B905" s="10" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="C905" s="10" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="D905" s="6" t="s"/>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="4" t="s">
-        <v>2715</v>
+        <v>2717</v>
       </c>
       <c r="B906" s="10" t="s">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="D906" s="6" t="s"/>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="4" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="B907" s="10" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="D907" s="6" t="s"/>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="4" t="s">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="B908" s="10" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="D908" s="6" t="s"/>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="4" t="s">
-        <v>2721</v>
+        <v>2723</v>
       </c>
       <c r="B909" s="10" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="C909" s="10" t="s">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="D909" s="6" t="s"/>
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="4" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="B910" s="10" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="C910" s="10" t="s">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="D910" s="6" t="s"/>
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="4" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="B911" s="10" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="C911" s="10" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="D911" s="6" t="s"/>
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="4" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="B912" s="10" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="D912" s="6" t="s"/>
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="4" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="B913" s="10" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="C913" s="10" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="D913" s="6" t="s"/>
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="4" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="B914" s="10" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="C914" s="10" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="D914" s="6" t="s"/>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="4" t="s">
-        <v>2739</v>
-      </c>
-      <c r="B915" s="10" t="s"/>
-      <c r="C915" s="10" t="s"/>
+        <v>2741</v>
+      </c>
+      <c r="B915" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C915" s="10" t="s">
+        <v>2743</v>
+      </c>
       <c r="D915" s="6" t="s"/>
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="4" t="s">
-        <v>2740</v>
-      </c>
-      <c r="B916" s="10" t="s"/>
-      <c r="C916" s="10" t="s"/>
+        <v>2744</v>
+      </c>
+      <c r="B916" s="10" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C916" s="10" t="s">
+        <v>913</v>
+      </c>
       <c r="D916" s="6" t="s"/>
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="4" t="s">
-        <v>2741</v>
+        <v>2746</v>
       </c>
       <c r="B917" s="10" t="s">
-        <v>2742</v>
+        <v>2747</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>2742</v>
+        <v>2747</v>
       </c>
       <c r="D917" s="6" t="s"/>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="4" t="s">
-        <v>2743</v>
+        <v>2748</v>
       </c>
       <c r="B918" s="10" t="s">
-        <v>2744</v>
+        <v>2749</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>2744</v>
+        <v>2749</v>
       </c>
       <c r="D918" s="6" t="s"/>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="4" t="s">
-        <v>2745</v>
+        <v>2750</v>
       </c>
       <c r="B919" s="10" t="s">
-        <v>2746</v>
+        <v>2751</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>2746</v>
+        <v>2751</v>
       </c>
       <c r="D919" s="6" t="s"/>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="4" t="s">
-        <v>2747</v>
-      </c>
-      <c r="B920" s="10" t="s"/>
-      <c r="C920" s="10" t="s"/>
+        <v>2752</v>
+      </c>
+      <c r="B920" s="10" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C920" s="10" t="s">
+        <v>2754</v>
+      </c>
       <c r="D920" s="6" t="s"/>
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="4" t="s">
-        <v>2748</v>
-      </c>
-      <c r="B921" s="10" t="s"/>
-      <c r="C921" s="10" t="s"/>
+        <v>2755</v>
+      </c>
+      <c r="B921" s="10" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C921" s="10" t="s">
+        <v>2757</v>
+      </c>
       <c r="D921" s="6" t="s"/>
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="4" t="s">
-        <v>2749</v>
+        <v>2758</v>
       </c>
       <c r="B922" s="10" t="s">
-        <v>2750</v>
+        <v>2759</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>2750</v>
+        <v>2759</v>
       </c>
       <c r="D922" s="6" t="s"/>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="4" t="s">
-        <v>2751</v>
+        <v>2760</v>
       </c>
       <c r="B923" s="10" t="s">
-        <v>2752</v>
+        <v>2761</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>2752</v>
+        <v>2761</v>
       </c>
       <c r="D923" s="6" t="s"/>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="4" t="s">
-        <v>2753</v>
+        <v>2762</v>
       </c>
       <c r="B924" s="10" t="s">
-        <v>2754</v>
+        <v>2763</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2755</v>
+        <v>2764</v>
       </c>
       <c r="D924" s="6" t="s"/>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="4" t="s">
-        <v>2756</v>
+        <v>2765</v>
       </c>
       <c r="B925" s="10" t="s">
-        <v>2757</v>
+        <v>2766</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2758</v>
+        <v>2767</v>
       </c>
       <c r="D925" s="6" t="s"/>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="4" t="s">
-        <v>2759</v>
+        <v>2768</v>
       </c>
       <c r="B926" s="10" t="s">
-        <v>2760</v>
+        <v>2769</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2761</v>
+        <v>2770</v>
       </c>
       <c r="D926" s="6" t="s"/>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="4" t="s">
-        <v>2762</v>
+        <v>2771</v>
       </c>
       <c r="B927" s="10" t="s">
-        <v>2763</v>
+        <v>2772</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>2764</v>
+        <v>2773</v>
       </c>
       <c r="D927" s="6" t="s"/>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="4" t="s">
-        <v>2765</v>
+        <v>2774</v>
       </c>
       <c r="B928" s="10" t="s">
-        <v>2766</v>
+        <v>2775</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>2767</v>
+        <v>2776</v>
       </c>
       <c r="D928" s="6" t="s"/>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="4" t="s">
-        <v>2768</v>
+        <v>2777</v>
       </c>
       <c r="B929" s="10" t="s">
-        <v>2769</v>
+        <v>2778</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>2770</v>
+        <v>2779</v>
       </c>
       <c r="D929" s="6" t="s"/>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="4" t="s">
-        <v>2771</v>
+        <v>2780</v>
       </c>
       <c r="B930" s="10" t="s">
-        <v>2772</v>
+        <v>2781</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>2773</v>
+        <v>2782</v>
       </c>
       <c r="D930" s="6" t="s"/>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="4" t="s">
-        <v>2774</v>
+        <v>2783</v>
       </c>
       <c r="B931" s="10" t="s">
-        <v>2775</v>
+        <v>2784</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>2776</v>
+        <v>2785</v>
       </c>
       <c r="D931" s="6" t="s"/>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="4" t="s">
-        <v>2777</v>
+        <v>2786</v>
       </c>
       <c r="B932" s="10" t="s">
-        <v>2778</v>
+        <v>2787</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>2779</v>
+        <v>2788</v>
       </c>
       <c r="D932" s="6" t="s"/>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="4" t="s">
-        <v>2780</v>
+        <v>2789</v>
       </c>
       <c r="B933" s="10" t="s">
-        <v>2781</v>
+        <v>2790</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2782</v>
+        <v>2791</v>
       </c>
       <c r="D933" s="6" t="s"/>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="4" t="s">
-        <v>2783</v>
+        <v>2792</v>
       </c>
       <c r="B934" s="10" t="s">
-        <v>2784</v>
+        <v>2793</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2785</v>
+        <v>2794</v>
       </c>
       <c r="D934" s="6" t="s"/>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="4" t="s">
-        <v>2786</v>
+        <v>2795</v>
       </c>
       <c r="B935" s="10" t="s">
-        <v>2787</v>
+        <v>2796</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2788</v>
+        <v>2797</v>
       </c>
       <c r="D935" s="6" t="s"/>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="4" t="s">
-        <v>2789</v>
+        <v>2798</v>
       </c>
       <c r="B936" s="10" t="s">
-        <v>2790</v>
+        <v>2799</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2791</v>
+        <v>2800</v>
       </c>
       <c r="D936" s="6" t="s"/>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="4" t="s">
-        <v>2792</v>
+        <v>2801</v>
       </c>
       <c r="B937" s="27" t="s">
-        <v>2793</v>
+        <v>2802</v>
       </c>
       <c r="C937" s="27" t="s">
-        <v>2794</v>
+        <v>2803</v>
       </c>
       <c r="D937" s="6" t="s"/>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="4" t="s">
-        <v>2795</v>
+        <v>2804</v>
       </c>
       <c r="B938" s="10" t="s">
-        <v>2796</v>
+        <v>2805</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>2797</v>
+        <v>2806</v>
       </c>
       <c r="D938" s="6" t="s"/>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="4" t="s">
-        <v>2798</v>
+        <v>2807</v>
       </c>
       <c r="B939" s="10" t="s">
-        <v>2799</v>
+        <v>2808</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>2800</v>
+        <v>2809</v>
       </c>
       <c r="D939" s="6" t="s"/>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="4" t="s">
-        <v>2801</v>
+        <v>2810</v>
       </c>
       <c r="B940" s="27" t="s">
-        <v>2802</v>
+        <v>2811</v>
       </c>
       <c r="C940" s="27" t="s">
-        <v>2803</v>
+        <v>2812</v>
       </c>
       <c r="D940" s="6" t="s"/>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="4" t="s">
-        <v>2804</v>
+        <v>2813</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2805</v>
+        <v>2814</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>2806</v>
+        <v>2815</v>
       </c>
       <c r="D941" s="6" t="s"/>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="4" t="s">
-        <v>2807</v>
+        <v>2816</v>
       </c>
       <c r="B942" s="10" t="s">
-        <v>2808</v>
+        <v>2817</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>2809</v>
+        <v>2818</v>
       </c>
       <c r="D942" s="6" t="s"/>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="4" t="s">
-        <v>2810</v>
+        <v>2819</v>
       </c>
       <c r="B943" s="10" t="s">
-        <v>2778</v>
+        <v>2787</v>
       </c>
       <c r="C943" s="10" t="s">
-        <v>2811</v>
+        <v>2820</v>
       </c>
       <c r="D943" s="6" t="s"/>
     </row>
     <row r="944" spans="1:4">
-      <c r="A944" s="4" t="s"/>
-      <c r="B944" s="10" t="s"/>
-      <c r="C944" s="10" t="s"/>
+      <c r="A944" s="4" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B944" s="10" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C944" s="10" t="s">
+        <v>2822</v>
+      </c>
       <c r="D944" s="6" t="s"/>
     </row>
     <row r="945" spans="1:4">
-      <c r="A945" s="4" t="s"/>
-      <c r="B945" s="10" t="s"/>
-      <c r="C945" s="10" t="s"/>
+      <c r="A945" s="4" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B945" s="10" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C945" s="10" t="s">
+        <v>2825</v>
+      </c>
       <c r="D945" s="6" t="s"/>
     </row>
     <row r="946" spans="1:4">
-      <c r="A946" s="4" t="s"/>
-      <c r="B946" s="10" t="s"/>
-      <c r="C946" s="10" t="s"/>
+      <c r="A946" s="4" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B946" s="10" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C946" s="10" t="s">
+        <v>2828</v>
+      </c>
       <c r="D946" s="6" t="s"/>
     </row>
     <row r="947" spans="1:4">
-      <c r="A947" s="4" t="s"/>
+      <c r="A947" s="4" t="s">
+        <v>2829</v>
+      </c>
       <c r="B947" s="10" t="s"/>
       <c r="C947" s="10" t="s"/>
       <c r="D947" s="6" t="s"/>
     </row>
     <row r="948" spans="1:4">
-      <c r="A948" s="4" t="s"/>
+      <c r="A948" s="4" t="s">
+        <v>2830</v>
+      </c>
       <c r="B948" s="10" t="s"/>
       <c r="C948" s="10" t="s"/>
       <c r="D948" s="6" t="s"/>
     </row>
     <row r="949" spans="1:4">
-      <c r="A949" s="4" t="s"/>
+      <c r="A949" s="4" t="s">
+        <v>2831</v>
+      </c>
       <c r="B949" s="10" t="s"/>
       <c r="C949" s="10" t="s"/>
       <c r="D949" s="6" t="s"/>
     </row>
     <row r="950" spans="1:4">
-      <c r="A950" s="4" t="s"/>
+      <c r="A950" s="4" t="s">
+        <v>2832</v>
+      </c>
       <c r="B950" s="10" t="s"/>
       <c r="C950" s="10" t="s"/>
       <c r="D950" s="6" t="s"/>
     </row>
     <row r="951" spans="1:4">
-      <c r="A951" s="4" t="s"/>
+      <c r="A951" s="4" t="s">
+        <v>2833</v>
+      </c>
       <c r="B951" s="10" t="s"/>
       <c r="C951" s="10" t="s"/>
       <c r="D951" s="6" t="s"/>
     </row>
     <row r="952" spans="1:4">
-      <c r="A952" s="4" t="s"/>
+      <c r="A952" s="4" t="s">
+        <v>2834</v>
+      </c>
       <c r="B952" s="10" t="s"/>
       <c r="C952" s="10" t="s"/>
       <c r="D952" s="6" t="s"/>
     </row>
     <row r="953" spans="1:4">
-      <c r="A953" s="4" t="s"/>
+      <c r="A953" s="4" t="s">
+        <v>2835</v>
+      </c>
       <c r="B953" s="10" t="s"/>
       <c r="C953" s="10" t="s"/>
       <c r="D953" s="6" t="s"/>
     </row>
     <row r="954" spans="1:4">
-      <c r="A954" s="4" t="s"/>
+      <c r="A954" s="4" t="s">
+        <v>2836</v>
+      </c>
       <c r="B954" s="10" t="s"/>
       <c r="C954" s="10" t="s"/>
       <c r="D954" s="6" t="s"/>
     </row>
     <row r="955" spans="1:4">
-      <c r="A955" s="4" t="s"/>
+      <c r="A955" s="4" t="s">
+        <v>2837</v>
+      </c>
       <c r="B955" s="10" t="s"/>
       <c r="C955" s="10" t="s"/>
       <c r="D955" s="6" t="s"/>
     </row>
     <row r="956" spans="1:4">
-      <c r="A956" s="4" t="s"/>
+      <c r="A956" s="4" t="s">
+        <v>2838</v>
+      </c>
       <c r="B956" s="10" t="s"/>
       <c r="C956" s="10" t="s"/>
       <c r="D956" s="6" t="s"/>
     </row>
     <row r="957" spans="1:4">
-      <c r="A957" s="4" t="s"/>
+      <c r="A957" s="4" t="s">
+        <v>2839</v>
+      </c>
       <c r="B957" s="10" t="s"/>
       <c r="C957" s="10" t="s"/>
       <c r="D957" s="6" t="s"/>
     </row>
     <row r="958" spans="1:4">
-      <c r="A958" s="4" t="s"/>
+      <c r="A958" s="4" t="s">
+        <v>2840</v>
+      </c>
       <c r="B958" s="10" t="s"/>
       <c r="C958" s="10" t="s"/>
       <c r="D958" s="6" t="s"/>
     </row>
     <row r="959" spans="1:4">
-      <c r="A959" s="4" t="s"/>
+      <c r="A959" s="4" t="s">
+        <v>2841</v>
+      </c>
       <c r="B959" s="10" t="s"/>
       <c r="C959" s="10" t="s"/>
       <c r="D959" s="6" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="2848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="2850">
   <si>
     <t/>
   </si>
@@ -1436,7 +1436,7 @@
     <t>上行IPv4过滤</t>
   </si>
   <si>
-    <t>The Upstream IPv4 Filtering</t>
+    <t>The Upstream IPv4 Filter</t>
   </si>
   <si>
     <t>Filtrado IPv4 ascendente</t>
@@ -1448,7 +1448,7 @@
     <t>下行IPv4过滤</t>
   </si>
   <si>
-    <t>The Downstream IPv4 Filtering</t>
+    <t>The Downstream IPv4 Filter</t>
   </si>
   <si>
     <t>Filtrado IPv4 descendente</t>
@@ -1505,3733 +1505,3733 @@
     <t>trans0138</t>
   </si>
   <si>
-    <t>目的主机</t>
+    <t>目的地址</t>
+  </si>
+  <si>
+    <t>Destination Address</t>
+  </si>
+  <si>
+    <t>Host de destino</t>
+  </si>
+  <si>
+    <t>trans0139</t>
+  </si>
+  <si>
+    <t>目的端口</t>
+  </si>
+  <si>
+    <t>Destination Port</t>
+  </si>
+  <si>
+    <t>Puerto de destino</t>
+  </si>
+  <si>
+    <t>trans0140</t>
+  </si>
+  <si>
+    <t>WAN 名称</t>
+  </si>
+  <si>
+    <t>WAN Name</t>
+  </si>
+  <si>
+    <t>Nombre de WAN</t>
+  </si>
+  <si>
+    <t>trans0141</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Operación</t>
+  </si>
+  <si>
+    <t>trans0142</t>
+  </si>
+  <si>
+    <t>暂无数据</t>
+  </si>
+  <si>
+    <t>No data</t>
+  </si>
+  <si>
+    <t>No hay datos disponibles</t>
+  </si>
+  <si>
+    <t>trans0143</t>
+  </si>
+  <si>
+    <t>上行ip过滤是否开启？</t>
+  </si>
+  <si>
+    <t>Is upstream ip filtering enabled?</t>
+  </si>
+  <si>
+    <t>¿ Está activado el filtrado de ip ascendente?</t>
+  </si>
+  <si>
+    <t>trans0144</t>
+  </si>
+  <si>
+    <t>上行ip过滤关闭？</t>
+  </si>
+  <si>
+    <t>Is upstream ip filtering disabled?</t>
+  </si>
+  <si>
+    <t>¿ Se cierra el filtrado de ip ascendente?</t>
+  </si>
+  <si>
+    <t>trans0145</t>
+  </si>
+  <si>
+    <t>下行ip过滤是否开启？</t>
+  </si>
+  <si>
+    <t>Is downstream ip filtering enabled?</t>
+  </si>
+  <si>
+    <t>¿ Está activado el filtrado de ip descendente?</t>
+  </si>
+  <si>
+    <t>trans0146</t>
+  </si>
+  <si>
+    <t>下行ip过滤关闭？</t>
+  </si>
+  <si>
+    <t>Is downstream ip filtering disabled?</t>
+  </si>
+  <si>
+    <t>¿ El filtro ip descendente está apagado?</t>
+  </si>
+  <si>
+    <t>trans0147</t>
+  </si>
+  <si>
+    <t>Filtración IPv4</t>
+  </si>
+  <si>
+    <t>trans0148</t>
+  </si>
+  <si>
+    <t>步骤2 按主、子设备WPS键，开始组网</t>
+  </si>
+  <si>
+    <t>Step2 Press the WPS button of the controller, agent device to start networking</t>
+  </si>
+  <si>
+    <t>Paso 2 Presione las teclas WPS del dispositivo principal y del dispositivo secundario para iniciar la red.</t>
+  </si>
+  <si>
+    <t>trans0149</t>
+  </si>
+  <si>
+    <t>先长按“主设备”WPS按键5秒，松开后指示灯开始闪烁</t>
+  </si>
+  <si>
+    <t>Press and hold the WPS button of controller device for 5 seconds, and the indicator light will start to flash after releasing it</t>
+  </si>
+  <si>
+    <t>Primero presione el botón WPS del"dispositivo principal"durante 5 segundos, después de soltarlo, la luz indicadora comienza a parpadear.</t>
+  </si>
+  <si>
+    <t>trans0150</t>
+  </si>
+  <si>
+    <t>规则名称</t>
+  </si>
+  <si>
+    <t>trans0151</t>
+  </si>
+  <si>
+    <t>开始 IP 地址</t>
+  </si>
+  <si>
+    <t>Start IP Address</t>
+  </si>
+  <si>
+    <t>Dirección IP de inicio</t>
+  </si>
+  <si>
+    <t>trans0152</t>
+  </si>
+  <si>
+    <t>结束 IP 地址</t>
+  </si>
+  <si>
+    <t>End IP Address</t>
+  </si>
+  <si>
+    <t>Fin de la dirección IP</t>
+  </si>
+  <si>
+    <t>trans0153</t>
+  </si>
+  <si>
+    <t>防范 ICMP Echo 攻击</t>
+  </si>
+  <si>
+    <t>Prevent ICMP Echo Attack</t>
+  </si>
+  <si>
+    <t>Protección contra ataques ICMP Echo</t>
+  </si>
+  <si>
+    <t>trans0154</t>
+  </si>
+  <si>
+    <t>应用协议</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Protocolo de aplicación</t>
+  </si>
+  <si>
+    <t>trans0155</t>
+  </si>
+  <si>
+    <t>WAN</t>
+  </si>
+  <si>
+    <t>trans0156</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>trans0157</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>trans0158</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>trans0159</t>
+  </si>
+  <si>
+    <t>PING</t>
+  </si>
+  <si>
+    <t>trans0160</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>trans0161</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>trans0162</t>
+  </si>
+  <si>
+    <t>TELNET</t>
+  </si>
+  <si>
+    <t>trans0163</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>trans0164</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>Añadido</t>
+  </si>
+  <si>
+    <t>trans0165</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>trans0166</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>trans0167</t>
+  </si>
+  <si>
+    <t>过滤名称不合法</t>
+  </si>
+  <si>
+    <t>Filter name is invalid</t>
+  </si>
+  <si>
+    <t>trans0168</t>
+  </si>
+  <si>
+    <t>开始 IP 地址不合法</t>
+  </si>
+  <si>
+    <t>Start IP Address is invalid</t>
+  </si>
+  <si>
+    <t>La dirección IP de inicio no es válida</t>
+  </si>
+  <si>
+    <t>trans0169</t>
+  </si>
+  <si>
+    <t>结束 IP 地址不合法</t>
+  </si>
+  <si>
+    <t>End IP Address is invalid</t>
+  </si>
+  <si>
+    <t>La dirección IP final no es válida</t>
+  </si>
+  <si>
+    <t>trans0170</t>
+  </si>
+  <si>
+    <t>开始 IP 地址不能大于结束 IP 地址</t>
+  </si>
+  <si>
+    <t>The Start IP Address cannot be greater than the End IP Address</t>
+  </si>
+  <si>
+    <t>La dirección IP inicial no puede ser mayor que la dirección IP final</t>
+  </si>
+  <si>
+    <t>trans0171</t>
+  </si>
+  <si>
+    <t>请注意：0.0.0.0～0.0.0.0 表示所有的 IP 地址</t>
+  </si>
+  <si>
+    <t>Please Note: 0.0.0.0~0.0.0.0 means all IPs.</t>
+  </si>
+  <si>
+    <t>Tenga en cuenta: 0.0.0.0~0.0.0.0 significa todas las direcciones IP</t>
+  </si>
+  <si>
+    <t>trans0172</t>
+  </si>
+  <si>
+    <t>不限速</t>
+  </si>
+  <si>
+    <t>unlimited</t>
+  </si>
+  <si>
+    <t>Límite de velocidad ilimitado</t>
+  </si>
+  <si>
+    <t>trans0173</t>
+  </si>
+  <si>
+    <t>全部设备</t>
+  </si>
+  <si>
+    <t>all devices</t>
+  </si>
+  <si>
+    <t>Todo el equipo</t>
+  </si>
+  <si>
+    <t>trans0174</t>
+  </si>
+  <si>
+    <t>在线设备</t>
+  </si>
+  <si>
+    <t>online devices</t>
+  </si>
+  <si>
+    <t>Equipo en línea</t>
+  </si>
+  <si>
+    <t>trans0175</t>
+  </si>
+  <si>
+    <t>离线设备</t>
+  </si>
+  <si>
+    <t>offline devices</t>
+  </si>
+  <si>
+    <t>Dispositivos fuera de línea</t>
+  </si>
+  <si>
+    <t>trans0176</t>
+  </si>
+  <si>
+    <t>禁止上网</t>
+  </si>
+  <si>
+    <t>Internet ban</t>
+  </si>
+  <si>
+    <t>Prohibido navegar por Internet</t>
+  </si>
+  <si>
+    <t>trans0177</t>
+  </si>
+  <si>
+    <t>上行限速</t>
+  </si>
+  <si>
+    <t>Upload speed limit</t>
+  </si>
+  <si>
+    <t>Límite de velocidad ascendente</t>
+  </si>
+  <si>
+    <t>trans0178</t>
+  </si>
+  <si>
+    <t>下行限速</t>
+  </si>
+  <si>
+    <t>Download speed limit</t>
+  </si>
+  <si>
+    <t>Límite de velocidad descendente</t>
+  </si>
+  <si>
+    <t>trans0179</t>
+  </si>
+  <si>
+    <t>IP 地址</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Dirección IP</t>
+  </si>
+  <si>
+    <t>trans0180</t>
+  </si>
+  <si>
+    <t>在线</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>En línea</t>
+  </si>
+  <si>
+    <t>trans0181</t>
+  </si>
+  <si>
+    <t>接入时间</t>
+  </si>
+  <si>
+    <t>Access time</t>
+  </si>
+  <si>
+    <t>Tiempo de acceso</t>
+  </si>
+  <si>
+    <t>trans0182</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>trans0183</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Gestión</t>
+  </si>
+  <si>
+    <t>trans0184</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Gestión de usuarios</t>
+  </si>
+  <si>
+    <t>trans0185</t>
+  </si>
+  <si>
+    <t>新密码</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Nueva contraseña</t>
+  </si>
+  <si>
+    <t>trans0186</t>
+  </si>
+  <si>
+    <t>确认密码</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Confirmar contraseña</t>
+  </si>
+  <si>
+    <t>trans0187</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>trans0188</t>
+  </si>
+  <si>
+    <t>日志管理</t>
+  </si>
+  <si>
+    <t>Log Management</t>
+  </si>
+  <si>
+    <t>Gestión de registros</t>
+  </si>
+  <si>
+    <t>trans0189</t>
+  </si>
+  <si>
+    <t>TCP/UDP</t>
+  </si>
+  <si>
+    <t>trans0190</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>trans0191</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>trans0192</t>
+  </si>
+  <si>
+    <t>ICMP</t>
+  </si>
+  <si>
+    <t>trans0193</t>
+  </si>
+  <si>
+    <t>源子网掩码</t>
+  </si>
+  <si>
+    <t>Source Subnet Mask</t>
+  </si>
+  <si>
+    <t>Máscara de subred de origen</t>
+  </si>
+  <si>
+    <t>trans0194</t>
+  </si>
+  <si>
+    <t>目的子网掩码</t>
+  </si>
+  <si>
+    <t>Destination Subnet Mask</t>
+  </si>
+  <si>
+    <t>Máscara de subred de destino</t>
+  </si>
+  <si>
+    <t>trans0195</t>
+  </si>
+  <si>
+    <t>密码不统一</t>
+  </si>
+  <si>
+    <t>Inconsistent password</t>
+  </si>
+  <si>
+    <t>Contraseñas inconsistentes</t>
+  </si>
+  <si>
+    <t>trans0196</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>trans0197</t>
+  </si>
+  <si>
+    <t>源IP地址不合法</t>
+  </si>
+  <si>
+    <t>The source IP address is invalid</t>
+  </si>
+  <si>
+    <t>La dirección IP de origen no es válida</t>
+  </si>
+  <si>
+    <t>trans0198</t>
+  </si>
+  <si>
+    <t>源IP子网掩码不合法</t>
+  </si>
+  <si>
+    <t>The source IP subnet mask is invalid</t>
+  </si>
+  <si>
+    <t>Máscara de subred IP de origen no válida</t>
+  </si>
+  <si>
+    <t>trans0199</t>
+  </si>
+  <si>
+    <t>目的IP地址不合法</t>
+  </si>
+  <si>
+    <t>The destination IP address is invalid</t>
+  </si>
+  <si>
+    <t>La dirección IP de destino no es válida</t>
+  </si>
+  <si>
+    <t>trans0200</t>
+  </si>
+  <si>
+    <t>目的IP子网掩码不合法</t>
+  </si>
+  <si>
+    <t>Destination IP subnet mask is invalid</t>
+  </si>
+  <si>
+    <t>Máscara de subred IP de destino no válida</t>
+  </si>
+  <si>
+    <t>trans0201</t>
+  </si>
+  <si>
+    <t>密码修改成功</t>
+  </si>
+  <si>
+    <t>Password reset complete</t>
+  </si>
+  <si>
+    <t>Restablecimiento de contraseña completado</t>
+  </si>
+  <si>
+    <t>trans0202</t>
+  </si>
+  <si>
+    <t>密码已修改，请重新登录</t>
+  </si>
+  <si>
+    <t>The password has been changed, please log in again</t>
+  </si>
+  <si>
+    <t>La contraseña ha sido cambiada, por favor vuelva a iniciar sesión</t>
+  </si>
+  <si>
+    <t>trans0203</t>
+  </si>
+  <si>
+    <t>升级过程可能需要花费几分钟的时间，升级过程中请不要关闭电源。完成后，设备会自动重启</t>
+  </si>
+  <si>
+    <t>The upgrade may take a few minutes. Please do not power off during the upgrade. Once the upgrade is finished, the device will restart automatically</t>
+  </si>
+  <si>
+    <t>La actualización puede tomar unos minutos. Por favor, no apague la alimentación durante la actualización. Una vez completada la actualización, el dispositivo se reiniciará automáticamente</t>
+  </si>
+  <si>
+    <t>trans0204</t>
+  </si>
+  <si>
+    <t>确定删除此条上行IP规律规则吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to delete this uplink IP rule?</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea eliminar esta regla de IP de enlace ascendente?</t>
+  </si>
+  <si>
+    <t>trans0205</t>
+  </si>
+  <si>
+    <t>可拖动上传文件</t>
+  </si>
+  <si>
+    <t>Drag and drop files to upload</t>
+  </si>
+  <si>
+    <t>Arrastrar y soltar archivos para cargar</t>
+  </si>
+  <si>
+    <t>trans0206</t>
+  </si>
+  <si>
+    <t>文件上传失败，重新上传文件</t>
+  </si>
+  <si>
+    <t>File upload failed. Please try again</t>
+  </si>
+  <si>
+    <t>Falló la carga de archivo. Por favor inténtalo de nuevo</t>
+  </si>
+  <si>
+    <t>trans0207</t>
+  </si>
+  <si>
+    <t>松开以上传</t>
+  </si>
+  <si>
+    <t>Drop files here</t>
+  </si>
+  <si>
+    <t>trans0208</t>
+  </si>
+  <si>
+    <t>文件格式只支持%s，请重试</t>
+  </si>
+  <si>
+    <t>The file format only supports %s, please try again</t>
+  </si>
+  <si>
+    <t>trans0209</t>
+  </si>
+  <si>
+    <t>导入%s格式文件</t>
+  </si>
+  <si>
+    <t>Import %s format file</t>
+  </si>
+  <si>
+    <t>trans0210</t>
+  </si>
+  <si>
+    <t>确定删除此条下行IP规律规则吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to delete this downlink IP rule?</t>
+  </si>
+  <si>
+    <t>trans0211</t>
+  </si>
+  <si>
+    <t>文件过大</t>
+  </si>
+  <si>
+    <t>Sorry, the file is too big</t>
+  </si>
+  <si>
+    <t>trans0212</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>trans0213</t>
+  </si>
+  <si>
+    <t>固件</t>
+  </si>
+  <si>
+    <t>firmware</t>
+  </si>
+  <si>
+    <t>trans0214</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+  </si>
+  <si>
+    <t>file type</t>
+  </si>
+  <si>
+    <t>trans0215</t>
+  </si>
+  <si>
+    <t>过滤规则名字</t>
+  </si>
+  <si>
+    <t>Filter Rule Name</t>
+  </si>
+  <si>
+    <t>trans0216</t>
+  </si>
+  <si>
+    <t>然后在120秒内长按“从设备”WPS按键5秒，松开后指示灯开始快速闪烁，此时两台路由器开始组网</t>
+  </si>
+  <si>
+    <t>Then press and hold the WPS button of agent device for 5 seconds within 120 seconds. After releasing it, the indicator light starts to flash quickly. At this time, the two routers start to network</t>
+  </si>
+  <si>
+    <t>trans0217</t>
+  </si>
+  <si>
+    <t>AA:BB:CC:DD:EE:FF</t>
+  </si>
+  <si>
+    <t>trans0218</t>
+  </si>
+  <si>
+    <t>是否启用MAC过滤？</t>
+  </si>
+  <si>
+    <t>Is MAC filtering enabled?</t>
+  </si>
+  <si>
+    <t>trans0219</t>
+  </si>
+  <si>
+    <t>是否禁用MAC过滤？</t>
+  </si>
+  <si>
+    <t>Is MAC filtering disabled?</t>
+  </si>
+  <si>
+    <t>trans0220</t>
+  </si>
+  <si>
+    <t>更改过滤模式将切换所有筛选规则。是否确实要将过滤器模式更改为白名单？</t>
+  </si>
+  <si>
+    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the white list?</t>
+  </si>
+  <si>
+    <t>trans0221</t>
+  </si>
+  <si>
+    <t>更改筛选模式将切换所有筛选规则。是否确实要将筛选模式更改为黑名单？</t>
+  </si>
+  <si>
+    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the black list?</t>
+  </si>
+  <si>
+    <t>trans0222</t>
+  </si>
+  <si>
+    <t>未选择文件</t>
+  </si>
+  <si>
+    <t>The file is not selected</t>
+  </si>
+  <si>
+    <t>trans0223</t>
+  </si>
+  <si>
+    <t>上传中，请稍等…</t>
+  </si>
+  <si>
+    <t>The file is uploading, please wait</t>
+  </si>
+  <si>
+    <t>trans0224</t>
+  </si>
+  <si>
+    <t>恢复出厂配置</t>
+  </si>
+  <si>
+    <t>Reset to Defaults</t>
+  </si>
+  <si>
+    <t>trans0225</t>
+  </si>
+  <si>
+    <t>确定恢复出厂配置吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to restore the factory configuration？</t>
+  </si>
+  <si>
+    <t>trans0226</t>
+  </si>
+  <si>
+    <t>导出配置文件</t>
+  </si>
+  <si>
+    <t>Export configuration file</t>
+  </si>
+  <si>
+    <t>trans0227</t>
+  </si>
+  <si>
+    <t>设备管理</t>
+  </si>
+  <si>
+    <t>Device Management</t>
+  </si>
+  <si>
+    <t>trans0228</t>
+  </si>
+  <si>
+    <t>确定导出配置文件吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to export the configuration file?</t>
+  </si>
+  <si>
+    <t>trans0229</t>
+  </si>
+  <si>
+    <t>设备正在重新启动，请稍后...</t>
+  </si>
+  <si>
+    <t>The device is rebooting,please wait...</t>
+  </si>
+  <si>
+    <t>trans0230</t>
+  </si>
+  <si>
+    <t>步骤3 观察指示灯，获知组网结果</t>
+  </si>
+  <si>
+    <t>Step3 Observe the indicator light to know the networking result</t>
+  </si>
+  <si>
+    <t>trans0231</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>trans0232</t>
+  </si>
+  <si>
+    <t>警报</t>
+  </si>
+  <si>
+    <t>Alarm</t>
+  </si>
+  <si>
+    <t>trans0233</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>trans0234</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>trans0235</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>Warn</t>
+  </si>
+  <si>
+    <t>trans0236</t>
+  </si>
+  <si>
+    <t>注意</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>trans0237</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>Notify</t>
+  </si>
+  <si>
+    <t>trans0238</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>trans0239</t>
+  </si>
+  <si>
+    <t>日志等级</t>
+  </si>
+  <si>
+    <t>Log level</t>
+  </si>
+  <si>
+    <t>trans0240</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>trans0241</t>
+  </si>
+  <si>
+    <t>下载日志</t>
+  </si>
+  <si>
+    <t>Download log</t>
+  </si>
+  <si>
+    <t>trans0242</t>
+  </si>
+  <si>
+    <t>确定重新启动设备吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to reboot the device?</t>
+  </si>
+  <si>
+    <t>trans0243</t>
+  </si>
+  <si>
+    <t>网络限速</t>
+  </si>
+  <si>
+    <t>Network speed limit</t>
+  </si>
+  <si>
+    <t>trans0244</t>
+  </si>
+  <si>
+    <t>trans0245</t>
+  </si>
+  <si>
+    <t>DDNS</t>
+  </si>
+  <si>
+    <t>trans0246</t>
+  </si>
+  <si>
+    <t>UPNP</t>
+  </si>
+  <si>
+    <t>trans0247</t>
+  </si>
+  <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>trans0248</t>
+  </si>
+  <si>
+    <t>组播</t>
+  </si>
+  <si>
+    <t>IGMP/MLD</t>
+  </si>
+  <si>
+    <t>trans0249</t>
+  </si>
+  <si>
+    <t>CWMP</t>
+  </si>
+  <si>
+    <t>trans0250</t>
+  </si>
+  <si>
+    <t>DHCP 静态 IP</t>
+  </si>
+  <si>
+    <t>DHCP Static IP</t>
+  </si>
+  <si>
+    <t>trans0251</t>
+  </si>
+  <si>
+    <t>DHCPv6 静态 IP</t>
+  </si>
+  <si>
+    <t>DHCPv6 Static IP</t>
+  </si>
+  <si>
+    <t>trans0252</t>
+  </si>
+  <si>
+    <t>WPA2-PSK/WPA3-SAE</t>
+  </si>
+  <si>
+    <t>trans0253</t>
+  </si>
+  <si>
+    <t>端口触发</t>
+  </si>
+  <si>
+    <t>Port Trigger</t>
+  </si>
+  <si>
+    <t>trans0254</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>trans0255</t>
+  </si>
+  <si>
+    <t>服务名称</t>
+  </si>
+  <si>
+    <t>Server Domain Name</t>
+  </si>
+  <si>
+    <t>trans0256</t>
+  </si>
+  <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <t>trans0257</t>
+  </si>
+  <si>
+    <t>服务商</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>trans0258</t>
+  </si>
+  <si>
+    <t>若组网成功，两台路由器指示灯停止闪烁变为长亮状态(从设备为绿色长亮)</t>
+  </si>
+  <si>
+    <t>If the networking is successful, the indicator lights of the two routers will stop flashing and become long on (the agent router is green and long on)</t>
+  </si>
+  <si>
+    <t>trans0259</t>
+  </si>
+  <si>
+    <t>定期通知</t>
+  </si>
+  <si>
+    <t>Periodic Notification</t>
+  </si>
+  <si>
+    <t>trans0260</t>
+  </si>
+  <si>
+    <t>定期通知时间间隔</t>
+  </si>
+  <si>
+    <t>Periodic Notification Time Interval</t>
+  </si>
+  <si>
+    <t>trans0261</t>
+  </si>
+  <si>
+    <t>服务器域名</t>
+  </si>
+  <si>
+    <t>trans0262</t>
+  </si>
+  <si>
+    <t>平台用户名</t>
+  </si>
+  <si>
+    <t>Platform User Name</t>
+  </si>
+  <si>
+    <t>trans0263</t>
+  </si>
+  <si>
+    <t>平台用户名密码</t>
+  </si>
+  <si>
+    <t>Platform Password</t>
+  </si>
+  <si>
+    <t>trans0264</t>
+  </si>
+  <si>
+    <t>终端用户名</t>
+  </si>
+  <si>
+    <t>Terminal User Name</t>
+  </si>
+  <si>
+    <t>trans0265</t>
+  </si>
+  <si>
+    <t>终端用户密码</t>
+  </si>
+  <si>
+    <t>Terminal Password</t>
+  </si>
+  <si>
+    <t>trans0266</t>
+  </si>
+  <si>
+    <t>启用证书功能</t>
+  </si>
+  <si>
+    <t>Enable Certificate Function</t>
+  </si>
+  <si>
+    <t>trans0267</t>
+  </si>
+  <si>
+    <t>（网关未加载证书文件！）</t>
+  </si>
+  <si>
+    <t>(The gateway did not load the certificate file!)</t>
+  </si>
+  <si>
+    <t>trans0268</t>
+  </si>
+  <si>
+    <t>文件路径[最多128个字符]</t>
+  </si>
+  <si>
+    <t>File Path[Maximum 128 characters]</t>
+  </si>
+  <si>
+    <t>trans0269</t>
+  </si>
+  <si>
+    <t>上传证书</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>trans0270</t>
+  </si>
+  <si>
+    <t>trans0271</t>
+  </si>
+  <si>
+    <t>CWMP 服务器</t>
+  </si>
+  <si>
+    <t>CWMP Server</t>
+  </si>
+  <si>
+    <t>trans0272</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>trans0273</t>
+  </si>
+  <si>
+    <t>外部端口</t>
+  </si>
+  <si>
+    <t>External Port</t>
+  </si>
+  <si>
+    <t>trans0274</t>
+  </si>
+  <si>
+    <t>内部端口</t>
+  </si>
+  <si>
+    <t>Internal Port</t>
+  </si>
+  <si>
+    <t>trans0275</t>
+  </si>
+  <si>
+    <t>自动同步</t>
+  </si>
+  <si>
+    <t>Automatic Synchronization</t>
+  </si>
+  <si>
+    <t>trans0276</t>
+  </si>
+  <si>
+    <t>系统日期时间</t>
+  </si>
+  <si>
+    <t>System Time</t>
+  </si>
+  <si>
+    <t>trans0277</t>
+  </si>
+  <si>
+    <t>主 SNTP 服务器</t>
+  </si>
+  <si>
+    <t>Master SNTP Server</t>
+  </si>
+  <si>
+    <t>trans0278</t>
+  </si>
+  <si>
+    <t>从 SNTP 服务器</t>
+  </si>
+  <si>
+    <t>Slave SNTP Server</t>
+  </si>
+  <si>
+    <t>trans0279</t>
+  </si>
+  <si>
+    <t>时区</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>trans0280</t>
+  </si>
+  <si>
+    <t>国际日期变更线(西)</t>
+  </si>
+  <si>
+    <t>International Date Line West</t>
+  </si>
+  <si>
+    <t>trans0281</t>
+  </si>
+  <si>
+    <t>中途岛，萨摩亚</t>
+  </si>
+  <si>
+    <t>Midway Island, Samoa</t>
+  </si>
+  <si>
+    <t>trans0282</t>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>trans0283</t>
+  </si>
+  <si>
+    <t>阿拉斯加</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>trans0284</t>
+  </si>
+  <si>
+    <t>美国西部标准时间，提华纳</t>
+  </si>
+  <si>
+    <t>Pacific Time, Tijuana</t>
+  </si>
+  <si>
+    <t>trans0285</t>
+  </si>
+  <si>
+    <t>亚利桑那州，马萨特兰</t>
+  </si>
+  <si>
+    <t>Arizona, Mazatlan</t>
+  </si>
+  <si>
+    <t>trans0286</t>
+  </si>
+  <si>
+    <t>奇瓦瓦，拉巴斯</t>
+  </si>
+  <si>
+    <t>Chihuahua, La Paz</t>
+  </si>
+  <si>
+    <t>trans0287</t>
+  </si>
+  <si>
+    <t>山地时区(加拿大)</t>
+  </si>
+  <si>
+    <t>Mountain Time</t>
+  </si>
+  <si>
+    <t>trans0288</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>trans0289</t>
+  </si>
+  <si>
+    <t>中央标准时间(用于美国和加拿大中部)</t>
+  </si>
+  <si>
+    <t>Central Time</t>
+  </si>
+  <si>
+    <t>trans0290</t>
+  </si>
+  <si>
+    <t>瓜达拉哈拉，墨西哥城，蒙特雷</t>
+  </si>
+  <si>
+    <t>Guadalajara, Mexico City, Monterrey</t>
+  </si>
+  <si>
+    <t>trans0291</t>
+  </si>
+  <si>
+    <t>萨斯喀彻温省</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>trans0292</t>
+  </si>
+  <si>
+    <t>波哥大，利马，基多</t>
+  </si>
+  <si>
+    <t>Bogota, Lima, Quito</t>
+  </si>
+  <si>
+    <t>trans0293</t>
+  </si>
+  <si>
+    <t>东部时间</t>
+  </si>
+  <si>
+    <t>Eastern Time</t>
+  </si>
+  <si>
+    <t>trans0294</t>
+  </si>
+  <si>
+    <t>印第安那州</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>trans0295</t>
+  </si>
+  <si>
+    <t>大西洋时间</t>
+  </si>
+  <si>
+    <t>Atlantic Time</t>
+  </si>
+  <si>
+    <t>trans0296</t>
+  </si>
+  <si>
+    <t>加拉加斯，拉巴斯</t>
+  </si>
+  <si>
+    <t>Caracas, La Paz</t>
+  </si>
+  <si>
+    <t>trans0297</t>
+  </si>
+  <si>
+    <t>圣地亚哥</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>trans0298</t>
+  </si>
+  <si>
+    <t>纽芬兰</t>
+  </si>
+  <si>
+    <t>Newfoundland</t>
+  </si>
+  <si>
+    <t>trans0299</t>
+  </si>
+  <si>
+    <t>巴西利亚</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>trans0300</t>
+  </si>
+  <si>
+    <t>布宜诺斯艾利斯，乔治敦</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Georgetown</t>
+  </si>
+  <si>
+    <t>trans0301</t>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>trans0302</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>Mid-Atlantic</t>
+  </si>
+  <si>
+    <t>trans0303</t>
+  </si>
+  <si>
+    <t>亚述尔群岛</t>
+  </si>
+  <si>
+    <t>Azores</t>
+  </si>
+  <si>
+    <t>trans0304</t>
+  </si>
+  <si>
+    <t>佛得角群岛</t>
+  </si>
+  <si>
+    <t>Cape Verde Is.</t>
+  </si>
+  <si>
+    <t>trans0305</t>
+  </si>
+  <si>
+    <t>卡萨布兰卡，蒙罗维亚</t>
+  </si>
+  <si>
+    <t>Casablanca, Monrovia</t>
+  </si>
+  <si>
+    <t>trans0306</t>
+  </si>
+  <si>
+    <t>格林尼治标准时间：都柏林，爱丁堡，里斯本,伦敦</t>
+  </si>
+  <si>
+    <t>Greenwich Mean Time: Dublin, Edinburgh, Lisbon, London</t>
+  </si>
+  <si>
+    <t>trans0307</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹，柏林，伯尔尼, 罗马，斯德哥尔摩，维也纳</t>
+  </si>
+  <si>
+    <t>Amsterdam, Berlin, Bern, Rome, Stockholm, Vienna</t>
+  </si>
+  <si>
+    <t>trans0308</t>
+  </si>
+  <si>
+    <t>贝尔格莱德，布拉迪斯拉发，卢布尔雅那，布拉格</t>
+  </si>
+  <si>
+    <t>Belgrade, Bratislava, Budapest, Ljubljana, Prague</t>
+  </si>
+  <si>
+    <t>trans0309</t>
+  </si>
+  <si>
+    <t>布鲁塞尔，哥本哈根，马德里，巴黎</t>
+  </si>
+  <si>
+    <t>Brussels, Copenhagen, Madrid, Paris</t>
+  </si>
+  <si>
+    <t>trans0310</t>
+  </si>
+  <si>
+    <t>萨拉热窝，斯科普里，华沙，萨格勒布</t>
+  </si>
+  <si>
+    <t>Sarajevo, Skopje, Warsaw, Zagreb</t>
+  </si>
+  <si>
+    <t>trans0311</t>
+  </si>
+  <si>
+    <t>中西非</t>
+  </si>
+  <si>
+    <t>West Central Africa</t>
+  </si>
+  <si>
+    <t>trans0312</t>
+  </si>
+  <si>
+    <t>雅典，伊斯坦布尔，明斯克</t>
+  </si>
+  <si>
+    <t>Athens, Istanbul, Minsk</t>
+  </si>
+  <si>
+    <t>trans0313</t>
+  </si>
+  <si>
+    <t>布加勒斯特</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>trans0314</t>
+  </si>
+  <si>
+    <t>开罗</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>trans0315</t>
+  </si>
+  <si>
+    <t>哈拉雷，比勒陀利亚</t>
+  </si>
+  <si>
+    <t>Harare, Pretoria</t>
+  </si>
+  <si>
+    <t>trans0316</t>
+  </si>
+  <si>
+    <t>赫尔辛基，基辅，里加，索非亚，塔林, 维尔纽斯</t>
+  </si>
+  <si>
+    <t>Helsinki, Kyiv, Riga, Sofia, Tallinn, Vilnius</t>
+  </si>
+  <si>
+    <t>trans0317</t>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>trans0318</t>
+  </si>
+  <si>
+    <t>巴格达</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>trans0319</t>
+  </si>
+  <si>
+    <t>科威特，利雅得</t>
+  </si>
+  <si>
+    <t>Kuwait, Riyadh</t>
+  </si>
+  <si>
+    <t>trans0320</t>
+  </si>
+  <si>
+    <t>莫斯科，圣彼得堡，伏尔加格勒</t>
+  </si>
+  <si>
+    <t>Moscow, St. Petersburg, Volgograd</t>
+  </si>
+  <si>
+    <t>trans0321</t>
+  </si>
+  <si>
+    <t>奈洛比</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>trans0322</t>
+  </si>
+  <si>
+    <t>德黑兰</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>trans0323</t>
+  </si>
+  <si>
+    <t>阿布扎比，马斯喀特</t>
+  </si>
+  <si>
+    <t>Abu Dhabi, Muscat</t>
+  </si>
+  <si>
+    <t>trans0324</t>
+  </si>
+  <si>
+    <t>巴库，第比利斯，耶烈万</t>
+  </si>
+  <si>
+    <t>Baku, Tbilisi, Yerevan</t>
+  </si>
+  <si>
+    <t>trans0325</t>
+  </si>
+  <si>
+    <t>喀布尔</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>trans0326</t>
+  </si>
+  <si>
+    <t>叶卡特琳堡</t>
+  </si>
+  <si>
+    <t>Ekaterinburg</t>
+  </si>
+  <si>
+    <t>trans0327</t>
+  </si>
+  <si>
+    <t>伊斯兰堡，卡拉奇，塔什干</t>
+  </si>
+  <si>
+    <t>Islamabad, Karachi, Tashkent</t>
+  </si>
+  <si>
+    <t>trans0328</t>
+  </si>
+  <si>
+    <t>清奈，加尔各答，孟买，新德里</t>
+  </si>
+  <si>
+    <t>Chennai, Kolkata, Mumbai, New Delhi</t>
+  </si>
+  <si>
+    <t>trans0329</t>
+  </si>
+  <si>
+    <t>加德满都</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>trans0330</t>
+  </si>
+  <si>
+    <t>阿拉木图，新西伯利亚</t>
+  </si>
+  <si>
+    <t>Almaty, Novosibirsk</t>
+  </si>
+  <si>
+    <t>trans0331</t>
+  </si>
+  <si>
+    <t>阿斯坦纳，达卡</t>
+  </si>
+  <si>
+    <t>Astana, Dhaka</t>
+  </si>
+  <si>
+    <t>trans0332</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>Sri Jayawardenepura</t>
+  </si>
+  <si>
+    <t>trans0333</t>
+  </si>
+  <si>
+    <t>仰光</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>trans0334</t>
+  </si>
+  <si>
+    <t>曼谷，河内，雅加达</t>
+  </si>
+  <si>
+    <t>Bangkok, Hanoi, Jakarta</t>
+  </si>
+  <si>
+    <t>trans0335</t>
+  </si>
+  <si>
+    <t>拉斯诺亚尔斯克</t>
+  </si>
+  <si>
+    <t>Krasnoyarsk</t>
+  </si>
+  <si>
+    <t>trans0336</t>
+  </si>
+  <si>
+    <t>北京，重庆，香港，乌鲁木齐</t>
+  </si>
+  <si>
+    <t>Beijing, Chongqing, Hong Kong, Urumqi</t>
+  </si>
+  <si>
+    <t>trans0337</t>
+  </si>
+  <si>
+    <t>伊尔库次克，乌兰巴托</t>
+  </si>
+  <si>
+    <t>Irkutsk, Ulaan Bataar</t>
+  </si>
+  <si>
+    <t>trans0338</t>
+  </si>
+  <si>
+    <t>吉隆坡，新加坡</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur, Singapore</t>
+  </si>
+  <si>
+    <t>trans0339</t>
+  </si>
+  <si>
+    <t>珀斯</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>trans0340</t>
+  </si>
+  <si>
+    <t>台北</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>trans0341</t>
+  </si>
+  <si>
+    <t>大阪，札幌，东京</t>
+  </si>
+  <si>
+    <t>Osaka, Sapporo, Tokyo</t>
+  </si>
+  <si>
+    <t>trans0342</t>
+  </si>
+  <si>
+    <t>首尔</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>trans0343</t>
+  </si>
+  <si>
+    <t>雅库茨克</t>
+  </si>
+  <si>
+    <t>Yakutsk</t>
+  </si>
+  <si>
+    <t>trans0344</t>
+  </si>
+  <si>
+    <t>阿德莱德</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>trans0345</t>
+  </si>
+  <si>
+    <t>达尔文</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>trans0346</t>
+  </si>
+  <si>
+    <t>布里斯班</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>trans0347</t>
+  </si>
+  <si>
+    <t>堪培拉，墨尔本，悉尼</t>
+  </si>
+  <si>
+    <t>Canberra, Melbourne, Sydney</t>
+  </si>
+  <si>
+    <t>trans0348</t>
+  </si>
+  <si>
+    <t>关岛，莫尔兹比港</t>
+  </si>
+  <si>
+    <t>Guam, Port Moresby</t>
+  </si>
+  <si>
+    <t>trans0349</t>
+  </si>
+  <si>
+    <t>霍巴特</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>trans0350</t>
+  </si>
+  <si>
+    <t>符拉迪沃斯托克</t>
+  </si>
+  <si>
+    <t>Vladivostok</t>
+  </si>
+  <si>
+    <t>trans0351</t>
+  </si>
+  <si>
+    <t>马加丹</t>
+  </si>
+  <si>
+    <t>Magadan</t>
+  </si>
+  <si>
+    <t>trans0352</t>
+  </si>
+  <si>
+    <t>所罗门群岛，新喀里多尼亚</t>
+  </si>
+  <si>
+    <t>Solomon Is., New Caledonia</t>
+  </si>
+  <si>
+    <t>trans0353</t>
+  </si>
+  <si>
+    <t>奥克兰，惠灵顿</t>
+  </si>
+  <si>
+    <t>Auckland, Wellington</t>
+  </si>
+  <si>
+    <t>trans0354</t>
+  </si>
+  <si>
+    <t>斐济，堪察加半岛，马绍尔群岛</t>
+  </si>
+  <si>
+    <t>Fiji, Kamchatka, Marshall Is.</t>
+  </si>
+  <si>
+    <t>trans0355</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>trans0356</t>
+  </si>
+  <si>
+    <t>请输入 SNTP 服务器地址</t>
+  </si>
+  <si>
+    <t>Please enter the SNTP server address</t>
+  </si>
+  <si>
+    <t>trans0357</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>trans0358</t>
+  </si>
+  <si>
+    <t>定期通知时间间隔不合法</t>
+  </si>
+  <si>
+    <t>Periodic notification time interval is invalid.</t>
+  </si>
+  <si>
+    <t>trans0359</t>
+  </si>
+  <si>
+    <t>ACS URL不合法</t>
+  </si>
+  <si>
+    <t>ACS URL is invalid</t>
+  </si>
+  <si>
+    <t>trans0360</t>
+  </si>
+  <si>
+    <t>平台用户名不合法</t>
+  </si>
+  <si>
+    <t>Platform user name is invalid</t>
+  </si>
+  <si>
+    <t>trans0361</t>
+  </si>
+  <si>
+    <t>平台用户名密码不合法</t>
+  </si>
+  <si>
+    <t>Platform password is invalid</t>
+  </si>
+  <si>
+    <t>trans0362</t>
+  </si>
+  <si>
+    <t>终端用户名不合法</t>
+  </si>
+  <si>
+    <t>Terminal user name is invalid</t>
+  </si>
+  <si>
+    <t>trans0363</t>
+  </si>
+  <si>
+    <t>终端用户密码不合法</t>
+  </si>
+  <si>
+    <t>Terminal password is invalid</t>
+  </si>
+  <si>
+    <t>trans0364</t>
+  </si>
+  <si>
+    <t>应该由字母，数字，和字符组成</t>
+  </si>
+  <si>
+    <t>should consist of letter,digit and some character such as:</t>
+  </si>
+  <si>
+    <t>trans0365</t>
+  </si>
+  <si>
+    <t>工作模式</t>
+  </si>
+  <si>
+    <t>Work Mode</t>
+  </si>
+  <si>
+    <t>trans0366</t>
+  </si>
+  <si>
+    <t>文件格式错误，请重试</t>
+  </si>
+  <si>
+    <t>File format error,please retry</t>
+  </si>
+  <si>
+    <t>trans0367</t>
+  </si>
+  <si>
+    <t>因该开始</t>
+  </si>
+  <si>
+    <t>should begin with</t>
+  </si>
+  <si>
+    <t>trans0368</t>
+  </si>
+  <si>
+    <t>或</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>trans0369</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>trans0370</t>
+  </si>
+  <si>
+    <t>定期通知时间不合法</t>
+  </si>
+  <si>
+    <t>Periodic notification time is invalid</t>
+  </si>
+  <si>
+    <t>trans0371</t>
+  </si>
+  <si>
+    <t>trans0372</t>
+  </si>
+  <si>
+    <t>trans0373</t>
+  </si>
+  <si>
+    <t>%s 在 [%d-%d]范围内</t>
+  </si>
+  <si>
+    <t>%s is in the range [%d-%d]</t>
+  </si>
+  <si>
+    <t>trans0374</t>
+  </si>
+  <si>
+    <t>Periodic Notification Interval</t>
+  </si>
+  <si>
+    <t>trans0375</t>
+  </si>
+  <si>
+    <t>IGMP</t>
+  </si>
+  <si>
+    <t>trans0376</t>
+  </si>
+  <si>
+    <t>MLD</t>
+  </si>
+  <si>
+    <t>trans0377</t>
+  </si>
+  <si>
+    <t>trans0378</t>
+  </si>
+  <si>
+    <t>只能填写数字</t>
+  </si>
+  <si>
+    <t>Can only be digits</t>
+  </si>
+  <si>
+    <t>trans0379</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>Versoin</t>
+  </si>
+  <si>
+    <t>trans0380</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>trans0381</t>
+  </si>
+  <si>
+    <t>健壮性</t>
+  </si>
+  <si>
+    <t>Robustness</t>
+  </si>
+  <si>
+    <t>trans0382</t>
+  </si>
+  <si>
+    <t>一般查询间隔</t>
+  </si>
+  <si>
+    <t>General Query Interval</t>
+  </si>
+  <si>
+    <t>trans0383</t>
+  </si>
+  <si>
+    <t>一般查询响应超时期限</t>
+  </si>
+  <si>
+    <t>General Query Response Timeout Period</t>
+  </si>
+  <si>
+    <t>trans0384</t>
+  </si>
+  <si>
+    <t>最后成员查询间隔</t>
+  </si>
+  <si>
+    <t>Last Member Query Interval</t>
+  </si>
+  <si>
+    <t>trans0385</t>
+  </si>
+  <si>
+    <t>主动报告间隔</t>
+  </si>
+  <si>
+    <t>Unsolicited Report Interval</t>
+  </si>
+  <si>
+    <t>trans0386</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>trans0387</t>
+  </si>
+  <si>
+    <t>Snooping</t>
+  </si>
+  <si>
+    <t>trans0388</t>
+  </si>
+  <si>
+    <t>%s 范围：%d - %d</t>
+  </si>
+  <si>
+    <t>%s value is out of range %d - %d</t>
+  </si>
+  <si>
+    <t>trans0389</t>
+  </si>
+  <si>
+    <t>DHCP静态IP配置</t>
+  </si>
+  <si>
+    <t>DHCP Static IP Configuration</t>
+  </si>
+  <si>
+    <t>trans0390</t>
+  </si>
+  <si>
+    <t>此时主设备的组网图显示已加入从设备</t>
+  </si>
+  <si>
+    <t>At this time, the network topo of the controller device shows that it has joined the agent device</t>
+  </si>
+  <si>
+    <t>trans0391</t>
+  </si>
+  <si>
+    <t>确定导出日志文件吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to export the log file?</t>
+  </si>
+  <si>
+    <t>trans0393</t>
+  </si>
+  <si>
+    <t>trans0394</t>
+  </si>
+  <si>
+    <t>设备IP将发生变化，请应用后通过LAN IP重新登录</t>
+  </si>
+  <si>
+    <t>The IP address of the device will be changed. Please relogin using the LAN IP after applying.</t>
+  </si>
+  <si>
+    <t>trans0395</t>
+  </si>
+  <si>
+    <t>网口设置</t>
+  </si>
+  <si>
+    <t>Port settings</t>
+  </si>
+  <si>
+    <t>trans0396</t>
+  </si>
+  <si>
+    <t>XX:XX:XX:XX:XX:XX</t>
+  </si>
+  <si>
+    <t>trans0397</t>
+  </si>
+  <si>
+    <t>地址不合法</t>
+  </si>
+  <si>
+    <t>Address is invalid</t>
+  </si>
+  <si>
+    <t>trans0398</t>
+  </si>
+  <si>
+    <t>%s不在有效的IP地址范围内。</t>
+  </si>
+  <si>
+    <t>%s is not within the valid range</t>
+  </si>
+  <si>
+    <t>trans0399</t>
+  </si>
+  <si>
+    <t>IP地址已经存在</t>
+  </si>
+  <si>
+    <t>The IP address already exists</t>
+  </si>
+  <si>
+    <t>trans0400</t>
+  </si>
+  <si>
+    <t>Mac地址已经存在</t>
+  </si>
+  <si>
+    <t>The Mac address already exists</t>
+  </si>
+  <si>
+    <t>trans0401</t>
+  </si>
+  <si>
+    <t>设备访问控制</t>
+  </si>
+  <si>
+    <t>Device Access Control</t>
+  </si>
+  <si>
+    <t>trans0402</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>trans0403</t>
+  </si>
+  <si>
+    <t>到平台的网络不通</t>
+  </si>
+  <si>
+    <t>No response</t>
+  </si>
+  <si>
+    <t>trans0404</t>
+  </si>
+  <si>
+    <t>已经到最大%d条%s与%s绑定条</t>
+  </si>
+  <si>
+    <t>The maximum %d binding bars between %s and %s has been reached</t>
+  </si>
+  <si>
+    <t>trans0405</t>
+  </si>
+  <si>
+    <t>已存在相同的域名</t>
+  </si>
+  <si>
+    <t>The same domain name already exists</t>
+  </si>
+  <si>
+    <t>trans0406</t>
+  </si>
+  <si>
+    <t>Port Mapping</t>
+  </si>
+  <si>
+    <t>trans0407</t>
+  </si>
+  <si>
+    <t>DHCPv4</t>
+  </si>
+  <si>
+    <t>trans0408</t>
+  </si>
+  <si>
+    <t>DHCPv6</t>
+  </si>
+  <si>
+    <t>trans0409</t>
+  </si>
+  <si>
+    <t>确定删除选择的规则吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to delete the selected rule?</t>
+  </si>
+  <si>
+    <t>trans0410</t>
+  </si>
+  <si>
+    <t>删除成功</t>
+  </si>
+  <si>
+    <t>Deletion successful.</t>
+  </si>
+  <si>
+    <t>trans0411</t>
+  </si>
+  <si>
+    <t>只允许选择一条记录删除</t>
+  </si>
+  <si>
+    <t>Only allow to select one record to delete</t>
+  </si>
+  <si>
+    <t>trans0412</t>
+  </si>
+  <si>
+    <t>连接中断</t>
+  </si>
+  <si>
+    <t>Connection Interrputed</t>
+  </si>
+  <si>
+    <t>trans0413</t>
+  </si>
+  <si>
+    <t>XXXX:XXXX:XXXX:XXXX</t>
+  </si>
+  <si>
+    <t>trans0414</t>
+  </si>
+  <si>
+    <t>接口 ID</t>
+  </si>
+  <si>
+    <t>Interface ID</t>
+  </si>
+  <si>
+    <t>trans0415</t>
+  </si>
+  <si>
+    <t>局域网 IP 地址</t>
+  </si>
+  <si>
+    <t>LAN IP Address</t>
+  </si>
+  <si>
+    <t>trans0416</t>
+  </si>
+  <si>
+    <t>接口ID %s 不正确，正确的格式为（XXXX:XXXX:XXXX:XXXX）。</t>
+  </si>
+  <si>
+    <t>Interface ID %s Incorrect,the correct format is (XXXX:XXXX:XXXX:XXXX).</t>
+  </si>
+  <si>
+    <t>trans0417</t>
+  </si>
+  <si>
+    <t>工厂</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>trans0418</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>trans0419</t>
+  </si>
+  <si>
+    <t>MAC 地址 %s 不正确，正确的格式是（AA:BB:CC:DD:EE:FF）</t>
+  </si>
+  <si>
+    <t>MAC address  %s  Incorrect,the correct format is (AA:BB:CC:DD:EE:FF)</t>
+  </si>
+  <si>
+    <t>trans0420</t>
+  </si>
+  <si>
+    <t>接口ID值是一个十六进制数字，不能超过64个字符</t>
+  </si>
+  <si>
+    <t>Interface ID value is a hexadecimal digits and cannot exceed 64 characters</t>
+  </si>
+  <si>
+    <t>trans0421</t>
+  </si>
+  <si>
+    <t>接口ID已经存在</t>
+  </si>
+  <si>
+    <t>Interface ID already exists</t>
+  </si>
+  <si>
+    <t>trans0422</t>
+  </si>
+  <si>
+    <t>端口映射</t>
+  </si>
+  <si>
+    <t>trans0423</t>
+  </si>
+  <si>
+    <t>Customize</t>
+  </si>
+  <si>
+    <t>trans0424</t>
+  </si>
+  <si>
+    <t>选择模板</t>
+  </si>
+  <si>
+    <t>Select Template</t>
+  </si>
+  <si>
+    <t>trans0425</t>
+  </si>
+  <si>
+    <t>映射名称</t>
+  </si>
+  <si>
+    <t>Mapping Name</t>
+  </si>
+  <si>
+    <t>trans0426</t>
+  </si>
+  <si>
+    <t>模板</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>trans0427</t>
+  </si>
+  <si>
+    <t>Port Trigger 配置</t>
+  </si>
+  <si>
+    <t>Port Trigger Configuration</t>
+  </si>
+  <si>
+    <t>trans0428</t>
+  </si>
+  <si>
+    <t>设备网络信息</t>
+  </si>
+  <si>
+    <t>Device network information</t>
+  </si>
+  <si>
+    <t>trans0429</t>
+  </si>
+  <si>
+    <t>Port Trigger 开关</t>
+  </si>
+  <si>
+    <t>Enable Port Trigger</t>
+  </si>
+  <si>
+    <t>trans0430</t>
+  </si>
+  <si>
+    <t>Trigger 协议</t>
+  </si>
+  <si>
+    <t>Trigger Protocol</t>
+  </si>
+  <si>
+    <t>trans0431</t>
+  </si>
+  <si>
+    <t>打开协议</t>
+  </si>
+  <si>
+    <t>Open Protocol</t>
+  </si>
+  <si>
+    <t>trans0432</t>
+  </si>
+  <si>
+    <t>启动Trigger端口</t>
+  </si>
+  <si>
+    <t>Start Trigger Port</t>
+  </si>
+  <si>
+    <t>trans0433</t>
+  </si>
+  <si>
+    <t>关闭Trigger端口</t>
+  </si>
+  <si>
+    <t>End Trigger Port</t>
+  </si>
+  <si>
+    <t>trans0434</t>
+  </si>
+  <si>
+    <t>开启端口</t>
+  </si>
+  <si>
+    <t>Start Open Port</t>
+  </si>
+  <si>
+    <t>trans0435</t>
+  </si>
+  <si>
+    <t>关闭端口</t>
+  </si>
+  <si>
+    <t>End Open Port</t>
+  </si>
+  <si>
+    <t>trans0436</t>
+  </si>
+  <si>
+    <t>跳过向导</t>
+  </si>
+  <si>
+    <t>Skip Wizard</t>
+  </si>
+  <si>
+    <t>trans0437</t>
+  </si>
+  <si>
+    <t>起始触发端口必须为1 ~ 65535之间的整数</t>
+  </si>
+  <si>
+    <t>Start Trigger Port is must be an integer ranging from 1 to 65535</t>
+  </si>
+  <si>
+    <t>trans0438</t>
+  </si>
+  <si>
+    <t>结束起始触发端口必须大于起始触发端口。</t>
+  </si>
+  <si>
+    <t>The end trigger port must be greater than the start trigger port .</t>
+  </si>
+  <si>
+    <t>trans0439</t>
+  </si>
+  <si>
+    <t>触发端口已经存在。</t>
+  </si>
+  <si>
+    <t>The trigger port already exists.</t>
+  </si>
+  <si>
+    <t>trans0440</t>
+  </si>
+  <si>
+    <t>端口状态</t>
+  </si>
+  <si>
+    <t>Port Status</t>
+  </si>
+  <si>
+    <t>trans0441</t>
+  </si>
+  <si>
+    <t>结束触发端口必须为1 ~ 65535之间的整数</t>
+  </si>
+  <si>
+    <t>End Trigger Port is must be an integer ranging from 1 to 65535</t>
+  </si>
+  <si>
+    <t>trans0442</t>
+  </si>
+  <si>
+    <t>确认跳过向导吗</t>
+  </si>
+  <si>
+    <t>Are you sure to skip wizard?</t>
+  </si>
+  <si>
+    <t>trans0443</t>
+  </si>
+  <si>
+    <t>开启端口必须为1 ~ 65535之间的整数</t>
+  </si>
+  <si>
+    <t>Start Open Port is must be an integer ranging from 1 to 65535</t>
+  </si>
+  <si>
+    <t>trans0444</t>
+  </si>
+  <si>
+    <t>结束开放端口必须大于起始开放端口。</t>
+  </si>
+  <si>
+    <t>The end open port must be smaller than  the start open port .</t>
+  </si>
+  <si>
+    <t>trans0445</t>
+  </si>
+  <si>
+    <t>开放端口已经存在。</t>
+  </si>
+  <si>
+    <t>The Open Port already exists.</t>
+  </si>
+  <si>
+    <t>trans0446</t>
+  </si>
+  <si>
+    <t>外部主机</t>
+  </si>
+  <si>
+    <t>External Host</t>
+  </si>
+  <si>
+    <t>trans0447</t>
+  </si>
+  <si>
+    <t>远端WEB管理</t>
+  </si>
+  <si>
+    <t>Remote web management</t>
+  </si>
+  <si>
+    <t>trans0448</t>
+  </si>
+  <si>
+    <t>事件解释Port触发器数量已达到上限。Port触发器的最大个数为16。</t>
+  </si>
+  <si>
+    <t>The number of Port trigger reached the upper limit. The maximum number of Port trigger was 16.</t>
+  </si>
+  <si>
+    <t>trans0449</t>
+  </si>
+  <si>
+    <t>内部主机</t>
+  </si>
+  <si>
+    <t>Internal Host</t>
+  </si>
+  <si>
+    <t>trans0450</t>
+  </si>
+  <si>
+    <t>VLAN/Priority</t>
+  </si>
+  <si>
+    <t>trans0451</t>
+  </si>
+  <si>
+    <t>开放端口必须为1 ~ 65535之间的整数</t>
+  </si>
+  <si>
+    <t>End Open Port is must be an integer ranging from 1 to 65535</t>
+  </si>
+  <si>
+    <t>trans0452</t>
+  </si>
+  <si>
+    <t>端口不合法</t>
+  </si>
+  <si>
+    <t>Port is invalid</t>
+  </si>
+  <si>
+    <t>trans0453</t>
+  </si>
+  <si>
+    <t>长度不合法</t>
+  </si>
+  <si>
+    <t>Length is invalid</t>
+  </si>
+  <si>
+    <t>trans0454</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>trans0455</t>
+  </si>
+  <si>
+    <t>防范 ICMP Redirection 攻击</t>
+  </si>
+  <si>
+    <t>Prevent ICMP Redirection Attack</t>
+  </si>
+  <si>
+    <t>trans0456</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>trans0457</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>trans0458</t>
+  </si>
+  <si>
+    <t>设备运行信息</t>
+  </si>
+  <si>
+    <t>Device running information</t>
+  </si>
+  <si>
+    <t>trans0459</t>
+  </si>
+  <si>
+    <t>子网掩码</t>
+  </si>
+  <si>
+    <t>Subnet Mask</t>
+  </si>
+  <si>
+    <t>trans0460</t>
+  </si>
+  <si>
+    <t>DHCP 服务器</t>
+  </si>
+  <si>
+    <t>DHCP Server</t>
+  </si>
+  <si>
+    <t>trans0461</t>
+  </si>
+  <si>
+    <t>租期</t>
+  </si>
+  <si>
+    <t>Lease Time</t>
+  </si>
+  <si>
+    <t>trans0462</t>
+  </si>
+  <si>
+    <t>1 小时 | {val} 小时</t>
+  </si>
+  <si>
+    <t>1 hour | {val} hours</t>
+  </si>
+  <si>
+    <t>trans0463</t>
+  </si>
+  <si>
+    <t>1 天 | {val} 天</t>
+  </si>
+  <si>
+    <t>1 day | {val} days</t>
+  </si>
+  <si>
+    <t>trans0464</t>
+  </si>
+  <si>
+    <t>1 周 | {val} 周</t>
+  </si>
+  <si>
+    <t>1 week | {val} weeks</t>
+  </si>
+  <si>
+    <t>trans0465</t>
+  </si>
+  <si>
+    <t>WAN 和 LAN IP 地址不能在同一网段</t>
+  </si>
+  <si>
+    <t>WAN IP and LAN IP cannot be on the same network segment</t>
+  </si>
+  <si>
+    <t>trans0466</t>
+  </si>
+  <si>
+    <t>trans0467</t>
+  </si>
+  <si>
+    <t>结束 IP 必须大于开始 IP</t>
+  </si>
+  <si>
+    <t>End IP must be greater than start IP</t>
+  </si>
+  <si>
+    <t>trans0468</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>trans0469</t>
+  </si>
+  <si>
+    <t>%s 配置</t>
+  </si>
+  <si>
+    <t>%s Configuration</t>
+  </si>
+  <si>
+    <t>trans0470</t>
+  </si>
+  <si>
+    <t>如果一个 IPv6 地址的首选寿命到期了，一般都禁止使用这个地址来启动新的连接</t>
+  </si>
+  <si>
+    <t>If the primary time of IPv6 address expire, it will be prohibited to start the new connection</t>
+  </si>
+  <si>
+    <t>trans0471</t>
+  </si>
+  <si>
+    <t>自动配置</t>
+  </si>
+  <si>
+    <t>AutoConfigured</t>
+  </si>
+  <si>
+    <t>trans0472</t>
+  </si>
+  <si>
+    <t>DHCPv6 服务器</t>
+  </si>
+  <si>
+    <t>DHCPv6 Server</t>
+  </si>
+  <si>
+    <t>trans0473</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>trans0474</t>
+  </si>
+  <si>
+    <t>当结束时间小于开始时间时，结束时间要下一天才结束</t>
+  </si>
+  <si>
+    <t>If the start time is later than the end time, the duration spans from the current day into the next day</t>
+  </si>
+  <si>
+    <t>trans0475</t>
+  </si>
+  <si>
+    <t>RA 模式</t>
+  </si>
+  <si>
+    <t>RA Mode</t>
+  </si>
+  <si>
+    <t>trans0476</t>
+  </si>
+  <si>
+    <t>前缀</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>trans0477</t>
+  </si>
+  <si>
+    <t>前缀长度</t>
+  </si>
+  <si>
+    <t>Prefix Length</t>
+  </si>
+  <si>
+    <t>trans0478</t>
+  </si>
+  <si>
+    <t>首选寿命</t>
+  </si>
+  <si>
+    <t>Preferred Lifetime</t>
+  </si>
+  <si>
+    <t>trans0479</t>
+  </si>
+  <si>
+    <t>有效寿命</t>
+  </si>
+  <si>
+    <t>Valid Lifetime</t>
+  </si>
+  <si>
+    <t>trans0480</t>
+  </si>
+  <si>
+    <t>RA 消息最小间隔</t>
+  </si>
+  <si>
+    <t>RA minimum interval</t>
+  </si>
+  <si>
+    <t>trans0481</t>
+  </si>
+  <si>
+    <t>RA 消息最大间隔</t>
+  </si>
+  <si>
+    <t>RA maximal interval</t>
+  </si>
+  <si>
+    <t>trans0482</t>
+  </si>
+  <si>
+    <t>设备信息</t>
+  </si>
+  <si>
+    <t>Device Information</t>
+  </si>
+  <si>
+    <t>trans0483</t>
+  </si>
+  <si>
+    <t>Managed 标志</t>
+  </si>
+  <si>
+    <t>Managed Flag</t>
+  </si>
+  <si>
+    <t>trans0484</t>
+  </si>
+  <si>
+    <t>Other 标志</t>
+  </si>
+  <si>
+    <t>Other Flag</t>
+  </si>
+  <si>
+    <t>trans0485</t>
+  </si>
+  <si>
+    <t>前缀来源</t>
+  </si>
+  <si>
+    <t>Prefix Source</t>
+  </si>
+  <si>
+    <t>trans0486</t>
+  </si>
+  <si>
+    <t>手动配置</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>trans0487</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>trans0488</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>Second(s)</t>
+  </si>
+  <si>
+    <t>trans0489</t>
+  </si>
+  <si>
+    <t>分配地址格式</t>
+  </si>
+  <si>
+    <t>Address Assignment Mode</t>
+  </si>
+  <si>
+    <t>trans0490</t>
+  </si>
+  <si>
+    <t>EUI64地址格式</t>
+  </si>
+  <si>
+    <t>EUI64 Address Format</t>
+  </si>
+  <si>
+    <t>trans0491</t>
+  </si>
+  <si>
+    <t>地址池格式</t>
+  </si>
+  <si>
+    <t>Address Pool Format</t>
+  </si>
+  <si>
+    <t>trans0492</t>
+  </si>
+  <si>
+    <t>配置模式</t>
+  </si>
+  <si>
+    <t>Configuration Mode</t>
+  </si>
+  <si>
+    <t>trans0493</t>
+  </si>
+  <si>
+    <t>DNS 配置方式</t>
+  </si>
+  <si>
+    <t>DNS Obtaining Method</t>
+  </si>
+  <si>
+    <t>trans0494</t>
+  </si>
+  <si>
+    <t>有线</t>
+  </si>
+  <si>
+    <t>wired</t>
+  </si>
+  <si>
+    <t>trans0495</t>
+  </si>
+  <si>
+    <t>有线设备</t>
+  </si>
+  <si>
+    <t>Wired Device</t>
+  </si>
+  <si>
+    <t>trans0496</t>
+  </si>
+  <si>
+    <t>首选DNS</t>
+  </si>
+  <si>
+    <t>Primary DNS</t>
+  </si>
+  <si>
+    <t>trans0497</t>
+  </si>
+  <si>
+    <t>备用DNS</t>
+  </si>
+  <si>
+    <t>Second DNS</t>
+  </si>
+  <si>
+    <t>trans0498</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>trans0499</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>Day(s)</t>
+  </si>
+  <si>
+    <t>trans0500</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>Hour(s)</t>
+  </si>
+  <si>
+    <t>trans0501</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
+    <t>Minute(s)</t>
+  </si>
+  <si>
+    <t>trans0502</t>
+  </si>
+  <si>
+    <t>WAN 口设定</t>
+  </si>
+  <si>
+    <t>WAN Port Settings</t>
+  </si>
+  <si>
+    <t>trans0503</t>
+  </si>
+  <si>
+    <t>自动选择 WAN 网口</t>
+  </si>
+  <si>
+    <t>Automatically select WAN port</t>
+  </si>
+  <si>
+    <t>trans0504</t>
+  </si>
+  <si>
+    <t>连接到网关的网线可以插在任意网口</t>
+  </si>
+  <si>
+    <t>The ethernet cable connected to the gateway can be plugged into any ethernet port</t>
+  </si>
+  <si>
+    <t>trans0505</t>
+  </si>
+  <si>
+    <t>固定 WAN 网口</t>
+  </si>
+  <si>
+    <t>Fixed WAN port</t>
+  </si>
+  <si>
+    <t>trans0506</t>
+  </si>
+  <si>
+    <t>连接到网关的网线需要插在靠近电源的网口</t>
+  </si>
+  <si>
+    <t>The ethernet cable connected to the gateway needs to be plugged into the ethernet port close to the power supply</t>
+  </si>
+  <si>
+    <t>trans0507</t>
+  </si>
+  <si>
+    <t>信道</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>trans0508</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>trans0509</t>
+  </si>
+  <si>
+    <t>频宽</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>trans0510</t>
+  </si>
+  <si>
+    <t>自适应(%d)</t>
+  </si>
+  <si>
+    <t>Auto (%d)</t>
+  </si>
+  <si>
+    <t>trans0511</t>
+  </si>
+  <si>
+    <t>Wi-Fi 定时关闭</t>
+  </si>
+  <si>
+    <t>Automatic Turn Off Wi-Fi</t>
+  </si>
+  <si>
+    <t>trans0512</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>trans0513</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>trans0514</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>Everyday</t>
+  </si>
+  <si>
+    <t>trans0515</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>trans0516</t>
+  </si>
+  <si>
+    <t>不能与默认域名相同</t>
+  </si>
+  <si>
+    <t>Cannot be the same as the default domain name</t>
+  </si>
+  <si>
+    <t>trans0517</t>
+  </si>
+  <si>
+    <t>开启时长</t>
+  </si>
+  <si>
+    <t>Opening duration</t>
+  </si>
+  <si>
+    <t>trans0518</t>
+  </si>
+  <si>
+    <t>Bridge（AP）模式切换到路由模式后，推荐通过%s页面管理本设备</t>
+  </si>
+  <si>
+    <t>After switching from bridge mode to router mode, it is recommended to enter the WEB through IP %s for management.</t>
+  </si>
+  <si>
+    <t>trans0519</t>
+  </si>
+  <si>
+    <t>5G Wi-Fi</t>
+  </si>
+  <si>
+    <t>trans0520</t>
+  </si>
+  <si>
+    <t>5G Wi-Fi 信道</t>
+  </si>
+  <si>
+    <t>5G Wi-Fi channels</t>
+  </si>
+  <si>
+    <t>trans0521</t>
+  </si>
+  <si>
+    <t>若要使用Mesh功能，推荐将 Wi-Fi 安全模式设置为 %s</t>
+  </si>
+  <si>
+    <t>To use the Mesh function, please set the Wi-Fi security mode to %s</t>
+  </si>
+  <si>
+    <t>trans0522</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>Remaining time</t>
+  </si>
+  <si>
+    <t>trans0523</t>
+  </si>
+  <si>
+    <t>1 秒 | {val} 秒</t>
+  </si>
+  <si>
+    <t>1 second | {val} seconds</t>
+  </si>
+  <si>
+    <t>trans0524</t>
+  </si>
+  <si>
+    <t>时间范围</t>
+  </si>
+  <si>
+    <t>Time Range</t>
+  </si>
+  <si>
+    <t>trans0525</t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>trans0526</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>trans0527</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>trans0528</t>
+  </si>
+  <si>
+    <t>有效寿命应大于首选寿命</t>
+  </si>
+  <si>
+    <t>Valid Lifetime should be greater than Preferred Lifetime</t>
+  </si>
+  <si>
+    <t>trans0529</t>
+  </si>
+  <si>
+    <t>Wi-Fi 高级设置</t>
+  </si>
+  <si>
+    <t>Wi-Fi advanced settings</t>
+  </si>
+  <si>
+    <t>trans0530</t>
+  </si>
+  <si>
+    <t>访客 Wi-Fi</t>
+  </si>
+  <si>
+    <t>Guest Wi-Fi</t>
+  </si>
+  <si>
+    <t>trans0531</t>
+  </si>
+  <si>
+    <t>正在检查上网类型，请稍候......</t>
+  </si>
+  <si>
+    <t>Checking the internet access mode, please wait...</t>
+  </si>
+  <si>
+    <t>trans0532</t>
+  </si>
+  <si>
+    <t>未检测到您的上网类型，请确认已用网线连接网关的LAN口和路由器的任意以太网口</t>
+  </si>
+  <si>
+    <t>Your Internet access type was not detected,Make sure you have connected the LAN port of the gateway and any ethernet port of the router with a ethernet cable</t>
+  </si>
+  <si>
+    <t>trans0533</t>
+  </si>
+  <si>
+    <t>网线已连接</t>
+  </si>
+  <si>
+    <t>Ethernet cable connected</t>
+  </si>
+  <si>
+    <t>trans0534</t>
+  </si>
+  <si>
+    <t>请确认路由器已连接至上级设备或网关</t>
+  </si>
+  <si>
+    <t>Please confirm that the router is connected to the upper level device or the gateway</t>
+  </si>
+  <si>
+    <t>trans0535</t>
+  </si>
+  <si>
+    <t>客人 Wi-Fi 名称</t>
+  </si>
+  <si>
+    <t>Guest SSID</t>
+  </si>
+  <si>
+    <t>trans0536</t>
+  </si>
+  <si>
+    <t>加密</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>trans0537</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>trans0538</t>
+  </si>
+  <si>
+    <t>Wi-Fi 已关闭</t>
+  </si>
+  <si>
+    <t>The Wi-Fi is disabled</t>
+  </si>
+  <si>
+    <t>trans0539</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>Basic Information</t>
+  </si>
+  <si>
+    <t>trans0540</t>
+  </si>
+  <si>
+    <t>产品型号</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>trans0541</t>
+  </si>
+  <si>
+    <t>序列号</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>trans0542</t>
+  </si>
+  <si>
+    <t>硬件版本</t>
+  </si>
+  <si>
+    <t>Hardware Version</t>
+  </si>
+  <si>
+    <t>trans0543</t>
+  </si>
+  <si>
+    <t>软件版本</t>
+  </si>
+  <si>
+    <t>Software Version</t>
+  </si>
+  <si>
+    <t>trans0544</t>
+  </si>
+  <si>
+    <t>%s 基础网络</t>
+  </si>
+  <si>
+    <t>%s Basic Network</t>
+  </si>
+  <si>
+    <t>trans0545</t>
+  </si>
+  <si>
+    <t>WAN MAC 地址</t>
+  </si>
+  <si>
+    <t>WAN MAC Address</t>
+  </si>
+  <si>
+    <t>trans0546</t>
+  </si>
+  <si>
+    <t>语音基础</t>
+  </si>
+  <si>
+    <t>VoIP Basic</t>
+  </si>
+  <si>
+    <t>trans0547</t>
+  </si>
+  <si>
+    <t>LAN Link-Local 地址设置</t>
+  </si>
+  <si>
+    <t>LAN Link-Local Address Settings</t>
+  </si>
+  <si>
+    <t>trans0548</t>
+  </si>
+  <si>
+    <t>默认网关</t>
+  </si>
+  <si>
+    <t>Default Gateway</t>
+  </si>
+  <si>
+    <t>trans0549</t>
+  </si>
+  <si>
+    <t>LAN 侧前缀</t>
+  </si>
+  <si>
+    <t>LAN Prefix</t>
+  </si>
+  <si>
+    <t>trans0550</t>
+  </si>
+  <si>
+    <t>LAN Link-Local 地址</t>
+  </si>
+  <si>
+    <t>LAN Link-Local Address</t>
+  </si>
+  <si>
+    <t>trans0551</t>
+  </si>
+  <si>
+    <t>WAN Link-Local 地址</t>
+  </si>
+  <si>
+    <t>WAN Link-Local Address</t>
+  </si>
+  <si>
+    <t>trans0552</t>
+  </si>
+  <si>
+    <t>IPv6 功能未启用</t>
+  </si>
+  <si>
+    <t>The ipv6 function is disabled</t>
+  </si>
+  <si>
+    <t>trans0553</t>
+  </si>
+  <si>
+    <t>网络诊断</t>
+  </si>
+  <si>
+    <t>Internet Diagnose</t>
+  </si>
+  <si>
+    <t>trans0554</t>
+  </si>
+  <si>
+    <t>Ping 测试</t>
+  </si>
+  <si>
+    <t>Ping Test</t>
+  </si>
+  <si>
+    <t>trans0555</t>
+  </si>
+  <si>
+    <t>重复</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>trans0556</t>
   </si>
   <si>
     <t>Destination Host</t>
-  </si>
-  <si>
-    <t>Host de destino</t>
-  </si>
-  <si>
-    <t>trans0139</t>
-  </si>
-  <si>
-    <t>目的端口</t>
-  </si>
-  <si>
-    <t>Destination Port</t>
-  </si>
-  <si>
-    <t>Puerto de destino</t>
-  </si>
-  <si>
-    <t>trans0140</t>
-  </si>
-  <si>
-    <t>WAN 名称</t>
-  </si>
-  <si>
-    <t>WAN Name</t>
-  </si>
-  <si>
-    <t>Nombre de WAN</t>
-  </si>
-  <si>
-    <t>trans0141</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>Operación</t>
-  </si>
-  <si>
-    <t>trans0142</t>
-  </si>
-  <si>
-    <t>暂无数据</t>
-  </si>
-  <si>
-    <t>No data</t>
-  </si>
-  <si>
-    <t>No hay datos disponibles</t>
-  </si>
-  <si>
-    <t>trans0143</t>
-  </si>
-  <si>
-    <t>上行ip过滤是否开启？</t>
-  </si>
-  <si>
-    <t>Is upstream ip filtering enabled?</t>
-  </si>
-  <si>
-    <t>¿ Está activado el filtrado de ip ascendente?</t>
-  </si>
-  <si>
-    <t>trans0144</t>
-  </si>
-  <si>
-    <t>上行ip过滤关闭？</t>
-  </si>
-  <si>
-    <t>Is upstream ip filtering disabled?</t>
-  </si>
-  <si>
-    <t>¿ Se cierra el filtrado de ip ascendente?</t>
-  </si>
-  <si>
-    <t>trans0145</t>
-  </si>
-  <si>
-    <t>下行ip过滤是否开启？</t>
-  </si>
-  <si>
-    <t>Is downstream ip filtering enabled?</t>
-  </si>
-  <si>
-    <t>¿ Está activado el filtrado de ip descendente?</t>
-  </si>
-  <si>
-    <t>trans0146</t>
-  </si>
-  <si>
-    <t>下行ip过滤关闭？</t>
-  </si>
-  <si>
-    <t>Is downstream ip filtering disabled?</t>
-  </si>
-  <si>
-    <t>¿ El filtro ip descendente está apagado?</t>
-  </si>
-  <si>
-    <t>trans0147</t>
-  </si>
-  <si>
-    <t>Filtración IPv4</t>
-  </si>
-  <si>
-    <t>trans0148</t>
-  </si>
-  <si>
-    <t>步骤2 按主、子设备WPS键，开始组网</t>
-  </si>
-  <si>
-    <t>Step2 Press the WPS button of the controller, agent device to start networking</t>
-  </si>
-  <si>
-    <t>Paso 2 Presione las teclas WPS del dispositivo principal y del dispositivo secundario para iniciar la red.</t>
-  </si>
-  <si>
-    <t>trans0149</t>
-  </si>
-  <si>
-    <t>先长按“主设备”WPS按键5秒，松开后指示灯开始闪烁</t>
-  </si>
-  <si>
-    <t>Press and hold the WPS button of controller device for 5 seconds, and the indicator light will start to flash after releasing it</t>
-  </si>
-  <si>
-    <t>Primero presione el botón WPS del"dispositivo principal"durante 5 segundos, después de soltarlo, la luz indicadora comienza a parpadear.</t>
-  </si>
-  <si>
-    <t>trans0150</t>
-  </si>
-  <si>
-    <t>规则名称</t>
-  </si>
-  <si>
-    <t>trans0151</t>
-  </si>
-  <si>
-    <t>开始 IP 地址</t>
-  </si>
-  <si>
-    <t>Start IP Address</t>
-  </si>
-  <si>
-    <t>Dirección IP de inicio</t>
-  </si>
-  <si>
-    <t>trans0152</t>
-  </si>
-  <si>
-    <t>结束 IP 地址</t>
-  </si>
-  <si>
-    <t>End IP Address</t>
-  </si>
-  <si>
-    <t>Fin de la dirección IP</t>
-  </si>
-  <si>
-    <t>trans0153</t>
-  </si>
-  <si>
-    <t>防范 ICMP Echo 攻击</t>
-  </si>
-  <si>
-    <t>Prevent ICMP Echo Attack</t>
-  </si>
-  <si>
-    <t>Protección contra ataques ICMP Echo</t>
-  </si>
-  <si>
-    <t>trans0154</t>
-  </si>
-  <si>
-    <t>应用协议</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Protocolo de aplicación</t>
-  </si>
-  <si>
-    <t>trans0155</t>
-  </si>
-  <si>
-    <t>WAN</t>
-  </si>
-  <si>
-    <t>trans0156</t>
-  </si>
-  <si>
-    <t>LAN</t>
-  </si>
-  <si>
-    <t>trans0157</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>trans0158</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>trans0159</t>
-  </si>
-  <si>
-    <t>PING</t>
-  </si>
-  <si>
-    <t>trans0160</t>
-  </si>
-  <si>
-    <t>FTP</t>
-  </si>
-  <si>
-    <t>trans0161</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>trans0162</t>
-  </si>
-  <si>
-    <t>TELNET</t>
-  </si>
-  <si>
-    <t>trans0163</t>
-  </si>
-  <si>
-    <t>SNMP</t>
-  </si>
-  <si>
-    <t>trans0164</t>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>Añadido</t>
-  </si>
-  <si>
-    <t>trans0165</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>Editar</t>
-  </si>
-  <si>
-    <t>trans0166</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>trans0167</t>
-  </si>
-  <si>
-    <t>过滤名称不合法</t>
-  </si>
-  <si>
-    <t>Filter name is invalid</t>
-  </si>
-  <si>
-    <t>trans0168</t>
-  </si>
-  <si>
-    <t>开始 IP 地址不合法</t>
-  </si>
-  <si>
-    <t>Start IP Address is invalid</t>
-  </si>
-  <si>
-    <t>La dirección IP de inicio no es válida</t>
-  </si>
-  <si>
-    <t>trans0169</t>
-  </si>
-  <si>
-    <t>结束 IP 地址不合法</t>
-  </si>
-  <si>
-    <t>End IP Address is invalid</t>
-  </si>
-  <si>
-    <t>La dirección IP final no es válida</t>
-  </si>
-  <si>
-    <t>trans0170</t>
-  </si>
-  <si>
-    <t>开始 IP 地址不能大于结束 IP 地址</t>
-  </si>
-  <si>
-    <t>The Start IP Address cannot be greater than the End IP Address</t>
-  </si>
-  <si>
-    <t>La dirección IP inicial no puede ser mayor que la dirección IP final</t>
-  </si>
-  <si>
-    <t>trans0171</t>
-  </si>
-  <si>
-    <t>请注意：0.0.0.0～0.0.0.0 表示所有的 IP 地址</t>
-  </si>
-  <si>
-    <t>Please Note: 0.0.0.0~0.0.0.0 means all IPs.</t>
-  </si>
-  <si>
-    <t>Tenga en cuenta: 0.0.0.0~0.0.0.0 significa todas las direcciones IP</t>
-  </si>
-  <si>
-    <t>trans0172</t>
-  </si>
-  <si>
-    <t>不限速</t>
-  </si>
-  <si>
-    <t>unlimited</t>
-  </si>
-  <si>
-    <t>Límite de velocidad ilimitado</t>
-  </si>
-  <si>
-    <t>trans0173</t>
-  </si>
-  <si>
-    <t>全部设备</t>
-  </si>
-  <si>
-    <t>all devices</t>
-  </si>
-  <si>
-    <t>Todo el equipo</t>
-  </si>
-  <si>
-    <t>trans0174</t>
-  </si>
-  <si>
-    <t>在线设备</t>
-  </si>
-  <si>
-    <t>online devices</t>
-  </si>
-  <si>
-    <t>Equipo en línea</t>
-  </si>
-  <si>
-    <t>trans0175</t>
-  </si>
-  <si>
-    <t>离线设备</t>
-  </si>
-  <si>
-    <t>offline devices</t>
-  </si>
-  <si>
-    <t>Dispositivos fuera de línea</t>
-  </si>
-  <si>
-    <t>trans0176</t>
-  </si>
-  <si>
-    <t>禁止上网</t>
-  </si>
-  <si>
-    <t>Internet ban</t>
-  </si>
-  <si>
-    <t>Prohibido navegar por Internet</t>
-  </si>
-  <si>
-    <t>trans0177</t>
-  </si>
-  <si>
-    <t>上行限速</t>
-  </si>
-  <si>
-    <t>Upload speed limit</t>
-  </si>
-  <si>
-    <t>Límite de velocidad ascendente</t>
-  </si>
-  <si>
-    <t>trans0178</t>
-  </si>
-  <si>
-    <t>下行限速</t>
-  </si>
-  <si>
-    <t>Download speed limit</t>
-  </si>
-  <si>
-    <t>Límite de velocidad descendente</t>
-  </si>
-  <si>
-    <t>trans0179</t>
-  </si>
-  <si>
-    <t>IP 地址</t>
-  </si>
-  <si>
-    <t>IP Address</t>
-  </si>
-  <si>
-    <t>Dirección IP</t>
-  </si>
-  <si>
-    <t>trans0180</t>
-  </si>
-  <si>
-    <t>在线</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>En línea</t>
-  </si>
-  <si>
-    <t>trans0181</t>
-  </si>
-  <si>
-    <t>接入时间</t>
-  </si>
-  <si>
-    <t>Access time</t>
-  </si>
-  <si>
-    <t>Tiempo de acceso</t>
-  </si>
-  <si>
-    <t>trans0182</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>trans0183</t>
-  </si>
-  <si>
-    <t>管理</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Gestión</t>
-  </si>
-  <si>
-    <t>trans0184</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>User Management</t>
-  </si>
-  <si>
-    <t>Gestión de usuarios</t>
-  </si>
-  <si>
-    <t>trans0185</t>
-  </si>
-  <si>
-    <t>新密码</t>
-  </si>
-  <si>
-    <t>New Password</t>
-  </si>
-  <si>
-    <t>Nueva contraseña</t>
-  </si>
-  <si>
-    <t>trans0186</t>
-  </si>
-  <si>
-    <t>确认密码</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
-    <t>Confirmar contraseña</t>
-  </si>
-  <si>
-    <t>trans0187</t>
-  </si>
-  <si>
-    <t>升级</t>
-  </si>
-  <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
-    <t>trans0188</t>
-  </si>
-  <si>
-    <t>日志管理</t>
-  </si>
-  <si>
-    <t>Log Management</t>
-  </si>
-  <si>
-    <t>Gestión de registros</t>
-  </si>
-  <si>
-    <t>trans0189</t>
-  </si>
-  <si>
-    <t>TCP/UDP</t>
-  </si>
-  <si>
-    <t>trans0190</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>trans0191</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>trans0192</t>
-  </si>
-  <si>
-    <t>ICMP</t>
-  </si>
-  <si>
-    <t>trans0193</t>
-  </si>
-  <si>
-    <t>源子网掩码</t>
-  </si>
-  <si>
-    <t>Source Subnet Mask</t>
-  </si>
-  <si>
-    <t>Máscara de subred de origen</t>
-  </si>
-  <si>
-    <t>trans0194</t>
-  </si>
-  <si>
-    <t>目的子网掩码</t>
-  </si>
-  <si>
-    <t>Destination Subnet Mask</t>
-  </si>
-  <si>
-    <t>Máscara de subred de destino</t>
-  </si>
-  <si>
-    <t>trans0195</t>
-  </si>
-  <si>
-    <t>密码不统一</t>
-  </si>
-  <si>
-    <t>Inconsistent password</t>
-  </si>
-  <si>
-    <t>Contraseñas inconsistentes</t>
-  </si>
-  <si>
-    <t>trans0196</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>trans0197</t>
-  </si>
-  <si>
-    <t>源IP地址不合法</t>
-  </si>
-  <si>
-    <t>The source IP address is invalid</t>
-  </si>
-  <si>
-    <t>La dirección IP de origen no es válida</t>
-  </si>
-  <si>
-    <t>trans0198</t>
-  </si>
-  <si>
-    <t>源IP子网掩码不合法</t>
-  </si>
-  <si>
-    <t>The source IP subnet mask is invalid</t>
-  </si>
-  <si>
-    <t>Máscara de subred IP de origen no válida</t>
-  </si>
-  <si>
-    <t>trans0199</t>
-  </si>
-  <si>
-    <t>目的IP地址不合法</t>
-  </si>
-  <si>
-    <t>The destination IP address is invalid</t>
-  </si>
-  <si>
-    <t>La dirección IP de destino no es válida</t>
-  </si>
-  <si>
-    <t>trans0200</t>
-  </si>
-  <si>
-    <t>目的IP子网掩码不合法</t>
-  </si>
-  <si>
-    <t>Destination IP subnet mask is invalid</t>
-  </si>
-  <si>
-    <t>Máscara de subred IP de destino no válida</t>
-  </si>
-  <si>
-    <t>trans0201</t>
-  </si>
-  <si>
-    <t>密码修改成功</t>
-  </si>
-  <si>
-    <t>Password reset complete</t>
-  </si>
-  <si>
-    <t>Restablecimiento de contraseña completado</t>
-  </si>
-  <si>
-    <t>trans0202</t>
-  </si>
-  <si>
-    <t>密码已修改，请重新登录</t>
-  </si>
-  <si>
-    <t>The password has been changed, please log in again</t>
-  </si>
-  <si>
-    <t>La contraseña ha sido cambiada, por favor vuelva a iniciar sesión</t>
-  </si>
-  <si>
-    <t>trans0203</t>
-  </si>
-  <si>
-    <t>升级过程可能需要花费几分钟的时间，升级过程中请不要关闭电源。完成后，设备会自动重启</t>
-  </si>
-  <si>
-    <t>The upgrade may take a few minutes. Please do not power off during the upgrade. Once the upgrade is finished, the device will restart automatically</t>
-  </si>
-  <si>
-    <t>La actualización puede tomar unos minutos. Por favor, no apague la alimentación durante la actualización. Una vez completada la actualización, el dispositivo se reiniciará automáticamente</t>
-  </si>
-  <si>
-    <t>trans0204</t>
-  </si>
-  <si>
-    <t>确定删除此条上行IP规律规则吗？</t>
-  </si>
-  <si>
-    <t>Are you sure to delete this uplink IP rule?</t>
-  </si>
-  <si>
-    <t>¿Está seguro de que desea eliminar esta regla de IP de enlace ascendente?</t>
-  </si>
-  <si>
-    <t>trans0205</t>
-  </si>
-  <si>
-    <t>可拖动上传文件</t>
-  </si>
-  <si>
-    <t>Drag and drop files to upload</t>
-  </si>
-  <si>
-    <t>Arrastrar y soltar archivos para cargar</t>
-  </si>
-  <si>
-    <t>trans0206</t>
-  </si>
-  <si>
-    <t>文件上传失败，重新上传文件</t>
-  </si>
-  <si>
-    <t>File upload failed. Please try again</t>
-  </si>
-  <si>
-    <t>Falló la carga de archivo. Por favor inténtalo de nuevo</t>
-  </si>
-  <si>
-    <t>trans0207</t>
-  </si>
-  <si>
-    <t>松开以上传</t>
-  </si>
-  <si>
-    <t>Drop files here</t>
-  </si>
-  <si>
-    <t>trans0208</t>
-  </si>
-  <si>
-    <t>文件格式只支持%s，请重试</t>
-  </si>
-  <si>
-    <t>The file format only supports %s, please try again</t>
-  </si>
-  <si>
-    <t>trans0209</t>
-  </si>
-  <si>
-    <t>导入%s格式文件</t>
-  </si>
-  <si>
-    <t>Import %s format file</t>
-  </si>
-  <si>
-    <t>trans0210</t>
-  </si>
-  <si>
-    <t>确定删除此条下行IP规律规则吗？</t>
-  </si>
-  <si>
-    <t>Are you sure to delete this downlink IP rule?</t>
-  </si>
-  <si>
-    <t>trans0211</t>
-  </si>
-  <si>
-    <t>文件过大</t>
-  </si>
-  <si>
-    <t>Sorry, the file is too big</t>
-  </si>
-  <si>
-    <t>trans0212</t>
-  </si>
-  <si>
-    <t>配置</t>
-  </si>
-  <si>
-    <t>configuration</t>
-  </si>
-  <si>
-    <t>trans0213</t>
-  </si>
-  <si>
-    <t>固件</t>
-  </si>
-  <si>
-    <t>firmware</t>
-  </si>
-  <si>
-    <t>trans0214</t>
-  </si>
-  <si>
-    <t>文件类型</t>
-  </si>
-  <si>
-    <t>file type</t>
-  </si>
-  <si>
-    <t>trans0215</t>
-  </si>
-  <si>
-    <t>过滤规则名字</t>
-  </si>
-  <si>
-    <t>Filter Rule Name</t>
-  </si>
-  <si>
-    <t>trans0216</t>
-  </si>
-  <si>
-    <t>然后在120秒内长按“从设备”WPS按键5秒，松开后指示灯开始快速闪烁，此时两台路由器开始组网</t>
-  </si>
-  <si>
-    <t>Then press and hold the WPS button of agent device for 5 seconds within 120 seconds. After releasing it, the indicator light starts to flash quickly. At this time, the two routers start to network</t>
-  </si>
-  <si>
-    <t>trans0217</t>
-  </si>
-  <si>
-    <t>AA:BB:CC:DD:EE:FF</t>
-  </si>
-  <si>
-    <t>trans0218</t>
-  </si>
-  <si>
-    <t>是否启用MAC过滤？</t>
-  </si>
-  <si>
-    <t>Is MAC filtering enabled?</t>
-  </si>
-  <si>
-    <t>trans0219</t>
-  </si>
-  <si>
-    <t>是否禁用MAC过滤？</t>
-  </si>
-  <si>
-    <t>Is MAC filtering disabled?</t>
-  </si>
-  <si>
-    <t>trans0220</t>
-  </si>
-  <si>
-    <t>更改过滤模式将切换所有筛选规则。是否确实要将过滤器模式更改为白名单？</t>
-  </si>
-  <si>
-    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the white list?</t>
-  </si>
-  <si>
-    <t>trans0221</t>
-  </si>
-  <si>
-    <t>更改筛选模式将切换所有筛选规则。是否确实要将筛选模式更改为黑名单？</t>
-  </si>
-  <si>
-    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the black list?</t>
-  </si>
-  <si>
-    <t>trans0222</t>
-  </si>
-  <si>
-    <t>未选择文件</t>
-  </si>
-  <si>
-    <t>The file is not selected</t>
-  </si>
-  <si>
-    <t>trans0223</t>
-  </si>
-  <si>
-    <t>上传中，请稍等…</t>
-  </si>
-  <si>
-    <t>The file is uploading, please wait</t>
-  </si>
-  <si>
-    <t>trans0224</t>
-  </si>
-  <si>
-    <t>恢复出厂配置</t>
-  </si>
-  <si>
-    <t>Reset to Defaults</t>
-  </si>
-  <si>
-    <t>trans0225</t>
-  </si>
-  <si>
-    <t>确定恢复出厂配置吗？</t>
-  </si>
-  <si>
-    <t>Are you sure to restore the factory configuration？</t>
-  </si>
-  <si>
-    <t>trans0226</t>
-  </si>
-  <si>
-    <t>导出配置文件</t>
-  </si>
-  <si>
-    <t>Export configuration file</t>
-  </si>
-  <si>
-    <t>trans0227</t>
-  </si>
-  <si>
-    <t>设备管理</t>
-  </si>
-  <si>
-    <t>Device Management</t>
-  </si>
-  <si>
-    <t>trans0228</t>
-  </si>
-  <si>
-    <t>确定导出配置文件吗？</t>
-  </si>
-  <si>
-    <t>Are you sure to export the configuration file?</t>
-  </si>
-  <si>
-    <t>trans0229</t>
-  </si>
-  <si>
-    <t>设备正在重新启动，请稍后...</t>
-  </si>
-  <si>
-    <t>The device is rebooting,please wait...</t>
-  </si>
-  <si>
-    <t>trans0230</t>
-  </si>
-  <si>
-    <t>步骤3 观察指示灯，获知组网结果</t>
-  </si>
-  <si>
-    <t>Step3 Observe the indicator light to know the networking result</t>
-  </si>
-  <si>
-    <t>trans0231</t>
-  </si>
-  <si>
-    <t>紧急</t>
-  </si>
-  <si>
-    <t>Emergency</t>
-  </si>
-  <si>
-    <t>trans0232</t>
-  </si>
-  <si>
-    <t>警报</t>
-  </si>
-  <si>
-    <t>Alarm</t>
-  </si>
-  <si>
-    <t>trans0233</t>
-  </si>
-  <si>
-    <t>重要</t>
-  </si>
-  <si>
-    <t>Important</t>
-  </si>
-  <si>
-    <t>trans0234</t>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>trans0235</t>
-  </si>
-  <si>
-    <t>警告</t>
-  </si>
-  <si>
-    <t>Warn</t>
-  </si>
-  <si>
-    <t>trans0236</t>
-  </si>
-  <si>
-    <t>注意</t>
-  </si>
-  <si>
-    <t>Notice</t>
-  </si>
-  <si>
-    <t>trans0237</t>
-  </si>
-  <si>
-    <t>通知</t>
-  </si>
-  <si>
-    <t>Notify</t>
-  </si>
-  <si>
-    <t>trans0238</t>
-  </si>
-  <si>
-    <t>调试</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>trans0239</t>
-  </si>
-  <si>
-    <t>日志等级</t>
-  </si>
-  <si>
-    <t>Log level</t>
-  </si>
-  <si>
-    <t>trans0240</t>
-  </si>
-  <si>
-    <t>刷新</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>trans0241</t>
-  </si>
-  <si>
-    <t>下载日志</t>
-  </si>
-  <si>
-    <t>Download log</t>
-  </si>
-  <si>
-    <t>trans0242</t>
-  </si>
-  <si>
-    <t>确定重新启动设备吗？</t>
-  </si>
-  <si>
-    <t>Are you sure to reboot the device?</t>
-  </si>
-  <si>
-    <t>trans0243</t>
-  </si>
-  <si>
-    <t>网络限速</t>
-  </si>
-  <si>
-    <t>Network speed limit</t>
-  </si>
-  <si>
-    <t>trans0244</t>
-  </si>
-  <si>
-    <t>trans0245</t>
-  </si>
-  <si>
-    <t>DDNS</t>
-  </si>
-  <si>
-    <t>trans0246</t>
-  </si>
-  <si>
-    <t>UPNP</t>
-  </si>
-  <si>
-    <t>trans0247</t>
-  </si>
-  <si>
-    <t>时间管理</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>trans0248</t>
-  </si>
-  <si>
-    <t>组播</t>
-  </si>
-  <si>
-    <t>IGMP/MLD</t>
-  </si>
-  <si>
-    <t>trans0249</t>
-  </si>
-  <si>
-    <t>CWMP</t>
-  </si>
-  <si>
-    <t>trans0250</t>
-  </si>
-  <si>
-    <t>DHCP 静态 IP</t>
-  </si>
-  <si>
-    <t>DHCP Static IP</t>
-  </si>
-  <si>
-    <t>trans0251</t>
-  </si>
-  <si>
-    <t>DHCPv6 静态 IP</t>
-  </si>
-  <si>
-    <t>DHCPv6 Static IP</t>
-  </si>
-  <si>
-    <t>trans0252</t>
-  </si>
-  <si>
-    <t>WPA2-PSK/WPA3-SAE</t>
-  </si>
-  <si>
-    <t>trans0253</t>
-  </si>
-  <si>
-    <t>端口触发</t>
-  </si>
-  <si>
-    <t>Port Trigger</t>
-  </si>
-  <si>
-    <t>trans0254</t>
-  </si>
-  <si>
-    <t>DMZ</t>
-  </si>
-  <si>
-    <t>trans0255</t>
-  </si>
-  <si>
-    <t>服务名称</t>
-  </si>
-  <si>
-    <t>Server Domain Name</t>
-  </si>
-  <si>
-    <t>trans0256</t>
-  </si>
-  <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>Domain Name</t>
-  </si>
-  <si>
-    <t>trans0257</t>
-  </si>
-  <si>
-    <t>服务商</t>
-  </si>
-  <si>
-    <t>Provider</t>
-  </si>
-  <si>
-    <t>trans0258</t>
-  </si>
-  <si>
-    <t>若组网成功，两台路由器指示灯停止闪烁变为长亮状态(从设备为绿色长亮)</t>
-  </si>
-  <si>
-    <t>If the networking is successful, the indicator lights of the two routers will stop flashing and become long on (the agent router is green and long on)</t>
-  </si>
-  <si>
-    <t>trans0259</t>
-  </si>
-  <si>
-    <t>定期通知</t>
-  </si>
-  <si>
-    <t>Periodic Notification</t>
-  </si>
-  <si>
-    <t>trans0260</t>
-  </si>
-  <si>
-    <t>定期通知时间间隔</t>
-  </si>
-  <si>
-    <t>Periodic Notification Time Interval</t>
-  </si>
-  <si>
-    <t>trans0261</t>
-  </si>
-  <si>
-    <t>服务器域名</t>
-  </si>
-  <si>
-    <t>trans0262</t>
-  </si>
-  <si>
-    <t>平台用户名</t>
-  </si>
-  <si>
-    <t>Platform User Name</t>
-  </si>
-  <si>
-    <t>trans0263</t>
-  </si>
-  <si>
-    <t>平台用户名密码</t>
-  </si>
-  <si>
-    <t>Platform Password</t>
-  </si>
-  <si>
-    <t>trans0264</t>
-  </si>
-  <si>
-    <t>终端用户名</t>
-  </si>
-  <si>
-    <t>Terminal User Name</t>
-  </si>
-  <si>
-    <t>trans0265</t>
-  </si>
-  <si>
-    <t>终端用户密码</t>
-  </si>
-  <si>
-    <t>Terminal Password</t>
-  </si>
-  <si>
-    <t>trans0266</t>
-  </si>
-  <si>
-    <t>启用证书功能</t>
-  </si>
-  <si>
-    <t>Enable Certificate Function</t>
-  </si>
-  <si>
-    <t>trans0267</t>
-  </si>
-  <si>
-    <t>（网关未加载证书文件！）</t>
-  </si>
-  <si>
-    <t>(The gateway did not load the certificate file!)</t>
-  </si>
-  <si>
-    <t>trans0268</t>
-  </si>
-  <si>
-    <t>文件路径[最多128个字符]</t>
-  </si>
-  <si>
-    <t>File Path[Maximum 128 characters]</t>
-  </si>
-  <si>
-    <t>trans0269</t>
-  </si>
-  <si>
-    <t>上传证书</t>
-  </si>
-  <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t>trans0270</t>
-  </si>
-  <si>
-    <t>trans0271</t>
-  </si>
-  <si>
-    <t>CWMP 服务器</t>
-  </si>
-  <si>
-    <t>CWMP Server</t>
-  </si>
-  <si>
-    <t>trans0272</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>trans0273</t>
-  </si>
-  <si>
-    <t>外部端口</t>
-  </si>
-  <si>
-    <t>External Port</t>
-  </si>
-  <si>
-    <t>trans0274</t>
-  </si>
-  <si>
-    <t>内部端口</t>
-  </si>
-  <si>
-    <t>Internal Port</t>
-  </si>
-  <si>
-    <t>trans0275</t>
-  </si>
-  <si>
-    <t>自动同步</t>
-  </si>
-  <si>
-    <t>Automatic Synchronization</t>
-  </si>
-  <si>
-    <t>trans0276</t>
-  </si>
-  <si>
-    <t>系统日期时间</t>
-  </si>
-  <si>
-    <t>System Time</t>
-  </si>
-  <si>
-    <t>trans0277</t>
-  </si>
-  <si>
-    <t>主 SNTP 服务器</t>
-  </si>
-  <si>
-    <t>Master SNTP Server</t>
-  </si>
-  <si>
-    <t>trans0278</t>
-  </si>
-  <si>
-    <t>从 SNTP 服务器</t>
-  </si>
-  <si>
-    <t>Slave SNTP Server</t>
-  </si>
-  <si>
-    <t>trans0279</t>
-  </si>
-  <si>
-    <t>时区</t>
-  </si>
-  <si>
-    <t>Time Zone</t>
-  </si>
-  <si>
-    <t>trans0280</t>
-  </si>
-  <si>
-    <t>国际日期变更线(西)</t>
-  </si>
-  <si>
-    <t>International Date Line West</t>
-  </si>
-  <si>
-    <t>trans0281</t>
-  </si>
-  <si>
-    <t>中途岛，萨摩亚</t>
-  </si>
-  <si>
-    <t>Midway Island, Samoa</t>
-  </si>
-  <si>
-    <t>trans0282</t>
-  </si>
-  <si>
-    <t>夏威夷</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>trans0283</t>
-  </si>
-  <si>
-    <t>阿拉斯加</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>trans0284</t>
-  </si>
-  <si>
-    <t>美国西部标准时间，提华纳</t>
-  </si>
-  <si>
-    <t>Pacific Time, Tijuana</t>
-  </si>
-  <si>
-    <t>trans0285</t>
-  </si>
-  <si>
-    <t>亚利桑那州，马萨特兰</t>
-  </si>
-  <si>
-    <t>Arizona, Mazatlan</t>
-  </si>
-  <si>
-    <t>trans0286</t>
-  </si>
-  <si>
-    <t>奇瓦瓦，拉巴斯</t>
-  </si>
-  <si>
-    <t>Chihuahua, La Paz</t>
-  </si>
-  <si>
-    <t>trans0287</t>
-  </si>
-  <si>
-    <t>山地时区(加拿大)</t>
-  </si>
-  <si>
-    <t>Mountain Time</t>
-  </si>
-  <si>
-    <t>trans0288</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>Central America</t>
-  </si>
-  <si>
-    <t>trans0289</t>
-  </si>
-  <si>
-    <t>中央标准时间(用于美国和加拿大中部)</t>
-  </si>
-  <si>
-    <t>Central Time</t>
-  </si>
-  <si>
-    <t>trans0290</t>
-  </si>
-  <si>
-    <t>瓜达拉哈拉，墨西哥城，蒙特雷</t>
-  </si>
-  <si>
-    <t>Guadalajara, Mexico City, Monterrey</t>
-  </si>
-  <si>
-    <t>trans0291</t>
-  </si>
-  <si>
-    <t>萨斯喀彻温省</t>
-  </si>
-  <si>
-    <t>Saskatchewan</t>
-  </si>
-  <si>
-    <t>trans0292</t>
-  </si>
-  <si>
-    <t>波哥大，利马，基多</t>
-  </si>
-  <si>
-    <t>Bogota, Lima, Quito</t>
-  </si>
-  <si>
-    <t>trans0293</t>
-  </si>
-  <si>
-    <t>东部时间</t>
-  </si>
-  <si>
-    <t>Eastern Time</t>
-  </si>
-  <si>
-    <t>trans0294</t>
-  </si>
-  <si>
-    <t>印第安那州</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>trans0295</t>
-  </si>
-  <si>
-    <t>大西洋时间</t>
-  </si>
-  <si>
-    <t>Atlantic Time</t>
-  </si>
-  <si>
-    <t>trans0296</t>
-  </si>
-  <si>
-    <t>加拉加斯，拉巴斯</t>
-  </si>
-  <si>
-    <t>Caracas, La Paz</t>
-  </si>
-  <si>
-    <t>trans0297</t>
-  </si>
-  <si>
-    <t>圣地亚哥</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>trans0298</t>
-  </si>
-  <si>
-    <t>纽芬兰</t>
-  </si>
-  <si>
-    <t>Newfoundland</t>
-  </si>
-  <si>
-    <t>trans0299</t>
-  </si>
-  <si>
-    <t>巴西利亚</t>
-  </si>
-  <si>
-    <t>Brasilia</t>
-  </si>
-  <si>
-    <t>trans0300</t>
-  </si>
-  <si>
-    <t>布宜诺斯艾利斯，乔治敦</t>
-  </si>
-  <si>
-    <t>Buenos Aires, Georgetown</t>
-  </si>
-  <si>
-    <t>trans0301</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>trans0302</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>Mid-Atlantic</t>
-  </si>
-  <si>
-    <t>trans0303</t>
-  </si>
-  <si>
-    <t>亚述尔群岛</t>
-  </si>
-  <si>
-    <t>Azores</t>
-  </si>
-  <si>
-    <t>trans0304</t>
-  </si>
-  <si>
-    <t>佛得角群岛</t>
-  </si>
-  <si>
-    <t>Cape Verde Is.</t>
-  </si>
-  <si>
-    <t>trans0305</t>
-  </si>
-  <si>
-    <t>卡萨布兰卡，蒙罗维亚</t>
-  </si>
-  <si>
-    <t>Casablanca, Monrovia</t>
-  </si>
-  <si>
-    <t>trans0306</t>
-  </si>
-  <si>
-    <t>格林尼治标准时间：都柏林，爱丁堡，里斯本,伦敦</t>
-  </si>
-  <si>
-    <t>Greenwich Mean Time: Dublin, Edinburgh, Lisbon, London</t>
-  </si>
-  <si>
-    <t>trans0307</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹，柏林，伯尔尼, 罗马，斯德哥尔摩，维也纳</t>
-  </si>
-  <si>
-    <t>Amsterdam, Berlin, Bern, Rome, Stockholm, Vienna</t>
-  </si>
-  <si>
-    <t>trans0308</t>
-  </si>
-  <si>
-    <t>贝尔格莱德，布拉迪斯拉发，卢布尔雅那，布拉格</t>
-  </si>
-  <si>
-    <t>Belgrade, Bratislava, Budapest, Ljubljana, Prague</t>
-  </si>
-  <si>
-    <t>trans0309</t>
-  </si>
-  <si>
-    <t>布鲁塞尔，哥本哈根，马德里，巴黎</t>
-  </si>
-  <si>
-    <t>Brussels, Copenhagen, Madrid, Paris</t>
-  </si>
-  <si>
-    <t>trans0310</t>
-  </si>
-  <si>
-    <t>萨拉热窝，斯科普里，华沙，萨格勒布</t>
-  </si>
-  <si>
-    <t>Sarajevo, Skopje, Warsaw, Zagreb</t>
-  </si>
-  <si>
-    <t>trans0311</t>
-  </si>
-  <si>
-    <t>中西非</t>
-  </si>
-  <si>
-    <t>West Central Africa</t>
-  </si>
-  <si>
-    <t>trans0312</t>
-  </si>
-  <si>
-    <t>雅典，伊斯坦布尔，明斯克</t>
-  </si>
-  <si>
-    <t>Athens, Istanbul, Minsk</t>
-  </si>
-  <si>
-    <t>trans0313</t>
-  </si>
-  <si>
-    <t>布加勒斯特</t>
-  </si>
-  <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
-    <t>trans0314</t>
-  </si>
-  <si>
-    <t>开罗</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>trans0315</t>
-  </si>
-  <si>
-    <t>哈拉雷，比勒陀利亚</t>
-  </si>
-  <si>
-    <t>Harare, Pretoria</t>
-  </si>
-  <si>
-    <t>trans0316</t>
-  </si>
-  <si>
-    <t>赫尔辛基，基辅，里加，索非亚，塔林, 维尔纽斯</t>
-  </si>
-  <si>
-    <t>Helsinki, Kyiv, Riga, Sofia, Tallinn, Vilnius</t>
-  </si>
-  <si>
-    <t>trans0317</t>
-  </si>
-  <si>
-    <t>耶路撒冷</t>
-  </si>
-  <si>
-    <t>Jerusalem</t>
-  </si>
-  <si>
-    <t>trans0318</t>
-  </si>
-  <si>
-    <t>巴格达</t>
-  </si>
-  <si>
-    <t>Baghdad</t>
-  </si>
-  <si>
-    <t>trans0319</t>
-  </si>
-  <si>
-    <t>科威特，利雅得</t>
-  </si>
-  <si>
-    <t>Kuwait, Riyadh</t>
-  </si>
-  <si>
-    <t>trans0320</t>
-  </si>
-  <si>
-    <t>莫斯科，圣彼得堡，伏尔加格勒</t>
-  </si>
-  <si>
-    <t>Moscow, St. Petersburg, Volgograd</t>
-  </si>
-  <si>
-    <t>trans0321</t>
-  </si>
-  <si>
-    <t>奈洛比</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>trans0322</t>
-  </si>
-  <si>
-    <t>德黑兰</t>
-  </si>
-  <si>
-    <t>Tehran</t>
-  </si>
-  <si>
-    <t>trans0323</t>
-  </si>
-  <si>
-    <t>阿布扎比，马斯喀特</t>
-  </si>
-  <si>
-    <t>Abu Dhabi, Muscat</t>
-  </si>
-  <si>
-    <t>trans0324</t>
-  </si>
-  <si>
-    <t>巴库，第比利斯，耶烈万</t>
-  </si>
-  <si>
-    <t>Baku, Tbilisi, Yerevan</t>
-  </si>
-  <si>
-    <t>trans0325</t>
-  </si>
-  <si>
-    <t>喀布尔</t>
-  </si>
-  <si>
-    <t>Kabul</t>
-  </si>
-  <si>
-    <t>trans0326</t>
-  </si>
-  <si>
-    <t>叶卡特琳堡</t>
-  </si>
-  <si>
-    <t>Ekaterinburg</t>
-  </si>
-  <si>
-    <t>trans0327</t>
-  </si>
-  <si>
-    <t>伊斯兰堡，卡拉奇，塔什干</t>
-  </si>
-  <si>
-    <t>Islamabad, Karachi, Tashkent</t>
-  </si>
-  <si>
-    <t>trans0328</t>
-  </si>
-  <si>
-    <t>清奈，加尔各答，孟买，新德里</t>
-  </si>
-  <si>
-    <t>Chennai, Kolkata, Mumbai, New Delhi</t>
-  </si>
-  <si>
-    <t>trans0329</t>
-  </si>
-  <si>
-    <t>加德满都</t>
-  </si>
-  <si>
-    <t>Kathmandu</t>
-  </si>
-  <si>
-    <t>trans0330</t>
-  </si>
-  <si>
-    <t>阿拉木图，新西伯利亚</t>
-  </si>
-  <si>
-    <t>Almaty, Novosibirsk</t>
-  </si>
-  <si>
-    <t>trans0331</t>
-  </si>
-  <si>
-    <t>阿斯坦纳，达卡</t>
-  </si>
-  <si>
-    <t>Astana, Dhaka</t>
-  </si>
-  <si>
-    <t>trans0332</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>Sri Jayawardenepura</t>
-  </si>
-  <si>
-    <t>trans0333</t>
-  </si>
-  <si>
-    <t>仰光</t>
-  </si>
-  <si>
-    <t>Yangon</t>
-  </si>
-  <si>
-    <t>trans0334</t>
-  </si>
-  <si>
-    <t>曼谷，河内，雅加达</t>
-  </si>
-  <si>
-    <t>Bangkok, Hanoi, Jakarta</t>
-  </si>
-  <si>
-    <t>trans0335</t>
-  </si>
-  <si>
-    <t>拉斯诺亚尔斯克</t>
-  </si>
-  <si>
-    <t>Krasnoyarsk</t>
-  </si>
-  <si>
-    <t>trans0336</t>
-  </si>
-  <si>
-    <t>北京，重庆，香港，乌鲁木齐</t>
-  </si>
-  <si>
-    <t>Beijing, Chongqing, Hong Kong, Urumqi</t>
-  </si>
-  <si>
-    <t>trans0337</t>
-  </si>
-  <si>
-    <t>伊尔库次克，乌兰巴托</t>
-  </si>
-  <si>
-    <t>Irkutsk, Ulaan Bataar</t>
-  </si>
-  <si>
-    <t>trans0338</t>
-  </si>
-  <si>
-    <t>吉隆坡，新加坡</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur, Singapore</t>
-  </si>
-  <si>
-    <t>trans0339</t>
-  </si>
-  <si>
-    <t>珀斯</t>
-  </si>
-  <si>
-    <t>Perth</t>
-  </si>
-  <si>
-    <t>trans0340</t>
-  </si>
-  <si>
-    <t>台北</t>
-  </si>
-  <si>
-    <t>Taipei</t>
-  </si>
-  <si>
-    <t>trans0341</t>
-  </si>
-  <si>
-    <t>大阪，札幌，东京</t>
-  </si>
-  <si>
-    <t>Osaka, Sapporo, Tokyo</t>
-  </si>
-  <si>
-    <t>trans0342</t>
-  </si>
-  <si>
-    <t>首尔</t>
-  </si>
-  <si>
-    <t>Seoul</t>
-  </si>
-  <si>
-    <t>trans0343</t>
-  </si>
-  <si>
-    <t>雅库茨克</t>
-  </si>
-  <si>
-    <t>Yakutsk</t>
-  </si>
-  <si>
-    <t>trans0344</t>
-  </si>
-  <si>
-    <t>阿德莱德</t>
-  </si>
-  <si>
-    <t>Adelaide</t>
-  </si>
-  <si>
-    <t>trans0345</t>
-  </si>
-  <si>
-    <t>达尔文</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>trans0346</t>
-  </si>
-  <si>
-    <t>布里斯班</t>
-  </si>
-  <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>trans0347</t>
-  </si>
-  <si>
-    <t>堪培拉，墨尔本，悉尼</t>
-  </si>
-  <si>
-    <t>Canberra, Melbourne, Sydney</t>
-  </si>
-  <si>
-    <t>trans0348</t>
-  </si>
-  <si>
-    <t>关岛，莫尔兹比港</t>
-  </si>
-  <si>
-    <t>Guam, Port Moresby</t>
-  </si>
-  <si>
-    <t>trans0349</t>
-  </si>
-  <si>
-    <t>霍巴特</t>
-  </si>
-  <si>
-    <t>Hobart</t>
-  </si>
-  <si>
-    <t>trans0350</t>
-  </si>
-  <si>
-    <t>符拉迪沃斯托克</t>
-  </si>
-  <si>
-    <t>Vladivostok</t>
-  </si>
-  <si>
-    <t>trans0351</t>
-  </si>
-  <si>
-    <t>马加丹</t>
-  </si>
-  <si>
-    <t>Magadan</t>
-  </si>
-  <si>
-    <t>trans0352</t>
-  </si>
-  <si>
-    <t>所罗门群岛，新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>Solomon Is., New Caledonia</t>
-  </si>
-  <si>
-    <t>trans0353</t>
-  </si>
-  <si>
-    <t>奥克兰，惠灵顿</t>
-  </si>
-  <si>
-    <t>Auckland, Wellington</t>
-  </si>
-  <si>
-    <t>trans0354</t>
-  </si>
-  <si>
-    <t>斐济，堪察加半岛，马绍尔群岛</t>
-  </si>
-  <si>
-    <t>Fiji, Kamchatka, Marshall Is.</t>
-  </si>
-  <si>
-    <t>trans0355</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>trans0356</t>
-  </si>
-  <si>
-    <t>请输入 SNTP 服务器地址</t>
-  </si>
-  <si>
-    <t>Please enter the SNTP server address</t>
-  </si>
-  <si>
-    <t>trans0357</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>trans0358</t>
-  </si>
-  <si>
-    <t>定期通知时间间隔不合法</t>
-  </si>
-  <si>
-    <t>Periodic notification time interval is invalid.</t>
-  </si>
-  <si>
-    <t>trans0359</t>
-  </si>
-  <si>
-    <t>ACS URL不合法</t>
-  </si>
-  <si>
-    <t>ACS URL is invalid</t>
-  </si>
-  <si>
-    <t>trans0360</t>
-  </si>
-  <si>
-    <t>平台用户名不合法</t>
-  </si>
-  <si>
-    <t>Platform user name is invalid</t>
-  </si>
-  <si>
-    <t>trans0361</t>
-  </si>
-  <si>
-    <t>平台用户名密码不合法</t>
-  </si>
-  <si>
-    <t>Platform password is invalid</t>
-  </si>
-  <si>
-    <t>trans0362</t>
-  </si>
-  <si>
-    <t>终端用户名不合法</t>
-  </si>
-  <si>
-    <t>Terminal user name is invalid</t>
-  </si>
-  <si>
-    <t>trans0363</t>
-  </si>
-  <si>
-    <t>终端用户密码不合法</t>
-  </si>
-  <si>
-    <t>Terminal password is invalid</t>
-  </si>
-  <si>
-    <t>trans0364</t>
-  </si>
-  <si>
-    <t>应该由字母，数字，和字符组成</t>
-  </si>
-  <si>
-    <t>should consist of letter,digit and some character such as:</t>
-  </si>
-  <si>
-    <t>trans0365</t>
-  </si>
-  <si>
-    <t>工作模式</t>
-  </si>
-  <si>
-    <t>Work Mode</t>
-  </si>
-  <si>
-    <t>trans0366</t>
-  </si>
-  <si>
-    <t>文件格式错误，请重试</t>
-  </si>
-  <si>
-    <t>File format error,please retry</t>
-  </si>
-  <si>
-    <t>trans0367</t>
-  </si>
-  <si>
-    <t>因该开始</t>
-  </si>
-  <si>
-    <t>should begin with</t>
-  </si>
-  <si>
-    <t>trans0368</t>
-  </si>
-  <si>
-    <t>或</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>trans0369</t>
-  </si>
-  <si>
-    <t>开始</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>trans0370</t>
-  </si>
-  <si>
-    <t>定期通知时间不合法</t>
-  </si>
-  <si>
-    <t>Periodic notification time is invalid</t>
-  </si>
-  <si>
-    <t>trans0371</t>
-  </si>
-  <si>
-    <t>trans0372</t>
-  </si>
-  <si>
-    <t>trans0373</t>
-  </si>
-  <si>
-    <t>%s 在 [%d-%d]范围内</t>
-  </si>
-  <si>
-    <t>%s is in the range [%d-%d]</t>
-  </si>
-  <si>
-    <t>trans0374</t>
-  </si>
-  <si>
-    <t>Periodic Notification Interval</t>
-  </si>
-  <si>
-    <t>trans0375</t>
-  </si>
-  <si>
-    <t>IGMP</t>
-  </si>
-  <si>
-    <t>trans0376</t>
-  </si>
-  <si>
-    <t>MLD</t>
-  </si>
-  <si>
-    <t>trans0377</t>
-  </si>
-  <si>
-    <t>trans0378</t>
-  </si>
-  <si>
-    <t>只能填写数字</t>
-  </si>
-  <si>
-    <t>Can only be digits</t>
-  </si>
-  <si>
-    <t>trans0379</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>Versoin</t>
-  </si>
-  <si>
-    <t>trans0380</t>
-  </si>
-  <si>
-    <t>范围</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>trans0381</t>
-  </si>
-  <si>
-    <t>健壮性</t>
-  </si>
-  <si>
-    <t>Robustness</t>
-  </si>
-  <si>
-    <t>trans0382</t>
-  </si>
-  <si>
-    <t>一般查询间隔</t>
-  </si>
-  <si>
-    <t>General Query Interval</t>
-  </si>
-  <si>
-    <t>trans0383</t>
-  </si>
-  <si>
-    <t>一般查询响应超时期限</t>
-  </si>
-  <si>
-    <t>General Query Response Timeout Period</t>
-  </si>
-  <si>
-    <t>trans0384</t>
-  </si>
-  <si>
-    <t>最后成员查询间隔</t>
-  </si>
-  <si>
-    <t>Last Member Query Interval</t>
-  </si>
-  <si>
-    <t>trans0385</t>
-  </si>
-  <si>
-    <t>主动报告间隔</t>
-  </si>
-  <si>
-    <t>Unsolicited Report Interval</t>
-  </si>
-  <si>
-    <t>trans0386</t>
-  </si>
-  <si>
-    <t>Proxy</t>
-  </si>
-  <si>
-    <t>trans0387</t>
-  </si>
-  <si>
-    <t>Snooping</t>
-  </si>
-  <si>
-    <t>trans0388</t>
-  </si>
-  <si>
-    <t>%s 范围：%d - %d</t>
-  </si>
-  <si>
-    <t>%s value is out of range %d - %d</t>
-  </si>
-  <si>
-    <t>trans0389</t>
-  </si>
-  <si>
-    <t>DHCP静态IP配置</t>
-  </si>
-  <si>
-    <t>DHCP Static IP Configuration</t>
-  </si>
-  <si>
-    <t>trans0390</t>
-  </si>
-  <si>
-    <t>此时主设备的组网图显示已加入从设备</t>
-  </si>
-  <si>
-    <t>At this time, the network topo of the controller device shows that it has joined the agent device</t>
-  </si>
-  <si>
-    <t>trans0391</t>
-  </si>
-  <si>
-    <t>确定导出日志文件吗？</t>
-  </si>
-  <si>
-    <t>Are you sure to export the log file?</t>
-  </si>
-  <si>
-    <t>trans0393</t>
-  </si>
-  <si>
-    <t>trans0394</t>
-  </si>
-  <si>
-    <t>设备IP将发生变化，请应用后通过LAN IP重新登录</t>
-  </si>
-  <si>
-    <t>The IP address of the device will be changed. Please relogin using the LAN IP after applying.</t>
-  </si>
-  <si>
-    <t>trans0395</t>
-  </si>
-  <si>
-    <t>网口设置</t>
-  </si>
-  <si>
-    <t>Port settings</t>
-  </si>
-  <si>
-    <t>trans0396</t>
-  </si>
-  <si>
-    <t>XX:XX:XX:XX:XX:XX</t>
-  </si>
-  <si>
-    <t>trans0397</t>
-  </si>
-  <si>
-    <t>地址不合法</t>
-  </si>
-  <si>
-    <t>Address is invalid</t>
-  </si>
-  <si>
-    <t>trans0398</t>
-  </si>
-  <si>
-    <t>%s不在有效的IP地址范围内。</t>
-  </si>
-  <si>
-    <t>%s is not within the valid range</t>
-  </si>
-  <si>
-    <t>trans0399</t>
-  </si>
-  <si>
-    <t>IP地址已经存在</t>
-  </si>
-  <si>
-    <t>The IP address already exists</t>
-  </si>
-  <si>
-    <t>trans0400</t>
-  </si>
-  <si>
-    <t>Mac地址已经存在</t>
-  </si>
-  <si>
-    <t>The Mac address already exists</t>
-  </si>
-  <si>
-    <t>trans0401</t>
-  </si>
-  <si>
-    <t>设备访问控制</t>
-  </si>
-  <si>
-    <t>Device Access Control</t>
-  </si>
-  <si>
-    <t>trans0402</t>
-  </si>
-  <si>
-    <t>SSH</t>
-  </si>
-  <si>
-    <t>trans0403</t>
-  </si>
-  <si>
-    <t>到平台的网络不通</t>
-  </si>
-  <si>
-    <t>No response</t>
-  </si>
-  <si>
-    <t>trans0404</t>
-  </si>
-  <si>
-    <t>已经到最大%d条%s与%s绑定条</t>
-  </si>
-  <si>
-    <t>The maximum %d binding bars between %s and %s has been reached</t>
-  </si>
-  <si>
-    <t>trans0405</t>
-  </si>
-  <si>
-    <t>已存在相同的域名</t>
-  </si>
-  <si>
-    <t>The same domain name already exists</t>
-  </si>
-  <si>
-    <t>trans0406</t>
-  </si>
-  <si>
-    <t>Port Mapping</t>
-  </si>
-  <si>
-    <t>trans0407</t>
-  </si>
-  <si>
-    <t>DHCPv4</t>
-  </si>
-  <si>
-    <t>trans0408</t>
-  </si>
-  <si>
-    <t>DHCPv6</t>
-  </si>
-  <si>
-    <t>trans0409</t>
-  </si>
-  <si>
-    <t>确定删除选择的规则吗？</t>
-  </si>
-  <si>
-    <t>Are you sure to delete the selected rule?</t>
-  </si>
-  <si>
-    <t>trans0410</t>
-  </si>
-  <si>
-    <t>删除成功</t>
-  </si>
-  <si>
-    <t>Deletion successful.</t>
-  </si>
-  <si>
-    <t>trans0411</t>
-  </si>
-  <si>
-    <t>只允许选择一条记录删除</t>
-  </si>
-  <si>
-    <t>Only allow to select one record to delete</t>
-  </si>
-  <si>
-    <t>trans0412</t>
-  </si>
-  <si>
-    <t>连接中断</t>
-  </si>
-  <si>
-    <t>Connection Interrputed</t>
-  </si>
-  <si>
-    <t>trans0413</t>
-  </si>
-  <si>
-    <t>XXXX:XXXX:XXXX:XXXX</t>
-  </si>
-  <si>
-    <t>trans0414</t>
-  </si>
-  <si>
-    <t>接口 ID</t>
-  </si>
-  <si>
-    <t>Interface ID</t>
-  </si>
-  <si>
-    <t>trans0415</t>
-  </si>
-  <si>
-    <t>局域网 IP 地址</t>
-  </si>
-  <si>
-    <t>LAN IP Address</t>
-  </si>
-  <si>
-    <t>trans0416</t>
-  </si>
-  <si>
-    <t>接口ID %s 不正确，正确的格式为（XXXX:XXXX:XXXX:XXXX）。</t>
-  </si>
-  <si>
-    <t>Interface ID %s Incorrect,the correct format is (XXXX:XXXX:XXXX:XXXX).</t>
-  </si>
-  <si>
-    <t>trans0417</t>
-  </si>
-  <si>
-    <t>工厂</t>
-  </si>
-  <si>
-    <t>Factory</t>
-  </si>
-  <si>
-    <t>trans0418</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>trans0419</t>
-  </si>
-  <si>
-    <t>MAC 地址 %s 不正确，正确的格式是（AA:BB:CC:DD:EE:FF）</t>
-  </si>
-  <si>
-    <t>MAC address  %s  Incorrect,the correct format is (AA:BB:CC:DD:EE:FF)</t>
-  </si>
-  <si>
-    <t>trans0420</t>
-  </si>
-  <si>
-    <t>接口ID值是一个十六进制数字，不能超过64个字符</t>
-  </si>
-  <si>
-    <t>Interface ID value is a hexadecimal digits and cannot exceed 64 characters</t>
-  </si>
-  <si>
-    <t>trans0421</t>
-  </si>
-  <si>
-    <t>接口ID已经存在</t>
-  </si>
-  <si>
-    <t>Interface ID already exists</t>
-  </si>
-  <si>
-    <t>trans0422</t>
-  </si>
-  <si>
-    <t>端口映射</t>
-  </si>
-  <si>
-    <t>trans0423</t>
-  </si>
-  <si>
-    <t>Customize</t>
-  </si>
-  <si>
-    <t>trans0424</t>
-  </si>
-  <si>
-    <t>选择模板</t>
-  </si>
-  <si>
-    <t>Select Template</t>
-  </si>
-  <si>
-    <t>trans0425</t>
-  </si>
-  <si>
-    <t>映射名称</t>
-  </si>
-  <si>
-    <t>Mapping Name</t>
-  </si>
-  <si>
-    <t>trans0426</t>
-  </si>
-  <si>
-    <t>模板</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>trans0427</t>
-  </si>
-  <si>
-    <t>Port Trigger 配置</t>
-  </si>
-  <si>
-    <t>Port Trigger Configuration</t>
-  </si>
-  <si>
-    <t>trans0428</t>
-  </si>
-  <si>
-    <t>设备网络信息</t>
-  </si>
-  <si>
-    <t>Device network information</t>
-  </si>
-  <si>
-    <t>trans0429</t>
-  </si>
-  <si>
-    <t>Port Trigger 开关</t>
-  </si>
-  <si>
-    <t>Enable Port Trigger</t>
-  </si>
-  <si>
-    <t>trans0430</t>
-  </si>
-  <si>
-    <t>Trigger 协议</t>
-  </si>
-  <si>
-    <t>Trigger Protocol</t>
-  </si>
-  <si>
-    <t>trans0431</t>
-  </si>
-  <si>
-    <t>打开协议</t>
-  </si>
-  <si>
-    <t>Open Protocol</t>
-  </si>
-  <si>
-    <t>trans0432</t>
-  </si>
-  <si>
-    <t>启动Trigger端口</t>
-  </si>
-  <si>
-    <t>Start Trigger Port</t>
-  </si>
-  <si>
-    <t>trans0433</t>
-  </si>
-  <si>
-    <t>关闭Trigger端口</t>
-  </si>
-  <si>
-    <t>End Trigger Port</t>
-  </si>
-  <si>
-    <t>trans0434</t>
-  </si>
-  <si>
-    <t>开启端口</t>
-  </si>
-  <si>
-    <t>Start Open Port</t>
-  </si>
-  <si>
-    <t>trans0435</t>
-  </si>
-  <si>
-    <t>关闭端口</t>
-  </si>
-  <si>
-    <t>End Open Port</t>
-  </si>
-  <si>
-    <t>trans0436</t>
-  </si>
-  <si>
-    <t>跳过向导</t>
-  </si>
-  <si>
-    <t>Skip Wizard</t>
-  </si>
-  <si>
-    <t>trans0437</t>
-  </si>
-  <si>
-    <t>起始触发端口必须为1 ~ 65535之间的整数</t>
-  </si>
-  <si>
-    <t>Start Trigger Port is must be an integer ranging from 1 to 65535</t>
-  </si>
-  <si>
-    <t>trans0438</t>
-  </si>
-  <si>
-    <t>结束起始触发端口必须大于起始触发端口。</t>
-  </si>
-  <si>
-    <t>The end trigger port must be greater than the start trigger port .</t>
-  </si>
-  <si>
-    <t>trans0439</t>
-  </si>
-  <si>
-    <t>触发端口已经存在。</t>
-  </si>
-  <si>
-    <t>The trigger port already exists.</t>
-  </si>
-  <si>
-    <t>trans0440</t>
-  </si>
-  <si>
-    <t>端口状态</t>
-  </si>
-  <si>
-    <t>Port Status</t>
-  </si>
-  <si>
-    <t>trans0441</t>
-  </si>
-  <si>
-    <t>结束触发端口必须为1 ~ 65535之间的整数</t>
-  </si>
-  <si>
-    <t>End Trigger Port is must be an integer ranging from 1 to 65535</t>
-  </si>
-  <si>
-    <t>trans0442</t>
-  </si>
-  <si>
-    <t>确认跳过向导吗</t>
-  </si>
-  <si>
-    <t>Are you sure to skip wizard?</t>
-  </si>
-  <si>
-    <t>trans0443</t>
-  </si>
-  <si>
-    <t>开启端口必须为1 ~ 65535之间的整数</t>
-  </si>
-  <si>
-    <t>Start Open Port is must be an integer ranging from 1 to 65535</t>
-  </si>
-  <si>
-    <t>trans0444</t>
-  </si>
-  <si>
-    <t>结束开放端口必须大于起始开放端口。</t>
-  </si>
-  <si>
-    <t>The end open port must be smaller than  the start open port .</t>
-  </si>
-  <si>
-    <t>trans0445</t>
-  </si>
-  <si>
-    <t>开放端口已经存在。</t>
-  </si>
-  <si>
-    <t>The Open Port already exists.</t>
-  </si>
-  <si>
-    <t>trans0446</t>
-  </si>
-  <si>
-    <t>外部主机</t>
-  </si>
-  <si>
-    <t>External Host</t>
-  </si>
-  <si>
-    <t>trans0447</t>
-  </si>
-  <si>
-    <t>远端WEB管理</t>
-  </si>
-  <si>
-    <t>Remote web management</t>
-  </si>
-  <si>
-    <t>trans0448</t>
-  </si>
-  <si>
-    <t>事件解释Port触发器数量已达到上限。Port触发器的最大个数为16。</t>
-  </si>
-  <si>
-    <t>The number of Port trigger reached the upper limit. The maximum number of Port trigger was 16.</t>
-  </si>
-  <si>
-    <t>trans0449</t>
-  </si>
-  <si>
-    <t>内部主机</t>
-  </si>
-  <si>
-    <t>Internal Host</t>
-  </si>
-  <si>
-    <t>trans0450</t>
-  </si>
-  <si>
-    <t>VLAN/Priority</t>
-  </si>
-  <si>
-    <t>trans0451</t>
-  </si>
-  <si>
-    <t>开放端口必须为1 ~ 65535之间的整数</t>
-  </si>
-  <si>
-    <t>End Open Port is must be an integer ranging from 1 to 65535</t>
-  </si>
-  <si>
-    <t>trans0452</t>
-  </si>
-  <si>
-    <t>端口不合法</t>
-  </si>
-  <si>
-    <t>Port is invalid</t>
-  </si>
-  <si>
-    <t>trans0453</t>
-  </si>
-  <si>
-    <t>长度不合法</t>
-  </si>
-  <si>
-    <t>Length is invalid</t>
-  </si>
-  <si>
-    <t>trans0454</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>trans0455</t>
-  </si>
-  <si>
-    <t>防范 ICMP Redirection 攻击</t>
-  </si>
-  <si>
-    <t>Prevent ICMP Redirection Attack</t>
-  </si>
-  <si>
-    <t>trans0456</t>
-  </si>
-  <si>
-    <t>IPv4</t>
-  </si>
-  <si>
-    <t>trans0457</t>
-  </si>
-  <si>
-    <t>IPv6</t>
-  </si>
-  <si>
-    <t>trans0458</t>
-  </si>
-  <si>
-    <t>设备运行信息</t>
-  </si>
-  <si>
-    <t>Device running information</t>
-  </si>
-  <si>
-    <t>trans0459</t>
-  </si>
-  <si>
-    <t>子网掩码</t>
-  </si>
-  <si>
-    <t>Subnet Mask</t>
-  </si>
-  <si>
-    <t>trans0460</t>
-  </si>
-  <si>
-    <t>DHCP 服务器</t>
-  </si>
-  <si>
-    <t>DHCP Server</t>
-  </si>
-  <si>
-    <t>trans0461</t>
-  </si>
-  <si>
-    <t>租期</t>
-  </si>
-  <si>
-    <t>Lease Time</t>
-  </si>
-  <si>
-    <t>trans0462</t>
-  </si>
-  <si>
-    <t>1 小时 | {val} 小时</t>
-  </si>
-  <si>
-    <t>1 hour | {val} hours</t>
-  </si>
-  <si>
-    <t>trans0463</t>
-  </si>
-  <si>
-    <t>1 天 | {val} 天</t>
-  </si>
-  <si>
-    <t>1 day | {val} days</t>
-  </si>
-  <si>
-    <t>trans0464</t>
-  </si>
-  <si>
-    <t>1 周 | {val} 周</t>
-  </si>
-  <si>
-    <t>1 week | {val} weeks</t>
-  </si>
-  <si>
-    <t>trans0465</t>
-  </si>
-  <si>
-    <t>WAN 和 LAN IP 地址不能在同一网段</t>
-  </si>
-  <si>
-    <t>WAN IP and LAN IP cannot be on the same network segment</t>
-  </si>
-  <si>
-    <t>trans0466</t>
-  </si>
-  <si>
-    <t>trans0467</t>
-  </si>
-  <si>
-    <t>结束 IP 必须大于开始 IP</t>
-  </si>
-  <si>
-    <t>End IP must be greater than start IP</t>
-  </si>
-  <si>
-    <t>trans0468</t>
-  </si>
-  <si>
-    <t>提示</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>trans0469</t>
-  </si>
-  <si>
-    <t>%s 配置</t>
-  </si>
-  <si>
-    <t>%s Configuration</t>
-  </si>
-  <si>
-    <t>trans0470</t>
-  </si>
-  <si>
-    <t>如果一个 IPv6 地址的首选寿命到期了，一般都禁止使用这个地址来启动新的连接</t>
-  </si>
-  <si>
-    <t>If the primary time of IPv6 address expire, it will be prohibited to start the new connection</t>
-  </si>
-  <si>
-    <t>trans0471</t>
-  </si>
-  <si>
-    <t>自动配置</t>
-  </si>
-  <si>
-    <t>AutoConfigured</t>
-  </si>
-  <si>
-    <t>trans0472</t>
-  </si>
-  <si>
-    <t>DHCPv6 服务器</t>
-  </si>
-  <si>
-    <t>DHCPv6 Server</t>
-  </si>
-  <si>
-    <t>trans0473</t>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>trans0474</t>
-  </si>
-  <si>
-    <t>当结束时间小于开始时间时，结束时间要下一天才结束</t>
-  </si>
-  <si>
-    <t>If the start time is later than the end time, the duration spans from the current day into the next day</t>
-  </si>
-  <si>
-    <t>trans0475</t>
-  </si>
-  <si>
-    <t>RA 模式</t>
-  </si>
-  <si>
-    <t>RA Mode</t>
-  </si>
-  <si>
-    <t>trans0476</t>
-  </si>
-  <si>
-    <t>前缀</t>
-  </si>
-  <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>trans0477</t>
-  </si>
-  <si>
-    <t>前缀长度</t>
-  </si>
-  <si>
-    <t>Prefix Length</t>
-  </si>
-  <si>
-    <t>trans0478</t>
-  </si>
-  <si>
-    <t>首选寿命</t>
-  </si>
-  <si>
-    <t>Preferred Lifetime</t>
-  </si>
-  <si>
-    <t>trans0479</t>
-  </si>
-  <si>
-    <t>有效寿命</t>
-  </si>
-  <si>
-    <t>Valid Lifetime</t>
-  </si>
-  <si>
-    <t>trans0480</t>
-  </si>
-  <si>
-    <t>RA 消息最小间隔</t>
-  </si>
-  <si>
-    <t>RA minimum interval</t>
-  </si>
-  <si>
-    <t>trans0481</t>
-  </si>
-  <si>
-    <t>RA 消息最大间隔</t>
-  </si>
-  <si>
-    <t>RA maximal interval</t>
-  </si>
-  <si>
-    <t>trans0482</t>
-  </si>
-  <si>
-    <t>设备信息</t>
-  </si>
-  <si>
-    <t>Device Information</t>
-  </si>
-  <si>
-    <t>trans0483</t>
-  </si>
-  <si>
-    <t>Managed 标志</t>
-  </si>
-  <si>
-    <t>Managed Flag</t>
-  </si>
-  <si>
-    <t>trans0484</t>
-  </si>
-  <si>
-    <t>Other 标志</t>
-  </si>
-  <si>
-    <t>Other Flag</t>
-  </si>
-  <si>
-    <t>trans0485</t>
-  </si>
-  <si>
-    <t>前缀来源</t>
-  </si>
-  <si>
-    <t>Prefix Source</t>
-  </si>
-  <si>
-    <t>trans0486</t>
-  </si>
-  <si>
-    <t>手动配置</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>trans0487</t>
-  </si>
-  <si>
-    <t>Automatic</t>
-  </si>
-  <si>
-    <t>trans0488</t>
-  </si>
-  <si>
-    <t>秒</t>
-  </si>
-  <si>
-    <t>Second(s)</t>
-  </si>
-  <si>
-    <t>trans0489</t>
-  </si>
-  <si>
-    <t>分配地址格式</t>
-  </si>
-  <si>
-    <t>Address Assignment Mode</t>
-  </si>
-  <si>
-    <t>trans0490</t>
-  </si>
-  <si>
-    <t>EUI64地址格式</t>
-  </si>
-  <si>
-    <t>EUI64 Address Format</t>
-  </si>
-  <si>
-    <t>trans0491</t>
-  </si>
-  <si>
-    <t>地址池格式</t>
-  </si>
-  <si>
-    <t>Address Pool Format</t>
-  </si>
-  <si>
-    <t>trans0492</t>
-  </si>
-  <si>
-    <t>配置模式</t>
-  </si>
-  <si>
-    <t>Configuration Mode</t>
-  </si>
-  <si>
-    <t>trans0493</t>
-  </si>
-  <si>
-    <t>DNS 配置方式</t>
-  </si>
-  <si>
-    <t>DNS Obtaining Method</t>
-  </si>
-  <si>
-    <t>trans0494</t>
-  </si>
-  <si>
-    <t>有线</t>
-  </si>
-  <si>
-    <t>wired</t>
-  </si>
-  <si>
-    <t>trans0495</t>
-  </si>
-  <si>
-    <t>有线设备</t>
-  </si>
-  <si>
-    <t>Wired Device</t>
-  </si>
-  <si>
-    <t>trans0496</t>
-  </si>
-  <si>
-    <t>首选DNS</t>
-  </si>
-  <si>
-    <t>Primary DNS</t>
-  </si>
-  <si>
-    <t>trans0497</t>
-  </si>
-  <si>
-    <t>备用DNS</t>
-  </si>
-  <si>
-    <t>Second DNS</t>
-  </si>
-  <si>
-    <t>trans0498</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>trans0499</t>
-  </si>
-  <si>
-    <t>天</t>
-  </si>
-  <si>
-    <t>Day(s)</t>
-  </si>
-  <si>
-    <t>trans0500</t>
-  </si>
-  <si>
-    <t>小时</t>
-  </si>
-  <si>
-    <t>Hour(s)</t>
-  </si>
-  <si>
-    <t>trans0501</t>
-  </si>
-  <si>
-    <t>分钟</t>
-  </si>
-  <si>
-    <t>Minute(s)</t>
-  </si>
-  <si>
-    <t>trans0502</t>
-  </si>
-  <si>
-    <t>WAN 口设定</t>
-  </si>
-  <si>
-    <t>WAN Port Settings</t>
-  </si>
-  <si>
-    <t>trans0503</t>
-  </si>
-  <si>
-    <t>自动选择 WAN 网口</t>
-  </si>
-  <si>
-    <t>Automatically select WAN port</t>
-  </si>
-  <si>
-    <t>trans0504</t>
-  </si>
-  <si>
-    <t>连接到网关的网线可以插在任意网口</t>
-  </si>
-  <si>
-    <t>The ethernet cable connected to the gateway can be plugged into any ethernet port</t>
-  </si>
-  <si>
-    <t>trans0505</t>
-  </si>
-  <si>
-    <t>固定 WAN 网口</t>
-  </si>
-  <si>
-    <t>Fixed WAN port</t>
-  </si>
-  <si>
-    <t>trans0506</t>
-  </si>
-  <si>
-    <t>连接到网关的网线需要插在靠近电源的网口</t>
-  </si>
-  <si>
-    <t>The ethernet cable connected to the gateway needs to be plugged into the ethernet port close to the power supply</t>
-  </si>
-  <si>
-    <t>trans0507</t>
-  </si>
-  <si>
-    <t>信道</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>trans0508</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>trans0509</t>
-  </si>
-  <si>
-    <t>频宽</t>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>trans0510</t>
-  </si>
-  <si>
-    <t>自适应(%d)</t>
-  </si>
-  <si>
-    <t>Auto (%d)</t>
-  </si>
-  <si>
-    <t>trans0511</t>
-  </si>
-  <si>
-    <t>Wi-Fi 定时关闭</t>
-  </si>
-  <si>
-    <t>Automatic Turn Off Wi-Fi</t>
-  </si>
-  <si>
-    <t>trans0512</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>trans0513</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>trans0514</t>
-  </si>
-  <si>
-    <t>每天</t>
-  </si>
-  <si>
-    <t>Everyday</t>
-  </si>
-  <si>
-    <t>trans0515</t>
-  </si>
-  <si>
-    <t>周一</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>trans0516</t>
-  </si>
-  <si>
-    <t>不能与默认域名相同</t>
-  </si>
-  <si>
-    <t>Cannot be the same as the default domain name</t>
-  </si>
-  <si>
-    <t>trans0517</t>
-  </si>
-  <si>
-    <t>开启时长</t>
-  </si>
-  <si>
-    <t>Opening duration</t>
-  </si>
-  <si>
-    <t>trans0518</t>
-  </si>
-  <si>
-    <t>Bridge（AP）模式切换到路由模式后，推荐通过%s页面管理本设备</t>
-  </si>
-  <si>
-    <t>After switching from bridge mode to router mode, it is recommended to enter the WEB through IP %s for management.</t>
-  </si>
-  <si>
-    <t>trans0519</t>
-  </si>
-  <si>
-    <t>5G Wi-Fi</t>
-  </si>
-  <si>
-    <t>trans0520</t>
-  </si>
-  <si>
-    <t>5G Wi-Fi 信道</t>
-  </si>
-  <si>
-    <t>5G Wi-Fi channels</t>
-  </si>
-  <si>
-    <t>trans0521</t>
-  </si>
-  <si>
-    <t>若要使用Mesh功能，推荐将 Wi-Fi 安全模式设置为 %s</t>
-  </si>
-  <si>
-    <t>To use the Mesh function, please set the Wi-Fi security mode to %s</t>
-  </si>
-  <si>
-    <t>trans0522</t>
-  </si>
-  <si>
-    <t>剩余时间</t>
-  </si>
-  <si>
-    <t>Remaining time</t>
-  </si>
-  <si>
-    <t>trans0523</t>
-  </si>
-  <si>
-    <t>1 秒 | {val} 秒</t>
-  </si>
-  <si>
-    <t>1 second | {val} seconds</t>
-  </si>
-  <si>
-    <t>trans0524</t>
-  </si>
-  <si>
-    <t>时间范围</t>
-  </si>
-  <si>
-    <t>Time Range</t>
-  </si>
-  <si>
-    <t>trans0525</t>
-  </si>
-  <si>
-    <t>周二</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>trans0526</t>
-  </si>
-  <si>
-    <t>周三</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>trans0527</t>
-  </si>
-  <si>
-    <t>周四</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>trans0528</t>
-  </si>
-  <si>
-    <t>有效寿命应大于首选寿命</t>
-  </si>
-  <si>
-    <t>Valid Lifetime should be greater than Preferred Lifetime</t>
-  </si>
-  <si>
-    <t>trans0529</t>
-  </si>
-  <si>
-    <t>Wi-Fi 高级设置</t>
-  </si>
-  <si>
-    <t>Wi-Fi advanced settings</t>
-  </si>
-  <si>
-    <t>trans0530</t>
-  </si>
-  <si>
-    <t>访客 Wi-Fi</t>
-  </si>
-  <si>
-    <t>Guest Wi-Fi</t>
-  </si>
-  <si>
-    <t>trans0531</t>
-  </si>
-  <si>
-    <t>正在检查上网类型，请稍候......</t>
-  </si>
-  <si>
-    <t>Checking the internet access mode, please wait...</t>
-  </si>
-  <si>
-    <t>trans0532</t>
-  </si>
-  <si>
-    <t>未检测到您的上网类型，请确认已用网线连接网关的LAN口和路由器的任意以太网口</t>
-  </si>
-  <si>
-    <t>Your Internet access type was not detected,Make sure you have connected the LAN port of the gateway and any ethernet port of the router with a ethernet cable</t>
-  </si>
-  <si>
-    <t>trans0533</t>
-  </si>
-  <si>
-    <t>网线已连接</t>
-  </si>
-  <si>
-    <t>Ethernet cable connected</t>
-  </si>
-  <si>
-    <t>trans0534</t>
-  </si>
-  <si>
-    <t>请确认路由器已连接至上级设备或网关</t>
-  </si>
-  <si>
-    <t>Please confirm that the router is connected to the upper level device or the gateway</t>
-  </si>
-  <si>
-    <t>trans0535</t>
-  </si>
-  <si>
-    <t>客人 Wi-Fi 名称</t>
-  </si>
-  <si>
-    <t>Guest SSID</t>
-  </si>
-  <si>
-    <t>trans0536</t>
-  </si>
-  <si>
-    <t>加密</t>
-  </si>
-  <si>
-    <t>Encryption</t>
-  </si>
-  <si>
-    <t>trans0537</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>trans0538</t>
-  </si>
-  <si>
-    <t>Wi-Fi 已关闭</t>
-  </si>
-  <si>
-    <t>The Wi-Fi is disabled</t>
-  </si>
-  <si>
-    <t>trans0539</t>
-  </si>
-  <si>
-    <t>基本信息</t>
-  </si>
-  <si>
-    <t>Basic Information</t>
-  </si>
-  <si>
-    <t>trans0540</t>
-  </si>
-  <si>
-    <t>产品型号</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>trans0541</t>
-  </si>
-  <si>
-    <t>序列号</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>trans0542</t>
-  </si>
-  <si>
-    <t>硬件版本</t>
-  </si>
-  <si>
-    <t>Hardware Version</t>
-  </si>
-  <si>
-    <t>trans0543</t>
-  </si>
-  <si>
-    <t>软件版本</t>
-  </si>
-  <si>
-    <t>Software Version</t>
-  </si>
-  <si>
-    <t>trans0544</t>
-  </si>
-  <si>
-    <t>%s 基础网络</t>
-  </si>
-  <si>
-    <t>%s Basic Network</t>
-  </si>
-  <si>
-    <t>trans0545</t>
-  </si>
-  <si>
-    <t>WAN MAC 地址</t>
-  </si>
-  <si>
-    <t>WAN MAC Address</t>
-  </si>
-  <si>
-    <t>trans0546</t>
-  </si>
-  <si>
-    <t>语音基础</t>
-  </si>
-  <si>
-    <t>VoIP Basic</t>
-  </si>
-  <si>
-    <t>trans0547</t>
-  </si>
-  <si>
-    <t>LAN Link-Local 地址设置</t>
-  </si>
-  <si>
-    <t>LAN Link-Local Address Settings</t>
-  </si>
-  <si>
-    <t>trans0548</t>
-  </si>
-  <si>
-    <t>默认网关</t>
-  </si>
-  <si>
-    <t>Default Gateway</t>
-  </si>
-  <si>
-    <t>trans0549</t>
-  </si>
-  <si>
-    <t>LAN 侧前缀</t>
-  </si>
-  <si>
-    <t>LAN Prefix</t>
-  </si>
-  <si>
-    <t>trans0550</t>
-  </si>
-  <si>
-    <t>LAN Link-Local 地址</t>
-  </si>
-  <si>
-    <t>LAN Link-Local Address</t>
-  </si>
-  <si>
-    <t>trans0551</t>
-  </si>
-  <si>
-    <t>WAN Link-Local 地址</t>
-  </si>
-  <si>
-    <t>WAN Link-Local Address</t>
-  </si>
-  <si>
-    <t>trans0552</t>
-  </si>
-  <si>
-    <t>IPv6 功能未启用</t>
-  </si>
-  <si>
-    <t>The ipv6 function is disabled</t>
-  </si>
-  <si>
-    <t>trans0553</t>
-  </si>
-  <si>
-    <t>网络诊断</t>
-  </si>
-  <si>
-    <t>Internet Diagnose</t>
-  </si>
-  <si>
-    <t>trans0554</t>
-  </si>
-  <si>
-    <t>Ping 测试</t>
-  </si>
-  <si>
-    <t>Ping Test</t>
-  </si>
-  <si>
-    <t>trans0555</t>
-  </si>
-  <si>
-    <t>重复</t>
-  </si>
-  <si>
-    <t>Repeat</t>
-  </si>
-  <si>
-    <t>trans0556</t>
-  </si>
-  <si>
-    <t>目的地址</t>
   </si>
   <si>
     <t>trans0557</t>
@@ -8506,6 +8506,12 @@
   </si>
   <si>
     <t>trans0947</t>
+  </si>
+  <si>
+    <t>帮助</t>
+  </si>
+  <si>
+    <t>Help</t>
   </si>
   <si>
     <t>trans0948</t>
@@ -12781,10 +12787,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -13993,10 +13999,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14005,10 +14011,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -16201,10 +16207,10 @@
         <v>1737</v>
       </c>
       <c r="B556" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C556" s="10" t="s">
         <v>1738</v>
-      </c>
-      <c r="C556" s="10" t="s">
-        <v>497</v>
       </c>
       <c r="D556" s="6" t="s"/>
     </row>
@@ -20896,13 +20902,17 @@
       <c r="A947" s="4" t="s">
         <v>2829</v>
       </c>
-      <c r="B947" s="10" t="s"/>
-      <c r="C947" s="10" t="s"/>
+      <c r="B947" s="10" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C947" s="10" t="s">
+        <v>2831</v>
+      </c>
       <c r="D947" s="6" t="s"/>
     </row>
     <row r="948" spans="1:4">
       <c r="A948" s="4" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="B948" s="10" t="s"/>
       <c r="C948" s="10" t="s"/>
@@ -20910,7 +20920,7 @@
     </row>
     <row r="949" spans="1:4">
       <c r="A949" s="4" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="B949" s="10" t="s"/>
       <c r="C949" s="10" t="s"/>
@@ -20918,7 +20928,7 @@
     </row>
     <row r="950" spans="1:4">
       <c r="A950" s="4" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="B950" s="10" t="s"/>
       <c r="C950" s="10" t="s"/>
@@ -20926,7 +20936,7 @@
     </row>
     <row r="951" spans="1:4">
       <c r="A951" s="4" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="B951" s="10" t="s"/>
       <c r="C951" s="10" t="s"/>
@@ -20934,7 +20944,7 @@
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="4" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="B952" s="10" t="s"/>
       <c r="C952" s="10" t="s"/>
@@ -20942,7 +20952,7 @@
     </row>
     <row r="953" spans="1:4">
       <c r="A953" s="4" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="B953" s="10" t="s"/>
       <c r="C953" s="10" t="s"/>
@@ -20950,7 +20960,7 @@
     </row>
     <row r="954" spans="1:4">
       <c r="A954" s="4" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="B954" s="10" t="s"/>
       <c r="C954" s="10" t="s"/>
@@ -20958,7 +20968,7 @@
     </row>
     <row r="955" spans="1:4">
       <c r="A955" s="4" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="B955" s="10" t="s"/>
       <c r="C955" s="10" t="s"/>
@@ -20966,7 +20976,7 @@
     </row>
     <row r="956" spans="1:4">
       <c r="A956" s="4" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="B956" s="10" t="s"/>
       <c r="C956" s="10" t="s"/>
@@ -20974,7 +20984,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="4" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="B957" s="10" t="s"/>
       <c r="C957" s="10" t="s"/>
@@ -20982,7 +20992,7 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="4" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="B958" s="10" t="s"/>
       <c r="C958" s="10" t="s"/>
@@ -20990,7 +21000,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="4" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="B959" s="10" t="s"/>
       <c r="C959" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="2850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="2854">
   <si>
     <t/>
   </si>
@@ -8517,7 +8517,19 @@
     <t>trans0948</t>
   </si>
   <si>
+    <t>目录</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
     <t>trans0949</t>
+  </si>
+  <si>
+    <t>暂无目录</t>
+  </si>
+  <si>
+    <t>No Directory</t>
   </si>
   <si>
     <t>trans0950</t>
@@ -12787,10 +12799,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -13999,10 +14011,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14011,10 +14023,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -20914,21 +20926,29 @@
       <c r="A948" s="4" t="s">
         <v>2832</v>
       </c>
-      <c r="B948" s="10" t="s"/>
-      <c r="C948" s="10" t="s"/>
+      <c r="B948" s="10" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C948" s="10" t="s">
+        <v>2834</v>
+      </c>
       <c r="D948" s="6" t="s"/>
     </row>
     <row r="949" spans="1:4">
       <c r="A949" s="4" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B949" s="10" t="s"/>
-      <c r="C949" s="10" t="s"/>
+        <v>2835</v>
+      </c>
+      <c r="B949" s="10" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C949" s="10" t="s">
+        <v>2837</v>
+      </c>
       <c r="D949" s="6" t="s"/>
     </row>
     <row r="950" spans="1:4">
       <c r="A950" s="4" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="B950" s="10" t="s"/>
       <c r="C950" s="10" t="s"/>
@@ -20936,7 +20956,7 @@
     </row>
     <row r="951" spans="1:4">
       <c r="A951" s="4" t="s">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="B951" s="10" t="s"/>
       <c r="C951" s="10" t="s"/>
@@ -20944,7 +20964,7 @@
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="4" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="B952" s="10" t="s"/>
       <c r="C952" s="10" t="s"/>
@@ -20952,7 +20972,7 @@
     </row>
     <row r="953" spans="1:4">
       <c r="A953" s="4" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="B953" s="10" t="s"/>
       <c r="C953" s="10" t="s"/>
@@ -20960,7 +20980,7 @@
     </row>
     <row r="954" spans="1:4">
       <c r="A954" s="4" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="B954" s="10" t="s"/>
       <c r="C954" s="10" t="s"/>
@@ -20968,7 +20988,7 @@
     </row>
     <row r="955" spans="1:4">
       <c r="A955" s="4" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="B955" s="10" t="s"/>
       <c r="C955" s="10" t="s"/>
@@ -20976,7 +20996,7 @@
     </row>
     <row r="956" spans="1:4">
       <c r="A956" s="4" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="B956" s="10" t="s"/>
       <c r="C956" s="10" t="s"/>
@@ -20984,7 +21004,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="4" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="B957" s="10" t="s"/>
       <c r="C957" s="10" t="s"/>
@@ -20992,7 +21012,7 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="4" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="B958" s="10" t="s"/>
       <c r="C958" s="10" t="s"/>
@@ -21000,7 +21020,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="4" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="B959" s="10" t="s"/>
       <c r="C959" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="2854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="2858">
   <si>
     <t/>
   </si>
@@ -8535,7 +8535,19 @@
     <t>trans0950</t>
   </si>
   <si>
+    <t>打开目录</t>
+  </si>
+  <si>
+    <t>Open Directory</t>
+  </si>
+  <si>
     <t>trans0951</t>
+  </si>
+  <si>
+    <t>关闭目录</t>
+  </si>
+  <si>
+    <t>Close Directory</t>
   </si>
   <si>
     <t>trans0952</t>
@@ -12799,10 +12811,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -14011,10 +14023,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14023,10 +14035,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -20950,21 +20962,29 @@
       <c r="A950" s="4" t="s">
         <v>2838</v>
       </c>
-      <c r="B950" s="10" t="s"/>
-      <c r="C950" s="10" t="s"/>
+      <c r="B950" s="10" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C950" s="10" t="s">
+        <v>2840</v>
+      </c>
       <c r="D950" s="6" t="s"/>
     </row>
     <row r="951" spans="1:4">
       <c r="A951" s="4" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B951" s="10" t="s"/>
-      <c r="C951" s="10" t="s"/>
+        <v>2841</v>
+      </c>
+      <c r="B951" s="10" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C951" s="10" t="s">
+        <v>2843</v>
+      </c>
       <c r="D951" s="6" t="s"/>
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="4" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="B952" s="10" t="s"/>
       <c r="C952" s="10" t="s"/>
@@ -20972,7 +20992,7 @@
     </row>
     <row r="953" spans="1:4">
       <c r="A953" s="4" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="B953" s="10" t="s"/>
       <c r="C953" s="10" t="s"/>
@@ -20980,7 +21000,7 @@
     </row>
     <row r="954" spans="1:4">
       <c r="A954" s="4" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="B954" s="10" t="s"/>
       <c r="C954" s="10" t="s"/>
@@ -20988,7 +21008,7 @@
     </row>
     <row r="955" spans="1:4">
       <c r="A955" s="4" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="B955" s="10" t="s"/>
       <c r="C955" s="10" t="s"/>
@@ -20996,7 +21016,7 @@
     </row>
     <row r="956" spans="1:4">
       <c r="A956" s="4" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
       <c r="B956" s="10" t="s"/>
       <c r="C956" s="10" t="s"/>
@@ -21004,7 +21024,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="4" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="B957" s="10" t="s"/>
       <c r="C957" s="10" t="s"/>
@@ -21012,7 +21032,7 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="4" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="B958" s="10" t="s"/>
       <c r="C958" s="10" t="s"/>
@@ -21020,7 +21040,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="4" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="B959" s="10" t="s"/>
       <c r="C959" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -2786,7 +2786,7 @@
     <t>外部端口</t>
   </si>
   <si>
-    <t>External Port</t>
+    <t>WAN Port</t>
   </si>
   <si>
     <t>trans0274</t>
@@ -5960,7 +5960,7 @@
     <t>外部端口已使用</t>
   </si>
   <si>
-    <t>External port already used</t>
+    <t>WAN port already used</t>
   </si>
   <si>
     <t>trans0640</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="2858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="2860">
   <si>
     <t/>
   </si>
@@ -8551,6 +8551,12 @@
   </si>
   <si>
     <t>trans0952</t>
+  </si>
+  <si>
+    <t>VLAN 已经在 L2 中配置</t>
+  </si>
+  <si>
+    <t>VLAN already exists in layer2 configuration</t>
   </si>
   <si>
     <t>trans0953</t>
@@ -12811,10 +12817,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -14023,10 +14029,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14035,10 +14041,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -20986,13 +20992,17 @@
       <c r="A952" s="4" t="s">
         <v>2844</v>
       </c>
-      <c r="B952" s="10" t="s"/>
-      <c r="C952" s="10" t="s"/>
+      <c r="B952" s="10" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C952" s="10" t="s">
+        <v>2846</v>
+      </c>
       <c r="D952" s="6" t="s"/>
     </row>
     <row r="953" spans="1:4">
       <c r="A953" s="4" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="B953" s="10" t="s"/>
       <c r="C953" s="10" t="s"/>
@@ -21000,7 +21010,7 @@
     </row>
     <row r="954" spans="1:4">
       <c r="A954" s="4" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="B954" s="10" t="s"/>
       <c r="C954" s="10" t="s"/>
@@ -21008,7 +21018,7 @@
     </row>
     <row r="955" spans="1:4">
       <c r="A955" s="4" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="B955" s="10" t="s"/>
       <c r="C955" s="10" t="s"/>
@@ -21016,7 +21026,7 @@
     </row>
     <row r="956" spans="1:4">
       <c r="A956" s="4" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="B956" s="10" t="s"/>
       <c r="C956" s="10" t="s"/>
@@ -21024,7 +21034,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="4" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="B957" s="10" t="s"/>
       <c r="C957" s="10" t="s"/>
@@ -21032,7 +21042,7 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="4" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="B958" s="10" t="s"/>
       <c r="C958" s="10" t="s"/>
@@ -21040,7 +21050,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="4" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="B959" s="10" t="s"/>
       <c r="C959" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="2860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="2865">
   <si>
     <t/>
   </si>
@@ -8562,10 +8562,25 @@
     <t>trans0953</t>
   </si>
   <si>
+    <t>MLO</t>
+  </si>
+  <si>
     <t>trans0954</t>
   </si>
   <si>
+    <t>MLO 设置</t>
+  </si>
+  <si>
+    <t>MLO Settings</t>
+  </si>
+  <si>
     <t>trans0955</t>
+  </si>
+  <si>
+    <t>该功能仅在以下条件下生效：两个频段的无线名称和无线密码完全一致，且两个频段的工作模式均配置为 802.11be</t>
+  </si>
+  <si>
+    <t>This function can only take effect when the wireless names and wireless passwords of the two frequency bands are the same, and the operating modes of both bands are configured to 802.11be.</t>
   </si>
   <si>
     <t>trans0956</t>
@@ -12817,10 +12832,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2854</v>
+        <v>2859</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2855</v>
+        <v>2860</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -14029,10 +14044,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2856</v>
+        <v>2861</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2857</v>
+        <v>2862</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14041,10 +14056,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2858</v>
+        <v>2863</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2859</v>
+        <v>2864</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -21004,29 +21019,41 @@
       <c r="A953" s="4" t="s">
         <v>2847</v>
       </c>
-      <c r="B953" s="10" t="s"/>
-      <c r="C953" s="10" t="s"/>
+      <c r="B953" s="10" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C953" s="10" t="s">
+        <v>2848</v>
+      </c>
       <c r="D953" s="6" t="s"/>
     </row>
     <row r="954" spans="1:4">
       <c r="A954" s="4" t="s">
-        <v>2848</v>
-      </c>
-      <c r="B954" s="10" t="s"/>
-      <c r="C954" s="10" t="s"/>
+        <v>2849</v>
+      </c>
+      <c r="B954" s="10" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C954" s="10" t="s">
+        <v>2851</v>
+      </c>
       <c r="D954" s="6" t="s"/>
     </row>
     <row r="955" spans="1:4">
       <c r="A955" s="4" t="s">
-        <v>2849</v>
-      </c>
-      <c r="B955" s="10" t="s"/>
-      <c r="C955" s="10" t="s"/>
+        <v>2852</v>
+      </c>
+      <c r="B955" s="10" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C955" s="10" t="s">
+        <v>2854</v>
+      </c>
       <c r="D955" s="6" t="s"/>
     </row>
     <row r="956" spans="1:4">
       <c r="A956" s="4" t="s">
-        <v>2850</v>
+        <v>2855</v>
       </c>
       <c r="B956" s="10" t="s"/>
       <c r="C956" s="10" t="s"/>
@@ -21034,7 +21061,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="4" t="s">
-        <v>2851</v>
+        <v>2856</v>
       </c>
       <c r="B957" s="10" t="s"/>
       <c r="C957" s="10" t="s"/>
@@ -21042,7 +21069,7 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="4" t="s">
-        <v>2852</v>
+        <v>2857</v>
       </c>
       <c r="B958" s="10" t="s"/>
       <c r="C958" s="10" t="s"/>
@@ -21050,7 +21077,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="4" t="s">
-        <v>2853</v>
+        <v>2858</v>
       </c>
       <c r="B959" s="10" t="s"/>
       <c r="C959" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="2865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="2867">
   <si>
     <t/>
   </si>
@@ -8584,6 +8584,12 @@
   </si>
   <si>
     <t>trans0956</t>
+  </si>
+  <si>
+    <t>同步 5G 配置</t>
+  </si>
+  <si>
+    <t>Synchronize 5G Settings</t>
   </si>
   <si>
     <t>trans0957</t>
@@ -12832,10 +12838,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -14044,10 +14050,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14056,10 +14062,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -21055,13 +21061,17 @@
       <c r="A956" s="4" t="s">
         <v>2855</v>
       </c>
-      <c r="B956" s="10" t="s"/>
-      <c r="C956" s="10" t="s"/>
+      <c r="B956" s="10" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C956" s="10" t="s">
+        <v>2857</v>
+      </c>
       <c r="D956" s="6" t="s"/>
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="4" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="B957" s="10" t="s"/>
       <c r="C957" s="10" t="s"/>
@@ -21069,7 +21079,7 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="4" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="B958" s="10" t="s"/>
       <c r="C958" s="10" t="s"/>
@@ -21077,7 +21087,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="4" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="B959" s="10" t="s"/>
       <c r="C959" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="2867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="2869">
   <si>
     <t/>
   </si>
@@ -8593,6 +8593,12 @@
   </si>
   <si>
     <t>trans0957</t>
+  </si>
+  <si>
+    <t>%s 不能包含下列: %s</t>
+  </si>
+  <si>
+    <t>%s can‘t contain the following characters: %s</t>
   </si>
   <si>
     <t>trans0958</t>
@@ -12838,10 +12844,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -14050,10 +14056,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14062,10 +14068,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -21073,13 +21079,17 @@
       <c r="A957" s="4" t="s">
         <v>2858</v>
       </c>
-      <c r="B957" s="10" t="s"/>
-      <c r="C957" s="10" t="s"/>
+      <c r="B957" s="10" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C957" s="10" t="s">
+        <v>2860</v>
+      </c>
       <c r="D957" s="6" t="s"/>
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="4" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="B958" s="10" t="s"/>
       <c r="C958" s="10" t="s"/>
@@ -21087,7 +21097,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="4" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="B959" s="10" t="s"/>
       <c r="C959" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -8595,7 +8595,7 @@
     <t>trans0957</t>
   </si>
   <si>
-    <t>%s 不能包含下列: %s</t>
+    <t>%s不能包含下列: %s</t>
   </si>
   <si>
     <t>%s can‘t contain the following characters: %s</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -8595,7 +8595,7 @@
     <t>trans0957</t>
   </si>
   <si>
-    <t>%s不能包含下列: %s</t>
+    <t>%s不能包含下列字符: %s</t>
   </si>
   <si>
     <t>%s can‘t contain the following characters: %s</t>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="2869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="2871">
   <si>
     <t/>
   </si>
@@ -8602,6 +8602,12 @@
   </si>
   <si>
     <t>trans0958</t>
+  </si>
+  <si>
+    <t>留空表示所有地址</t>
+  </si>
+  <si>
+    <t>Leave blank for all address</t>
   </si>
   <si>
     <t>trans0959</t>
@@ -12844,10 +12850,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -14056,10 +14062,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14068,10 +14074,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -21091,13 +21097,17 @@
       <c r="A958" s="4" t="s">
         <v>2861</v>
       </c>
-      <c r="B958" s="10" t="s"/>
-      <c r="C958" s="10" t="s"/>
+      <c r="B958" s="10" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C958" s="10" t="s">
+        <v>2863</v>
+      </c>
       <c r="D958" s="6" t="s"/>
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="4" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="B959" s="10" t="s"/>
       <c r="C959" s="10" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -8,12 +8,12 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="2871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="2873">
   <si>
     <t/>
   </si>
@@ -8611,6 +8611,12 @@
   </si>
   <si>
     <t>trans0959</t>
+  </si>
+  <si>
+    <t>如果输入，格式为：</t>
+  </si>
+  <si>
+    <t>If input is provided, the format is: %s</t>
   </si>
   <si>
     <r>
@@ -12850,10 +12856,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -14062,10 +14068,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14074,10 +14080,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -21109,8 +21115,12 @@
       <c r="A959" s="4" t="s">
         <v>2864</v>
       </c>
-      <c r="B959" s="10" t="s"/>
-      <c r="C959" s="10" t="s"/>
+      <c r="B959" s="10" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C959" s="10" t="s">
+        <v>2866</v>
+      </c>
       <c r="D959" s="6" t="s"/>
     </row>
     <row r="960" spans="1:4">

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -8,12 +8,12 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="2873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="2885">
   <si>
     <t/>
   </si>
@@ -8617,6 +8617,42 @@
   </si>
   <si>
     <t>If input is provided, the format is: %s</t>
+  </si>
+  <si>
+    <t>trans0960</t>
+  </si>
+  <si>
+    <t>为了确保 Mesh 有效工作，请将安全模式设为 WPA2 &amp;&amp; CCMP</t>
+  </si>
+  <si>
+    <t>To ensure the mesh function works properly, please set the security mode to WPA2 &amp;&amp; CCMP.</t>
+  </si>
+  <si>
+    <t>trans0961</t>
+  </si>
+  <si>
+    <t>trans0962</t>
+  </si>
+  <si>
+    <t>trans0963</t>
+  </si>
+  <si>
+    <t>trans0964</t>
+  </si>
+  <si>
+    <t>trans0965</t>
+  </si>
+  <si>
+    <t>trans0966</t>
+  </si>
+  <si>
+    <t>trans0967</t>
+  </si>
+  <si>
+    <t>trans0968</t>
+  </si>
+  <si>
+    <t>trans0969</t>
   </si>
   <si>
     <r>
@@ -12856,10 +12892,10 @@
         <v>914</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>2867</v>
+        <v>2879</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2868</v>
+        <v>2880</v>
       </c>
       <c r="D271" s="6" t="s"/>
     </row>
@@ -14068,10 +14104,10 @@
         <v>1215</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>2869</v>
+        <v>2881</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>2870</v>
+        <v>2882</v>
       </c>
       <c r="D372" s="6" t="s"/>
     </row>
@@ -14080,10 +14116,10 @@
         <v>1216</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>2871</v>
+        <v>2883</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>2872</v>
+        <v>2884</v>
       </c>
       <c r="D373" s="6" t="s"/>
     </row>
@@ -21124,61 +21160,85 @@
       <c r="D959" s="6" t="s"/>
     </row>
     <row r="960" spans="1:4">
-      <c r="A960" s="4" t="s"/>
-      <c r="B960" s="10" t="s"/>
-      <c r="C960" s="10" t="s"/>
+      <c r="A960" s="4" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B960" s="10" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C960" s="10" t="s">
+        <v>2869</v>
+      </c>
       <c r="D960" s="6" t="s"/>
     </row>
     <row r="961" spans="1:4">
-      <c r="A961" s="4" t="s"/>
+      <c r="A961" s="4" t="s">
+        <v>2870</v>
+      </c>
       <c r="B961" s="10" t="s"/>
       <c r="C961" s="10" t="s"/>
       <c r="D961" s="6" t="s"/>
     </row>
     <row r="962" spans="1:4">
-      <c r="A962" s="4" t="s"/>
+      <c r="A962" s="4" t="s">
+        <v>2871</v>
+      </c>
       <c r="B962" s="10" t="s"/>
       <c r="C962" s="10" t="s"/>
       <c r="D962" s="6" t="s"/>
     </row>
     <row r="963" spans="1:4">
-      <c r="A963" s="4" t="s"/>
+      <c r="A963" s="4" t="s">
+        <v>2872</v>
+      </c>
       <c r="B963" s="10" t="s"/>
       <c r="C963" s="10" t="s"/>
       <c r="D963" s="6" t="s"/>
     </row>
     <row r="964" spans="1:4">
-      <c r="A964" s="4" t="s"/>
+      <c r="A964" s="4" t="s">
+        <v>2873</v>
+      </c>
       <c r="B964" s="10" t="s"/>
       <c r="C964" s="10" t="s"/>
       <c r="D964" s="6" t="s"/>
     </row>
     <row r="965" spans="1:4">
-      <c r="A965" s="4" t="s"/>
+      <c r="A965" s="4" t="s">
+        <v>2874</v>
+      </c>
       <c r="B965" s="10" t="s"/>
       <c r="C965" s="10" t="s"/>
       <c r="D965" s="6" t="s"/>
     </row>
     <row r="966" spans="1:4">
-      <c r="A966" s="4" t="s"/>
+      <c r="A966" s="4" t="s">
+        <v>2875</v>
+      </c>
       <c r="B966" s="10" t="s"/>
       <c r="C966" s="10" t="s"/>
       <c r="D966" s="6" t="s"/>
     </row>
     <row r="967" spans="1:4">
-      <c r="A967" s="4" t="s"/>
+      <c r="A967" s="4" t="s">
+        <v>2876</v>
+      </c>
       <c r="B967" s="10" t="s"/>
       <c r="C967" s="10" t="s"/>
       <c r="D967" s="6" t="s"/>
     </row>
     <row r="968" spans="1:4">
-      <c r="A968" s="4" t="s"/>
+      <c r="A968" s="4" t="s">
+        <v>2877</v>
+      </c>
       <c r="B968" s="10" t="s"/>
       <c r="C968" s="10" t="s"/>
       <c r="D968" s="6" t="s"/>
     </row>
     <row r="969" spans="1:4">
-      <c r="A969" s="4" t="s"/>
+      <c r="A969" s="4" t="s">
+        <v>2878</v>
+      </c>
       <c r="B969" s="10" t="s"/>
       <c r="C969" s="10" t="s"/>
       <c r="D969" s="6" t="s"/>

--- a/filt-os-i18n.xlsx
+++ b/filt-os-i18n.xlsx
@@ -582,7 +582,7 @@
     <t>trans0051</t>
   </si>
   <si>
-    <t>2.4G/5G</t>
+    <t>MLO(2.4G&amp;5G)</t>
   </si>
   <si>
     <t>trans0052</t>
